--- a/output/Total_time_range_data/吉林省/通化市_学习考察.xlsx
+++ b/output/Total_time_range_data/吉林省/通化市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6270 +436,6860 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>通化县英额布镇广泛推广林药间作种植模式全力打造林下产业新样板</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://jllc.jl.gov.cn/xxfb/xydt/jlyw/202304/t20230423_2925105.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为提高林地综合利用率，把生态效益转化为经济效益，通化县英额布镇积极响应县里号召，广泛推广林药间作种植新模式，经现场勘察，县林投公司在全镇国储林红松林地面积为779亩，除去坡度大、喷射草灌净等原因不适合种植的近249亩，剩余530余亩可适用于种植中草药材。', '自县里林药间作会议召开以来，镇党委、政府高度重视，多次召开党委会和机关干部、村书记动员大会，又将当地种植大会召集来召开动员和座谈会，共同研究确定种植项目。为了将政策宣传到位，以村为单位，包村领导、包村干部进行分片分组宣传，积极动员广大种植户和外来人员进行林药间作种植，让群众充分了解产业的经济效益，提高群众种植积极性。为了学习经验做法，镇党委、政府领导带领部分种植大户到辽宁省清源北药培训种植基地、桓仁等地进行了学习考察。', '目前全镇通过种植大户+域外投资方式已落实林药间作面积330亩，其中150亩将用于种植刺五加，80亩用于种植苍术，100亩用于种植黄精。现已种植完成刺五加150亩。（毛秀敏）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>52</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>县委副书记县长苏新杰赴山东省临沂市枣庄市微山县考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/tpxw/202309/t20230911_669901.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['9月9日至10日，县委副书记、县长苏新杰带队赴山东省临沂市、枣庄市、微山县考察，学习借鉴先进经验，奋力开创辉南高质量发展新局面。', '9月9日上午，苏新杰来到临沂市物流中心进行考察，通过实地参观、沟通交流等方式，全面深入了解临沂市近年来在物流产业发展方面的成就及经验做法。', '苏新杰表示，此次临沂调研之行获益匪浅，作为在全国具有重要影响力的物流产业发展高地，临沂市许多经验做法对辉南县发展现代高质量物流极具借鉴价值。要认真学习借鉴临沂的经验和做法，结合辉南实际，高水平谋划辉南物流产业发展蓝图。要加大资源整合融合，以建设专业市场为突破口，瞄准行业最高端，加快推进辉南物流产业转型升级，为辉南高质量发展作出更大贡献。', '9月9日下午，苏新杰来到了枣庄市山东小蚁电动科技有限公司，实地考察了公司的生产车间。在随后召开的座谈会上，苏新杰与公司董事长王朋、总经理张利民进行座谈。双方就企业与辉南合作的智车（吉林）智能科技有限公司项目进行了交流。', '苏新杰表示，要采取有力措施，加强沟通配合，形成工作合力，全力加快项目建设进度。相关部门要主动作为、积极对接，精准服务、有力保障，争取项目早落地、早见效。', '9月10日，苏新杰赶赴济宁市微山县考察学习，先后来到叙福堂中医院暨微山湖老年疗养中心二期项目、微山湖现代渔业产业园、微山岛镇乡村振兴示范片区吕蒙村等地，全面了解了微山县在医疗康养、水产养殖、乡村振兴等方面的一系列创新做法。', '苏新杰指出，要主动对标、认真思考，虚心学习微山的好经验、好做法，学到精髓、学以致用，全力以赴推动各项工作争创一流、争先进位。要进一步解放思想、创新思路，明确今后发展的新方向，切实增强跨越赶超的紧迫感和责任感。要取他山之石，谋辉南发展之策，围绕考察学习的成果，把“所看、所思、所悟”转化为具体行动，不断开创辉南高质量跨越式发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>52</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>通化县经开区聚焦主责主业提升产业能级推动园区高质量发展</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xz/202312/t20231214_683234.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['今年以来，通化县经开区紧紧围绕县委“三个争做，六个更加”发展思路，牢固树立“项目为王”理念，聚焦主责主业、创新开展工作，强化招大引强、优化营商环境、深化改革创新，奋力争当县高质量发展排头兵。', '经开区针对辖区内园区医药产业、食品加工和现代服务业齐头并进、新型业态发展壮大的产业发展特点，通过采取分类管理、提高效能、搞好服务等一系列措施，推动园区经济顺畅运行，总量不断提升。截至目前，区内落户各类企业236户，其中规模以上工业企业28户，限上企业4户。2022年在全省开发区综合考评中排名第12位。', '经开区坚持“走出去”和“引进来”相结合，由党工委班子成员带队前往省外进行招商引资考察学习，通过实地参观、座谈商洽、宣传推介等方式与当地5户企业全面深入接触、建立良好关系，为今后的招商引资工作奠定良好坚实基础。引进总投资1亿元的君合盟生物制药（通化）重组A型肉毒毒素生产车间建设项目和总投资1500万元的吉通药业建设项目。', '经开区始终突出规划引领，坚持项目优先。通化县中医药、生物制药建设项目所有建筑物主体工程已结束；通化人参电子商务产业园项目冷库建设已完成，共享工厂主体封顶，引进13户人参加工企业入驻人参产业园七期；通化聚鑫经济开发区通用设备制造及高技术园区建设项目已完成6栋标准化厂房、1栋办公楼、污水处理厂建设；国家三产融合示范园服务配套项目，3号楼和7号楼已完成；通化市冰雪户外公共服务设施建设项目已完工。', '经开区组织开展优化营商环境专项行动，制定《经开区营商环境建设投诉举报制度》《经开区营商环境责任追究制度》，推动干部作风进一步转变、责任进一步压实。同时主动靠前服务，协调帮助大家财产保险有限责任公司、辽宁兴胜防水材料科技发展有限公司通化县分公司办理统一社会信用代码证；每季度随机走访企业、九小场所等开展企业座谈会，提高企业获得用水、用电、用气、用热便利度，进一步优化经开区营商环境。', '下一步，通化县经开区将进一步以聚焦招商引资、优化营商环境、推进项目建设等方面为重要抓手，为经开区聚焦主责主业、推动高质量发展凝聚强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>52</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>二道江区秸秆变肉促进农民增收</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://agri.jl.gov.cn/xwfb/sxyw/202308/t20230816_8781792.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['今年以来，二道江区明确发展思路，夯实责任，坚持农牧循环理念，全力推进“秸秆变肉”工作。目前全区肉牛存栏达到4032头，比去年同期增长39.1%。新增肉牛规模场1家，肉牛养殖户达到335户。', '明确工作思路，压实工作责任。自全省“秸秆变肉”暨千万头肉牛工程启动以来，该区立即行动，成立了二道江区千万头肉牛工程领导小组，认真落实《通化市肉牛养殖“百日攻坚”行动方案》，细化分解肉牛产业发展目标任务，落实落细各项工作责任和具体要求，全力实施肉牛养殖攻坚行动。与此同时，先后到通化县在建的肉牛规模养殖场、辽宁鞍山方远牧业、延边州等地进行考察学习，明确“小规模大群体、精准扶持中小群体、着力推进规模化标准化养殖”的发展思路，形成小规模养殖与规模化养殖协调发展局面。', '坚持农牧循环，建立产业链条。围绕发展资源节约型、环境友好型肉牛产业，打造“种养殖+深 加工+冷 链物流+终端销售”的肉牛全产业链条。推进种养结合模式，坚持以地定畜，整合现有2.6万亩玉米及可利用土地资源，地产饲料能够满足新增1000头肉牛需求。推进产销一体化模式，积极谋划推进总投资1.432亿元的肉牛产业融合发展示范园项目，重点建设1000头规模化肉牛养殖场和容积1万吨的冷链仓储中心。在推进肉牛产业发展的同时，全力推进大型冷链仓储项目建设，该项目已申请政府专项债券1.14亿元，预计今年可完成项目建设。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>52</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>吴忠市红寺堡区人大调研中医药建设工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xz/202309/t20230917_671130.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['2023年9月13日，吴忠市红寺堡区人大常委会副主任王琳等一行5人莅临通化县中医院开展调研学习。', '调研中，由县中医院院长荆志栋就中医药建设情况进行了详细介绍，并就康复中心建设、名老中医工作室创建、中医药适宜技术推广中心建设、优势专科建设等情况开展了交流学习。', '通过此次调研学习工作，进一步建立了我县与吴忠市红寺堡区的双向考察学习交流机制，同时也为我县中医药建设工作发展积累了宝贵的经验。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>52</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>年市政协工作综述下</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/thdt/202401/t20240105_685416.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['2023年是全面贯彻落实中共二十大精神的开局之年，是实施“十四五”规划承上启下的关键之年。', '这一年，市政协及其常委会坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想，充分发挥专门协商机构优势作用，在建言资政和凝聚共识上双向发力，为我市全力“拼经济、拼发展”作出了积极贡献。', '着力释放新型政党制度效能。发挥人民政协在新型政党制度实践中的独特作用，积极为全市各民主党派、工商联、侨联和无党派人士履职创造条件。一年来，各党派团体参加政协各类履职活动300余人次，提出提案20件。', '着力深化社会各界团结联谊。加强与党外知识分子、非公有制经济人士、新的社会阶层人士联系沟通，做好少数民族界和宗教界委员学习考察、界别联系等工作，广泛团结“三胞”眷属，不断增进思想共识和行动力量。', '着力提升协同联动履职成效。积极参加省政协组织的赴外省学习调研活动，配合省政协高质量完成“促进房地产业平稳健康发展”“革命遗址遗迹保护和利用”等系列履职活动，与兄弟城市政协深化履职合作，加强市县两级政协协作联动，政协系统履职合力不断增强。', '以创新理念发展协商民主。坚持选题、调研、建言三管齐下，成功召开两次专题议政性常委会会议。创新政协基层协商，新建7处委员工作室，开展理论学习、座谈协商、政策宣讲等活动30余场次。推进“智慧政协”建设，网络协商、远程议政的基础功能全面达标。省政协主席朱国贤亲自调研市政协的经验作法并给予高度肯定。', '以务实作风担牢职责使命。全力参与第九届全国中医药发展与科学大会会务工作，为大会胜利召开、圆满成功作出应有贡献。积极投身全市重点专项工作。全面完成21户“双50”企业、25项各类重点项目、24名优秀专家人才、7个乡村振兴和村级党组织建设、7项中央和省生态环保督察反馈问题整改等包保服务任务。更好践行人民政协为人民，深化“我为群众办实事”活动，开展居家养老服务专题调研，认领“微心愿”、传递“心”温暖，邀请界别群众代表列席市政协常委会，努力把“民生清单”变为群众的“幸福账单”。', '以精品意识大兴调查研究。认真贯彻落实党中央和省委大兴调查研究的决策部署，践行“四下基层”要求，形成了19篇指导实践、推动工作的调研报告。', '打铁还需自身硬。市政协秉承改革思维、创新理念和严实要求，着力强化夯基固本工作，以自身建设新成效推动政协事业新发展。', '纵深推进全面从严治党。坚定不移推进党风廉政建设和反腐败斗争，组织召开首次全市政协党建和党风廉政建设工作会议。严格落实中央八项规定精神，持续纠治“四风”，贯彻执行“三重一大”决策制度，大力支持派驻纪检监察组履行监督职责，努力营造干部清正廉洁、委员正气充盈、机关风清气正的良好政治生态。', '多措并举提升工作品质。深入学习贯彻习近平文化思想，严格落实意识形态工作责任制，加强政协宣传思想工作，市政协微信公众号推送信息1620条，在《人民政协报》《协商新报》等省级以上媒体刊发宣传稿件38篇，市政协宣传工作得到省政协通报表扬。突出选题精准、分析深入、建议可行，提出林蛙油进入食药物质目录、加强鸭绿江野生鱼类资源保护等重点提案。“支持白鸡峰陨石坑后续勘探开发”“加强抗战革命文物保护与研究”等信息专报，得到市委市政府主要领导的肯定性批示。“关于加强‘四校一团’红色资源挖掘保护”信息专报和“保护利用通化火车站扇形库和转车台等工业遗址”调研信息为打造红色文化传承高地、活化利用工业遗存，发挥了文史工作鉴往知来、资政育人的独到作用。', '有力有效建强委员队伍。邀请省政协领导和省委党校专家教授，围绕学习贯彻新修订的政协章程和提高调查研究能力，对全体委员进行了2次系统培训。制定落实委员年度履职量化考核实施细则。组织开展优秀委员、优秀委员联络站和工作室评议工作，编辑制作优秀委员事迹读本，激励广大委员用实干实绩交好高质量履职作业。', '站在新的起点上，市政协及广大政协委员必将更加紧密地团结在以习近平同志为核心的中共中央周围，以实干为要、奋楫笃行，在中共通化市委的坚强领导下，坚定信心、勇毅前行，为在中国式现代化进程中奋力开创新时代通化绿色转型、全面振兴崭新篇章作出新的更大贡献。（夏珺）']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>通化县工业经济发展亮点纷呈</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202401/t20240118_686948.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['通化县2023年紧盯任务目标，稳抓经济运行监测，加强工业企业稳产增产的调度分析，深入企业调研，强化指标分析和任务分解，充分挖掘工业企业生产潜能。', '工业经济发展不断壮大。东宝胰岛素实现全系列产品全面覆盖，二代胰岛素快速放量，市场份额跃居国内第一，三代胰岛素渗透率持续攀升。东宝药业蝉联中国生物医药企业榜单20强；上榜2023年度华夏大健康ESG优秀企业；荣获2023中国上市公司投资价值“最具创新力奖”。携手科兴制药，合作开拓利拉鲁肽海外市场；与建友股份战略合作，进军美国胰岛素市场。胰岛素类似物海外注册工作稳步推进。安睿特与印尼、阿尔及利亚等国药企签署全球合作协议。白山、巨仁堂、汇金堂等企业发展步伐加快、华夏药业苦碟子注射液被列入国家重点新产品，获全省优秀民营企业称号。一洋作为国内人参精深加工销量最大的人参口服液制品企业之一，年销售额持续攀升。禾韵蓝莓持续领跑行业，万亩基地联农带农示范效应凸显，蓝莓浆果产品电商平台全网销量第一。通天酒业葡萄酒荣获CIWC多项金奖、雅罗白荣获IWGC银奖、被评为吉林省食品工业40年突出贡献企业。西江贡米荣获“第四届国际米食味品鉴大会中国赛区总决赛”金奖。三江海、佳亿、奥禾等鲜食玉米加工企业不断扩大规模，产值突破2亿元。四方山铁矿产品品位稳定，利税破亿。汇源、威龙、双龄等矿产企业矿赋存稳定，形成探、采、选完整的生产体系。吉恩镍业连续两年产销量超亿元。', '科技成果转化成效显著。通过科技项目申报、科技型企业认定、高端科技人才引进等方面措施，不仅推动科技成果的快速转化，更为通化县的工业发展注入了新的动力。成功申报10个吉林省科技发展计划项目，东宝药业“GLP-1/GLP双重受体激动剂”成功申报省科技厅揭榜挂帅项目，是通化市截至目前唯一一个成功获得支持的项目，这无疑为通化县的工业发展树立了新的里程碑。人胰岛素注射液上市许可申请获得欧洲药品管理局受理。可溶性甘精赖脯双胰岛素注射液德国Ⅰ期临床试验达到主要终点。口服降糖大品种恩格列净片、降糖减肥药利拉鲁肽注射液获批上市。两款痛风、高尿酸血症创新药临床进展迅速，依托考昔片申报生产获得受理；国产首个痛风双靶点抑制剂在2023年5月已完成I期临床试验首例受试者入组，有望成为同领域中最佳药物。安睿特完成白蛋白三期临床试验，进入批产阶段；国内三期临床试验入组超百例，50家临床试验医院半数以上实现了入组，进展情况符合预期效果。白山药业、康缘玉金等5户企业入选省级科技型中小企业。金汇药业、颐生药业、吉恩镍业被认定为国家级高新技术企业。吉通药业、振国药业被认定为省级“专精特新”中小企业。宏信研磨材入选第五批国家级专精特新“小巨人”企业，目前，全县国家级专精特新“小巨人”企业已达两户。省级“专精特新”企业达到9户。方舟医药科技的东北天南星种植基地被成功认定为省级优质道地药材科技示范基地。通天酒业、明旭中药材等企业与通化师范学院、长春中医药大学等院校达成10项“产学研”合作项目。通石、通天、禾韵、安睿特4户企业4名科技人才成功入围2023年吉林省企业“科创专员”，目前该县除冷春生被推荐为“百千万人才工程”国家级人选外，还培育了东宝药业“甘精胰岛素产业化关键技术的创新和应用”等9个高技术产业人才团队。全年争取扶持资金1300余万元。', '营商环境建设持续发力。深入开展“企业服务年”行动，助企纾困解难，增强企业发展信心。在重点项目建设方面，全力推动重点项目手续办理，解决项目建设难题。安睿特重组人白蛋白生产基地一期工程建设项目一期50吨白蛋白扩建工程进展顺利，设备安装完成，进入调试阶段。东宝生物制药工业互联网标识解析二级节点建设项目入选2023年省级工业产业链试点示范项目库；华夏药业异地搬迁建设项目入选2023年省级制造业智能化改造和数字化转型项目库。与此同时，进一步落实好推进职能转变的各项政策措施，不断优化营商环境，积极培育新的工业增长点。2023年，巨鑫建材、宇航商砼、嘉成石灰矿申报入规。协调全县金融机构为规上工业企业发放贷款7.8亿余元。组织全县40余名企业家赴浙江考察学习，成功举办第十三届通化县企业家节庆祝活动、2024年企业家新年联谊会。', '2024年，通化县将深入贯彻县委全委会议暨经济工作会议精神，全力做好工业经济运行监测、科技成果落地转化、重点项目建设等方面的工作。（佟贤）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>52</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>张家口市考察团到我市考察森林防火工作并举行座谈会</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/ldhd/sz/202310/t20231020_675649.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月17日-19 日，张家口市考察团到我市考察森林防火工作并举行座谈会。通化市委副书记、市长高山主持会议并讲话。张家口市委副书记、市长李克良出席会议并讲话。', '高山代表通化市委、市政府，对张家口市考察团的到来表示欢迎。他说，张家口是著名的塞外山城，近年来，张家口市推动经济社会发展的成效有目共睹。张家口和通化分处“塞外”和“关外”的地缘，赋予了两地承担重大战略的职责使命。当前，通化正在全面落实党的二十大精神和习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，深入实施吉林省“一主六双”高质量发展战略，按照“一个中心、四个跨入、五个突破”发展思路，加快将资源优势、产业优势转变成发展优势；同时通化积极践行“两山”理念，深入推进生态保护和开发相辅相成、相得益彰，为筑牢习近平总书记赋予东北的国家“五大安全”基石贡献力量。希望两地以本次考察交流为契机，进一步强化交流合作，互相学习，共同推进森林资源管护和生态文明建设，为经济社会高质量发展筑牢绿色生态屏障。', '李克良对通化市的精心安排表示衷心感谢。他说，通化市作为吉林省东南部重点林区，与张家口在河北省生态保护建设的定位很相似。这次考察学习，观摩演练、观看演示、察看内业、收获良多。张家口市将认真学习消化、全面对标对表通化市“八联”机制等成功经验做法，进一步健全完善森林草原防灭火制度机制和工作体系。林草和应急部门要与通化市兄弟部门持续深入对接沟通，全面系统梳理各项经验做法，尽快制定张家口市森林草原防灭火机制改革方案和培训方案，指导县区抓好学习借鉴和机制改革。', '会上，副市长周艳春介绍通化市森林防火情况。通化市林业局、应急局、森林消防大队，张家口市林草局、应急局、消防支队、国有林场管理处等单位作交流发言。', '在通期间，张家口市考察团一行先后来到辉南县、柳河县、通化县进行实地考察，详细了解我市森林防火工作等情况。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>52</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>高山看望慰问我市援藏干部人才</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/ldhd/sz/202309/t20230915_670923.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['9月12日，在吉林省党政代表团赴西藏学习考察期间，市委副书记、市长高山来到日喀则市吉隆县看望慰问通化市第三批援藏干部人才。高山强调，要深入学习贯彻习近平总书记在西藏考察时的重要讲话重要指示精神，以高质量的援藏工作助推吉隆县高质量发展。', '高山首先转达了市委书记孙简和家乡亲人对援藏干部人才的关心关爱和亲切问候，代表市委市政府表示慰问和敬意。', '在听取通化援藏工作队汇报和干部人才代表发言后，高山指出，对口支援是党和国家培养干部的重要平台，做好新时代援藏工作，援藏干部和各类人才责任重大、使命光荣。希望援藏同志全身心投入对口支援的崇高事业，不负韶华、不负时代、不辱使命。一要坚决扛起援藏工作的政治任务。对口援藏工作是国家战略，是实现西藏社会大局稳定的重要举措，要站在国家大局角度出发，把援藏工作作为义不容辞的重大政治任务，满怀深情援藏、担好责任援藏、昂扬斗志援藏，为吉隆县社会稳定和长治久安再做新贡献。二要协力推动经济社会发展。重点围绕吉隆县经济社会发展实际，持续加强吉隆与通化的交流合作，不断完善对口帮扶机制，开展经常性的沟通与交流，把我市的医药产业优势、文化资源优势、教育科技优势、农业特色优势、技术人才优势结合起来，充分挖掘两地资源禀赋和发展潜力，加快推进人才交流、产业援助、资金扶持等合作事项落地见效。三要不断加强援藏干部队伍自身建设。各位援藏干部要持续发扬“严新细实”工作作风，严守政治规矩和纪律要求，认真落实吉隆县各项工作部署，不断在援藏工作中磨炼意志、增长才干、提升能力，创造无愧于组织、无愧于时代、无愧于人生的工作业绩。', '最后，高山叮嘱援藏干部要合理安排好工作和生活，注意劳逸结合、饮食起居和身体健康。市委、市政府和家乡人民永远是援藏干部的坚强后盾，将一如既往地给予关心和支持，为援藏干部全身心投入工作创造更好条件。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>52</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>县政协赴抚松县考察学习人参产业发展</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/yw/202209/t20220908_628005.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为对标先进，学习域外县（市）在人参产业发展方面的先进经验，9月1日至2日，县政协党组副书记、常务副主席惠成轩带领县政协农业农村委主任、县农业农村局特产中心负责人、部分政协委员前往白山市抚松县，考察学习人参产业发展经验。抚松县政协副主席孙建明、抚松县政协农业农村委负责人陪同考察。 考察组一行实地考察了参王植保科技有限公司、吉林肽谷生物工程有限公司，详细了解人参种植、深加工、运营管理经验。', '参王植保科技有限公司，主要经营人参种植、良种繁育，并为人参种植业户提供持续创新的人参安全优质生产技术方案及其配套农业投入品供应服务。该公司先后获得20余项省部级科技成果，通过审定的人参新品种3个、西洋参新品种1个，并在生产上广泛应用。吉林肽谷生物工程有限公司，是一家专业致力于以植物肽、胶原蛋白肽为原料，集功能食品的研发、生产和销售于一体的大型高新技术企业，该企业研制的以人参为原料的人参肽产品通过吉林省新技术新产品鉴定，拥有自主知识产权，属国内首创。 随后，考察组来到万良人参鲜参交易市场进行观摩交流。该交易市场占地近4万平方米，建有交易中心、检测中心、追溯中心、人参报价中心、人参大数据中心及多媒体信息中心等，主要经营以人参为主的产品共200多种，近年市场总销售额超过65亿元，带动周边省、市、县10万多农户从事人参产业，是亚洲最大的人参贸易专业市场。 通过此次考察学习，考察组表示，抚松县人参产业发展上的好经验好做法值得学习，下一步将以此次考察学习为契机，持续深化交流合作，借鉴推进优秀经验，进一步促进我县人参产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>52</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>集安市考察团到辉南县考察城市建设工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/tpxw/202308/t20230803_666816.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月1日，集安市委副书记、市长赵俊鹏带领考察团到我县考察城市建设工作。县委副书记、县长苏新杰，县委副书记王策陪同考察。', '考察团一行先后来到内河上游水系调蓄建设工程现场、生态体育公园、爱国广场、检察院东停车场、人民公园等地，每到一处，考察团成员都认真看、仔细听、详细问，与相关负责人深入交流，详细了解我县老城区拆迁、城市更新、配套设施建设等情况，以及在城市建设工作中的先进经验和做法。', '赵俊鹏表示，辉南城市更新高起点定位、高标准规划，在精致城市打造方面成效显著。集安市会以这次考察学习为契机，认真学习借鉴好经验、好做法，以提升城市品质、增进民生福祉为目标，扎实做好城市规划建设，持续完善城市功能，着力建设生态、活力、宜居的品质之城，不断提升人民群众幸福感、获得感。', '苏新杰表示，近年来，辉南立足自身实际、凝聚发展共识，竭尽全力、用心用情增强民生福祉，干出了城市更新与品质提升的加速度和干部群众的精气神。希望双方加强沟通交流，相互促进、取长补短，不断改善城市环境，全面提升城市综合服务功能，共同搭建携手共进、互利互惠的友好平台，为两地经济社会高质量发展奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>52</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>集安市四维度深耕细作助力干部教育提质增效</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202310/t20231019_675496.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['近年来，集安市坚持以干部需求为导向，深入开展党的理论教育、党性教育、专业化能力培训，突出核心主线、宏观统筹、精准施训，高质量教育培训干部，着力打造一支堪当民族复兴重任的高素质专业化干部队伍。', '狠抓理论教育，明确要求“集中式学”。集安市突出理论教育和党性教育的主业主课地位，把学习贯彻习近平新时代中国特色社会主义思想作为首要政治任务。将党的二十大精神作为各类培训班次的“开班第一课”，举办集安市乡科级领导干部学习贯彻党的二十大精神集中轮训班等集中培训班2期，培训干部420余人次。旨在教育引导广大乡科级领导干部准确把握、深刻理解党的二十大提出的一系列新思想、新观点、新论断，把精神实质转化为工作任务、思路举措和精神动力。组织全市80名优秀中青年干部在集安市职业教育中心进行集中培训，帮助优秀中青年干部提升政治理论水平，加强党性修养，增强业务能力。', '创新方式方法，依托资源“坐下来讲”。集安市构建以市委党校为主的干部教育培训主阵地，抓好主体班次培训，切实发挥党校在干部教育培训中的“龙头”作用。全面挖掘盘活市域内红色教育资源，打造五女峰抗联遗址、榆林镇治安村东北抗联红色教育基地、清河长岗东北抗联老岭根据地等9处具有浓郁地方特色的红色教育基地。组织集安市优秀中青年培训班学员到下解放村红色基地开展集中培训，真正做到用精神武装头脑、指导实践、推动落实，教育激励广大青年干部凝心聚力、砥砺前行。', '统筹域外培训，拓宽视野“走出去看”。集安市有计划地组织干部到省内外高等院校和发达地区考察学习，通过学习先进地区的经验做法，增长见识、开阔视野。组织住建局等相关部门及部分优秀中青年干部60余人赴上海、成都、重庆等地，围绕城市规划建设、基层治理、乡村振兴等方面好的做法、经验和理念，探索适合我市发展的新思路和新举措，不断激发干部勇争一流的干事创业热情。组织政法委、乡村振兴服务中心等部门赴内蒙古兴安盟，围绕创新社会治理等方面进行学习，推动干部解放思想、转变观念，为加快建设中国最美边境城市注入新的生机和活力。', '补齐短板弱项，云端培训“网络中找”。集安市充分发挥新媒体普及性强等优势，全面打造线上云端课堂，依托“集安干教微课堂”等微信公众号，围绕党的二十大精神、乡村振兴等内容，推出《推动农村一二三产业融合发展全面推进乡村振兴》等70余条相关动态，实现全市70余个单位全覆盖，有效避免工学矛盾，切实提高培训实效。联合清华、北大等高校邀请专家、学者围绕乡村振兴等专题为党员干部开展培训，以网络直播授课的方式进行面对面授课，切实提升干部综合素质和能力。截至目前，共举办线上培训7期，全市70余个单位参与培训。（张维盛 孙靖然）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>52</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>东昌区成立养老协会</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202308/t20230809_667415.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为积极应对人口老龄化，规范养老服务市场秩序，更好地构建养老孝老敬老的社会环境，近日，东昌区养老协会成立大会召开，全区29家养老机构负责人及养老协会组织机构人员参加会议。', '会议介绍了协会基本情况、成立的必要性、组织架构，宣读了《东昌区养老协会章程》。协会成立后，将建立健全各项规章制度和管理流程，保证协会工作有序正常开展，充分挖掘协会的平台价值，做好政府部门的参谋和助手，助推东昌养老事业健康、高质量发展。协会将配合主管部门健全东昌区社会养老服务体系，积极开展相关业务培训及行业职业评估服务，为老年人提供养老、护理康复、旅游文化等多方面咨询服务；组织养老方面的学术交流、学习考察、工作经验总结分享等。', '协会还邀请东昌区消防救援大队工程师详细解读《养老机构消防安全管理规定》，从落实消防安全主体责任、规范场所安全设置、严格消防安全日常管理等方面进行讲解，进一步提升养老机构负责人服务与管理知识水平。', '养老协会的成立，将有力促进东昌区养老服务工作的交流和互动，代表和维护老年人的合法权益，不断推动全区养老事业发展壮大。（东轩）']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>52</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>县十八届人大常委会召开第九次会议</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/yw/202307/t20230710_664337.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月6日，县十八届人大常委会召开第九次会议。县人大常委会主任吴思志，副主任常远鑫、王雪岩、刘洪东、王延忠出席会议。县政府副县长韩奥，县监察委相关负责人，县人民法院院长邹秀芳，县人民检察院检察长曲昌文，以及县政府相关部门负责人列席会议。 会议听取了县政府关于2021年预算执行和其他财政收支情况审计发现问题整改情况、关于2023年财政收支预算安排具体说明、关于牧业小区运行情况、关于科技创新型企业高技术产品研发情况的报告；听取了县人大常委会关于赴福建省学习考察民宿产业发展情况的报告；听取了县人民法院诉源治理工作情况的报告。 会议还进行人事任免。吴思志为新任命同志颁发任命书，新任命同志向宪法进行了宣誓。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>52</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>孙简会见布尔津县领导并看望慰问我市援疆干部人才</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/ldhd/sj/202309/t20230902_668754.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['9月1日，在参加吉林省党政代表团赴新疆学习考察期间，市委书记孙简会见了布尔津县委书记胡强，并看望慰问了通化市第三批援疆干部人才。孙简强调，要深入贯彻习近平总书记关于新疆工作的重要论述，特别是习近平总书记8月26日关于新疆工作的重要讲话精神，以高质量援疆工作支持布尔津高质量发展。', '孙简首先转达了省委书记景俊海对通化援疆干部人才的亲切问候和关心关爱，并代表通化市委市政府向我市援疆干部人才表示慰问和敬意。', '在听取吉林省对口支援新疆工作前方指挥部布尔津县分指挥部工作汇报后，孙简指出，做好对口支援布尔津县工作，是我们义不容辞的责任。一要在熟悉了解当地风俗习惯上争当表率，以更加积极主动姿态融入当地生产生活。二要在正面宣传上下足功夫，广泛宣传我市援疆成果和援疆干部人才感人事迹。三要在增进民生福祉上持续用力，有效改善各族群众生产生活条件。四要在发展产业上务实推进，重点在冰雪产业、医药健康等领域开展深度合作。五要在交往交流交融上走深走实，在通化、布尔津两地组织开展各类活动，增进了解，加深感情。', '胡强向通化市长期以来对布尔津县的关心支持表示感谢。他说，通化持续深化对口援疆工作，特别是援疆干部人才发挥了中流砥柱作用，对口支援工作取得了实实在在的成效。希望两地继续推进各领域务实合作，共同谱写对口支援崭新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>52</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>二密镇外出取鹅经谋划养殖促振兴</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202307/t20230714_665066.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['7月6日，二密镇为学习借鉴村集体经济先进发展经验，拓宽镇内村集体经济发展思路，二密镇人大主席，组织委员带队，组织镇内各村党组织书记及村内致富带头人，一行13人赴快大茂镇龙泉村养鹅厂就如何发展强大乡村集体经济进行了实地考察。', '考察组一行到龙泉村实地查看并详细了解养鹅技术和鹅类品种。龙泉村成立通化县龙泉养鹅专业股份合作社，主要养殖鹅品种为三花品种，全年计划养殖两批肉鹅，每批3500只左右，预计年底可增加村集体收入50万元。目前，经过工作人员的精心喂养，第一批肉鹅已出栏。', '在考察中了解到，项目初期，龙泉村多次到德惠、大庆等地学习养鹅技术，不断衡量市场的大情况，不沿袭保守，敢为人先，超前经营，在实践的摸爬滚打中，结合实践，因地制宜，走出了一条生产发展，脱贫致富的新路子。', '经过此次考察学习，二密镇将认真学习借鉴龙泉村养鹅厂的成功经验，结合镇情和村情，学习养殖购销等方面经验，以培养养殖大户、致富能手为重点，带动好、联系好养殖户，促进二密镇养殖业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>52</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>福民街道赴长春市学习考察社工站建设工作</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-09-21</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202209/t20220921_8580948.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为进一步提高基层治理水平，加强社会工作者队伍建设，提升服务能力，福民街道党工委书记张丹带队赴长春师范大学、长春市团山街道长山花园社区、净月街道丰裕社区等地学习考察社工站建设相关工作。', '考察团首先来到团山街道长山花园社区，走进吴亚琴工作室、党建工作室、红马甲道德银行等处，实地了解党建引领社区治理工作情况，学习社区为民服务先进理念，详细了解社工站统筹资源、整合力量，加强为老为小服务，推进社会工作者队伍职业化专业化建设，社区治理“三四六工作法”“吴亚琴社区工作法”等工作方式。', '随后，考察团来到长春师范大学，并在净月街道丰裕社区召开“伙伴式同行 助基层善治”工作座谈会。会上，长春师范大学社会工作教研室主任、吉林省社会学教学指导委员会委员祝坤、长春师范大学社会工作专业教师、吉林省民政厅乡镇（街道）社工站督导刘赛特对构建内控规范、工作赋能、专业服务三级社工服务体系的“3X3X3”社工伙伴模式进行了详细讲解，与会人员围绕社工站阵地建设、队伍建设等方面进行了深入交流。', '本次考察学习拓宽了福民街道社工站建设及运营管理方面的思路和视野，下一步，街道将以本次考察学习为契机，一是要与长春师范大学开展对口帮扶，根据《吉林省民政厅关于印发&lt;吉林省乡镇（街道）社会工作服务站设立工作方案&gt;的通知》要求，对社工站开展专业化建设，进行项目化推进，通过对口帮扶、跨域联建等形式，实现成熟经验的复制孵化。二是要着力组建专业的社会工作志愿者资源库，采取项目外包的形式，对居民百姓的生产生活所需，提供点单式服务，探索社工站的盈利模式，更好地打造服务百姓民生、融入百姓生活的服务型社工站。三是要依托长春师范大学师资力量，签署共建协议，在社工师岗前培训、社区管理与服务、社会化项目承接等方面，实现互利共建、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>快大茂镇系列活动提振乡村振兴活力</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202308/t20230804_667092.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为切实提高快大茂镇各级党组织凝聚力、战斗力、号召力，增强镇域党员荣誉感、责任感、使命感，筑牢宗旨意识，强化党性修养，快大茂镇以“提升党性修养、加强组织活力”为主题，开展系列活动。', '开展专题学习，营造浓厚氛围。结合“书记讲党课”活动，组织党员集中学习，讲解党的理论知识、回应党员普遍关心地问题，内容紧扣时代主题和党员思想工作实际。组织党员研读讨论党的二十大报告、党章、《习近平著作选读》等学习资料，推动参学党员全面系统把握习近平新时代中国特色社会主义思想的核心要义、精神实质、丰富内涵、实践要求，切实提高快大茂镇党员队伍政治判断力、政治领悟力、政治执行力。', '外出考察调研，传承红色精神。各党支部组织在村党员开展外出学习考察，到丹东市抗美援朝纪念馆、临江市四保临江战役纪念馆、通化市杨靖宇干部学院等红色教育基地走访参观，感受中国共产党的奋斗历程，深入了解党的发展历程和高尚精神，传承伟大建党精神、抗美援朝精神等激人奋进的红色精神，切实增强党员队伍的党性觉悟和爱国意识，进一步激发农村党员发挥引领作用，参与农村各项工作的积极性。', '颁发50年党龄纪念章，赓续红色血脉。举行“光荣在党50年”纪念章颁发仪式，邀请老党员向与会党员讲述“红色故事”，分享个人经历，同时，由老党员领誓，开展重温入党誓词活动，带动党员学习红色事迹和奉献精神，加强自我要求，牢牢接好老党员传递的“接力棒”，在新时代基层建设工作中建功立业、展现风采。', '下一步，快大茂镇将始终坚持以习近平新时代中国特色社会主义思想为指导，鼓舞勇气、找出差距、明确责任，在新时代乡村振兴的道路上行稳致远。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>52</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>以学习促提升以交流促落实梅河口市医疗保障局赴广东揭阳市考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202308/t20230817_8782579.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['以学习促提升，以交流促落实--梅河口市医疗保障局赴广东揭阳市考察学习-梅河口市人民政府', '为贯彻落实《关于印发吉林省DRG/DIP支付方式改革三年行动计划的通知》、《关于印发〈吉林省医疗保障局2023年度DRG/DIP付费改革工作推进方案〉的通知》和年度重点工作安排，加速推进我市DIP支付方式改革，建立高效管用的医保支付机制，经请示梅河口市委市政府批准，于8月7日至10日赴广东省揭阳市学习考察当地DIP支付方式改革的经验做法。', '深入座谈交流，积极探讨两地成熟做法。实地考察，与揭阳市医保局领导和相关专家进行深入座谈交流。揭阳市医保局党组成员、三级调研员钟少贞同志及相关业务人员就揭阳市DIP支付方式改革具体情况、DIP病种分值库构建情况做详细介绍。双方重点围绕DIP支付方式实施细则、DIP病种分值库、医院管理等方面进行深入交流，并针对工作中发现的难点热点问题，为探索合理落地方式方法做了深入的探讨。', '实地踏查学习，汲取经办机构实操经验。强化医保信息系统建设、深入了解DIP月预结算和年度清算流程及具体操作；听取揭阳市人民医院落实医保政策和DIP改革的经验做法，及广东中山大学附属第一医院医保部主任马路宁教授介绍DIP在医院管理的应用。', '坚定改革信念、持续推进DIP按期落实。通过交流学习，进一步凝聚改革共识、明晰改革思路、坚定改革信心，为我市如期实现DIP实际付费奠定坚实基础。下步我市将加快完善DIP病种分值库，督促定点医疗机构开展医保精细化管理，促进定点医疗机构不断规范诊疗服务行为，持续减轻参保群众医药费用负担，尽早实现医、患、保三方共赢。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>考察学习拓思路学思践悟助提升解放街道赴长春考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202310/t20231013_8812473.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为进一步强化基层党组织党建引领作用，提升社区基层治理能力和水平，10月11日，解放街道赴长春开展考察学习，街道领导班子成员、各社区党委书记、街道党建办及社区管理办工作人员共16人参加考察。', '走进历史悠久的长影世纪村小区，小区内社区居委会、业主委员会、物业服务企业“三位一体”协调运行，长影世纪村国信物业积极作为，先后投入大量资金对小区内多处道路进行大量翻修，使路面变得平坦整洁，使小区面貌焕然一新。同时小区积极打造三处文化阵地，建设了党建文化广场、法治文化长廊和党史文化长廊，让全体业主重温红色经典，感悟红色氛围，感受服务温度，这种共建共治共享的理念给我街物业建设提供了宝贵的经验。', '步入眼帘的是种花苑美丽的楼栋文化区，参观人员实地查看了小区“一楼一主题、一单一特色”的墙体彩绘，听取小区党支部讲述为居民开通“红色WIFI”的暖心故事。接着前往文体活动区，参观人员走进小区活动室，实地感受小区“红烛之光·幸福学堂”的浓厚文化氛围。再步入联动共治区，参观人员在讲解员的带领下，参观红心亭、惠民广场、图书漂流箱、便民工具箱、儿童娱乐角，听取小区党支部开展的“惠民大集”活动情况介绍，学习了党建引领“幸福小区”新思路。', '来到重庆街道光明社区，讲解员细致地为参观人员讲解每一层的特色设计，一楼便民服务大厅通过“一网通办”终端为居民提供高效服务，二楼党史教育基地结合圣光殿科技手段生动展示了党的发展历程；三楼居民阅读书吧和心理辅导室为居民打造丰富的文化区域；四楼的社区党校和多媒体活动中心聚焦“学思想”为党员学习教育的充电赋能；最后步入地下韵享声乐厅和社区“幸福餐厅”，光明社区用暖心服务向我们展示了“党群服务+社区养老”的最后一公里。', '来到朝阳区永昌街道办事处，参观人员跟随讲解员细致的参观了各特色办公区域，逐一走进党群服务、便民服务、行政执法、综合治理4个基层治理平台，学深细悟党建引领幸福街区建设“五个一”工作法。在破解基层治理难题上，四楼基层治理数字化指挥室为大家展现了社区治理数字化操作，平台设有AI网格员识别常见问题，展示“街道-社区-网格”基层治理平台联合调度，为大家提供了学习智慧化基层治理新思路。', '走进朝阳区永昌街道“孔雀院”小区，映入眼帘的是干净亮丽的绿色环境，往日的核酸检测亭变成现今的网红打卡地，往日的老化路面变成平整的美丽的中式庭院，往日的小区平地变成了健身设施锻炼区，走进各单元楼内都是不同的宣传展示，永昌街道通过绿化、美化、亮化、彩化等多种方式，实现居民小区出门见绿、观赏见景，这种美丽小区融入自然与人文的建设经验，给大家留下了深刻的印象。', '通过此次参观学习，街道社区工作人员将以此次观摩为契机，结合日常工作实际，把好的经验做法深入融合到社区治理工作中来，打造社区品牌，使社区特色服务成为基层党建的一张亮丽名片，不断增强居民获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>52</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>深化对接促合作共享机遇谋发展</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/tpxw/zw/202404/t20240430_706873.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['4月29日，在参加吉林省党政代表团到陕西省学习考察活动期间，市委书记孙简分别会见了西安经济技术开发区管委会主任贾强、步长制药集团总裁赵超。', '会见西安经济技术开发区管委会主任贾强时，孙简表示，通化拥有独特的区位优势、生态优势、产业优势、营商环境优势，正在深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，按照省委、省政府部署要求，聚力打造医药健康、人参、文旅“三个千亿级”产业集群，加快推动通化绿色转型、全面振兴取得新突破。西安经开区产业特色鲜明、发展潜力巨大，尤其是生物医药产业集聚优势凸显。希望两地以此次活动为契机，围绕生物医药、新材料、装备制造等方面挖掘合作潜力，拓展合作空间，推动跨区域经济协同发展。贾强表示，希望与通化加强交流沟通、互学互鉴，着力打造一批极具辨识度的跨区域合作成果。', '按照省委、省政府部署要求，聚力打造医药健康、人参、文旅“三个千亿级”产业集群，加快推动通化绿色转型、全面振兴取得新突破。西安经开区产业特色鲜明、发展潜力巨大，尤其是生物医药产业集聚优势凸显。希望两地以此次活动为契机，围绕生物医药、新材料、装备制造等方面挖掘合作潜力，拓展合作空间，推动跨区域经济协同发展。', '会见步长制药集团总裁赵超时，双方就相关项目合作事宜进行了交流洽谈。孙简表示，通化将提供更优的营商环境、更有力的综合支持，让企业安心、放心地投资通化，更好实现互利共赢。赵超表示，将抢抓发展机遇，加强沟通交流，加快项目推进，为通化经济社会高质量发展作出积极贡献。', '提供更优的营商环境、更有力的综合支持，让企业安心、放心地投资通化，更好实现互利共赢。赵超']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>52</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>集安市多点发力推动干部教育培训提档升级</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-05-07</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202405/t20240507_707092.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['近年来，集安市认真贯彻落实新时代党的建设总要求和新时代党的组织路线，持续深化党的创新理论武装，不断拓宽培训渠道，切实增强干部教育培训的时代性、系统性、针对性、实效性。', '打破旧思维，提升新能力。按照“干什么学什么、缺什么补什么”的原则，打破传统封闭的教学模式，利用优质教学资源，积极拓宽干部教育培训渠道，邀请吉林杨靖宇干部学院、通化市委党校等专家教授和领导干部授课，围绕党的二十大精神、乡村振兴等10余个新课题解放干部思想，提升素质能力。以正在做的事情为中心，以领导干部最想学到的知识、最想破解的难题、最想掌握的技能为切入点，举办各类培训班7期，分层次、分系统、分专业精准开展专业化能力培训，全市乡科级领导干部、优秀中青年干部等640余人参与培训，做到干部教育培训与集安经济社会发展同频共振。', '摒弃旧传统，构建新模式。充分发挥新媒体普及性强、受众面广、传播性快的优势，依托“集安党建”“集安干教微课堂”等微信公众号，围绕党的二十大精神、乡村振兴、基层治理等内容，开设“党的二十大精神”等33个专栏。近年来，累计观看人数8000余人次。联合清华、北大等高校邀请中央党校马克思主义学院院长等20余名教授、学者，围绕《党的二十大精神解读——以中国式现代化全面推进中华民族的伟大复兴》等20余个专题开展培训，切实提升全市领导干部专业化能力水平。', '解开旧情结，树立新理念。有计划地组织干部到省内外高等院校和发达地区考察学习，加大“走出去”培训力度。组织新任职乡科级领导干部、优秀中青年干部等140余人，赴上海、重庆等地开展培训，通过学习先进地区的经验做法，增长见识、启迪思路、开阔视野。适当延长部分主体班次学制，采取组合培训方式，分党校（行政学院）和各类高等院校两层面，根据上级部署要求和集安市发展实际，与上海同济大学建筑与城市规划学院等10余个培训基地沟通对接，建立长效合作机制，加大异地教学力度。通过考察学习，切实开拓学员视野，明确工作方向，夯实教学内容的深度，不断激发干部勇争一流的干事创业热情。（闫峻铭）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>县委书记史秀明带队到通化市医药高新区吉林通化陆港经开区考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-05-22</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/tpxw/202405/t20240522_709313.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['5月20日，县委书记史秀明带队到通化市医药高新区、吉林通化陆港经开区考察学习。县委副书记、县长苏新杰，县领导陈立峰、郎丰庆参加考察。通化医药高新区党工委书记、管委会主任曲铎，吉林通化陆港经开区党工委书记、管委会主任王婧楠陪同考察。', '在通化医药高新区，考察团实地踏查了西区可利用地块，参观了人参产业数字化管理平台和张伯礼院士工作站，参加了“搭建共建共享平台 推动全市医药健康产业高质量发展”座谈会。', '史秀明表示，通化医药高新区是全国仅有的两个以医药冠名的国家级高新区之一，在政策、人才、医药品种、产业基础等方面具有明显优势，发展前景无比广阔。辉南将严格落实市委、市政府关于建立跨区域共建共享机制的决策部署，主动认领招商任务，大力引荐优质企业，合力把医药高新区建设成为全国医药健康产业创新驱动发展示范区和高质量发展先行区。', '在陆港经济开发区，考察团详细了解了化工产业园规划、建设情况。双方就园区资源优势、配套服务、招商方向和拟对接项目情况进行了细致交流。', '史秀明表示，建设化工产业园、探索“飞地经济”新模式，是市委、市政府打造高质量发展新引擎的务实举措。辉南将坚决做到“市委有部署、辉南见行动”，全力配合化工产业园开展工作，用活用好上海东方龙、青岛绿天使、上海大商汇等招商平台，积极对接一批医药化工、精细化工、化工新材料领域优质项目，助力化工园区集群化、数字化、高端化发展。', '通化市医药高新区、陆港经开区对辉南考察团一行的到来表示欢迎，希望双方进一步加强交流合作，为企业发展搭建更多平台、创造更好条件、提供更优服务，共同推进经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>52</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>和平街道四合社区参加中国电信通化分公司智慧社区项目签约仪式</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202407/t20240711_8933114.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为了提升社区管理和服务水平，为社区居民提供更加便捷、高效、贴心的服务，7月11日上午，受中国电信通化电信分公司邀请，和平街道党工委副书记朱晓红、和平街道四合社区党委书记李猛，到通化电信分公司对智慧社区项目进行考察学习，并签约。', '最后，朱晓红和李猛详细了解了智慧社区针对社区重点人群、网格管理、应急通知、智慧党建等工作的应用与提升，切实做到加强社区建设、提高居民生活品质后，李猛代表和平街道四合社区与中国电信通化分公司就智慧社区项目达成合作并进行签约。', '下一步，和平街道四合社区将正式组建智慧社区综合管理平台，通过数字化、网络化、智能化的改造和建设，为社区智能化管理赋能，致力成为梅河口市首个具备特殊人员智能管控、突发事件自动报警、数据智能生成的智慧型社区，不断满足辖区居民高品质生活需求，让社区更加和谐、服务更有温度，雷锋精神遍地开花。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>王爱明随吉林省党政代表团学习考察并开展经贸交流活动</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202405/t20240506_8904137.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['4月26日—30日，梅河新区党工委书记、市委书记王爱明随吉林省党政代表团到内蒙古自治区、四川省、陕西省开展学习考察活动，并与川陕两地知名企业开展经贸交流活动。', '在四川省成都市，王爱明会见了泸州老窖集团有限责任公司党委书记、董事长刘淼，围绕深化双方合作、加快项目建设事宜进行深入洽谈，并表示将全心全意为企业提供优质高效服务，全力推动在建项目早日投产，实现更高水平的互利共赢。刘淼表示，将充分发挥泸州老窖的品牌优势，加快项目建设，超前谋划运营，为泸州老窖品牌赋能，为梅河高质量发展助力。', '在陕西省西安市，王爱明会见了步长制药股份有限公司总裁赵超。王爱明表示，“十三五”以来，步长制药不断扩大在梅投资，积极拓展业务布局，梅河口成为步长制药重要的药品生产基地，步长制药成为梅河口经济发展的重要支撑。当前，梅河口正深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，按照省委、省政府关于构建“464”发展新格局的部署，全力推动医药产业转型升级。希望与步长制药在更多项目、更深领域开展合作，共同谱写共赢发展新篇章。', '赵超表示，梅河口具有良好的产业基础、丰富的自然资源、优质的营商环境，为双方深化合作奠定了坚实根基，将持续扩大在梅投资，加快推进重点项目建设和新品种落地，不断探索挖掘更多合作契合点，努力实现互利互惠、共赢发展。市委常委周君参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>52</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>孙简随吉林省党政代表团学习考察并开展系列经贸交流活动</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/ldhd/sj/202404/t20240430_706757.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['4月26日—28日，在参加吉林省党政代表团到内蒙古自治区、四川省学习考察活动期间，市委书记孙简先后与蒙川两地重点商会、知名企业开展经贸交流活动。', '在内蒙古自治区呼和浩特市，孙简会见了金河佑本生物制品有限公司总经理王家福，就合作项目进行深入洽谈，并表示将尽心竭力做好精准优质服务，为企业提供一流营商环境，实现更高水平互利共赢。王家福表示，将加快推进项目前期工作，力争项目早日落地实施，助力通化高质量发展。', '在四川省成都市，孙简首先与四川省吉林商会会长李树东及会员代表进行了工作会谈，随后会见了新希望集团有限公司常务副总裁兼首席运营官李建雄一行。孙简说，当前通化正深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，按照省委、省政府部署，全力打造医药健康、人参、文旅三大千亿级产业集群。希望各位企业家积极走进通化、寻找商机，在更多项目、更深领域开展合作，共同谱写共赢发展新篇章。企业家纷纷表示，通化良好的资源、环境为产业发展奠定了坚实基础，将进一步加强对接互动，深入挖掘更多合作契合点，努力实现互利互惠、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>52</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>黑山头镇为发展特色产业赴柳河县三源浦考察产业发展模式</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-04-13</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/202404/t20240415_8894287.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实市委、市政府“十百千万”和“双百”“双二百”工程部署，谋深做实产业发展文章，大力发展庭院冷棚经济，4月12日，黑山头镇党委、政府组织镇农业产业办公室、宝山村冷棚种植大户20余人赴柳河县三源浦镇草莓柿子产业园区开展草莓柿子种植考察学习，拟在宝山村打造草莓柿子种植专业村。', '首先，考察组在柳河县三源浦镇草莓柿子种植基地参观了草莓柿子大棚，详细了解草莓柿子种植产业的发展实况及取得的成功经验，并表示，黑山头镇宝山村具备种植条件，依托现有101亩冷棚和棚膜经济发展基础，种植草莓柿子为农业产业提质增效，着力打造庭院冷棚经济示范区，初步已有10余户种植大户达成合作意向。', '随后，考察组来到红石康乐现代产业园区，先后参观草莓基地和蓝龙虾养殖基地，充分了解蓝龙虾的养殖流程、消毒方法、市场销售等环节及草莓种植产业的生产模式、运营管理等情况。考察过程中，康乐现代产业园区负责人康勇善向我们详细介绍了产业经营模式及发展前景。成员们认真听、仔细看，边观摩、边交流。大家纷纷表示收获很大，在今后工作中将借鉴优秀工作理念与方法，结合黑山头镇本土特色，拓宽产业发展思路，壮大集体经济发展。', '经过实地考察和现场参观，下一步，黑山头镇将以此次活动为契机，学习借鉴周边地区产业发展的好经验、好做法，全面总结、吸收、转化学习成果，精心谋划产业发展布局，大力发展现代特色农业产业，奋力推进农业产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>52</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>我市项目建设集中攻坚行动鏖战正酣</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/thdt/202405/t20240516_708729.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['眼下，我市项目建设集中攻坚行动已全面铺开，围绕项目谋划、招商引资、资金争取、项目建设、破解难题五大方向精准发力，打通项目推进中的难点痛点堵点，加快项目投资进度，推动项目投产达效，持续为经济高质量发展积蓄新动能。', '以“建”为核心，千方百计加快重点项目建设进度。按照省“率先突破行动”目标要求，我市建立了在建项目清单、融资需求项目清单、入库入统项目清单等调度清单，做好项目全过程、全链条跟踪推进。截至目前，全市已开复工5000万元以上项目179个，开（复）工率80.1%。', '走进中溢集团（吉林）新能源科技有限公司年产30万吨锂离子电池负极材料项目二期工程现场，施工人员加班加点进行设备安装，“热辣滚烫”的建设场景，让人深刻感受到通化强劲的经济脉动。“该项目生产的负极材料主要应用于新能源汽车、3C消费电子和电力储能等领域的电池中，属于国家鼓励的新能源材料产业。目前，二期工程设备安装完成80%以上，预计10月份进行设备调试，年底能竣工投产。”中溢集团生产总监孟宪红介绍。', '高质量项目建设是高质量发展的重要引擎，突出培育新质生产力这个重点，一批带动作用强、示范效应好的优质项目正加速建设：总投资30亿元的通化安睿特生物制药股份有限公司重组人白蛋白产业园作为国家重大新药创制专项重点扶持项目，已完成多个重要工程节点，进入项目验证阶段，投产指日可待。通化人参全产业链数字化平台项目加快建设完善，一产平台预计今年5月底上线试运营，未来将建立人参全过程可追溯体系，通过数字赋能助力产业发展。二道江区鸭园镇冷水鱼养殖基地建设项目打造种养结合、农旅融合、产销一体的全产业链，一期工程预计今年7月份整体竣工，建成达产后，将有效助力乡村振兴发展。吉林通化陆港经济开发区天然气综合利用二期项目预计今年6月末投产，项目建成后可为山城居民、工业用户等提供长期稳定的资源保障和优质服务。同时，以“谋”为重点，千方百计提升项目谋划储备质量。围绕医药健康、人参、文旅“三个千亿级”产业集群和“若干百亿级”产业板块以及其他重点领域进行反复研究和论证，截至目前，我市共谋划项目637个，总投资1215.2亿元，其中5000万元以上项目346个。', '以省、市组织的经贸活动为契机，开展领导带头招商，精准对接与通化产业契合度高、符合“延链补链强链”定位的头部企业。在吉林省·北京市合作交流座谈会和吉林省招商引资座谈会上，我市总投资10亿元的以岭药业人参研发加工基地项目、总投资2.4亿元的林下参系列产品深加工产销合作及林下参文旅基地建设项目现场签约，并推进总投资18亿元的钰隆矿业高端大理岩石材等15个项目合作进程。在吉林省党政代表团到陕西省学习考察活动期间，通化医药高新区与西安经开区签订了战略合作框架协议，围绕生物医药、新材料、装备制造等方面开展深入合作。', '突出产业优势，开展平台招商。围绕“三个千亿级”、“若干百亿级”等重点产业优势，精准绘制产业链招商图谱。制定《通化市关于扩内需、促投资的激励措施》，更大力度引进域外资金。对接长三角、珠三角、京津冀等商会、协会产业链供应链平台，搭建县（市、区）和产业部门招商平台，提高招商效能。同时，以“争”为支撑，千方百计加大各类资金争取力度。围绕上级资金重点支持领域和方向，全力做到以最大精准度包装和申报项目，提高过审率，特别是在政府投资项目受限的环境下，将EOD和PPP新机制等政策摆在重要位置，为产业和基础设施建设谋求可持续发展新路。', '唯拼搏者进，唯实干者胜，唯担当者赢。全市上下坚持要素跟着项目走、一切围着项目转、一切聚焦项目干，以“解”为保障，千方百计破解项目建设堵点难点。', '持续优化环境，为项目审批提供坚实保障。市直相关部门坚持效率优先，采取限时审批、容缺审批、集中审批等有效方式，优化审批流程、缩短审批时限、提升审批效率，在立项、环评、用能等方面全方位发力、全链条攻坚，助推项目审批跑出“加速度”。2024年计划新开工5000万元以上项目共100个，截至目前，前期手续完成率74.8%。', '推动产业园区提质增效，医药高新区、陆港经开区“飞地经济”方案正式印发，并已开展对接工作。加快推进存量土地数字化超市建立工作，已完成“批而未供、闲置土地、低效用地”三类用地梳理，建立存量土地资源数据库。', '加快发展新质生产力，推动67个项目申报省2024年科技发展计划项目。成功申报2个省生物医药产业重大科技专项，益盛药业成功列入省第三批重大科技专项“揭榜挂帅”拟支持榜单。', '强化项目全流程服务，在市、县两级政务服务中心设立助企服务办公室，建立帮代办服务机制，提供政策、法律、金融、人才等增值服务。', '抓项目用心用力，推项目尽职尽责。经过攻坚和苦战，重点项目捷报频传：总投资8亿元的京东医药健康供应链产业基地项目开工建设；总投资5.5亿元的通化人参医药健康产业园项目开工建设；总投资4.5亿元的通钢烧结机脱硫脱硝项目开工建设……', '号角声声，战鼓阵阵。我市正以奋斗之姿努力在新一轮项目建设发展中抢占先机、赢得主动。（庄新岩）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>52</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>辽宁省西丰县考察团到辉南考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/zwdt/202404/t20240401_703622.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['3月29日，辽宁省西丰县委副书记、县长荣大煜，县人大常委会主任李晓波，县政协主席姜红梅带领考察团到辉南县考察农村人居环境整治、城市建设工作。', '考察团先后来到团林镇东胜村李家街屯，辉发城镇光辉村光辉新屯、北甸子新屯，朝阳镇垃圾中转站，楼街朝鲜族乡龙泉村关家店屯，城乡基层治理服务中心，东凤街道御龙社区，富强广场，建设大街与兴工路交汇处街头绿地，滨河公园，滨河体育场，朝阳镇大庙垃圾中转站等地进行实地考察学习，详细了解我县人居环境整治、城市建设等方面的先进经验和做法。每到一处，考察团成员都认真听、仔细看，并不时展开交流，共同探讨城乡发展路径，学习先进经验做法。', '史秀明对考察团一行的到来表示热烈欢迎。他表示，希望双方持续加强交流，学习借鉴好的经验和做法，实现优势互补，推动两地在农村人居环境整治和城市建设等方面实现新突破、见到新成效，共同推进两地经济社会高质量发展。', '考察团对我县农村人居环境整治、城市管理工作取得的成绩给予高度评价，并表示，将以此次考察为契机，将辉南的好经验、好做法与西丰实际相结合，拓宽工作思路，创新工作方法，加快补齐短板，进一步提升广大人民群众的获得感、幸福感和满意度。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>52</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>集安市公安局坚持以四立四破为抓手助力公安政务服务改革提质增效</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.jilinja.gov.cn/zwgk/zwdt/202407/t20240709_714332.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['集安市公安局充分发挥基层公安政务服务改革参与者、践行者、实践者作用，聚焦构建“一体三翼”公安政务服务新模式，坚持不立不破、先立后破原则，以“四立四破”为抓手，在通化地区率先完成“一门一窗通办”改革任务，公安政务服务效率实现质的飞跃。', '一、破除思想坚冰，树立担当之责，做好得民心的“政治活”。一是落实行动快。紧盯省厅节点要求，积极争取政数局支持，同步推进硬件软件、专业队伍、装备采买和制度机制等建设，从动议到改造完成仅用9天时间，高质量完成市政务服务中心公安政务服务专区建设。二是装备设施全。全面加强服务窗口建设和软硬件配套建设，新建公安政务服务专区办公面积达72平方米，设有业务办理区、自助填表区、群众等候区、人像采集室、制证室、更衣室“三区三室”，切实为群众办证提供良好服务环境。三是力量配备强。从户政、交管、出入境选派窗口工作经验丰富的21名民辅警入驻政务服务中心集中办公，通过轮岗培训、跟班实训等方式，全力培养“全科民警”和专职辅警，切实提升窗口服务质效。四是标准要求高。坚持“走出去”学习先进经验，推动服务中心高质量建设，组织民警专门赴杭州市公安局萧山分局学习考察公安政务服务中心建设运行、业务流程等先进经验做法，为全局政务服务改革提供经验参考和方法路径。', '二、破除常规模式，树立实干之风，做细解民忧的“具体活”。一是积极推动“一门通办”改革。全力推进公安行政权力事项进驻政务服务中心，在省厅要求进驻181项业务基础上，结合实际需求增加进驻业务事项，共进驻涉及7个警种213项业务。同时，将户政、交管等领域128项高频业务纳入派出所综合服务窗口，最大限度实现公安政务服务“一门通办”。二是积极推动“一窗通办”改革。按照“前台综合收件、后台分类审批、统一窗口出件”运行模式，科学设置公安政务服务窗口9个，加强对治安、户政、交管、出入境等领域高频业务培训力度，切实实现公安政务服务事项“一窗通办”。三是积极推动“一网通办”改革。依托吉林“互联网+公安”综合服务平台、“吉林公安”APP、“交管12123”“吉事办”等小程序，对涉及户政、出入境、交管等领域公安政务服务事项，在咨询、申请、受理、审批，以及证照制作、寄递、支付等环节全部上网办理，累计网上办理业务300余件，服务满意率100%。四是积极推动“一次就办”改革。推进材料不全事项“容缺办”，按照《全省公安机关政务服务容缺受理事项清单》要求，允许在主要材料具备、次要材料欠缺且符合法定情形情况下，企业群众作出规定时间内补齐相关材料的书面承诺后，对清单事项实行容缺受理，切实节约企业群众的办事时间和经济成本，累计提供“容缺办”服务32人次。', '三、破除服务短板，树立为民意识，做实纾民困的“实在活”。一是提供“上门办”服务。制定《集安市公安局“上门服务”工作规范》，成立上门服务工作队，公开上门服务专线，为年迈、患病等行动不便的居民办理公安政务服务事项提供“上门办理”“送证上门”等服务。今年以来，累计提供上门服务35次，办理证件43个。二是提供“延时办”服务。推出“早晚弹性办”“周末预约办”“假日正常办”和“特殊人群专场办”服务，为工作日因上班、上课等时间不方便的单位职工、企业群众、在校学生等人员开通绿色通道，切实解决群众“上班、上学没空办，下班、放学没处办”的难题，累计提供预约服务160余人次，开设办证专场2次。三是提供“巡回办”服务。常态化开展“流动车管所”上门服务活动，每周二定期组织检车机构、保险公司下乡办理检车业务，每年至少为各乡镇村屯至少提供4次上门检车服务，切实解决基层百姓“检车难”问题，累计上门检车2000余辆。四是提供“代理办”服务。建立代办代缴机制，组建由驻村民辅警、护边员等力量组成的代办组织，梳理代办代缴清单，明确代办职责、责任边界和服务内容，在企业集中区域实行项目全流程帮办代办，为偏远乡村群众和特殊群体提供代办代缴服务，切实打通服务企业、方便群众“最后一公里”，累计提供帮办代办服务300余人次。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>52</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>辉南县召开年城区绿化及公园停车场建设汇报会</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/zwdt/202303/t20230321_648508.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['会议听取了我县2023年绿化及公园停车场规划设计方案的汇报。与会领导和相关部门负责人对设计方案进行了研究讨论。孙维良就设计方案提出了修改意见。', '孙维良表示，城市规划设计事关城区长远发展、事关群众民生福祉。各相关部门要进一步提高认识，尊重规划的严肃性。要牢固树立精品意识。坚持高起点规划、高标准建设、精细化管理，以提升城市道路通行能力、改善城市面貌、美化城市环境为出发点，全力打造精品工程。要解放思想、转变思维，多走出去。通过学习考察不断开阔眼界、提升审美，努力提高规划设计的水平和品味，确保每个项目都经得起历史检验、承载得起未来发展。', '孙维良要求，要做好功能布局规划。进一步完善停车场规划设计方案，在满足群众停车需求的基础上，不断完善功能布局。要合理选配绿化树木。充分考虑移植存活率和后期管护成本，注重绿化层次、色彩搭配及视觉通透性，扮靓城区园林绿化风景线。要保持城区亮化设计的整体协调。营造干净、简洁、轻快、明亮的色彩氛围，全面提高城市品位，不断满足人民群众对美好生活的需求。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>52</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>年通化市人大常委会践行全过程人民民主综述</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/thdt/202401/t20240105_685419.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['坚守初心为人民，践行使命结硕果。2023年，市九届人大常委会在市委的坚强领导下，坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神，全面落实中央和省委、市委人大工作会议精神，牢牢把握高质量发展这个首要任务，扎实履行立法、监督、决定、任免等法定职责，积极践行和发展全过程人民民主，持续推动新时代通化人大工作创新发展，为通化经济社会高质量发展和民主法治建设作出了积极贡献。', '市人大常委会始终坚持以习近平新时代中国特色社会主义思想为指导，牢牢把握人大是党领导下的政治机关这一定位，深入学习贯彻习近平总书记关于坚持和完善人民代表大会制度的重要思想、习近平总书记重要讲话重要指示精神，扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，通过理论学习中心组学习会议、党组会议、读书班等形式，深学细悟习近平新时代中国特色社会主义思想的精髓要义、丰富内涵和贯穿其中的立场观点方法，深刻领悟“两个确立”的决定性意义，进一步树牢“四个意识”，坚定“四个自信”，做到“两个维护”，在学思践悟中不断提高政治判断力、政治领悟力、政治执行力。', '坚持党的领导、人民当家作主、依法治国有机统一，将党建工作和业务工作同谋划、同部署、同落实，构建常委会党组、机关党组（党委）、党支部、党小组“四位一体”抓党建组织架构，在大专门委员会、代表家站建立临时党组织，做到人大工作开展到哪里，党的建设就延伸到哪里。坚持党管干部原则与人大依法任免相统一，任免国家机关工作人员52人次，所有候选人均全票当选，确保党组织推荐的人选通过法定程序成为国家机关工作人员。', '坚持守正创新，不断加强市人大常委会自身建设。依据修改后的地方组织法和《中共中央关于新时代坚持和完善人民代表大会制度、加强和改进人大工作的意见》，研究制定代表大会议事规则、常委会议事规则和主任会议工作规则，确保人大工作议事有章法、履职有要求、服务有标准。创新开展“两学一提升”“答六问”“争当五表率”教育活动，着力打造政治坚定、服务人民、尊崇法治、发扬民主、勤勉尽责的新时代人大工作队伍，努力建设让党放心、让群众满意的政治机关、国家权力机关、工作机关、代表机关。', '市人大常委会聚焦中央和省委市委重大决策部署、聚焦人民群众所思所盼所愿，坚持正确监督、有效监督、依法监督，加大工作力度，创新履职方式，持续增强人大监督实效。全年听取和审议“一府一委两院”专项工作报告20个，开展视察、调查和执法检查42次。', '为认真贯彻落实全省优化营商环境加快项目建设大会精神，市人大常委会把优化营商环境和项目建设情况监督列为2023年工作重点，由常委会领导带队，对全市优化营商环境和项目建设情况开展监督检查和调研，针对项目谋划储备、项目推进力度、要素保障等方面问题，提出有针对性的意见和建议。市政府相关部门根据监督检查意见和建议及时整改，有效推动全市营商环境进一步优化、重大项目建设落地落实。', '依法加强“三保”资金、政府性债务、重点专项资金、国有资产等领域监督，促进经济平稳健康运行。落实市委关于防范化解金融风险要求，创新监督方式，与人民银行建立维护金融稳定工作合作机制，提升了风险防控处置能力。围绕公共卫生体系建设、城市更新规划、学前教育、精致城市建设、促进就业等民生热点开展监督，采取明察暗访等方式，连续24年对哈泥河饮用水水源保护情况进行监督，全力守护通化生命之水。对全市法院民商事审判质效及案件执行情况、检察院民事检察监督情况、司法局社区矫正工作情况、公安局派出所规范化建设情况开展调研，推动法治政府建设，筑牢公平正义司法防线。', '坚持科学立法、民主立法、依法立法，围绕社区治理、市容和环境卫生管理、人参产业发展等方面安排立法项目7个，已颁布实施4个。在全省立法工作会上介绍了关于加强基层治理的经验做法。', '面对我市破坏黑土地资源行为多发态势，市人大常委会认真贯彻落实市委部署要求，遵循“急需先立”的原则，采取“一审一通过”立法程序，出台《通化市人民代表大会常务委员会关于保护黑土资源的决定》。为促进我市人参产业健康、可持续发展，市人大常委会深入各县（市、区）实地调研人参企业生产经营情况，召集人参加工企业、科研院所、种植大户、市政府相关部门多次进行论证，研究制定《通化市促进人参产业高质量发展条例》，助力打响“中国人参城”品牌，打造千亿级“世界参都”。', '按照市委关于做好全国新时代“两个健康”先行区试点城市创建工作决策部署，制定出台《关于全力推进“两个健康”先行区试点城市创建工作，努力实现全市非公有制经济高质量发展的决定》，《决定》从全力破解民营经济发展难题、大力支持民营企业转型升级、积极营造法治环境等方面为民营经济发展保驾护航。精心组织人大代表企业家在浙江开展经贸交流洽谈活动，推介了通化特色产业，提高了通化知名度，签订了一批合作协议和项目，为经济高质量发展贡献了人大智慧和力量。', '中央、省委、市委人大工作会议后，着力夯实人大代表工作基础，探索形成了以一条主线、两个结合、三维体系、四级平台、五项目标为架构的“12345”践行全过程人民民主通化工作模式，代表工作实现创新发展。', '不断加强代表工作家站建设，建立乡镇（街道）代表之家82个、村（社区）代表联络站612个。建成了乡镇（街道）、村（社区）全覆盖、五级代表全参与，横向到边、纵向到底的代表工作网络体系。', '组织开展“代表进家站、履职为人民”主题活动，提出创建一批先进代表之家和每位代表每年至少参加一次学习交流活动、一次选民接待活动、一次“三查（察）”活动、提出一条批评意见建议、办一件实事好事的“六个一”工作要求。常委会领导组成工作专班，专项督导活动推进情况，全年创建“先进代表之家标兵”12个、“先进代表之家”34个。代表家站已成为代表履职尽责的“主阵地”、反映民意的“回音壁”、为民服务的“连心桥”。', '综合考量代表选区、职业、年龄等情况，将非专委会委员的市人大代表全部纳入9个专委会。各大专委会积极组织代表进家站、参加“三查（察）”活动、列席常委会会议、开展代表培训，进一步拓宽了代表履职渠道。', '与市政府联合印发关于做好代表建议办理工作的通知，建立健全代表建议分办、交办、反馈、督办机制，制定代表建议、批评、意见交办办法和工作流程图，代表意见建议办理质效不断提升。在省十四届人大一次会议上，我市代表提出的《关于破解人参产业瓶颈促进人参产业发展的建议》得到省政府的高度重视，省农业农村厅答复“支持通化建设人参种源护育基地，强化长白山人参种质资源保护，建议省人大修改《吉林省人参产业发展条例》”。邹敬韬代表提出的《关于推动我省中医药高质量发展的建议》、王煜代表提出的《关于推进科教整合促进吉林教育高质量发展的建议》均得到了省相关部门的高度重视和及时答复。', '严格执行依法许可对市人大代表采取限制人身自由措施的办法，出台对市人大代表进行提醒谈话办法，依法保障人大代表合法权益。不断强化代表能力建设，多层次开展代表初任培训、履职培训、专题培训。组织市人大常委会组成人员赴浙江大学开展履职能力提升培训，组织市人大相关委室负责人和县（市、区）人大常委会负责同志赴松原市、白城市学习考察，代表履职能力不断提升。', '一年来，通化市人大常委会坚守初心、履职担当，走出一条践行全过程人民民主的“通化路径”，得到了省人大常委会的充分认可。吉林人大工作交流专刊印发了我市《关于发展全过程人民民主、积极探索“12345”工作模式的报告》，省人大宣传中心专程到通化调研采访，《吉林人大》第9期编发通化专版，全面展示通化人大工作亮点。', '凝心聚力担使命，笃行不怠再扬帆。新的一年，市人大常委会将认真贯彻落实省委十二届四次全会和市委八届六次全会精神，紧跟党中央重大决策部署和省委市委中心工作，紧贴人民群众美好生活需要，紧扣推进地方治理体系和治理能力现代化需求，找准人大工作的切入点、着力点，深入践行全过程人民民主，在服务全市工作大局中体现新担当、实现新突破、展现新作为，为推动人大事业不断创新发展作出新的更大贡献。（郭润卿）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>52</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>区双拥办赴柳河县开展双拥工作学习交流活动</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.edj.gov.cn/zfxx/bmdt/202307/t20230704_662262.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为进一步加强交流学习，切实提升全区双拥工作整体水平，5月9日，区双拥办带领全区各乡镇街双拥工作人员一行20余人，赴“全国双拥模范县”柳河县开展考察学习。', '在柳河县双拥办，一行人员重点学习了该县创建双拥模范城的经验和做法，认真查看了该县双拥共建、纪念褒扬、优抚优待、就业创业、服务中心（站）建设等方面的文件资料，听取了该县双拥办的经验分享。', '随后，走访了柳河镇退役军人服务站和振兴社区“老兵之家”，详细了解了柳河县退役军人服务保障体系建设开展情况和取得的成绩。', '此次学习交流，进一步增进了两地退役军人事务部门的友谊，并为今后互学互助搭建了沟通平台。接下来，区双拥办将结合此次实地交流学习的好经验、好点子、好做法因地制宜落实到具体工作中，推动全区双拥工作向更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>52</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>通化县推进两个健康工作走深走实</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202305/t20230516_654809.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['近年来，通化县牢固树立“经营企业家”理念，始终坚持“只研究怎么能行，不研究怎么不行”的企业服务导向，“两个健康”试点创建工作取得丰硕成果，推动探索形成了具有通化县特色的民营经济高质量发展模式。', '目前，该县有规上工业企业48户，市场主体2.4万户。民营经济贡献了该县85%以上的税收、88%以上的国内生产总值、95%以上的技术创新成果、80%以上的城镇劳动就业、98%以上的企业数量，是通化县经济社会高质量发展的主引擎。', '培育企业家资源，蓄积发展活力。通化县确立每年7月18日为“企业家节”、9月5日为“感恩节”，每年列支140万元作为培训专项资金。组织县工商联会员开展“英魂永存，铭记传承”主题追溯历史活动；组织全县规上企业家到浙江杭州实地考察学习。自创建全国新时代“两个健康”先行区试点工作开展以来，通过共迎新年、健康体检、走访慰问企业家父母、企业家素质提升月等活动，打造了一支高质量有担当的新时代企业家队伍。', '倡导感恩文化，营造重商氛围。组织召开全县综合表彰大会，对作出突出贡献的民营企业和企业家进行表彰。推荐30余名民营企业家代表当选各级人大代表和政协委员，持续壮大民营经济人士参政议政队伍。开展集中宣传报道，营造尊商重商亲商氛围，激励企业家反哺社会。', '优化发展环境，坚持助企纾困。制定印发《通化县创建全国新时代“两个健康”先行区试点工作方案》，成立了试点工作领导小组，由县委书记、县长“挂帅”，下设“一办和六个工作组”，推动试点工作走深走实。先后为东宝、华夏、佳和房地产、通化化工等企业解决了场地选址、资金周转等难题。开展银企对接合作、税商联动活动，今年以来，为企业协调贷款7.8亿元，落实退税降费3600万元。', '下一步，通化县将以创建全国新时代“两个健康”先行区试点为契机，结合通化县民营经济发展实际，主动对标对表国家、省、市稳定经济运行、精准服务企业发展和大力优化营商环境等一系列工作部署，高质高效完成各项目标任务，为新时代通化“两个健康”事业高质量发展贡献力量。（郭润卿）']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>52</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>我市积极打造智慧社保数字化服务体系</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/thdt/202309/t20230928_673221.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['近年来，我市全面推进数字化转型，积极打造“智慧社保”数字化服务体系，持续增强参保群众获得感、幸福感和安全感。', '集中培训，上门指导，政策上提供保障。确保向基层延伸的各项社保业务能够被基层单位有效承接，提升各基层综窗人员业务水平和能力是关键。市社会保险事业管理局东昌分局、二道江分局及开发区分局分别组织了各区社会保险公共服务事项向基层延伸业务培训。在此基础上，作为承接全市重点养老金认证任务的东昌分局还专门采取“送课上门，分区实施”的方式，派业务骨干一对一上门指导。截至9月中旬，东昌分局已对辖区11个乡镇、街道逐一走访完毕，根据实际走访调研结果对部分工作人员再次进行业务集中培训，就延伸业务操作上的有关事项、特殊情况和需要注意的方面进行深入解析，确保基层经办人员能够熟悉、掌握最新的政策要求，提高经办人员应对复杂问题的能力，提高其服务意识和服务质量，推动社保工作在基层窗口全面开展。', '以点带面，覆盖全市，模式上提供参考。此次社保业务向基层延伸工作，将新站街道及其所辖新兴社区作为前期试点。经过2个多月的试点运行，2个便民服务站借助综窗管理平台优势，迅速将社会保险各项业务融入综窗日常经办业务范畴，相关业务办理效率稳步提高，业务延伸各方面工作日渐完善、成熟。8月初，全新的社会保险高频业务市、县、乡、村“四级联动”政务服务体系在全市推广开来。目前，全市17个乡镇、街道及所辖79个社区的综合服务窗口均已实现社会保险高频业务经办全覆盖，老百姓对“家门口的社保服务”赞不绝口，一时间，新的服务体系也引来周边县市纷纷前来考察学习，我市打造的“四级联动”政务服务体系为周边市县提供了可学习、可参考的政务服务新模式，在社会上产生了良好的连锁反应和社会效益。', '拓宽渠道，多方宣传，舆论上营造氛围。为提高群众对社保业务村、社区就能办的知晓率，让群众及时享受到社会保险业务向基层延伸带来的便利，我市多渠道多形式积极开展宣传推广工作。通过市电视台新闻频道《聚焦民生》栏目两次跟踪报道此项工作；由市社会保险事业管理局东昌分局策划制作宣传海报、手册、展板等纸质版宣传资料，所有资料覆盖四级经办窗口，并由网格员负责“入门”张贴宣传海报；利用社交媒体宣传，在通化社保官方网站、微信公众号发布官方信息，并号召各乡镇、街道及社区微信公众号积极转发，同时充分利用各社区居民群，将公众号信息第一时间分享至居民群内，并提供在线咨询和反馈功能，与群众进行互动交流；制作操作视频，将此次向基层延伸的五项业务分别制作成简单易操作的小视频，通过公众号、微信朋友圈、居民群等向群众分享，并将小视频生成二维码印制成纸质版宣传资料，通过手机微信“扫一扫”功能实现纸质与视频宣传同步；举办线下公众活动宣传，在万达广场召开现场答疑会，联合税务局东昌分局召开现场宣传活动等。', '协调配合，全力推动，实践上彰显成效。此次将社会保险高频业务向基层延伸工作开展以来，各部门全力配合，迅速行动。市政务服务和数字化管理局为此次工作提供“帮代办服务专车”，为特殊人群提供上门认证创造了便利条件；各乡镇、街道及所辖社区共设置综合服务窗口79个；市社会保险事业管理局东昌分局印制并投放展架85份，印制宣传海报及手册2万份，深入乡镇、街道“送课”14次；各社区网格员共为全市7931户单元门张贴宣传海报。', '虽然此项工作自开展以来只有两个月时间，但已取得了显著实效。截至目前，全市新增养老金领取资格网上自助认证27057人，是前两个月认证人数的近3倍，使全市退休人员认证率提升了1.5个百分点。同时，这种延伸至老百姓家门口的“随时指导办＋定期上门办”的全方位服务也让百姓真正体会到了社保服务的温度。（赵梓涵）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>52</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市人大常委会法制工作委员会年备案审查工作情况的报告</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/tzgg/202312/t20231206_681698.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为了深入贯彻实施新修改的《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》和党的二十大报告关于“完善和加强备案审查制度”的精神，保证宪法法律实施，保护公民合法权益。2023年，法工委依法备案审查工作情况，现报告如下：', '一年来，市县两级人大常委会和政府、监委、法院、检察院坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平法治思想，认真贯彻党中央、省委、市委决策部署，紧紧围绕通化经济社会发展，坚持“有件必备、有备必审、有错必纠”的工作原则，各部门密切配合，上下联动，全市规范性文件备案审查工作有序开展。', '一年来，市人大常委会法工委共对4件规范性文件进行了备案审查，其中《通化市人民检察院案件管理部开展律师异地阅卷工作实施细则（试行）》是自《备案审查条例》修订后，首次实现对“一委、两院”出台的规范性文件进行审查，备案审查工作基本上做到全覆盖。经审查，报备的规范性文件未增设公民、组织、法人的权利义务，不存在合理性、合法性问题，符合报备要求。同时，市人大常委会法工委分别向全国人大和省人大报备了市人大常委会已经出台的2部地方性法规（《通化市社区治理促进条例》《通化市人民代表大会常务委员会关于保护黑土资源行为的决定》）和1件规范性文件（《全力推进“两个健康”先行区试点城市创建工作努力实现全市非公有制经济高质量发展的决定》）。各县（市、区）人大常委会接收规范性文件报备情况分别为：集安市5件（含《集安市人民检察院社区矫正巡回检察工作办法（试行）》）、东昌区、通化县各3件(通化县含《关于审理未成年人刑事案件的规定》)、柳河县、辉南县、二道江区各1件。', '在制度建设方面，根据省人大常委会规范性文件备案审查工作规范，市人大常委会法工委制定了《通化市人大常委会规范性文件备案审查流程图》《审查承办表》《备案移交处理表》等相关表格，统一报送备案格式，规范报送、处理程序等，并将已经相对成熟的做法用于指导县（市、区）人大常委会备案审查工作，切实做好全市规范性文件备案审查的各项工作。下一步，将借鉴其他地区先进经验和做法，进一步探索备案审查工作联动机制，计划出台《备案审查工作办法》。县（市、区）人大常委会结合自身实际，多措并举，努力提升备审工作实效：东昌区人大组建了由法学专家、检察官、律师的专家库，加强对规范性文件合理性、合法性审查；二道江人大今年赴重庆市考察了备审工作的先进做法；通化县人大建立了建立规范性文件专项清理长效督促机制，从源头上杜绝违法；柳河县人大加强备案审查衔接联动，逐步落细落实各项工作程序，提升备案审查规范化、标准化水平；集安市人大建立备案审查“五关”制度，对备审工作形成完整闭环。', '一年来，市县两级人大常委会法备案审查工作人员积极开展业务学习，通过专门培训、以会代训、自学强训、考察学习等多种形式不断增强履职能力。积极参加全国人大、省人大举办的立法实务培训，努力提高规范性文件备案审查工作能力和水平。年初，市人大常委会法工委组织“一府、一委、两院”召开座谈会，将新修订的《吉林省规范性文件备案审查条例》发送给他们，向其提出工作要求，解释相关条款，明确了市人大常委会审查的范围，规范了备案审查程序，督促其按照规范要求，要求其增强报备意识、落实报备责任、规范报备工作，对规范性文件报备单位定期调度，及时掌握规范性文件制定情况。', '为开展吉林省法规规章规范性文件数据库建设，市人大法工委第一时间将省人大安排部署落实到“一府、一委、两院”，全面梳理和汇总了市人大常委会出台的现行有效的12件法规和6件规范性文件，并组织县（市、区）人大常委会法制工作机构开展此项工作。在组织上报文件的同时，做好文件复核工作，督促市政府和县（市、区）人大常委会连接政务外网，并指导使用省人大常委会备案审查系统，按照“谁制定、谁报送、谁负责”总体要求，切实做到对规范性文件电子审查和电子归档管理。目前，该系统已正式运行，我市出台的法规、规范性文件均已上传至该系统，备案审查工作逐步实现信息化、规范化、透明化，有力提升了人大监督实效。', '一是对规范性文件界定不准。由于现行法律对于规范性文件审查的范围规定比较原则，实践中对如何确定工作范围既有不同的认识，也有不同的做法。比如，一些文件名称中并没有“决议”“决定”“命令”的字样，而是以规定、办法、细则、意见等名称出现，但内容涉及公民组织的权利义务；有些文件名称中虽有“决定”“命令”的字样，但内容不具有规范性，实践中不好把握。在备审工作实践中，从发文主体上看存在党政部门联合发文、政府部门联合发文、议事协调机构发文等情况。如仅仅通过规范性文件概念、特征上判断，很难界定是否为规范性文件。', '二是部分单位对备案审查工作重视不够。部分单位对备案审查工作的认识限于“备案登记”，对“审查监督”认知不足，对于报备的规范性文件存在不及时、不全面的现象。部分报备单位处于“零”报备情况，省备案审查条例修改后，在政府规范性文件报备基础上，“一委、两院”规范性文件也纳入人大备审范围。截至目前，我市两级人大常委会中，仅市本级和集安市、通化县人大常委会收到过检察机关报备的规范性文件各一件，其他县区均未收到过“一委、两院”报备规范性文件。', '根据宪法法律规定和各级人大常委会多年来实践做法，规范性文件审查标准主要包括合宪性、政治性、合法性、适当性四个方面。市县两级人大备案审查实际工作往往重点围绕合法性标准开展，针对政治性审查和适当性审查重视不够。在依职权审查、依申请审查、移送审查、专项审查四种审查方式中，目前主要还是运用依职权审查方式开展工作，其他方式运用较少，各地未收到过规范性文件审查申请，也没有开展过移送审查。', '四是工作力量严重不足。目前除市人大常委会配置了专门工作机构和人员外，各县（市、区）人大常委会均无专门的工作力量，且县（市、区）人大常委会法制工作机构缺少法律专业背景工作人员，难以应对备案审查工作专业性、复杂性的要求。', '一是进一步细化认定标准，健全完善工作制度。备案审查工作一项专业性工作，其基础就是对规范性文件的认定，我们将积极争取省人大指导，借鉴各地经验，细化规范性文件认定标准。同时，完善配套制度，统一工作流程，增强备案审查制度刚性，使备案审查工作更加科学、严谨、规范。要加强衔接联动和沟通协作，提升备案审查工作整体实效。', '二是进一步强化报备工作措施。加强与报备单位的工作联系，提高对报备工作认识高度，明确要求报备工作流程和标准，适当进行主动审查、创新举措，通过核对发文目录、适时抽查、定期调度、年底专查等多种方式，推动报备主体依法履行职责，最大限度避免规范性文件迟报、漏报。对于报备材料不齐全、不规范等问题，及时提出，予以纠正。', '三是灵活运用审查方式，严格审查标准。严格履行地方人大对“一府一委两院”工作的监督职责，加强对市政府制定的规章、“一府一委两院”制定的其他规范性文件的主动审查工作，保障宪法法律正确实施，维护国家法治统一。要在原有的依职权审查、依申请审查、移送审查三种审查方式基础上增加专项审查方式，对事关重大改革和政策调整、涉及法律重要修改、关系公众切身利益、引发社会广泛关注等方面的规范性文件，可以组织开展专项审查。进一步畅通人民利益表达渠道，健全完善人民群众与人大机关直接联系的平台与载体，认真做好公民、组织提出的审查建议的研究、处理和反馈工作。严格遵守、综合运用政治性、合法性、适当性审查标准，坚决纠正同法律规定相抵触的规范性文件，及时审查出与党中央重大决策部署不相符或者与国家重大改革方向不一致的规章和规范性文件，重点审查人民群众反映强烈、影响老百姓切身利益、直接涉及公民权利义务的规章和其他规范性文件。', '四是推动县（市、区）人大常委会加强工作力量。由于受编制和人员构成限制，县（市、区）人大常委会很难适应备案审查工作专业性、复杂性特点，要逐步推动全市县（市、区）人大常委会设置专门机构，合理配置基层人大法制工作机构人员构成，强化基层人大法制工作机构队伍建设，从而实现备审工作高质量完成。要采取多种学习方式，组织县（市、区）人大常委会参加省人大立法培训，加强备审业务理论和实操水平；加强与先进地区人大沟通联系，考察域外人大在备审工作中的先进做法，强化监督实效。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>52</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>二密镇赴白山市靖宇县学习酸菜加工厂项目</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202303/t20230315_647963.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['近日，二密镇为走好村集体经济发展壮大之路，镇领导带领党建办、迎门岔村、正岔村书记及村两委到白山市靖宇县小霞酸菜厂学习产业发展经验。', '正岔村位于通化县北部、二密镇西北部，土壤肥沃，水源充足，自然环境得天独厚，适宜韩国夏白菜生长，且白菜种植技术成熟，全村累计种植韩国夏白菜780余亩。“村两委”为发展壮大村集体经济，经多次考察研究决定依托本村农产品种植优势，发展酸菜加工厂项目。为更好地做好经营和管理，二密镇一行人赴靖宇县佳源农副产品开发有限公司考察学习。该公司以生产酸菜、酱腌菜、山野菜为主，其主要优势在于使用长白山矿泉水为加工用水以及保障发酵时间，确保酸菜口感和质量；明确目标客户直接与市场进行对接，并通过网络直播带货拓宽销路，构建“线上+线下”的销售模式；仓库内始终存有半年以上的酸菜供应量，保障货源充足。', '此次考察为二密镇正岔村酸菜加工厂项目后续建设和管理奠定了坚实基础。该项目投产达效后，有益于延伸产业链条，将农产品向精细加工延伸，走向产业振兴新征程。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>52</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>新华街道赴长春开展党建引领基层治理考察学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202306/t20230625_8727925.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['6月19日新华街道党工委书记吴威带领街道班子成员、社区书记以及相关工作人员赴长山花园社区、长春社区干部学院、十委社区、拥军大院社区、鹏程社区养老服务中心开展党建引领基层治理考察学习。', '首先来到了长山花园社区参观了社区一站式服务大厅及各功能活动室，详细了解了社区日间照料室、市民食堂，重点询问了社区市民食堂服务功能、运营模式、收费方式及老年人服务需求等情况。随后到达长春社区干部学院党建展览馆，沿着总书记的足迹进行了参观学习。讲解员引领考察团一行重温了习近平总书记参观走访的路线，讲解了我国基层社会治理体系建构的发展历程，介绍了社区干部学院的实训模式、组织运行及保障服务等先进、高效的干部培养体系，了解了不同时期的基层党建情况，并且对习近平总书记充分肯定的“干而论道”培训方式做了重点解读。并到十委社区、拥军大院社区、鹏程社区养老服务中心养老服务项目现场，就养老服务设施项目建设推进、运营模式创新、服务质量提升等方面进行了深入调研。', '居家养老服务是社会关注的重要民生事业，事关民生发展大局和群众福祉。下一步新华街道将按需定策，开展融合型养老助老服务，一是多措并举，丰富社区养老服务方式。新华街道应对人口老龄化，将围绕“15分钟养老服务圈”建设，坚持线上线下同向发力、相互联动。用较大空间的社区、网格党群服务站，探索打造试点阵地，空间小的服务站，开展定期上门寻访、政策帮扶等模式，全方位提升全街居民养老幸福指数。二是因人施策，加快补齐人才队伍短板。新华街道将坚持多措并举、综合施策，加快补齐养老服务人才队伍建设短板，推动建设一支年龄结构优、专业技能强、综合素质好的养老服务人才队伍，不断提升全街养老服务水平。三是整合资源，优化养老服务资源配置。为解决社区居家养老服务供需信息不对称、服务响应不及时等问题，新华街道将以联建共建支撑，整合部门、商户、党员等多方资源，实现居家老人在家门口享受多层次、个性化的“一站式”养老服务。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>52</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市政协副主席梅河新区卫生健康局市卫生健康局局长于艳玲深入李炉乡调研指导农业农村工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/202303/t20230306_8675503.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['市政协副主席、梅河新区卫生健康局(市卫生健康局)局长于艳玲深入李炉乡调研指导农业农村工作-梅河口市人民政府', '市政协副主席、梅河新区卫生健康局(市卫生健康局)局长于艳玲深入李炉乡调研指导农业农村工作', '3月4日，梅河口市政协副主席、梅河新区卫生健康局(市卫生健康局)局长于艳玲深入李炉乡调研指导农业农村工作，调研以座谈会的形式开展，李炉乡党委书记杨波、乡长张洪飞、副乡长王志明参加会议，新区教育局(市教育局)副局长汪瀚陪同调研。', '党委书记杨波对李炉乡乡级“双二百”工程、村级“双百”工程、鲜食玉米谋划、庭院经济示范户落实、上级部门包保对接等情况进行了汇报。', '一是要坚定不移提高政治站位。要高度重视农业农村工作，聚焦三大核心任务，对标市委农村工作会议任务清单，认真谋划研究，进一步完善细化组织体系、制度体系、工作机制，高标准高质量高效率抓好任务落实。', '二是要坚持不懈聚焦重点工作。充分做好“双百”“双二百”工程谋划工作，要充分依托地位优势，在乡村旅游上下功夫，努力打造好李炉村、永强村民宿产业发展，进一步做好民宿配套工作，乡政府针对民宿产业要统筹管理，有制度章程，统一标准，统一管理，统一卫生条件。', '三是要凝心聚力促发展添动力。乡党委要带领村干部、农户外出考察学习，引导农户科学发展产业，充分了解市场行情。与包保部门做好沟通衔接，结合各自职能，抓实抓好包保工作，确保每项工作、每个环节不落空、不脱档，做到全面对接、合作共赢，助力乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>校地合作开启社会工作新局面东昌区考察团赴吉林建筑大学考察交流</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.dc.gov.cn/xxgk/dcyw/202304/t20230420_652256.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为进一步提高我区城乡社会工作和服务精准化精细化水平，落实我区与吉林建筑大学经济与管理学院签署校地战略合作框架协议，推进校地合作，共创双赢发展，今天，副区长丁崇智带领由区民政局、新站街、东昌街、滨江街江南社区组成的考察团赴吉林建筑大学经济与管理学院实地考察，学习借鉴社工站建设运营、社会工作人才培训等方面先进经验，为东昌区城乡社会工作高质量发展提供人才和智力支撑。', '座谈会上，校方领导介绍了建筑大学科研成果，丁崇智结合我区城乡社会工作和服务精准化精细化管理水平实际，介绍了社会工作发展理念、社会工作人才交流培训、社工站服务体系建设提升等方面情况，同时对学校科学研究、社会服务成效进行了充分肯定，提出要搭建“二个平台、三个提升”：“二个平台”是实践创新平台、社区干部能力素质提升平台，“三个提升”是学校办学能力提升、社区干部能力素质提升、服务群众评价效能提升。双方就发挥各自特色优势，擘画我区城乡社会工作事业发展，共建共享师资、设备、技术、人才、科研等方面进行了充分的互动交流和探讨，特别是与院校师生进行了互动交流。考察团还实地参观了学院实验室和桃源街道社会工作服务站。', '此次考察交流取得了良好成效，不仅加深了双方的相互了解，更搭建了交流合作的平台。下一步，我区将借助此次考察交流活动，汲取先进经验，创新工作方式，因地制宜运用到工作中，提升管理能力，推动东昌区城乡社会工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>52</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>通化市志第九篇群众团体社会团体第一章通化市总工会第四节主要活动五关心职工生活六普法维权工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/dfz/fztd/202305/t20230512_654509.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['1986年4月，召开通化市职工扶贫工作会议。市总工会会同市工商、财政等9个部门联合下发《关于实行职工扶贫优惠政策的报告》。开展职工生活竞赛活动，评出6个先进局、11个全优单位、25个先进单位、187名优秀后勤干部。全市有58个单位建起职工生活服务站。1992年9月，通化市成立城市扶贫解困工作领导小组，领导小组办公室设在市总工会。在市区光明路一条街开辟就业市场，安置下岗职工500人；在中兴大厦建立扶贫专柜，为特困职工提供平价米、面、油。', '1998年6月，通化市总工会成立再就业服务中心，投资8万元改造市水泥厂门市房200平方米，安置下岗职工40人。是年，与南洋商厦创办就业商场，经营鞋帽、服装，安置下岗职工210人。2003年11月，通化市总工会与吉林修正药业共同出资10万元，带领15名创业者赴温州考察学习。', '2005年，市总工会和7个县(市、区)全部建立帮扶中心。是年，全市各级工会举办微机、汽车修理、按摩、编织、月嫂、美容美发等技能培训班21期，培训下岗职工1350人。同时，与市劳动局、市工商联、市委宣传部等部门组织3次“全民创业促就业展示暨用工交流对接大会”，接待问题咨询55人次，发放宣传单10000份，组织收集用工单位75个，就业岗位650个；与民政、教育、卫生等部门开展“金秋助学”、“手拉手献爱心”、“联乡包村”等一系列活动，解决困难职工子女上学、生活、医疗等方面的困难。共资助困难职工子女1470人，发放助学贷款57.19万元；为5户农民送资助款1万元；医疗救助特困职工370人次，减免医疗费2.6万元。建立创业带头人档案和联系卡，全市树立创业带头人100名。为创业带头人送致富信息350个，协调政策550项，帮助培训职工320余人次，提供创业项目210个，安置再就业1250人。开展“进万家门、知万家情、解万家难、暖万人心”的集中送温暖活动。元旦、春节期间走访慰问市直特困职工1200户。送面粉3055公斤，豆油6310公斤；协调万通药业、修正药业等单位捐药价值20余万元；机关事业单位捐衣物1200件；发放困难劳模慰问救济金19.3万元。', '1986年6月，全市有20万名职工参加全国总工会组织的法律知识竞赛。1987年5月，组织振兴吉林知识竞赛和法律知识竞赛。市总工会荣获全国一级组织奖和全省优秀组织奖。1992年4月。市总工会、市委宣传部、司法局联合下发关于学习、宣传、贯彻(工会法》的通知，将每年5月17日确定为全市《工会法》宣传日。1995年9月，深入开展宣传《劳动法》活动。举办2期培训班，聘请外地专家、学者授课，共培训企业代表203人。组织有关专业人员深入基层，帮助企业培训骨干400余人。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>快大茂镇全流程审批系统上线运行</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202301/t20230113_642980.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['为确保全流程审批系统顺利上线运行，通化县快大茂镇便民服务中心切实提升责任意识，优化硬件配置，提高人员素质，高标准推动系统配置运行。', '切实提高应用人员素质。镇便民服务中心紧抓培训契机，先后多批次派出综窗服务人员到县政务大厅综合窗口考察学习，并实际接件操作，通过真实工作环境历练，切实提高自身应用能力；加强内部培训，召集各站办所审批负责人进行系统应用培训，加快熟悉审批流程，优化接件环节与审批环节的衔接，确保群众诉求接得住、走得通。', '严格执行全流程系统标准。全流程审批系统上线运行后，镇便民服务中心在现有的硬件设备基础上，由综窗人员进行业务接件，以站所为单位进行事项审批，提高业务处理效率，克服设备短缺困难，确保在审批时限内全部办结，提高系统的群众满意度。', '认真梳理应用中的难点和困惑。新系统的运行势必会带来应用上的“水土不服”，因而所有操作人员在应用过程中都时刻保持认真严谨的态度，在应用中出现困惑，可能会导致业务办理中断，或者办理权限梳理不清时，都会及时与相关业务指导人员和工程师取得联系，确保业务办理准确无误；在整个应用过程中出现的困惑，都会认真记录在册，定期与上级部门沟通，不断优化办事流程。（赵明杰）']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>辉南县农村合作经济组织枝繁叶茂</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202304/t20230411_651016.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['辉南县积极探索现代农业发展模式，大力培育新型经营主体，努力构建新型农经经营体系，推动农业经营由传统的家庭经营向多元多样主体转变，初步形成了以合作经济组织为纽带，以专业大户和家庭农场等新型经营主体为支撑的新型农经经济体系。截至2022年底，全县拥有农民专业合作社1559家、家庭农场1217家，辐射带动143个行政村3万多户农民。', '近年来，辉南县委、县政府坚持把新型农经经营主体培育作为新农村建设、城乡统筹发展、深化农村体制改革、构建农民增收长效机制的一项重要举措加以实施，各级财政累计安排专项资金1000多万元扶持农村合作经济组织发展。相关部门依法履行职能，积极主动开展工作，不断提高服务能力和水平，多次组织合作社等经营主体参加省农产品展销会、农博会和省、市、县举办的各类培训班，赴外地学习考察，开拓视野、学习先进经验，并选派技术人员实地开展技术咨询、技术指导，帮助解决实际技术难题，培养一批懂技术、会管理的“草根能人”。辉发城镇绿农庄家庭农场主要经营大榛子种植，他们一边学习一边劳作一边总结经验，摸索出了一套符合农场循环生产的发展模式，现拥有榛子、松子、鱼田大米、生态猪肉、野生鱼、榛园鸡蛋、水库鸭蛋、榛园大鹅、蒲公英茶、木耳等产品，发展前景一路看好。', '在精心打造农村合作经济组织实践中，辉南县坚持以党支部为核心，充分发挥党支部政治优势、组织优势，积极探索村党支部领办合作社发展新路径。目前，全县成立了60个村党支部领办的专业合作社，累计带动1.3万人，为村集体经济增收270余万元。辉南县双龙畜牧养殖专业合作社是由村党支部领办、农户入股形式成立农村合作经济组织，入股农户29户，村集体占23.3%，入股农户占76.7%，经过两年来的发展，双龙畜牧养殖专业合作社的养牛产业由“小精产”变为“大产业”、由“分散养殖”变为“集群养殖”、由“同质化竞争”变为“合作共赢”。目前，该养殖场占地面积1860平方米，建有专业化牛舍3栋，饲养基础母牛61头，育肥牛54头，预计年可实现利润30万元。同时，注重典型培育、示范引领，选择一些产业有特色、发展有后劲的合作社开展试点示范。目前，全县已培育县级以上示范合作社32家、示范家庭农场159家。其中，国家级示范社1家，省级示范社9家，市级示范社5家；省级示范性家庭农场20家，市级示范性家庭农场19家。（蒋泽文 樊勇）']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>52</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>山城镇组织考察团到公主岭市考察学习农业特色产业发展</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/202302/t20230228_8673493.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为高质量、高标准落实市“十百千万”工程目标和镇、村“双二百”“双一百”任务，有效推进山城镇传统种植产业结构调整，鼓励农民大力发展庭院经济，2月26日，由山城镇副镇长林莉带领农业农村办主任蔡长虹、穗源公司总经理高延文、乡村振兴办由富明和村书记代表赴公主岭市调研考察庭院辣椒种植项目，并就我镇农业产业发展进行深入交流。', '考察组一行人实地考察公主岭市学亮田园种植专业合作社庭院辣椒种植项目，并由学亮田园种植专业合作社理事长陈学亮主持交流研讨会，详细介绍了辣椒种植成本、田间管理、经济效益等相关知识，为广大农民朋友在农业产业种植领域，谋发展，创收益，打开一个全新的视角。', '考察组本着“对标杆找差距，学先进促发展”的学习态度，一路看、一路听、一路议，对辣椒种植产生了强烈的信心，通过考察学习，进一步促成庭院辣椒种植项目在山城镇落地生根。', '下一步，我镇将借鉴公主岭市发展现代农业中的先进经验及亮点做法，立足庭院经济，放眼大地蔬菜种植，因地制宜，丰富老百姓的“菜篮子”，鼓足种植户的“钱袋子”，推动山城镇现代农业高质量发展，为乡村振兴注入新活力。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>52</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>长春市人大莅梅学习考察旅游产业和养老服务体系建设工作</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202208/t20220808_8533888.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['8月4日至5日，长春市人大常委会副主任赵辉率队，莅临我市学习考察旅游产业和养老服务体系建设工作。', '考察团一行13人在市人大常委会副主任、市总工会主席蒋德启的陪同下，先后深入曙光镇东太平村、新梅河精酿啤酒梦工厂、红色旅游地“雷锋旅”、知北村、东北不夜城、城市规划展览馆、海龙湖公园，详细了解我市休闲消夏、乡村旅游、红色旅游、夜游项目等特色旅游产业发展情况，以及旅游产业与相关产业融合发展方面的经验做法和取得的成效。', '随后，考察团一行又深入居家养老服务中心、市民食堂、原香墅党群服务站，考察我市城市居民健康养老方面的主要做法，取得成效及下一步发展规划。', '经过两天的学习考察，考察团成员对我市旅游产业发展和健康养老服务体系建设有了一个非常直观的体验。大家一致认为，梅河口市无论是城市建设、旅游产业发展，还是健康养老服务体系建设，观念新、思路清、措施实、效果好，走在了全省的前列，值得长春市学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>52</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>快大茂镇便民服务中心全流程系统上线运行</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202211/t20221128_638494.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为确保全流程审批系统顺利上线运行，快大茂镇便民服务中心切实提升责任意识，优化硬件配置，提高人员素能，高标准推动系统配置运行。', '一、切实提高应用人员素质。镇便民服务中心紧抓培训契机，先后多批次派出综窗服务人员到县政务大厅综合窗口考察学习，并实际接件操作，通过真实工作环境历练，切实提高自身应用能力；加强内部培训，召集各站办所审批负责人进行系统应用培训，加快熟悉审批流程，优化接件环节与审批环节的衔接，确保群众诉求接得住、走得通。', '二、严格执行全流程系统标准。全流程审批系统上线运行后，镇便民服务中心在现有的硬件设备基础上，由综窗人员进行业务接件，以站所为单位进行事项审批，提高业务处理效率，克服设备短缺困难，确保在审批时限内全部办结，提高系统的群众满意度。', '三、认真梳理应用中的难点和困惑。新系统的运行势必会带来应用上的水土不服，因而所有操作人员在应用过程中都时刻保持认真严谨的态度，在应用中出现困惑，可能会导致业务办理中断，或者办理权限梳理不清时，都会及时与相关业务指导人员和工程师取得联系，确保业务办理准确无误；在整个应用过程中出现的困惑，都会认真记录在册，定期与上级部门沟通，不断优化办事流程。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>我市党政考察团赴南方四省开展党员干部解放思想再深入全面振兴新突破学习考察暨招商引资活动</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-10-26</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/202010/t20201026_8351221.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['我市党政考察团赴南方四省开展党员干部“解放思想再深入，全面振兴新突破”学习考察暨招商引资活动-梅河口市人民政府', '我市党政考察团赴南方四省开展党员干部“解放思想再深入，全面振兴新突破”学习考察暨招商引资活动', '10月22日到30日，我市组织党政考察团赴广东、湖南、贵州、云南四省，开展党员干部“解放思想再深入，全面振兴新突破”学习考察暨招商引资活动。', '10月23日上午，在广东省广州市，召开了学习考察暨招商引资活动启动会议。市委书记王爱明主持会议并讲话，市人大常委会主任刘怀玉，市委副书记、市长，市政协主席张卫红出席会议。', '王爱明指出，在省委的高度重视和支持下，经向省委进行报备，市委决定，组织党政考察团，利用8天的时间，到广东、湖南、贵州、云南4省进行学习考察活动暨招商引资活动。在全省上下贯彻落实习近平总书记视察吉林重要讲话重要指示精神的关键时期，我们到广州这样的发达地区学习先进经验，就是在进一步落实总书记5年来3次视察吉林，围绕东北振兴、吉林振兴发展做出了一系列重要讲话重要指示精神，进一步解放思想，补齐发展短板。', '王爱明强调，“十三五”初期，围绕梅河口到底怎么干、怎么走，我们经历了一轮解放思想学习活动，通过组织党员干部外出集体学习考察，开拓了视野，增加了见识，提升了思想。有什么样的思想就有什么样的理念，有什么样的理念就有什么样的路线，在实践当中我们思想不断解放，各项事业取得辉煌成就，建设了许多像海龙湖这样解放思想的代表性工程，为“十三五”圆满收官，开启“十四五”发展新时期奠定了坚实的思想基础和理念基础。这次我们考察学习，时间紧，任务重，重点是围绕发展现代服务业和全域旅游，学习外地先进经验作法，推动我市现代服务业和全域旅游工作不断提档升级，同时，到招商引资重点企业开展实地调研。', '王爱明强调，我们出来考察学习，走的是山，是水，看的是风景，是设施，是现代服务业和全域旅游的发展，心里装的是考察任务，我们一定要学有所获，不辜负省委、省政府和全市人民对我们的期望，要在景区考察过程中，善于发现细节，了解设施展示，学好经营理念，睁大眼睛，带回成果，推动我市现代服务业和全域旅游工作在“十四五”发展过程中有新突破。', '动员会后，考察团一行深入广州江南果菜批发市场参观考察。广州江南果菜批发市场始建于1994年，是一家主要从事蔬菜、水果批发的专业市场，是广州市最具规模的果菜批发市场也是中国乃至东南亚地区最大的果菜集散地，并获得了农业产业化国家重点龙头企业、农业部定点市场、商务部双百市场以及省市农业龙头企业等众多荣誉。市场占地面积达40万平方米，经营品种近千种，年成交量近50亿公斤，成交额超过200亿元。', '在江南果菜批发市场会议室，考察团一行听取了江南果菜批发市场经营管理有限公司领导关于市场发展情况的介绍，对市场的发展历程和经营情况给予高度评价，并就我市与江南果菜批发市场开展深度合作等事宜进行了沟通和交流。王爱明指出，商贸物流产业是梅河口市最传统的产业，也是我市四大主导产业之一，江南果菜批发市场基地大、集散能力强、网络发达，品牌效应显著，梅河口市与江南果菜批发市场开展深度合作，是对梅河口、乃至吉林省都具有重要意义的民生工程，也是打开“北菜南运”、“南菜北运”的通道的重大工程。项目建成后，将服务于东北1亿多人口，将在东北占据极其重要的位置，项目建成后，不仅能够补齐梅河口商贸物流产业的短板，也可以补齐整个东北地区的一个短板。有短板就是潜力，有短板就有发展，梅河口有商贸物流传统，有全民经商的意识，有良好的区位条件，在招商引资这方面，我们要正视、要求实、要发展，要集中一切人力、物力、精力加快项目引进，推动项目落地，为经济发展提供强有力的支撑。', '市领导李序、马志有、刘刚、汪晓梅、关学义、周君、杜康君、李志刚出席启动会议并参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>52</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>高新区党群工作部到辉南县开展学习交流活动</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://gxq.tonghua.gov.cn/jbxx/202208/t20220829_625995.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为进一步提高高新区党建工作质量，推动高新区党建工作走实走深，8月25日，高新区党群工作部组织相关科室负责同志，以“走出去、学进来”的方式，到辉南县就如何在各领域促进党建工作提效升级开展学习交流活动。', '大家先后来到辉南县样子哨镇太平沟村、朝阳镇向阳村、辉南县税务局、辉南经济开发区党建活动服务中心，每到一处，大家都详细看、仔细听、认真记，并结合高新区实际，边对比、边讨论、边思考，就如何更好提升高新区党建工作水平找差距、寻对策、提措施。', '下一步，高新区党群工作部将以此次考察学习为契机，拓思路、补短板、提素能，围绕“强基提质、品牌创建、典型引领”，推动机关党建标准体系建设；围绕“传承优质文化底蕴、打造优质产业结构、提升优化便民服务、用好优质乡贤资源”，推动抓党建促乡村振兴；围绕“抓党建、强民企、促发展”推动非公党建拓面提质、互联互通，努力把高新区机关、农村、非公企业党建工作打造成为叫得响、立得住的“亮点工程”，以党建引领高新区实现高质量发展。', '“强基提质、品牌创建、典型引领”，推动机关党建标准体系建设；围绕“传承优质文化底蕴、打造优质产业结构、提升优化便民服务、用好优质乡贤资源”，推动抓党建促乡村振兴；围绕“抓党建、强民企、促发展”推动非公党建拓面提质、互联互通']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>辉南县党建引领助力乡村振兴</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://agri.jl.gov.cn/xwfb/sxyw/202205/t20220527_8460618.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['去年以来，辉南县始终把党建引领作为推动乡村振兴的“红色引擎”，围绕落实“建强堡垒、队伍提升、强基善治、产业兴旺”四项举措，推进抓党建促乡村振兴重点任务落实落地。目前，已高标准完成打造省级美丽乡村15个，省级“百村引领、千村示范”样板村16个，省级乡村振兴千村示范村16个。', '坚持组织引领，下好建强堡垒“先手棋”。坚持县乡纵向横向齐抓，以乡村工作运行、组织生活开展、运转经费保障和村级场所建设四个方面为抓手，全面提升基层党组织政治功能和组织力。积极开展“五星级”乡村党组织创建，发挥乡村党组织在乡村振兴中的一线战斗堡垒作用，完成了11个乡镇党委143个行政村星级评定，营造了乡村党组织干有方向、比有标准、争有动力、追有目标的浓厚氛围。成立BTX 建设领导小组和工作专班，组建556人管理员队伍，有力促进基层党支部标准化、规范化、信息化建设。有效落实村级组织运转经费拨发，为每村增设2.5万元党建经费，用于村部修缮、村干部培训考察学习等，切实保障村级组织建设工作和有关活动开展。投资210万元，维修新建122个“三馆一院”和154个便民服务大厅，提升服务群众水平。', '坚持选优配强，下好队伍提升“关键棋”。多渠道，多角度增强乡村干部队伍力量，为乡村振兴注入人才“活水”。结合乡镇党委换届，选优配强乡镇领导班子。换届后，各类干部结构比例合理，实现班子成员优势互补，整体功能提升。乡镇领导班子平均年龄39岁，30岁以下年轻干部15人占11.4%。同时，利用换届契机选优配强“头雁”队伍，村书记、村主任全部实现“一肩挑”，新一届村“两委”成员年龄较上届下降5.1岁，高中及以上文化程度占比40.4%，实现了年龄、学历“一降一升”。集中对脱贫村、乡村振兴重点村选派49名驻村干部驻村帮扶，全面充实乡村治理力量。先后制定下发《辉南县公开招聘引进各类人才优惠政策》等政策文件4个，投入经费76.38万元，与29名县域外在编在岗的公务员（含参公管理人员）和事业单位工作人员达成回引意向，进一步引导各类人才扎根在辉南、创业在辉南、事业成就在辉南，充实基层工作力量，增强推进乡村振兴的内生动力。', '坚持创新工作，下好强基善治“践行棋”。结合乡村治理，选优配强网格队伍，按照“1+N”配备网格长和网格员，共配备网格长485名、网格员596名，全面提高网格队伍的战斗力、凝聚力。投资4000余万元推进“数字辉南”项目工程，建设1344平方米辉南县城乡基层治理服务中心和辉南县综治中心，在全县11个乡镇和143个村开通会议终端点位169个，以“智慧党建”、“爱辉南APP” 等五大平台为载体，强化数字技术系统集成，全面实现“问题受理—任务指派—问题处置—情况反馈—监督核查”的闭环式运作。截至目前，化解矛盾508起，处理治安案件、民事纠纷等50余件，打通服务群众“最后一公里”，提升乡村善治水平，推动乡村治理能力现代化，促进乡村社会和谐稳定，为乡村振兴奠定坚实基础。', '坚持科学谋划，下好产业兴旺“制胜棋”。持续发展壮大村级集体经济撬动乡村振兴，成立了由党政主要领导为组长的辉南县发展壮大村集体经济领导小组，先后召开15次县级专题会议，研究部署具体措施壮大村集体经济。制定印发《辉南县发展壮大村级集体经济分类推进方案及发展规划》《辉南县抓党建促乡村振兴实施方案》等制度文本，提出产业带动型、乡村旅游型、物业经营型等发展壮大村级集体经济模式，重点推进村党支部领办合作社示范社创建，激发村级内生动力和“造血功能”。结合“秸秆变肉”工程，盘好用活扶持村项目资金，近三年累计争取中央及省级发展壮大24个扶持村项目资金共1200万元，有效发挥辐射带动作用。2021年，全县143个村级集体经济收入均达5万元以上，年收入30万元以上村40个，总收入2500余万元。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>52</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>东昌区新生代企业家赴台州市椒江区学习考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202202/t20220215_587327.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['十月的东昌，枫叶正红，遍野秋色。十月的椒江，风光秀丽，金桂飘香。东昌区和台州市椒江区虽相隔千里，但早已是“老亲戚”“老朋友”。', '自2018年5月签订对口合作框架协议以来，两地在产业合作、经贸交流、政府改革、人才培养等领域开展了全方位、多层次的合作，两地情谊不断加深、经贸合作不断升温、文旅交流不断加强。日前，东昌区委统战部、东昌区工商联组织部分新生代企业家赴台州市椒江区学习考察。', '企业家先后来到台州老粮坊文化创意产业园区、台州金属电创园、浙江同康酒业有限公司、椒江区智能马桶特色小镇、椒江区方远电创园等地，仔细听，用心看，不时记录学习，分享交流经验，在产业融合发展、企业创新、结构优化、数字经济升级等方面受到了新启发，开拓了新思路。', '企业家还来到椒江区统战同心之家和新联会参观，学习椒江统一战线成员在更好地发挥统战社团组织凝聚力、向心力，与党同心同德、同心同向、同心同行的过程中，在组织学习、开展活动、座谈研讨、联络联谊等方面的好经验、好做法。', '大家纷纷表示，将通过此次学习考察，充分利用对口合作这一重要机制，进一步找差距、学经验、再提升，加强与台州“亲友”的合作，统筹好两个市场、两种资源，在内外联动、南北互动的开放格局中聚焦主业、做大实业，努力实现优势互补、资源共享、互利双赢、共谋发展，助力通化“十四五”开好局、起好步。', '东昌区相关负责人表示，此次学习考察是一次解放思想、创新理念之行，是对口合作、强化交流之旅，是对标先进、明确短板的“取经”之措，是振奋精神、加快振兴的“务实”之举，既开阔了视野、找到了差距，又理清了思路、激发了热情，大家达到了带着问题去对标、带着办法回家的预期目的，相信通过此次活动，广大企业家能为家乡经济社会发展献计出力，为实现东昌区绿色转型、全面振兴贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>52</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>敦化市宣传部来梅考察全国文明城市创建工作</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-10-22</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202010/t20201022_8342799.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['在市委常委，宣传部长汪晓梅的陪同下，考察团先后来到现代服务业示范区，城市规划馆，政务中心，民生村镇银行，莲花社区，西市场，曙光镇东太平村等地进行了实地考察，认真听取创城工作情况介绍，详细了解我市在创建全国文明城市各项工作中的具体措施和经验做法；双方还就各自创城先进经验、做法进行了深入探讨和交流。', '在下午召开的座谈会上，考察团详细听取了我市在创建全国文明城市工作中的成功实践，包括做法，体会认识和问题对策，给考察团提供了工作借鉴和帮助。', '通过实地考察学习，考察团一行对我市在全国文明城市创建工作中取得的成效给予高度评价，一致认为我市创建全国文明城市工作发展思路明确，措施得力，值得敦化市认真学习、吸收和借鉴。今后将进一步加强两地之间的交流学习，创新创建理念，优化创建措施，加快推进文明城市创建各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>通化市志第七篇人民政协第六章主要活动</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-10-10</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/dfz/fztd/202210/t20221010_631593.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['台港澳侨联谊工作1987年3月，为加强台港澳侨联谊工作，市政协一届九次常委会议决定成立祖国统一联谊委员会。1992年6月，市政协举行通化市“三胞”眷属联谊会暨“三胞”企业发展公司成立大会，会议讨论通过联谊会章程，选举徐宝田为会长。大会宣读通化市政府外商投资优惠政策，向全市“三胞”眷属发出倡议书，号召他们为宣传通化、振兴通化、促进祖国统一竭诚奋斗。市委、市人大、市政府领导出席大会，并为“三胞”企业发展公司开业剪彩，从台湾来通探亲的8位台胞应邀参加大会。会后，各县(市、区)相继建立“三胞”眷属联谊会，并创办12个经济实体。其中，市本级创办3个经济实体，引进外资79万元，其中“三胞”眷属投资51万元。由于各级政府和有关部门大力提倡、鼓励“三胞”眷属兴办企业、招商引资，使外资企业逐年增加。截至1999年，全市外商企业近30个行业，港商投资企业81户，占外商企业的40%；华侨、归侨及侨眷兴办企业42户，占21.8%；台商投资企业21户，占11.4%。投资额达18000万美元。', '承办横向联系会议1988年5月18日，由通化市政协倡议并承办的“五市一盟”政协联席会议在集安市召开。参加会议的有内蒙古自治区哲里木盟、辽宁省铁岭市、吉林省四平市、辽源市、浑江市(今白山市)、通化市的政协主席、副主席、秘书长共29人。通化市各县(市、区)政协及市政协各委办的负责人列席会议。会议收到15份经验材料，从不同角度、不同侧面总结交流地方政协在当地党委的领导下，按照政协章程的规定，履行“政治协商、民主监督”经验和体会。经过协商决定，联席会议一年一次易地召开。会议的内容主要是交流工作经验.探讨政协理论。1993年“五市一盟”政协联系会决定参加6省(区)18市(盟)政协联席会议。1990年7月22日至25日，18市(盟)政协联席会议在辽源、通化2市举行。白城、赤峰、阜新、盘锦、朝阳、四平、哲里木盟、白山、营口、丹东、承德、秦皇岛、辽源和通化市的政协主席、副主席、秘书长共计47人出席会议。会议分两个阶段进行，在辽源市举行开幕式，交流工作经验，在通化市讨论通过会议纪要，举行闭幕式。会议以进一步贯彻落实《政协全国委员会关于政治协商、民主监督、参政议政的规定》精神，推进地方政协履行职能为主题，就如何在社会主义市场经济条件下加强社会主义民主政治建设、做好地方政协工作交流各地新思路、新探索、新举措、新经验。', '访问友好市区1988年9月12日，应上海市卢湾区政协主席方克的邀请，市政协主席杨桦、副主席姚斌带领8人学习小组赴卢湾区政协参观学习。沿途顺访山东省青岛市政协、江苏省吴县政协，参观学习他们的工作经验。在卢湾区政协参观学习期间，主席方克、秘书长庄德润全面介绍工作情况和经验。经过协商，双方达成《友好市区政协联系意见书》。1991年5月24日，市政协主席迟国连、秘书长徐宝田带领9人学习考察团赴上海市卢湾区政协学习考察。双方举行座谈会，交流工作经验。期间参观宝钢、浦东新区。1999年6月4日，应上海市卢湾区政协主席翁蕴珍的邀请，通化市政协主席徐功进等一行6人考察团，赴卢湾区政协学习考察。双方就履行政协职能、搞好政协工作规范化、制度化建设以及搞好政协换届工作举行座谈，卢湾区介绍改革开放和两个文明建设方面的经验和体会。期间参观中共一大会址、浦东开发区、上海历史博物馆等。', '喜迎香港澳门回归祖国1997年6月10日，市政协召开“迎香港回归祖国”座谈会。市政协部分委员、“三胞”眷属联谊会会员以及各民主党派、工商联负责人70多人参加会议。会议号召大家利用香港回归为契机，深入开展爱国主义教育，进一步搞好“三引进”(技术、资金、人才)工作，促进祖国和平统一。6月18日，市政协举办“迎回归庆七一”书画摄影展览，共展出180多幅作品，表达全市各级政协委员、民主党派成员和政协机关干部对中华民族繁荣昌盛的美好祝愿。6月27日市政协与东昌区、二道江区政协联合举办“庆七一迎回归”演唱会，以此迎接香港回归祖国，歌颂共产党，歌颂繁荣富强的祖国。7月1日，市政协委员和全体机关干部参加全市庆祝活动。1999年12月10日，市政协召开迎接澳门回归祖国座谈会。市政协领导、各民主党派、工商联负责人和市区部分政协委员、“三胞”卷属以及机关干部参加座谈会。会议要求要以澳门回归为契机，广泛开展爱国主义教育。', '调查视察1986年，市政协一届常委会组织人员到市直机关及梅河口市、辉南县、柳河县、集安县，对城镇职工技术教育情况进行调查研究，形成调查报告，经常委会议讨论通过，送达市委、市政府。', '1990年，市政协二届常委会组织委员、民主党派人士、工商联成员对公安、工商、税务、工商银行、农业银行、城建、公用、卫生、交通9个系统的行业作风情况进行视察。视察团由150名市政协委员。75名民主党派、工商联成员参加，共组成9个视察分团，视察109个基层单位。共召开175次1383人参加的座谈会，走访群众1700余人次，接待群众来信来访50多人次，收回征求意见卡106份。查阅有关账目、资料104份，形成《市政协视察行业作风情况的报告》和《市政协关于开展为稳定发展经济办一件实事活动的方案》，提交市政协二届二次常委会议讨论通过，报送市委、市政府及相关部门。', '1995年，市政协三届常委会会同通化市小康建设办公室组成调查组，分别由主席、副主席带队，到7个县(市、区)、14个乡镇、28个村调查农村小康建设情况，写出《关于全市农村小康建设情况的调查报告》和《关于加快全市农村小康建设步伐的建议案》提交市政协三届四次常委会议讨论通过，报送市委、市政府。', '2000年，市政协四届常委会组织委员对全市小城镇建设情况进行调查，写出《关于加快我市小城镇建设的调查与建议》，提交市政协四届二次常委会议讨论通过，报送市委、市政府。', '2005年，市政协五届常委会组织部分委员会同市政府及通钢相关部门，围绕通钢550万吨钢的建设及1000万吨钢的规划，就如何发展地方钢铁产业、加快“钢铁城”建设进行为期3个月的专题调研，对“钢铁城”的概念及内涵、“钢铁城”的目标定位、钢铁产业现状的分析、钢铁原料及资源的开发、“钢铁城”建设的对策及建设进行认真分析和研究，并形成《关于加快通化“钢铁城”建设的调查与建议》报告。围绕“钢铁城"建设召开专题协商会，邀请市委、市政府领导以及相关各局、委、办的领导参加会议。市委领导对调研报告给予充分肯定。至2005年，政协通化市常委会共组织开展调查、视察150项，撰写调查报告150份，提出合理化建议400余条，被市委、市政府及相关部门采纳70项。', '社情民意1990年，政协通化市三届委员会办公室设综合信息科，在《政协简讯》中设立“社情民意”专辑。1997年创办《社情民意》专刊，将委员反映的有价值的社情民意编成专刊，报送市委、市政府领导参阅。截至1999年末，共收到委员反映的社情民意224件，编发83件，市委、市政府领导批示21件。其中，《环通乡明兴三队村民吃水难问题亟待解决》在领导批示后，仅用7天就解决了明兴村108户居民用不上自来水的问题。', '2000年，市政协四届常委会决定将信息工作纳入研究室负责。了解和反映社情民意成为人民政协履行民主监督职能的一项重要工作。2000年至2004年，共收到委员反映的社情民意319件，编发203件，市委、市政府领导批示21件次，全国政协、省政协、《吉林内参》采用38件。其中，《关于切实解决劳模生活和医疗困难问题的建议》经市政府主要领导批示，市政府常务会议立会研究，在全省率先建立劳动模范基金，这条信息被省政协采用并报全国政协。', '2005年，市政协五届常委会共收到委员反映的社情民意66件，编发30件，报送市委、市政府领导，全部得到批示。其中《关于对股份制企业加强监管的建议》得到市领导重视和采纳。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>我市赴南方四省党政考察团圆满完成学习考察和招商引资目标任务平安顺利返梅</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202011/t20201102_8340735.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['我市赴南方四省党政考察团圆满完成学习考察和招商引资目标任务平安顺利返梅-梅河口市人民政府', '10月30日，我市赴南方四省党政考察团圆满完成学习考察和招商引资目标任务，满载着解放思想的巨大收获和招商引资的丰硕成果平安顺利返梅。', '在市委书记王爱明，市人大常委会主任刘怀玉，市委副书记、市长，市政协主席张卫红的带领下，考察团一行从22日到30日，在短短的9天时间内，辗转广东广州，湖南张家界、长沙，贵州丹寨、安顺、贵阳，云南丽江4省7地，实地参观考察了中国乃至东南亚最大的果菜集散地之一广州江南果菜批发市场，正大集团旗下“生鲜餐饮+零售”一体化混合业态福来食集长沙店，集旅游目的地、旅游集散地、休闲度假中心和品质生活中心于一体的旅游精准扶贫样本丹寨万达小镇等国内知名商贸文旅项目。', '围绕引进相关业态进入我市，进一步推动我市商贸物流、现代服务业、全域旅游等产业高质量发展，与项目投资企业广州江南果菜批发市场经营管理有限公司、正大集团、万达集团等相关项目负责人进行了深入真挚的沟通和交流，并就我市与这些企业强强联手，推进相关项目早日落地见效达成了初步合作意向。', '王爱明指出，在“十三五”即将圆满收官，全面开启“十四五”发展历程的关键时期，我们组织开展党员领导干部外出考察学习，是深入贯彻落实习近平总书记视察吉林重要讲话重要指示精神，完善我市“十四五”发展规划，加快建设现代化区域中心城市、高质量发展先行示范区的重要举措和必然要求，也是落实省委“解放思想再深入，全面振兴新突破”教育实践活动的具体行动。通过考察学习，我们开拓了视野，增加了见识，提升了思想，既看到了事业发展的短板和不足，也学到了新思想新理念，广交了朋友，引进了项目，为谋划“十四五”，更好更快地建设现代化区域中心城市、高质量发展先行示范区开阔了发展思路，明晰了发展路径。', '王爱明强调，按照省委赋予我们的新定位，未来我们要全面建成现代化区域中心城市、高质量发展先行示范区，实现“六个先行示范”，打造区域“四个中心”。经过“十三五”的积累，我市政务、经济、文化、生态“四大板块”的城市框架已经形成，工业新城、现代服务业示范区、教育小镇等产业发展和投资平台也已经搭建完毕。可以说，我们一切已经准备就绪，迫切需求一批优质企业和大体量项目进入，迫切需求一批优秀专业人才顶到一线，迫切需求广大党员干部保持干劲、接续奋斗，努力实现省委、省政府和市委、市政府确定的发展目标。广州江南果菜批发市场、长沙正大集团福来食集、丹寨万达扶贫小镇等项目投资体量大、经营理念先进、人才队伍雄厚、企业与我市合作发展意愿强烈，未来如果这些项目能够成功引进我市，必将极大提升我市商贸物流、现代服务业发展实力和水平，丰富全域旅游发展业态，并可实现各个项目相互促进、相互融合、共同发展，为我们进一步完善“吃住行游购娱”全产业链，打造全区域、全季节、全天候旅游业态摸索道路，实现生产性服务业和生活性服务业协同并进、传统服务业态和新型服务业态融合促进，推动我市各项事业全面提升、高质量发展。', '王爱明强调，“它山之石，可以攻玉”。“十三五”以来，我们每年都开展解放思想大讨论活动，连续三年到浙江省开展学习培训，党员干部尤其是领导干部的综合素质得到明显提升。这次我们专程选择到广东、湖南、贵州、云南等省份考察学习，就是要通过“走出去”，学习这些地区相关产业的先进发展理念和经验，通过不断总结、消化、吸收，最终实现“引进来”，推动我市产业、城市、社会事业、农业农村实现现代化，在实践中创新制度、创新举措、创新成果，加快梅河口改革发展步伐。在看到差距的同时，更要看到我们的优势和潜力，坚定“自河之玉，可以生辉”的信心，保持发展定力，坚定高质量发展决心，不断解放思想、创新举措，充分发挥我们的优势、释放我们的潜力、放大我们的亮点、补齐我们的短板，高起点、高站位谋划好本单位、本部门“十四五”发展目标、思路和具体举措，为实现经济高质量发展提供有力支撑，坚定不移走出一条质量更高、效益更好、结构更优、优势充分释放的高质量发展新路，为吉林全面振兴全方位振兴贡献梅河口力量。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>柳河县电商进农村综合示范域外电商考察学习参训人员申报公告</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-09-24</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.jllh.gov.cn/xxgk/zwgkdh/dzsw/202109/t20210927_553960.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['向全县征集优秀电商相关行业创业者、优秀电商相关企业负责人共16人参加此次考察学习活动。', '1、申报人员按照相关要求打印并填写纸质参训人员申报表（企业负责人申报需加盖公章）与其他相关佐证材料一并于9月30日14:00前上报柳河县商务局商务信息中心，逾期不再受理。', '2、商务局将对申报人员材料进行逐一审核，根据审核情况并按照申报的先后顺序最终确定参训人员共16人，不符合要求的人员将被淘汰，剩下的申报人员按顺序递补上来。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>52</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>我市深化吉浙对口合作推动高质量发展再上新台阶</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/thdt/202306/t20230626_659981.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['吉林与浙江、通化与台州对口合作以来，我市全面贯彻党中央、国务院关于建立东北地区与东部地区对口合作重大决策部署，深入落实吉浙两省《深化对口合作框架协议》，以政策为牵引、以产业为纽带、以共赢为目的，各领域合作持续深化，取得一系列新进展、新成果、新突破，城市高质量转型发展再上新台阶。', '谋定而动、高位推进。今年以来，浙江省发改委、台州市发改委、椒江区考察团等工作组分批到我市开展主题调研，共同加快打造对口合作“升级版”。我市在杭州举行通化人大代表企业家浙江经贸交流洽谈会，20多家浙沪商会协会、80多位浙沪客商和本土企业家出席。东昌区组织企业家协会成员赴杭州考察学习，针对医药健康、智慧物联网、电子商务等领域进行交流互动。', '“新时期浙商，善学习、勇创新，守诚信、重担当，为民营企业发展树立了榜样。我们要更新大脑’数据库’，丰富发展’武器库’，奋力赶超，在新征程新赛道上跑出高质量发展加速度。”通化百利包装有限公司董事长林思锐在交流活动中感慨地说道。', '架起深度合作之桥，开辟互利共赢之路。我市制定印发了《2023年通化市吉浙对口合作工作要点》，着力推进“以项目共建激发经济活力、以园区合作搭建经贸平台、以技术对接提升竞争实力、以文旅互补提升通化形象、以商贸合作拓展市场空间、以特色农业做活通化产品、以改善服务优化营商环境、以互访交流提升合作质量”八个方面33项重点工作。开展“十城百场”吉浙对口合作交流，组织市直21个部门和8个县（市、区）通过领导互访、培训交流、现场座谈、实地考察等形式，在现代农业和乡村振兴、文化旅游、民营经济发展等多领域开展面对面交流互动。', '今年4月，在通化-台州粮食产销合作洽谈会上，通化市粮食和物资储备局与台州市粮食和物资储备局签订了晚粳稻代收代储合作框架协议书，并大力支持通化的粮食企业、经营商户到台州开展长期经营，支持台州企业和种粮大户到通化建立粮食生产基地。同月，通化市乡村振兴系统干部及部分村支书一行赴台州市开展域外交流培训，学习党建引领产业发展、美丽乡村建设、未来数字乡村建设等经验做法。', '吉浙“千万游客互换”暨长三角地区文旅交流推介活动、“烹然心动以食为媒”通化-台州美食交流会、台州市旅行社品质联盟通化疗休养地接资源线路考察活动……对口合作工作向深度和广度持续推进，截至目前，全市已累计开展“十城百场”活动26场。', '梳理各自优势、寻找互补领域、谋求合作路径……在一次次互访互学中，干部群众内心改革求变的思想火花不断迸发，在跨越山水的深情厚谊中创造新机遇、深化新合作、铺就新道路。', '作为“一市一平台”的通化中医药健康养生园项目，是通化与台州对口合作的首个落地项目，目前休闲养生会所、部分养生小院、老年大学等项目已建成，该项目已被评定为AAA景区，致力于打造集医疗康养、休闲旅游于一体的特色康养之地。全部建成后将进一步擦亮通化“医药名城”“康养之都”城市品牌。', '由通化县丰禾农产品有限公司、台州前信大数据科技股份有限公司及深圳迪马信息技术有限公司合作的总投资2.2亿元的通化有点牛牧业有限公司大型肉牛养殖基地建设项目，发挥政策优势、地域优势，实现肉牛全产业链现代化发展。目前，项目一期工程建成并投入使用，以青贮窖、标准化牛舍等基础设施和发展能繁母牛为主，已购入西门塔尔母牛258头，现存栏310头。', '一个个成长性好、带动力强、符合绿色转型发展的大项目、好项目在通化落地开花的同时，两地在多个领域也结出累累硕果。', '农特市场拓展壮大。我市在台州共有19家大米直营店。为温岭代储晚粳稻7000吨，为玉环市代收代储的2000吨玉米和2400吨水稻已处于安全存储状态。台州在我市异地储备玉米、水稻等粮食累计达到3万吨。通化农业发展集团有限公司与浙江大蔚企业管理有限公司共同成立了通化农发实业有限公司，已开展稻米及水稻的收储业务。', '技术合作不断升级。源林日用品与中科院工程和生态塑料国家工程研究中心台州（黄岩）分中心科研创新合作项目的合作计划书已编制完成，抗菌冰箱收纳盒、抗菌儿童餐具和抗菌食品餐盒产品正在设计中。通化奥唐动力机械制造有限公司与台州市光中电器制造有限公司签订了高速测功机用联轴器合作项目，目前部分生产设备已安装完成。持续推动东方红药业与浙大现代中药研究所产学研合作，目前，东方红年产3000吨中药配方颗粒智慧工厂建设项目的前处理车间、提取制剂车间、综合仓库基础施工已完成。与杭州火石创造科技有限公司合作的医药产业（大脑）赋能中心合作项目增加了涉及“MAH”的研发、制造、销售模块，目前手机应用端已初步完成模块设计。设立“印象通化苑”特色农副产品店，东昌区上百种名特优产品进入椒江区千家万户，累计销售1000余万元。', '此外，两市还积极探索共同搭建对口合作“互采互用”平台，建立常态化“互采互用”工作机制，搭建多元化“互采互用”互动载体，推动双方产品与市场、资源与资本双向合作对接，努力实现优势互补、共赢发展。', '一流的营商环境就是最好的“梧桐树”、最强的“磁力场”，是一座城市最核心的竞争力。学习借鉴台州优化营商环境经验，我市全力打造“通·通办”服务品牌，用机制和制度实现“不叫不到、随叫随到、说到做到、服务周到”的承诺。', '在政务服务方面，推进市政务服务中心“通台通办”窗口建设，组织政务大厅全体窗口人员定期开展“跨省通办”业务针对性培训，实现业务办理标准化、规范化。对照梳理通化、台州政务服务事项清单，进一步细化原有通台通办事项清单，与台州行政服务中心对接洽谈，增加跨省可办事项，进一步扩展通台通办事项范围。', '在金融服务方面，学习借鉴台州金融信用信息共享平台最新经验成果，进一步促进“吉企银通”通化平台应用推广，解决银企信息不对称问题，更好地为小微企业提供融资服务。利用“吉企银通”认证企业达1337家，发布融资需求1833笔、总计58.34亿元，成功放款987笔、总计47.39亿元，贷款加权平均利率5.55%。', '连续举办四届企业家节，持续推行“英才卡”“法人卡”制度，为企业落户和人才安家开辟绿色通道、提供便利服务。高效便捷、公平有序的营商环境让浙江企业家安心扎根通化、投资兴业，携手勾勒发展同心圆，激发经济发展新动能。', '“项目建设前期，通化市充分利用各项政策，确保项目尽快落地；项目建设阶段，主动服务，积极作为，确保项目建设顺利推进；在筹备营运阶段，充分借鉴浙江乌镇雅园成功经验，全力保障项目运营。”洪福堂健康产业发展有限公司负责人刘冰洁对项目建设中全过程全方位的保障记忆犹新。如今，作为通化市人大代表、通化市工商联委员、女企业家协会委员的刘冰洁，积极参政议政，为第二故乡的建设添砖加瓦。', '“为了让项目尽快落地投产达效，通化县经济开发区主动为企业提供了生产车间、办公区和职工食堂，提前做好厂房装修及配套设施建设，让企业实现’拎包入住’。同时，邀请专业技术老师对入职员工进行岗前培训，全力保障企业用工需求。”吉林森波户外用品有限公司企业负责人卢海波是台州市青年企业家协会理事、台州市创业导师，他说来通化投资，让他见证了签约即落地、落地即开工、开工即投产的“通化速度”。', '有点牛牧业有限公司负责人董迪马，曾荣登2017年福布斯中国三十岁以下精英榜，是深圳海外高层次人才引进团队成员，台州500精英人才计划引进团队成员。他说：“项目建设之初，市、县两级有关部门在各方面都给予了大力支持，目前项目发展势头强劲”。', '吉林省中科管业股份有限公司总经理吴肖唯说，吸引自己走进来、扎下根的重要原因是通化市持续优化的营商环境和便捷高效的政务环境，尤其是政府出台的“一网通办”等便企服务措施，为公司高质量发展提供了坚实支撑。目前项目施工建设工作处于收尾阶段，生产设备正陆续入驻车间，已产生销售额200余万元。', '聚焦新时代、新目标，开启新征程、新未来。跨越两千多公里山水，通化、台州振兴合作的热潮正不断涌动，在逐梦共赢之路上奋力前行，谱写着更加璀璨绚丽的华美篇章。（庄新岩）']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>52</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>跨山越海携手逐梦通化市深化吉浙对口合作推动高质量发展再上新台阶</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/ztzl/fgw/gzdt/202306/t20230628_660488.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['吉林与浙江、通化与台州对口合作以来，通化市全面贯彻党中央、国务院关于建立东北地区与东部地区对口合作重大决策部署，深入落实吉浙两省《深化对口合作框架协议》，以政策为牵引、以产业为纽带、以共赢为目的，各领域合作持续深化，取得一系列新进展、新成果、新突破，城市高质量转型发展再上新台阶。', '谋定而动、高位推进。今年以来，浙江省发改委、台州市发改委、椒江区考察团等工作组分批到通化市开展主题调研，共同加快打造对口合作“升级版”。通化市在杭州举行通化人大代表企业家浙江经贸交流洽谈会，20多家浙沪商会协会、80多位浙沪客商和本土企业家出席。东昌区组织企业家协会成员赴杭州考察学习，针对医药健康、智慧物联网、电子商务等领域进行交流互动。', '“新时期浙商，善学习、勇创新，守诚信、重担当，为民营企业发展树立了榜样。我们要更新大脑‘数据库’，丰富发展‘武器库’，奋力赶超，在新征程新赛道上跑出高质量发展加速度。”通化百利包装有限公司董事长林思锐在交流活动中感慨地说道。', '架起深度合作之桥，开辟互利共赢之路。通化市制定印发了《2023年通化市吉浙对口合作工作要点》，着力推进“以项目共建激发经济活力、以园区合作搭建经贸平台、以技术对接提升竞争实力、以文旅互补提升通化形象、以商贸合作拓展市场空间、以特色农业做活通化产品、以改善服务优化营商环境、以互访交流提升合作质量”八个方面33项重点工作。开展“十城百场”吉浙对口合作交流，组织市直21个部门和8个县（市、区）通过领导互访、培训交流、现场座谈、实地考察等形式，在现代农业和乡村振兴、文化旅游、民营经济发展等多领域开展面对面交流互动。', '今年4月，在通化-台州粮食产销合作洽谈会上，通化市粮食和物资储备局与台州市粮食和物资储备局签订了晚粳稻代收代储合作框架协议书，并大力支持通化的粮食企业、经营商户到台州开展长期经营，支持台州企业和种粮大户到通化建立粮食生产基地。同月，通化市乡村振兴系统干部及部分村支书一行赴台州市开展域外交流培训，学习党建引领产业发展、美丽乡村建设、未来数字乡村建设等经验做法。', '吉浙“千万游客互换”暨长三角地区文旅交流推介活动、“烹然心动 以食为媒”通化—台州美食交流会、台州市旅行社品质联盟通化疗休养地接资源线路考察活动……对口合作工作向深度和广度持续推进，截至目前，全市已累计开展“十城百场”活动26场。', '梳理各自优势、寻找互补领域、谋求合作路径……在一次次互访互学中，干部群众内心改革求变的思想火花不断迸发，在跨越山水的深情厚谊中创造新机遇、深化新合作、铺就新道路。', '作为“一市一平台”的通化中医药健康养生园项目，是通化与台州对口合作的首个落地项目，目前休闲养生会所、部分养生小院、老年大学等项目已建成，该项目已被评定为AAA景区，致力于打造集医疗康养、休闲旅游于一体的特色康养之地。全部建成后将进一步擦亮通化“医药名城”“康养之都”城市品牌。', '由通化县丰禾农产品有限公司、台州前信大数据科技股份有限公司及深圳迪马信息技术有限公司合作的总投资2.2亿元的通化有点牛牧业有限公司大型肉牛养殖基地建设项目，发挥政策优势、地域优势，实现肉牛全产业链现代化发展。目前，项目一期工程建成并投入使用，以青贮窖、标准化牛舍等基础设施和发展能繁母牛为主，已购入西门塔尔母牛258头，现存栏310头。', '一个个成长性好、带动力强、符合绿色转型发展的大项目、好项目在通化落地开花的同时，两地在多个领域也结出累累硕果。', '农特市场拓展壮大。通化市在台州共有19家大米直营店。为温岭代储晚粳稻7000吨，为玉环市代收代储的2000吨玉米和2400吨水稻已处于安全存储状态。台州在通化市异地储备玉米、水稻等粮食累计达到3万吨。通化农业发展集团有限公司与浙江大蔚企业管理有限公司共同成立了通化农发实业有限公司，已开展稻米及水稻的收储业务。', '技术合作不断升级。源林日用品与中科院工程和生态塑料国家工程研究中心台州（黄岩）分中心科研创新合作项目的合作计划书已编制完成，抗菌冰箱收纳盒、抗菌儿童餐具和抗菌食品餐盒产品正在设计中。通化奥唐动力机械制造有限公司与台州市光中电器制造有限公司签订了高速测功机用联轴器合作项目，目前部分生产设备已安装完成。持续推动东方红药业与浙大现代中药研究所产学研合作，目前，东方红年产3000吨中药配方颗粒智慧工厂建设项目的前处理车间、提取制剂车间、综合仓库基础施工已完成。与杭州火石创造科技有限公司合作的医药产业（大脑）赋能中心合作项目增加了涉及“MAH”的研发、制造、销售模块，目前手机应用端已初步完成模块设计。设立“印象通化苑”特色农副产品店，东昌区上百种名特优产品进入椒江区千家万户，累计销售1000余万元。', '此外，两市还积极探索共同搭建对口合作“互采互用”平台，建立常态化“互采互用”工作机制，搭建多元化“互采互用”互动载体，推动双方产品与市场、资源与资本双向合作对接，努力实现优势互补、共赢发展。', '一流的营商环境就是最好的“梧桐树”、最强的“磁力场”，是一座城市最核心的竞争力。学习借鉴台州优化营商环境经验，通化市全力打造“通·通办”服务品牌，用机制和制度实现“不叫不到、随叫随到、说到做到、服务周到”的承诺。', '在政务服务方面，推进市政务服务中心“通台通办”窗口建设，组织政务大厅全体窗口人员定期开展“跨省通办”业务针对性培训，实现业务办理标准化、规范化。对照梳理通化、台州政务服务事项清单，进一步细化原有通台通办事项清单，与台州行政服务中心对接洽谈，增加跨省可办事项，进一步扩展通台通办事项范围。', '在金融服务方面，学习借鉴台州金融信用信息共享平台最新经验成果，进一步促进“吉企银通”通化平台应用推广，解决银企信息不对称问题，更好地为小微企业提供融资服务。利用“吉企银通”认证企业达1337家，发布融资需求1833笔、总计58.34亿元，成功放款987笔、总计47.39亿元，贷款加权平均利率5.55%。', '连续举办四届企业家节，持续推行“英才卡”“法人卡”制度，为企业落户和人才安家开辟绿色通道、提供便利服务。高效便捷、公平有序的营商环境让浙江企业家安心扎根通化、投资兴业，携手勾勒发展同心圆，激发经济发展新动能。', '“项目建设前期，通化市充分利用各项政策，确保项目尽快落地；项目建设阶段，主动服务，积极作为，确保项目建设顺利推进；在筹备营运阶段，充分借鉴浙江乌镇雅园成功经验，全力保障项目运营。”洪福堂健康产业发展有限公司负责人刘冰洁对项目建设中全过程全方位的保障记忆犹新。如今，作为通化市人大代表、通化市工商联委员、女企业家协会委员的刘冰洁，积极参政议政，为第二故乡的建设添砖加瓦。', '“为了让项目尽快落地投产达效，通化县经济开发区主动为企业提供了生产车间、办公区和职工食堂，提前做好厂房装修及配套设施建设，让企业实现‘拎包入住’。同时，邀请专业技术老师对入职员工进行岗前培训，全力保障企业用工需求。”吉林森波户外用品有限公司企业负责人卢海波是台州市青年企业家协会理事、台州市创业导师，他说来通化投资，让他见证了签约即落地、落地即开工、开工即投产的通化速度。', '有点牛牧业有限公司负责人董迪马，曾荣登2017年福布斯中国三十岁以下精英榜，是深圳海外高层次人才引进团队成员，台州500精英人才计划引进团队成员。他说：“项目建设之初，市、县两级有关部门在各方面都给予了大力支持，目前项目发展势头强劲。”', '吉林省中科管业股份有限公司总经理吴肖唯告诉记者，吸引自己走进来、扎下根的重要原因是通化市持续优化的营商环境和便捷高效的政务环境，尤其是政府出台的“一网通办”等便企服务措施，为公司高质量发展提供了坚实支撑。目前项目施工建设工作处于收尾阶段，生产设备正陆续入驻车间，已产生销售额200余万元。', '聚焦新时代、新目标，开启新征程、新未来。跨越两千多公里山水，通化、台州振兴合作的热潮正不断涌动，在逐梦共赢之路上奋力前行，谱写着更加璀璨绚丽的华美篇章。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>52</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>省委组织部中青班学员莅梅考察学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-05-27</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202105/t20210527_8342948.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['此次莅梅的中青班学员共120人，在梅期间的培训采取集中授课+考察教学的形式,聚焦梅河口发展这一主题。25日上午，市委常委、副市长王军为中青班作《讲好梅河口故事 引领高质量发展》的专题授课；市委常委、组织部长刘刚主持了开班仪式。他代表市委市政府向中青班全体学员表示诚挚的欢迎，向一直以来支持帮助梅河口发展的全省各地的朋友表示衷心地感谢。', '刘刚希望通过省委组织部创造的这次培训交流机会，大家多走走，多看看，多指导，多交流，把全省各地好的经验做法带到梅河口，为我们传经送宝，大家取长补短，互通有无，相互借鉴，共同提高。', '王军先从听闻、看见、融入的体验，带领大家感性了解梅河口；再以深刻的理解和思索，引导大家理性地认识梅河口。王军的授课以梅河口快速发展为脉络，以典型事例为线索，语言朴实，情景交融。溯源说事，以鲜活的故事描绘奋斗的过往，侧重突出七种精神引导梅河口人披荆斩棘、一往无前；愿景筹谋，以美好的蓝图展示可期的未来，重点聚焦高质量发展所带来的强劲动力和激发的崭新活力。王军以缜密的思考归纳和严谨的逻辑演绎，深刻阐释了可以复制、可以充分发挥引领作用的梅河口发展模式。', '25日下午和26日上午，中青班学员先后来到城市规划馆、现代服务业示范区四季体育馆、梅河口体育场、教育小镇、世基啤酒生态小镇、人民公园党群服务站、海龙湖公园、梅河口东北不夜城城市舞台、山水林田湖草生态保护修复工程、四环制药有限公司、工业新城、电商产业园和双创大厦、健康食品产业园、北京天衡（鲁南制药）医药研发孵化器项目进行实地考察学习，进一步增加对梅河口发展的实际认证。', '通过集中授课和实地考察学习，达到了“以学促思，以学提能，以学促行，推动考察学习走深走实”的培训目标，使大家认识了一个快速崛起、蓬勃发展的梅河口，了解了一个具有实力、活力、法治、幸福丰富内涵的梅河口，也使大家爱上了生机勃勃、日新月异的梅河口。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>52</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>县政协前往新宾满族自治县考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-09-07</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/yw/202209/t20220907_627661.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['9月5日，县政协主席冯国宏带领县政协考察组前往辽宁省新宾满族自治县，考察学习县级《文物志》编纂工作和文物古迹保护开发利用经验。 新宾满族自治县政协主席谷凤威、副主席江艳梅，政协文史和科教法制委员会主任李作有、新宾满族自治县文化旅游和广播电视局局长任娟参加考察和座谈。通化县政协文化文史和学习委员会主任刘喜军，县文化广播电视和旅游局局长刘颖，特邀专家、博士生导师耿铁华参加考察。', '考察组实地视察了清永陵、赫图阿拉故城两个全国重点文物保护单位，结合清永陵文物管理所、赫图阿拉城文物管理所文保工作介绍，认真学习了文物古迹保护、文化传承推介、文创旅游产品开发等经验。', '谷凤威简要介绍了新宾满族自治县情和政协工作经验。他表示，“广开言路、广交朋友”是新宾满族自治县政协工作的主要特点。诚挚欢迎通化县政协考察组来到新宾满族自治县考察交流。希望两地政协多亲多走、多聊多助，巩固深化传统友谊，踔厉奋发、笃行不怠，发挥政协优势，助推两地在各领域的务实合作，携手开创经济社会发展新局面。 冯国宏在会上简要介绍了通化县情，并分享了通化县政协“委员党支部建设”“点站台+”“稗官拾言”等政协创新工作经验。他强调，通化县与新宾满族自治县“山相接、水相连、人相亲”，两地兄弟情谊深厚，经济和社会各个领域都保持着长期广泛的交流与合作。通化县政协希望以此次考察为契机，扩展两地情谊的广度和深度，强化完善两地政协的工作交流机制，将新宾满族自治县文史及文物保护工作的先进经验学习好、带回去，进一步夯实《通化县文物志》编纂工作基础，推动县政协、全县文化旅游工作再上新台阶。 座谈期间，新宾满族自治县与会专家学者详细介绍了《新宾满族自治县文物志》编纂工作经验，并就通化县政协考察组提出的疑问一一进行解答。两地文旅部门也相互交流了工作经验，并建立了对口交流合作机制。 江艳梅主持座谈会。 县文物管理所所长王利，县文史研究会主席梁克弋、副主席兼秘书长崔宇；新宾满族自治县文化旅游和广播电视局副局长赵荣利，《新宾满族自治县文物志》主编肖景全，赫图阿拉城文物管理所、清永陵文物管理所相关人员参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>52</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>进化镇赴通化裕丰元特色种植产业园考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/202203/t20220304_8406825.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['为积极贯彻落实2022年市委农村工作会议精神，围绕“双千工程”工作目标，进化镇领导班子及部分村党支部书记到通化裕丰元生态资源开发有限公司的特色种植产业园进行了实地考察学习。', '通化裕丰元生态资源开发有限公司位于通化县快大茂镇赶马河村一组，经营面积500余亩，是通化地区较有规模的集采摘、植物观赏、垂钓烧烤等特色于一体的产业园区。主要种植绿色无公害果蔬、反季节山野菜、花卉及无花果、玫瑰香葡萄等特色农产品，是吉林省休闲农业和乡村旅游五星级示范企业。', '考察组一行对园区的毛桃种植大棚、花卉种植大棚、无花果种植大棚等进行了参观考察，并与快大茂镇领导及企业负责人对产业发展进行了充分探讨。', '党委书记付忠臣指出：裕丰元公司的生产项目和先进技术给予了我们在发展之路上的启发，各村要根据今日所学，结合各自实际，制定高质量发展新目标，并深入思考因地制宜的举措和机制，积极谋划，着力探索特色产业发展道路，确保农业持续发展、环境提质提升、农民大幅增收。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>52</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>杨大勇杜晓瑜夫妻俩返乡创业乐当新农人</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-07-12</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.edj.gov.cn/zfxx/bmdt/202307/t20230704_662440.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['在二道江区铁厂镇，只要提起茂霖畜牧公司的杨大勇、杜晓瑜夫妇，熟悉他俩的人都竖起大拇指说：“那两口子，有文化，见过大世面，又能吃苦，跟着他们干都能赚到钱！”', '6月的一天，在茂霖公司的樱桃大棚外，董事长杜晓瑜正在领着工人忙活着平整地面，地上正在铺着各色的花砖，棚前的花圃四周插上装饰用的旧盘子，很有点“土味乡村”的感觉。杜晓瑜快人快语介绍道：“我们想搞乡村旅游，让人没来时有念头、来了有看头、来后有想头。一句话，能把人吸引来只是成功一半，还要能让人留下来消费，用发展乡村旅游带动村民增收。”', '今年43岁的杜晓瑜和丈夫杨大勇是在北京求学时相识、相爱的，婚后在北京打拼多年，事业越做越好，可乡愁却也越来越浓。2016年，夫妻二人告别北京，决定回家乡创业。', '创业伊始，夫妻俩看好了循环种植养殖项目。对他俩来说，这是个全新的领域。为了学到先进的经营理念和管理技术，他们多次外出学习考察，项目筹备建设就是一个摸索的过程。', '“我们引进了藏香猪，建起了养鸡场。为了解决养殖粪便污染问题，我们建起了大棚，种植樱桃和草莓……”杜晓瑜介绍说。别看她说起来挺轻松的，其实背后有着许多不为人知的苦。从繁华喧嚣、灯火通明的城市回到纵横阡陌、鸟语虫鸣的田园，环境的变化需要一个适应的过程；农业创业项目前期投入多、回报周期长，产品拓销路、打品牌都面临着风险与挑战，内心也需要有一个承受的过程。', '基于这种绿色循环发展理念，他们几经考察，反复论证，从无到有，从有到产业发展，终于形成了一条特色农产品产业链。', '回到农村，绿水青山还在，乡音还在，但人口流失情况也很严重，青壮年大多去城里打工了，留守的老人们日子依旧过得平常，现实的落差让杜晓瑜夫妇俩心里不太好受，往日热闹鲜活生动的那个乡村呢？', '“我们想让更多的人知道我们的家乡，让更多的资金、技术、人才等要素向家乡汇聚，让乡亲们的日子变得越来越富裕。”杜晓瑜告诉记者。正是有着这样的信念，她和丈夫决定带领乡亲们蹚出一条路，过上富足的日子。', '成立了自己的公司后，杜晓瑜先打造了“三板福”特色农产品品牌，主要经营森林蚯蚓土鸡蛋、藏香猪肉等产品，带动了周边几十名村民就业。后来又经营反季节有机樱桃、草莓等特色农产品，公司也正在向深加工扩展，产品将越做越精细。如今，茂霖畜牧平时能用工30人至60人，最多时能用工200多人，培养种植养殖技术骨干30多人。', '在光明路的茂霖农场会员店，门口的宣传语彰显了企业的经营理念：有机农场，生态养殖；新鲜直供，健康品质。近年来，她又将产品放在淘宝店、微信号、抖音、直播等多种平台，微商城上商品种类多，在网络上可是赚足了人气和名气。在直播平台，她叫自己为“茂霖杜姐”，既诙谐又可爱，赢得了许多忠实“铁粉”，产品远销深圳、北上广等一线城市。', '随着产业的不断壮大，越来越多的村民在家门口就能找到工作，有效促进了乡村就业，同时也吸引了有条件、有意愿发展农业产业的人才回乡投资创业，为乡村振兴持续输入新动能。', '和杜晓瑜聊天，她说的最多的词是“新农人”，说自己一直坚持“专注品质，建设家乡，做原生态的新农人”。除了带动乡亲们致富，她还带领公司员工，出资出力共平整和治理周边土地、河道，改善农村人居环境6万多平方米。加之她有着在北京多年旅游工作的经验，下一步准备带领村民开发乡村旅游，打造沟谷经济，让大罗圈河、百年古榆树、沿河栈道等景观被更多的人熟知，让更多的城里人走进农村，了解新农村的变化。如今的四道沟村，村容村貌变了模样，一幅“业兴、家富、人和、村美”的乡村图景正徐徐展现在人们面前。', '谈到未来的发展愿景，她充满信心：“今天能小有成功，得感谢让返乡青年回得来、留得住、有舞台的好政策，才让我们在农村广阔天地大显身手，在乡村振兴中建功立业。”', '记者手记：乡村振兴，需要人才也造就人才。不少返乡创业者都有一些共同之处：受过良好的教育，有着在外创业打拼的经历，热爱自己的家乡。扎根田野，回报乡村，他们为乡村振兴增添了新鲜血液；敢闯敢拼，勇敢前行，广袤乡村回馈他们以更多的高光时刻。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>52</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>三棵榆树镇抢抓农时备春耕</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022-03-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202203/t20220324_593687.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['人勤春来早，备耕正当时。面对当前严峻的疫情防控形势，三棵榆树镇坚持一手抓疫情防控不放松，一手抓农业生产不动摇，做到防疫生产两不误，积极引导农户抢抓农时，以早动争主动，有序推进备春耕工作。 强举措稳生产，保障民生促发展。为统筹抓好疫情防控和春耕生产，三棵榆树镇党委政府第一时间组织全镇干部、各村书记召开专题工作会议，研究部署辖区疫情防控和春耕备耕工作措施，组建了疫情防控专项工作组和护春耕行动队，以高标准、严要求、实举措压紧压实责任，细化实化工作举措，确保各项工作落到实处、取得实效。 带队伍学技术，农机农技助春耕。为了切实做好秸秆离田和综合利用工作，先后多次组织包村干部、村书记、种植大户、农机户等到农机市场和种植合作社进行实地考察学习，进一步开阔视野，学习和借鉴其他地区的先进经验和成功做法。同时还成立了春耕备耕工作服务队，农业技术工作人员现场讲解农业扶持政策、免耕技术、生产要点等，帮助农民解决春耕备耕中遇到的实际问题。 抓宣传促监管，生产安全有保障。以文明实践活动、志愿服务活动助力打赢疫情防控阻击战和秸秆禁烧攻坚战。全镇12个新时代文明实践站纷纷组织党员、志愿服务队深入村庄农户、中小学、集市，广泛开展宣传活动，运用电子显示屏、村广播、微信工作群、悬挂宣传标语、“小手拉大手”等开展形式多样的宣传活动，向群众大力宣传秸秆禁烧、保护生态环境、疫情防控等相关政策法规。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>52</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>县卫生健康局赴临海参观考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201904/t20190423_348968.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['为深入推进对外合作交流，进一步深化我县与临海市在卫生健康领域的务实合作，近日，县卫生健康局考察组赴临海市参观考察学习。', '考察组来到临海市第二人民医院和桃渚镇中心卫生院，详细了解各医疗机构在组织管理、特色科室建设、医共体建设、应用信息化自动化设备等方面情况，着重对临海市中医、“两癌筛查”“五星级预防接种门诊”建设及疫苗冷链管理工作等特色业务开展情况，进行了深入学习，并座谈交流了两地卫生健康领域的好经验、好做法。 在临海期间，考察组还实地参观了浙江头门港经济开发区。 临海市卫生健康局主要负责人、局机关部分科室负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>52</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>辉南县党政考察团赴浙江玉环市考察交流</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-11-27</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://hncredit.huinanxian.gov.cn/xygs/zwxxgs/202202/t20220217_770858.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['11月16日，县委书记孙维良带领辉南县党政考察团赴玉环市开展考察交流。县政协主席兰守堂，县领导林希铭、刘吉武、郭晓曼参加考察。玉环市委书记吴才平，市领导林成辉、林仁斌、李丹佳陪同考察。', '考察团一行实地考察了漩门湾国家湿地公园、时尚家居小镇、玉环湖绿道、干江上栈头乡村振兴项目、鸡山省级风情旅游小镇等地。', '吴才平表示，亲戚越走越亲、越走越近。近年来，两地交流、互访活动不断，结下了深厚的情谊，尤其是去年“利奇马”台风和今年新冠肺炎疫情期间，辉南县给予玉环的帮助，让双方的友谊更加深厚。希望双方进一步加深交流，尤其是在旅游业发展上积极协作，在产业发展上共同促进，不断增进两地友谊。', '孙维良表示，近年来，辉南和玉环频繁的交流互动，为两地对口协作奠定了坚实基础。此次“走亲戚”，深切感受到了“两地一家亲”的深厚感情。今日的辉南有三个可喜变化：一是广大干部的精气神明显提升，二是项目建设和招商引资工作效果显著，三是城市建设突飞猛进。诚挚邀请玉环的干部群众到辉南走一走、看一看，感受一下辉南的变化与辉南人的热情！', '孙维良指出，此次考察学习，深切地感受到玉环市在加快产业发展、乡村振兴、生态旅游等方面探索出的高质量发展之路。我们要认真学习借鉴玉环市的好经验、好做法，学习玉环市改革不断、创新不止的精神状态和工作作风，见贤思齐，锐意进取，进一步转变观念、更新理念，破除制约发展的思想障碍，切实推动辉南经济社会又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>52</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>集安市强化网格员队伍建设激发基层治理活力</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202206/t20220614_616874.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['近年来，集安市紧紧抓住城乡基层社会治理这一有利契机，积极探索，齐抓共管，全面加强专职社区网格员队伍建设,着力解决基层社会治理力量薄弱环节，全市基层社会治理能力明显提升。', '坚持“对外考察+对内调研”相结合。为学习先进省份经验做法，集安市组织40余名干部分批次到浙江省诸暨市枫桥镇、上海市崇明区城桥镇等地实地学习考察，并在对城区4个街道开展全面调研的基础上，整理形成了具有集安特色的招录专职社区网格员的思路和办法。坚持“高效推进+科 学谋划”相结合。为推动落实专职社区网格员招录工作，组织人社局、财政局等部门共同谋划招录工作政策，在充分征求各街道意见建议的基础上，并通过市政府常务会审议通过，最终确定专职社区网格员招录计划。坚持“阳光招录+及 时补录”相结合。为确保招录工作公开化、透明化，该市严格按照发布公告、组织面试、政治审查、体检、网上公示等流程，在通化地区率先招录152名专职网格员。今年2月，随着城区范围不断扩大、社区工作量不断增加，该市又补充招录了13名专职社区网格员，进一步夯实了基层社会治理基础。', '紧锣密鼓抓培训。为进一步提升网格员工作能力，该市利用“线上+线下”模式开展培训。通过县、乡、村三级综治视联网信息系统，常态化开展业务培训的同时，定期选派优秀街道干部、经验丰富的社区主任介绍工作经验，网格员能力素质得到显著提升。科学精细抓管理。为加强网格员日常管理，该市在街道（社区）成立了网格化服务管理中心（站），出台了《专职社区网格员管理办法》，要求网格员“三做到”，即每日签到入户、每周参加例会、每月汇报工作。实行“三统一”，即统一制作网格划分示意图和工作流程图，统一配发网格员服装和服务标识，统一规范网格工作日志填写等，进一步规范了网格员日常管理。从严从实抓考核。为确保措施落地见效，集安市委政法委联合市委组织部、民政局等单位对各街道网格化服务管理工作开展督导检查，并将检查结果纳入年度考核，同时计入当年街道“平安建设”考评成绩，有力地推动了各街道网格工作高效运转。', '保“待遇”。为提高社区网格员工资待遇，该市克服财政困难，每年投入400余万元专门用于保障专职网格员工资待遇。在吉林省确定的最低工资标准1540元基础上，额外为社区网格员缴纳养老保险、失业保险和工伤保险，网格员每月收入达到2200元左右。给“面子”。为提高社区网格员的社会认可度，集安市通过户外大屏幕、电视台、网站、微信公众号等广泛宣传社区网格员优秀事迹，介绍社区网格员工作的感人瞬间，以润物无声、春风化雨方式带动全社会主动了解网格员、理解网格员、关心网格员，进一步提升了社区网格员的社会地位。谋“路子”。为充分调动社区网格员工作积极性，该市为社区网格员单独设立了年终绩效奖，年度考核优秀奖励1200元、称职奖励1000元、基本称职奖励800元。同时，打通向上晋升渠道，为具备条件的社区网格员考取公务员、事业编、社工师，竞选社区“两委”成员给予一定的政策扶持。截至目前，累计有5名社区网格员参加公务员、事业编考试被录取，有7名优秀社区网格员通过竞选进入社区“两委”班子。', '深入开展“惠民生送温暖”活动。集安市坚持做好为民服务工作，将困难群众难以解决的民生事项纳入社区网格员服务范围，逐户发放民情联系卡，力所能及地做好帮办、代办服务。对于辖区群众遇到的涉法问题，主动协调网格法官、义务律师提供免费咨询和解答，并积极引导其走法律程序，有效解决了群众遇到的烦心事、闹心事、揪心事，真正实现了服务群众“零距离”。扎实开展“特殊人群关爱帮扶”活动。该市坚持做好特殊人群帮扶工作，定期组织社区网格员对社区矫正人员、刑满释放人员、精神障碍患者等特殊人群进行走访慰问，依托“彩虹基地”帮助解决就业问题，对丧失劳动能力、没有经济来源的特殊人群，积极协调相关部门办理低保，有效地解决了特殊人群的后顾之忧，维护了社会和谐与稳定。（孙洪建 蒲永俊）']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>52</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>柳河县公安局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://xxgk.jllh.gov.cn/zcbm/gaj_98042/ndbg/202301/t20230109_642273.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['2022年，县公安局坚持以习近平新时代中国特色社会主义思想为指导，坚持以人民为中心深化政务公开，全面贯彻落实县委县政府关于全面推进政务公开工作的决策部署，紧紧围绕《2022年柳河县政务公开工作要点》，不断加强政策解读和回应关切，深入推进决策和执行公开，强化制度和平台建设，进一步提高政府工作透明度，充分发挥政务公开促落实、促规范、促服务、强监督的作用，助力全县营商环境和政务环境提升，切实提升人民群众获得感和满意度。', '（一）主动公开。一是通过线上线下相结合的方式全面、及时、准确公开政务服务事项、办事指南、办事流程、办事机构、常见问题、监督举报方式等信息，全年公开各类政府信息。二是强化政策解读，积极回应社会关切。更多采用图表图解、简明问答、短视频等形式，全面深入解读政策背景、出台目的、重要举措等实质性内容，不断提升解读效果。', '“服务群众、解决问题、化解矛盾”为工作宗旨，严格按照依申请公开办理规范指引，进一步明确办理规则，完善办理流程，提高答复效率。由办公室牵头，办案部门和法制部门协同配合，通过约谈、电联、调查等多种形式，了解申请公开的背后原因，解决申请人的实质问题，从而提升答复质量和群众满意度。', '（三）政府信息管理。明确政府信息公开工作职责和任务，明确专人负责政府信息公开工作。进一步完善政府信息公开审批和保密审查制度，加强对拟公开政府信息的审核把关。加强学习宣传，营造工作氛围，组织全体民警、职工、辅警学习《政府信息公开条例》及相关解释规定，不断提高对政府信息公开工作重要意义的认识。', '（四）政府信息公开平台管理。加强政府信息公开平台建设，不断拓宽信息公开渠道、优化发布形式、不断整合资源，构建信息公开融媒体矩阵。借助新媒体的及时互动传播优势，答疑解惑、问计于民，使政务新媒体成为促进警民关系和谐的桥梁和纽带。', '我局政府信息公开工作取得了一定成绩，但是与县委县政府及上级公安机关工作要求相比，与人民群众的迫切要求和殷切期待相比，还存在公开意识不强、系统管理能力不足、人员队伍素质有待提高等差距和不足。以上问题将在', '（一）进一步建立健全政府信息公开申请登记、审核、办理、答复、归档工作制度。动脑筋，想办法，采取多种方式，方便公民、法人和其他组织申请公开政府信息。', '（三）走出去，送出去，切实提升本机关的政府信息公开工作。走出去，就是向走在前列的兄弟单位考察学习；送出去，就是在有必要的情况下，送相关工作人员到政府办政务公开科跟班学习。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>52</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>王爱明深入海龙湖公园调研冬季旅游项目谋划和建设工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-12-06</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/xmjz/202112/t20211209_8351354.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['12月5日，梅河新区党工委书记、梅河口市委书记王爱明深入到海龙湖公园，调研冬季冰雪旅游项目谋划和建设工作。王爱明强调，要充分利用海龙湖公园得天独厚的生态景观和冰雪资源优势，高标准谋划、高质量建设，在丰富冬季旅游产品上多动脑筋，在提升旅游服务品质上多思良策，全力做好冰雪经济大文章，推动海龙湖公园冬季旅游项目实现跨越式提升。', '昨天，大家不畏严寒，踩着海龙湖公园的皑皑白雪，登上观景台，走遍步行道，仔细观察海龙湖湖面及周边基础设施建设情况，边走边研究海龙湖公园冬季旅游项目种类、布局、环境打造、配套及服务等事宜。王爱明强调，海龙湖公园生态环境优势明显，湖面宽广，冰清雪净，周边地势多变，设施齐全，适宜开展滑冰、雪地摩托、雪地赛马、冬钓、餐饮等各种冬季文体及旅游项目，在丰富群众业余文化生活的同时，也可以吸引更多域内外游客前来游玩打卡、休闲度假。', '王爱明要求，要高度重视海龙湖公园冬季旅游项目建设工作，政府与承包企业要携同配合，分区域、分板块做好项目谋划，注重“冰雪+文化”、“冰雪+体育”、“冰雪+旅游”深度融合，突出高标准、大规模、优服务，确保各个项目全面提档升级，真正让游客享受到光滑广阔的冰面、厚重洁白的雪场、一流的现代化设施、丰富多样的旅游业态，全面打响海龙湖公园冬季旅游项目品牌。王爱明强调，要加强学习考察和人才引进工作，主动走出去，向冬季旅游发达地区和企业取经求宝；积极引进来，借助高端人才和管理团队，全方位提升项目运营和管理水平。要做好项目保障和配套服务工作，通过设置防风挡板、阳光棚、帐篷，造雪机不间断造雪，建设幻光雪墙，提供简餐服务等举措，切实提高游客休闲娱乐舒适度和满意度，不断提高海龙湖公园冬季旅游知名度和影响力。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>52</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>市人大常委会主任张卫红率队赴白城考察蔬菜种植产业和农业产业化项目</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021-12-08</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202112/t20211209_8342996.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['市人大常委会主任张卫红率队赴白城考察蔬菜种植产业和农业产业化项目-梅河口市人民政府', '12月3日至4日，市人大常委会主任张卫红率队赴白城市学习考察蔬菜种植产业和农业产业化项目。', '在平台镇红塔村雪寒韭菜种植基地，考察组一行12人在洮北区政协主席段福申、洮北区人大常委会副主任孟力、洮北区副区长李书文等领导陪同下，围绕棚膜反季节雪寒韭菜的种植品种、田间管理、发展规模、政策扶持、经济效益等进行实地考察调研。', '在红塔村村部，张卫红详细听取了平台镇红塔村关于雪寒韭菜产业发展的情况介绍，与会同志围绕韭菜产业的规模化发展、深化种植技术合作和产业对接进行了座谈交流。张卫红表示，白城市洮北区作为白城市周边的主要“菜篮子”，棚膜反季节雪寒韭菜种植历史悠久、产业发展基础雄厚、经济效益好，产品远销内蒙古、黑龙江及白城周边，是白城地区农民增收致富的主要来源，值得学习、借鉴和推广。', '在通榆县天意集团，考察组一行在通榆县人大常委会副主任黄秀芬、天意集团董事长于海娟的陪同下，实地考察了酸菜和辣白菜生产线、仓储物流车间，听取了企业发展历程介绍。张卫红表示，天意集团作为国家级农业产业化重点龙头企业、吉林大学科研成果转化基地，多年来依托校企合作，小食材插上科技的大翅膀，让传统的东北餐桌食材走出国门。特别是近年来，企业坚持走“龙头企业+合作社+贫困户”扶贫模式，助力脱贫攻坚，周边许多乡镇建档立卡贫困户摆脱贫困走上富裕之路。张卫红向企业详细介绍了梅河口市近年来经济社会发展情况、梅河新区总体规划、区位优势、招商引资政策及营商环境等，希望与企业进行加强合作，助力梅河新区和天意集团实现互利共赢。', '市人大常委会副主任杨绍忠，市人大常委会原副主任、市“菜篮子”工程建设指挥部办公室主任姚德才及市人大法制委、新合镇、市“菜篮子”工程建设指挥部办公室有关同志陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>52</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市委常委政法委书记王学伟莅临康大营镇调研指导农业农村工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2022-03-03</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/202203/t20220303_8405193.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['市委常委、政法委书记王学伟带领市级包保部门莅临康大营镇调研指导农业农村工作。参加人员包括政法委、发改局、市场局、政数局、工信局、平安保险、国网供电公司等相关部门负责人，康大营镇领导班子成员，村书记代表等。', '首先，王学伟书记主持召开专题会议，就学习贯彻王爱明书记和牟大鹏市长在市委农村会议上的讲话精神，谈认识、讲体会、话落实。他指出，深入学习贯彻市委农村会议精神，“学懂”是首要前提，“弄通”是关键环节，“做实”是根本目的，要全方位多角度反复学习体会，切实做到学深悟透、学以致用。', '会上，镇党委书记张宏伟汇报了全镇农业农村工作及下一步工作打算。康大营镇认真贯彻落实王爱明书记和牟大鹏市长在市委农村会议上的讲话精神，加大力度拓宽村集体经济增收渠道，认真谋划特色产业，精心培育市场主体，创新发展庭院经济，同时依托本土优质资源，发展乡村休闲旅游，形成全镇经济多元发展格局。', '各包保部门围绕服务康大营镇农业农村工作高质量发展进行深入交流，针对任务清单重点内容提出意见建议，并表示将立足本职予以康大营镇农业农村工作最大支持。', '最后，王学伟书记进行总结讲话，要求康大营镇要持续巩固现有产业，做大做强特色养殖业、种植业和服务业，打造品牌IP，形成集聚效应，持续增加产品附加值，实现产业稳定增收；要深入挖掘新产业，降低创业门槛、激发创业热情，大力发展网红经济、电商产业，持续增加市场主体数量。要依托皓月、世基、泸州老窖等行业领先企业，在各产业链中找准定位、精准发力；要走出去、引进来，去往发达城市参观考察，学习先进经验，借鉴先进模式，进一步解放思想、转变思路。要利用梅河新区的区位优势和政策优势，千方百计将外地优质企业引进来、服务好。同时，要求各包保部门要密切关注康大营镇农业农村工作，细化包保措施，落实包保责任，及时予以行业指导和实际支持，在证照办理、金融信贷、政策落实以及农副产品销售等多方面提供有力支撑。', '会议结束后，王学伟书记一行来到康大营镇民安村“放心厨房”、宋家街村民宿选址地进行实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>52</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>桦甸市城市管理行政执法局到我市考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201807/t20180731_8361295.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['31日上午，桦甸市城市管理行政执法局莅梅考察学习。考察组到市城市管理行政执法局进行座谈交流，了解了我局内部职能划分、职责范围、城市管理工作的现状及工作方法，双方就如何有效推进城市管理工作进行了深入学习交流和热烈讨论。考察组对我局的经验和做法给予了高度的赞扬，指出有许多亮点和创新工作值得学习和借鉴，并希望今后能进一步加强联系与交流，互相促进。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>52</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>吉林船营经济开发区考察团到我市考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202009/t20200927_8340707.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['9月24日，吉林船营经济开发区管委会主任、党工委书记于振东带领考察团莅梅考察学习交流。', '在市委副书记，市长，高新技术产业开发区党工委书记，管委会主任周君的陪同下，考察团首先来到蓝城（杭州）桃李春风生态啤酒小镇和教育小镇项目建设现场，听取了我市两个项目征拆工作经验介绍，了解了项目规划及工程进展情况。随后，考察团一行抵达城市规划展览馆，了解我市城市变迁及未来发展规划。在现代服务业示范区，考察团步行参观了体育公园、乒乓球馆、网球馆、羽毛球馆、游泳馆。在海龙湖公园，考察团乘观光车游览了整个景区，感受海龙湖的宽阔和壮美。在津升制药有限公司，考察团参观了药品生产线，详细了解产品研发，发展前景等相关工作。在电商产业园，考察团一行观看了我市电商大数据实时传输情况，听取了我市电商产业发展情况介绍，了解了我市电商人才培训、产业培育等工作。', '每到一处，考察团都眼前为之一亮，精神为之一振，对我市高质量发展的速度，加快转型发展的步伐和真抓实干的工作作风留下了深刻的印象。在高新技术产业开发区召开的座谈会上。考察团观看了宣传片，并听取了周君关于高新技术产业开发区的情况介绍，详细了解园区内的企业情况、配套情况。考察团表示我市区位优势明显，生态环境良好，产业基础较强，经济社会发展前景广阔，城市管理发展理念先进。纷纷表示，此次考察学习感受很深，触动很大，受益匪浅，表示要把梅河口市的好经验和做法带回去，梳理消化，吸收借鉴，结合自身，把先进做法融入到开发区建设工作中去，努力开创船营区经济开发区改革创新发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>52</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>湾龙镇外出学习考察产业项目</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018-03-26</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201803/t20180326_8352930.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['为加快我镇农业产业化进程，促进特色种植业发展，3月25日，湾龙镇利用双休日，由林业站、经管站带队，组织7个山区村村干部、村民代表30余人到辽宁省桓仁县五里甸子镇老黑山村学习考察大榛子产业。', '3月25日，湾龙镇利用双休日，由林业站、经管站带队，组织7个山区村村干部、村民代表30余人到辽宁省', '考察组一行通过看现场、听介绍、问情况，特别对黑山村村民通过产业转型，不但改变了农民的生活条件，提高了收入，还收获了“全国一村一品示范区”的殊荣产生浓厚的兴趣，纷纷向先进村负责人询问桓仁富民果业专业合作社运作事宜，求教种植大榛子产业的成功经验。', '经过一天的考察学习，大家收获颇丰，在回程路上相互交流，积极谋划本村下一步农业产业发展方向：一是及时召开村民大会，把所见、所学向村民传达。二是要优化发展环境，积极鼓励农民扩大特色农业种植规模，力争使农民增收，同时加快脱贫攻坚进程。三是要科学流转土地，因地制宜，合理谋划、积极培育大榛子项目。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>52</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>快大茂镇开展走村观摩互学互促活动</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-11-21</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/xzdt/202111/t20211121_567902.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为学习先进经验，找差距，补短板，不断拓宽工作思路，进一步开阔视野，增进交流。11月19日，快大茂镇党委带领全体班子成员、各村支部书记、中层干部、包村干部一行50余人赴辉南县样子哨镇太平沟村李家店屯、楼街乡胜利村冯大院屯、辉南镇西关村高家街屯、大阳村下大阳屯、团林镇团林村团林屯、辉发城镇光辉村辉兴屯、光辉村辉发城屯就基层党建、乡村振兴、村级集体经济发展等工作进行观摩学习。', '观摩人员一行来到太平沟村李家店屯，李家店屯充分挖掘村域生态资源，落实村规民约，党员带头，引领示范，动员群众全民参与彩钢棚搭建、庭院硬化、修建栅栏等，全力打造旅游村屯。', '在胜利村冯大院屯，当地村干部以唠家常的方式取得群众的理解和支持，实行村干部带家属、家属带四邻、四邻带全屯的方式开展示范村建设工作，实现村庄环境自我管理、自我监督。', '在西关村高家街屯，洁净、整洁、规划统一玉米仓，设置统一农机具存放点，全村从清、拆、建、管、美五方面，全力打造精品屯。实现“园子、院子、屋子”到“脑子”的全面转变。', '在大阳村下大阳屯，参观人员细致学习了当地坚持实事求是、不搞大拆大建的工作原则，与产业发展、改善乡风民风相结合，因地制宜、凝聚民心、团结协作，调动群众积极投身示范村建设的成功经验。', '在团林村团林屯，相关负责人对当地的主要做法和取得的成绩进行详细介绍。现场了解到当地政府鼓励农户发展庭院经济，利用农闲时间在庭院内种植葵花、果树、蔬菜等具有观赏性和有一定经济附加值作物，实现村貌提升和农民增收双赢。', '在光辉村辉兴屯，当地依托辉发山历史文化遗址，坚持“清、拆、建、管”的措施，建设仿古城墙、仿满门楼，处处富有浓厚的历史文化气息，观摩人员大家边看边议，边听边思，认真学习，虚心求教，每到一处仔细收集各类图片资料。', '在光辉村辉发城屯，镇党委从引导群众转变思想观念入手，推动“院子、园子、屋子和脑子”全面提升，因地制宜开展村屯道路、公共空间、村落庭院等绿化美化，以“红脊顶、白墙面、灰底裙”为主基调绘制徽派建筑式文化墙。', '现场参观学习结束后，就学习感受进行交流讨论，大家畅所欲言，热情满怀，纷纷表示此次观摩学习效果震撼，学习从乡村建设的发展理念、发挥群众主体作用，到景观打造、产业发展等都受益匪浅。', '快大茂镇党委书记刘忠军表示：以此次观摩学习为契机，对标先进，一是认清在乡村振兴示范村建设中干部群众的干劲、打造效果等方面的差距，理清思路再出发。二是要因地制宜。将参观考察学习的经验成果和本镇本村实际结合起来，找准、找实适合本村发展的乡村建设道路，努力在乡村振兴发展道路上取得新突破。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>52</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>省交通厅考察团莅临我市参观考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021-05-17</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202105/t20210517_8340924.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['5月14日下午，由省交通厅党组书记、厅长王振才带队的交通厅考察团莅临我市参观考察。', '在市委书记王爱明，市委副书记、代市长牟大鹏的陪同下，王振才一行首先来到城市规划展览馆，观看我市城市规划宣传片，了解我市城市发展变化。在现代服务业示范区起步区，王振才一行听取了我市现代服务业发展情况介绍，参观了乒乓球馆、网球馆、羽毛球馆、游泳馆。随后，王振才一行来到海龙湖公园，乘车考察了海龙湖景区建设情况。', '王振才指出，几年来，多次来到梅河口，每次都会看到梅河口发生的新变化、展现的新形象，感受到梅河口作为我省县域经济排头兵突飞猛进的发展。梅河口的发展变化充分证明，只要解放思想，拼搏奋斗，就会把不可能变成可能，把不可行变成可行。省交通厅考察团要通过此项考察学习，把梅河口好的经验作法带回去，“学党史、悟思想、抓落实、开新局”，努力推动交通厅各项工作再上新台阶。', '考察团成员们也对我市日新月异的城市发展变化给予高度评价，对我市“十四五”时期全面建设现代化区域中心城市，打造高质量发展先行示范区送上了美好祝愿。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>52</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>重点项目巡礼东方红工业旅游项目稳步推进</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://gxq.tonghua.gov.cn/jbxx/202105/t20210525_537684.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['近期，东方红西洋参产业基地机器轰鸣、塔吊运转，工人们带着安全帽、口罩正在有序作业。', '2017年4月，东方红西洋参药业（通化）股份有限公司开工建设，企业“以打造国内首家、行业技术领先的集原料种植、生产研发、仓储物流、旅游观光、体验互动、科普教育等功能于一体的西洋参工业旅游示范基地和国家AAAA级旅游景区”为发展目标，建设之初就先后到外省相关企业进行实地考察，学习和借鉴先进经验，通过三年多的努力，具有产业特色的工业旅游产业园已初见规模。2020年10月，经吉林省文旅厅验收评定为“全省工业旅游示范点”。', '打造国内首家、行业技术领先的集原料种植、生产研发、仓储物流、旅游观光、体验互动、科普教育等功能于一体的西洋参工业旅游示范基地和国家', '到外省相关企业进行实地考察，学习和借鉴先进经验，通过三年多的努力，具有产业特色的工业旅游产业园已初见规模。', '当工业和旅游这两大经济形态结合到一起会迸发出怎样的火花?工业方面，目前企业已建设完成了10万平方米的现代化生产厂房，在建工程5万余平方米。现有中药饮片、入口饮片、酵素食品三个品类42个品种。鲜参日加工能力达到15万斤以上，中药饮片日产10吨以上，入口饮片日产5吨以上。西洋参仓储中心建筑面积6万平方米，原料存储量可达4.5万吨。而在旅游方面，企业自筹资金1.1亿元，建设西洋参多功能体验中心一座，建筑面积31350平方米，内设：西洋参博物馆、品牌产品展示中心、产品生产体验中心、休闲服务接待中心、网络直播中心（20个直播间）、会议报告厅及30余个西洋参文化旅游景观。厂内建有观光通道，厂外建有观光连廊，实现厂房全部联通畅通。目前，多功能体验中心已经完成总工程量的三分之一，部分观光通道、连廊已经投入使用，计划在明年6月份全部竣工。', '15万斤以上，中药饮片日产10吨以上，入口饮片日产5吨以上。西洋参仓储中心建筑面积6万平方米，原料存储量可达4.5万吨。而在旅游方面，企业自筹资金1.1亿元，', '31350平方米，内设：西洋参博物馆、品牌产品展示中心、产品生产体验中心、休闲服务接待中心、网络直播中心（20个直播间）、会议报告厅及30余个西洋参文化旅游景观。厂内建有观光通道，厂外建有观光连廊，实现厂房全部联通畅通。目前，多功能体验中心已经完成总工程量的三分之一，部分观光通道、连廊已经投入使用，计划在明年6月份全部竣工。', '近两年来，通过组织开展“首届长白山西洋参文化节”、通化市10余所学校的“研学之旅”和各省级电视台面向大型医药连锁20余次电视直播活动，东方红西洋参药业（通化）股份有限公司的知名度和“千年珍”、“参香活色”等5个品牌的影响力得到迅速推广和提升。同时，企业的不断发展壮大对“长白山人参” 产业和“红色旅游·康养通化”也起到了一定宣传和推动作用。', '“首届长白山西洋参文化节”、通化市10余所学校的“研学之旅”和各省级电视台面向大型医药连锁20余次电视直播活动，', '“千年珍”、“参香活色”等5个品牌的影响力得到迅速推广和提升。同时，企业的不断发展壮大对“']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>52</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>梅河口海鲜农贸批发市场盛大开业</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-01-19</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202101/t20210119_8340802.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['市委书记王爱明，市人大常委会主任张卫红，市委副书记、市长，市政协主席宁洪友以及市领导王军、马志有、孙士岩、周君出席开业仪式。', '梅河口海鲜农贸批发市场总投资2.35亿元、占地4万平方米，是全省“三早”项目，也是我市重点民生工程，旨在打造集海鲜农贸交易、早市、夜市、特色商业街等多种业态于一体的商贸集散中心，成为吉林省东南部最大的海鲜集散地。项目于去年5月开工建设，只用了8个月就全面竣工并投入使用，再一次体现了只争朝夕的梅河口速度。海鲜市场的开业运营，实现海鲜产消两地同价、码头直供，让梅城百姓享受到同沿海城市一样的海鲜美食；也丰富了我市服务业态，有效解决了河南居民买菜难题，让老百姓的菜篮子拎得舒心、买得放心，更好地满足我市广大人民群众日益增长的美好生活需要。', '开业仪式后，王爱明等领导走进市场，实地了解海鲜产品种类、价格、质量以及业户经营情况，又来到现代化冷链物流中心，了解仓储物流情况。王爱明对市场在短短8个月时间里，就顺利完成立项、建设并投入使用给予肯定，对市场未来发展提出了具体要求。要进一步加强招商引资力度，制定完善商家入驻相关优惠政策，加快市场培育，吸引更多优质大客户特别是海鲜直营企业到我市投资兴业。要政府企业同心同向发力，共谋发展，政府相关部门要主动到丹东、大连、舟山、东港等先进地区考察学习，转变经营理念，提升市场管理和运营水平。要全面做好市场监管和服务工作，通过设立大屏展示板等形式，保证各类海鲜产品产地明晰、质量过硬、价格公开透明。要通过对海鲜经营企业发放补贴，使我市海鲜产品价格更亲民、更有市场竞争力。要充分运用各类媒体，加大宣传推广力度，通过为市民发放代金券、促销券等方式，让更多人知道海鲜市场、了解海鲜市场，吸引更多百姓到市场购物。要时刻紧绷疫情防控这根弦，全面加强管控力度，杜绝进口冷链食品进入市场，实现全方位、全链条管理，打造安全放心购物环境。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>52</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>梨树县考察团来我市考察学习新农村建设</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202008/t20200828_8342742.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['8月26日下午，梨树县考察团来我市考察学习新农村建设，交流借鉴美丽乡村建设心得与经验。', '考察团一行先后参观了曙光镇东太平村、西太平村和进化镇通河村，详细了解我市现代农业、百村示范创建工作，农业合作社基础设施建设、运行、管理情况，农民生产生活及相关成功经验和好的做法。', '霍光指出，近年来，我市顺应农民新期待，从我市实际出发，2019年，开始实施“百村示范”工程，积极调整农业结构，大力推广现代农业科学技术，培育创新发展模式，致力打造集现代农牧业、观光旅游业为一体的经济产业。并先后获得首批国家全域旅游示范区创建单位、全国十佳“美丽中国·最美城镇”等多项殊荣。', '考察团在实地参观考察和听取相关情况介绍后认为，我市在发展现代农业、快速推进新农村建设等方面的经验和模式值得借鉴学习，希望今后进一步加强彼此间的交流与合作，共同促进新农村建设快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>52</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>吉林市市委常委宣传部部长赵永波带领吉林市委宣传部考察团莅梅考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-11-09</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202011/t20201109_8342813.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['吉林市市委常委、宣传部部长赵永波带领吉林市委宣传部考察团莅梅考察-梅河口市人民政府', '11月4日-5日，吉林市市委常委、宣传部部长赵永波带领吉林市委宣传部考察团莅梅考察国家全域旅游示范区创建工作。', '在市委副书记、市长、市委常委、宣传部部长汪晓梅的陪同下，考察团先后到世基啤酒生态小镇、国家4A级旅游景区海龙湖公园、长白山植物园、现代服务业示范区、诺亚水世界、山水林田湖草工程、游客服务中心等地，实地考察旅游景区点位和测评标准，并就创建国家全域旅游示范区、提升旅游形象等工作进行交流探讨。市长对考察团的到来表示欢迎，并指出自2016年我市被列为首批国家全域旅游示范区创建单位以来，我市坚持以创建补短板、促改革、促升级、促转型，全域旅游建设持续向纵深推进。围绕建设四季景区城，在融字上下功夫，着力打造东北地区宜居宜游的旅游目的地，充分展现了城是一处景，景是一座城的优美画卷。希望考察团在梅河口感受全域旅游呈现出的新气象。', '座谈会上，汪晓梅分享了我市创建国家全域旅游示范区的经验做法。考察团对我市创建国家全域旅游示范区取得的成绩表示赞许并给予高度评价。表示要以此次考察学习为契机，认真借鉴我市创建工作的经验做法，发挥资源和区位优势，积极探索符合本地特点的全域旅游发展新路子，推动全域旅游发展提档升级。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>52</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>梅河口市狠抓机收减损确保秋粮应收尽收</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/jyhpt/mhksnyj/nydt/202110/t20211018_8333058.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['按照吉林省农业农村厅、农业机械化管理局有关秋粮机收减损工作文件要求，为高质高效完成“三秋”农机化生产任务，在梅河口市农业农村局的领导下，梅河口市农业机械化技术推广站多措并举，狠抓秋粮机收减损，确保秋粮应收尽收。提高思想认识，明确工作举措。深入贯彻习近平总书记关于减少粮食损耗浪费的指示精神，把“三秋”机械化生产和机收减损作为最重要、最紧迫的农机化工作，成立“粮食作物机收减损工作”领导小组，制定梅河口市《做好粮食作物机收减损工作方案》，组织全市各乡镇街聚焦聚力，保障各项措施落实落细。', '成立“粮食作物机收减损工作”领导小组，制定梅河口市《做好粮食作物机收减损工作方案》，组织全市各乡镇街聚焦聚力，保障各项措施落实落细。', '开展摸底调查，做好宣传引导。组织各乡镇街农业服务中心人员、农技人员，采取问卷调查的方式，重点针对种植大户和农机作业服务组织，认真开展水稻和玉米机收环节损失摸底调查，全面掌握主要粮食作物机收环节的损失情况，并将统计汇总后的机收损失情况调查表反馈至省农业机械化管理中心。', '印制《水稻机械化收获减损技术指导意见》和《玉米机械化收获减损技术指导意见》，通过举办培训班、逢集设点咨询、上门发放宣传资料等形式，广泛宣传秋粮机收减损技术。引导农机合作社等农业社会化服务组织与农户签订农业生产托管或作业服务合同，明确损失率等作业质量要求，引导农机产销企业改进售后服务，加强田间技术指导，督促精细服务，积极营造“三秋”农机安全生产良好氛围。', '引导农机合作社等农业社会化服务组织与农户签订农业生产托管或作业服务合同，明确损失率等作业质量要求，引导农机产销企业改进售后服务，加强田间技术指导，督促精细服务', '开展机具检修，做好秋收准备。组织各乡镇街农业服务中心人员、农机技术人员深入田间地头，指导和帮助农机户对即将投入“三秋”作业的拖拉机、收割机及配套农机具进行全面检修、调试和保养，确保“三秋”农忙期间农业机械优质、高效、安全作业。', '开展培训工作，做好技术指导。重点面向农民专业合作社、家庭农场、农业社会化服务组织、农机大户与种养大户，大力推广保护性耕作技术、秸秆还田技术和水稻、玉米机械化收获减损技术。9月2日至13日，举办“梅河口市高素质农民培育机械化保护性耕作培训班”，并组织学员对四平康达农机、抚顺市辽括大益农机等农机生产企业进行了参观考察学习。9月28日，召开“梅河口市机械化秸秆还田技术推广演示现场会”，邀请专家进行技术讲解，并进行了有关机具的现场作业演示，为秋粮应收尽收提供技术保障。', '指导。重点面向农民专业合作社、家庭农场、农业社会化服务组织、农机大户与种养大户，大力推广保护性耕作技术、秸秆还田技术和水稻、玉米机械化收获减损技术。9月2日至13日，举办“梅河口市高素质农民培育机械化保护性耕作培训班”，并组织学员对四平康达农机、抚顺市辽括大益农机等农机生产企业进行了参观考察学习。9月28日，召开“梅河口市机械化秸秆还田技术推广演示现场会”，邀请专家进行技术讲解，并进行了有关机具的现场作业演示，为', '开展信息服务，保障生产进度。密切关注天气变化和“三秋”生产进度，及时为机手和农户提供信息服务，加强机具的组织调度。引导农机合作社发挥主力军作用，努力提高“三秋”生产的组织化程度和作业质量。主动协调农机生产企业和经销商做好配件供应和售后服务，及履行农机产品“三包”服务承诺，指导农机合作社、农机手在“三秋”生产过程中随时开展检查、维修和保养，保证机具以良好的技术状态投入秋季作业。截至目前，检修各类农机具3000余台套，培训农机手300余人次，共发放《水稻机械化收获减损技术指导意见》、《玉米机械化收获减损技术指导意见》、安全生产宣传材料1000余份，机械化收获水稻1万余亩、玉米1万余亩。', '开展信息服务，保障生产进度。密切关注天气变化和“三秋”生产进度，及时为机手和农户提供信息服务，加强机具的组织调度。引导农机合作社发挥主力军作用，努力提高“三秋”生产的组织化程度和作业质量。主动协调农机生产企业和经销商做好配件供应和售后服务，及履行农机产品“三包”服务承诺，指导农机合作社、农机手在“三秋”生产过程中随时开展检查、维修和保养，保证机具以良好的技术状态投入秋季作业。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>52</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>二道江区教育系统深入开展党建系列活动记事</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021-09-29</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202202/t20220215_587298.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['为进一步发挥教育系统基层党组织战斗堡垒作用和广大党员先锋模范作用，推动党建工作与重点工作有效融合，二道江区教育系统深入开展党建系列活动，聚力实施“红色领航红烛先锋”工程，持续夯实教育治理体系和治理能力现代化的组织基础。 夯实“烛台”，建强“红色堡垒”。严格按照基层党支部标准化建设三年提升行动的要求，扎实开展党支部标准化规范化建设，着力强化教育系统基层党支部政治功能，不断提升组织力，把基层党支部建成宣传党的主张、贯彻党的决定、教育管理党员、团结动员群众、推动教育发展的坚强堡垒。坚持党群共建，充分发挥工会、共青团（少先队）、妇联等群团组织桥梁纽带作用，形成党群工作优势互补、共建互促、同步提振、合力推进的良好局面，不断增强党组织凝聚力。强化阵地建设，将党建活动阵地建设与校园文化相结合，加大阵地建设投入，按照“五有”标准充分利用校园内廊、墙、壁、角等位置建设党建文化阵地，让每一块墙壁会说话、每一块展板能传情，激励广大师生做到心中有信仰、脚下有力量。 燃旺“烛火”，培育“红色头雁”。着力培育优秀干部，选优配强中小学校书记、校长，形成选好用好一个人、引领带动一批人的“头雁效应雁效应””。实施实施““红色头雁红色头雁””素质提升行动素质提升行动，，通过分领域举办专题培训班、到先进地区考察学习、挂职锻炼等方式，实施精准化培训，促进干部知识结构更新换代、素质能力升级换档。举办“红色头雁讲坛”，推选基层党组织书记先进典型分享特色做法和典型经验，引导基层党组织书记之间互学互比互促互进。严格规范干部选拔任用程序，从严把好廉洁关，注重选拔、大胆使用业务能力突出的优秀年轻干部，建立“红色头雁”后备干部信息库，为“红色头雁”队伍注入“源头活水”。加强干部监督管理，坚持抓早抓小、防微杜渐，促使“红色头雁”知底线、有作为。激励干部担当作为，落实“容错纠错、失实举报澄清、激励干部担当干事”三个办法，切实为敢于担当的干部撑腰鼓劲，形成鼓励担当作为、崇尚苦干实干的良好风尚。 拨亮“烛光”，争当“红色先锋”。开展“红烛先锋”引领行动，通过实施党员发展“双培养”制度、青蓝工程、“红烛”示范课、“红烛”示范岗及“红烛”名师工作室，充分发挥党员教师在课程改革、教学研究、校本教研、传帮带等方面的先锋模范作用。开展“红烛先锋”服务行动，进一步优化基层党组织服务群众长效机制，组建“红烛先锋”党员志愿者服务队，结合本单位实际，着力推进党组织谈心谈话制度、党内关怀制度、党员教师联系服务师生制度，不断提升党员群众的满意度、获得感、融入感。同时通过党员教师一对一结对帮扶，开展关爱留守儿童、义务劳动、在职党员进社区等志愿服务活动，逐步形成学校、家庭、社会“三位一体”覆盖模式，发挥党员教师在服务发展、服务中心、服务群众方面的作用。 点燃“烛心”，引导“红心向党”。开展“红烛先锋”铸魂行动，突出党史专题教育培训，开设“红烛讲堂”，成立红烛先锋宣讲团，通过专家学者讲、党组织书记讲、思政教师讲、优秀党员讲以及网络学习等形式，切实发挥好“红烛讲堂”的思想引领作用，筑牢党员队伍思想根基。深入实施建党100周年庆祝活动，弘扬爱国主义精神，进一步筑牢教育系统全体党员干部思想根基。开展“红烛先锋”育苗行动，组织开展丰富多样的红色教育活动，利用开学第一课、升旗仪式，上好思政课，深入实施“三早育苗”工程，引导青少年自觉传承红色基因，健康成长为祖国合格建设者和可靠接班人。 修正“烛身”，激发“红色动能”。抓党风、带师风，坚持把党风廉政建设与师德师风专项治理紧密结合，开展师德师风主题教育活动，签订《师德师风承诺书》《廉洁从教承诺书》，积极参与“我身边的好教师”“师德先进典型”评选活动，构建师德师风建设长效机制。树典型、塑形象，充分利用“七一”“教师节”等重要时间节点，开展“红烛先锋”典型评选活动，集中选树一批“红烛先锋”典型，在“二道江区教育局”公众号开设“红烛先锋风采”专栏，定期展示爱岗敬业、无私奉献、为民服务等红烛故事，大力宣传先进典型事迹，以“红烛精神”营造教育改革发展新生态。', '夯实“烛台”，建强“红色堡垒”。严格按照基层党支部标准化建设三年提升行动的要求，扎实开展党支部标准化规范化建设，着力强化教育系统基层党支部政治功能，不断提升组织力，把基层党支部建成宣传党的主张、贯彻党的决定、教育管理党员、团结动员群众、推动教育发展的坚强堡垒。坚持党群共建，充分发挥工会、共青团（少先队）、妇联等群团组织桥梁纽带作用，形成党群工作优势互补、共建互促、同步提振、合力推进的良好局面，不断增强党组织凝聚力。强化阵地建设，将党建活动阵地建设与校园文化相结合，加大阵地建设投入，按照“五有”标准充分利用校园内廊、墙、壁、角等位置建设党建文化阵地，让每一块墙壁会说话、每一块展板能传情，激励广大师生做到心中有信仰、脚下有力量。', '燃旺“烛火”，培育“红色头雁”。着力培育优秀干部，选优配强中小学校书记、校长，形成选好用好一个人、引领带动一批人的“头雁效应雁效应””。实施实施““红色头雁红色头雁””素质提升行动素质提升行动，，通过分领域举办专题培训班、到先进地区考察学习、挂职锻炼等方式，实施精准化培训，促进干部知识结构更新换代、素质能力升级换档。举办“红色头雁讲坛”，推选基层党组织书记先进典型分享特色做法和典型经验，引导基层党组织书记之间互学互比互促互进。严格规范干部选拔任用程序，从严把好廉洁关，注重选拔、大胆使用业务能力突出的优秀年轻干部，建立“红色头雁”后备干部信息库，为“红色头雁”队伍注入“源头活水”。加强干部监督管理，坚持抓早抓小、防微杜渐，促使“红色头雁”知底线、有作为。激励干部担当作为，落实“容错纠错、失实举报澄清、激励干部担当干事”三个办法，切实为敢于担当的干部撑腰鼓劲，形成鼓励担当作为、崇尚苦干实干的良好风尚。', '拨亮“烛光”，争当“红色先锋”。开展“红烛先锋”引领行动，通过实施党员发展“双培养”制度、青蓝工程、“红烛”示范课、“红烛”示范岗及“红烛”名师工作室，充分发挥党员教师在课程改革、教学研究、校本教研、传帮带等方面的先锋模范作用。开展“红烛先锋”服务行动，进一步优化基层党组织服务群众长效机制，组建“红烛先锋”党员志愿者服务队，结合本单位实际，着力推进党组织谈心谈话制度、党内关怀制度、党员教师联系服务师生制度，不断提升党员群众的满意度、获得感、融入感。同时通过党员教师一对一结对帮扶，开展关爱留守儿童、义务劳动、在职党员进社区等志愿服务活动，逐步形成学校、家庭、社会“三位一体”覆盖模式，发挥党员教师在服务发展、服务中心、服务群众方面的作用。', '点燃“烛心”，引导“红心向党”。开展“红烛先锋”铸魂行动，突出党史专题教育培训，开设“红烛讲堂”，成立红烛先锋宣讲团，通过专家学者讲、党组织书记讲、思政教师讲、优秀党员讲以及网络学习等形式，切实发挥好“红烛讲堂”的思想引领作用，筑牢党员队伍思想根基。深入实施建党100周年庆祝活动，弘扬爱国主义精神，进一步筑牢教育系统全体党员干部思想根基。开展“红烛先锋”育苗行动，组织开展丰富多样的红色教育活动，利用开学第一课、升旗仪式，上好思政课，深入实施“三早育苗”工程，引导青少年自觉传承红色基因，健康成长为祖国合格建设者和可靠接班人。', '修正“烛身”，激发“红色动能”。抓党风、带师风，坚持把党风廉政建设与师德师风专项治理紧密结合，开展师德师风主题教育活动，签订《师德师风承诺书》《廉洁从教承诺书》，积极参与“我身边的好教师”“师德先进典型”评选活动，构建师德师风建设长效机制。树典型、塑形象，充分利用“七一”“教师节”等重要时间节点，开展“红烛先锋”典型评选活动，集中选树一批“红烛先锋”典型，在“二道江区教育局”公众号开设“红烛先锋风采”专栏，定期展示爱岗敬业、无私奉献、为民服务等红烛故事，大力宣传先进典型事迹，以“红烛精神”营造教育改革发展新生态。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>52</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>商务局组织非公企业代表开展主题党日活动</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202005/t20200514_8362550.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['为了进一步促进基层非公企业党建工作，丰富非公企业主题党日活动形式。商务局副局长贾晓辉带领欧亚、凯购城、东方家居、中联商厦、纳德生物等企业代表，前往我市非公企业和社会组织党建服务指导中心、电商产业园进行参观学习。', '在市非公企业和社会组织党建服务指导中心，参观团一行听取了讲解员对服务中心阵地功能和党建工作经验介绍，并来到党群工作展厅、创新创业活动阵地等区域详细了解党建工作开展等情况。在电商产业园，参观团一行共同了解梅河口市电商大数据平台的运作模式，考察学习了电商经营模式和方法。', '通过此次参观学习，大家纷纷表示受益匪浅。贾晓辉提出，下一步商务局将继续开展多种形式的主题党日活动，激发党建在非公派驻领域的活力，积极借鉴示范非公企业党建工作方面的经验和做法，有效提升党建工作整体水平，使商务局非公企业党建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>52</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>通化优秀科技工作者朱志杰</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/thskx/kxpj/202204/t20220426_611242.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['“新产品、新技术是企业的核心竞争力。没有新产品新技术的开发与创新，企业的生存和发展就难以得到保障。”一向致力于企业新产品、新技术研发、引进工作的朱志杰，是金马药业集团股份有限公司技术总监，作为技术研究发团队的负责人，他平日刻苦专研，工作一丝不苟，为提高企业技术创新能力，推动企业技术进步注入了自己全部的身心力。', '申报发明专利13项，其中获得授权发明专利9项；发表专业论文十余篇。主持的科技项目在2010年度和2012年度获得通化市科技进步三等奖。熄风通络头痛片发明专利2015年获“吉林省长白山医药创新奖”；2016年获“吉林省优秀专利奖”；2017年获“吉林省科技进步奖”三等奖。壮骨伸筋胶囊2020年获“吉林省科技进步奖”三等奖。先后荣获二道江区政府授予的“劳动模范”荣誉称号、吉林省总工会授予的“吉林省经济技术创新能手”称号和通化市人民政府授予的“经济技术创新先进生产者”称号。2018年被通化市授予五一劳动奖章荣誉称号。', '先后荣获二道江区政府授予的“劳动模范”荣誉称号、吉林省总工会授予的“吉林省经济技术创新能手”称号和通化市人民政府授予的“经济技术创新先进生产者”称号。', '走出去学习，把先进的技术和科学的理念请进来。为真正实现把企业创新平台打造成为科技成果的转化器、高端人才的蓄水池和高新产业的孵化地，进一步突出企业在技术创新、研发投入、科研组织和成果转化的主体地位，成为企业优化升级的主引擎这一战略目标，朱志杰和他领导的研发团队踏了求学之路，实地考察了长春中医药大学、吉林大学和黑龙江中医药大学。感受了大学科研人才力量的雄厚以及浓厚的创新创造氛围，通过学习考察，达到预期目的，取得初步实效，不仅把先进的技术和科学的管理理念引进了企业，而且与长春市中医药大学就企业创新需求和创新成果对接，努力在研发新技术、开发新产品上有更大突破，形成科技创新的倍增效应等方面达成合作，建立了“杏林青马工程实验基地”，实现了科研院校与医药企业的优势互补、资源共享。', '作为一名科技工作者，他并不满足于清热通淋胶囊、清肝祛黄胶囊、凉咽口服液、风湿祛痛胶囊、参莲胶囊、强肝消脂口服液等一批中药三类新药的研发和工艺实验的完善上，而是致力于企业新产品开发、新技术研发上。他带领技术团队高效、快捷地解决生产实践中遇到的各种技术瓶颈。“熄风通络头痛片成果转化”“治糜康栓（治糜灵栓）二次开发”“风湿祛痛胶囊工艺创新和质量标准提升”。“壮骨伸筋胶囊生产工艺及新产品开发”“治糜康栓中枯矾炮制工艺及再评价研究”等一大批科技成果获省级鉴定，企业共获得批谁文号的药品64个。2019年公司获得国家高新技术企业称号。“吉林省益生菌制剂研究实验室”被评为吉林省重点实验室。', '目前的金马药业，通过现有资源优化配置，为吸引高水平更多的科技人才，为培养高层次的医药人才提供了实验条件；通过先进设备科研仪器的充分利用，为加快产、学、研结合，促进科技成果转化提供了条件。为通化金马药业集团股份有限公司带来了可观的经济效益。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>52</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>农业农村局扎实开展高素质农民培训全力助推贫困村脱贫致富</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/202010/t20201030_8362828.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为扎实推进脱贫攻坚工作，更好地落实高素质农民培训工作相关精神。10月29日，梅河口市农业农村局举办高素质农民专业技能型多种经营专业培训班，本次培训由梅河口市农业农村局园艺特产站主办，共50名学员参与，其中有26人为我市选拔的贫困村致富带头人。接下来学员们将以专题理论学习和外出参观考察相结合的形式进行为期5天的培训。', '本次培训结合贫困村产业特点，聘请省内知名专家进行教学，重点围绕蔬菜、食用菌、中药材三大特色产业进行专题讲解，理论学习后将组织所有学员赴辽宁丹东等特色产业基地进行参观考察，学习借鉴先进经验，带动贫困群众脱贫增收。', '开班仪式上梅河口市农业农村局高素质农民培训项目负责人张凤岭向学员们介绍了特色种植业扶贫、养殖业扶贫、电商扶贫等项目相关政策，明确本次开班的意义和目的。要切实解决劳动生产中各类问题，提高培训满意度，扎实推进产业精准扶贫工作，为实现全面建成小康社会的宏伟目标贡献自己的一份力量。随后，由吉林省12582农业信息平台蔬菜种植领域专家刘淑杰老师为大家讲解菜豆栽培技术和甜瓜种植技术，详细的讲解了田间管理的各个步骤，如何及时发现并预防病虫害，以及发现后如何救治。', '课后培训项目负责人和培训教师耐心的为学员们答疑解惑。学员们表示：“感谢国家政府、感谢党能够给我们提供这么好的学习机会，我们一定不负希望，提高自己的种植技术，早日脱贫！”', '下一步，市农业农村局将不断完善高素质农民培训长效机制，着力培养一支有文化、懂技术、善经营、会管理的农民队伍，为我市现代农业发展提供强有力的人才支撑，激发现代农业内生动力，全力助推贫困村脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>52</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>中韩长春国际合作示范区考察团莅临我市考察学习先进城市建设经验</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202008/t20200827_8342736.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['中韩（长春）国际合作示范区考察团莅临我市考察学习先进城市建设经验-梅河口市人民政府', '8月25日下午，中韩（长春）国际合作示范区考察团莅临我市考察学习先进城市建设经验。', '在市委常委、市委办公室主任马志有的陪同下，考察团一行依次考察了城市规划展览馆、现代服务业示范区、梅河口啤酒生态小镇、山水林田湖草河湖连通工程、康美梅河口医疗健康中心等重点项目。每到一处，考察团都认真听取有关情况介绍，详细了解我市城市建设的做法和举措。考察团一行还来到人民公园，走上公园廊桥，总览公园全貌，深入了解梅河口市的人文精神和发展历程。', '经过半天的考察，考察团高度评价了我市近年来在各方面所取得的成绩，考察团成员纷纷表示在考察中看到了我市先进的发展思路、科学的机制体制、强劲的发展势头、务实的工作作风，收获很多，启发了思路。回去后将结合实际，认真总结吸收我市城市建设的先进经验，乘势而上建设中韩（长春）国际合作示范区。', '在考察中马志有对考察团的到来表示欢迎并指出近几年在全市上下共同的努力下，各项事业在原有基础上再攀新高峰，希望和中韩(长春）国际合作示范区能多交流、多沟通、互相学习、共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>52</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>省委政研室及我市党政考察团赴河南省济源市考察学习</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-04-02</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201904/t20190402_8340166.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['3月31号，省委政研室及我市党政考察团赴河南省济源市，就深化改革和经济社会发展进行考察学习。', '由省委政研室主任盛效儒，通化市委常委、我市市委书记王爱明带队，省委政研室、省委组织部、省农业农村厅、省财政厅和我市相关领导、部门组成的考察团，实地考察了河南省济源市经济社会发展情况。济源市是愚公移山精神的原发地，1997年实行省直管体制，是中原城市群14个核心发展城市之一，2017年3月被确定为国家产城融合示范区。', '考察团一行，在济源市委副书记贾宏宇，市委常委、秘书长孔庆贺的陪同下，先后参观考察了济源第一中学、济源城市规划展览馆、清水源科技公司、济源伊利乳业公司、济源市克井镇柿槟村，详细了解济源教育事业发展、城市规划建设、重点企业运行、基层组织建设等方面的先进经验，并与济源市相关部门进行座谈。', '济源第一中学是首批“河南省示范性高中”、首批“河南省普通高中多样化发展示范校”，每年有多名学生被清华、北大、牛津、伯克利分校等国内和世界名校录取。在听完学校负责人介绍办学特色等情况后，王爱明提出，梅河口市立足区域教育中心建设，正在打造教育园区，致力于为梅河口及周边区域群众提供一流的教育服务。我们要把济源第一中学的办学经验学回去，进一步将我市教育质量和水平提高到一个新的更高层次。', '济源市城市规划展览馆以“一山一水一精神”为展示内核，全面展示了济源区位优势、历史沿革、规划发展与建设成就等相关内容。在考察过程中，王爱明关注愚公移山精神在济源经济社会发展过程中的引领作用。王爱明指出，习近平总书记高度重视愚公移山精神，济源市作为愚公移山精神的原发地，凭着愚公移山、敢为人先的城市精神实现了一次又一次历史性跨越，改革发展经验值得学习借鉴。我们要深刻领会习近平总书记对愚公移山精神的重要阐释，大力弘扬七种“梅河口精神”，不断深化扩权强县改革试点工作，全力加快现代化城市建设步伐。', '清水源科技股份有限公司是河南省科技先导型企业，是一家以水为核心的环保产业链创新发展企业。考察团一行在听取企业负责人的情况介绍后，实地参观了清水源生活污水一体化处理设备展示厅。王爱明指出，今年，我市围绕农村人居环境整治三年行动，深入推进污水革命，要与水处理先进企业开展合作，加快推进城乡水处理能力全面提标。', '济源伊利乳业是伊利集团的全资子公司，是中原地区纳税最高的乳制品企业，是国家级AAA景区和济源市工业旅游示范点。盛效儒和王爱明等领导在公司负责人的陪同下，全程参观了企业的生产流程。王爱明指出，我市作为国家全域旅游示范区创建单位，济源伊利乳业在发展工业旅游方面的先进经验值得我们学习借鉴。', '克井镇柿槟村是济源市基层组织建设示范村、先进基层党组织、全国文明村。在听完村党组织负责人的情况介绍后，王爱明深有感触。他指出，抓好基层党组织建设特别是农村党组织，关键在于选一个好的带头人，我们要学习柿槟村在基层党组织建设方面的好经验好做法，切实把农村党组织建设成宣传党的主张、贯彻党的决定、领导基层治理、团结动员群众、推动改革发展的坚强战斗堡垒，推动基层党组织全面进步、全面过硬。', '31号下午，盛效儒、王爱明等考察团领导同贾宏宇、孔庆贺以及济源市委组织部、市委农办、发改委、财政局等相关部门召开座谈会。', '会上，盛效儒首先介绍了此次考察的目的。他指出，这次考察是受命而来、慕名而来，省委领导高度重视济源学习考察活动，要求把先进地区经验做法学深悟透，为梅河口乃至吉林省深化改革谋求经验。他说济源是一座古今兼容、大气灵动、现代文明的城市，虽然考察时间很短，但是收获很大、感受很多，并对济源市在考察过程中的大力支持和真情服务表示感谢。', '王爱明重点介绍了梅河口市扩权强县改革试点以来经济社会发展取得的成绩。王爱明指出，省委、省政府把梅河口确定为扩权强县改革试点市，赋予地级市经济社会管理权限，鼓励梅河口先行先试，在县域经济发展中当排头、做表率。经过五年多的发展，梅河口市完成了省委、省政府赋予的扩权强县改革试点任务，建成了中等城市，又开启了现代化城市新征程。下一步，我们要在省委、省政府的坚强领导下，紧紧围绕落实总书记在深入推进东北振兴座谈会和吉林视察期间重要指示精神，学习济源经济社会发展的好经验、好做法，进一步解放思想，深化扩权强县改革，建设吉林省著名、东北闻名、全国知名的现代化城市，为吉林全面振兴全方位振兴作出贡献。', '贾宏宇代表济源市市委、市政府对吉林省委政研室和我市党政考察团的到来表示欢迎。贾宏宇指出，梅河口市和济源市人口相近、体制相似，在新时代都面临着前所未有的发展机遇。此次考察开启了两地沟通交流的新篇章，希望两地能够进一步加强交流合作，相互学习、相互借鉴，奋力谱写高质量发展新篇章。', '孔庆贺全面介绍了济源市经济社会发展情况。济源市相关部门在会上作了经验介绍，双方就相关问题进行了深入交流。', '省农业农村厅副厅长钟东，省委政研室副巡视员徐鹏，省委政研室经济二处处长刘岩松，省财政厅政研室副主任吴琼，省委组织部干部二处副处长刘东辉，我市市委副书记孙维良，市委常委、副市长戴存鹤，市委常委、市委办公室主任马志有参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>52</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>党建引领新思路庭院经济助增收杏岭镇帽山村百亩豆角成长之路</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/ztzl/zxzt/xxxsxjg/djdt1/202010/t20201019_8330523.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['党建引领新思路 庭院经济助增收——杏岭镇帽山村“百亩豆角”成长之路-梅河口市人民政府', '杏岭镇帽山村党支部始终坚持把发展壮大村集体经济作为一项重大任务来抓，坚持党建与脱贫攻坚、乡村振兴等工作有机融合，成功探索出一条“党建+乡村振兴”的新路子。在村党支部带领下，快速走上了致富路。', '要致富，建个好支部。村党支部带领村两委干部，挨家挨户走访调查，听取收集村民关于本村长远发展、脱贫致富的意见建议。组织党员干部和部分村民到庭院经济发展较好的周边地区考察学习，增强了思富、谋富、快富的决心。最后选定了豆角产业，着力打造一村一品的百亩豆角庭院经济项目。', '帽山村党支部组织召开全体党员大会、村民小组会议，宣传市委发展庭院政策，帮群众算好“政治帐”。认真帮助群众分析种植成本，帮助解决生产难题，算好“经济帐”。注重发挥党员的引领作用，开展“党员示范引领，助推庭院发展”志愿服务活动，党员干部带头与村党支部签订种植承诺书，示范种植，通过党员做给群众看、引领群众干，打消部分群众“不敢种”的疑虑，引领广大群众积极参与“百亩豆角”项目中来。', '镇村党组织注重统筹资源，大户带动小户，统一技术、统一管理、统一销售。在镇党委协调下，大片的“黄金架”有了稳定的销售渠道，全部下架即售，平均每户增收3000余元。百姓的腰包“鼓”起来了，脸上笑容“甜”起来了，村里的日子“红”起来了。', '小豆角作出大文章，小思路点燃大引擎，杏岭镇和帽山村下一步将以党组织核心作用发挥为引领，以发展庭院经济为契机，持续扩大土地和种植规模，大力推进农业结构调整，补齐产业短板，纵深推进农村产业革命，实现农业产业提质增效，促进农民持续增收。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>52</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>对口合作改善软环境为经济发展奠定基础</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019-09-17</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201909/t20190917_8351027.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['与浙江省丽水市开展对口合作以来，我市围绕提高政府管理服务水平，将优化服务及投资营商环境、转变政府职能作为交流重点，对接两地相互学习经验做法，切实改善我市营商环境，为全市经济发展奠定良好基础。', '为加强全市涉企软环境建设，解决办事群众、企业行政审批“最后一公里”问题，市政务服务和数字化建设管理局将服务延伸，上门服务免费办理《拖拉机、联合收割机登记证书和牌照核发》。', '刘春宝是梅河口市进化镇刘家村御谷家庭农场的法人代表，今年农场扩大经营，新购买了20多台农机具。按照以往的要求，这20台农机具要办理牌证，需要把车开到市里统一办理。20多辆车，来回72公里的路程，可不是一件简单的事。这次，梅河口市政务服务和数字化建设管理局工作人员上门服务，现场免费审核办理了拖拉机牌证21台套，联合收割机牌证7台套，给他带来了很大的方便。', '截止目前，政数局已为全市251台拖拉机、32台联合收割机核发登记证书和牌证，实现了“让材料和数据多跑腿，让群众和企业少跑路”目标，有效解决了“最后一公里”的问题。', '而这只是我市向丽水学习只跑一次改革的一个缩影，对口合作开展以来，我市深入开展“只跑一次”改革。紧盯景俊海省长“希望梅河口市在‘只跑一次’改革方面走在全省前列”批示要求，带队赴丽水市考察学习工作方法和服务理念，并邀请专家赴梅河口市围绕“最多跑一次”改革进行授课讲解。在此基础上，组建梅河口市政务服务和数字化建设管理局，将22个市管部门中涉及到群众、企业的306项行政审批职能进行整合，实现“一窗受理、集成服务”，“只跑一次”事项达到1095项、占91.3%，“只跑一次”改革全省年度考核取得满分的好成绩。今年按照梅河口市委、市政府发展民营经济和现代服务业的要求，带队赴丽水市考察学习打造营商环境和制定优惠政策的办法，设立10亿元产业发展引导资金和1.5亿元旅游业、中小微企业发展资金，对投资合理有效项目给予奖励支持。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>52</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>孙继民带领考察团赴上海考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/202011/t20201102_500377.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['近日，县委书记孙继民带领考察团到上海考察电子商务项目。先后考察了上海媒科锐奇网络科技有限公司、智贸通（上海）供应链管理有限公司，并与上海临海商会进行座谈。通过本次活动，与上海企业增进了了解，互通了所需，推动在谈项目实现早签约、早落地，努力使我县经济在产业聚集、产业深延等方面加速发展，焕发出企业发展新活力。', '在上海媒科锐奇网络科技有限公司，考察团听取了总经理陈吕祥的项目介绍。孙继民表示，上海媒科锐奇网络科技有限公司理念新、业务强、团队精、覆盖广，是一家走在网络销售前沿，与各大网络销售平台比肩发展的科技公司。我县是一个资源富庶，物产丰富的生态优势县份，人参产业迅速崛起，已发展成为全国最大的人参集散地，人参产业园的网络商家已达900多家。希望吉林参威科技能够多借鉴上海媒科锐奇的成功经验，将人参产业园的电商平台做成高标准平台。', '随后，孙继民一行赶赴智贸通（上海）供应链管理有限公司实地踏察，参观了智慧产业园区。孙继民指出，真诚欢迎智贸通团队来通化县考察指导，智贸通的建设模式非常值得通化县借鉴学习。通过此次学习考察，为通化县中小微企业发展平台的创建打开了思路，为医药及人参产业寻找到了新的发展通道。', '最后，孙继民一行与上海临海商会进行座谈。对上海临海商会在通化县的经济发展、社会事业、教育发展等方面给予的多方关注及两地在各个领域、各个专业进行互相学习、互相促进发挥的助推作用表示衷心感谢。 考察期间，孙继民简要介绍了我县经济和社会发展，并向上海临海商会发出参观考察邀请。 上海临海商会也纷纷表示，非常希望能够再次到通化县参观学习，进一步与通化县人民加深了解、共叙情谊。 县政协主席吴思志、吉林参威科技股份有限公司董事长崔生、通化县国有资产控股投资有限公司董事长孙宏宾、通化县经济技术合作服务中心负责人陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>52</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>梅河口市红十字会来我市考察交流</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-04-15</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.thsredcross.org.cn/jdxw/202004/t20200415_448090.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['4月11日，梅河口市红十字会副会长曾祥峰一行四人来我市进行考察学习和业务交流，双方就如何更好的开展红十字工作进行座谈。通化市红十字会常务副会长李承清、综合科科长范歆及相关工作人员参加座谈。', '座谈会上，李承清对梅河口市红十字会同仁的到来表示热烈欢迎，希望此行能够传经送宝，共同提高，共谋发展。李承清从落实总会和省会改革方案精神、近几年“三救”“三献”核心业务开展情况和今后主要打算等三个方面介绍了我市红十字会工作。双方就如何推动备灾救灾储备库建设、应急救护培训、救援队建设、人道资源动员、基层组织建设、会员发展及会费收缴、扩大红十字会影响等核心业务进行了深入讨论和交流。', '李承清从落实总会和省会改革方案精神、近几年“三救”“三献”核心业务开展情况和今后主要打算等三个方面介绍了我市红十字会工作。双方就如何推动备灾救灾储备库建设、应急救护培训、救援队建设、人道资源动员、基层组织建设、会员发展及会费收缴、扩大红十字会影响等核心业务进行了深入讨论和交流。', '梅河口市红十字会副会长曾祥峰对我市红十字会各项工作所取得的成绩和经验做法给予高度评价，认为我会一些先进的经验和做法值得学习和借鉴，表示此行收获颇丰，希望借助此次交流，增进两地红十字会之间的友谊，共同推动红十字事业的发展。', '会后，考察组一行参观了我会救护培训、人道救助等各类工作档案，双方工作人员就相关业务细节进行了交流。', '此次考察，为通化、梅河口两地红会提供了相互学习、相互借鉴的机会，双方希望今后能够进一步加强联系，互相取长补短，更好地实现资源共享，共同推动两地红十字会工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>52</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>梅河口市卫生计生局赴丽水考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2018-12-28</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/jyhpt/wjj/xwfb/201907/t20190718_8336079.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['2018年12月12日至15日，由卫生计生局刘局长带队，主管副局长、社区卫生服务中心主任、卫生院院长及相关科室共计26人赴浙江省丽水市进行考察学习', '日，由卫生计生局刘局长带队，主管副局长、社区卫生服务中心主任、卫生院院长及相关科室共计26人赴浙江省丽水市进行考察学习', '由卫生计生局刘局长带队，主管副局长、社区卫生服务中心主任、卫生院院长及相关科室共计', '重点考察学习县域医共体、公共卫生项目管理、村卫生室管理等。丽水市卫生计生委根据我市考察学习重点，分别安排莲都区、缙云县和青田县的社区卫生服务中心、乡镇卫生院、村卫生室等考察点。考察采取听取情况介绍、现场参观、座谈讨论的形式。', '（一）莲都经验。一是公共卫生项目重绩效、严考核，根据实际设立量化考核奖，解决服务对象数量与实际经费不对等的问题，没有能力承担公共卫生工作的村卫生室村医可根据情况放弃，由卫生院安排完成；二是统一购买考试软件，通过考试提高业务水平；三是开展山区老年人、慢病带药随访项目。通过全科医生带药上门，针对老年人、慢病患者等重点人群，建立健康档案并定期随访。', '一是公共卫生项目重绩效、严考核，根据实际设立量化考核奖，解决服务对象数量与实际经费不对等的问题，没有能力承担公共卫生工作的村卫生室村医可根据情况放弃，由卫生院安排完成；二是统一购买考试软件，通过考试提高业务水平；三是开展山区老年人、慢病带药随访项目。通过全科医生带药上门，针对老年人、慢病患者等重点人群，建立健康档案并定期随访。', '（二）缙云做法。缙云为浙江省丽水市医共体改革试点县。主要做法：一是充分放权凝聚合力。由县医院、中医院、二院与卫生院组成医共体，实行人、财、物统一管理。分院法人代表由牵头医院院长担任，所有分院院长由医共体任命；二是整合资源提升效率。完成影像、检验、消毒供应、心电、病理等5大共享中心建设，实现医共体内和医共体间检查检验结果互认。确定了县域常见病、慢性病、多发病药品目录，实现了医共体内县、乡两级药品统一采购和使用;三是实行医保奖励机制。推行医保基金回归奖励机制，县域外病人回归县域就诊，节省的医保费用，按比例奖励给医共体；四是政府加大对村卫生室的投入，确保三级网底稳定运转。每个村卫生室政府每年运转补助经费2万元，用于村卫生室补助。', '缙云为浙江省丽水市医共体改革试点县。主要做法：一是充分放权凝聚合力。由县医院、中医院、二院与卫生院组成医共体，实行人、财、物统一管理。分院法人代表由牵头医院院长担任，所有分院院长由医共体任命；二是整合资源提升效率。完成影像、检验、消毒供应、心电、病理等', '大共享中心建设，实现医共体内和医共体间检查检验结果互认。确定了县域常见病、慢性病、多发病药品目录，实现了医共体内县、乡两级药品统一采购和使用', '三是实行医保奖励机制。推行医保基金回归奖励机制，县域外病人回归县域就诊，节省的医保费用，按比例奖励给医共体；四是政府加大对村卫生室的投入，确保三级网底稳定运转。每个村卫生室政府每年运转补助经费', '（三）青田模式。一是基层卫生片区化管理也称基层医共体。以中心卫生院为龙头全县32个乡镇划分9个片区，实行片区化管理。实行业务管理一体化，片区内规章制度、技术规范等统一标准，大型设备统一管理、共同使用。财务管理一体化，财务独立核算，片区内按需进行资产调拨，预算、决算以乡镇为单位进行，药品、耗材、设备及政府采购行为由各基层医共体统一按规定执行;二是村卫生室一体化管理。村卫生室实行一体化管理，房屋由卫生院提供，基本公共卫生经费按照40%工作量考核后兑现经费，工作好的卫生室按人均能达到26元、差的只能得到9元，多余经费返还财政。基药管理按照标准补助。卫生院通过平台统一采购，卫生室到卫生院取药，按照15%的利润给予药品补助；三是多渠道引进人才。通过公开招录、院校特招、定向委培三种形式招录人才。', '个片区，实行片区化管理。实行业务管理一体化，片区内规章制度、技术规范等统一标准，大型设备统一管理、共同使用。财务管理一体化，财务独立核算，片区内按需进行资产调拨，预算、决算以乡镇为单位进行，药品、耗材、设备及政府采购行为由各基层医共体统一按规定执行', '二是村卫生室一体化管理。村卫生室实行一体化管理，房屋由卫生院提供，基本公共卫生经费按照', '元，多余经费返还财政。基药管理按照标准补助。卫生院通过平台统一采购，卫生室到卫生院取药，按照', '的利润给予药品补助；三是多渠道引进人才。通过公开招录、院校特招、定向委培三种形式招录人才。', '本次考察对我市县域医共体、公共卫生项目管理、村卫生室管理工作提升提供了丰富的经验依据。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>52</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>我市组织考察团赴南方考察食品产业及工业企业</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/202012/t20201201_8342828.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['11月20日-24日，我市组织考察团奔赴河南省漯河市、上海市、广西壮族自治区柳州市、浙江省杭州市学习考察食品产业及工业企业，围绕健康食品产业发展、工业企业招商开展了一系列的商务对接与洽谈活动，开拓视野、明晰方向，取得了可喜成果。', '在高新区党工委书记、管委会主任周君的带领下，考察团一行在广西柳州围绕全国地域休闲食品领域销量排名第一的螺蛳粉产业开展了实地考察。在柳州河西高新区管委会主任高建民、柳州螺蛳粉协会执行会长王春林、柳州市螺蛳粉协会秘书长韦荣华的陪同下，考察团先后来到柳州螺蛳粉产业园、螺蛳粉小镇、螺蛳粉博物馆及善元、中柳、螺霸王三家行业内的龙头企业，听取相关负责人的介绍。', '柳州市以品牌化、标准化、规模化、产业化与“互联网+”相结合，引导螺蛳粉“产业发展集聚化、生产技术高新化、品种档次特色化”发展，并与当地政府、开发区及协会进行了深入的探讨与座谈。', '在座谈中，周君表示，在此次考察中感受到了柳州市委市政府对螺蛳粉产业发展的重视，也正是由于柳州市良好的培育土壤，螺蛳粉产业才能迅速发展，逐渐形成方便食品成熟的产业链条和行业标准，同时也感受到了方便食品产业的蓬勃发展对地方经济、就业等各方面的带动作用。', '短短几年螺蛳粉产量与销量大比增幅，预包装柳州螺蛳粉从2015年销售收入5亿元，发展到2019年的62.56亿元，注册登记企业从2014年底的4家发展到目前的100家，其中规模以上企业达到10家，25万个就业岗位遍布在全产业链各个环节，带动建档立卡贫困户约2.3万人,促进了一二三产业融合发展。力争到2020年底全面实现柳州螺蛳粉产业“双百亿”目标，即袋装螺蛳粉销售收入100亿元，配套及衍生产品销售收入100亿元。', '周君表示要结合此次考察情况，积极做好我市方便食品的产业规划。相信梅河冷面与柳州螺蛳粉的握手既是双方政府合作的开端，也是南北方饮食文化的一次深层次融合，助力双方更好地拓展国内外方便食品市场。', '河南省漯河经济技术开发区是国家级开发区，产业优势突出，以双汇集团、香港太古可口可乐、美国嘉吉、中粮集团、台湾旺旺、台湾统一为代表的700多家食品产业集群，食品和包装机械产业园、卫龙食品产业园等构成了开发区经济发展的坚实基础。', '漯河经济技术开发区是食品企业、名牌聚焦的开发区，是漯河食品产业的核心区，食品产业增加值占全区工业增加值比重达70%以上。通过此次对漯河经济技术开发区的实地考察，了解了园区建设情况，学习了国内先进的食品运营经验，得到了全新的启迪。', '周君一行先后来到上海和进与杭州西奥公司进行考察，深入了解企业发展情况。上海和进物流机械有限公司是专注于自动化科技装备的全球化制造商，全球600多家合作伙伴，匠心制造，不断加大研发创新力量，以技术领域的持续创新与突破结出累累硕果。', '周君认真考核产品质量，与企业商谈如何降低采购成本，提升服务标准，打造物流机械及西奥电梯梅河口新样板，并以此为引领，诚挚邀请企业负责人近期来梅，预引进两户企业到我市落地投产，辐射整个东北地区。', '梅河口将坚定不移走出一条质量更高、效益更好的高质量新路，跟进产业发展趋势，抢抓经济和产业机遇，努力建设高质量发展先行示范区，为吉林省全面振兴全方位振兴贡献梅河口力量！']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>52</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>通化市人社局多措并举做好农民工工资支付工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019-11-21</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://hrss.jl.gov.cn/ldgx/ldjc/ldbzjcgzdt/201911/t20191121_6164315.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['按照农民工工资支付工作“冬病夏治”的原则，通化市人社局从健全完善工作体制机制入手，认真研究治本之策，切实维护广大劳动者合法权益。', '一、召开联席会议。4月中旬，由市人社局牵头，住建、交通和相关金融机构组成的考察组，赴全国示范标杆城市湖北省恩施州学习考察，围绕整改工作提出了做好农民工工资支付工作建议。6月26日，通化市委常委、常务副市长经希军主持召开专题会议，住建、交通、水利、政数局等系统参加，专题会议同意我局提出的意见建议，目前正按专题会议的部署推进相关工作。9月24日，全市召开解决企业拖欠工资问题联席会议，会议由通化市委常委、常务副市长经希军主持并对我市治欠保支工作进行安排部署，市人社局局长陈楠同志通报了我市清理拖欠农民工工资情况。', '二、完善政策措施。按照国家和省、市相关文件规定，对已经建立的制度进行完善和明确，包括：落实农民工工资应急周转金，将市级应急周转金1000万元、县、区500万元直接划入专用帐户管理;农民工工资保证金的收取、存储及使用办法，按照企业信誉等级可分别采取足额收取、部分减免和缓期缴纳等形式;联席会议定期例会办法，对未按规定办理审批手续，先建后批或在规定时间内未补齐手续的企业，经联席会议研究后可暂停施工;等级评价系统的考核办法;失信联合惩戒制度的工作落实;“黑名单”制度的规范。', '三、建设工资支付保障信息平台。拟依托中国联合网络通信有限公司通化市分公司“政务云”引进人社部推荐的“数字浙江，智慧城市”管理软件，充分实现农民工工资考核、实名制管理、分账制管理及银行代发工资等工作网络化管理，并与我省开展的“两网化”建设及住建厅实名制考核系统兼容，做到农民工考勤、银行代发等工作市县联动、全城覆盖。资金来源渠道由我市相关商业银行共同投资，联席会议成员单位共同使用。商业银行在享受存储工资准备金所带来“红利”的同时，减轻政府的投入和企业负担，并彻底解决农民工欠薪事实不清、解决纠纷证据不足等方面的问题，系统上线使用后，对未及时录用实名制管理系统、未按规定开设专用账户、未按月足额支付工资的企业可暂缓施工，待补齐手续后方可复工，以保证工资按月足额支付，使工资在闭环的资金链中运行，保证农民工工资专款专用，确保2019年底基本实现全覆盖。', '四、制定落实办法。借鉴其他省市先进经验，按照国家和省政策法规的有关规定，制定《通化市建设领域劳动者工资支付保障实施办法》，确保在系统平台运行后，各相关职能部门及用工单位，按照《办法》的规定规范用工行为。', '五、加强部门联动。由人社部门牵头，住建、交通、水利各行业主管部门分工负责，督促所属企业及时与劳动者签订劳动合同，将实名制人员信息及时录入系统，及时交纳保证金、储备金、工伤保险基金；人民银行按照要求及时为施工总承包单位、劳务分包单位开设工资专用账户；金融机构及时划转工资专项存款，监督企业工资账户款项专项专用，及时将工资划入农民工银行卡中；要求各类用人单位加强实名制考勤，及时签订劳动合同、划拨工资、缴纳工伤保险，确保农民工工资按月足额发放。全市形成政府领导、人社牵头、部门主办、企业守法、社会参与的工作格局，确保职责有分工，分工有责任，责任有追责，追责有惩处，有计划有目标地推进治欠保支工作建设。', '六、加强综合执法力度。一是组织开展全市劳动保障监察执法专项检查活动。截至目前，全市共检查用人单位1839户，其中建筑业198户，加工制造业158户，住宿餐饮企业615户，其他用人单位496户，涉及农民工8116人，签订劳动合同8056人。二是组织开展全市清理整顿人力资源市场秩序专项行动。全市参加检查人员共177人次，其中：人力资源社会保障部门130人次;市场监管部门47人次。专项行动期间共检查各类用人单位143户。现场督促3个单位办理人力资源许可证。通过此次检查，进一步规范了我市人力资源市场秩序，为落实人力资源服务机构事中事后监管提供了详细的基础资料，对无证经营机构和企业起到了震慑作用。三是组织全市开展市直企业劳动保障守法诚信等级评价活动。按照《吉林省企业劳动保障诚信等级评价实施办法》的工作要求和部署，结合我市实际情况，联合社会保险局、市场监管局等相关部门，对全市市直企业开展等级评价。截至目前，共对15家企业进行了评价，通过活动开展，有效提高了企业诚信评价工作效益，营造了良好的社会舆论氛围。（通化市人社局）']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>52</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>县环保局赴临海对接学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201904/t20190426_349372.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为深入推进对外合作交流，进一步深化我县与临海市在生态环境监管领域的务实合作，近日，通化县环境保护局考察组赴浙江省临海市，与临海市生态环境局进行对接，并座谈交流了两地在生态环境监管领域的经验做法。 在临期间，通化县委常委、常务副县长、临海市副市长刘忠波带领考察组，实地考察了台州市德长环保有限公司危险废物处理场，就生态环境监管体系特别是危险废物处理工作，进行考察学习。此次考察，有力推动了我县生态环境保护工作，为进一步巩固我县生态文明发展成果，提供了重要的借鉴和参考。 考察组还实地参观了浙江瑞博制药有限公司。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>52</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>大安镇考察组赴永丰镇考察学习</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201904/t20190428_349430.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['4月23日，大安镇党委副书记宋智带领大安镇考察组赴临海市永丰镇，就乡贤文化建设进行考察学习。临海市委市政府政策研究室副主任、市委改革办专职副主任李鑫参加考察。', '考察组实地参观了下塘园村乡贤文化长廊和农博馆，听取了下塘园村村级乡贤会概况、农博馆由来、农耕器具使用及乡小贤寻根据点的相关介绍。下塘园村通过农博馆阵地打造，让在外乡贤后代回归体验农耕文化，拉近他们与家乡的距离，进一步系紧乡贤纽带，挖掘和培养乡小贤这一群体，以此破解乡村精英流失这一核心问题。', '在镇文化中心四楼会议室，考察组听取了永丰镇从“乡贤工作开展背景”“乡贤与乡贤会的职能与定位”“乡贤群体的认定与归类”“乡贤组织的机构与规则”“乡贤回归的阵地与平台”“乡贤反哺的活动与行动”“乡贤工作的推广与升华”七个方面，对该镇乡贤工作情况的详细介绍。 永丰镇组织委员陈慧、统战委员项玲珠参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>52</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>我县与临海市召开对口合作交流会议</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020-07-19</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/202011/t20201102_500373.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['中共通化县委副书记、通化县人民政府县长戴存鹤代表通化县四个班子和全体通化县人民，诚挚欢迎临海市党政代表团来到通化县，并向代表团介绍了通化县县情。 戴存鹤表示，自通化县与临海市签署对口合作框架协议以来，两地沟通往来密切，开展了一系列交流活动，合作项目取得实质性成果，为两地开发开放、经济与人文交流合作构筑了坚实基础。在向临海市学习的过程中，通化县感受到了经济发达地区浓厚的发展氛围，也激发了加快实现全面振兴、全方位振兴发展目标的工作热情。在下步工作中，希望两地能够围绕土地人力、自然生态、康养旅游等方面加强合作，使对口合作交流向更宽领域、更深层次拓展，充分发挥两地互补优势，相互补齐短板弱项，共谋发展，合作共赢，携手开创更加美好的未来。', '中共临海市委副书记、临海市人民政府市长王丹代表临海市四个班子，向通化县四个班子及致力于两地对口合作的朋友们表示衷心感谢，并向参会的通化县党政代表们介绍了临海市市情。 王丹表示，临海市党政代表团来到通化县考察学习，是一次增进感情的走亲之旅，是一次机遇难得的学习之旅，更是一次深化合作的开拓之旅。近一年来，临海市与通化县在巩固原有合作成果的基础上，发挥各自比较优势，建立了全方位、多领域、深层次的对口合作交流模式。一是患难与共，交流情谊更加深厚。二是产业互兴，合作成果更加丰硕。三是交流互通，社会合作更加踊跃。这些成果的取得，为两地深入推进对口合作交流打下良好基础。下一步，临海市将紧紧围绕中央、浙江省委和台州市委关于对口合作的决策部署，抱着“真心相待、真挚相交、真诚合作”的态度，按照“精准对接、精准合作、精准落地”的导向，进一步深化两地各个层面的交流交往，把对口合作这篇文章做深做实，努力把临海市和通化县的对口合作做成全省乃至全国对口合作的示范和样板。', '的态度，按照“精准对接、精准合作、精准落地”的导向，进一步深化两地各个层面的交流交往，把对口合作这篇文章做深做实，努力把临海市和通化县的对口合作做成全省乃至全国对口合作的示范和样板。', '会上，通化县经济技术合作服务中心主任刘颖与台州市台联九生猪专业合作社联合社理事长林春法签署《通化县畜牧生态产业园框架合作协议》。', '吉林通化县经济开发区党工委书记、主任崔宝坤与临海市经济开发区党工委书记、主任周先忠签署《通化县—临海产业园“飞地经济”战略合作协议》。', '通化县文广旅局局长赵陈彬与临海市文广旅体局局长王荣杰签署《文旅产业项目框架合作协议》。 临海市委常委、常务副市长胡新民，临海市政府副市长、浙江头门港经济开发区党工委副书记、管委会常务副主任徐明堂，临海市政府副市长、通化县委常委、常务副县长刘忠波；通化县委常委、宣传部长韩奥，副县长、公安局长张立志，副县长王晓刚，副县长刘刚出席会议并见证签约。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>52</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>东昌与椒江山海情携手行</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.dc.gov.cn/ztzl/bwcx/201912/t20191220_401446.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['本报讯东昌区与台州市椒江区自签订对口合作框架协议以来，坚持“政府引导、突出特色、互利共赢”的原则，多次跨越相距万里的山海之桥，带着深化合作的美好愿景，共叙友情、共话合作、共谋发展，在产业互动、平台共建、干部培训、企业合作等方面结出了累累硕果。', '全方位学习椒江发展经验和理念，东昌区坚决做到“不叫不到、随叫随到、说到做到、服务周到”。深推“放管服”和“只跑一次”改革，项目审批实现了市区只进一扇门、联合审批、同城通办，营商环境进一步优化。同时，东昌区多次组织领导干部和企业家赴椒江考察学习、洽谈合作，选派乡科级干部到椒江跟班学习。干部的精神面貌和工作作风有了明显转变和提升，极大地提振了干事创业的精气神。', '多领域开展对口合作，东昌与椒江区域特点相近，产业关联度强，两区在医药健康、文化旅游等领域深度交流合作。20多户东昌企业与椒江有关方面达成合作意向，万通药业、茂祥药业、力神保健品与椒江海正药业、参源贸易、台州宝柏塑业建立了长期合作关系，浙江洪福堂集团投资30亿元在东昌实施中医药健康养生小镇项目，把江南水乡移植到了北国山城，项目的成功落地将对浙商特别是椒江客商到我区投资兴业、寻求商机发挥示范引领作用。', '合作无远近，万里尚为邻。实践证明，深化东昌与椒江的务实合作是推动两区经济发展互利共赢的重大举措，是加快推进新时代东昌绿色转型、全面振兴的难得机遇。东昌区将进一步深入寻求两区对口合作的新路径新举措，推进两区对口合作向更宽领域、更深层次、更高水平迈进，努力争做通台两地合作的典范。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>52</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>农通响亮科技集团有限公司莅梅调研</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201908/t20190801_8350982.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['7月30日下午，农通响亮科技（集团）有限公司莅梅调研座谈会在市政府常务会议室召开。', '市委常委、宣传部长汪晓梅，副市长于艳玲出席座谈会，同农通响亮科技（集团）有限公司董事长李雪峰及农通响亮科技（集团）有限公司其他相关负责人就中国农村电子商务“双创”工作委员会“双创”惠民系列工程项目--农通响亮大喇叭项目落地我市相关事宜进行了座谈。', '据了解，农通响亮农村大喇叭工程是新云广播技术、电子技术、信息技术、计算机技术的融合体，也是“分时、分区、分类”精准式、智能化信息服务系统，根据各地情况的不同，制定个性化、差异化的服务体系，可实现全县互通、互联、互动，将党政国策、农村新闻等简单、快捷地输送到每一位农民耳中。还同步创建农村‘双创’就业基地，解决农村复转军人就业。同时，通过该平台实施电子商务进农村，打通农副产品销售“最后一公里”。', '于艳玲指出，实施农通响亮农村大喇叭项目建设是传播政策信息的现实需要，是服务“三农”工作的重要载体，也是加强应急管理的重要保障，当前要将开展工程落地前期准备与后期运行管理的学习考察同步推进，确保项目尽早开工。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>52</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>城管大队大队长刘烈一行深入市纪委市监委考察学习扫黑除恶专项斗争工作</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-03-29</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201903/t20190329_8361942.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['城管大队大队长刘烈一行深入市纪委市监委考察学习扫黑除恶专项斗争工作-梅河口市人民政府', '为使我局扫黑除恶专项斗争工作深入开展，推动扫黑除恶各项工作落实，3月29日下午，城管大队大队长刘烈带队考察学习市纪委市监委好的经验做法。城管大队副大队长刘辉、局扫黑办工作人员参加考察。', '本着互相学习、共同提高的目的，局扫黑办一行参观了市纪委市监委扫黑除恶领导小组办公室，翻阅了相关档案资料，带着问题详细询问了方案制定和相关工作制度的落实等情况。此次考察，局扫黑办工作人员学习到市纪委市监委开展扫黑除恶专项斗争的先进经验，特别是档案资料的归档和人员队伍建设方面好的做法。', '下一步,局扫黑办将积极学习借鉴市纪委市监委的经验做法，进一步规范本部门扫黑除恶专项斗争各项工作，扎实推进全局扫黑除恶专项斗争向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>52</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>曙光镇切实做好春季备耕工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019-03-21</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201903/t20190321_8353706.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['为确保春耕有序进行，曙光镇围绕农业增效、农民增收这一目标，切实做好2019年春季备耕工作。', '一是实施科技带动，结合我镇备耕实际，以集中培训、入村培训、现场指导等方式开展春耕农技培训，镇农科站工作人员为农民宣传讲解农作物栽培技术、测土配方施肥技术，指导农民提高科学种田水平。', '二是及时传达发展农业产业的相关政策，通过召开产业发展培训会、组织有意向农户外出实地考察学习，积极推动农业种植结构转型。今年，曙光镇计划种植1000亩大豆、1000亩甜玉米、1500亩大榛子。', '三是开展农机具年检工作，农机站工作人员走村入户，指导农民使用农机具，讲解机具使用方法与操作技巧，并对现有农机具进行检修，保证春季农用机具生产安全。', '四是保证春耕用水，坚持巡河常态化，保证镇域内水库春耕时节蓄水、倒水安全。向海龙灌区申请增打抗旱井眼，同胜村已打完抗旱井眼。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>52</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>双龙村唱响生态发展幸福歌</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/zwgk/thlb/xqdt/202202/t20220215_587076.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['“沟沟岔岔，坑坑包包，晴天一路灰，雨天一身泥！”这是五年前辉南县辉南镇双龙村的真实写照。如今的双龙村，变成了“绿富美”高颜值的生态村。谈到变化，村民们都说，那是因为双龙村有个好带头人——村党支部书记闫方民。 绿色谱曲，让双龙村底色更靓。2017年国家号召退耕还林，村民想不通不愿意，因为他们认为自己种粮的地少了，收入相对也会减少。闫方民顶住各方压力，按时间按亩数完成了退耕还林工作任务。为完成退耕还林任务，让村民找到一条产业增收致富新路，闫方民没少花费心思。他带领10多户村民外出考察学习，选择发展龙丰果产业项目，2017年在退耕还林地上种植龙丰果树359亩，2020年初见成效，一亩地收入2500元左右，最差的一亩地收入1000元，村民都觉得跟着闫方民种果树干对了。闫方民灵活调整退耕还林地块，坡度大的地块发展经济林，较平坦的地块发展中草药材。他不怕麻烦，一块地一块地地与村民签合同，双龙村是全县签订合同份数最多的村。 双龙村的沟沟岔岔里有11座水库，闫方民充分利用沟沟岔岔做起了绿色食品产业大文章。他带领村民种植有机玉米，加工包装后销往靖宇县、柳河县、梅河口市等地。双龙村沟沟岔岔里流淌着纯天然的溪流水，周边的山林将双龙村的沟沟岔岔隔断为一个个纯天然有机水稻种植区域。2019年，闫方民组织6户村民成立了鸭田稻有机水稻种植合作社，在幺家沟屯种植鸭田稻252亩，注册了“双龙的老味道”商标。为了在生产环节让鸭田稻更营养，闫方民组织建成了鸭田稻加工车间，自己加工，保证有机水稻加工成精品胚芽米，让双龙村出产的大米更营养更健康。 要想富，先修路。双龙村通往镇政府所在地的道路是坑坑包包的不平路，极大地阻碍了双龙村的发展。闫方民当选村党支部书记后，就开始着手为村民建设一条平坦的向外发展的致富路。经过镇、村两级努力，2018年争取发改、农发项目资金1200万元，新建9公里农田沙石作业道、4公里水泥路、2个水库、1个拦河坝、500延长米水渠、26座桥涵。 路修好了，就要带领村民致富，闫方民带领村民发展产业项目。目前，双龙村种植龙丰果359亩、中药材330亩、林下参140余亩、红菇娘30亩。种植的经济作物丰收了，怎么卖？闫方民在村部设立了电商服务中心，带领村民通过电商渠道销售当地农产品。价格不好、销路不好，怎么办？双龙村新建1座库存果蔬260吨的冷库，冷藏果蔬，开展反季节销售，极大提升了产销能力，提高了农产品收入。 景民合奏，让生活更美好。克服各种困难，做通村民思想工作，闫方民把双龙村宝玉沟屯原来17户村民占地1300平方米的柴垛场、小菜地地块进行改造，建成村民文化广场，还安装了篮球架、健身器材等。为让双龙村变得更加“洁美绿”，闫方民又把广场附近的荒沟建成了村民赏花拍照的荷花塘。双龙村村民平时农闲时间在文化广场打球、跳舞、举办文艺节目，这里成了村民快乐的场所聚集处。此外，双龙村新建100平方米的幸福大院将在“七一”前夕正式启用。幸福大院主要是为留守老人服务，为中午不回家的老人提供午餐，让留守老人在外地的儿女放心，让村民有满满的幸福感。近年来，双龙村先后有2人被评为“吉林好人”、3人被评为“通化好人”，宝玉沟屯被评为通化市“好人集体”。 春有花、夏有鱼、秋有果，风景如画，在乡村振兴的路上，双龙村正唱响生态发展的幸福歌。', '绿色谱曲，让双龙村底色更靓。2017年国家号召退耕还林，村民想不通不愿意，因为他们认为自己种粮的地少了，收入相对也会减少。闫方民顶住各方压力，按时间按亩数完成了退耕还林工作任务。为完成退耕还林任务，让村民找到一条产业增收致富新路，闫方民没少花费心思。他带领10多户村民外出考察学习，选择发展龙丰果产业项目，2017年在退耕还林地上种植龙丰果树359亩，2020年初见成效，一亩地收入2500元左右，最差的一亩地收入1000元，村民都觉得跟着闫方民种果树干对了。闫方民灵活调整退耕还林地块，坡度大的地块发展经济林，较平坦的地块发展中草药材。他不怕麻烦，一块地一块地地与村民签合同，双龙村是全县签订合同份数最多的村。', '双龙村的沟沟岔岔里有11座水库，闫方民充分利用沟沟岔岔做起了绿色食品产业大文章。他带领村民种植有机玉米，加工包装后销往靖宇县、柳河县、梅河口市等地。双龙村沟沟岔岔里流淌着纯天然的溪流水，周边的山林将双龙村的沟沟岔岔隔断为一个个纯天然有机水稻种植区域。2019年，闫方民组织6户村民成立了鸭田稻有机水稻种植合作社，在幺家沟屯种植鸭田稻252亩，注册了“双龙的老味道”商标。为了在生产环节让鸭田稻更营养，闫方民组织建成了鸭田稻加工车间，自己加工，保证有机水稻加工成精品胚芽米，让双龙村出产的大米更营养更健康。', '要想富，先修路。双龙村通往镇政府所在地的道路是坑坑包包的不平路，极大地阻碍了双龙村的发展。闫方民当选村党支部书记后，就开始着手为村民建设一条平坦的向外发展的致富路。经过镇、村两级努力，2018年争取发改、农发项目资金1200万元，新建9公里农田沙石作业道、4公里水泥路、2个水库、1个拦河坝、500延长米水渠、26座桥涵。', '路修好了，就要带领村民致富，闫方民带领村民发展产业项目。目前，双龙村种植龙丰果359亩、中药材330亩、林下参140余亩、红菇娘30亩。种植的经济作物丰收了，怎么卖？闫方民在村部设立了电商服务中心，带领村民通过电商渠道销售当地农产品。价格不好、销路不好，怎么办？双龙村新建1座库存果蔬260吨的冷库，冷藏果蔬，开展反季节销售，极大提升了产销能力，提高了农产品收入。', '景民合奏，让生活更美好。克服各种困难，做通村民思想工作，闫方民把双龙村宝玉沟屯原来17户村民占地1300平方米的柴垛场、小菜地地块进行改造，建成村民文化广场，还安装了篮球架、健身器材等。为让双龙村变得更加“洁美绿”，闫方民又把广场附近的荒沟建成了村民赏花拍照的荷花塘。双龙村村民平时农闲时间在文化广场打球、跳舞、举办文艺节目，这里成了村民快乐的场所聚集处。此外，双龙村新建100平方米的幸福大院将在“七一”前夕正式启用。幸福大院主要是为留守老人服务，为中午不回家的老人提供午餐，让留守老人在外地的儿女放心，让村民有满满的幸福感。近年来，双龙村先后有2人被评为“吉林好人”、3人被评为“通化好人”，宝玉沟屯被评为通化市“好人集体”。', '春有花、夏有鱼、秋有果，风景如画，在乡村振兴的路上，双龙村正唱响生态发展的幸福歌。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>52</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>白城市考察团来我市学习考察城市管理工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/201909/t20190924_8342490.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['9月21日，由白城市委副秘书长、市委办主任、城市管理行政执法局局长张宇带领的白城市考察团来我市学习考察城市管理工作。', '考察组一行先后深入现代服务业示范区、海龙湖公园、商业步行街、梅河口公园、沿河小区、梅河口明日世基清洁服务有限公司设备库实地踏察。', '在市宾馆三楼会议室召开的座谈会上，与会人员首先观看了梅河口明日世基清洁服务有限公司企业宣传片，听取了市城市管理行政执法局和明日世基清洁服务有限公司关于我市向社会购买服务实现企业服务政府买单，大大提升城市管理水平的汇报。双方就城市管理执法体制改革、行政审批、执法办案系统、执法规范化建设、小广告治理等城市管理中共同关心的难点和热点等进行了广泛的交流和探讨。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>52</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>伊通县考察团来我市参观考察项目建设工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202004/t20200417_8340529.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['市人大常委会主任刘怀玉，市委常委、市委办公室主任马志有，副市长兼财政局局长孙士岩陪同。', '考察团先后深入蓝城桃李春风梅河口啤酒生态小镇项目、梅河口市龙湖蓝山项目、万人体育场项目、北大培文实验学校建设项目、教育小镇项目、梅河口海鲜综合批发市场项目、红星美凯龙城市综合体等13个项目现场，并实地参观我市丽水青田侨乡进口商品城、爨街美食不夜城，考察团通过现场听取项目建设工作介绍，了解了我市在项目引进、建设、管理等方面的先进经验和典型做法，并对我市规划科学、布局合理、前景广阔的产业集聚给予了高度评价。', '张恒表示，通过这次考察亲眼目睹了梅河口市近年来在城市建设、项目落地、景区打造等方面所取得成绩，亲身感受到了梅城干部群众做事干事的热情，特别是教育小镇项目在规划设计、征地拆迁等方面的经验和做法，为伊通提供了示范。此次考察，学习了经验、鼓足了干劲儿，促进了交流，回去后会组织干部认真总结，借鉴梅河口市先进的发展经验，谋划好今后的发展思路。奋力推动各项工作再上新台阶。', '刘怀玉代表市委、市政府对伊通考察团的到来表示欢迎，并希望两地在今后的工作中能够互相交流，取长补短，共同为推进吉林经济社会又好又快发展作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>52</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>王爱明主持召开第次市委常委会会议</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-03-01</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202103/t20210301_8340850.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['市委书记王爱明主持会议。市委副书记、市长，市委副书记张成太等市委常委出席会议。市人大常委会主任张卫红，市政协主席宁洪友列席会议。', '会议听取了我市近期疫情防控工作情况汇报；传达学习了全国组织部长会议精神，听取了全市组织工作会议筹备情况的汇报；传达学习了全国和全省宣传部长会议精神，听取了全市宣传思想文化工作会议筹备情况的汇报；听取了市委农村工作会议筹备情况的汇报；听取了教育集团第二批人才引进和专家公寓规划建设情况的汇报。', '关于疫情防控工作，王爱明指出，在省委、省政府的正确领导和安排部署下，我市市委、市政府高度重视，有序有力、主动精准，科学研判疫情走势，精准实施防控措施，持续巩固防控成果，保持了低风险、无疫情城市。在此基础上，我们主动支援通化，出色完成了通化市密接人员转运集中隔离和对通化市开展物资保供工作，受到省委、省政府充分肯定和通化市人民高度评价。王爱明要求，下一步，要实行常态化管理，将境外输入工作牢牢抓在手上，严格规范流程、精准管控，确保不出现任何差错。要抓好社会面管控，严格执行疫情防控操作流程，抓住关键环节，成立专门信息工作组，及时关注国际国内疫情防控形势。', '关于组织工作，王爱明强调，要把政治建设摆在首位，提升领导干部素养。要把基层党组织建设牢牢抓在手上，做到城市基层党建、农村基层党建、非公党建等各个方面工作都有具体目标和工作安排。要充分发挥基层党组织作用，加强到先进地区学习考察，坚持细化、量化、清单化，走深走实服务群众工作。要高度重视，加强领导，精心组织，依法依章、扎实细致做好换届工作。要牢牢抓好干部队伍和人才队伍建设，形成好的选人用人导向，力争在“十四五”期间回归万名人才。', '关于宣传思想文化工作，王爱明要求，要强化理论武装，抓好市委理论学习中心组成员的理论学习，深入开展十九届五中全会精神的学习。要加大对外宣传力度，加强与中央、省级主要媒体对口合作、建立联系，对我市经济社会各项事业取得的成就开展有质量、大力度的宣传，努力让更多省市人民看到梅河口、了解梅河口、爱上梅河口。要营造发展氛围，优化新闻宣传报道结构，改进新闻宣传报道方式，围绕市委、市政府中心工作，把我市一线的、有引领作用的经济、项目、民生等各项工作及时推送出去。要加大我市知名企业品牌宣传，营造全市大发展快发展的浓厚舆论氛围。要把理论学习工作牢牢抓在手上。要发挥新时代文明实践中心引领市民的作用，设计各种载体，倡导文明新风。', '关于农业农村工作，王爱明强调，要突出工作重点，做好政策衔接，压紧压实责任，推动“三农”工作再上新台阶，以产业振兴带动乡村全面振兴。', '关于人才引进工作，王爱明指出，高质量发展，离不开人才支撑，没有高端人才更加不行。科技兴市是我市在“十四五”时期的重大发展战略，我们必须统一思想，达成共识，借鉴先进地区经验做法，制定出台更加切实可行的人才引进政策和培育计划，切实把科技兴市发展战略落到实处。王爱明强调，“十三五”时期，我市通过制定人才引进政策、设立人才基金等举措，成功引进史亮、战胜等不同行业领域的高端人才，在引进人才特别是高层次人才工作中先行先试，跨出了关键一步，取得了突破性成果。特别是在教育领域，通过引进史亮团队，展现了市委、市政府的态度和决心，表明了对教育事业的格局和胸怀，带来了教育理念的革新，产生了良好的名人效应，吸引了越来越多的高层次教育人才加入梅河口市教育团队，为提升我市教育水平、打造东北亚教育高地奠定了坚实基础。全市各个领域的人才引进工作都要以教育事业的人才引进工作为引领和示范，制定周密详实的人才规划，尽早实现突破。要把人才工作作为“十四五”时期的根本性工作，加强配套、贴心、便捷服务，加强人文关怀，抓紧抓实抓好各项工作，真正让引进到我市的高层次人才在我市有归属感，生活工作在梅河口更加舒心安心，共同为我市建设高质量发展先行示范区，打造现代化区域中心城市努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>52</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市残联开展解放思想大讨论活动</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201811/t20181126_8361660.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，认真贯彻落实习近平总书记在深入推进东北振兴座谈会上的重要讲话和在吉林视察时的重要指示精神，市残联以“如何实现残疾人工作新突破，加快残疾人小康进程”为课题展开调研和讨论。', '为深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，认真贯彻落实习近平总书记在深入推进东北振兴座谈会上的重要讲话和在吉林视察时的重要指示精神，市残联以', '大家统一思想，一致认为解放思想不是一句口头禅，更不能是一阵风，要用总书记重要思想武装头脑，工作要向发达地区对标，要向先进地区学习；', '11月23日，市残联开展专题研讨会，针对考察学习情况进行了汇报梳理。借鉴其他地区的发展经验，并结合我市实际情况，正在积极讨论制定《梅河口市残疾儿童康复救助制度》，以推动我市残疾人事业的全方位发展。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>52</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>迎接中央督导检查城市管理行政执法局在行动</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201904/t20190401_8361946.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['为迎接好中央扫黑除恶督导检查，城市管理行政执法局全面贯彻落实市扫黑除恶专项斗争领导小组办公室关于配合做好中央扫黑除恶督导工作重点任务及有关要求，积极完成各项工作任务。', '开展一次专题调研督导，局领导班子成员深入到行业监管企业——明基环境公司，开展一次扫黑除恶专题调研。', '进行一次学习考察，城管大队大队长刘烈带队，深入到市纪委监委就扫黑除恶档案资料整理进行一次学习考察。', '扫黑除恶专项斗争开展以来，局党组始终将扫黑除恶工作作为当前头等大事来抓，乘势推动扫黑除恶专项斗争向纵深发展。', '一、研究制定了迎接中央扫黑除恶督导组实施方案，细化责任，明确分工，严格按照中央、省委、市委的统一部署,全力以赴配合好检查工作。', '二、成立了由单位主要领导为组长，班子成员为副组长的迎检工作领导小组。抽调素质高、能力强的工作人员，专职负责扫黑除恶工作，确保迎检工作有序推进。', '三、建立健全扫黑除恶工作机制。通过集中排查、滚动摸排、信访举报等形式，扩宽线索来源渠道，加强与政法部门、公安部门的沟通交流，及时移交线索台账。', '四、持之以恒强化氛围宣传，充分利用行业领域阵地和多种宣传平台，强化宣传发动，大力宣传保护举报人和奖惩机制，激发群众对扫黑除恶线索举报的积极性与参与性，营造扫黑除恶浓厚氛围。', '五、加强监督执纪问责，将扫黑除恶工作与日常监督执纪问责结合起来。建立督导检查机制，确保扫黑除恶专项斗争工作延伸到最后一厘米。', '扫黑除恶专项斗争工作在全系统内掀起一波强大攻势，系统内各基层单位全面贯彻落实中央督导方案内容，认真做好迎接中央督导期间各项服务和配合工作，确保专项斗争督导工作圆满完成。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>52</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>集安市委统战部聚焦民企发展促进非公领域作用持续发挥</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://tzb.tonghua.gov.cn/jctz/202007/t20200731_482704.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['多年来，集安市委统战部始终坚持把做好新形势下民营经济统战工作，作为全市统一战线服务中心工作的重要着力点，通过主动纾困、加强培育、强化创新，不断推动我市民营经济向好发展。', '一是主动纾困，助力民企复工复产。针对疫情对我市民营企业发展造成的不利影响，主动深入民营企业了解情况，开展跟踪调研6次。先后与邮政储蓄银行集安支行、吉林银行集安支行联合召开银企对接会2次，帮助受疫情影响的民营企业解决资金短缺等问题，促成13户民营企业与金融机构达成贷款意向，3户企业已启动贷款相关业务程序，预计贷款总额达220万元。', '影响，主动深入民营企业了解情况，开展跟踪调研6次。先后与邮政储蓄银行集安支行、吉林银行集安支行联合召开银企对接会2次，帮助受疫情影响的民营企业解决资金短缺等问题，促成13户民营企业与金融机构达成贷款意向，3户企业已启动贷款相关业务程序，预计贷款总额达220万元。', '二是加强培育，搭建学习成长平台。深入贯彻落实习近平总书记在民营企业家座谈会上的重要讲话精神，围绕通化市委统战部实施“七个一批”工作举措的安排部署，择优选派4名新生代民营企业家到乡镇开展挂职锻炼，为我市服务民营企业发展、促进政企沟通交流、营造“亲”“清”新型政商关系提供了保障。以“不忘创业初心，接力改革伟业”为主题，组织非公经济人士赴山东、江苏、浙江等地针对物流、环保、民宿等领域进行域外学习考察，面向非公经济人士开展“百年明德讲堂”线上培训9次，不断推动我市民营经济和民营企业家“两个健康”发展。', '座谈会上的重要讲话精神，围绕通化市委统战部实施“七个一批”工作举措的安排部署，择优选派4名新生代民营企业家到乡镇开展', '“不忘创业初心，接力改革伟业”为主题，组织非公经济人士赴山东、江苏、浙江等地针对物流、环保、民宿等领域进行域外学习考察，面向非公经济人士开展“百年明德讲堂”线上培训9次，不断推动我市民营经济和民营企业家“两个健康”发展。', '三是强化创新，增添民企发展动能。在全市范围内开展域外集安籍经商人士排查工作，建立数据库并保持沟通联系，为成立异地商会夯实基础。与团市委联合举办“集安市抖音精准营销”培训班，组织非公经济人士等140余人参加培训，发现和培养一批有潜力的网络人士，帮助民企通过抖音等自媒体平台拓宽销售渠道，进一步助推民营企业发展。（王雪飞、黄丽华）', '在全市范围内开展域外集安籍经商人士排查工作，建立数据库并保持沟通联系，为成立异地商会', '营销”培训班，组织非公经济人士等140余人参加培训，发现和培养一批有潜力的网络人士，帮助民企通过抖音等自媒体平台拓宽销售渠道，进一步助推民营企业发展。', '余人参加培训，发现和培养一批有潜力的网络人士，帮助民企通过抖音等自媒体平台拓宽销售渠道，进一步助推民营企业发展。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>52</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>兴华镇产业发展四步走</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-05-08</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201805/t20180508_8353007.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['年确定为产业发展年。目前，我镇产业杂而无序，缺乏有带动作用的规模产业。究其原因，村干部致力于发展产业的思想动力不足，农民群众传统种养殖惯性思维需要改变，全镇干部发展产业致富的信心态度不够，畅通产业发展渠道太窄，发展产业的经验缺乏，这些问题都要在发展产业摸索实践中着力解决。', '一要解决好思想问题。首先做好镇村干部特别是村书记的思想工作，聘请专家讲师集中授课产业兴旺的重要性和紧迫性，使乡村振兴产业先行的理念根植于他们心中，并通过他们积极传导给全镇农民群众；其次抓住产业带头人和有强烈发展产业意愿的农民，计划组织120人，由镇领导带队，分批次到我市产业发展比较好的乡镇，以及我省和辽宁、黑龙江等周边省市农村学习考察，学习发展产业发展经验；最后要坚决兑现镇财政产业扶持资金不低于30万元，作为新兴产业和规模大户的发展扶持资金，解决燃眉之急，为产业发展助力。', '首先做好镇村干部特别是村书记的思想工作，聘请专家讲师集中授课产业兴旺的重要性和紧迫性，使乡村振兴产业先行的理念根植于他们心中，并通过他们积极传导给全镇农民群众；其次抓住产业带头人和有强烈发展产业意愿的农民，计划组织', '人，由镇领导带队，分批次到我市产业发展比较好的乡镇，以及我省和辽宁、黑龙江等周边省市农村学习考察，学习发展产业发展经验；最后要坚决兑现镇财政产业扶持资金不低于', '二要确定好发展路径。认真分析我镇地域环境优势和劣势，结合目前已有一定基础的产业，确定出产业发展方向。我镇由于气候原因，无霜期短，不适合水稻栽植，即是劣势但又为我们发展产业提供了优势。而且，各村虽没有规模成型产业，但却有成功经验，如卫国村香菇、西兴村天麻、黑顶子村玉竹、金家岗村五味子、普安村木耳等十二个村都有各具特色的种养殖产业。为此，下一步要通过外出考察和优势产业的积累，确定主攻方向。重点是发展林果经济、林下经济、蔬菜大棚、食用菌。畜牧养殖依托我镇现有成型的两个黑山猪养殖合作社发展模式，不断发展壮大黑山猪、肉食鸡、鹅、羊、牛等规模养殖。', '认真分析我镇地域环境优势和劣势，结合目前已有一定基础的产业，确定出产业发展方向。我镇由于气候原因，无霜期短，不适合水稻栽植，即是劣势但又为我们发展产业提供了优势。而且，各村虽没有规模成型产业，但却有成功经验，如卫国村香菇、西兴村天麻、黑顶子村玉竹、金家岗村五味子、普安村木耳等十二个村都有各具特色的种养殖产业。为此，下一步要通过外出考察和优势产业的积累，确定主攻方向。重点是发展林果经济、林下经济、蔬菜大棚、食用菌。畜牧养殖依托我镇现有成型的两个黑山猪养殖合作社发展模式，不断发展壮大黑山猪、肉食鸡、鹅、羊、牛等规模养殖。', '三要选择好龙头企业。产业兴旺缺不了龙头企业的带动，千方百计抓好龙头企业的引进，用龙头企业的良好政策打消农民群众的顾虑。去年，我们利用已经废耕生产五味子基地引进了长春大客户，实现整体转让，准备投资1000万元，保证500亩五味子基地重现生机。同时还引入桑蚕养殖、渔业养殖、中草药种植及购买厂房建设深加工基地，使金家岗村成为规模企业带动、农民受益的三产融合的产业村。在这种模式感悟下，今年，准备再引进龙头企业+基地+农户模式的龙头企业2户。同时，我们还准备引入玉米深加工企业，使大多数不会搞产业发展的农民，在传统产业上实现利润最大化。', '产业兴旺缺不了龙头企业的带动，千方百计抓好龙头企业的引进，用龙头企业的良好政策打消农民群众的顾虑。去年，我们利用已经废耕生产五味子基地引进了长春大客户，实现整体转让，准备投资', '亩五味子基地重现生机。同时还引入桑蚕养殖、渔业养殖、中草药种植及购买厂房建设深加工基地，使金家岗村成为规模企业带动、农民受益的三产融合的产业村。在这种模式感悟下，今年，准备再引进龙头企业', '户。同时，我们还准备引入玉米深加工企业，使大多数不会搞产业发展的农民，在传统产业上实现利润最大化。', '四要发挥好集群效应。产业发展离不开农民的广泛参与和自发行动。而这种参与行动需要典型的带动作用。下一步，党委政府要把现有产业带头人队伍建立起来，实行统一管理，发挥他们在产业带动和农村电商方面的主观能动作用。重点做好“三个倾斜”：在资金方面的倾斜，对于新兴并有发展前途的产业，镇财政不低于30万元的资金要给予一定的投入；在政治待遇上倾斜，对政治素质好、产业带动好的致富能手，优先发展为入党积极分子，作为后备干部培养；在政策扶持上支持，整合上级各种产业政策和惠农政策，足额反哺于产业带动人，实现产业带动的长足发展。', '产业发展离不开农民的广泛参与和自发行动。而这种参与行动需要典型的带动作用。下一步，党委政府要把现有产业带头人队伍建立起来，实行统一管理，发挥他们在产业带动和农村电商方面的主观能动作用。重点做好“三个倾斜”：在资金方面的倾斜，对于新兴并有发展前途的产业，镇财政不低于', '产业发展离不开农民的广泛参与和自发行动。而这种参与行动需要典型的带动作用。下一步，党委政府要把现有产业带头人队伍建立起来，实行统一管理，发挥他们在产业带动和农村电商方面的主观能动作用。重点做好', '万元的资金要给予一定的投入；在政治待遇上倾斜，对政治素质好、产业带动好的致富能手，优先发展为入党积极分子，作为后备干部培养；在政策扶持上支持，整合上级各种产业政策和惠农政策，足额反哺于产业带动人，实现产业带动的长足发展。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>52</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>我市第二期领导干部解放思想学习丽水提升素质共话发展专题培训班结束学习</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2018-06-13</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201806/t20180613_8339997.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['我市第二期领导干部“解放思想、学习丽水、提升素质、共话发展”专题培训班结束学习-梅河口市人民政府', '6月10日到12日，我市第二期领导干部“解放思想、学习丽水、提升素质、共话发展”专题培训班结束了在丽水市委党校的理论学习生活，进入现场教学阶段。', '6月10日，全体学员考察了丽水市丽阳坑“五水共治”工作、莲都区古堰画乡特色小镇建设、下南山村乡村民宿发展，参观了丽水市城市规划馆、博物馆和南明湖防洪堤等城市基础设施。', '6月11日，培训班全体学员在缙云县召开了座谈交流会，缙云县委书记杨秀清从自然、人文、交通等方面介绍了缙云的基本情况，从环境保护、经济建设城乡面貌等方面介绍了缙云县经济社会发展各项工作亮点；我市政协主席刘怀玉向缙云县对培训班的支持表示感谢，感谢缙云县的精心安排和周密部署；戴存鹤代表我市向缙云县相关领导介绍了我市第二期培训班赴丽水市专题培训相关情况和学习感受，从区位交通、发展目标、经济实力、招商引资和项目建设等方面对梅河口市基本情况进行了介绍，同时还介绍了下步发展目标。座谈会结束后，培训班全体学员开展了现场教学，考察学习了缙云农旅融合、古村落保护、农村电商发展等情况。', '6月12日，培训班全体学员赶往青田开展考察学习。在实地考察青田县项目交易中心后，培训班全体学员与青田四个班子成员开展了座谈交流。青田县委书记戴邦和代表青田县四个班子成员对梅河口专题培训班到青田开展考察学习表示欢迎，他从青田县概况、近年来经济社会发展情况、2018年赶超目标和思路举措三个方面，详细介绍了青田县的相关情况，表达了进一步加强沟通联系，深化合作交流，共谋发展、互利共赢的良好愿望。我市政协主席刘怀玉全方位介绍了我市经济社会发展情况，重点介绍了我市招商引资和项目建设、城市建设和管理、农业农村工作、社会事业现代化和干部队伍建设情况，邀请青田县的相关领导和部门到我市考察学习，深化交流合作。座谈交流后，培训班全体学员参观了青田县石雕博物馆，考察了青田县起步股份有限公司和侨务经济发展情况。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>52</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>公主岭市教育局考察团来我市考察学习交流教育工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201911/t20191104_8351062.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['近几年，我市市委市政府始终坚持教育优先发展的战略地位，把教育发展作为改善民生的首要任务，不断加大资金投入和优化干部队伍建设，教育事业发展步入了快车道，实现高质量发展。我市不断加强基础设施建设，办学条件得到极大改善，不断拓宽人才引进渠道，干部素质得到整体提高，建立长效补充机制，不断优化师资整体结构，积极争取，实施特岗计划，加大力度，实施事业招聘；建立岗位激励机制，增强教师荣誉感归属感；建立素质提升机制，增强教师立德树人本领，不断深化教育创新改革，教育质量得到全面提升。', '会上，双方领导还分组进行对口交流，考察团对我市加强基础设施建设、拓宽人才引进渠道、提高教师待遇、提升教育质量等方面做法、经验值得借鉴；称赞梅河口市教育事业持续健康发展成效，期望两地今后在加快教育发展中，相互学习，相互帮助，相互交流，相互促进，全力推进教育事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>52</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>通化市卫生计生委考察团莅临梅河口考察学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/jyhpt/wjj/tplb/201907/t20190718_8335999.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['11月19日上午，通化市卫生计生委考察团莅临梅河口考察学习。副市长于艳玲、梅河口市卫生计生局局长刘铁民、梅河口市卫生计生局领导班子及机关科室科长等人员陪同考察团人参观了梅河口市现代化服务示范区、海龙湖、康美医疗中心园区、市政务大厅、市工业园区等梅河口市重点项目及工作进展情况。', '参观结束后，考察团及市陪同人员到市宾馆四楼会议召开座谈会。会上梅河口市卫生计生局局长刘铁民就梅河口现状、梅河口精神及梅河口卫生计生行业发展等内容进行了详细的介绍。对于梅河口取得的成绩，通化市卫生计生委考察团给予认可和赞扬。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>52</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>王爱明深入教育小镇啤酒生态小镇和高新区调研项目进展情况</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-10-07</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/xmjz/202010/t20201009_8351318.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['10月7日，市委书记王爱明，市政协主席张卫红深入教育小镇、啤酒生态小镇和高新区调研。', '在教育小镇五中校区项目工地，王爱明、张卫红听取了教育小镇工程进展情况汇报。截至目前，教育小镇各项工程进展顺利，主体工程基本完工，部分工程已进入后期装修阶段，第五中学11月份可以实现入驻，其他学校在寒假之前也可实现入驻。', '王爱明对项目工程进展给予肯定。王爱明要求，下一步，市级包保领导、各相关部门要和施工单位密切配合，抓住关键环节，盯紧每个细节，突破重点难点，倒排工期，统筹施工，确保工程如期竣工并交付使用。王爱明强调，教育事业既是社会事业，也是一项产业，教育小镇建成后，必须用全新思路、全新理念做好教育教学和后勤保障各项工作。尤其是新落成的第五中学，未来将实行全封闭寄宿制管理，必须未雨绸缪，做好食宿等各方面工作，确保全校3000多名师生住得安全，吃得放心。王爱明要求，要高度重视第五中学食堂建设，全力为师生们提供营养齐全、安全放心的食品。要坚持食堂产业化经营，实行生产基地、饭菜加工、日常管理全流程透明化服务。在食材采购上，通过学校与相关乡镇联合建设种植养殖基地，实现肉菜米等原材料定向生产、定向供应，一方面保证师生吃上放心饭菜，另一方面有力带动农村相关产业聚振式发展。在饭菜加工上，要按照流程标准，规范操作，明档操作，智慧操作，让师生们吃上价格合理、品质好、安全健康的饭菜。在日常管理上，要加大考察学习力度，加强人才引进、管理和培训，切实形成食堂管理集团化、品牌化、可复制、可推广，为我市各学校食堂管理提供有益借鉴。', '离开教育小镇，王爱明、张卫红又深入啤酒生态小镇调研。在我市相关部门和施工单位的共同努力下，啤酒生态小镇内道路、水环境治理、商业和住宅等各个项目齐头并进，生态小镇示范区和生活美学馆已全面开放，正在举办的首届文旅乐活节，每天都吸引大量游客来此欣赏羊驼、矮马等可爱萌宠，观看皇家马戏团精彩演出，品鉴抢购新梅河精酿啤酒，到法式风情建筑前拍照打卡。王爱明等领导对小镇建设进展给予肯定，欣赏了水幕表演、马戏团表演，参观了法式洋房，听取了项目后续规划汇报。王爱明要求，各相关部门要与小镇施工单位一起，做好后续规划，确保每个地块都有建设指向和详细规划，在文化旅游氛围初步形成的基础上，多方施工，全面推进，确保小镇各个项目都尽快动起来，早日建成投入使用，与海龙湖公园、体育公园等连片发展，共同聚力，为我市发展全域旅游提供支撑和助力。', '在高新区，王爱明深入高新区健康食品产业园项目现场，听取项目汇报，了解项目进展。高新区健康食品产业园项目总投资22亿元，占地面积1000亩，建筑面积60万平方米，规划引入企业80到100户，主要建设集方便食品、特色食品、果仁加工、平台建设、园区基础设施、配套设施于一体的新型工业园区。项目建成后，对我市发展东北区域特色休闲方便食品产业，配套食品研发、质量检测、仓储物流、展示博览、美食体验等相关产业，打造东北健康食品产业重要集聚区具有重要意义。王爱明对产业园项目的开工建设表示满意，希望相关部门与施工单位抓住黄金施工期，抢抓工程进度，力争工程早日建成投入使用，充分发挥产业集聚效应，把健康食品产业培育起来，通过电商、网红直播等各种途径，把基地推广出去，把产品生产过程、环节展示出来，通过统一标准、统一原料、统一品牌，把我市健康食品产业做成规模，做成体系，推动我市实体经济提档升级。同时，借鉴健康食品产业模式，全力推动果仁产业集聚发展，力争在“十四五”期间，我市食品产业规模达到500亿元。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>52</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>我市语文主题学习实验启动会在文化馆会议中心举行</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-03-20</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/201903/t20190320_8342256.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['北京华樾教育研究院、山东临沂市教育科学研究中心的领导出席启动仪式。吉林、辽宁、山东等地的教育专家、名师等莅临指导。', '语文主题学习实验是由北京十一学校校长李希贵先生主持的国家“十二五”规划课题。是人社部、教育部特级教师培养工程。这项实验伴随着新课程改革的不断深入，集成、借鉴、融合、发展了以往诸多教学模式，鲜明地体现了当代教育理念的基本思想，体现了语文教学的基本规律。该项目从2006年启动以来，很快发展到全国，目前全国已有22个省市自治区近4000所学校参与实验，在实验中取得了丰硕成果。对培养学生良好的语文学习习惯、提升语文素养具有重要意义。', '为了进一步提升我市中小学生语文素养，提高语文课堂教学质量，市教育局结合全市中小学实际情况，在赴北京华樾教育研究院、我省抚松县、山东临沂市等实验基地学习考察的基础上，经认真研究，详细论证，决定正式启动梅河口市“语文主题学习”实验项目。目前，我市共有5所学校参加语文主题学习实验。', '“语文主题学习”实验就是通过大量的课堂单元美文阅读，增加学生知识的积累，促进对文章主题的感悟，最后达到素质、知识提升的目的。', '启动仪式后，教育专家、部分名师先后作报告和示范课展示，随后还将进行单元备课指导，召开校长座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>52</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>盛效儒王爱明率考察团转赴韩城考察学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201904/t20190404_8350895.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['4月1日到2日，由省委政研室主任盛效儒，通化市委常委、我市市委书记王爱明带队，省委政研室、省委组织部、省农业农村厅、省财政厅和我市相关领导为成员的考察团，在结束了河南省济源市的考察学习后，昼夜兼程、脚不停歇，由豫入陕，赶赴韩城市，继续就深化改革和经济社会发展进行考察学习。', '韩城市是司马迁的故乡，中国历史文化名城。1984年撤县建市，2012年被陕西省确定为计划单列试点市，行政级别由原来的县级市提高为副地级市，享有与设区市等同的经济社会管理权限。先后被确定为国家新型城镇化综合试点、国家级循环经济示范市、国家级旅游业改革创新先行区和全域旅游示范市。', '考察团一行在渭南市委常委、韩城市委副书记黄忠良的陪同下，先后参观考察了韩城市城市规划展览馆、西安交大韩城基础教育园区、韩城市西庄镇郭庄村乡村振兴示范村、陕西省友发钢管公司、韩城市澽水河生态景观项目，详细了解韩城城市规划建设、经济社会发展、乡村振兴和生态文明建设等方面先进经验，并与韩城市相关部门进行座谈。', '韩城市城市规划展览馆以翔实形象的内容、灵活生动的方式、先进科技的手段，全面展示了韩城市城市变迁的历程、近几年城市建设的成绩和城市未来发展的前景。在考察过程中，盛效儒、王爱明等考察团领导认真听取工作人员的解说介绍，并就关注的城市规划建设问题，与韩城市相关领导和规划建设、城市管理部门负责人进行了沟通交流。', '西安交大韩城基础教育园区是韩城市建设区域教育中心、打造基础教育高地的重要板块，是高校与城市进一步合作、实施基础教育创新和改革的示范园区，集幼儿园、小学、初中、高中教育于一体。园区总投资13.7亿元，规划占地911亩，由韩城市和西安交通大学合作办学。在听完学校负责人介绍学校基础情况和办学特色情况后，考察团一行实地参观了幼儿园、青少年艺术中心，以及学生上课、室外活动、午间住宿等情况。', '每到一处，王爱明都详细询问了解相关情况，与工作人员进行深入交流。王爱明指出，今年，梅河口市围绕社会事业现代化，加快推进区域教育中心建设，启动建设投资10亿元的教育产业园区、投资5亿元的北大培文学校，形成投资50亿元、占地2000亩的教育小镇，为我市及周边区域群众提供一流的教育服务，西安交大韩城基础教育园区的经验值得我们学习借鉴。我们要进一步加强与北京大学、东北师大、吉林师大等高等院校的合作，加大首席教师、高层次教师人才引进力度，切实提高我市教育教学现代化水平。', '韩城市西庄镇郭庄村于2016年4月启动美丽乡村标准化示范点建设，依托景区鼓励群众发展农家乐、农家客栈、观光农业，建成了具备吃、住、采摘、农家游，休闲娱乐设施完善，集观光、休闲、度假等生活功能为一体的美丽乡村，入选全国第四批美丽宜居村庄。考察团一行实地参观了郭庄村食品加工作坊一条街建设。在听完西庄镇负责人美丽乡村情况介绍后，王爱明提出，开展美丽乡村建设，一定要结合实际、因地制宜，统筹考虑镇村整体经济实力，尤其要坚持以农村人居环境整治为核心，让农村更美、更干净，让更多农民享受更加宜居、更加舒适的文明生活。', '陕西友发钢管有限公司是韩城市重点引进的钢铁产业链项目，当年建设当年投产，完全投产后，年产钢管300万吨。盛效儒、王爱明等考察团领导实地考察了企业方钢管生产车间，听取了企业负责人对项目建设和企业发展介绍，并就相关情况与企业负责人进行了交流。', '澽水河生态景观项目是韩城市实施“一带两河三区四镇”战略的重要组成板块，规划面积约为25公里。考察团重点参观了投资10多亿元、占地3000多亩的文史公园。在听完项目情况介绍后，考察团一行考察了园林绿化、景观建设、生态环境保护等相关内容。王爱明提出，我们要结合国家园林城市、国家生态文明建设示范市创建工作，进一步提升城市生态文明建设、绿化美化的层次和水平，尤其要体现出高端、大气、舒朗、开阔的特点。要结合国家全域旅游示范区创建工作，进一步完善海龙湖湿地公园的业态，加快“三横三纵”河湖连通生态水系建设，打造城市生态水环境，把我市建设成为公园城市、花园城市、湿地城市、生态城市。', '2日下午，盛效儒、王爱明等考察团领导同韩城市委常委、组织部长高成文，市委常委、常务副市长张喜以及韩城市委组织部、编办、发改委、财政局、农业农村局、住建局、自然资源局等相关部门召开座谈会。', '会上，盛效儒首先对韩城市在考察过程中的大力支持和真情服务表示感谢。他指出，此次考察学习收获非常大，给予了很多启示和启发。尤其韩城“旧如旧、新更新”的城市特点，以及城市建设的大气魄、大格局、大手笔，更让人印象深刻。梅河口和韩城发展相似，体制机制各有特点、各有长处。两地非常注重产业创新、社会事业建设和城市规划建设管理，尤其是梅河口通过扩权强县改革，经济社会发展取得了显著成效，已经很难发现县级城市发展建设的短板。希望今后两市能够加强交流、互通有无、共同发展。', '王爱明指出，此次考察受省委领导的嘱托和重托，收获很大，不虚此次。他重点介绍了梅河口市扩权强县改革试点以来经济社会发展情况，以及提出建设现代化城市目标任务的背景和内涵。王爱明指出，经过五年来的发展，梅河口市已经建成中等城市，完成了吉林省委、省政府赋予的扩权强县改革试点目标任务。在发展过程中，梅河口市充分发挥扩权强县改革试点和区域中心城市的示范带动作用，一手抓改革发展，一手抓干部队伍建设，提升党员干部引领发展的素质能力，连续四年保持县域发展排头兵位置，成为吉林省发展格局中重要增长极，为县域高质量发展探索道路、积累经验。去年9月，我们以市委全会形式确定了建设现代化城市的奋斗目标，赋予现代化城市科学内涵。下一步，我们要认真学习韩城省直管以来的好经验、好做法，结合现代化城市建设，在现有基础上把梅河口未来发展定位好、研究好、谋划好。', '高成文主持座谈会。张喜全面介绍了韩城市经济社会发展情况。韩城市委组织部、编办、发改委、财政局等部门在会上作了经验介绍，双方就相关问题进行了深入交流。', '省农业农村厅副厅长钟东，省委政研室副巡视员徐鹏，省委政研室经济二处处长刘岩松，省财政厅政研室副主任吴琼，省委组织部干部二处副处长刘东辉，我市市委副书记孙维良，市委常委、副市长戴存鹤，市委常委、市委办公室主任马志有参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>52</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>通化县考察团到李炉乡永强村考察乡村振兴建设</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201808/t20180823_8353440.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['8月21日，通化县委副书记胡宗庆带领的考察团来我乡永强村考察学习乡村振兴建设。市委副书记张明禄、市政府副市长霍光、市农业局局长齐文科、市交通局局长王春翔、市委农办主任盛立东等陪同。', '月21日，通化县委副书记胡宗庆带领的考察团来我乡永强村考察学习乡村振兴建设。市委副书记张明禄、市政府副市长霍光、市农业局局长齐文科、市交通局局长王春翔、市委农办主任盛立东等陪同。', '考察团于上午来到李炉乡永强村，参观了村容村貌及村周边环境，李炉乡党委书记刘伟、永强村书记宋晓宇讲解了永强村“四好农村路”建设的经验心得，参观团成员通过实地察看、询问交流等方式，全面了解永强村建设工作，并详细了解建设规划设计、资金筹措、政策扶持、卫生保洁等内容，切身感受新农村发展的新思路、新举措、新变化。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>52</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>通化市志第四篇中国共产党地方组织第六章组织建设第一节干部队伍建设</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/dfz/fztd/202204/t20220424_605924.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['1986年,执行干部“四化”(革命化、年轻化、知识化、专业化)方针,按照“相对稳定、局部调整、完善结构、提高素质”的原则,加强了县(局)级领导班子建设。全市有6个县(市、区)配备女县长或女常委,5个县(市、区)配备科技副县(市)长和管理乡镇企业的副县(市)长。接收安排梅河口市返通化市的干部300余人。1989年,制定《关于加强县级领导班子民主集中制建设的意见》,解决领导班子存在的官僚主义和民主作风不强问题。是年,召开全市领导班子思想作风建设工作经验交流会。指导县(市、区)做好换届工作,调整充实干部,改善领导班子知识和年龄结构。', '1990年,推进干部的交流工作,交流28名县级领导干部,占党政干部的57%。制定《关于贯彻落实&lt;中共中央关于县以上党和国家机关党员领导干部民主生活会的若干规定&gt;的意见》,提高民主生活会质量。1992年,7个县(市、区)换届选举,当选的党委、人大、政府、政协领导班子成员和法院院长、检察院检察长193人,平均年龄46.1岁,大专以上学历90%。1994年,县(市、区)党政班子熟悉经济工作的干部达到62%,市直13个涉经部门领导调整18人,其中15人熟悉经济工作,对市管11户大中型企业6户企业中党政一把手进行调整。1996年,制定《党政一把手抓班子思想政治建设责任制》、《领导干部思想政治素质考核办法》、《通化市干部管理体制调整意见》和《进一步完善干部任免工作程序的意见》,加强对干部选拔任用工作的规范化管理。市委组织部代市委管理市直36个副县级以上的事业单位考核县级领导干部131人,其中对17个领导班子调整了44人。1999年,参与筹备市人大、市政协换届工作;对县(市、区)《党政领导干部选拔任用工作暂行条例》贯彻执行情况进行检查;召开市直县(处)级事业单位领导班子建设经验交流会;完成县级领导干部履历表组织填写和审核验收工作。2001年,制定《关于实施县(局)级领导班子民主生活会量化考核的意见》;落实市、县两级领导班子抓班子带队伍责任制;制定《关于加强干部双重管理工作有关问题的通知》,理顺干部双重管理的关系。2003年,建立县(局)级领导干部联系点256个;实行县(局)级领导班子民主生活会量化考核,与县(局)级领导干部日常谈话243人,考核反馈谈话239人;完成市第四次党代会的组织工作、县(市、区)党委的换届以及人大、政府、政协领导班子的换届人事调整。2005年,坚持用好的作风选人,选作风好的人的用人原则,调整县级领导干部106人,群众满意率83%。开通“12380”干部监督举报电话,制定《关于防止和解决选拔任用中几个突出问题的具体措施》,加强对干部选拔任用工作的监督。', '1986年,滚动建立第三梯队后备干部,选拔优秀中青年干部56人,调整政绩平平后备干部11人,形成328人的县级以上后备干部队伍。对后备干部采取送院校深造、强化培训、上岗见习、下派锻炼等措施进行培养。1987年,制定《全市1987—1990年选拔和培养第三梯队工作规划》和《关于县级以上第三梯队建设的实施办法》。是年,民主推荐选拔工商、物价、政法工作等方面后备干部70人。1990年,制定《市级后备干部选拔培养规划》和《调整充实县(局)级后备干部的意见》,培训“三少”(非中共党员、少数民族和妇女)干部99人。1992年,建立290人县(局)级后备干部队伍,其中30岁以下后备干部210人。1993年,下发《调整充实县(局)级后备干部队伍的通知》,建立344人县(局)级后备干部队伍。制定实施“1155”工程(对100名后备干部进行系统培训;采取轮换岗位、挂职锻炼等方式对100名后备干部加强实践锻炼;对缺少领导经验的50名后备干部派到拟任职务的下一级岗位担任一把手,充实领导经验;优选50名青年干部进行综合性重点培养)。1995年,制定《同年轻干部谈心制度》和《为年轻干部培训班授课制度》,加强对年轻干部的培养锻炼。市、县选派300名年轻干部到企业或农村挂职锻炼,选调长期在基层的年轻干部到机关进行锻炼。1998年,实施“511”后备干部培养工程,即按照干部管理权限,市、县两级选拔500人正职后备,其中市本级选拔50人;选拔1000名具有大专以上学历的后备干部,其中市本级选拔200人;选拔1000名具备较高学历、专业对口的年轻企业经营管理者后备人才,其中市本级选拔200人。1999年,优选54名具有近期上岗条件的后备干部,进行集中培训和到无锡市学习考察。', '2000年,召开全市培养选拔年轻干部工作会议,制定《通化市(2001—2005年)培养选拔年轻干部工作规划》和《通化市(2001—2005年)培养选拔妇女干部、少数民族干部和非中共党员干部工作规划》。2001年,制定《关于对公开选拔县局级后备干部进行考察的实施方案》,建立534人组成的后备干部队伍。选派10名有发展潜力的后备干部到上海、宁波等经济发达地区进行3个月挂职锻炼。2003年,选派9名县(局)级后备干部参与党政部门中心工作,选派10名县(局)级后备干部、3名厅级后备干部分别到杭州、宁波', '等发达地区和省直部门挂职锻炼,选派1名后备干部支援西藏。2004年,选派59名30岁以下具有全日制大学本科学历的年轻干部到乡镇挂职锻炼;选派11名后备干部到上海、浙江等发达地区挂职锻炼;选派29名后备干部到信访、政法、民政、软环境治理等部门参与中心工作进行锻炼。2005年,选派9名副县级年轻干部到省直有关部门和上海、浙江等发达地区挂职锻炼;抽调50名优秀年轻干部和后备干部参与先进性教育、国企改革、创建平安通化和软环境建设等中心工作和重点工作。', '1986年,制定《领导干部任期制》和《经济管理干部考绩制》,改革干部考核办法。按照“注重实绩,鼓励竞争,民主监督,公开监督”要求,实施个人述职、民主评议、德才测评、民意测验等县级领导班子和领导干部年度考核内容,制定《关于实行领导干部交流、回避制度的暂行规定》。县(市、区)换届调整9名不适应现职工作的干部,16名干部进行横向和上下交流,实行干部“能上能下”制度。1990年,市直部门首次通过公开考试选拔10名副县级领导干部,为干部公平竞争和优秀人才脱颖而出提供机会。1993年,调整不胜任现职领导干部,降免职29人,占调整干部总数的24.2%。1996年,制定《关于调整干部管理体制的意见》、《干部管理任免工作程序》、《副局级领导干部试用制度》、《县(局)级领导干部待岗制度》,建立《党政领导干部和有关部门抓局级班子建设责任制》和《县局级非领导职务干部任用和管理细则》。1999年,下发《中共通化市委关于实行县(局)级领导干部任前公示制度的决定》,对36名新提拔的县(局)级干部进行公示。2001年,制定领导干部任前差额考察制度、考核举报和申诉制度、领导班子和领导干部考核预告制度、组织部门与领导干部及后备干部谈话制度、批量调整干部上报审批制度。是年,公开选拔通化宾馆总经理和集安经济开发区党工委书记;采取“一推双考”的方式公开选拔5个市直部门6个副职领导干部。实施对乡镇党政正职任职表决办法的试点。2004年,在全省率先制定《县(局)级领导职务拟任人选产生及沟通酝酿工作程序的暂行规定》,制定《关于市委全委会议对县(市、区)党政正职拟任人选、推荐人选表决实施办法》、《干部选拔任用工作记实制度(试行)》和《干部追溯考察制度》。2005年,贯彻落实“5+1”文件精神,在推荐干部环节进一步扩大民主。考核推荐干部要求召开会议推荐人数必须达到应参加人数的80%,民主推荐得票率达不到50%以上的不列为考察对象。继续完善和贯彻《县(局)级领导班子及成员年度工作实绩量化考核办法》。', '1986年,干部进行对口培训、短期培训、岗位培训等继续教育工作。全市培训经济管理、财会干部、党群干部8390人次,推荐考入各类大专院校干部802人,各类中等专业学校干部470人。1987年,进行学历教育,调整大中专培训计划比例,狠抓中专培训。向各类大专院校输送学员1443人,向各类中专学校输送学员1345人。制定《“七五”期间工交财贸系统企业领导干部岗位职务培训计划》,举办5期副县级以上领导干部读书班。1990年,举办41期处、科级领导干部马列主义哲学培训班,培训领导干部2612人,占市、县两级干部总数85%。1994年,制定《1994—1998年培养选拔“三方面”干部规划》,对66人进行分期集中培训;举办中青年干部培训班1期89人;举办现代企业制度培训班1期140人。1995年,制定《干部教育培训管理办法》,妥善解决“一把手”工作与培训关系问题。举办县级领导干部建设有中国特色社会主义理论培训班3期208人。', '1997年,制定领导干部政治理论学习考核评议制度,实施《通化市干部培训工作管理办法》,制定《1998—2000年县(局)级领导干部在职自学计划》,开办“双休日干部学校”。是年,组织领导干部双休日学习,聘请省内高等院校资深专家、教授来通讲学;举办国有企业下岗党员再就业技能培训班1期200人;举办县(市、区)主管经济工作的副书记(副县长)和重点乡镇党委书记(乡镇长)培训班。2000年,进行县级干部“双休日”学习和县级领导干部读书报告会等活动;举办2期县级领导干部理论进修班,培训88人(次);企业领导干部工商管理培训班和WT0基本知识专题培训班,培训干部1300人(次)。', '2001年,制定《通化市(2001—2005年)培养选拔年轻干部工作规划》和《关于实行领导干部法律知识考试考核和任职资格制度的意见》。2002年,举办“三方面”后备干部培训班,培训63人。2003年,举办县(局)级领导干部后备干部和乡镇主要领导干部900名参加的法律知识讲座,对196名乡镇主要领导进行WT0知识专题培训班。创新培训方式,实行弹性学制,变长期集中办班学习为短期间隔培训。2004年,学习邓小平理论和“三个代表”重要思想,举办专家论坛,请专家讲授关于加强党的执政能力建设、科学发展观内涵、东北老工业基地发展若干问题等专题课。举办为期3个月的县级后备干部培训班,培训107人。组织55名干部赴北京、香港等地考察。2005年,举办2期县级领导干部政治理论培训班、苏州工业经济干部培训班和农村经济干部培训班,培训领导干部1151人次。', '2004年,开展人才队伍建设调研活动,全市各类人才总数为17万人,占全市人口总数的7%;建立人才工作领导机构,成立市委人才工作办公室,将知识分子工作纳入人才工作中;制定《关于进一步加强人才工作的意见》,建立领导干部联系专家制度和高级知识分子体检制度。2005年,组织实施党政人才向企业流动,人才服务农村发展、人才服务国企改制等10个人才重点项目,调动各方面人才积极性发挥其作用。是年,全省人才工作会议介绍通化市抓好人才工作、促进医药产业发展的典型经验。全市有8人被命名为吉林省高级专家,15人被授予吉林省优秀人才荣誉称号,4个基层单位被评为全省人才工作先进单位。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>52</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>沿着习近平总书记指引的农业发展方向培育新农人</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/jyhpt/mhksnyj/nyxw/202009/t20200910_8332926.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['2020年8月17日至8月20日，梅河口市农民科技教育中心带领2019年新型经营主体带头人培训班90余人赴长春农博会和梨树县进行后续跟踪指导参观考察。通过参观长春农博会、梨树县农耕博物馆、梨树县卢伟农民专业合作社、东平安村新型蔬菜园、大烟筒村立国合作社秋茬大棚西红柿栽培、四平战役纪念馆红色教育基地、梨树县孤家子园区绿色水稻种植试验田、喇嘛甸镇王家园子土温室园区、霍家店巴厘岛采摘园、丛泉湖万亩花海的实地实训学习，让农民学员感受到习近平总书记指引的“藏粮于地，藏粮于技”，“把饭碗牢牢端在自己手里”的农业发展方向是多么的正确，作为农民保护好、耕种好我们手里的土地是多么重要。这次参观学习的内容传递的是习近平总书记倡导的农业发展未来和农民增收致富的方向。', '2020年8月17日至8月20日，梅河口市农民科技教育中心带领2019年新型经营主体带头人培训班90余人赴长春农博会和梨树县进行后续跟踪指导参观考察。通过参观长春农博会、梨树县农耕博物馆、梨树县卢伟农民专业合作社、东平安村新型蔬菜园、大烟筒村立国合作', '社秋茬大棚西红柿栽培、四平战役纪念馆红色教育基地、梨树县孤家子园区绿色水稻种植试验田、喇嘛甸镇王家园子土温室园区、', '霍家店巴厘岛采摘园、丛泉湖万亩花海的实地实训学习，让农民学员感受到习近平总书记指引的“藏粮于地，藏粮于技', '，“把饭碗牢牢端在自己手里”的农业发展方向是多么的正确，作为农民保护好、耕种好我们手里的土地是多么重要。这次参观学习的内容传递的是习近平总书记倡导的农业发展未来和农民增收致富', '卢伟农民专业合作社是习近平总书记视察点之一，习近平总书记参观的卢伟农民专业合作社玉米高产试验基地是梨树模式试验基地，农民以土地入股合作社以后，还可以给合作社打工赚钱，合作社采用大型农机具耕做，土地集约化种植科学管理、销售，年末给农民分红。这种模式使农民得到了实惠，合作社也得以发展壮大。在梨树县百万亩全国绿色食品原料玉米标准化生产基地，这也是习近平总书记视察点之一，负责人给大家介绍了通过秸秆还田保护了耕地，避免了过量施用化肥导致土地板结问题，使土地变得疏松富含有机质，可持续耕作良性循环，解决土地越种越薄的现状问题，这种模式让农户也得到了实惠，保护了耕地，实现了双赢。现已成为省农委推广的梨树模式之一。在东平安村新型蔬菜园、大烟筒村立国合作社秋茬大棚西红柿栽培、喇嘛甸镇王家园子土温室园区、霍家店巴厘岛采摘园等考察地儿，大家通过专业技术员讲解和负责人的介绍了解到，这些园区棚膜发展好的原因除了专业技术以外，还有一种名为“源动力”的液态生物肥，这是种技术含量高的新型菌肥，能将棚室土壤，土壤和农家肥进行无害化处理，减少病虫害发生，土壤有机质含量增加，提升了蔬菜水果口感和品质，提高大棚和土温室生产效益。并且施用技术简便易学，产品成本低，见效也很快，能让农民在有限的土地上生产出更多优质农产品。看来想增收致富靠勤劳以外还得借助高新科技产品助力才行啊！', '卢伟农民专业合作社是习近平总书记视察点之一，习近平总书记参观的卢伟农民专业合作社玉米高产试验基地是梨树模式试验基地，农民以土地入股合作社以后，还可以给合作社打工赚钱，合作社采用大型农机具耕做，土地集约化种植科学管理、销售，年末给农民分红。这种模式使农民得到了实惠，合作社也得以发展壮大。在梨树县百万亩全国绿色食品原料玉米标准化生产基地，这也是习近平总书记视察点之一，负责人给大家介绍了通过秸秆还田保护了耕地，避免了过量施用化肥导致土地板结问题，使土地变得疏松富含有机质，可持续耕作良性循环，解决土地越种越薄的现状问题，这种模式让农户也得到了实惠，保护了耕地，实现了双赢。现已成为省农委推广的梨树模式之一。在东平安村新型蔬菜园、大烟筒村立国合作社秋茬大棚西红柿栽培、喇嘛甸镇王家园子土温室园区、霍家店巴厘岛采摘园等考察地儿，大家通过专业技术员讲解和负责人的介绍了解到，这些园区棚膜发展好', '处理，减少病虫害发生，土壤有机质含量增加，提升了蔬菜水果口感和品质，提高大棚和土温室生产效益。并且施用技术简便易学，产品成本低', '来到梨树县孤家子村，映入眼帘的是棕色木质栈桥，绵延几公里横跨于绿油油的稻田之上，放眼望去天空纯净湛蓝，白云朵朵，绿油油的稻田里散发着清香让人沉醉，这是梨树县孤家子村委会打造的水稻、蟹、鱼共养的绿色水稻种植园，农户通过土地入股、投资入股成立合作社，合作社统一生产、统一管理、统一销售，年底分红，解决了农民一家一户面对市场的弱势，打造了品牌优势和接待旅游观光的三产融合模式。', '绵延几公里横跨于绿油油的稻田之上，放眼望去天空纯净湛蓝，白云朵朵，绿油油的稻田里散发着清香让人沉醉，这是梨树县孤家子村委会打造的水稻、蟹、鱼共养的绿色水稻种植园，农户通过土地入股、投资入股成立合作社，合作社统一生产、统一管理、统一销售，年底分红，解决了农民一家一户面对市场的弱势，打造了品牌优势和接待旅游观光的三产融合模式。', '参观四平战役纪念馆红色教育基地和关东农耕博物馆，让学员感受了无数革命先烈的精神风貌，是先烈们抛头颅洒热血的无私奉献铸就了今天历史丰碑，我们要珍惜今天的幸福生活。参观关东农耕文化馆，万种各色实物藏品，让大家见证了农业整个的发展过程，许多的农具是从远古的单一工具，经过日积月累发展进化到如今科技含量的现代化农机具。学员们通过参观和解说员的介绍，了解并认识到自己从事的事业有这么多的历史和故事，了解到身为农业人的骄傲，所看所见更激励学员珍惜这来之不易的幸福生活。', '参观四平战役纪念馆红色教育基地和关东农耕博物馆，让学员感受了无数革命先烈的精神风貌，是先烈们抛头颅洒热血', '无私奉献铸就了今天历史丰碑，我们要珍惜今天的幸福生活。参观关东农耕文化馆，万种各色实物藏品，让大家见证了农业整个的发展过程，许多的农具是从远古的单一工具，经过日积月累发展进化到如今科技含量的现代化农机具', '学员们通过参观和解说员的介绍，了解并认识到自己从事的事业有这么多的历史和故事，了解到身为农业人', '结束了这次梨树县的参观考察学习，学员们都表示这次考察的意义，收获颇深，开拓了视野，增强了信心，为今后农业发展指明了方向，大家纷纷表示要沿着习近平总书记指引的康庄大道奋勇前进，做新时代的农业人。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>52</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>党建联盟聚合力同行共学促提升</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201805/t20180514_8353012.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['为进一步提升基层党组织的党建工作水平和规范化管理能力，充分利用我市党建联盟优势资源，旨在以先进典型为标杆、以互学互促为途径、以实际问题为导向，在市委组织部三科协调下，我镇与牛心顶镇、康大营镇、一座营镇联合开展“党建联盟聚合力，同行共学促提升”主题活动。', '5月11日，联盟乡镇的党委副书记、组织委员及党办工作人员一行20余人来到曙光镇、杏岭镇部分村，对环境卫生、党建资料、村部建设等内容进行学习考察。', '一、梳理在前，制定补齐短板“任务书”。考察前，四个乡镇结合本镇实际制定了任务清单，明确了“带着任务学，带着思想看，对着问题改”的目标。考察中，市委组织部三科焦磊针对各项基础工作和规范管理共性问题进行了讲解分析，结合所到村特点提出相应意见。', '二、学习为重，找到共学互促“关键点”。曙光镇党委副书记张宏伟侧重对本镇村部规范化建设和日常管理进行了深入介绍；杏岭镇党委副书记姜国荣侧重对如何利用现有条件打造提升村部基层设施，在日常中如何进行村干部管理和村部利用情况进行了细心讲解。', '三、提升为要，激发农村党建“新活力”。学习考察结束后，参加人员召开了座谈交流总结会。会上，大家纷纷表示，此次活动受益匪浅，既学习到了先进的工作方式，也查找出了自身的不足，为下步工作理清了思路，找准了方向，要及时将学习效果转化为实践成果，整体提升村级党建工作水平，增强基层党组织的凝聚力、战斗力。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>52</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>兴华镇主题党日活动</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2018-04-08</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201804/t20180408_8352953.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['近日，兴华镇扎实开展主题党日活动，推进“两学一做”学习教育常态化制度化。活动中，机关党支部紧扣“两学一做”学习教育，贴近党员思想工作生活实际开展了重温入党誓词、集中交纳党费、慰问困难党员、组织党课教育、下乡考察学习、组织党员集体观看电影《厉害了，我的国》等形式多样的活动。', '主题党日活动的全面开展，显著丰富了全镇基层党组织的组织生活，有力提升了各支部的战斗力凝聚力，极大夯实了各支部的党建基础，有效落实了“两学一做”学习教育常态化制度化要求。参加主题党日活动的党员纷纷表示，活动主题明确，紧贴实际，形式多样，自己受益匪浅，今后将积极参加主题党日活动，努力学习党章党规和习近平总书记重要讲话精神，争做合格党员，在脱贫致富、建设家乡等方面发挥领头雁、带头羊作用。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>52</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>通化县召开最多跑一次改革推进会议</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2018-06-19</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/gtjzl/gzzs/201808/t20180808_273252.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['为深入贯彻落实省、市全面推进“最多跑一次”改革工作部署，6月13日，通化县召开“最多跑一次”改革推进会议。会议宣读了《关于进一步做好全县“最多跑一次”改革工作的通知》，总结了全县“最多跑一次”改革前一阶段工作，研究部署了当前及今后一段时期的重点任务。副县长聂洪志出席会议并作重要讲话。', '聂洪志指出，各乡镇、各部门要深刻认识“最多跑一次”改革的重要性和紧迫性，以对人民极端负责的态度，严而又严、细而又细地抓好各项改革举措的落实；要严格对标省、市部署要求，充分借鉴浙江台州经验，从与群众生产生活关系最紧密的领域和事项改起，切实提升人民群众的幸福感、营造良好营商环境；要协同发力，突破改革深水区，坚持以人民利益为重，敢于下决心动自己的“奶酪”。改革任务的牵头部门要担负起牵头抓总的责任，及时协调相关部门解决意见分歧、相互掣肘等问题，防止议而不决、决而难行，为改革任务推进清淤除障。改革任务的配合部门要坚持顾全大局、相互配合、密切协作，认真落实工作要求，确保改革举措落地生根、取得实效。', '就如何做好今后一段时期的工作，聂洪志要求，各乡镇、各部门要加快推进办事事项标准化建设，加快推动办事事项网上办理，加快政务场所规范化建设，强化督导考核和宣传引导。', '县“最多跑一次”改革领导小组办公室副主任孙远生，副主任、县编办主任王兴阳，副主任、县政务服务中心主任李力；各乡镇、聚鑫经济开发区、各相关单位分管领导及具体工作人员参加了会议。', '会后，县政府审改办（编办）就如何进一步加强群众和企业办事事项标准化建设等相关工作，进行了业务指导。', '指导结束后，县“最多跑一次”改革领导小组办公室副主任孙远生组织召开了“赴浙江台州学习‘最多跑一次’成果交流会”。参加赴浙江学习考察的成员依次发言，交流了各自的学习考察成果。大家结合自己在台州市的所见、所闻、所感，对标台州市的“最多跑一次”改革，对全县“最多跑一次”改革工作提出了一些好想法、好建议。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>52</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>吉林市丰满区考察团来梅考察</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201706/t20170616_8339818.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['由吉林市副市长陈东、丰满区副区长李冰率领的吉林市丰满区考察团，在副市长霍光及新农办负责人陪同下，深入到吉乐乡复兴村、吉兴村，李炉乡东泉村和双兴镇双兴村考察学习。几年来，我市新农村建设坚持高起点谋划、高标准建设，强化基础设施建设，尤其是乡镇政府所在地村屯创建工作，实施了拓宽镇区道路，商铺统一牌匾、门前统一硬化和绿化美化，取缔马路市场等工程，全方位提升了新农村建设品位。考察团无论是走进民风淳朴的复兴村、风景如画的吉兴村，还是置身于环境优美的东泉村、小康人家的双兴村，错落有致的民居，干净整洁的村落，平坦宽敞的道路，笔直成排的路灯，特别是通过“美丽庭院和干净人家”创建工作，每个村屯都宛然一幅生产发展、环境优美、乡风淳朴、生活美好的新农村画面，给考察团留下了深刻的印象。每到一地，考察团一行都仔细的听、认真的看，详细的问，并不时用手机现场拍照，以备借鉴学习。就新农村建设投入机制、管理机制等方面，陈东、李冰与我市领导热情交流经验和做法，表示一定要认真学习、借鉴和消化我市新农村建设好的经验和做法，推动丰满区新农村建设工作再上新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>52</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>外出学经验回家建新村</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2016-12-29</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/mlthx/mlxc/201612/t20161229_43482.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['6月3日，县委副书记吴思志、县新农村办主任张福华带领外出考察团前往通化市东昌区金厂镇、夹皮村、集安市头道镇、清河镇、太王镇，就公路、村屯绿化美化、景点打造、基础设施建设、乡村民俗游建设方面的先进经验和做法进行考察学习。每到一处，考察人员都细心观摩，并认真听取了相关情况介绍。通过看精品、找差距、取真经、学经验，全面提升我县美丽乡村建设档次。', '在考察学习座谈会上，吴思志强调：一是各乡镇、开发区要把建设美丽乡村摆在重中之重，主管领导要亲自抓、亲自管，分管领导要现场指挥、狠抓落实，全面提升我县美丽乡村建设水平；二是加大公路沿线破损边沟、围墙等基础设施升级改造力度，精心谋划公路沿线绿化美化、景点打造和围墙的粉饰；三是借力资源优势，深挖特色，融入生态、产业、人文因素，挖掘村史文化，建设好村史馆，努力打造精品景点式村庄。四是加大投入力度，充分利用好项目村的专项补助资金，确保项目村整体环境面貌有一个大的改观，有一个质的飞越。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>52</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>柳河县党政考察团莅梅考察学习新农村建设工作</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2017-07-27</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201707/t20170727_8339852.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['由柳河县县委书记孙立勋率领的柳河县党政考察团，在市委副书记张明禄，市委常委、市委办主任马志友，副市长霍光陪同下，深入到曙光镇曙光村，李炉乡李炉村、永强村和双兴镇双兴村考察学习。近年来，我市新农村建设坚持高起点谋划、高标准建设，强化基础设施建设，每个乡镇都展示着新农村建设的美好景象。考察团无论是走进民风淳朴、风景如画的李炉村、环境优美小康人家的永强村，还是置身于美丽庭院干净人家的双兴村，所到之处，绿树如荫的街路、干净整洁的村落，特别是通过“美丽庭院和干净人家”创建工作，每个村屯都呈现出一幅生产发展、环境优美、乡风淳朴、生活美好的新农村画面，给考察团留下了深刻的印象。每到一地，考察团一行都仔细的听、认真的看，详细的问，并不时用手机现场拍照，以备借鉴学习。就新农村建设投入机制、管理机制等方面，孙立勋与我市领导热情交流经验和做法，表示一定要认真学习、充分借鉴我市新农村建设好的经验和做法，推动柳河县新农村建设工作再上新的台阶。', '每到一地，考察团一行都仔细的听、认真的看，详细的问，并不时用手机现场拍照，以备借鉴学习。就新农村建设投入机制、管理机制等方面，孙立勋与我市领导热情交流经验和做法，表示一定要认真学习、']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>52</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>刘忠波赴浙江临海部分企业调研</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2019-02-11</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201904/t20190412_347903.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['近日，通化县委常委、常务副县长、临海市副市长刘忠波带领调研组赴浙江东新新材料有限公司、浙江永太科技有限公司、台州拓卡奔马机电科技有限公司进行实地考察学习。', '浙江东新新材料科技有限公司是专业研制生产碳化硅、碳石墨、热压石墨系列密封材料及相关密封组件的企业，是“国家级高新技术企业”和“国家行业标准”起草单位。自去年通化县与临海市建立对口合作关系以来，通化宏信研磨材与浙江东新新材料科技有限公司签订供需合作协议，累计提供20000公斤碳化硅超细粉体原材料，2019年计划达到30000公斤以上。永太科技是“国家火炬计划重点高新技术企业”，2018年10月与通化县政府签署战略合作协议，主营医药、植物保健、新型材料等业务，产品技术和质量处于国内领先地位，是全国含氟精细化学品行业龙头。台州拓卡奔马机电科技有限公司隶属于杰克缝纫机股份有限公司，致力于智能制造，产品连续8年全球销量第一，销往130多个国家和地区，是行业的“隐形冠军”。 在台州拓卡奔马机电科技有限公司，调研组深入全自动生产车间、科技研发中心、中控室等地，详细了解企业生产经营情况，认真查看缝纫机生产设备。在随后召开的座谈会上，刘忠波听取了企业负责人关于企业经营管理、文化建设等情况的介绍。刘忠波强调，通化县与临海市对口合作关系建立以来，两地通过高层互访、干部人才交流、项目对接等形式，取得了一大批卓有成效的合作成果，特别是推动两地民营企业实现了资源共享、市场共享、产品共享。下一步，要持续加强两地企业交流互动，精心设计平台载体，对标临海企业学理念、学模式、学发展、学创新，促进产业项目互联和市场有效对接，进一步把对口合作这篇文章做深做实，努力打造对口合作工作样板城市。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>52</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>对标先进取长补短高新区考察团一行赴梅河口市辉南县考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2018-10-17</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://gxq.tonghua.gov.cn/tpxw/201810/t20181017_301971.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['10月16日，高新区党工委副书记、管委会副主任李忠辉率领高新区考察团一行赴梅河口市、辉南县，分别就项目建设和乡村旅游方面进行考察学习。', '抱着对加快发展的迫切心情，考察团一行先后实地踏查了梅河口市经济开发区的海龙湖公园、工业新城、辉南县龙湾熙嘉荒生态旅游度假区等项目建设现场，一路考察、一路学习，大家边听边看、边议边思，每个人都深受震撼和启发。大家一致认为，梅河口市项目建设力度大、发展速度快，体现了大手笔谋划、大气魄投入、大项目支撑、大平台建设；辉南县的乡村旅游业依托自身优势，发掘特色资源，以美丽乡村建设为出发点，带动农村经济发展，铺就了一条属于自己特有的致富道路。', '李忠辉指出，本次考察学习的目的就是让大家开阔视野、增长见识、寻找差距、增强信心、自我加压、努力前行。要通过这次考察学习活动，增强大家想干事、会谋事、敢担事、能成事的能力和本领。', '就如何进一步做好当前以及今后一个时期的具体工作，李忠辉要求，一是要以解放思想为引领，全力以赴谋发展、大干快上抓发展、全面振兴促发展，特别要做好抓招商引资、抓项目建设、抓“五转”、抓经济运行、抓质量等各项工作；二要以五种能力的提升为重点，全面加强自身素质和能力建设，打造一支过硬的干部队伍，各部门要加强协作和沟通，共同进步、共同提高，着力破解工作中遇到的各种难题；三要以党纪国法为准绳，筑牢思想防线，加强党风廉政建设，要严以修身、严于律己，从自身做起，防微杜渐。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>52</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>我市电商产业考察团赴浙江丽水考察活动圆满结束</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2018-04-03</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201804/t20180403_8360895.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['3月27日至3月30日，副市长于艳玲带领市妇联、团市委、商务局电商工作负责人、三个村镇电商工作负责人以及三个电商企业负责人，赴浙江丽水展开了为期四天的电商考察学习。此行电商考察团共21人，先后参观了北山淘宝村、丽水市电商产业园、丽水市电子商务公共服务中心、遂昌赶街农村电子商务服务站，并展开了两次交流座谈会，就农产品上行以及如何解决农产品下行、物流最后一公里问题和如何打造电子商务体系建设方面，进行了深入的交流与探讨。', '此次丽水电商考察增进了两市的友谊，也加深了彼此的沟通和了解。通过对丽水电商产业实地的考察和各电商产业精英的讲解，学习到了先进的电商理念，丽水电商发展模式对我市未来电商产业发展规划有很大的帮助。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>52</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>市场局党组开展解放思想大讨论活动专题研讨会</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201811/t20181126_8361661.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['2018年11月5日，市场局党组成员召开解放思想大讨论专题研讨会，会议共有三项议程：一是副局长王伟同志传达《习近平总书记在深入推进东北振兴座谈会上的重要讲话精神》。二是由纪检组长李成威同志传达《关于印发开展解放思想推动梅河口高质量发展大讨论活动的方案》文件精神；三是领导班子共同讨论形成《市场局关于开展解放思想推动梅河口高质量发展大讨论活动的方案》。最后党组书记、局长刘国君同志强调：全体党组成员要高度重视此次大讨论活动，带头做表率，组织分管人员开会传达会议精神，认真研究课题，要切实把思想摆进去、把工作摆进去、把职责摆进去，逐一对标对表、深入思考、完善思路、改进工作，确保解放思想推动高质量发展大讨论取得实效。', '随后市场局全体班子成员召开丽水对接工作经验交流研讨会，会上针对食品安全示范市创建、农贸市场升级改造、食品安全监管、放心消费在梅河、品牌建设、药品医疗器械监管、食品流通溯源体系建设、法治建设、双随机监管、行政审批和“只跑一次”改革、政务办公等11方面工作进行经验交流研讨，并部署下一阶段的工作。刘国君同志强调：全局一定要认真学习本次丽水考察学习经验，解放思想、开拓创新，以新思维、新办法、新创意进行下一阶段工作，着力创建“地不湿、无异味、价公道、菜安全、可追溯、能休息”的农贸市场；着力打造农村大型餐饮放心厨房工程，切实保障食品安全；全面启动“放心消费在梅河”行动，让放心消费成为梅河口市新的软实力。', '随后市场局全体班子成员召开丽水对接工作经验交流研讨会，会上针对食品安全示范市创建、农贸市场升级改造、食品安全监管、放心消费在梅河、品牌建设、药品医疗器械监管、食品流通溯源体系建设、法治建设、双随机监管、行政审批和']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>52</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>省政府原副省长魏敏学带领省考察组莅临我市调研考察</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-07-03</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202007/t20200703_8340624.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['在通化市委常委、我市市委书记王爱明，市委常委、市委办公室主任马志有，市委常委、宣传部部长汪晓梅的陪同下，魏敏学一行实地调研了蓝城（杭州）桃李春风梅河口啤酒生态小镇，详细了解了啤酒小镇规划设计和项目建设进展情况，并走进生产车间实地踏查新梅河精酿啤酒的生产情况；在现代服务业示范区，考察组听取了我市现代服务业发展情况汇报，参观了乒乓球馆、网球馆、羽毛球馆和游泳馆。考察组对我市依托现代服务业示范区，完善提升医疗健康、文化体育、教育教学、生态旅游、商贸休闲、高端服务业“六大板块”服务功能给予充分肯定。', '在市委常委会会议室，王爱明主持召开座谈会，市委副书记、市长，市委副书记张成太等领导参加会议。王爱明对魏敏学一行到我市调研指导、摄影采风宣传表示欢迎和感谢。王爱明指出，今天是“七一”建党节，中国共产党建党99周年，考察组莅梅考察的时间节点是非常有意义的。“十三五”以来，我市发生了翻天覆地的变化，经济总量翻一番，保持10%以上的增长速度，达到288亿元；固定资产投资累计达到700亿元，其中80%来自域外投资；社会事业现代化基本实现，到今年10月份，医疗、教育、文体“三个中心”全面投入使用，向市民全面开放；城市生态绿化达到现代化水平，我市建设成为林水相间、河湖连通、森林覆盖的花园城市、精致的客厅城市，展现出“水在城中、城在绿中、人在景中”的优美画卷。城市知名度和影响力大幅提升，县域经济综合实力始终领跑全省、蝉联全国百强，历史性获得综合实力、投资潜力、新型城镇化质量、县域营商环境、绿色发展5个“全国百强县市”荣誉称号，成功创建全国文明城、国家卫生城、国家生态文明建设示范市和国家园林城，城市管理水平进入全国先进行列。城市发展得到了全省各地各部门的大力支持与持续关注，累计14个省5000多人次到我市进行考察学习。培养和练就了一支敢于担当、实干争先的干部队伍，用实际行动践行了“七种梅河口精神”。2018年8月，乡村振兴、四好农村路、县域经济振兴发展3个全省现场会在我市召开，标志着我市实现了建成中等城市的目标任务。2019年9月，省委巴音朝鲁书记到我市调研时，肯定了我市“十三五”期间所取得的成绩，省委、省政府出台《关于支持梅河口市建设高质量发展先行示范区的意见》，成立省级层面领导小组，支持我市建设现代化区域中心城市、高质量发展先行示范区。', '王爱明强调，今年是“十三五”收官，“十四五”规划的关键时期，也是省委、省政府赋予梅河口建设现代化区域中心城市、高质量发展先行示范区新定位的第一年。我市结合实际，规划编制了具备100万人口承载能力、100平方公里城市建成区面积、财政收入达到100亿元；地区生产总值达到1000亿元，规模以上工业产值达到1000亿元，辐射人口达到1000万人的城市发展板块。梅河口也将牢牢把握保持经济中高速增长不动摇、争创全国先进水平不动摇“两条主线”，坚持高质量发展，抓好产业发展、实体经济等关键要素，补齐经济总量不大、产业支撑力不足的短板，构建新时代科技创新管理体系，建设高素质、专业化的人才队伍。', '王爱明强调，通过“十三五”期间的建设和发展，梅河口已经具备一定的城市承载能力和具有较强吸引力的生态环境，为“十四五”的发展奠定了坚实基础。我市通过提高城镇化水平，大力发展第三产业，建设区域医疗、教育、文体“三个中心”等方式吸纳外来人口，加快城市发展速度；通过大力发展医药健康、食品加工、商贸物流、现代服务业“四大主导产业”，形成产业基础；通过提前储备城市用地，保障了城市建设、招商引资项目的用地供应，推动城市空间布局规划科学合理，为城市长远发展提供持续保障；通过结合自身发展需求和产业特色，出台多项惠企政策，形成了优质的营商环境；我市干部有担当、有情怀，形成了心无旁骛抓发展、创业文化浓厚的发展氛围；梅河口市实现高质量发展，得到了省委、省政府，省直各厅局和各地区的大力支持，为建设现代化区域中心城市、高质量发展先行示范区奠定坚实基础。', '座谈会上，市长介绍了我市经济社会发展情况。市长表示，省领导到我市调研指导、采风摄影，是对我市城市发展和生态建设的大力宣传。在下步工作中，我们将以舍我其谁的态度和勇气，发扬“七种梅河口精神”，举全市之力，在产业发展上持续发力，推动我市各项工作再上新台阶，实现更大发展。', '省调研考察组在讲话中对我市经济社会发展所取得的成绩，给予充分肯定和高度评价。并指出，梅河口的发展建设有计划、有层次、有面貌，是高起点、板块化、高质量、现代化的发展。城市主导产业鲜明，投资持续稳定，形成了独特的产业优势。省调研考察组表示，将认真总结梅河口的工作经验，在全省甚至是更大的范围内进行宣传和推介，起到典型的示范作用、先行的牵动作用。', '2日上午，考察组先后来到城市规划展览馆、曙光镇东太平村、高新技术产业开发区、会展中心进行参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>52</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>通化县委组织部赴浙江临海学习考察</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2018-03-29</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/gbgz/201803/t20180329_201223.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['3月24日-3月26日，通化县委常委、组织部长刘忠波带领考察组前往浙江省台州市临海市，学习基层党建、人才工作等方面的好思路、好经验、好做法，对接两地组织部门合作事宜。临海市委常委、组织部长邱蓉陪同考察。考察组一行先后来到白水洋镇上官村、浙东休闲家居市场，实地调研农村基层党建和非公企业党建工作先进做法。', '在上官村，考察组观摩了村文化礼堂，认真听取了村党支部充分调动农村党员力量，全面构建“驻村干部→村两委干部→农村党员→网格农户”的红色网格化治理模式，运用“党建+”推进各项工作开展的有效经验。', '随后，县委组织部与临海市委组织部召开了工作交流座谈会，就干部素质提升、红色教育培训、人才资源信息共享有关事宜进行了深入商讨和交流。', '学习考察期间，刘忠波还参加了两地对口合作交流会暨“对口合作框架协议”签约仪式。(来源：通化县委组织部)']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>52</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>通化市百盛国际旅游有限公司</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2018-05-29</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.dc.gov.cn/cydc/chang/201805/t20180529_218925.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['百盛国际旅游有限公司成立于2010年12月27日，主要经营国内旅游、会议接待、商务考察、票务代理、休闲疗养、酒店预订、学生夏(冬)令营活动，并承揽外地游客到山城通化观光、考察、学习、会议等业务，为旅游者提供食、宿、行、游、娱、购一条龙的综合服务，还可根据客户要求合理编排个性化专项旅游线路。公司拥有一批文化素质高、业务经验丰富、责任心强、职业道德高尚的专业管理人员和导游队伍，与全国各旅行社，铁路、民航、航运、宾馆、景点及旅游车队等有关部门建立了长期的密切业务关系。', '并承揽外地游客到山城通化观光、考察、学习、会议等业务，为旅游者提供食、宿、行、游、娱、购一条龙的综合服务，还可根据客户要求合理编排个性化专项旅游线路', '公司拥有一批文化素质高、业务经验丰富、责任心强、职业道德高尚的专业管理人员和导游队伍，与全国各旅行社，铁路、民航、航运、宾馆、景点及旅游车队等有关部门建立了长期的密切业务关系。', '公司现已开辟旅游线路40余条以及各具特色的旅游活动（乡村农家游、海上垂钓休闲游、海岛风光游、高尔夫商务游、CS培训游、自驾车联谊游、工业考察游、绿色农业游、会议奖励游等），能够满足各种旅游需求。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>52</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>一座营镇组织机关干部各村书记赴辽宁考察学习</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2018-04-23</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201804/t20180423_8352981.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['为进一步解放思想、学习借鉴域外先进经验，我镇正式启动一座营镇2018年党建项目。近日，一座营镇组织机关干部、各村支部书记一行20余人专程赴辽宁省抚顺市抚顺县参观山野菜种植产业、赴本溪市选购村石、赴丹东市大梨树村学习“干”字精神、新农村建设、基层党建工作等。', '每到一处，参加考察学习的村书记都认真聆听讲解员的经验介绍，作好记录，并不时单独询问详情，他们对抚顺县的产业发展、大梨树村的新农村建设及基层党建工作快速提升和变化感到震惊和佩服。', '考察结束后，一座营镇组织了座谈交流，通过此次域外考察，对镇村干部提出以下四点要求：一是全镇广大干部开阔思维灵活头脑，要有针对性的和先进地区做比较，找差距，找不足，学经验，增强加快村级各项工作持续发展的信心。二是结合各村实际，转变思想，在困境中闯出一条出路，寻找带领群众致富奔小康的新路子。三是勇于担当，作为村党支部书记，要以习近平新时代中国特色社会主义思想为统领，做好村级党建工作，要担负起为民服务之责，创业发展之责。四是在新农村建设过程中，制定符合本村的整体规划，求真务实，切实改善和提高农民生活水平，着力打造整洁卫生、环境优美、和谐宜居的美丽乡村。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>52</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>通化市人才工作领导小组关于印发年度服务企业家十二条措施通知</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2020-04-15</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/thskx/tzgg/202204/t20220426_610963.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['各县（市、区），通化医药高新技术产业开发区、吉林通化国际内陆港务区，市委各部委办、市直各部门：', '为进一步关心关爱企业家，持续优化营商环境，激励广大企业家干事创业，推动实体经济高质量发展，根据全市人才工作安排部署，研究制定以下具体服务措施。', '1.开展企业家创新能力培训。围绕产业转型升级和企业科研、管理、技术创新，搭建政企交流和产学研合作平台，积极组织企业家赴国内发达地区和知名院校开展创新能力培训，着力打造一支具有宽广国际视野、独特战略眼光、一流管理能力、领军创新创业的优秀民营企业家队伍。', '搭建政企交流和产学研合作平台，积极组织企业家赴国内发达地区和知名院校开展创新能力培训，着力打造一支具有宽广国际视野、独特战略眼光、一流管理能力、领军创新创业的优秀民营企业家队伍。', '2.评选一批优秀民营企业家。深入实施“杰出企业家培育计划”，根据企业发展规模、经济效益、社会贡献等情况，以及企业家的社会知名度和影响力，集中评选一批“杰出企业家”“优秀新生代企业家”。对于“杰出企业家”，一次性给予20万元资金奖励，以及政策扶持、项目支持等待遇。', '3.举办通化市企业家节。为弘扬优秀企业家精神，优化营商环境，每年7月19日，举办“企业家节”，集中表彰优秀企业家及各类拔尖人才；举办“新生代企业家论坛”，宣传企业家创新创业事迹，在全社会营造尊重企业家、包容企业家、善待企业家的良好环境。', '，宣传企业家创新创业事迹，在全社会营造尊重企业家、包容企业家、善待企业家的良好环境。', '4.组织企业家子女到机关挂职锻炼。着眼打造一支综合素质好、适应市场能力强、矢志企业传承发展、熟悉国家政策的企业家“接班人”队伍，采取岗位轮换、挂职锻炼等方式，每年选派30名左右企业家子女进入县以下机关挂职锻炼，担任局长助理或乡(镇)长助理，挂职期为一年，提高“新生代企业家”创新创业能力。', '5.为企业引进一批高层次人才。深入实施“高层次人才引进计划”，突出“高精尖缺”导向，为企业引进一批科研创新、金融管理、电子商务、现代物流等领域的高层次人才。对于企业引进的高层次人才，一次性给予20万元资助资金，并在居留落户、配偶就业、子女就学、医疗体检等方面提供支持服务。', '导向，为企业引进一批科研创新、金融管理、电子商务、现代物流等领域的高层次人才。对于企业引进的高层次人才，一次性给予', '6.支持企业重大科技项目研发人才团队建设。深入实施“重大科技项目研发人才团队支持计划”，评选并重点支持服务一批企业重大科技项目研发人才团队，全面增强企业创新发展能力。对于列入重点支持计划的重大科技项目研发人才团队，一次性给予30万元资助资金。', '，评选并重点支持服务一批企业重大科技项目研发人才团队，全面增强企业创新发展能力。对于列入重点支持计划的重大科技项目研发人才团队，一次性给予', '7.为企业培养一批“通化工匠”。深入实施“通化工匠培养计划”，围绕企业技术改造、产品优化和生产革新，搭建校地企产学研合作平台，采取“走出去、请进来”等方式，组织企业高技能人才赴省内外先进装备制造企业和实训培养基地开展专业能力提升培训，着力打造一支技能精湛、富有职业精神的高技能人才队伍。评选表彰一批“通化工匠”，一次性给予每人3万元资金奖励；评选表彰一批“通化青年工匠”，一次性给予每人5千元资金奖励。', '等方式，组织企业高技能人才赴省内外先进装备制造企业和实训培养基地开展专业能力提升培训，着力打造一支技能精湛、富有职业精神的高技能人才队伍。评选表彰一批', '8.选派一批优秀高校毕业生到企业服务。深入实施“千名学子归巢计划”，围绕企业科研创新、成果转化、技术革新等方面的人才需求，集中选派一批事业单位专项招聘的创新创业类高校毕业生到企业挂职服务，服务期为三年；服务期满后，按照“企业需要、人才自愿、双向选择”的原则和事业单位专业技术人才离岗创业有关政策，推动人才扎根企业，服务实体经济发展。', '，围绕企业科研创新、成果转化、技术革新等方面的人才需求，集中选派一批事业单位专项招聘的创新创业类高校毕业生到企业挂职服务，服务期为三年；服务期满后，按照', '的原则和事业单位专业技术人才离岗创业有关政策，推动人才扎根企业，服务实体经济发展。', '9.大力弘扬优秀企业家精神。深入开展“弘扬爱国奋斗精神、建功立业新时代”活动，选树一批企业优秀创新创业人才典型，大力弘扬优秀企业家精神，引导和激励各类优秀人才扎根通化，凝心聚力谋发展、创新创业助振兴，打造一流的人才发展生态环境。', '活动，选树一批企业优秀创新创业人才典型，大力弘扬优秀企业家精神，引导和激励各类优秀人才扎根通化，凝心聚力谋发展、创新创业助振兴，打造一流的人才发展生态环境。', '10.为企业家助力乡村振兴搭建平台。为促进企业家创新创业、回报乡土，加强政企合作，搭建产业项目平台，引导和推动企业家到出生地、户籍地及企业所在地行政村担任“名誉村主任”，推动工商资本下乡，助力脱贫攻坚和乡村振兴。', '为促进企业家创新创业、回报乡土，加强政企合作，搭建产业项目平台，引导和推动企业家到出生地、户籍地及企业所在地行政村担任', '11.为企业家进行免费体检。每年组织“功勋企业家”“杰出企业家”到吉大一院进行一次免费体检；在市属重点医院开辟人才医疗服务“绿色通道”，每年组织“优秀新生代企业家”及引进高层次人才、重大科技项目研发人才团队负责人、通化工匠、乡土实用型专家进行一次免费体检，关心企业家等优秀人才身心健康，激励广大人才创新创业。', '12.为企业家出行提供便利条件。为方便企业商贸交流、学习考察等活动，为“功勋企业家”“杰出企业家”“优秀新生代企业家”及引进高层次人才、重大科技项目研发人才团队负责人、通化工匠、乡土实用型专家颁发“通化英才卡”，提供“功勋企业家”“杰出企业家”乘坐通化-北京航班头等舱，机票由财政全额补贴；人才车辆在市管道路免收通行费等服务。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>52</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>汲取改革前沿发展经验汇聚通化振兴发展力量我市第二批赴台州学习锻炼工作组学习工作纪实下</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2019-05-29</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/dtyw/201905/t20190529_352536.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['\u200b汲取改革前沿发展经验汇聚通化振兴发展力量——我市第二批赴台州学习锻炼工作组学习工作纪实（下）', '这是一次借鉴取经之旅，也是一次更新观念之旅，更是一次扩大合作之旅。为期三个月的学习锻炼工作生活，工作组全体干部将对标学习浙江台州作为提升“五个能力”的锤炼平台，着力解放思想、抢抓机遇、对标先进、促进合作，汲取改革前沿的发展经验，坚决把市委的决策部署和殷殷嘱托落实到位。', '与驻台州办事处紧密协作，配合好我市各地各部门和企业到台州学习、调研各项工作。协助市“五转办”调研组到台州考察调研，帮助设计线路、研究方案、协调单位，全体挂职干部与五转办调研组围绕民营经济发展进行了座谈，每位挂职干部都谈了体会、提了建议，座谈会热烈深入、调研高效有序。帮助万通药业推进新上生产线项目，协助企业起草了向东昌区政府的请求，协调台州市和临海市发改部门、相关企业，为万通药业到华海药业学习考察做了细致的前期工作。', '全体同志在台州通过一系列现场观摩、实地学习，真正感受到了实实在在的差距、收获了沉甸甸的理念。大家将结合本职工作和民营经济“五转”等重点工作，各自研究起草一份调研报告，把台州模式、台州经验变为通化思路、通化举措。市委政研室同志按照吉林省赴浙江挂职干部主题党日安排，梳理浙江省特别是台州市推进“千万工程”的四个阶段、十方面特点、工作启示，为我省、我市下步推进美丽乡村建设提出对策建议。当前，正在围绕浙江省和台州市机制体制创新，进行深入研究，全面总结产业转型、民营经济发展、生态建设、社会治理、基层党建的浙江模式和台州经验，力争形成系列调研报告，为市委决策和部门推进重点工作提供参考。', '每名挂职干部都代表通化的形象。在台州工作学习期间，坚持党的领导，强化组织保障，严格落实工作制度，并成立临时党支部，全面加强对到台州学习锻炼干部的管理，要求大家遵守各项纪律要求，明确各自职责。注重开展严肃的党内政治生活，利用周末多次开展主题党日活动，到台州市解放一江山岛烈士陵园等地，开展党性教育，不断增强凝聚力战斗力。在台州，全体挂职干部认真落实中央八项规定和实施细则精神以及省委、市委在廉洁纪律方面规定，一言一行都展现出通化干部的优良风貌。', '在此基础上，挂职干部把握“亲清关系”、严守工作纪律，利用一切机会，广交朋友，宣传通化的人文历史、生态资源、特色产业，讲好通化好故事、传播通化好声音，持续扩大“红色之城·康养通化”影响力，邀请台州机关干部、企业家、群众到通化考察合作、旅游和疗休养。（来源：通化日报）']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>52</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>抓党建和落实全面从严治党主体责任述职述责述廉报告</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2020-04-20</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/zwgk/xxgk/xzj/kdyz/kdyzml/202004/t20200428_37390.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['（一）聚焦主责主业，以上率下严抓落实。主持召开定期议党、专题议党会7次，5个村因党建工作评差被绩效降档；投入35万元，新建文化广场4处、红色景观1处，维修村部6个；严把党员入口关，择优发展农民党员15名、非公企业党员1名，新发展党员平均年龄35岁；加大警示教育和问责力度，开展警示教育4次，查办违纪党员7人，清除前科劣迹村干部11人、吃空饷村干部6人；针对宋家街村张学丽案件开展“一案一整治”，召开专题会议4次，清理村干部1人、积极分子1人，全面肃清案件影响。', '（二）坚持学做结合，主题教育成效显著。组织开展集中研讨8次，集中学习13次，班子成员带头讲党课6次，聘请专家辅导2次，域外红色教育1次；坚持边学边改，对6类77项群众反映的问题逐一整改，新建耕地整治项目水泥路2568米，修整田间作业道30公里，新建边沟2000延长米，新建民安村放心厨房1处，收回被侵占集体资产6处，域外考察产业发展1次。', '（三）突出党建引领，凝心聚力攻坚克难。对标对表“两不愁、三保障”，投入66万元，为9户贫困户修缮房屋，57户室内刷白和硬化庭院，改造自来水管线5000延长米；依托扶贫大棚和非贫困村产业项目，为67户贫困户分红7.33万元；累计脱贫66户138人，省级贫困村黑嘴子村实现摘帽。投入480万元，高标准打造百村示范村5个，镇村党员干部全程参与示范建设，康大营村获评省级3A示范村。组成党员服务队伍，积极开展泽盛环保项目征地、迁坟、补偿、维稳等跟踪服务工作，确保“三早项目”顺利施工。', '（一）抓党建主体责任意识不强。把主要精力放在人居环境提升和项目发展上，在研究部署党建工作中向下传导压力不足，执行党内政治生活制度上要求不高，与基层党员干部面对面交流不够，导致基层党组织职能作用发挥存在差异。如在星级党组织评定中落后的横头山村、木粉房村，整改工作进度缓慢，个别村干部工作状态散漫、能力不足等问题没有彻底解决。', '（二）抓村集体经济增收思路不宽。虽然研究了一些促进村集体经济增收的办法，但总体上来看，增加村集体经济收入的方式还比较单一，主要依靠机动地发包、土地入股等，没有结合乡村振兴战略及镇村现有产业优势，延伸产业链条，促进集体增收。如蒲公英、大榛子、花卉、木耳等种植产业，存在种植分散、规模小、链条短等问题，在扩大规模、推进深加工、扩宽销售渠道上思想不宽、力度不够。', '（三）抓规范制度执行落实不严。个别支部在开展党内政治生活时氛围不浓，落实“三会一课”制度标准不高，针对这些问题更多是停留在提出整改要求，把责任交到分管领导手中。在推进规范化服务中，存在“差别看待、降格以求”问题，公路沿线村标准高，偏远村差不多就行的思想误区依然存在，导致便民服务工作抓得不实，影响其他村内工作开展。', '（一）强化主责意识，切实推进从严治党。加大联合巡察力度，针对基层党建、履职守纪、集体经济发展等重点和难点问题摸底把脉，短期内实现星级组织转化提档；细化巡察反馈清单，建立巡察整改台账，实行销号管理，定期检查反馈，对排序靠后、整改不彻底的村党组织进行提醒谈话或启动问责程序；加强指导力度，每村增设一名党建指导员，规范化、常态化开展“三会一课”、“四议两公开”等工作。', '（二）强化基层基础，切实推进素质提升。启动实施村部提档升级改造工程，列支40万元，完成老旧村部外部维护、内部修缮、破损展板更换、服务质量提升；设计符合本地特色的党建活动品牌建设，强化“项目化运作、品牌化推进”，打造党组织与群众面对面沟通、交流、解困平台；着眼于2021年换届，组织实施村干部素质提升工程，计划举办2期基层党务工作者和村级后备干部培训班，4次“农村通”业务培训，开展不少于4次的红色教育和外出考察学习。', '（三）强化示范带动，切实推进产业发展。强化党员示范引领作用，鼓励党员自主创业和返乡创业，由镇财政设立专项资金，对在人居环境、产业发展等工作中表现优秀的党员进行扶持奖励；结合集体产权制度改革和扫黑除恶，持续推进被侵占集体资产收回工作，发展壮大村级集体经济；健全完善农民党员参与百村示范激励奖励机制，带动广大农民参与热情；制发《致农民党员的一封公开信》，倡导农民党员带头发展蒲公英、大榛子等特色种植产业，示范引导农业产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>52</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>通化县社区考察团莅临松江社区参观考察</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201804/t20180427_8360993.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['4月26日，通化县社区考察团一行21人莅临松江社区参观考察。考察团一行在社区书记、居委主任的陪同下参观了社区的办公场所，解说员为考察人员详细介绍各个功能室活动开展情况。随后，在二楼多功能活动室，考察人员查阅了社区在创建全国文明城市工作中的档案材料。同时，由居委主任吴晓琳介绍了松江社区在创建全国文明城市期间工作开展情况，就社区在创城工作中如何发挥作用与考察人员进行了经验交流。最后，社区书记朱洪军带领考察人员参观了辖区文明主题小巷。', '参观过程中，考察团对松江社区在全国文明城市创建工作中发挥的作用和取得的成绩给予了高度评价。', '通过此次经验交流学习，考察团表示松江社区的工作经验必将对通化县全国文明城创建工作起到积极的作用。同时，松江社区将认真总结创建全国文明城市成功经验，及时查漏补缺，全面扎实推进社区各项工作有序开展，争创服务型品牌社区，为建设实力、活力、法治、幸福梅河口贡献微博之力。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>52</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>赵鹏飞带队赴临海考察对接</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2019-05-20</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201906/t20190611_353777.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['5月16日，县委常委、组织部长、党校校长赵鹏飞带领考察组赴浙江临海考察学习，这标志着我县2019年选派干部赴临海学习轮训、两地乡镇全面合作对接的正式启动。通化县委常委、常务副县长、临海市副市长刘忠波，临海市委常委、组织部长邱蓉参加考察。', '考察组一行先后来到临海市行政服务中心、沿江镇、涌泉镇、浙江头门港经济开发区、宏野海产品公司、拓卡奔马机电公司，围绕“最多跑一次”改革、农村基层党建、非公企业党建、大学生实践基地共建等内容进行实地考察。', '在市行政服务中心，考察组来到综合服务窗口，认真学习了常态化企业开办6小时、投资项目流程优化、“一窗受理集成服务”，并就相关事项的办理时限、具体流程、便民举措等进行了深入了解。在沿江镇，考察组对新兴村党群活动服务中心的功能布局、主要特色和日常管理等进行了详细了解，并着重对综合治理、市场监管、综合执法、便民服务“四个平台”的建设情况进行了深入调研。在涌泉镇农合联，考察组来到农民合作经济组织联合会、农资互助社、忘不了柑橘观光园，实地考察农合联党组织助力乡村振兴情况。在浙江头门港经济开发区，考察组先后来到头门港规划展览馆、头门港作业区起步码头、吉利豪情汽车制造基地，详细了解港口总体规划建设、海上货运物流、“吉利红色引擎”党建工程等情况。在浙江宏野海产品有限公司，考察组实地观摩了公司研发中心、监控平台以及养殖基地，并对大学生教学实践基地建设情况进行了详细了解。 台州拓卡奔马机电科技有限公司隶属于杰克缝纫机股份有限公司，致力于智能制造，产品连续八年全球销量第一，销往130多个国家和地区，是行业的“隐形冠军”。考察组一行深入公司全自动生产车间、科技研发中心及中控室，详细了解企业生产经营情况，认真查看了国际顶级的激光裁床和缝纫机生产设备。在随后召开的座谈会上，公司总经理车建波介绍了公司发展概况和党组织建设等情况。 通化县部分乡镇党政主要负责人，临海市委组织部、通化县发改局、通化县驻临海市对口合作联络处等相关部门负责人参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>52</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>集安市非公党工委三措并举助推五转落实</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/zzgz/201808/t20180810_276162.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['为深入推动民营经济高质量发展，近一段时期，集安市非公党工委强化党建引领，主动担当作为，坚持明责任、强举措、重帮扶，积极助推民营经济“五转”落实。', '明责善为，激发“五转”动力。立足本职，结合实际，从政治引领、经费保障、政策激励等方面，研究制定惠企措施，不定期开展企业家域内域外学习考察，拓宽企业家视野，提升企业管理能力。加大投入保障力度，通过财政列支、党费返还、党费拨补、税前列支，发放党组织工作经费和党务工作者津贴，激发企业党建工作内生动力。强化政策导向，通过对党建工作好、社会美誉度高的企业推荐、评选各级荣誉奖励，优先推荐为各级劳模、“两代表一委员”预备人选或提名人选等，树立企业形象，提升企业影响力。 集谋聚势，形成“五转”合力。充分调动非公成员单位的积极性，主动发挥职能作用，变“单向发力”为“协同作战”。全市36个成员单位，结合部门职能梳理筛选出有针对性、操作性强的惠企措施125条，印发《集安市助推非公有制企业和社会组织发展优惠措施汇编》，明确政策解读人及联系方式，做到询有音、问有果，汇聚“五转”合力。', '集谋聚势，形成“五转”合力。充分调动非公成员单位的积极性，主动发挥职能作用，变“单向发力”为“协同作战”。全市36个成员单位，结合部门职能梳理筛选出有针对性、操作性强的惠企措施125条，印发《集安市助推非公有制企业和社会组织发展优惠措施汇编》，明确政策解读人及联系方式，做到询有音、问有果，汇聚“五转”合力。', '多措并举，增添“五转”助力。制定《集安市进一步加快民营经济发展的实施意见》，从企业自主创新、实施“企生规”计划、企业上市挂牌、实施做大做强工程等8个方面，制发“加快民营经济发展惠企政策”宣传折页，进一步提升惠企政策知晓度。组建法律、财税、科技、金融、人才5个“发展服务团”，通过政策宣讲、业务咨询、项目扶持、拓渠融资、人才培养等措施，帮助企业解决实际问题。目前，已深入企业10余次，解决困难问题20余件，争取扶持资金90余万元。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>52</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>梅河口市与浙江丽水市对口合作工作纪实之发展篇</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201910/t20191014_8351044.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['10月的梅河口市秋韵渐浓，但是发展与建设的步伐却丝毫没有停下脚步。在这里，有投资超过百亿的蓝城桃李春风梅河口啤酒小镇项目，也有金黄的稻田丰收在望，更有丽水·梅河口电商产业合作示范园迸发出勃勃生机。梅河口与浙江丽水对口合作以来，一直以优势互补作为切入点，站在推动两地产业发展的角度，把项目合作作为重要抓手。如今，合作成果遍地开花：梅河大米端上浙江市民的餐桌，丽水的电商精英来到梅河口做技术指导，一幅和谐共赢的发展画卷正在徐徐展开。', '招商引资双擎驱动融则两利，和则共赢。在丽水与梅河口的合作中，招商入梅的劲头愈发充足。站在推动两地产业发展的角度，丽水市赴梅河口市挂职干部叶祖平把项目合作作为重要抓手，以浙商、丽商、侨商为招商重点，充分发挥侨资、侨企、侨智的资源优势，赴万洋集团、传化物流集团、百草味、网易等企业开展招商引资活动，与吉林省浙江商会建立联系，谋划建设重点项目10个，成功引进蓝城集团、浙江梦马电商等5户企业落户发展。梅河口市金宝药业收购浙江亚利大胶丸有限公司，目前已完成收购，预计年销售收入可达1.5亿元；丽水—梅河口大米产销联盟项目稳步推进。梅河口市谷红制药与浙江大学药学院签订浙江大学—通化谷红制药联合研究中心，开展产学研合作。', '梅河口电商从无到有。今年5月22日，丽水·梅河口电商产业合作示范园区正式开园。从2018年7月开始，仅用11个月时间，就成立了电子商务服务中心。', '这是“梅河口速度”的体现，而这背后，有来自浙江丽水的鼎力支持。借助丽水市丰富的电商产业发展经验，梅河口先后4次组织干部和企业赴丽水市考察学习、寻求合作，成功促成梅河口市政府与浙江梦马电子商务有限公司签订《梅河口市电子商务公共服务体系建设与服务协议》，共同构建梅河口市电商公共服务体系。丽水市梦马电商公司长期派驻5名技术骨干，并在当地聘请员工，组成服务团队，参与梅河口产业发展规划的制定。开展七期电商培训大讲堂，其中两期达到千人规模。组团赴丽水参加第三届中国农村电子商务大会，为梅河口电商产业发展积累了经验。目前，入驻电商园区企业27户，产品超过700种；带动就业创业2400人，带动150户农户年增收200万元；全市网店数量接近6000家，上半年网络零售额达到4亿元、增长25%。如今，梅河口市利用丽水市侨乡的侨商、侨资、侨智等优势资源，丰富梅河口市的商贸业态。', '今年8月份，在丽水市政协主席的主持下，青田县进口商品城正式在梅河口注册公司，建设3000平方米的青田进口商品城，合力打造吉林省进出口商品贸易中心。9月29日，梅河口—丽水青田进口商品城开业，这不仅是丽水市与梅河口市对口合作深化的又一项重大成果，同时标志着两地对口合作进入到重要阶段。“十一”开业期间，累计购物人数1.94万人、销售额58.3万元。', '优质农产品打开南方市场。梅河口大米有皇粮御米的美誉，被评为“中国自主品牌”。丽水市每年需要外购大量优质粮食丰富百姓餐桌，两地开展粮食产销合作有了前提和基础。', '叶祖平赴梅河口市挂职以来，多次带队赴丽水市考察交流，成功签订两地粮食产销合作协议，促成8家梅河口市农企与丽水市建立合作关系；还开展了“浙”里有“粮”缘——吉林梅河大米丽水行活动，在丽水市设立梅河口大米直营店，入驻“丽水山耕”杭州旗舰店。通过考察交流，成功签订粮食产销合作协议，截至目前，三家大米企业供销量达到1.5万吨。8月15日，在长春市召开的2019吉林省粮食产销协作洽谈会暨九省市地方粮食储备合作座谈会上，梅河口市长兴源农业科技发展有限公司与浙江粮食集团签订2万吨水稻收购合同，梅河口十八锅米业与上海韵雯诚心粮油发展有限公司成功签订了1000亩“吉田订制”合同，拿下吉林省粮食产销合作最大合作订单。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>52</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>梅河口市召开年全市宣传思想工作会议</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2019-04-15</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/201904/t20190415_8342288.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['4月12日，2019年全市宣传思想文化工作会议在市政府会议中心召开，市委副书记孙维良出席会议并讲话。', '孙维良副书记在讲话中指出，过去的一年，全市宣传思想文化战线以宣传贯彻习近平新时代中国特色社会主义思想和党的十九大精神为主线，紧紧围绕中心服务大局，唱响主旋律、打好主动仗，在强化意识形态工作，推进理论武装、舆论宣传、文明创建、文化惠民和文艺精品创作等方面取得了显著成效，一些工作还走在全省的前列，先后接待省内外20多个市县考察学习。事实证明，我市宣传思想文化工作队伍是一支政治坚定、作风优良、勇于创新、善打硬仗的队伍。', '孙维良在讲话中指出：今年是新中国成立70周年，是全面建成小康社会关键之年，做好今年的宣传思想文化工作具有特殊重要的意义。', '总的要求是:坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大精神和习近平总书记关于宣传思想文化工作的重要要求，深入贯彻落实全国、全省宣传思想工作会议和市委八届六次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，紧紧围绕庆祝中华人民共和国成立70周年这条主线，坚持守正创新，强化责任担当，全面落实“举旗帜、聚民心、育新人、兴文化、展形象”使命任务，推动意识形态工作取得新成效、主流舆论传播展现新气象、文明城市建设实现新进展、梅河口对外影响力得到新提升，为建设现代化城市提供强大的思想保证、精神力量和舆论支持。', '市直各部门、省管部门、驻梅单位分管党务工作领导及党办主任，各相关部门、各乡镇街、社区和文明村的领导及有关人员参加了会议。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>52</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>全面改善农村人居环境着力打造靓丽宜居新村庄梅河口市曙光镇罗家村环境整治侧记</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2019-06-26</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/jyhpt/mhksnyj/nydt/201906/t20190626_8332983.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['曙光镇罗家村位于梅河口市南部12公里处，幅员面积8平方公里，辖2个自然屯、3个村民小组，总人口701人、201户。耕地面积3550亩，山林面积4021亩。近年来，罗家村深入贯彻省、市关于改善农村人居环境的相关安排部署，认真学习借鉴浙江省“千村示范，万村整治”工程经验，以提高农民生活质量为目标，不断加强美丽村庄建设，进一步改善农村人居环境，先后被评为梅河口市新农村建设标兵村、吉林省小康示范村、吉林省美丽乡村、全国美丽宜居村庄。', '近年来，罗家村深入贯彻省、市关于改善农村人居环境的相关安排部署，认真学习借鉴浙江省“千村示范，万村整治”工程经验，', '先后被评为梅河口市新农村建设标兵村、吉林省小康示范村、吉林省美丽乡村、全国美丽宜居村庄', '创设优美环境首先要有高标准的设施基础。近年来，罗家村持续不断加大争取资金和项目的力度，重点投入村屯基础设施和公益事业建设。通过向上争取项目资金、包保部门扶持资金、镇级财政投入、村集体和村民筹资筹劳等多种渠道，逐年加大基础设施投入力度。累计投入资金800余万元，强化农村基础设施建设。抓住全省小康示范村建设的有利契机，投资300万元建设2万平方米、24栋统一模式的罗家小区，实现了村民居住条件的整体改善；投资200万元建设20栋温室大棚，由村集体领办花卉合作社、葡萄采摘园，不断壮大集体经济。在近年来紧锣密鼓的新农村建设过程中，罗家村共修建户户通水泥路6公里，硬化边沟3600延长米，安装太阳能路灯32盏，全村统一建设仿古围墙2500延长米，庭院硬化8000平方米，建设户用沼气池120个，各家各户都安装了标准化卫生厕所。为了能让农户早日使用上清洁能源，市政府投入350万元，在该村建立秸秆固化颗粒厂1个，为农户免费安装秸秆颗粒锅炉140台。为不断丰富村民的精神文化生活，镇、村投资30万元建设202平方米标准化村部，并在两个自然屯分别建设了文化活动广场，配备了体育健身器材，规划了篮球场地。村党组织定期组织开展文体活动，村民自发组织跳广场舞，普及和推广积极健康的生活方式。', '市政府投入350万元，在该村建立秸秆固化颗粒厂1个，为农户免费安装秸秆颗粒锅炉140台', '没有一个良好的生态环境，再富裕的生活也算不上美满。罗家村“三委”班子始终坚持生态治村的长远发展理念，号召和引导村民建设绿色家园。2008年罗家村加大退耕还林力度，遏制毁林开荒等不法行为，共还林600余亩，栽植红松等大型树种10万余棵，栽植大臻子等经济树种8000余棵，着力打造金山银山。大力实施村庄绿化美化工程，村屯道路两侧栽植垂榆、梧桐3000余棵，农户院内院外栽植李子、樱桃等各种果树1000余棵，每年统一进行修剪和补植。由村集体领办的花卉育苗合作社，每年为村里培植花卉苗木10万余棵，村部及主要道路两侧各种颜色搭配种植，形成绿树鲜花错落有致的理想效果。为加快新农村建设步伐，大力推进乡村振兴战略的有效实施，今年计划投资50万元，对文化广场周围的绿地重新规划，建设休闲公园；依托灌溉排水渠建设拦河坝，打造河道景观。目前这2项工程正在紧张的施工当中。', '，共还林600余亩，栽植红松等大型树种10万余棵，栽植大臻子等经济树种8000余棵', '道路两侧栽植垂榆、梧桐3000余棵，农户院内院外栽植李子、樱桃等各种果树1000余棵', '村庄是我家，卫生靠大家。公共服务设施的不断完善，给村屯面貌带来了不小的改变，相比之下，村屯环境卫生管护的方式方法滞后，管护效果不明显。近年来，该村能够以干净、规范、整洁为目标，深入贯彻落实城乡环卫一体化的工作要求，聚焦责任压力，突出工作重点，强化机制建设，不断推进村屯环境整治工作规范化、制度化和常态化。一是制定制度、完善队伍、配齐设施。村“三委”通过村民大会研究制定了村规民约及环境卫生管护制度。明确了村、组两级责任主体，细化分解责任区域，分层次制定管理标准。建立和完善了环卫队伍，统一配备了4名专职保洁员，4台垃圾清运车。垃圾由农户分类分装，由保洁员定时定点收集，确保垃圾日产日清，杜绝乱扔乱倒现象，实现村屯环境常态化保洁。二是突出重点区域，开展集中整治。村委会与各家各户签订门前三包责任书，通过督查检查和平时抽查，奖优罚劣、推进工作。坚持把每个月的最后一周确定为“环境整治周”，集中进行清垃圾、清广告、清柴草、清边沟、清路障、清违建，彻底改善村屯环境。三是扩大整治范围，卫生不留死角。为整治农村环境不断向农户庭院及室内延伸，2017年该村积极响应市委、市政府的号召，按照“庭院美、居家净和乡土气息浓”的建设标准，集中开展“美丽庭院、干净人家”创建活动，三年来全村共评选出116户“美丽庭院、干净人家”星级户，其中五星级72户、四星级40户、三星级4户，星级户比例达到了74%。村委会还积极组织开展“美丽庭院、干净人家”集中表彰大会暨文艺汇演，利用市镇两级配发的10万元奖补资金，对星级户进行集中挂牌奖励。随着载体活动的有效开展，村民的卫生意识和文明意识得到加强，整治村屯人居环境蔚然成风。', '村庄是我家，卫生靠大家。公共服务设施的不断完善，给村屯面貌带来了不小的改变，相比之下，村屯环境卫生管护的方式方法滞后，管护效果不明显。近年来，该村能够', '每个月的最后一周确定为“环境整治周”，集中进行清垃圾、清广告、清柴草、清边沟、清路障、清违建', '“百村示范”是我市落实省里“百千万”工程的实际行动和具体表现，是今年市委、市政府安排部署的农业农村重点工作，也是一项利在当代，功在千秋的民心民生工程。罗家村三委班子充分认识到了这一点，并与之付出了艰辛的努力。', '一是认真考察学习。开展“百村示范”创建以来，村班子认真学习浙江省的经验做法，党支部书记姜洪义到浙江省进行了实地考察学习，村班子先后到辽宁省桓仁县和梅河口市其他乡镇进行考察，进一步统一思想，明确思路，积存经验。二是组织宣传发动。认真按照市委王爱明书记统一拆乱、统一规划、统一建设、统一管理、统一领导的“五统一”原则进行自上而下的组织发动，积极营造“百村示范，人人有责”的浓厚氛围。充分利用村组干部工作会议、村党员会议、村民代表大会等会议，向广大干部群众宣传“百村示范”的重要性，列举开展“百村示范”给每个村民带来的好处。先后发放倡议书500余份、悬挂横幅30余条，同时还利用村微信群、村广播等方式进行广泛宣传，号召全村积极行动起来，改造自家门庭庭院，共同创造优美舒适的人居环境，并将活动的有关文字及影像资料存档备案。三是狠抓工作落实。镇、村两级组成联合工作组，由镇主要领导包村，分管领导包屯，机关干部及村干部包户，逐户进行拆违、治乱、建新、造景，根据各户庭院实际情况进行改造。现已拆除违章建筑50余处、破旧棚厦100余处、清除乱堆乱放杂物30余吨、新建标准化仓房30余间、新建庭院防腐木围栏1500延长米、硬化庭院2000平方米、改造原有铁栅栏1000延长米、迁移村屯内农户柴草垛356垛。每户庭院种植果树2-3棵，共计500余棵。', '开展“百村示范”创建以来，村班子认真学习浙江省的经验做法，党支部书记姜洪义到浙江省进行了实地考察学习，村班子先后到辽宁省桓仁县和梅河口市其他乡镇进行考察，进一步统一思想，明确思路，积存经验。', '行自上而下的组织发动，积极营造“百村示范，人人有责”的浓厚氛围。充分利用村组干部工作会议、村党员会议、村民代表大会等会议，向广大干部群众宣传“百村示范”的重要性，列举开展“百村示范”给每个村民带来的好处。先后发放倡议书500余份、悬挂横幅30余条，同时还利用村微信群、村广播等方式进行广泛宣传，号召全村积极行动起来，改造自家门庭庭院，共同创造优美舒适的人居环境，并将活动的有关文字及影像资料存档备案。', '机关干部及村干部包户，逐户进行拆违、治乱、建新、造景，根据各户庭院实际情况进行改造。现已拆除违章建筑50余处、破旧棚厦100余处、清除乱堆乱放杂物30余吨、新建标准化仓房30余间、新建庭院防腐木围栏1500延长米、硬化庭院2000平方米、改造原有铁栅栏1000延长米、迁移村屯内农户柴草垛356垛。每户庭院种植果树2-3棵，共计500余棵。', '现在的罗家村交通便利，山水宜人，风景秀丽，气候适宜，远离城市和工业污染，为人们回归自然、避暑养生、休闲度假提供了理想场所。罗家村民曾这样说过：“只有住在罗家村，才能真正享受到村屯环境变化带来的快乐感和幸福感，才能真正享受到美丽乡村建设带来的发展红利。下步，罗家村将以本次推进会议为有利契机，在上级部门的正确领导下，在全体村民的共同努力下，不忘初心，牢记使命，奋勇前行，向更强、更高、更远的目标迈进。', '所。罗家村民曾这样说过：“只有住在罗家村，才能真正享受到村屯环境变化带来的快乐感和幸福感，才能真正享受到美丽乡村建设带来的发展红利', '下步，罗家村将以本次推进会议为有利契机，在上级部门的正确领导下，在全体村民的共同努力下，不忘初心，牢记使命，奋勇前行，向更强、更高、更远的目标迈进。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>52</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>长岭县考察团来梅考察城市规划等工作</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/201706/t20170606_8342014.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['考察团先后来到了现代服务业示范区，康美梅河口医疗健康中心，曙光镇曙光村，李炉乡蓄水工程项目，城市规划展览馆，水郡华庭小区，辉发河湿地公园，商业步行街、站前路街路改造，北部新城棚户区等地进行考察学习，听取了现场负责人的汇报，加深了对我市的了解。', '近几年来，我市在城市规划及新农村建设方面取得了很大的成绩，投资近3亿元打造的长白山植物园及辉发河景观带已成为我市新的城市标志符号和发展名片。考察团对我市的城市规划及新农村建设表示了赞赏。', '下午，考察团在市政府三楼常务会议室召开座谈交流会。考察团成员和我市相关部门领导进行了学习交流，认为我市的城市规划及新农村建设的理念值得他们认真借鉴和学习，并表示，将把这里的城市建设理念带回长岭县，并落实到实际工作中去。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>52</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>梅河口与丽水市签署对口合作框架协议</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201804/t20180427_8339979.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['王爱明书记一行来到了丽水市城市规划馆。一座城市的外貌、骨架、姿态、内涵，都可以在规划馆一一体现。通过规划馆的参观，考察团一行对丽水的城市发展建设理念有了深入了解，更能体味丽水独有的城市韵味和风情，大家纷纷对丽水市的城市发展赞不绝口。在参观考察学习后，考察团一行返回丽水市，召开了丽水—梅河口对口合作对接座谈会。', '通化市委常委、我市市委书记王爱明，市委副书记叶祖平，市委常委、组织部部长孙维良，市委常委、副市长戴存鹤，市政协副主席、财政局局长王春生，市发展改革局局长孙士岩；丽水市委副书记、市长吴晓东，副市长林康，市政府秘书长李志伟，市政府副秘书长王学伟，丽水市市委组织部副部长、市委两新工委书记陈科强，市财政局局长张少荣，市对口支援办专职副主任董王军参加座谈会。', '会上，丽水市市长吴晓东代表丽水市委、市政府向梅河口市党政代表团的到来表示热烈欢迎，简要介绍了丽水市的经济社会发展情况，对两地对口合作进行了展望。', '王爱明代表梅河口市委、市政府对梅河口市经济社会发展情况进行了简要介绍。并表示，梅河口与丽水两市理念相近、路径相似、目标相同，彼此借鉴，协同发展，是两地对口合作的题中应有之义。两地在食品加工产业上有广阔的合作空间，尤其是梅河大米进入浙江市场，也解决丽水耕地面积少，粮食供应不足的问题。在今后的合作中，梅河口将扩大干部挂职规模，让更多的干部到丽水市挂职锻炼，把丽水市的理念、精神学习过来，更好的推动两地互利共赢、共同发展。', '在会上，双方市委、市政府正式签署了《浙江省丽水市——吉林省梅河口市对口合作框架协议书》。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>52</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>湖北省畜牧兽医局考察团莅临我市考察免疫无口蹄疫区建设工作</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2018-04-26</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201804/t20180426_8360991.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['4月25日，由湖北省畜牧兽医局何年华副局长带队的考察团一行8人在吉林省畜牧局胡业平总兽医师、省无疫区办刘新宇陪同下，来梅河口市考察免疫无口蹄疫区建设工作。副市长霍光，农业局局长齐文科、副局长李晓刚以及市动物卫生监督所、市动物疫病预防控制中心领导全程陪同。', '在市宾馆会议室，霍光等领导与湖北省考察团领导亲切座谈。霍光向湖北省考察团领导详细介绍了梅河口市的基本情况以及市委、市政府对无疫区建设工作的支持力度；李晓刚对梅河口市近几年的无疫区建设工作开展情况进行汇报。湖北省考察团领导通过了解，对照本省实际情况，就相关环节进行交流和探讨，并对吉林省推出的“动监e通”移动执法终端相关功能进行了咨询和了解。', '会后，考察团一行首先到动物卫生监督所和动物疫病预防控制中心，参观了无疫区档案室、兽医实验室、重大动物疫情应急物资储备库、疫苗冷藏和冷冻库等。湖北省考察团领导对我市无疫区软件档案的组卷、归档和无疫区各项公示板给予高度评价，表示值得借鉴和学习。考察团一行随后又到我市的定点屠宰企业——东北福食品有限责任公司现场察看生产车间的设施、设备和各项相关工作记录，了解我市对生猪屠宰环节进行监管的具体措施。', '会后，考察团一行首先到动物卫生监督所和动物疫病预防控制中心，参观了无疫区档案室、兽医实验室、重大动物疫情应急物资储备库、疫苗冷藏和冷冻库等。湖北省考察团领导对我市无疫区软件档案的组卷、归档和无疫区各项公示板', '考察团一行随后又到我市的定点屠宰企业——东北福食品有限责任公司现场察看生产车间的设施、设备和各项相关工作记录，了解我市对生猪屠宰环节进行监管的具体措施。', '通过考察，湖北省考察团领导对我市的无疫区建设工作在各环节取得的成果给予了深刻的肯定，对湖北省今后畜牧兽医工作发展方向引发诸多思考，考察工作圆满完成。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>52</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>市工信局七个一助力扫黑除恶工作</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2019-03-28</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201903/t20190328_8361939.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['市工信局认真贯彻市迎接中央扫黑除恶专项斗争督导暨省委调研指导反馈问题整改工作部署会议精神，精心谋划、主动作为，组织实施“七个一”活动，召开一次推进会议。3月21日，召开工信系统扫黑除恶专项斗争推进会，传达了市迎接中央扫黑除恶专项斗争督导暨省委调研指导反馈问题整改工作部署会议精神，进一步明确目标任务，对下一步扫黑除恶工作做出重点安排部署，会上，各科室负责人汇报了扫黑除恶开展情况。', '开展一次集中宣传。全面开展一次扫黑除恶宣传活动，工信局全体干部职工深入企业，为员工讲解扫黑除恶的意义、常见的涉黑行为、举报方式等，通过悬挂横幅、发放宣传手册等方式开展有针对性的集中宣传扫黑除恶专项斗争工作，提高企业员工对扫黑除恶项专斗争的知晓率和参与度。', '开展一次集中学习。工信局局党组成员带头开展学习，全体机关干部进行集中学习，重点学习了中共中央国务院《关于开展扫黑除恶专项斗争的通知》和扫黑除恶专项斗争应知应会知识。通过学习，广大干部的理论素质有了进一步的提升，抵制黑恶势力的自觉性、与黑恶势力做斗争的意识有了更大程度的增强。', '开展一次知识测试。针对扫黑除恶工作，工信局对全机关干部进行了一次知识测试，考试内容为“扫黑除恶专项斗争应知应会”知识。通过知识测验检验了机关干部对扫黑除恶专项斗争相关知识掌握程度，正确率达100%，全体干部均能熟练掌握相关的政策。', '开展一次集中摸排。为加大涉黑涉恶线索的排查力度，局班子成员带队深入工业企业召开座谈会、一对一询问，对扫黑除恶情况进行重点摸排，在局机关、各个企业醒目位置设置举报箱，大力宣传举报奖励制度，鼓励职工们积极举报涉黑涉恶线索，参与到扫黑除恶工作当中。', '开展一次调查研究。局长带领相关科室负责人深入重点企业开展扫黑除恶专项斗争调查研究，以不记名的形式对企业各级职工开展了扫黑除恶专项斗争问卷调查。内容主要为扫黑除恶工作的知晓率、满意度、对开展扫黑除恶工作意见建议等。通过问卷调查，工信局对扫黑除恶工作的落实程度和支持程度有了比较全面的了解，针对调研结果形成了调查报告和整改措施，为下步开展扫黑除恶工作打下了良好的基础。', '开展一次学习考察。为确保扫黑除恶专项斗争工作取得实效，工信局积极向公安局扫黑除恶办公室学习经验做法，就宣传氛围营造、发动广大群众、文件资料归档与公安机关进行了深入交流。同时，工信局将学习到的经验加以消化吸收，结合本部门工作实际充分运用，对工作资料进行了一次重新规范整理，确保各项工作有据可查。', '通过开展扫黑除恶“七个一”活动，市工信局的扫黑除恶工作效率得到了有效提升，宣传氛围得到了进一步升华，广大干部群众的参与度和满意度得到了进一步加强。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>52</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>集安市加大孵化器建设的亮点做法</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2019-05-31</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/dtyw/201905/t20190531_352826.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['近年来，集安市紧盯新经济、新业态、新产业，以创新创业孵化器为重要平台，强化党建对经济工作的引领和支撑作用，以“五转”助推民营经济高效发展。', '一、党建“供能”，打造孵化器运行动力源。按照属地管理和行业管理原则，建立党员领导干部直接联系孵化器制度、将孵化器非公党建工作纳入考评范畴，进一步加强政治引领；充分调动成员单位发挥作用，定期组织召开帮扶联席协调会，听取孵化器企业家、经营管理团队意见建议，有针对性的制定出台措施办法，集中优势资源扶持孵化器企业科学发展；对孵化器中党建工作成效突出、社会效益显著的企业，同等条件下，在申请项目建设、资金信贷、能源利用、规划用地、技术改造等方面予以优先审批，对业绩能力突出的非公企业党务工作者或出资人优先推荐为“两代表一委员”人选，并优先选派赴经济发达地区学习考察和教育培训，充分发挥了党建对孵化器企业发展的政治核心和政治引领作用。', '二、政策“铸箱”，打造孵化器运行保护壳。研究制定《关于进一步加快民营经济发展的实施意见》，实行“一线工作法”和“五个一”工作制度，及时帮助企业解决生产经营、项目建设等实际问题30余个，争取技术改造、节能减排等专项资金860余万元；协调成员单位编制《助推非公企业和社会组织发展优惠措施汇编》，会同工商联制定《关于在工商联及所属商协会中建立民商事纠纷人民调解委员会的实施意见》，成立调解委员会3个，建立了联席会议制度、工作例会制度及法律援助应急预案，目前三个商会调委会进行排查走访18次，发放服务企业便民手册100余份；制定《企业引才指导目录》，在政策层面为全面加强企业科技人才队伍建设打下了坚实的基础。', '三、资金“保温”，打造孵化器运行调节器。投资800余万元，新建集创客空间、企业科研孵化基地、大学生创业基地等于一体的集安市创新创业孵化基地，孵化基地共两层，总面积1080平方米，采取开放式、简约式布局，每层设有5个办公区域、24个办公工位，基地坚持“企业创新、政府买单、企业发展、政府护航”的原则，为企业和个人配备办公桌椅、电脑、打印机等办公设备，并免除场地费、采暖费、水电费、物业费、宽带费等一切费用。由涉企部门组建的科技、金融、财税等五大发展服务团，目前已帮助6家入孵企业申报科技项目3项，为大项目审查合同10次，代理诉讼5件，挽回经济损失100余万元；帮助企业解决生产经营、项目建设等实际问题30余个，争取技术改造、节能减排等专项资金860余万元，为全市企业发展提供了资金支持和保障。', '四、人才“通风”，打造孵化器运行氧气机。以激发企业创新内生动力为目标，依托全市人才领导小组成员单位，选派有经济工作经验的专兼职党建工作指导员重点跟进帮扶，积极帮助企业引进高端人才，建强人才队伍。目前，深入企业调研30余次，征求企业人才需求意见40余条，全职引进博士生2人，柔性引进博士生15人，全职引进硕士生7人，引进返乡创业大学生22名，为13名创业大学生发放小额担保贷款216万元，并抓住通化市“千名学子归巢计划”的有利契机，引进创新创业类人才7名，全面加强企业科技人才队伍建设，进一步提升了企业科技研发能力。', '孵化器成立以来，为助推“五转”提供了保障，我市民营经济取得了长足的发展，截止去年年底，全市新增个体工商户2353户；新增企业592户；服务业、资质等级建筑业和房地产开发业企业入规分别为4户和5户，3户工业企业正在办理入规手续，博祥药业完成上市前股权确认和尽职调查，现已进入内审阶段，限额以上批零住餐企业年度培育7户，中心入孵企业合信商贸去年仅双11一天销售额就达50余万元。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>52</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>柳河县返乡创业人才马洪财</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2017-11-03</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://rsj.tonghua.gov.cn/rcfw/yxrc/201711/t20171103_173073.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['柳河县凉水镇凉西村位于一直以农业为主导产业，农民经济收入单一，全村第二、三产业发展缓慢,属于建档立卡贫困村。', '2000年-2009年，马洪财只身一人走出大山深处的村庄，先后到集安、辽宁等地打工学习，工作中他吃苦耐劳，有事业心，能力也在不断的提高，凭着自己的一股钻劲，总结出一整套技术、管理、销售的技巧，积累了丰富的经验,工资也相应地涨了起来。“一人富不算富，回乡创业大家富”，意识到这一点，马洪财毅然辞职回家，为带领百姓致富、发展壮大村集体经济而继续努力。为了探索村集体经济发展的新路子，减少盲目投资风险，他带领人员多次到吉林、辽宁等地考察、学习经验。经过考查，他确认食用菌种植适合在凉西村发展。凉水镇地处林区，枝桠材等培菌原材料十分丰富、廉价，交通便利，利于产品销售运输，劳动力资源丰富，有多年食用菌种植的历史，具有一批经验丰富的食用菌种植技术人员，具有发展食用菌的各项基础条件。经过综合考虑上述优势，在村“两委”研究后，确定在凉西村发展食用菌种植项目。通过村干部带头，把以前小规模种植户团结起来，于2012年11月9日注册成立了柳河县凉水镇聚源食用菌种植专业合作社，合作社成员56人，主要从事食用菌、山野菜的种植、加工与销售。', '2000年-2009年，马洪财只身一人走出大山深处的村庄，先后到集安、辽宁等地打工学习，工作中他吃苦耐劳，', '有事业心，能力也在不断的提高，凭着自己的一股钻劲，总结出一整套技术、管理、销售的技巧，积累了丰富的经验,工资也相应地涨了起来。“一人富不算富，', '为带领百姓致富、发展壮大村集体经济而继续努力。为了探索村集体经济发展的新路子，减少盲目投资风险，他带领人员多次到吉林、辽宁等地考察、学习经验。经过考查，他确认食用菌种植适合在凉西村发展。凉水镇地处林区，枝桠材等培菌原材料十分丰富、廉价，交通便利，利于产品销售运输，劳动力资源丰富，有多年食用菌种植的历史，具有一批经验丰富的食用菌种植技术人员，具有发展食用菌的各项基础条件。经过综合考虑上述优势，在村“两委”研究后，确定在凉西村发展食用菌种植项目。通过村干部带头，把以前小规模种植户团结起来，于2012年11月9日注册成立了柳河县凉水镇聚源食用菌种植专业合作社，合作社成员56人，主要从事食用菌、山野菜的种植、加工与销售。', '项目确定后，马洪财带领村干部对原村砖厂附近村集体土地进行了调查摸底，通过积极与农户沟通，收回了原废弃专场集体土地60亩，为基地建设提供了场地保障。在合作社建设过程中，他又积极与上级部门进行沟通联系争取帮扶，项目建设得到了组织部、县发改局、财政局的大力支持。近年来，村里共向上争取资金322万元，其中争取省财政连片扶贫资金100万元、财政部门项目资金180万元、新型村集体经济发展项目省级扶持资金20万元、中央财政补助资金22万元。这些资金使合作社发展步入了快车道，2012年食用菌种植基地正式开始建设，至2014年完成了基础设施建设，共建各种厂房3000平方米，厂区硬化2000平方米，围墙280米，围栏1500延长米，水泥路200米，食用菌生产棚60栋，安装各种机械设备30多台套。', '为了打消群众的顾虑，保证食用菌种植尽快投产达效，合作社积极邀请专家进行技术指导。2013年邀请中国食用菌协会杨春华教授、黑龙江省食用菌研究中心张丕奇教授、吉林省农科院李晓博士到合作社进行技术指导。2014年中国工程院李玉院士、吉林省食用菌协会彭志国会长亲自到合作社对食用菌种植进行调研、指导。在专家的指导下合作社不断改进生产技术、提高产品质量，改变了过去地栽木耳生产形势，2014年大面积实行立体化栽培，通过技术革新，不仅节省了土地，产品质量也得到了明显提高，经济效益得到大幅提升，食用菌种植也得到越来越多百姓的认可。为了不断提高合作社产业发展水平，马洪财又多次带领合作社技术人员到种植技术更成熟的河北省平泉县、辽宁省抚顺市、吉林市丰满区等地进行考察学习，把先进的技术在合作社进行应用和推广。通过多年建设发展和技术攻关，现合作社已形成制菌、培菌、生产加工、包装、销售一条龙作业，并完成了产品商标注册、QS食品认证、绿色食品认证，食用菌基地已形成标准化生产园区规模。', '为了带动更多百姓增收致富，合作社采取“村集体+合作社+农户”经营模式，并在合作社建立了党支部。在党支部的领导下，村集体投入土地、争取项目资金；合作社统一采购生产资料、统一技术管理、统一生产菌袋、统一培养菌；农户与合作社签订生产订单，拿回标准合格菌袋放心生产。随着合作社规模和影响力的不断扩大，百姓认可度也越来越高。圣水镇、亨通镇部分合作社农户也与合作社达成了联营生产协议，带动了其他乡镇的农户。2016年脱贫攻坚工作开展以来，合作社继续扩大标准化园区生产规模，每年生产食用菌60万袋，建木耳吊袋大棚30栋，产值达150多万元，村集体增收20万元。2016年，吸收本村和周边乡镇村屯120多户贫困户参与到食用菌种植行业，实现增收脱贫。今年，合作社共发展食用菌60万棒，带动凉水镇及周边 个乡镇的农户参与到食用菌种植产业中来，其中，带动贫困户30户，户均增收达到1500元。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>52</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>我市召开金融窗口单位创建文明城市示范点位观摩现场会</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2017-07-27</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/zwhd/201707/t20170727_8342051.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['在工商银行营业部，人民银行及10家商业银行的负责人和创城工作人员听取了工商银行创城工作介绍，并参观了营业部。', '工商银行先后投入50余万元，按照创城工作要求，对所辖七个营业网点进行局部装修改造，统一制作各种创城展板、标识40余块，为所辖七个网点统一铺设了残障通道以及其他硬件设施，在醒目的位置张贴了社会主义核心价值观的内容，设立了宣传板、志愿服务站、便民服务站、爱心驿站等公共设施。他们还积极全力做好对无物业包保小区的环境整治工作，积极开展亮化、美化、绿化工程：安装了200余盏声控灯，种植花卉260余平方米，更换楼宇门10扇，并为老旧楼宇门喷漆和维修，清理各种垃圾70余车，制作小区各种宣传板70余块。', '余万元，按照创城工作要求，对所辖七个营业网点进行局部装修改造，统一制作各种创城展板、标识', '余块，为所辖七个网点统一铺设了残障通道以及其他硬件设施，在醒目的位置张贴了社会主义核心价值观的内容，设立了宣传板、志愿服务站、便民服务站、爱心驿站等公共设施。他们还积极全力做好对无物业包保小区的环境整治工作，积极开展亮化、美化、绿化工程：安装了', '在工商银行会议室，我市召开座谈会。座谈会上，有关部门汇报了赴盘锦考察学习情况，并对创城工作提出了意见和建议。创城办、督导组结合创城工作情况，按照窗口单位创城点位最新标准，对当前存在的问题、整改方向提出了要求。', '于艳玲在讲话中强调创城工作各部门领导要高度重视、高位推动；要抓核心工作，硬件软件一起抓；创城要形成常态化机制，每名员工都要积极主动参与创城；要规范操作，培训所有员工的业务能力，整体提升金融服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>52</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>市司法局赴长春市考察交流司法行政工作</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2018-11-19</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/bmdt/201811/t20181119_8361647.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['为进一步规范司法行政工作，学习长春市公共法律服务建设的先进经验和做法，全面提升我市司法行政工作水平，11月15日，市司法局局长张宝华等局班子成员带领相关业务科室、10名乡镇（街）司法所所长一行19人赴长春市参观考察交流司法行政工作，长春市司法局副局长王承伟、基层处副处长何涛等领导全程陪同。', '为进一步规范司法行政工作，学习长春市公共法律服务建设的先进经验和做法，全面提升我市司法行政工作水平，', '月15日，市司法局局长张宝华等局班子成员带领相关业务科室、10名乡镇（街）司法所所长一行19人赴长春市参观考察交流司法行政工作，长春市司法局副局长王承伟、基层处副处长何涛等领导全程陪同。', '考察组一行在参观长春市南湖街道二二八社区公共法律服务工作室时，听取工作人员关于社区公共法律服务工作室的机构组建、工作流程、人民调解委员会专家库组成及作用发挥等的介绍，二二八社区的网格化法律服务引起大家的兴趣和积极交流。在参观南关区司法局富裕街道司法所时，富裕街道配套健全的公共法律服务站、法治氛围浓厚的走廊文化给每位参观者留下较深印象。二道区法律援助中心的建设及二道区司法局指挥中心与所辖司法所互联互通的演示让考察组耳目一新。在参观长春市司法局时，听取关于运用大数据的公共法律服务平台——12348长春法律服务网（智慧长春法律服务平台）的建设，长春市司法局运用“互联网+法律服务”的新媒体法律服务让群众感受便捷精准、清晰全面的服务体验，让大家深感震撼。在参观绿园区司法局西新司法所时，负责人介绍了西新公共法律服务站和西新镇社区戒毒（康复）工作站的服务理念和基础设施，对参观的各司法所长有较大触动。考察参观中，各业务科和司法所长与负责同志不断咨询交流，学习各单位先进经验和好的做法。', '张宝华认为，长春市司法行政工作的先进理念和工作亮点值得我们认真学习和借鉴，在公共法律服务平台、司法局指挥中心、基层司法所等建设布局设计便民、设备配置科学合理，尤其是运用大数据平台的法律服务这一举措值得借鉴推广。', '在公共法律服务平台、司法局指挥中心、基层司法所等建设布局设计便民、设备配置科学合理，尤其是运用大数据平台的法律服务这一举措值得借鉴推广。', '“走出去，引进来；学先进，补短板。”此次考察学习时间虽短，但考察组成员纷纷表示，要将先进理念和经验与我市实际相结合，取长补短，不断完善，主动适应司法行政工作发展新要求，主动服务于法治梅河口建设大局。', '“走出去，引进来；学先进，补短板。”此次考察学习时间虽短，但考察组成员纷纷表示，要将先进理念和经验与我市实际相结合，取长补短，不断完善，']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>52</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>山城镇召开解放思想大讨论专题研讨会</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2018-11-19</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201811/t20181119_8353550.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['按照市委《关于开展解放思想推动梅河口高质量发展大讨论活动的方案》要求，11月16日，山城镇组织召开以“扩权强镇，振兴发展”为主题的学习研讨会。镇党委班子成员、机关全体干部、站办所负责人共40余人参加会议。党委书记关学义同志主持会议。', '会议主要有三项议程：一是传达市委解放思想大讨论学习研讨会精神；二是领导班子成员以“扩权强镇，振兴发展”为主题，结合各自分管工作进行发言；三是关学义就全镇开展“扩权强镇，振兴发展”解放思想大讨论活动提出要求。会上，班子成员结合各自分管工作，就如何进一步解放思想，提升推动高质量发展的能力，促进各项工作落实，依次进行了交流发言。', '会议主要有三项议程：一是传达市委解放思想大讨论学习研讨会精神；二是领导班子成员以“扩权强镇，振兴发展”为主题，结合各自分管工作进行发言；三是关学义就全镇开展“扩权强镇，振兴发展”解放思想大讨论活动提出要求。', '会上，班子成员结合各自分管工作，就如何进一步解放思想，提升推动高质量发展的能力，促进各项工作落实，依次进行了交流发言。', '关学义同志就全镇党员干部解放思想，更新观念，开展“扩权强镇，振兴发展”解放思想大讨论活动，讲了三点意见。', '一是解放思想必须立足新时代、践行新思想，以站位全局的高度推进思想解放，增添开拓奋进的精气神。深刻领会、学习贯彻习近平总书记对东北振兴、吉林发展重要讲话和重要指示精神，认真落实市委部署要求，迅速推进思想大讨论活动。', '一是解放思想必须立足新时代、践行新思想，以站位全局的高度推进思想解放，增添开拓奋进的精气神。', '深刻领会、学习贯彻习近平总书记对东北振兴、吉林发展重要讲话和重要指示精神，认真落实市委部署要求，迅速推进思想大讨论活动。', '二是解放思想必须人人参与、营造氛围，让党员干部敢于实践、大胆探索，当好新时代的答卷人。', '在解放思想大讨论中，没有局外人和旁观者。各单位要认真抓好“三学”，广泛开展“三讲”。', '认真抓好“三学”。一要学习贯彻习近平总书记对东北振兴、吉林发展重要讲话和重要指示精神；二要学习省委十一届四次全会精神；三要学习市委书记王爱明同志在第十九次常委（扩大）会议上的部署和10月31日在市委理论学习中心组集体（扩大）会议上的讲话精神。', '广泛开展“三讲”。一要搞好主体讲话。结合部门职能，明确讨论课题，以部门为单位，组织职工召开解放思想大讨论专题会议。二要搞好分散宣讲。发挥领导干部领学促学作用，班子成员要带头深入各自包片村、分管站所开展解放思想大讨论活动宣讲活动。三要搞好专题讲座。邀请对口专家就乡村振兴、农业产业化发展等方面开展专题讲座，促进党员干部思想提升；组织党员干部走出去学习考察，对标先进地区查找差距不足；组织村干部进行集中轮训，通过思想大解放促进素质大提升。', '三是解放思想必须发挥优势、突出特色，以更宽广的视野登高望远，以更开放的胸襟反躬自省，注入干事创业的新动能。', '第一，把扩权强镇作为有利时机，推动经济发达镇全面发展。抓住国家推进经济发达镇行政体制改革的有利契机，理顺现有机构编制，激发创业热情和活力。抓住全市扩权强镇的有利契机，综合运用省级试点镇与示范镇优惠政策，加快城镇基础设施建设。要抓住国家推进特色小镇建设的有利契机，立足商贸、绿色、民族三个特色，建设宜居宜商小城镇。', '第二，把人居环境改善作为首要任务，打好乡村振兴第一场硬仗。一要加快推进垃圾收集管理。二要加快推进“美丽庭院、干净人家”创建。三要加快推进精品村屯建设。四要加快推进生态文明建设。', '第二，把人居环境改善作为首要任务，打好乡村振兴第一场硬仗。一要加快推进垃圾收集管理。二要加快推进', '第三，把项目建设作为重中之重，坚定走好产业振兴之路。一要在招商引资新上项目上持续发力。二要在壮大财源增强实力上持续发力。三要在通盘推进镇区改造上持续发力。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>52</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>市绿化管理处绿化工程抓得实</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2017-12-28</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/lsth/201712/t20171228_187338.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['近日，在实验中学门前的安健路上，风镐、铲车等机械轰鸣，市城建局绿化管理处的干部职工正在紧张地进行树坑挖掘作业。从12月15开始绿化树木新植补植树坑施工以来，市绿化管理处先后对安健路、建设大街、滨江东路（城管支队——血站）、滨江西路（玉皇山大桥——江北大桥）4条街路种植树坑进行了挖掘施工，本月末能完成全部工程的树坑挖掘工作。2018年1月初开始进行行道树栽植工程，预计栽植垂柳520余株，回填土方1800立方米，投资220万元，2018年元月底完成栽植工程。', '为夯实我市创建国家园林城市工作，市绿化管理处坚持咬定质量不放松、严格标准不走样、创建指标是根本的原则，以精益求精打造绿化精品，着力做好水边、路边、山边的绿化美化的整体建设为目标，根据市树市花和地域特色并考察学习借鉴先进城市的设计理念，引“大树进城”，不断改善市区生态环境和人居环境质量，营造“城在林中、林在城中、房在园中、人在景中”的新型绿色生态园林城市。 施工中，市绿化管理处本着“抢前抓早、确保成活”的思路，严格执行施工现场工程技术操作规范，科学管理，狠抓质量，重点对建设大街、滨江东西路、安健路等主要街路的树木进行新植、补植工程，对部分行道树的土壤进行更换，合理配比，以增加土壤的营养、透气和透水性等，让绿化工程早落地、早开工、早见效。', '施工中，市绿化管理处本着“抢前抓早、确保成活”的思路，严格执行施工现场工程技术操作规范，科学管理，狠抓质量，重点对建设大街、滨江东西路、安健路等主要街路的树木进行新植、补植工程，对部分行道树的土壤进行更换，合理配比，以增加土壤的营养、透气和透水性等，让绿化工程早落地、早开工、早见效。', '市绿化管理处绿化科的工作人员介绍，冬季是树木休眠期，树干、枝条和冬芽里储存着大量养分，为来年生根发芽做足了储备，此时进行冬植，能有效提高树木的成活率。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>52</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>二道江区优秀拔尖人才评选实施办法试行</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2017-12-26</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://rsj.tonghua.gov.cn/rcfw/xqrc/edj/201712/t20171226_186608.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['为建设一支适应转型发展需要的高层次人才队伍，努力营造人才脱颖而出的良好社会环境，集聚人才发展优势，根据《二道江区关于深化人才改革推进绿色转型发展的若干意见》,特制定本办法。', '每年重点评选出5名杰出企业家、2个重大科技项目研发人才团队、10名“二道江工匠”、10名优秀农村返乡创业人才，着力打造一支具有经营管理能力、强烈社会责任、领军创新创业的优秀人才队伍。', '1.每年组织开展“杰出企业家”评选活动。对入选的优秀民营企业家一次性给予10万元奖励，由区人才专项资金承担（获市级同类荣誉不重复奖励）。', '2.加强企业家协会建设。组织企业家开展多种形式的交流考察活动，支持鼓励企业家创新创业，着力构建“亲”“清”新型政商关系。', '3.每年组织杰出企业家开展经贸交流考察、红色教育学习实践等活动，不断拓展企业家视野，激发和释放企业家创新创业活力。', '4.优先支持杰出企业家所在企业建立院士专家工作站、博士后科研工作站、企业技术（工程）中心等科研创新平台建设，对企业引进人才在政策、资金等方面予以政策倾斜。', '5.对杰出企业家遇到的重大舆论、知识产权、安全、环保等危急情况，依法予以协调帮助；对损害企业利益的违规违纪行为，严肃追究问责，维护企业家财产权和合法经营权。', '6.挖掘培养新生代企业家，将综合素质好、决策能力强、业绩突出、发展潜力大的经营管理人才列入培养计划，实行动态关注、重点培养，形成杰出企业家队伍的“梯队”结构。', '7.每年组织杰出企业家进行体检，积极帮助解决家属就业、子女就学等问题，在跨国经贸、学习考察等方面提供高效便捷服务。', '1.每年开展重大科技项目研发人才团队评选活动。入选的人才团队承担的科技项目一般需进入中试阶段，对于具有明显优势和发展前景的项目成果标准可适当放宽。入选重大科技项目研发人才团队，一次性给予10万元资助资金，由区人才专项资金承担（入选市级同类荣誉不重复奖励）。', '2.支持人才团队所在企业建立重点实验室、院士工作站等研发平台，参与高等院校、科研机构研发平台建设。', '3.支持人才团队所在企业建设人才引进平台，集聚域内外高端人才和创新团队。对于重大科技项目急需紧缺人才，区高层次创新创业人才引进计划予以重点倾斜。', '4.支持人才团队之间开展创新合作，积极创建产学研合作战略联盟，推动科技信息共享，促进科技成果有效转化。', '5.对在中国创新创业大赛总决赛中获奖的人才团队，区财政予以国家级50万元、省级30万元、市级10万元的资金奖励。具有国际或国内领先水平的创业项目，实行“一事一议”，给予特殊支持。', '6.人才团队中拥有发明专利或在科技成果转化中发挥重要作用的成员，同等条件下可优先推荐晋升职称。对近3年科技成果转化缴税5000万元以上的获评团队中的前3名主要完成人，可向上级人社部门申请直接认定相应系列级别职称。', '7.每年组织人才团队成员开展“高级研修班”等高端研修培训，持续提升专业素质和研发创新能力。人才团队成员参加全国统一考试并完成学业获得博士、硕士学位的，区人才专项资金一次性给予博士学位2万元、硕士学位1万元的助学补贴。', '8.积极协调省内外院士专家开展政策技术咨询、联合攻关等服务，针对人才团队创新需求，帮助解决科研难题。', '9.每年组织人才团队带头人进行体检，积极帮助解决家属就业、子女就学等问题，在跨国经贸、学习考察等方面提供高效便捷服务。', '1.每年组织开展“二道江工匠”评选活动，入选者授予“二道江工匠”荣誉称号并颁发荣誉证书，由区人才专项资金给予每人2万元资金奖励。', '2.支持二道江工匠申报国家和省“技能大奖”“技术能手”和政府特殊津贴，区财政对获评人员分别给予奖励,其中国家级荣誉每人奖励5000元，省级荣誉每人奖励3000元。', '5.对作出重大贡献的二道江工匠，优先推荐参加高级技师职业技能鉴定，并按相应比例破格晋升职业资格。', '6.给予二道江工匠职业能力培训补贴，区财政对参加同一职业（工种）、同一级别培训的，一次性给予高级技师培训补贴3000元，高级技师岗位技能提升培训补贴2000元。', '8.积极协调省内外院士专家开展政策技术咨询、联合攻关等服务，针对工匠技术创新需求，及时帮助解决技术创新难题。', '9.每年组织二道江工匠进行体检，积极帮助解决家属就业、子女就学等问题，在学习考察、高端研修等方面提供高效便捷服务。', '1.每年组织开展“优秀农村返乡创业人才”评选活动，入选者由区财政给予每人不高于100万元贷款额度的创业贷款贴息支持。', '2.支持优秀农村返乡创业人才担任“两代表一委员”，符合条件的优先推荐进入村班子或纳入村级后备人才队伍进行重点培养，在创业带富能力素质提升、承接新农村建设产业项目等方面予以重点倾斜和支持。', '3.对领办创办家庭（专业）农场、农业专业合作社、农村电商实体及其它各类小微企业的，一次性给予不低于10万元的创业贷款贴息支持，所需资金由区人才专项资金支出；对创办农副产品深加工、现代商贸物流、特色观光旅游等具有一定规模、经济效益好、发展潜力大、就业带动能力强的企业的，增加信贷及贴息支持力度。', '4.对返乡创业的高校毕业生，免收管理类、登记类和证照类等行政事业性收费。符合规定自主创业的高校毕业生，3年内给予不低于10万元的小额担保贷款支持；对创业成效明显、可再享受2年创业信贷支持政策。返乡高校毕业生合伙创办、形成一定规模的经营主体，可根据实际需要由相关单位（部门）认定后提高贷款和贴息额度。', '5.每年组织省内院士专家及各类农业技术人员与优秀农村返乡创业人才开展项目对接活动，适时举办农村电子商务、企业经营管理等专题培训班，在生产技术、经营管理、市场信息及产学研合作等方面提供支持。', '6.优秀农村返乡创业人才领办创办经济实体、申报农业产业项目的，在生产补贴、土地流转等方面予以政策倾斜，在政策咨询、证照办理、检验检疫、商标注册等方面提供“一站式”服务。', '1.优秀拔尖人才评选活动在区人才工作领导小组领导下，由区人才办负责牵头抓总，相关部门具体组织实施，其中，经济局、开发区、统战部和总工会负责“杰出企业家”评选活动；科技局负责“重大项目研发人才团队”评选活动；人社局负责“二道江工匠”和“优秀农村返乡创业人才”评选活动，其他相关单位（部门）根据职能各司其责、密切配合。', '2.优秀拔尖人才所在单位及其主管部门应创造良好条件，帮助解决工作学习生活等方面遇到的实际问题，及时报告重大事项。', '3.健全完善党政领导干部联系服务各类优秀拔尖人才工作制度，与其“结对子”，加强思想政治引领，倾听意见建议，帮助解决困难问题。', '4.加大入选各类人才宣传力度，培养和选树一批优秀拔尖人才典型，大力弘扬服务家乡、富裕家乡、增收带富的创业精神，在全区营造尊才爱才重才的社会舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>52</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>吉林梅河口党建引领推动城市高质量发展</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2020-05-05</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/ztzl/zxzt/xxxsxjg/djdt1/202005/t20200518_8330508.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['梅河口市位于吉林省东南部，2013年被吉林省委、省政府确立为扩权强县改革试点。全国城市基层党建工作经验交流座谈会召开以来，梅河口市坚持以习近平新时代中国特色社会主义思想为指导，牢牢抓住创建城市基层党建示范市的有力契机，不断提升党建引领城市基层治理水平，为加快建设现代化区域中心城市、高质量发展先行示范区，绘就“水在城中、城在绿中、人在景中”的城市优美画卷，提供了坚强组织保障。', '近年来，梅河口市财政收入、工业经济、固定资产投资等主要经济指标保持10%速度增长。去年，梅河口市获得综合实力、投资潜力、营商环境、新型城镇化质量和绿色发展5个“全国百强县市”荣誉称号。这其中的秘诀，正是源于这些年党建工作与经济社会的深度融合、互促共进。', '当前，随着高质量发展先行示范区建设的不断推进，梅河口市城市规模不断扩大，建成区面积由原先的29平方公里拓展到50平方公里，城区常住人口由30万人扩充到40万人，所有制结构日趋多元、经济关系深入调整、社会群体结构和社会组织架构快速变化，这些都给城市治理发展带来了新问题新挑战，也给城市基层党建提出了新课题新要求。', '梅河口市始终坚持把抓党建作为第一责任，全面推行城市基层党建“书记一号工程”，并赴北京、上海等地学习考察，多次召开市委专题会议研究城市基层党建。经过深入调研和思考，市委先后出台《深化推进城市服务体系和治理能力现代化加快城市基层党建示范市建设的实施意见》《关于加强城市基层党建组织体系建设和深化街道赋权扩能的实施意见》等系列规范性文件，明确以高质量党建为城市高质量发展保驾护航的工作理念，确定“系统建设、整体推进、深度融合、全域提升”的工作思路，并提出一系列具体举措，确保把党建工作贯彻到城市改革发展稳定的全过程、各方面，推动党建优势转化为城市治理优势，党建动能转化为城市发展动能。', '加强城市基层党建，做强街道、做优社区是“先手棋”。针对街道责权不配套、社区工作力量薄弱等突出问题，市委坚持对症下药，从体制机制入手，推动力量下沉、权力下放、资源下倾，着力为街道社区党组织扩权赋能增效。', '街道层面，梅河口市重点抓好下放管理权限、重塑权责关系、拓展服务功能、加强工作保障4个方面12项改革内容。改革后，市直部门派驻的财政、林业、民政等10类站所划归街道属地管理，225项经济社会管理权限下沉到街道，16项便民服务事项下放到社区，赋予街道对职能部门派驻机构负责人的考核评价参与权、公共事务的综合管理权、对离退休党员和在职党员八小时之外的监督管理评议权和对驻区单位创先争优、文明单位创建的审核建议权等“五项权力”。同时，梅河口市为街道调配行政编制25个、事业编制210个，街道领导职数由5名增至7名，每个街道每年划拨200万元工作经费，优化升级服务阵地，让“简政放权”真正在街道落地生根。', '社区层面，梅河口市牢牢抓住社区工作者职业体系建设这个关键，有目标、有计划、有步骤地把“人才活水”注入城市基层党建“蓄水池”。几年来，市委先后选派45名乡科级领导干部和优秀年轻干部到社区挂职锻炼，经过岗位历练，17名被提拔任用。去年，全市公开招录100名社区工作者，全部为全日制本科以上学历，其中包括20名研究生。今年，梅河口市还将继续招聘社工岗220人，同时，在招录公务员、事业编制人员时，拿出一定比例定向招聘优秀社区工作者，社区工作含金量明显提高，吸引力大大增强。', '系统建设、整体建设是城市基层党建的核心要义。市委切实强化系统思维、开放意识，以“公转”带“自转”，打破条块分割、各自为战的困局，推进各领域党建融合发展，增强整体效应。', '盘活区域党建资源，探索形成共驻共建共享工作模式。梅河口市通过党员共管、资源共享、区域共治等机制推动各方面力量和资源向基层汇聚延伸。各街道党工委联合共建部门、驻区单位和非公企业、社会组织成立党建联盟，建立党建联席会议、“轮值主席”等制度，打造以街道党工委为核心，社区党组织为基础，联盟成员共同参与的互动互融、协同用力的区域化党建格局。目前，梅河口市已形成“社区共享家园”“家庭教育大讲堂”“声乐舞蹈教育进社区”等一系列服务品牌，帮助居民解决供热供水、楼顶维修、车辆停放等实际问题千余件，发挥出了区域共建的制度优势。', '突出政治引领功能，创新在职党员发挥作用有效途径。为进一步优化营商环境、提升服务质量，市委开展“守初心、强服务，担使命、解难题，在职党员回归社区”和“千名干部进千企”活动，双管齐下打通便企利民服务“最后一公里”。活动中，市级领导以上率下，累计走访企业841户，落实涉及融资、基础保障、项目审批等问题150件，解决实际困难、提振企业发展信心。全市5000余名在职党员“回归社区”，通过“居民点单、支部下单、党员接单”及“八小时之外”认领服务岗位、参加组织活动等方式，彰显党员干部的政治本色和过硬作风。', '城市工作的核心是人，发展和宜居必须齐头并进。市委坚持把服务群众、造福群众作为党建引领城市基层治理的出发点和落脚点，积极构建党组织统一领导、各类组织积极协同、群众广泛参与的基层治理体系，努力让居民群众在城市生活得更方便、更舒心、更美好。', '织密一张治理网。梅河口市各街道本着界定清晰、便于管理的原则，坚持网格设置与党组织建设同步推进，合理划分330个治理网格，实现城区基层党组织全覆盖、治理网格无死角。', '打造一批红色阵地服务群。梅河口市集中建设100个高标准网格党群服务站，充实1600人下沉服务站，把服务送到群众家门口，使党建更有民生温度，民生更有党建底色。', '推行一批红色物业。梅河口市结合全市老旧小区改造工程，对改造完并引进物业的小区推行“红色物业”管理模式，在组织部门统一指导下，强化街道社区党组织对物业企业的党建指导和联动服务，为居民提供更加便利化、低成本、高标准的物业服务。', '建立一支楼长队伍。全市细分为1080组“楼栋”，实现楼长全覆盖，落实每人每年5000元补贴待遇。通过打通服务体系、激活神经末梢，梅河口市推动形成社区“两委”成员分片包保，服务站站长全面管理，网格长具体负责，楼长、志愿者队员、社区党员协助的“三长一警多员”管理链条，真正实现城市党建服务体系和基层治理“一张网到底”。', '在这次抗击新冠肺炎疫情的大考中，梅河口市积极利用治理网络优势，充分发挥基层党组织的组织力、动员力、凝聚力，整合各方力量、各类资源，取得了明显的抗疫战果，提升了居民群众的获得感、幸福感，也增强了对城市的认同感、归属感。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>52</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>健全协作机制夯实对口合作基础</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-03-20</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zt/hzjl/201904/t20190417_348350.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['全省“抓环境、抓项目、抓落实”会议召开后，通化县迅速落实“三抓”会议精神，成立对外合作交流领导小组，巩固对口合作成果，拓展交流合作渠道，县主要领导带头走出去，赴发达地区谈合作、谈项目。并邀请对口合作单位浙江省临海市来通化县考察，就促进临海头门港、通化内陆港、辽宁丹东港“三港”合作事宜进行洽谈，将“三抓”和对外合作工作推向深入。在与浙江临海的对口合作中，县委县政府以通化市委提出的打造“吉林的台州”为发展目标，率先行动，擂响对口合作战鼓。全县100余名干部、企业代表、金融机构负责人分6批纵跨2000多公里奔赴临海市接受思想的洗礼。合作不仅是思想理念的更新，也是实战中的行动。随着合作的展开，对口对接全线拉开；经贸往来，全面启动；干部互派，踏上征程；各项工作取得显著成效。 新春伊始，县长孙继民亲自带队赴北京、西安等地，与国家发改委宏观院有关领导、专家、机构就乡村振兴战略和生物多样性保护项目规划发展与投融资等方面交流相关合作事宜，洽商通化果松太舞四季文化旅游度假区、通化县生物多样性项目和通用航空等建设项目，巩固对外合作成果，拓展交流合作渠道。在与浙江临海的对口合作工作中制定了新一年的具体实施方案。 临海市是浙江省台州市下辖三市三县三区的重要工业城市，为中国沿海首批开发城市之一，也是吉利汽车的发源地，2018年12月，入选全国县域经济综合竞争力100强、投资潜力100强。县委县政府高度重视与浙江临海的对口合作事宜，周密部署，精心安排，县领导们第一时间赴临海市，与当地领导共同研究对接合作事宜，率先签订对口合作协议，明确了4方面10项合作要点。成立通化县对口合作工作领导机构，进一步加强与临海市对口合作工作的组织领导。 2018年3月24日，县委组织部长先行带队到临海市就干部培训锻炼、基层组织建设、人才工作，主动与临海市委组织部进行对接；3月25日，县长孙继民带领考察团前往临海市开展考察对接，并签署了《通化县与临海市对口合作框架协议》，两地将协同推进科技金融、改革创新、干部人才交流等方面合作；5月31日，临海市组织部长带队到通化县考察调研，双方就进一步加强组织工作对口合作具体事宜进行了广泛的交流研讨； 9月12日，台州市委常委、临海市委书记蔡永波率党政代表团一行26人来通化县，就进一步加强对口合作进行考察。2019年2月至3月，县委常委、常务副县长、临海市副市长刘忠波带领临海头门港考察团，就促进临海头门港、吉林通化内陆港、辽宁丹东港“三港”合作事宜进行考察洽谈，并就“三港”实现首航，打通临海市、通化县两地产品直运通道达成实质性意向。在此期间，临海市科技局、供销社、浙江富云农业、台联九生猪养殖合作社和“省多网”电商平台，通化县委组织部、政法委、科技局、编办、“最多跑一次”改革推进办公室、通化宏信研磨材有限责任公司和西江米业等22个部门、8户企业的94名干部、企业家也相继开展了两地互访考察学习活动，为通化县与临海市经济交流合作、人文互动互访方面提供了坚实的平台。 截至目前，两地累计开展高层互访活动10次、部门交流活动21次，对口合作联络站相关选址工作已经完成，对口合作总体布局全面确立。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>52</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>我市召开第次市委常委会会议暨市委理论学习中心组集体扩大学习会议</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2020-11-27</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/202011/t20201127_8340755.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['我市召开第28次市委常委会会议暨市委理论学习中心组集体（扩大）学习会议-梅河口市人民政府', '11月25日，第28次市委常委会会议暨市委理论学习中心组集体（扩大）学习会议召开。', '市委书记王爱明主持会议。市委副书记、市长，市委副书记张成太等市委常委出席会议。市人大常委会主任刘怀玉，市政协主席张卫红等在梅市级领导列席会议。', '会上，王爱明传达了全省领导干部会议精神，市委常委、宣传部长汪晓梅领学了党的十九届五中全会精神和习近平总书记系列重要讲话精神，刘怀玉、张卫红、张成太以及相关市级领导，围绕学习贯彻落实十九届五中全会精神，紧密结合各自工作领域，就做好我市“十四五”规划进行交流发言，提出了很多有见地、可操作、具有前瞻性的意见建议。', '王爱明说，本次会议，是一次高质量、高水平的学习研讨会，通过各位市级领导的交流发言，反映出市级班子综合素质高，思考有深度，谋划有高度，措施有力度，具备研究问题、分析问题、解决问题的能力，达到了预期目的。', '王爱明强调，谋划“十四五”发展，必须全面总结“十三五”发展成果，分析研判梅河口经济社会发展所处的阶段性特征。回顾“十三五”以来的发展历程，梅河口走过了极不平凡的5年。5年来，我们坚持以习近平新时代中国特色社会主义思想为引领，自觉践行新发展理念，落实高质量发展要求，深入实施“三三四四五五”战略布局，实现了建成中等城市的奋斗目标，正向现代化区域中心城市迈进，圆满完成扩权强县改革试点任务，经济总量翻一番。一是基本形成现代产业体系。及时调整产业主攻方向，重点发展医药健康、食品加工、商贸物流、现代服务业“四大主导产业”，医药健康产业形成全产业链发展格局，食品加工产业形成品牌集聚效应，商贸物流产业形成新市场格局，现代服务业形成融合发展新业态。二是项目建设达到历史最好水平。坚持把招商引资和项目建设贯穿“十三五”发展始终，以有效投资稳企业、稳经济、稳增长。梅河口历史上首次打造了工业新城、现代服务业示范区、教育小镇、世基啤酒生态小镇4个百亿级项目。“十三五”时期，累计开工建设亿元以上项目243个，10亿元以上项目15个，累计完成固定资产投资860亿元，域外投资超过80%，达到历史最好水平。三是社会事业实现现代化。全面建成区域医疗、教育、文体“三个中心”。四是建成公园城市、花园城市、精致的客厅城市。坚持把生态宜居、产城融合理念贯穿城市建设管理全过程，城市管理水平进入全国先进行列。形成现代化城市格局，打造现代化城市生态环境，具备现代化城市功能。五是农业现代化取得可喜成效。深入推进农业农村“六大任务”，农村人居环境和乡镇财政实力显著提升，全省新农村建设暨乡村振兴战略推进现场会连续3年在我市召开。农村环境面貌变化巨大，现代农业生产体系初具规模。六是城市名片和影响力正在形成。梅河口在全省、东北乃至全国的知名度和影响力大幅提升，“十三五”期间，共有14个省、149个市县区、近万人次到我市考察学习。投资环境、营商环境越来越好。连续3年荣获全国营商环境百强县市称号，连续2年获评中国营商环境质量十佳县市。招商引资工作已经由广泛招商转入精准选商阶段。', '王爱明要求，谋划“十四五”发展，必须牢牢把握发展机遇，坚持用全面、辩证、长远的眼光分析当前经济形势，努力在危机中育新机、于变局中开新局。从国家层面看，战略机遇前所未有。面对世界和我国发展变化的新格局，立足习近平总书记到东北考察时强调的要重视国防安全、粮食安全、生态安全、能源安全、产业安全的指示精神，围绕我国高质量发展、建设现代化国家的“十四五”规划目标，我们必须找准与国家战略部署的契合点，准确把握新发展阶段，全面贯彻新发展理念，积极融入新发展格局。从我省层面看，政策机遇前所未有。梅河口市作为全省唯一的省辖县级城市、全省城镇化发展重要战略支点、全省产业空间布局的重要节点城市、全省重大基础设施建设布局的关键要冲，省委、省政府高度重视、全力支持梅河口发展。从我市层面看，发展机遇前所未有，形成了对建设现代化区域中心城市、高质量发展先行示范区具有决定性作用的10个方面比较优势。一是省委、省政府赋予建设高质量发展先行示范区的政治使命和政策优势。二是扩权强县改革取得的成果优势。三是“十三五”发展基础的优势。四是不断提升的区域中心城市优势。五是产业集群集聚发展的优势。六是现代化城市功能和空间优势。七是招商引资和项目建设积累的动能释放优势。八是对外影响力和美誉度的优势。九是全国领先、优质高效的营商环境优势。十是党员干部队伍和优秀人才的优势。以上10个方面优势，是我们谋划和推动“十四五”发展的基础，必须充分发挥这些比较优势，推动梅河口在新一轮发展中实现更大跨越。', '王爱明指出，在看到发展优势的同时，也要充分认识我们存在的短板。习近平总书记在东北考察时明确指出东北地区存在体制机制、经济结构、开放合作、思想观念4个方面短板。这些短板和问题在梅河口也不同程度的存在，具体体现在流通能力不强；经济总量不大，总体实力不强；产业支撑能力不强，规上企业数量不足；财政收支矛盾突出，政府保障压力较大；城乡发展不够均衡，农业产业层次不够高；创新能力不适应高质量发展要求，体制机制不够灵活；思想观念不够解放，干部整体素质和综合能力还需进一步提升；引才聚才力度不够，缺少高层次和专业性人才。短板就是潜力，差距就是空间，我们要紧盯这些短板弱项，推动梅河口实现快速发展。', '王爱明强调，谋划“十四五”发展，必须紧盯省委、省政府赋予的新定位，科学确定“十四五”时期及未来发展目标。总体上，要按照“一个目标”“三步走战略”实施。“一个目标”，就是建设“现代化区域中心城市、高质量发展先行示范区”。“三步走战略”，即“十四五”时期，经济总量翻一番，达到600亿元以上；财政收入翻一番，达到60亿元以上；城市建成区面积达到80平方公里，城区常住人口达到60万人，成为全省高质量发展的示范城市。通过两个五年规划，到2030年，实现“三个一百、三个一千”发展目标，城市建成区面积达到100平方公里，城市人口达到100万人，财政收入达到100亿元；地区生产总值达到1000亿元，规模以上工业产值达到1000亿元，服务辐射人口达到1000万人，成为吉林全面振兴、全方位振兴的重要引擎。2035年与国家同步，基本实现社会主义现代化。', '王爱明强调，谋划“十四五”发展，必须坚定不移实施“三三四四五五”战略布局，严格遵循“十四五”发展的原则要求，坚持一张蓝图绘到底，通过赋予“三三四四五五”战略布局新的内涵，确保新的“三三四四五五”战略布局入脑入心，坚定不移贯彻执行，指引梅河口在“十四五”时期实现新突破。', '王爱明要求，谋划“十四五”发展，必须紧盯建设高质量发展先行示范区目标任务，明确编制方向和重点。一要建设现代产业集聚中心。结合四大主导产业布局，重点发展医药健康、食品加工，培育发展装备制造业和建筑及其配套产业。二要建设商贸物流中心。发挥区位交通和商贸流通优势，进一步扩大专业批发市场规模，进一步扩大电商产业规模。三要建设医疗教育文体中心。引进一批全国知名专家和管理团队，在人才、管理和运营上下更大功夫，打造更高层次的现代化区域共享公共服务体系，增强区域核心竞争力。四要建设金融服务中心。围绕打造区域服务中心，深化与金融机构合作，规划建设金融一条街，实施金融体制改革，提高融资水平。五要推进生态文明建设。要有大生态观，以提高生态质量为核心，在生态文明建设上下工夫。六要推动农业现代化向纵深发展。持续抓环境整治，抓农业产业基地建设，围绕农业现代化，推动一二三产融合发展。七要加快重大基础设施建设。抓住国家大力支持实施新基建的机遇，加快实施一批“铁公基”工程，打造吉林省区域综合交通枢纽。八要狠抓招商引资和项目建设。通过项目支撑，推动规划落地。', '王爱明要求，全市上下要紧跟市委、市政府的步伐，增强紧迫感和责任感，发扬七种“梅河口精神”，倒排工期，扎实推进，确保圆满完成全年各项目标任务。一要深入学习宣传贯彻十九届五中全会精神，把学习宣传贯彻五中全会精神作为当前和今后一个时期最重要的政治任务，加强领导、精心组织、周密安排，全方位、多层次宣传解读，学深悟透弄懂做实，形成学习宣传贯彻全会精神的浓厚氛围，推动五中全会精神在梅河口落地生根、开花结果。二要做好市委全会和人大、政协“两会”的筹备工作。三要抓好经济运行。四要搞好财政决算，做到收支平衡。五要保重点项目进度。六要谋划好明年“三早”项目，把招商引资和项目建设工作牢牢抓在手上。七要做好各项民生工作。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>52</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>通化市志第四篇中国共产党地方组织第七章理论宣传第一节思想政治工作第二节干部理论学习</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-11-09</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/dfz/fztd/202204/t20220424_605928.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['企业思想政治工作 1986年3月,召开全市企业思想政治工作经验交流会,总结交流各地思想政治工作先进经验。1988年,按照《中共中央关于加强和改进企业思想政治工作的通知》,市委下发《加强和改进企业思想政治工作意见》并组织落实。1991年至1994年,在全市企业中开展“提高企业素质年”活动。召开经验交流会,总结推广16个典型单位的经验,系统研究新形势下企业思想政治工作的新途径。1998年,组织人员深入厂矿企业,开展思想动态和思想观念调研,形成调研报告8篇。编写《再就业宣讲提纲》,下发到再就业工作队和基层干部手中,促进再就业工程开展。2002年,以宣传典型和调查研究为重点,总结宣传政治工作、再就业、农民致富、科技创新等不同层面的典型单位和个人27个。开展社区文化、校园文化、企业文化的专题调研工作。', '2003年,深入民营企业开展调查研究,形成《关于通化市民营企业思想政治工作的调查报告》,制定《关于维护我市民营企业员工合法权益的意见》和《关于进一步在我市营造亲商、安商、富商的经济发展环境的意见》,企业形象宣传和企业文化建设逐步展开。2004年至2005年,对全市民营企业思想政治工作状况开展调查研究和理论研讨,总结推广部分企业文化建设的好做法、好经验。在全市开展“解放思想、二次创业”教育实践活动。培育创业文化,推进全民创业。开展“万名国企下岗员工进民企”活动,组织开展创业就业政策宣传、劳动用工对接、创业项目展示、“创业就业服务大篷车”、劳动用工信息发布等活动。在城市社区开展“争当创业先锋”活动。', '农村思想政治工作 1986年,全市开展理想纪律教育和坚持四项基本原则教育,提高农民群众的社会主义思想觉悟和道德水平。1989年,召开全市农村思想政治工作经验交流会,全市14个典型单位进行经验交流。1990年,在全市广大农民中开展大规模的社会主义思想教育,进行宣传党的十三届五中全会精神教育。1992年,在农村以贯彻党的十三届八中全会为主线,开展社会主义思想教育和党员先锋模范教育,引导农民大胆调整产业结构,发展多种经营,提高经济收入。2001年,在全市开展社区思想政治工作状况和农民思想状况调查活动。分别形成《关于社区思想政治工作现状和市民心态的调查报告》、《关于我市农民思想状况和心态的调查报告》。2005年,针对社会热点、难点和焦点问题,深入基层、深入群众了解农民的思想状况,形成《关于失地农民权益保障情况的调查》、《关于城乡劳动就业情况调查》等7个报告。', '形势任务教育 1986年,各基层单位采取报告会、演讲会、座谈会和组织参观等灵活多样的形式进行形势政策教育,组织各级领导干部到基层直接向群众宣讲,解决群众提出的问题。1988年,市委宣传部编写5万字的形势任务学习宣传材料,在葡萄酒公司召开形势任务教育对话会,加深对改革开放的认识。1989年,贯彻落实党的十三届三中全会精神,编写《形势教育宣讲材料》,开展形势任务教育。是年,召开全市形势任务教育经验交流会。1990年,树立稳定压倒一切的思想,确保稳定局面,促进治理整顿和深化改革,主要针对苏联和东欧形势变化带来部分干部群众对党的领导、对社会主义的困惑和疑虑,开展形势教育。主要领导做形势报告8场,听众4100人,全市宣传部门举办国际形势报告会195场,受教育人数381672人。针对全市工业企业不景气,281家停产半停产企业职工情绪波动大的实际,开展经济形势教育,先后开展“十年改革回顾”、“弘扬企业精神”等为主要内容的形势任务教育。1995年,全市贯彻落实党的“抓住机遇,深化改革,扩大开放,促进发展,保持稳定”基本方针。1999年,为帮助全市广大干部群众正确认识科索沃问题,认清以美国为首的北约袭击中国使馆,想把中国搞乱的险恶用心,组织“科索沃问题及对国际国内形势影响”形势报告会9场,使广大党员干部进一步增强全局意识、责任意识和忧患意识。2005年,重点围绕中日关系、联合国安理会改革等问题,及时准确地将中央的精神传达到广大干部群众中去。', '党政干部理论学习 1986年,全市党政领导干部理论学习以学习“七五”计划和党的十二届六中全会精神为主要内容,举办骨干培训班,组织全市党员干部认真学习“七五”时期基本任务和主要建设方针。1987年至1989年,学习宣传党的十二届六中全会通过的《中共中央关于社会主义精神文明建设指导方针的决定》、十三届四中、五中全会精神和江泽民国庆讲话,举办全市副县级以上干部轮训班10余期,轮训面80%以上。1990年,重点对全市各级领导干部学习哲学进行安排部署,代市委起草《全市各级干部学哲学的安排意见》,举办副县(局)级以上领导干部哲学轮训班7期,培训406名副县(局)级领导干部,汇集论文400余篇,培训各级学哲学骨干305人,全市共有54461名机关干部参加哲学学习,占干部总数的96.2%。1997年至1999年,为深切缅怀邓小平同志,组织全市广大党员干部收看大型电视文献记录片《邓小平》,使全市广大干部群众加深对邓小平伟大业绩、理论、风范的认识。围绕七一香港回归和十五大精神等内容,先后举办培训班5期,培训736人。', '2002年,在全市组织开展以解放思想、加快发展为主题的学习教育活动,重点学习江泽民“三个代表”(代表中国先进生产力的发展要求,代表中国先进文化的前进方向,代表中国最广大人民的根本利益)重要思想和七一讲话精神。党的十六大召开后,制定下发学习安排意见,组织各级领导干部集中学习党的十六大精神。2003年,根据中央和省委的要求,制定下发《中共通化市委关于在全市兴起学习贯彻“三个代表”重要思想新高潮的实施意见》,确保活动按计划、有步骤、分层次地开展。组织副县级以上领导干部利用双休日,聘请省内专家学者就法制建设、“三个代表”重要思想和高句丽史作集中辅导讲座,全市副县级以上领导干部2000余人次参加学习。2005年,围绕保持共产党员先进性教育及构建和谐社会理论等内容,召开市委理论中心组学习扩大会4次,双休日报告会4次,全市副县级以上领导干部参加学习共2000人次。', '一般党员理论学习 1986年,组织学习贯彻党的十二届六中全会决议精神,掌握各阶层对决议的学习情况和思想反映。1990年,在全市农村党员中开展以马克思主义理论教育、党的基本路线教育和基础知识教育为主要内容的“三个基本”教育,编写专题教育辅导材料,全市有21063名党员参加轮训,占总数的92%。2001年,江泽民七一讲话发表后,市委宣传部及时制定《关于全市学习江泽民同志“七一”重要讲话的安排意见》,编写18万字的《新时期党的建设伟大纲领宣传提纲》,成立市委宣讲团,分赴7个县(市、区)进行宣讲,解答党员干部在学习中遇到的疑点、难点问题,直接听众3000余人。2003年,组织各级理论工作者深入到机关、企业、社区、农村宣讲《新时期党的建设伟大纲领宣传提纲》500余场次,直接听众40000余人,举办培训班332期,培训党员干部43000余人。2005年,在全市农村组织开展党员冬训活动,采取集中培训、专题辅导、分组讨论、送科技下乡等形式,党员培训面90%以上。', '理论研究工作 1986年,会同市体改委、市社科联、市委党校召开“经济体制改革理论研讨会”,针对新时期思想政治工作、横向经济联合、农村庭院经济和全市经济体制改革的形势等问题进行探讨,共收集理论文章8篇。1992年5月,市委宣传部与市社科联共同召开由理论工作者和企业领导参加的企业改革理论研讨会,收到论文45篇,在《通化社科》杂志上刊发。是年10月,连续举办3期学习十四大精神基层理论骨干培训班,培训骨干404人。1993年,组织召开全市市场经济理论研讨会,从多个角度研究全市市场经济体制建立的理论问题和现实问题,收到论文83篇。是年,编写《通化市经济上新台阶知识问答》一书,供全市党员干部学习。1995年10月,围绕市委二届五次全会提出的奋斗目标,召开“全市上台阶奔小康振兴通化”经济研讨会,交流优秀论文31篇,总结推广五五二三厂学习与生产相结合的经验。2000年,按照市委的安排,在全市开展“解放思想、转变观念、真抓实干、加快发展”学习讨论活动。活动期间,先后组织召开各种座谈会、汇报会、通报会9场。组织企业主管局领导赴临江市考察学习国企改革脱困经验。2002年,组织开展“联系群众服务创新年”活动,实施六大主题系列活动,市、县、乡三级党政部门和国省属企业为群众办实事办好事6800余件,党群、干群关系进一步密切。结合活动的开展,组织理论工作者开展理论研究工作,共征集理论文章120余篇。2003年,按照全面建设小康社会总体要求,结合全市经济和社会发展实际,先后组织召开关于走新型工业化道路、实现县域经济突破、推进文化建设和创建学习型城市等4个理论研讨会,在调查研究的基础上,形成《关于推进我市全面建设小康社会进程的调查报告》。2005年,在全市开展建设和谐通化宣传和调研工作。围绕制约和影响和谐通化建设的主要问题,确定经济建设、投资环境建设等8个方面、30个课题,组织58个部门参与调研,形成《关于建设和谐通化状况的调查报告》,制定下发《关于建设和谐通化的实施意见》。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>52</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>牛心顶镇以特色产业引领农业结构优化</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2017-10-25</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201710/t20171025_8352725.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['年初以来，牛心顶镇立足资源优势，以规模化种植、养殖业为目标，以促进农民增收为核心，采取政策扶持、合作社带动和示范引领等措施，扎实推进农业产业结构调整，特色产业规模不断扩大、产业效益稳步提升。初步形成了以黏高粮、青豆、黄烟、李子、大榛子、蓝梅、葡萄，以及肉猪、肉鸡、肉羊等为主导的产业发展格局。', '年初以来，牛心顶镇立足资源优势，以规模化种植、养殖业为目标，以促进农民增收为核心，采取政策扶持、合作社带动和示范引领等措施，扎实推进农业产业结构调整', '镇财政累计投入资金35万元，用于特色产业发展奖补政策资金，同时，发挥政府在结构调整中的引导和服务作用，积极为农民发展产业寻找致富门路。先后组织镇村干部、种植养殖大户、合作社负责人，赴辽宁省海城市、开源县、吉林省蛟河、榆树等县市进行学习考察，召开了两次产业发展推介会，分别与辽宁省开源县青豆种植合作社、蛟河烟叶公司、贵州宜基粮油公司、五粮液酒业公司等合作组织和农业产业化龙头企业签订了订单合同。', '新发展农民专业合作社9户，各类新型农村经济合作组织发展到65户。在凤阳村、自兴村发展黏高粮1500亩、发展李子1600亩；在王家村发展青豆1000亩；在常兴', '观光农业园。以牛心顶村葡萄采摘园为基础，打造集葡萄采摘、农家乐、垂钓于一体的休闲产业']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>52</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>通化县三棵榆树镇党委三抓促三实</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zwgk/ghzjgk/201804/t20180423_205381.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['党的十八大以来，在县委、县政府的坚强领导下，通化县三棵榆树镇党委始终以党建工作为第一要务，促进经济发展为主线，构建和谐强镇为目标，在加速经济发展的同时，大力加强基层党组织建设，充分发挥基层党组织的战斗堡垒作用，紧密团结群众，以解决民生实事为平台，转变作风、狠抓落实、克难攻坚，实现了镇域经济和社会各项事业的平稳、健康、有序发展，各项工作取得了显著成效。2013年度被市委市政府评为创建文明村镇工作先进镇，2014年被县委、县政府评为先进集体并通过国家级生态乡镇验收，2015年被县委、县政府评为先进乡镇和招商引资先进单位，2016年被县委、县政府评为先进乡镇。 抓关键少数，强基层支部，大力倡导“做人要实” “提高基层党组织的执政能力”是贯穿镇党委工作的主课题。按照“选优配强”的原则，镇党委配齐了专职党务副书记，招录专职党务工作人员1名，大学生村官2名，培养后备干部5名，组建了1个非公企业党支部、1个派出支部，由党委副书记专门抓非公企业党建工作，有力地补齐了基层党建工作短板。通过实行领导包村责任制，党委成员到基层党组织指导党建工作，带头贴近群众，关注百姓身边的事。在2013年村级换届选举工作中选出了一批党性素质高、致富能力强、带动能力大的优秀村党支部书记，2016年换届时连选连任率实现100%，得到广大党员群众的认可。打铁还需自身硬。多年来，镇党委始终秉承“勤政廉洁、执政为民”的指导方针，有针对性地抓好班子成员、党员队伍理论学习，把学习与思想建设、组织建设有机地结合起来，建立和健全学习制度，将各项专题教育活动融入到经常性学习教育和实际工作中，建设学习型党组织。2017年，镇党委组织全镇机关党员及各党组织书记50余人由县委党校统一组织赴东来乡开展“重走抗联路”党性教育活动，到辽宁省凤城市大梨树村进行学习考察，学习“干”字精神，使党员干部提高党性修养，树立干好工作的决心和信心，增强等不起的责任感、坐不住的危机感；同时牢固树立作风建设永远在路上的思想，重点抓好整改整治、强化正风肃纪、严肃党内政治生活，锲而不舍、驰而不息地推进作风建设。要求干部下基层调查研究，切实为群众解决生产生活中遇到的热点难点问题，干部的宗旨意识进一步增强，党群干群关系进一步加强，树立了良好的干部形象；投资 218万元，全面完成全镇11个行政村的村部社区化改造任务，其中新建村部3个。目前，各个村部功能齐全并全天候向群众开放。三棵榆树村、下排村利用历史积淀深厚的优势，开设了乡村记忆馆和党建主题馆，记录中国共产党的光辉历程、生产环境的改善、生活水平的提高、乡风民俗的变化；通过对软弱涣散党支部进行全面整顿，不断加强和改善党的建设以及党组织对村级各项事业发展的领导，目前已完成四个软弱涣散党支部的整顿工作，软弱涣散形象明显得到改变，基层党组织战斗力显著提升。 抓基础设施，解民生难题，科学统筹“谋事要实” 镇党委以打造“秦汉长城边塞古镇”为目标，秉承“把农民群众的事放在心上、抓在手上”的宗旨，针对百姓的需求，以“规划优先，因地制宜、尊重群众意愿、解决实际问题”为原则，合理整合规划各类资金，确保把钱花在刀刃上，不断加大农村基础设施、环境综合整治、产业化发展等方面的投入力度。在县委、县政府的大力支持及上级各部门的鼎力帮扶下，累计投入1.28亿元为全镇11个村实施农村水泥路、柏油路建设、路灯亮化、边沟一体化、围墙标准化、道路绿化美化、危房改造、堤防加固、桥梁建设等民生工程。在镇党委的带领下，沿江村、下排村、欢喜岭村、鞭杆沟村陆续晋级为新农村建设标兵村；投入资金850万元，全面完成了镇区自来水工程建设，使957户村民受益，让百姓真正喝上了干净的自来水；累计种植宿根花卉黑心菊50公里、绿化树11.4万株、种植草坪1.8万平方米，使全镇美化、绿化工作实现了提档升级，百姓的生活环境得以改善；通过不断地努力，全镇共新建标准化村卫生室5个，新建了中学教师周转宿舍、中心校幼儿园、食堂综合楼，并对中学、中心校教学楼、操场、围墙及镇社会福利中心进行整体维修。今年，为了将美丽乡村建设工作纵深推进，投资约42万，在依木树村修建2000平方米高标准休闲文化广场一处，周围栽植苹果梨64株，新建仿古凉亭1座，配套安装体育健身器材、篮球架等基础设施；投资200万元，重点推进南台城堡遗址公园建设工程前期准备工作，围绕南台古长城遗址和古榆树建立城堡、荷花池、公园仿古瓮城门、停车场等基础设施，为向第三产业转型奠定了设施基础。 抓统一领导，兴务实之风，全面贯彻“创业要实” 镇党委通过产业拉动、政策激励、典型引路等方式，打破固有的思维模式，农业产业向规模化、规范化、标准化发展。成立了20个专业合作社，有效带动了农民发展产业的积极性。立足镇域实际，多方洽谈，新引进包括乐陶陶食用菌生产基地、万通有机人参种植基地等10户企业，共计引进资金4.77亿元。既扩宽了我镇财政税源，又增加了农民收入；依据地域优势和人才优势，镇党委制定了“做大甜玉米产业、做强食用菌产业、做精无公害瓜果产业、做活中药材产业”的发展思路，成片规划建设特色农产品种植带。目前，全镇有过百万的村集体项目5个，过50万元的2个。现已形成香瓜种植园区、灵芝种植基地、香菇生产基地、平地人参种植基地、贝母种植基地、木耳生产基地、五味子基地、牛、羊、驴养殖基地等10余个园区。以欢喜岭村—三棵榆树村—鲜明村为主线的甜玉米种植带；下排村—沿江村为主线的无公害甜瓜种植带；依木树村—杨宝沟村—鞭杆沟村—新立村为主线的食用菌种植带为代表的特色产业带已初具规模。 随着精准扶贫工作的陆续开展，镇党委决心撸起袖子加油干，形成“以党建带扶贫，以扶贫促发展”的工作格局，充分发挥党建工作引领作用，确保按期完成脱贫攻坚任务。首先是帮助村里确定发展产业项目。鞭杆沟村、新立村是贫困村，过去没什么致富产业项目，经过调研、考察以及征求广大村民的意见，镇里帮助选择了中药材种植项目、食用菌种植项目，黄牛、羊、肉鹅、蛋鸡养殖项目。其次是决定集中经营管理项目。针对贫困户缺乏管理经验和劳动能力的实际，镇党委决定实行“集中管理、统一经营、利润分红、集体和贫困户双赢”的路子，发展脱贫产业项目，推动村集体经济发展壮大，带动贫困户发展。三是帮助协调投入资金。镇里通过向上争取、整合资金等方式，先后帮助新立村协调资金61.5万元，栽植贝母20亩，发展木耳4万袋，养殖黄牛30头。帮助鞭杆沟村协调资金161万元，栽植贝母40亩、发展木耳5万袋，养殖黄牛50头、羊100只、白鹅600只、蛋鸡1000只。四是推进项目建设。在用地上，通过组织召开党员会议、村民会议，统一思想，采取土地租赁形式将地块集中连片。在用工上，栽植过程中，招募有劳动能力的贫困人员进场务工，增加收入。在采购育肥牛时，镇、村干部带上当地常年抓牛的老手，不辞辛苦，起早贪黑，到外地市场选购合适幼崽，保证了黄牛养殖项目圆满落地。五是帮助销售产品。采取镇、村干部当木耳销售员，请县委领导帮助联系县域内企业食堂，镇机关干部自己买回家吃，动员亲朋好友一起买，村干部联系自己朋友圈发往外地进行批量销售等办法，将1万多斤黑木耳销售一空。经过几年的努力，全镇村集体年收入超过20万元的村有4个、超过10万元的有3个、超过5万元的有4个，农民人均收入从2012年的6,474元增长到如今的12,526元，百姓生活水平不断提升，幸福指数节节攀升。三棵榆树镇已由曾经的传统农业乡镇开始向如今的多元产业化乡镇迈进。 在今后的工作中，镇党委将按照习近平总书记在十九大报告中提出的“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的总要求，立体谋划、合理布局、扎实推进、稳步落实，带领广大党员干部和人民群众打赢脱贫攻坚战，实现三棵榆树镇全面建成小康，为实现让全镇人民过上好日子的强镇梦而不懈奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>52</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>坚持精准方略提高脱贫实效快大茂镇脱贫攻坚成效显著</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2018-12-07</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/xw/zt/dytpgjz/fpdt/201812/t20181207_330475.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['对全镇贫困户实行全年动态识别，确保精准无误。通过数据综合比对、“五步法”等手段，按照“八不入”标准进行审核，进一步完善贫困信息管理，做到符合条件的一个不落，不符合条件的一个不进，该进的进，该退的退，实现真扶贫、扶真贫', '党委抽调15名机关干部，担任驻村工作组联络员，配合包村领导负责贫困户与包保单位的沟通联系，协助、协调包保局完成贫困户脱贫任务。', '积极开展“金手指”宣传培训工作，带动有劳动能力的贫困户，开展小手工艺品加工，累计开展宣传培训会议4次，培训人员200余人次。为有序推进乡村旅游民宿发展，镇党委组织产业大户和有意向的贫困户，到长春、吉林、集安和果松镇等地学习考察，并开展专题培训，引导村民利用自家的房屋和庭院，发展民宿。截止目前，全镇脱贫226户441人，脱贫率85％', '坚持长期与短期项目相结合发展。结合各村地域不同特点，因地制宜、因村施策，建设道地药材种植、休闲采摘、食品精加', '通过采取“村集体＋合作社＋贫困户”、“公司+村集体+贫困户”等模式，共计投入资金210万元，在繁荣村建设', '繁荣聚丰苹果采摘园；新建集种植、加工、销售为一体的繁荣村粮油加工厂；龙泉村建设集白酒生产和品鉴为一体的御龙泉酒坊。项目累计带动贫困户189户400人，贫困户增收均达500元以上。', '繁荣聚丰苹果采摘园；新建集种植、加工、销售为一体的繁荣村粮油加工厂；龙泉村建设集白酒生产和品鉴为一体的御龙泉酒坊。项目累计带动贫困户', '围绕脱贫攻坚，抓好发展村级集体经济的顶层设计，把发展集体经济作为决战脱贫攻坚的重要措施，今年，', '镇党委继续扶持江沿香瓜、虎马岭山野菜种植、青山村棚模蔬菜、新开村、太安村食用菌产业、太安安薪种子繁育专业合作社、新开村、龙胜村、青山村陆地蔬菜种植等项目，发展壮大集体经济，带动贫困户脱贫。', '实施全镇16个村整村推进农村环境整治工作。深化美丽庭院创建，评选美丽庭院457个，干净人家209户。以优美的人居环境激发贫苦户脱贫致富的内生动力。', '扶贫领域腐败和作风问题治理力度，集中精力投入到问题整改当中，按照边纠边改要求，对照查找出来的问题，', '严格实行台账管理，列出问题清单，逐一制定整改措施，明确责任主体时间表、路线图，确保问题整改扎实有效。在整改过程中，坚持党政主要负责人亲自抓、负总责，做到重点工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要案件亲自督办，并按照时间节点定期督导协调解决存在的困难，确保每项整改落到实处']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>52</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>市委书记王爱明深入山城镇和黑山头镇开展遍访送温暖活动</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2019-01-03</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201901/t20190103_8340103.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['王爱明首先来到山城镇保兴村，走访慰问了张亚斌、李贵财、曲贵宝等3户包保贫困户，了解他们生产生活情况，为他们送去慰问金和慰问物资。', '随后，王爱明实地调研了保兴村产业扶贫项目幸福泉矿泉水厂进展情况，听取了项目负责人工作情况汇报。', '王爱明指出，保兴村幸福泉水质好，出水量多，项目建设单位市燃气公司干劲大，信心足，相信随着项目的深入推进，经过企业的精心建设和运营，一定会产生巨大的经济和社会效益，为我市脱贫攻坚和项目建设工作作出积极的贡献。王爱明强调，幸福泉矿泉水厂从建设伊始，就要立足于让梅河口人喝上自己的优质矿泉水，树立精品意识，邀请国内著名设计团队对企业进行全方位规划设计，去国内知名饮品企业考察学习，保证工艺设备、生产流程、工艺水平起点高、现代化，多样化生产。山城镇党委、政府要与企业协同配合，依托饮品产业，充分挖掘保兴村自然和生态优势，调整产业结构，发展果树种植、生态旅游、民宿产业，努力把保兴村由贫困村打造成为乡村振兴标兵村。', '在山城镇河南村，王爱明察看了河南村民宿项目建设情况。经过山城镇党委、政府的积极引导和村民们的积极建设，河南村作为我市朝鲜族聚居村，目前朝鲜族民俗文化产业已经全面启动，并渐成规模。', '王爱明走进一家朝鲜族特色民宿，和民宿主人亲切交谈，了解民宿建设和经营情况。王爱明指出，乡村经济发展离不开政府帮助扶持，河南村有朝鲜族民族文化、有特色民居资源、有热爱本民族文化的朝鲜族老人，政府各相关单位一定要以做好朝鲜族文化传承为己任，做好示范引领，努力培育和壮大河南村朝鲜族民宿产业，体现原汁原味，让人记得住乡愁，真正把河南村建成有浓郁北方朝鲜族民宿特点的民俗旅游明星村。', '王爱明指出，开展遍访“送温暖”活动，主要是通过再次深入贫困户家中走访慰问，进一步将我市脱贫攻坚工作做精准，做翔实，对贫困户做进一步甄别，掌握基础数据，做到心中有数。王爱明强调，当前，要把对贫困户的日常帮扶照料工作作为重中之重，围绕脱贫攻坚工作，以提升村两委功能职责为核心，全力抓好村级基层党建工作。', '关于抓好我市村级基层党建、明确村两委功能职责，王爱明提出基层党组织要发挥好七项职能。一是服务群众的职能。做好领办、代办、帮办、服务办理等工作，把百姓的事情装在心里，认真倾听和收集村民意见、建议，及时向上反馈。二是脱贫攻坚常态化管理的职能。充分发挥村两委作用，把对贫困户的管理、照料、帮扶等工作放在村两委，村两委成员和党员要通过出义工等形式，帮助贫困户解决日常生产生活困难，手拉手帮扶贫困户走出困境。三是发展村集体经济的职能。四是组织和引领群众发展产业致富的职能。五是推动乡村振兴、农村人居环境整治的职能。创建市、乡、村三级联动保洁机制，组织群众共同创建“美丽庭院、干净人家”，推动环境治理工作实现新成效。六是推动乡风文明建设的职能。七是抓好党的自身建设的职能。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>52</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>浙江省农业厅厅长林健东带队的考察组莅临我市参观考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2018-07-05</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201807/t20180705_8340003.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['7月3日下午到4日上午，由浙江省农业厅厅长林健东带队的考察组莅临我市参观考察，商讨浙江省农业厅与我市开展农业对口合作交流事宜。', '在省农委副主任刘丰艳，通化市委常委、我市市委书记王爱明，市委副书记叶祖平，副市长霍光等领导的陪同下，林健东一行先后考察了现代服务业示范区、海龙湖公园、工业新城、康美优品米业、吉林民生仓储监管有限责任公司、吉林省正方农牧股份有限公司、阜康酒精有限责任公司，并在市委常委会会议室，召开了浙江省农业厅与我市开展农业对口合作交流座谈会。', '王爱明代表市委、市政府对浙江省农业厅考察组莅临我市考察交流表示欢迎，向林健东一行介绍了我市基本情况。王爱明强调，梅河口市扩权强县以来，经济社会发展取得长足进步。作为长白山门户城市，梅河口区位优势突出，是吉林省重要的区域中心城市，辐射吸纳性强；产业特色鲜明，医药健康、食品加工、商贸物流、现代服务业四大主导产业符合供给侧结构性改革要求，朝阳产业多，发展潜力较大；名城创建成效明显，成功创建全国文明城、国家卫生城市，全国双拥城模范，在省内外都具有较高知名度，受到了全省上下的高度评价和关注；以开放式、解放式理念打造区域医疗、文体、教育中心，社会事业和城市管理体现了现代化标准；政务环境好，对企业服务好，特别是“只跑一次”行政审批制度改革，展现了市委、市政府高站位、保姆式全程服务企业的决心，真诚希望通过与浙江省农业厅开展农业对口合作交流，能够吸引更多的浙江企业关心梅河口、支持梅河口、走进梅河口，在梅河口市投资兴业，为梅河口市更好更快发展加油助力。', '林健东在讲话中对我市的城市建设和营商环境给予高度评价。林健东表示，梅河口市营商环境好，打破了对东北三省的传统认知。要通过考察学习，把梅河口的经验学回去，把浙江省的企业带进来，引导这些企业充分发挥浙江省高效农业多、农业效益好的特点，在梅河口市进行深度考察，根据各自企业特色，做好对接，真正实现进的来、安得住、留得下、富得起。同时，将浙江省新零售团队、农创客小镇等农商新思维介绍到梅河口，加深与梅河口对口合作交流，互相帮助，南北协作，共同发展。', '座谈会上，浙江农村发展集团有限公司、杭州百草味企业管理咨询有限公司、杭州鲜丰果品有限公司等浙江省知名农企负责人也纷纷发言，对我市城市建设和未来发展规划给予高度评价，对与我市相关企业开展深度合作表达了积极的意愿。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>52</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>通化市重大科技项目研发人才团队支持计划实施方案</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2017-08-11</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://rsj.tonghua.gov.cn/rcfw/kyjh/201708/t20170811_128329.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['为深入实施人才强市战略，加快推进医药健康、现代装备制造等重点产业科技创新和成果转化，培养和造就一支科技创新人才队伍，制定如下实施方案。', '利用5年左右时间，重点支持50个重大科技项目研发人才团队，着力打造一支具有较强科研创新能力，在国内外和行业领域具有较高知名度和影响力的科技人才队伍。', '个重大科技项目研发人才团队，着力打造一支具有较强科研创新能力，在国内外和行业领域具有较高知名度和影响力的科技人才队伍。', '每年评选并重点支持10个重大科技项目研发人才团队，人才团队承担的项目一般需进入中试阶段，对于具有明显优势和发展前景的项目成果标准可适当放宽。对列入支持计划的重大科技研发项目人才团队，一次性给予30万元资助资金，所需资金由市人才开发基金、人才团队属地人才开发基金（地方财政）、人才团队所在单位进行等额匹配。', '每年评选并重点支持10个重大科技项目研发人才团队，人才团队承担的项目一般需进入中试阶段，对于具有明显优势和发展前景的项目成果标准可适当放宽。', '1.支持人才团队所在企业建立重点实验室、院士工作站等研发平台，参与高等院校、科研机构研发平台建设。', '2.支持人才团队所在企业建设人才引进平台，集聚域内外高端人才和创新团队。对于重大科技项目急需紧缺人才，市高层次人才引进计划予以重点倾斜。', '3.支持人才团队之间开展创新合作，积极创建产学研合作战略联盟，推动科技信息共享，促进科技成果有效转化。', '4.对在中国创新创业大赛总决赛中获奖的人才团队，所在地同级财政按获奖层次再给予10-50万元资金奖励。具有国际或国内领先水平的创业项目，实行“一事一议”，给予特殊支持。', '5.人才团队中拥有发明专利或在科技成果转化中发挥重要作用的成员，同等条件下可优先晋升职称。对近3年科技成果转化缴税5000万元以上的获评团队中的前3名主要完成人，可优先破格参评高级专业技术职称。', '6.每年组织人才团队成员开展“高级研修班”“双导师研究生班”等高端研修培训，持续提升专业素质和研发创新能力。人才团队成员参加全国统一考试并完成学业获得博士、硕士学位的，所在地同级财政分别一次性给予2万元、1万元助学补贴。', '7.积极协调省内外院士专家开展政策技术咨询、联合攻关等服务，针对人才团队创新需求，帮助解决科研难题。', '8.每年组织人才团队带头人进行体检，积极帮助解决家属就业、子女就学等问题，在跨国经贸、学习考察等方面提供高效便捷服务。', '每年组织人才团队带头人进行体检，积极帮助解决家属就业、子女就学等问题，在跨国经贸、学习考察等方面提供高效便捷服务。', '1.通化市重大科技项目研发人才团队评选、认定和服务管理工作在市人才工作领导小组领导下，由市科技局具体负责组织实施，相关部门根据职能各负其责、密切配合。', '通化市重大科技项目研发人才团队评选、认定和服务管理工作在市人才工作领导小组领导下，由市科技局具体负责组织实施，相关部门根据职能各负其责、密切配合。', '2.健全完善党政领导干部联系服务重大科技项目研发人才团队工作制度，与重点科技人才“结对子”，倾听意见建议，引导科技人才创新创业。', '2.健全完善党政领导干部联系服务重大科技项目研发人才团队工作制度，与重点科技人才“结对子”，倾听意见建议，', '3.加大对重大科技项目研发人才团队及重点科技人才的宣传力度，培养和选树一批科技创新人才典型，大力弘扬潜心钻研、自主创新的通化科学家精神，在全市营造尊才爱才重才的社会舆论氛围。', '宣传力度，培养和选树一批科技创新人才典型，大力弘扬潜心钻研、自主创新的通化科学家精神，在全市营造尊才爱才重才的社会舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>52</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>年牛心顶镇经济社会持续发展</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2018-02-27</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqxz/mlnc/201802/t20180227_8352872.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['2017年，牛心顶镇谋发展、抓落实、求突破，全面完成年初重点工作目标任务，经济社会持续发展。全年实现一般预算全口径财政收入700万元。', '去年，牛心顶镇加大项目建设力度，全年落实项目10个，其中，续建项目4个、新建项目4个、“飞地”项目2个。项目总投资23080万元。在产业发展上，这个镇立足资源优势，以规模化种植、养殖业为目标，以促进农民增收为核心，采取政策扶持、合作社带动和示范引领等措施，扎实推进农业产业结构调整，特色产业规模不断扩大、产业效益稳步提升，初步形成了以黏高粮、青豆、黄烟、李子、大榛子、蓝莓、葡萄，以及肉猪、肉鸡、肉羊等为主导的产业发展格局。', '镇财政累计投入产业发展扶持资金35万元，先后组织村干部、种植养殖大户、合作社负责人赴辽宁省海城市、吉林省长春市、蛟河、榆树等地进行学习考察，召开了两次产业发展推介会，分别与蛟河烟叶公司、贵州宜基粮油公司、五粮液酒业公司签订了订单合同。在新型农村经济合作组织和特色产业的引领下，全镇农民积极参与农业产业结构调整，新发展农民专业合作社9户，各类新型农村经济合作组织发展到65户。以环境整治和功能载体建设为突破口，进一步巩固和提升2个市标兵村的建设成果，重点抓好19个先进村的增量提质，开展好3个美丽乡村、15个重点村的美丽庭院和干净人家创建活动。镇财政列资47万元用于环境管理经费。投资80万元，绿化农村道路20公里，栽植各种乔木1.8万棵，李子、杏树等果树2万棵，水蜡球、白榆等灌木5万株，规划打造绿化景观点30处，培育各种花卉苗60万株。在6个在建先进村新修水泥路15公里，新建地梁铁栅栏3000延长米，安装路灯200盏，栽植花卉20万株。', '投资210万元对镇区进行全面改造。铺装沥清路面10000平方米，铺设下排水管道870延长米，镶路边石1300米，为临街商铺统一更换牌匾45个，进行外墙保温的同时，以灰、白为主色对外墙体进行粉刷，新建花岗石花池60个，安装华表式路灯40盏，规划停车位60个。', '2017年预计脱贫16户37人。全年计划落实教育救助政策14人，预计C级危房改造14户，现已完成3户，D级危房改造6户。镇本级、包保部门开展走访慰问帮扶活动，帮扶现金和物资折款合计38.303万元，产业扶贫资金到位。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>52</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>国家开发银行调研组莅梅调研新兴产业发展工作</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2017-07-20</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqtt/mhyw/201707/t20170720_8339850.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['7月18日，由国家开发银行行内专家、原评审总监郑旭东带队的国家开发银行总行调研组莅临我市，围绕东北振兴，调研新兴产业发展工作。', '国家开发银行吉林省分行副行长刘洪岩，通化市委常委、我市市委书记王爱明，市长张恒，市委常委、副市长戴存鹤，市委常委、宣传部长朴贞玉，副市长于艳玲，市政协副主席兼财政局局长王春生，经济开发区党工委书记、管委会主任李连友等领导陪同调研。', '上午，在市委常委会会议室，召开了国家开发银行莅梅调研座谈会，张恒介绍了我市经济社会发展情况，李连友介绍了我市医药健康特色产业园区建设进展情况以及二期工程建设规划。', '王爱明主持会议并讲话，向调研组的到来表示欢迎，对国家开发银行总行和省开行多年来对我市经济社会发展、特别是“十三五”以来，在工业新城建设、产业发展、社会事业、棚户区改造等方面给予的关注和支持表示感谢。王爱明指出，梅河口市在吉林省发展格局中的位置比较重要。几年来，在全市上下的共同努力下，扩权强县试点工作取得了非常好的成绩，经济综合发展水平连续3年保持全省县市第1位。产业结构不断优化，产业发展质量和水平显著提高，经济和产业发展态势良好。全省各地纷纷到梅河口学习考察，围绕梅河口市县域经济发展开展调研和思考，省委、省政府对梅河口市也是格外重视和关注，梅河口市在全省发展格局中位置的重要性日益凸显。王爱明强调，梅河口市围绕新兴产业发展，在原有基础上，确立了医药健康、食品加工、商贸物流、现代服务业“四大主导产业”，把转型升级作为主导产业重要抓手，明确提出了“集群集聚发展”的战略。通过与省开行深度合作，按照产城融合的理念，启动建设了占地10平方公里的工业新城，依托国家开发银行和其他多家银行的共同支持，各项工作顺利推进，各项基础设施建设取得了明显成绩，为入驻企业腾出了发展空间，为今后围绕医药健康、食品加工两大产业，通过孵化器这种模式，引进国内龙头企业到园区来，形成集群集聚效应，加速发展主导产业奠定了坚实的基础。王爱明指出，梅河口市当前的快速发展，离不开国家开发银行的关心和帮助，在今后，同样需要得到国家开发银行在工业新城建设、管廊建设、棚户区改造等方面给予大力支持，通过双方真诚合作，不断提升梅河口市产业发展水平，完善新区管廊建设，创造更多社会效益，改善百姓生活条件，增加土地收益，借助国家开发银行资金在梅河口市的有效使用，全面推动梅河口市各项事业快速发展。', '国家开发银行调研组专家和省开行领导对我市在产业发展工作的创新举措和发展思路给予充分肯定和高度评价，并就如何将国家开发银行金融支持与我市地方政府发展目标进一步契合起来，创新合作模式、创新推动优势龙头企业在我市落地，创新园区服务等工作，不断加强和推进与我市的精诚合作进行了深入的探讨和交流。', '下午，调研组一行深入我市辉发河景观带、工业新城、康美梅河口医疗健康中心、现代服务业示范区调研，实地了解我市产业发展和城市建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>52</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>二道江区柳河县考察团到通化医药高新区学习考察</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-04-02</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://gxq.tonghua.gov.cn/tpxw/201804/t20180404_202382.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['连日来，二道江区、柳河县分别组成考察团到通化医药高新区学习考察。考察团分别来到东宝生物医药产业园、君必达中药制药产业园、禧利人参深加工、北域红西洋参深加工、通化高新投资控股有限公司医药健康创业园、东方红（通化）西洋参产业基地等项目建设现场实地考察，听取有关负责人的情况介绍。', '二道江区考察团表示，二道江区与通化医药高新区相邻，有着许多相似之处。近年来，通化医药高新区发展思路超前、政策先进、服务到位，吸引大批知名企业入驻，发展成效明显。希望进一步学政策、学思路、学服务，将通化医药高新区的发展经验带回去，认真学习，加以运用，紧密结合实际，推动二道江区经济发展再上新台阶。', '柳河县考察团表示，通化医药高新区高新区抢抓机遇，深入挖掘和利用产业、资源、经济等优势，加快传统产业向高端、高质、高效产业转型，引进和建设了一大批投资规模大、产业拉动力强的大项目好项目。希望以此次考察为契机，学习借鉴高新区项目建设方面的成功经验和有效举措，进一步解放思想、转变作风、再添动力、苦干实干，咬定发展这个第一要务不放松，认真贯彻新发展理念，精准持续发力，推动柳河县经济高速发展、再创辉煌。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>52</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>撸起袖子加油干脚踏实地抓落实辉南县落实省市会议精神</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2017-02-20</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/zzgz/201702/t20170220_49217.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['“开局就是决战，起步就是冲刺。” 辉南县认真贯彻全省“三抓”大会和市委常委扩大会议精神，以踏石留印、抓铁有痕的力度抓落实，全县上下党员干部，把会议精神化为行动指南，推动辉南快发展大发展。 加强理论学习，打造良好政务环境。辉南县通过大课堂、大学习、大讨论对全县副（乡）局级以上领导干部进行一次理论水平、党性修养和能力素质的“集中充电”，促进全县领导干部思想大解放、能力大提升、工作作风大转变，为加快发展打牢思想基础，凝聚实践力量。全面提升各级领导干部履职能力和综合素质，更好地服务群众、助力发展。以此次集中学习为契机，深入贯彻省委“抓环境、抓项目、抓落实”视频会议精神，结合工作实际，认真学习，深入讨论，谋划好今年重点工作，真正把这次集中学习活动作为提升自身素质、工作水平和服务能力的重要手段，不断增强学习效果，切实为推动县域经济转型发展提供强大的理论基础和智力支撑。 抓好项目建设，确保经济发展势头。辉南县秉承打造项目建设是根本，培育新动能需要项目支撑的理念，在发展传统产业的同时，又抓好投资拉动。坚持市场导向，突出重点产业，全面加强项目谋划工作，全年预计谋划亿元以上项目80项。切实抓好重大项目的组织实施，海通药业二期、金天集团植物胶囊产业园、辉南农特产品产业园等建设项目，迅速完成项目前期工作，确保四、五月份集中开工建设；吉林农牧科技国际食品产业园、杉松岗独立工矿区搬迁改造等续建项目，提前排好工程进度，全程挂图督战，确保早日竣工；德商药业、鸿丰物流等已竣工的项目，继续做好跟踪调度，尽快实现达产达效。继续落实领导包保、部门服务等制度，全力抓好项目建设载体活动，滚动开展“三早行动”、百日攻坚、秋季会战和冬季行动，全力确保今年计划实施的45项5000万元以上重点项目顺利实施。 坚持务实作风，确保“三抓”行动落实。要谋实策、出实招、办实事，切实以优良作风推动“三抓”行动各项工作落到实处。主要领导大力发扬“五勇”辉南精神，亲力亲为、靠前指挥，采取各种有力措施，创造各种有利条件，认真抓好落实，确保取得实效。各乡镇、各部门牢固树立“只研究怎么能行，不研究怎么不行”的工作意识，认真贯彻落实“五看”工作要求，抢前抓早，加快节奏，在工作谋划上突出一个“早”字，在工作推进上突出一个“快”字，在工作标准上突出一个“高”字。全力以赴往前赶，奋勇争先多做事，努力在全县形成比发展速度、比项目建设、比招商引资的浓厚氛围。全面提高企业家整体素质，通过组织培训、学习考察等形式，提高理论思维、战略眼光、创新意识和驾驭市场经济的能力。鼓励企业家开展各种形式的交流合作，研究成立企业家协会，努力打造一支凝心聚力的企业家团队，带动辉南企业家群体健康发展。尽心尽力为企业和企业家服务，着力构建“亲”“清”政商关系，在全社会营造“尊重纳税人，服务纳税人，感恩纳税人”的浓厚氛围。（作者：李囿澄 左颖）', '辉南县认真贯彻全省“三抓”大会和市委常委扩大会议精神，以踏石留印、抓铁有痕的力度抓落实，全县上下党员干部，把会议精神化为行动指南，推动辉南快发展大发展。', '加强理论学习，打造良好政务环境。辉南县通过大课堂、大学习、大讨论对全县副（乡）局级以上领导干部进行一次理论水平、党性修养和能力素质的“集中充电”，促进全县领导干部思想大解放、能力大提升、工作作风大转变，为加快发展打牢思想基础，凝聚实践力量。全面提升各级领导干部履职能力和综合素质，更好地服务群众、助力发展。以此次集中学习为契机，深入贯彻省委“抓环境、抓项目、抓落实”视频会议精神，结合工作实际，认真学习，深入讨论，谋划好今年重点工作，真正把这次集中学习活动作为提升自身素质、工作水平和服务能力的重要手段，不断增强学习效果，切实为推动县域经济转型发展提供强大的理论基础和智力支撑。', '抓好项目建设，确保经济发展势头。辉南县秉承打造项目建设是根本，培育新动能需要项目支撑的理念，在发展传统产业的同时，又抓好投资拉动。坚持市场导向，突出重点产业，全面加强项目谋划工作，全年预计谋划亿元以上项目80项。切实抓好重大项目的组织实施，海通药业二期、金天集团植物胶囊产业园、辉南农特产品产业园等建设项目，迅速完成项目前期工作，确保四、五月份集中开工建设；吉林农牧科技国际食品产业园、杉松岗独立工矿区搬迁改造等续建项目，提前排好工程进度，全程挂图督战，确保早日竣工；德商药业、鸿丰物流等已竣工的项目，继续做好跟踪调度，尽快实现达产达效。继续落实领导包保、部门服务等制度，全力抓好项目建设载体活动，滚动开展“三早行动”、百日攻坚、秋季会战和冬季行动，全力确保今年计划实施的45项5000万元以上重点项目顺利实施。', '坚持务实作风，确保“三抓”行动落实。要谋实策、出实招、办实事，切实以优良作风推动“三抓”行动各项工作落到实处。主要领导大力发扬“五勇”辉南精神，亲力亲为、靠前指挥，采取各种有力措施，创造各种有利条件，认真抓好落实，确保取得实效。各乡镇、各部门牢固树立“只研究怎么能行，不研究怎么不行”的工作意识，认真贯彻落实“五看”工作要求，抢前抓早，加快节奏，在工作谋划上突出一个“早”字，在工作推进上突出一个“快”字，在工作标准上突出一个“高”字。全力以赴往前赶，奋勇争先多做事，努力在全县形成比发展速度、比项目建设、比招商引资的浓厚氛围。全面提高企业家整体素质，通过组织培训、学习考察等形式，提高理论思维、战略眼光、创新意识和驾驭市场经济的能力。鼓励企业家开展各种形式的交流合作，研究成立企业家协会，努力打造一支凝心聚力的企业家团队，带动辉南企业家群体健康发展。尽心尽力为企业和企业家服务，着力构建“亲”“清”政商关系，在全社会营造“尊重纳税人，服务纳税人，感恩纳税人”的浓厚氛围。（作者：李囿澄 左颖）']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>52</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>我市脱贫攻坚领域专项整治成果显著</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/xqsw/jjfz/201910/t20191022_8351051.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['我市现有省级贫困村16个，建档立卡贫困人口2287户4284人。已退出贫困村13个，脱贫1951户3618人。2019年，完成3个贫困村出列和187户384人脱贫的年度任务；剩余149户282人2020年政策兜底全部脱贫。结合“不忘初心、牢记使命”主题教育，把脱贫攻坚工作纳入建设现代化区域中心城市总体布局，在盘点中央专项巡视和国家、省成效考核反馈问题整改情况的基础上，结合贫困人口“两不愁三保障”突出问题的实际解决情况，全面梳理扶贫领域的弱项和短板，开展脱贫攻坚领域问题专项整治，取得明显成效。', '采取集中培训、考察学习、现场推进、典型引领的方式，对各级党员领导干部、扶贫干部、帮扶干部、农村致富带头人进行全覆盖学习培训，提高做好脱贫攻坚工作的思想认识和工作能力。先后举办了全市一线扶贫干部学习贯彻习近平总书记关于扶贫工作重要论述专题培训班和全市脱贫攻坚干部能力提升培训班；并依托市委党校，对全市村党组织书记、驻村干部及致富带头人共计329人开展专题培训；结合年末贫困对象动态调整工作，对全市24个乡镇（街）分管领导、具体负责同志、128个重点村党支部书记、16个贫困村第一书记进行了专题培训。为了生动和丰富培训内容，市委组织部与市脱贫办多角度多层面结合，邀请省脱贫办相关领导和省委党校专家亲自授课，采取课堂教学和现场教学相结合方式进一步提升了扶贫干部的实际工作操作能力和水平，不断提升扶贫干部工作能力，加强驻村干部纪律监管和作用发挥。', '组织行业部门、镇村干部、驻村工作队、帮扶包保干部等工作人员进村入户宣传各项脱贫攻坚政策，重点详细解读了慢性病诊疗、产业扶贫、收益分红、雨露计划等相关政策内容。由市脱贫办牵头，对贫困户精准识别、精准退出，产业项目内容、收益分红事项等公告公示内容、程序、步骤进行了进一步规范和理顺。为全市2287户贫困户进行全面评星授信，普遍发证，进一步提高贫困户小额信贷总额和全市获贷率。', '协调市住建局、水利局、教育局、卫生健康局、民政局、医保局、社保局、人社局、农业农村局按照本部门在危房改造、饮水安全、教育救助、健康扶贫、低保保障、社会保障、医疗保障、就业扶贫、产业发展方面的职责任务，对现有工作情况大排查，对存在问题大起底，对工作任务大攻坚，确保全市“两不愁三保障”突出问题在10月底前全部整改落实到位。', '在义务教育方面：实施义务教育薄弱环节改善与能力提升工作、教育现代化推进工程等项目，加强乡镇寄宿制学校和乡村小规模学校建设，改善农村教育基本办学条件，提升基本办学能力。将公办义务教育学校建档立卡寄宿学生全部纳入寄宿生生活费补助范围。免除义务教育学校建档立卡学生校车交通费、在校就餐费、教辅资料费和课后看护费。为202名贫困学生免除校车费、餐费和教辅资料费,资助总额达25.7万元；24名建档立卡寄宿学生全部纳入生活费资助范围。对确实因身体原因不具备学习条件和不能到校就读、需要专人护理的适龄残疾儿童少年，实行送教上门，确保义务教育阶段无贫困学生辍学。', '在基本医疗方面：强化医疗救治服务。将辖区内36家医疗机构确定为健康扶贫定点医疗机构，医疗服务保障达到全覆盖，全部达到标准建设。由卫健局和相关乡镇负责采取新建、租用、共用方式解决了25个村卫生室建设管理不规范问题。对建档立卡贫困慢性病患者2154人免费办理慢病手册，并全部发放到患者手中。全市建档立卡贫困人口新农合参合率100%，健康档案建档率100%，贫困患者家庭医生签约率100%，特定贫困人口体检率100%。贫困患者在市内大病兜底定点医院“先诊疗后付费”一站式结算覆盖率100%。', '在住房安全方面：因地制宜、多策并举、分类指导，妥善解决建档立卡贫困户“无房户”住房安全保障问题。对建档立卡贫困户住房安全鉴定全覆盖，加快推进1户建档立卡贫困户D级改造工程和35户建档立卡贫困户历年改造不彻底房屋修缮工作。各包保帮扶单位帮助贫困群众解决墙皮脱落、房屋裂痕、屋顶漏雨等问题2300余件次。', '在饮水安全方面：坚持“能集中不分散、能联网不单建、能改造不新建”原则开展工程建设，优化项目建设程序，切实加快推进项目实施。修订《梅河口市农村供水运行管理办法》，建立贫困人口安全饮水问题整改台账，组织实施农村饮水巩固提升工程和消毒工程。完成农村饮水维修养护工程61处，存在安全饮水问题的9户贫困户，已解决8户，剩余1户。', '结合“不忘初心、牢记使命”主题教育制定侵害群众利益专项整治工作方案。严格按照《吉林省驻村干部管理办法》，指导乡镇党委和派出单位切实履行日常监督管理责任，按照《关于进一步做好驻村干部管理工作的通知》要求，由各乡镇党委严格考勤和查岗，建立考勤登记本，明确第一书记和驻村工作队队员请销假报批程序，建立长效机制，不断完善监管，确保监督管理到位。同时按照省管理办法规定中组织部门主管、扶贫部门协管的要求，建立落实常态化暗访工作机制，不定期对驻村干部驻村工作进行专项暗访，发现问题将立即整改，并将情况反馈相关领导和责任人，严肃追究相关责任人责任。从严落实驻村干部工作报告制度，驻村工作队每季度向乡镇党委书面报告一次工作进展情况，每半年向市驻村工作领导小组和派出部门（单位）书面报告一次工作情况。聚焦扶贫领域腐败问题，聚焦教育医疗、环境保护、食品药品安全等民生领域侵害群众利益问题，聚焦发生在群众身边的不正之风和“微腐败”问题进行集中治理。进一步加强扶贫资金的规范管理，查处扶贫领域危房改造违纪问题1件，给予党纪政务处分1人。开展脱贫攻坚“问题大起底、工作大整改、脱贫大攻坚、作风大转变”回头看专项行动，全面起底责任落实、政策落实、工作落实方面各类细节问题，逐项督导解决；针对脱贫攻坚问题整改、工作推进、责任落实监督检查情况，约谈市直部门主要领导8人；开展脱贫攻坚专项巡察，重点督导落实乡村两级脱贫攻坚主体责任，限时解决好贫困人口“两不愁三保障”突出问题；采取“四不两直接”方面直接调研指导工作，提前通报成效考核内容，减轻基层负担。', '脱贫攻坚，永远在路上。打赢脱贫攻坚战是一项光荣而艰巨的任务，是贫困群众的殷切期盼，是市委、市政府对全市人民的庄严承诺。全市上下一心，攻坚克难，通过专项整治，巩固整改成效，防止问题反弹，必将决胜脱贫攻坚。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>52</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>借他山之石琢己身之玉</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/dtyw/201803/t20180328_200906.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['当历史的脚步踏着强劲东风走进新时代的第一春，通化大地无处不孕育着生机、升腾着力量、迸发着活力…… 春风荡漾，春潮澎湃。在这片大开放、大开发、大建设、大发展的热土上，奋力开创新时代通化绿色转型、全面振兴的热潮一浪高过一浪。市委团结带领全市人民矢志有为擂战鼓，砥砺前行与时进；各地各部门的广大党员干部按照市委重大部署，奏响了“大学习、大讨论、大调研、大落实”的集结号，把教育实践活动不断引向深入，其力量如高山一样伟岸，其气势如大海一样广阔。 但是，我市一些长期积累的发展不平衡不充分的突出问题尚未得到有效解决，需要抓紧补齐的短板和亟待解决的问题还有很多，特别是在全市经济社会发展开局起步的关键节点，更需保持清醒、查找不足，瞄准问题、对标先进，学习经验、奋起直追，以发展实践解决发展问题，以破解问题促进振兴发展。 通化与浙江台州建立对口合作关系。改革开放以来，台州秉持“敢为天下先”的发展理念，以民营经济先发引领区域经济蓬勃发展，创造了举世瞩目的“台州现象”，对我市具有很强的借鉴意义。全面学习对标台州、推进与台州的对口合作，是我市发展的重要机遇。 借他山之石，琢己身之玉。 按照“不忘初心、牢记使命，绿色转型、全面振兴”大学习、大讨论、大调研、大落实教育实践活动的部署要求，市委决定组织全市县处级以上领导干部、优秀中青年干部及部分企业家650人左右，赴台州开展8期学习台州、解放思想、加快发展专题轮训班。3月22日，市委召开动员大会，市委书记王志厚发表重要讲话。强调，市委组织县处级以上领导干部及部分企业家到台州进行专题轮训，就是要全方位对标台州，把台州先进做法、成功经验学回来，把台州科学高效的体制机制带回来，就是要来一次彻底的头脑风暴，推动全市“关键少数”的思想大解放、观念大更新，乘着新时代第一春的东风，加满油、把稳舵、鼓足劲，以永不懈怠的精神状态和一往无前的奋斗姿态，奋力开创新时代通化绿色转型、全面振兴新局面。 “带着问题去台州、带着办法回通化。”3月23日，动员大会刚结束，来自各县（市、区）、通化医药高新区、吉林通化国际内陆港务区和市直部门近60名县处级以上领导干部及部分企业家，行程2000多公里赶赴台州，对标学习，交流合作。 次日早8时，第一期专题轮训班在台州市委党校正式开班。市委副书记张宝宗作开班动员讲话，市委常委、组织部部长邵波主持，市人大常委会副主任刚振涛出席开班式。 开班式上，台州市委副书记吴海平发表热情洋溢的致辞。 第一期专题轮训班成立了临时党支部及班委会，张宝宗任支部书记，邵波、刚振涛任支部副书记，并一同带队跟班指导。', '春风荡漾，春潮澎湃。在这片大开放、大开发、大建设、大发展的热土上，奋力开创新时代通化绿色转型、全面振兴的热潮一浪高过一浪。市委团结带领全市人民矢志有为擂战鼓，砥砺前行与时进；各地各部门的广大党员干部按照市委重大部署，奏响了“大学习、大讨论、大调研、大落实”的集结号，把教育实践活动不断引向深入，其力量如高山一样伟岸，其气势如大海一样广阔。', '但是，我市一些长期积累的发展不平衡不充分的突出问题尚未得到有效解决，需要抓紧补齐的短板和亟待解决的问题还有很多，特别是在全市经济社会发展开局起步的关键节点，更需保持清醒、查找不足，瞄准问题、对标先进，学习经验、奋起直追，以发展实践解决发展问题，以破解问题促进振兴发展。', '通化与浙江台州建立对口合作关系。改革开放以来，台州秉持“敢为天下先”的发展理念，以民营经济先发引领区域经济蓬勃发展，创造了举世瞩目的“台州现象”，对我市具有很强的借鉴意义。全面学习对标台州、推进与台州的对口合作，是我市发展的重要机遇。', '按照“不忘初心、牢记使命，绿色转型、全面振兴”大学习、大讨论、大调研、大落实教育实践活动的部署要求，市委决定组织全市县处级以上领导干部、优秀中青年干部及部分企业家650人左右，赴台州开展8期学习台州、解放思想、加快发展专题轮训班。3月22日，市委召开动员大会，市委书记王志厚发表重要讲话。强调，市委组织县处级以上领导干部及部分企业家到台州进行专题轮训，就是要全方位对标台州，把台州先进做法、成功经验学回来，把台州科学高效的体制机制带回来，就是要来一次彻底的头脑风暴，推动全市“关键少数”的思想大解放、观念大更新，乘着新时代第一春的东风，加满油、把稳舵、鼓足劲，以永不懈怠的精神状态和一往无前的奋斗姿态，奋力开创新时代通化绿色转型、全面振兴新局面。', '“带着问题去台州、带着办法回通化。”3月23日，动员大会刚结束，来自各县（市、区）、通化医药高新区、吉林通化国际内陆港务区和市直部门近60名县处级以上领导干部及部分企业家，行程2000多公里赶赴台州，对标学习，交流合作。', '次日早8时，第一期专题轮训班在台州市委党校正式开班。市委副书记张宝宗作开班动员讲话，市委常委、组织部部长邵波主持，市人大常委会副主任刚振涛出席开班式。', '第一期专题轮训班成立了临时党支部及班委会，张宝宗任支部书记，邵波、刚振涛任支部副书记，并一同带队跟班指导。', '此次赴台州对标学习、专题轮训历时7天。期间，邀请浙江大学、台州市有关部门和金融单位的专家学者，就“高质量发展和产业转型升级、制造业转型升级、‘最多跑一次’改革、环境保护治理、现代化农业、创新创业”等发展问题，开展一系列具有针对性的专题、现场、案例教学活动；先后深入服务机构、企业、乡镇、科研院所等近20个单位和部门，实地考察学习，“零距离、面对面、心贴心”地广泛吸取先进经验；积极主动上门开展对口对接和项目对接活动，深入交流，增进合作。市领导带队跟班指导的同时，每天还利用晚间休息时间，组成6个讨论小组，围绕通化发展和各地各部门工作存在的突出问题，对标先进，对号入座，寻求有效解决问题的方式方法，并要求做好个人学习总结，并形成调研报告。', '通过赴台州开展学习台州、解放思想、加快发展专题轮训，大家深有感悟：做到学有所获、学以致用，关键解决好思想问题、理念问题和观念问题。这些问题解决不好，前行的道路会越走越窄，发展的活力会越来越弱。学习先进，要坚持常态化，决不能急功近利，更不能急来抱佛脚；要因地制宜，有的放矢，准确发力，决不能照葫芦画瓢、死搬硬套，要切合通化发展实际。', '当我们仰望苍穹，寻找梦想星空的时候；当我们回眸往昔，寻找辉煌岁月的时候；当我们追溯历史，寻找沧海桑田的时候……有这样一个答案告诫我们：解放思想--只有进行时，没有完成时。', '新时代更要有新气象，新使命更要有新作为，新的“通化故事”正等待我们去书写……当前，通化正处于攻坚克难、转型升级的关键阶段和大有作为、大展宏图的重要战略机遇期。我们要把思想和行动统一到学习贯彻落实党的十九大精神上来，统一到市委大部署上来，深入开展“大学习、大讨论、大调研、大落实”教育实践活动，强化高素质专业化干部队伍建设，全面对标学习，确保把台州的发展理念和实践经验学回来、用得上，释放澎湃动力，开启新的进发，不负今天使命担当，无愧明天伟大梦想。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>52</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>通化市人社局努力创建技能人才培养新机制</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2017-12-15</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://rsj.tonghua.gov.cn/xwdt/201712/t20171218_184575.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['”战略，进一步加大高技能人才培养建设力度，拓宽技能人才培养、使用、发展通道，通化市人', '总体要求，以服务就业和经济发展为宗旨，紧紧围绕人才兴业和扩大就业战略，进一步创新体制机制，加快提升劳动者职业能力为目标，不断创新理念、创新思路，大力弘扬工匠精神，为实现人才带动战略和促进我市经济又好又快发展提供强有力的人才支撑。', '以服务就业和经济发展为宗旨，紧紧围绕人才兴业和扩大就业战略，进一步创新体制机制，加快提升劳动者职业能力为目标，不断创新理念、创新思路，大力弘扬工匠精神，为实现人才带动战略和促进我市经济又好又快发展提供强有力的人才支撑。', '推动中等职业教育与高等职业教育有机衔接、融合发展，畅通人才多元化成长渠道，发挥现代高新技术优势，实现校企深度融合，适应经济发展需求。通化市职业技能教育集团在市委、市政府的坚强领导下，于', '家企事业单位组成。面向城乡各类符合条件的劳动者，开展常态化免费就业技能培训和创业促就业培训。集团成立以来，共组织', '为深化“以赛代评”技能人才评价机制，积极承办省级职业技能竞赛，统筹相关部门、行业组织或团体高标准举办市级职业技能竞赛。鼓励企业职工积极参加各级各类技能大赛。', '雕刻工、汽车维修工、车工、机修钳工、维修电工、焊工、育婴员、养老护理员、中式面点师、中式烹调师等', '一是实现“四个突破”。进一步突破年龄、突破资历、突破身份、突破比例的限制，加快建立以职业能力为导向，以工作业绩为重点，注重职业道德和职业知识水平的高技能人才评价体系。对于符合国家职业标准规定的后备高技能人才，及时组织鉴定。对于在岗工作多年并具有相应技能水平的核心骨干，普遍开展技能评价。对于在职业技能竞赛中涌现出来的优秀技能人才，按规定', '。二是规范职业技能鉴定工作，加强质量督导，确保评价质量，增强职业技能鉴定的权威性和公信度。', '为发挥政策激励作用，激发高技能人才的创新创造活力，努力让高技能人才想干事有机会、能干事有平台、干成事有回报、干好事有发展。一是', '金。对“通化工匠”，在进行技术创新、技术研究、成果推广和项目转化及所在企业申报技能大师工作室、师徒工作间等方面给予支持。针对“通化工匠”技术创新需求，积极协调省内外专家开展政策技术咨询、联合攻关等服务。推荐“通化工匠”到职业院校兼职教学，参评高级职业资格。每年组织“通化工匠”进行体检。定期组织“通化工匠”域外学习考察及高端研修。二是依托企业建立职业技能实训基地、技师工作室和工作间。为鼓励全市各行业、企业选拔生产、服务一线的优秀高技能人才，', '通化石油化工机械制造有限责任公司向省人社厅成功申报“徐朝辉国家级技能大师工作室”及“原红卫省首席技师工作室”。于', '月末，开展市级技能大师工作室和师徒工作间的评选工作。进一步发挥技能大师引领示范作用，推动技能传承和生产技术进步，使“工作室”和“工作间”成为企业的智囊团、项目的攻关队、人才的孵化器。开展市级实训基地建设项目申报工作。依托市职业技能教育集团、各技工院校及就业指导中心建立一批市级职业技能实训基地。通过实施职业技能实训基地建设项目，提高实训装备水平，完善实训功能，深化职业技能实训基地与企业开展技能人才培训的合作，提升我市高技能人才培养能力。同时与市电视台开辟专栏，对技师工作室进行宣传报道，积极宣传党和政府关于促进高技能人才成长的政策，大力营造“劳动光荣、技能宝贵、创造伟大”的良好社会氛围。', '建立由组织、宣传、人社、财政、工会等部门参加的技能人才工作协调机制，全面负责对技能人才工作的指导与协调。各部门各司其职，密切配合，上下联动，共同推动技能人才队伍的发展。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>52</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>梅河口市政务服务和数字化建设管理局年工作总结及年工作谋划</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/zwgk/xxgk/zcbm/zwzx/zsjml/202011/t20201104_41667.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['2020年1月28日开始，我局先后组织136名党员干部参与疫情防控工作，从三个方面完成了疫情防控工作。', '防控之初，我局高度重视及时安排部署，组织101人深入到福民街道桥西和砂轮两个社区，西环师范道口、高丽新村、地质新村、民俗村、立交桥胡同、车队胡同等6个居民小区和部分平房区，对近3000户居民开展了逐门逐户逐人的排查，大力宣传防控知识，打击造谣传谣分子，为阻断疫情输入、保护群众正常生活秩序，维护我市社会稳定贡献力量。', '为助力我市复工复产，我局于2月10日恢复了大厅的业务办理。但为了强化疫情防控，确保办事群众和工作人员健康安全，我局制定了《梅河口市政务大厅关于做好新型冠状病毒感染的肺炎疫情防控工作方案》，实施了弹性工作制（2月17日恢复正常工作制），安排专人在大厅入口开展“吉祥码”扫码入厅监管，', '引入AI识别热成像体温检测系统，对入厅人员快速监测体温，确保入厅人员体温正常。同时在大厅张贴1.5米安全线，在门口', '前置帮办代办业务，增设高频业务疏导点，组织实施错峰服务，落实了一系列保障举措，在做好疫情防控的同时，保障了群众复工复产。', '我局在做好自身工作人员防控的同时，积极组织党员干部参与福民街两个社区的防疫服务站工作、和平街“七包一”居家医学隔离工作，以及返梅人员隔离点监管工作，先后参与136人，奋战了78天，圆满的完成了疫情防控任务。', '我局在做好自身工作人员防控的同时，积极组织党员干部参与福民街两个社区的防疫服务站工作、和平街', '制定了《梅河口市推行包容审慎监管的指导意见》（梅政协调组〔2020〕1号）文件，为进一步推动“三新经济”较快发展奠定了基础。落实了《关于印发&lt;吉林省开展政务服务“好差评”工作方案（试行）&gt;的通知》（吉政协调办〔2020〕8号），为我市开展政务服务“好差评”工作，提升我市政务服务水平、建设人民满意的服务型政府提供了根本遵循。', '按照省工程建设项目审批制度改革领导小组的要求，我市领导小组办公室制定了《梅河口市工程建设项目审批制度改革2020年工作方案》（梅工建审改办〔2020〕1号），为今年的改革制定了目标，也标志着我市工改的开始。同时', '按照省工程建设项目审批制度改革领导小组的要求，我市领导小组办公室制定了《梅河口市工程建设项目审批制度改革', '我市积极配合省政府进行以条线为主梳理政务服务事项工作，进一步规范我市的政务服务事项和权责清单梳理工作。完成了市直部门政务服务事项复用工作，复用主项864项，办理项1937项，乡镇（街）、村（社区）政务服务事项的复用工作也已完成。', '我市积极配合省政府进行以条线为主梳理政务服务事项工作，进一步规范我市的政务服务事项和权责清单梳理工作。完成了市直部门政务服务事项复用工作，复用主项', '在考核中始终坚持公平、公开、公正的考核标准。每天不间断的在电子监控上巡查及现场巡查，认真做好考核记录，严格执行各项考核规定。在考核中，我们量化考核指标，实事求是地开展工作，做到一视同仁，公平、公正地对待每名窗口工作人员。', '代办服务窗口共接待待办事项2693次，其中，代办公司业务162次，合作社业务43次，个体业务2488次。建立绿色通道，帮助70周岁以上老年人、残疾人、在役军人及军属等特殊人群解决排队难、办事难的问题，残疾人绿色通道窗口服务残疾群众54人次；设置免费打字复印处，为办理业务的群众提供便利，平均每天复印1600余张；每层楼梯口设立导服人员，负责了解群众的具体办事情况并引领到相应窗口，保障群众顺利办理。', '设立征求意见箱、公开监督举报电话、搭建网络投诉平台等多种方式，畅通群众诉求通道，加强对行政权力运行的监督，保障政务服务工作逐步实现制度化、规范化、科学化。截止目前，受理群众投诉举报4人次，回复12345投诉咨询38件，有效解决群众诉求，群众满意度达99%以上。', '设立征求意见箱、公开监督举报电话、搭建网络投诉平台等多种方式，畅通群众诉求通道，加强对行政权力运行的监督，保障政务服务工作逐步实现制度化、规范化、科学化。截止目前，受理群众投诉举报', '《关于做好清理不符合&lt;优化营商环境条例&gt;现行规定的通知》，就全市不符合《条例》现行规定进行自查，确定需要清理的规章、规范性文件和其他政策文件清单及清理意见。通过对全市各部门摸排，我市没有不符合《条例》的现行规定。', '落实东北营商环境第三方评估反馈问题整改。印发了《关于落实东北营商环境第三方评估反馈问题整改工作的通知》（梅软办发', '号），针对第三方评估反馈问题逐条整改，并列明具体落实举措、进展情况及责任人，采取一季度一调度一报送的方式，做到应改必改。', '设立监督员、监测点。开展加强全市软环境监督员队伍和监测点建设工作，在“企业代表、行业协会商会代表、新闻媒体代表、社会人士代表、基层群众代表”中聘任', '获得全国“营商环境质量十佳县（市、区）——综合竞争力”荣誉称号。代表我市参加由《环球时报》社主办的第二届中国国际化营商环境高峰论坛暨《', '积极协调吉视传媒及联通公司依申请为电子政务外网需求单位分配IP地址，保障电子政务外网运行通畅。对于已接入电子政务外网的单位进行监督管理，建立完善的联络机制，确保全市电子政务外网安全可靠运行。', '在我市综合性实体政务大厅开辟“一网通办”自助服务专区，配备电脑及扫描仪、打印机等必要的信息化采集、输出设备，组建专业化引导员队伍，提供优质高效的咨询解答、辅助操作、帮办代办配套服务。专区现已正式对外开展服务，各项工作运转良好，切实提升企业群众办事体验感和满意度。', '开展无证明城市创建工作，组织全市各相关部门全面梳理证明事项清单，公布拟保留及取消的证明事项，制定推进无证明改革工作方案，对接无证明城市查询核验平台系统，创建工作', '健全政务信息平台管理制度，保障数据安全规范。严格按照国家标准，构建全方位、多层次、一致性的防护体系，建立信息资源整合机制，规范数据采集口径、采集方式及规范数据服务方式。实现全市范围内跨部门、跨地区、跨行业信息交换，进一步提升信息资源综合利用水平。', '建设市政务信息共享网站，满足政务服务数据共享需求。组织我市46个部门（单位）梳理政务信息资源共享责任清单，共计730条。我市是全省第一个完成数据共享清单梳理的地区。截止目前，市民政局、市人社局、市司法局等39家部门接入平台，实现人口基础信息、居民身份证信息、社保参保证明等73项超过11亿条数据可共享。', '促进电子证照全网络、全流程的受理、验证、审批、管理与应用，实现行政审批办理的“一证式”服务，解决社会公众反复提交纸质材料的问题，减轻群众负担，节约社会成本，进一步提高行政效率，推动服务型政府建设，共采集了44个市直部门、19个乡镇、303个行政村、5个街道、16个社区的电子印章信息，在电子证照方面采集了37个证照的照面信息，涵盖了大多数政务服务审批类项目，为电子证照库建设提供了基本信息保障。', '预计2020年底，智慧城管项目监督指挥中心建设完毕。安全视频监控建设联网应用（雪亮工程）工程量已设计完毕，设计方案报省政法委审核中；智慧旅游服务与运营平台项目正编制可行性研究报告；梅河口市灾害防控保障中心（应急救援指挥保障平台）建设项目可行性研究报告正在修改完善，目前正在进行建设项目选址；智慧食安提升工程已在湾龙、进化、康大营三个乡镇建立信息化农村聚餐放心厨房；智慧农业物联网和大数据平台项目前期主塔建设和机房设备建设完毕，7个辅助设施安装完毕，十八锅米业试点项目完成70%；梅河口市建设工程项目数字化智慧远程监控平台建设项目一期建设完成。', '招商引进梅河口市慧丰科技有限公司，该公司计划总投资6000万元，主要经营活性炭生产。', '约化建设已完成，实现了全省一网搜功能，同时我市政府网站已与吉林省统一身份认证平台实现互通。', '截至目前，梅河要闻发布更新信息276条、政务活动更新218条、要闻视频257条、梅河新闻257条、部门动态、聚焦新农村、关注民生共计619条、政府公告246条、政府文件71条等。其中市长信箱共为市民答疑并处理了99件市民来信。', '条,守信红名单94条，失信黑名单195条。部门信用承诺书15条，企业信用承诺书299条。“信用梅河口”微信公众号发布新闻推送新闻', '我市涉及严重行政处罚行为的失信案件已经在归集处理中，2020年由于新冠肺炎原因的影响，并未开展线下公益性信用修复培训，并组织部分企业进行线上信用修复。', '2020年6月成立公共资源管理委员会，并下发了《关于梅河口市公共资源交易管理委员会组成人员名单的通知》（梅公管办〔2020〕1号）以及《关于规范梅河口市公共资源交易活动的通知》（梅公管办〔2020〕2号）等文件。同时开展了纠正地方公共资源交易项目场外交易行为清查第三方评估工作。目前我市公共资源交易中心筹备工作正在有序进行。完成了我市行政审批中介服务事项清单清理及发布工作。', '政务大厅文明氛围提升。大厅迎检工作主要围绕宣传工作开展，在原有宣传内容上，完善了一至三楼的核心价值观、文明健康有你有我相关内容的宣传，制作了宣传展板12块;制作了文明健康有你有我公益广告灯箱宣传片8面。在一楼完善了学雷锋志愿服务站建设，将服务箱、雨伞、爱心轮椅集中在一起为群众提供服务，安排学雷锋志愿者为群众帮办代办，制作服务站展板3块，设立指引牌3块，无烟大厅标识1块，同时合理规划垃圾桶，设立可回收和不可回收标识，利用垃圾桶盖，张贴戒烟标识，开展禁烟宣传。', '政务大厅文明氛围提升。大厅迎检工作主要围绕宣传工作开展，在原有宣传内容上，完善了一至三楼的核心价值观、文明健康有你有我相关内容的宣传，制作了宣传展板', '城区无物业小区和老旧小区修整。我局包保了扶助楼、信合小区、信托小区3个无物业小区和车队胡同、立交桥胡同2个平房区。对无物业小区的19个单元进行了楼道墙面粉刷、管道包裹、楼宇门维修，配置了34个灭火器和1个灭火器箱。分别在无物业小区和平房区的入口处和楼道内张贴了94处“文明健康有你有我”公益广告，安装了30块社会主义核心价值观、25块市民公约和居民公约公益广告宣传板、9块“15分钟生活圈”便民提示牌。', '复检期间持续开展义务保洁、文明斑马线志愿服务活动，累计调动百余人次开展包保小区、路段清洁及华阳桥路口文明斑马线工作。', '由于社会信用体系建设工作在我市起步较晚，全社会对社会信用体系建设工作认识不足，各部门重视程度不够，配合度不高，导致信用信息数据归集难度较大、数据量匮乏。', '信息系统孤岛现象依然存在。一方面纵向信息不顺畅。由于国家数据共享平台尚未完全建成, 与省市地方数据平台之间未全面实现数据共享, 导致相关部门在办理行政审批事项时, 需要重复录入相关信息, 费时费力, 严重影响群众的办事效率。另一方面横向信息不顺畅。目前各部门均建有各自的信息系统, 甚至同一部门的不同科室也有相对独立的信息系统, 而这些系统之间往往互不相容, 导致“信息孤岛”的存在, 造成巨大的资源浪费。', '深入推进“最多跑一次”改革。我市对外公布的“最多跑一次”事项，要达到办事事项总数的85%以上，2019年办件量前100的事项要全部实现公开办理、全部实现“最多跑一次”；全市公布的“一件事”全流程“最多跑一次”事项数达到30项以上。', '依托政务服务平台，推进“一网通办”，提升审批信息化水平。在开办企业、投资项目审批、工程建设项目审批等方面，推出100项省内“一网通办”政务服务事项，2021年底，实现跨省通办74项。', '加快落实“减层级、减事项、减材料、减环节”要求。精简审批材料、优化审批环节、压缩审批时限，依托E窗通系统，确保企业开办在1天内完成。继续压缩其他审批事项审批时限，扩大即办事项范围。', '建立健全政务服务“好差评”制度，完善政务服务评价渠道、建立“好差评”热线、来信、来函渠道、配置意见箱意见簿等；加大宣传力度，提高企业群众对“好差评”工作的知晓度和参与度；做好本地“好差评”平台与省级平台数据对接，确保所有数据与省政务服务网好差评平台互联互通。', '逐步推进“受审分离”。按照“受理与办理分离、办理与监督评价分离”的要求，对咨询、前台受理、后台审核、前后台衔接、出件五个环节的流程和组织运作方式进行优化。', '强化宗旨意识和服务意识，开展帮办代办、预约办、延时办、错峰办、上门办，解决群众和企业办事“最后一公里”问题。', '强化宗旨意识和服务意识，开展帮办代办、预约办、延时办、错峰办、上门办，解决群众和企业办事', '持续推进系统互联互通。建立完善省监管功能，加快推进工程审批系统与一体化政务服务平台等其他政务能平台互联互通。', '推进告知承诺制。通过事中事后监管能够纠正不符合审批条件的行为且不会产生严重后果的审批事项实行告知承诺制，公布承诺制办理事项清单、办事材料和具体要求，并明确对已经实施区域评估范围内的工程建设项目相关的审批事项实行告知承诺制。', '推行电子证照、电子签章。组织推进工程建设项目领域相关证照和签章电子化，推广电子证照、电子签章在工程建设项目审批中的应用。', '优化审批条件。依托网络监管系统，对审批超时、异常审批、企业投诉举报等现象开展“回头看”，剖析原因，总结经验，制定可行性高的改革措施，进一步优化审批条件。', '学习先进经验，提升宣传力度。组织领导干部及主要负责人去外地考察学习先进地区“工改”的做法和经验。面向企业、项目建设单位开展多种形式宣传，让企业和项目建设单位对试点工作有一个全面的了解、掌握，提高知晓度。', '运行综合受理模式。建立健全政务服务体系，运行“无差别综窗模式”, 积极协调各政务服务部门，纳入无差别受理综窗，简化审批流程，统一上交行政审批章，实现群众和企业办事“进一个门、取一个号、跑一个窗、办一件事”。', '协助推进市政务大厅（分厅）建设。指导市政务大厅（分厅）和乡镇（街道）、村（社区）便民服务中心规范化建设。', '加快数据资源归集整合工作。按照省政数局“强制归集”的原则，实现数据应归尽归。按需建设各类基础库、主题库、专题库等，不断完善行政机关及事业单位的政务服务数据，对全市机关企事业单位展开培训，保证新产生的数据及时归集，按时更新。', '提升数据资源应用成效。对已经归集到数据共享平台的数据，在确保数据可用的条件下，将统一受理数据共享需求，不断深化应用服务，推动政务服务更加便捷高效，利用祥云平台实现数据多方共享，提升办事效率。', '强力推进电子政务外网平台建设。根据国家电子政务外网建设安全运维要求，协调指导推进全市的电子外网铺设安装工作，加快政务外网向基层延伸，实现乡镇（街道）全覆盖', '在全市范围内各乡镇、街道便民服务中心全面设置“一网通办”自助服务专区，鼓励、引导群众“不见面”办事、“0跑动”办事。', '变“群众跑腿”为“数据共享”,实现群众“零跑腿”，让我市在数字政府建设上走在全省前列。', '提高站位，以超前思维长远眼光谋划好项目。立足省委、省政府关于梅河口市加快建设现代化区域中心城市、高质量发展先行示范区的新定位，对标“数字吉林”建设，加强分析研究，用心、精准、全面谋划“761”“十个围绕”“新基建”领域项目。', '提高站位，以超前思维长远眼光谋划好项目。立足省委、省政府关于梅河口市加快建设现代化区域中心城市、高质量发展先行示范区的新定位，对标', '进一步落实“四个亲自”，持续加强和省政数局的沟通联系，紧跟项目申报要求、入库标准和重点审定方向，不断优化项目结构和内容，提高项目入库率。', '坚持“一张蓝图”总体规划，“一盘棋”整体推进，全力争取国家、省、市各项支持力量，加快推进数字梅河口项目落地。', '学习先进地区智慧城市管理的发展经验建设城市超脑，扎实推进政务信息化建设工作，加快智慧城市建设步伐。', '按照2021年全市招商引资分解任务，加大招商引资工作力度，坚定不移完成全年招商引资任务。', '进一步完善和规范市政府网站集约化平台建设制度，加强对政府部门信息化建设与应用的管理考核。', '完善政府网站栏目内容，对全市重大信息进行跟踪报道。对政府网站进行全面系统的检查，保证所有栏目信息及时准确。紧紧围绕市委、市政府中心工作，对全市重大信息进行跟踪报道。', '国家要求推行行政监管事前承诺、容缺受理，事中评估分类，事后联动奖惩的信用分级分类监管机制。我市要全面推进把信用工具应用到各行业事前、事中、事后监管事项中。推信用承诺，用公共信用评价结果，开展行业失信问题专项治理。', '持续加强全国城市信用监测平台数据的报送工作。信用工作已经融入到经济生活的各个行业和领域，并且已经在很多领域得到应用，加快推进信用产品的应用，使信用工作融入日常工作和生活中，真正做到信用惠民、便企。', '全面推进惠民便企“信易+”产品开发应用。国家要求全面推进以“信易贷”为核心的惠民便企“信易+”产品应用，用信用手段帮助中小微企业解决融资问题，推动守信激励措施落地。在“信用+家政服务”、“信用+运输行业监管”、“信用+优秀志愿者”等惠民便企信用产品开发与应用，将“信易+”产品应用于更多的场景。', '国家要求加快推进一般失信企业的信用修复，助力营商环境的优化。按照国家和省信用修复管理办法，主动服务，线上线下相结合，组织企业进行信用修复。', '整合建设工程招投标管理中心、建设工程交易中心、政府采购办公室、政府采购中心、国土资源交易中心、公路建设项目管理服务中心等六个单位成立', '推进公共资源配置领域政府信息的政务公开。进一步完善梅河口市公共资源配置领域政府信息主动公开目录，并通过政府网站、公共资源交易服务平台、部门网站等渠道，向社会公示公布。同时，开展市公共资源配置领域政府信息自查以及配合第三方评估公司进行公共资源交易配置领域政务公开评估工作。', '进一步梳理我市行政审批中介服务事项目录工作。做好“全省涉企收费清单一张网”的行政审批中介服务事项录入工作。', '以解决问题为导向，在严实整治手段上求突破。将涉企“四乱”问题集中整治常态化。继续针对“涉企四乱”问题开展集中整治，严肃查处乱检查、乱处罚，乱收费、乱摊派问题，严肃查处涉企服务和监管中权力寻租、不作为、乱作为问题。发挥开辟案源的主动性。深入到经济社会发展的重点领域以及软环境问题易发多发的部门和岗位，充分利用常规检查、重点督查、个别抽查、明察暗访、模拟办事、专项整治等各种有效的手段，拓展案源。', '以强化宣传为基础，在夯实舆论氛围上求突破。坚持始终保持在主流媒体上的密集宣传频次。坚持以正面宣传为主，选树先进典型，塑造梅河口好形象；不定期曝光反面事例，开展自我剖析，起到引以为戒、令行禁止效果。', '以考核评价为抓手，在创实方式方法上求突破。完善考核制度，积极探索更切合实际和行之有效的考核评价方式方法，增加社会评议、第三方评估、网络调查、明察暗访、随机座谈等考评手段。完善奖惩措施，对软环境建设工作落实不力、成效不显的单位和部门，予以严肃追责；对各项任务按期完成、成绩显著的单位和部门，给予通报表扬。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>52</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>年通化市东昌区政协部门预算</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2017-05-10</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.dc.gov.cn/xxgk/czxx/ysgk/201708/t20170816_129514.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['东昌区政协在东昌区委的领导下，紧紧依靠和团结带领全体政协委员，认真贯彻落实中共十八届四中、五中、六中全会精神，深入学习领会', '，高举中国特色社会主义伟大旗帜，牢牢把握团结和民主两大主题，主动围绕全区工作大局，积极参加', '，切实履行政治协商、民主监督、参政议政职能，求真务实，开拓创新，为全区经济社会平稳健康发展做出贡献。', '政协机关是财政全额拨款单位，内设机构四委一办，即文教卫生委员会、经济科技委员会、台港澳侨联络委员会、提案委员会、行政办公室。', '2017年政协的机关运行经费财政拨款支出67.1万元，比2016年增加 18.4万元 。主要原因是增加委员的培训学习考察调研的场次及人数，加大宣传力度，费用增加。', '指以前年度尚未完成、结转到本年仍按原规定用途继续使用的资金，或项目已完成等产生的结余资金。', '指事业单位按有关规定结转到下年或以后年度继续使用的资金，或项目已完成等产生的结余资金。', '指通过财政拨款资金安排的因公出国（境）费、公务用车购置及运行费和公务接待费支出。其中，', '；公务用车购置及运行费指单位购置公务用车支出（含车辆购置税）及公务用车使用过程中所发生的', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>52</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>通化县包村干部抓班子带队伍理思路</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2015-06-17</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/zzgz/ncdj/201701/t20170105_44179.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['抓班子，加强村级班子队伍建设。包村干部通过召开村班子会、党员大会、村民代表大会和入户走访调研等方式，摸清村级班子工作情况。对于班子工作涣散、关系不和谐的，及时采取思想教育、个别谈话等形式进行整治。加大对党员发展和后备干部培养力度，把那些致富能人、退伍军人、外出务工返乡人员等优秀青年作为储备人才，利用远程教育、农家书屋、外出考察学习等形式，对他们进行各项培训，提高他们适应农村的工作能力。', '带队伍，提升村级班子理论素养。包村干部采取举办培训班、观看远程教育片和举办各种培训等方式，组织村干部认真学习党的路线、方针、政策和农村工作方式方法，并带领村干部学习农业技术、科技致富等方面信息，使每位村干部都能掌握1-2门实用技术。同时，监督村级“四议两公开”实施，完善村级民主管理、村务公开、重大事项民主决策制度，逐步规范农村干部的议事决策行为，促进村级事务公开透明、议事民主、决策科学、公道正派。', '理思路，加快新农村建设步伐。包村干部利用工作经验丰富、站位高、思路广等优势，与村班子一起制定完善发展计划，通过讲政策、教技术、传信息等有效措施，千方百计帮助找准符合村级发展的好路子，从而打造“一村一品”产业格局。按照新农村建设标准，采取行之有效的措施，带领群众开展农村环境整治，建设美好家园。组织农民开展运动会、扭秧歌和球赛等群众喜闻乐见的文化娱乐活动，丰富群众文化生活。 （通化县委组织部 于连秀）']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>52</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>关于印发年通化工匠评选工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2017-11-17</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://rsj.tonghua.gov.cn/rcfw/gsgg/201711/t20171117_175251.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['各县（市、区）人民政府，通化医药高新区管委会，吉林通化国际内陆港务区管委会，市政府各委办局、各直属单位：', '《2017年“通化工匠”评选工作实施方案》已经市政府同意，现印发给你们，请认真贯彻落实。', '为深入贯彻落实《中共通化市委通化市人民政府印发〈关于激发人才活力服务创新驱动发展的意见〉的通知》（通发〔2017〕17号）精神，进一步健全高技能人才培养激励机制，加快我市高技能人才队伍建设，结合我市实际，制定本实施方案。', '深入实施人才强市战略，提升区域创新驱动发展核心竞争力，以建设高技能人才队伍为引领，建立健全高技能人才培养、引进、评价、使用、激励、创新工作体系，营造全社会尊重技能人才的良好氛围，带动劳动者队伍素质整体提升。', '遵循“德才兼备、好中选优、优中择特、公开透明”的原则，确保评选对象的典型性和程序的规范性。', '以我市支柱优势产业为重点，面向我市各类企事业单位在岗职工，突出“德才兼备、注重技能、业内公认、突出专长”的衡量标准，在基层一线操作岗位，直接从事生产、技术、研发等工作，并满足以下条件之一：', '以我市支柱优势产业为重点，面向我市各类企事业单位在岗职工，突出“德才兼备、注重技能、业内公认、突出专长”的衡量标准，', '（一）曾获得“中华技能大奖”“全国技术能手”、国家级行业协会荣誉称号；享受国务院特殊津贴或荣获“全国劳动模范”“五一劳动奖章”。', '（二）曾获得“吉林省首席技师”“吉林省技能大奖”“吉林省技术能手”、省级行业协会荣誉称号；享受省政府特殊津贴或荣获“省级劳动模范”“五一劳动奖章”。', '（三）通过职业技能竞赛，获得“通化市技术标兵”“通化市技术能手”荣誉称号或荣获“市级劳动模范”“五一劳动奖章”。', '（四）在从事岗位和职业中拥有专利或科技创新成果，在企业技术改造、引进吸收高新技术、解决关键技术难题等方面具有突出贡献。', '（五）掌握本行业、本领域绝活绝技，在技术革新改造或生产实践中做出突出贡献，在全省乃至全国处于较高水平，并拥有一定社会影响力和知名度。', '掌握本行业、本领域绝活绝技，在技术革新改造或生产实践中做出突出贡献，在全省乃至全国处于较高水平，并拥有一定社会影响力和知名度。', '（六）在本企（行）业职业技能处于领先水平，积极开展带徒实践活动，乐于传授技艺，促进企（行）业职工队伍整体技能素质提高。', '（一）组织报名（11月14日—11月27日）。通过单位推荐、行业协会推荐和个人自荐的方式开展报名工作（符合报名条件的均可上报）。', '通过单位推荐、行业协会推荐和个人自荐的方式开展报名工作（符合报名条件的均可上报）。', '（二）初审筛选（11月28日—12月22日）。根据评选总体要求，对报名人员进行初审。初审通过人员分工种组织技能竞赛。', '（四）审核确定（12月28日—12月29日）。由评选工作领导小组办公室组织相关部门对初步人选进行复审，提出人选意见，报领导小组审核确定。', '由评选工作领导小组办公室组织相关部门对初步人选进行复审，提出人选意见，报领导小组审核确定。', '（五）社会公示（2018年1月2日—2018年1月10日）。正式人选名单通过“通化发布”微信平台、市政府网站、市人力资源社会保障局网站和市级媒体进行公示。公示时间不少于7个工作日。', '（二）“通化工匠”获得国家和省“技能大奖”的，由所在地同级财政对其给予每人5000元奖励；获得国家和省“技术能手”的，给予每人3000元奖励；获得国家和省政府特殊津贴的，给予每人5000元奖励。不重复奖励。', '（五）对作出重大贡献的“通化工匠”，优先推荐参加高级技师职业资格评审，并按相应比例破格晋升职业资格。', '（六）给予“通化工匠”职业能力培训补贴，所在地同级财政对参加同一职业（工种）、同一级别培训的，一次性给予技师培训补贴2000元、高级技师培训补贴3000元、高级技师岗位技能提升培训补贴2000元。', '职业能力培训补贴，所在地同级财政对参加同一职业（工种）、同一级别培训的，一次性给予技师培训补贴2000元、高级技师培训补贴3000元', '（八）积极协调省内外院士、专家开展政策技术咨询、联合攻关等服务，针对“通化工匠”技术创新需求，及时帮助解决技术创新难题。', '（九）每年组织“通化工匠”进行体检，积极帮助解决家属就业、子女就学等问题，在域内外学习考察、高端研修等方面提供高效便捷服务。', '进行体检，积极帮助解决家属就业、子女就学等问题，在域内外学习考察、高端研修等方面提供高效便捷服务。', '为加强“通化工匠”评选工作的组织领导，成立了以常务副市长、市委组织部部长为组长，市政府分管副秘书长、市委组织部副部长、市人力资源社会保障局局长为副组长，市人力资源社会保障局、市财政局、市工业信息化局，市总工会、团市委、市妇联为成员单位的通化市“通化工匠”评选工作领导小组。领导小组办公室设在市人力资源社会保障局，负责评选活动的日常工作。', '了以常务副市长、市委组织部部长为组长，市政府分管副秘书长、市委组织部副部长、市人力资源社会保障局局长为副组长，市人力资源社会保障局、市财政局、市工业信息化局，市总工会、团市委、市妇联为成员单位的', '（一）高度重视。“通化工匠”评选关系到我市人才强市战略的实施及以政府奖励为导向的高技能人才激励机制的全面落实。各地、各有关部门要高度重视，明确职责，扎实有序地组织开展评选工作。', '（二）严格把关。各地、各有关部门要按照申报标准和条件，对申报人选进行综合考量，切实把好“关口”，保证评选质量，确保优秀人才脱颖而出。', '（三）强化宣传。各地、各有关部门要利用电视台、电台、报纸、政府网站、微信等媒介，加大宣传力度，营造良好的舆论氛围。评选表彰结束后，要广泛宣传“通化工匠”的典型事迹，大力弘扬工匠精神。', '（四）严肃纪律。评选工作要坚持“公开、公平、公正”的原则，严禁弄虚作假、敷衍塞责，对推荐人选存在失真失实的，一经发现，取消荣誉资格，并严肃追究相关单位和人员责任。', '的原则，严禁弄虚作假、敷衍塞责，对推荐人选存在失真失实的，一经发现，取消荣誉资格，并严肃追究相关单位和人员责任。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>52</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>医药高新区召开第六次主任办公会议</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2011-10-31</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://gxq.tonghua.gov.cn/tpxw/201703/t20170317_53117.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['10月28日，通化医药高新区召开第六次主任办公会议。会议全面总结和借鉴了学习考察各地医药高新区发展建设的成功经验，促进高新区的发展建设；明确后两个月的工作任务，保证全年各项工作任务的圆满完成；谋划2012年的各项工作任务。', '会上，党工委书记、管委会主任初功名指出:通过大家的汇报，能够切实感受到大家通过学习考察，开阔了眼界，活跃了思维，明晰了思路，说明我们的学习考察活动是卓有成效的。对后两个月的工作安排和明年的工作打算也都非常具体，我也完全赞同。', '就如何进一步做好明年的工作，初功名指出：2012年，高新区的工作要坚持“五大一快”的工作思路，即项目大建设、资金大引进、工业大提速、环境大改善、服务大提升、经济快发展。具体工作中要做到“六千”：一、千难万险地推动项目大建设。一是明确目标任务。明年，开工亿元以上项目要有10项，投产的亿元以上项目要有10项。要将项目建设任务分解到各位副主任、各部门，逐月落实目标。上半年，全区1000万元以上项目的启动要达到60%以上，超亿元的项目开工率要达到70%以上。二是继续深入实施项目包保责任制。严格落实区级领导、主管领导、责任部门、项目主体四级包保责任制，按照各自分工，谁包保的项目由谁负责，谁主管的项目由谁负责，责任部门和项目主体负主要责任，抓好项目的落实和推进。三是扎实做好项目前期工作。项目立项工作、规划选址工作、土地报批工作、项目建设用地的征地拆迁工作要落实到责任领导和部门，并要加强对项目前期各项工作的督查工作。二、千山万水地做好资金大引进。为全面做好明年的招商引资工作，每位副主任都要带队外出招商。一方面要多搞一些“走出去”的专项招商引资活动，除了参加省、市组织的集中招商活动外，还要有针对性地搞一些招商引资活动，要超前拿出计划，提前做好招商引资、经贸交流活动各项准备。另一方面要把一些国内外知名企业“请进来”，邀请他们到我区来参观考察，让他们了解我们，用我们的政策优势和真情实意招商。在开展招商引资活动前，要切实做好项目的包装和储备，提高招商引资的成功率和签约率。三、千方百计地搞好工业大提速。明年，全区计划实现工业总产值26.25亿元，工业增加值7.43亿元，企业利润1980万元，增幅均为50%。要采取有效措施，促进工业企业做大、做强、做优、做精、做特。为保证工业提速增效目标的实现，要重点做好以下几项工作。一是成立工业提速增效工作领导小组。二是加强对工业经济提速增效的调度。三是落实包保责任。四是开展“百名干部进百企”活动。五是实行激励机制。四、千辛万苦地促进环境大改善。从明年开始，我区每年都要开展四次环境集中整治，每季度一次，每次一个月，集中整治期间全民动员、全民参与，平时由专业队伍抓好日常保洁，争取利用两年时间，打造一个优美、干净、有序的环境，为聚集人气、活跃商气、引进投资创造条件。重点突出四方面内容：一是要实现农村、社区的“爱洁保绿、平安和谐”。二是实现企业的“爱洁保绿、安全效益”。三是开展“四进”活动。即：组织机关干部进工厂、进农村、进社区、进工地，帮助研究制定改善环境的措施，并组织实施。四是加快园区规划工作。五、千言万语地做好服务大提升。从明年开始，要将优质服务做为一项常抓不懈的工作来抓，为打造“六最”高新区创造条件。一是牢固树立“四种精神”。即甘于奉献、激情创业、迎难而上、争创一流的工作精神。二是着力提高“六种能力”。即驾驭全局和处理复杂问题的能力、解决各类矛盾和综合执法的能力、应对和处理突发事件的能力、综合协调能力、廉洁自律能力和团结互助能力。三是全面提高服务质量。要深入落实好招商引资和项目建设的“五个一”的工作机制，即成立一个服务组、签订一个合同、出台一个政策、实施一站式服务、实行一包到底。为投资者提供“保姆式”、“亲情式”、“家庭式”的服务方式，真正做到服务要真诚、服务要到位、服务要全心全意，促进每一个项目都能引得进、留得住、发展好。六、千军万马地加速经济快发展。一是要强化财源保增长。二是狠抓收入保增长。三是用活政策保增长。四强化税收涵养保增长。', '最后，初功名强调：让我们在市委、市政府的坚强领导下，积极带领全区干部职工，坚定信心，努力拼搏，加快发展，为实现高新区又好又快发展而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>52</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>年通化台州对口合作工作实施方案</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zwgk/zcwjgk/201906/t20190625_355344.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['各县（市、区）人民政府，通化医药高新区管委会，吉林通化国际内陆港务区管委会，市直相关部门： 《2019年通化—台州对口合作工作实施方案》已经市政府第3次常务会和市委第4次常委会审议通过，现印发给你们，请各地、各部门抓好贯彻落实。', '为深入贯彻习近平总书记在东北振兴工作中关于对口合作的重要指示精神，全面落实党中央、国务院关于东北地区与东部地区对口合作的重大决策部署，按照《吉林省与浙江省对口合作工作实施方案》（发改振兴〔2018〕433号）和《通化市委 通化市人民政府关于深入推进通化与台州务实合作的意见》（通办发〔2018〕32号）要求，以“学习台州、促进合作、加快发展”为主线，积极开展全方位多领域的合作交流，实现优势互补、共赢发展，努力把通化与台州的对口合作打造成全省、全国对口合作样板，加快把通化打造成“吉林的台州”。 一、工作目标 2019年，全力搭建产业园区共建、特色产品展销、经贸旅游文化交流、金融领域合作和人才交流合作五个平台，推进九个方面三十五项重点工作务实合作。 二、重点工作和时间安排 （一）进一步深化开放合作。 1.谋划建设通化—台州产业园。结合两市发展战略布局、支柱产业、优势产业等方面的互补性，围绕医药化工、冰雪旅游、商贸物流、现代农业、机械制造、塑料模具等领域在港务区谋划建设共建共享的通化—台州产业园，鼓励实施政府引导、企业参与、优势互补、园区共建的“飞地经济”合作模式，探索实行委托管理、利益共享、税收分成的管理方式。紧紧依靠两地工商联、商会组织，吸引台州优质企业来我市投资兴业。 时间安排：2019年2月启动，力争年底前取得实质性进展。 责任领导：市委常委、常务副市长经希军。 责任部门：吉林通化国际内陆港务区牵头，市发改委、市商务局配合。 2.在台州建设运营通化产品展销平台，实现通化产品与台州市场有效对接。 时间安排：2019年2月启动，年内完成。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>52</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>县委书记姜信成深入基层开展调研活动</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2016-12-29</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/mlthx/mlxc/201612/t20161229_43484.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['4月28日至5月11日，县委书记姜信成深入各镇村，就美丽乡村建设、村集体经济发展、脱贫攻坚、乡村文化品牌、基层党建等工作进行调研。县委副书记吴思志，县委常委、组织部长刘忠波，县委常委、县委办公室主任赵玉波，副县长管健，县新农村办主任张福华参加了调研。', '在调研中，姜信成每到一处，都认真听取各乡（镇）党委书记关于各项重点工作的汇报，深入村屯、施工现场展开调研和指导。姜信成对美丽乡村建设工作，提出三点要求：一要建立一体化、共享式的发展思路，打造特色沿线，不要孤立建设、重复建设；二要做好未来规划和长远统筹，不要只局限在当前阶段；三要放开思想、大胆尝试，认真学习和借鉴外地先进经验，实现“走出去，引进来”，不要居功自满、停滞不前。', '姜信成指出，各乡镇要靠发展来壮大集体经济，靠发展来稀释问题矛盾，靠发展来拉动各项事业取得新成效。要坚持工业立镇不放松，摸清家底，保护好地域品牌，充分挖掘现有产业潜力，科学规划各类资源的开发建设工作。党员干部要在发展中充分发挥服务作用，做到主动沟通、有效沟通、善于沟通；要具备敏锐的头脑和对经济发展的前瞻预判能力，科学规划农村工作、科学指导农民耕作，减少市场经济波动对集体产业和农民增收的影响。姜信成要求各级党委、政府要抓住省、市、县帮扶包保的有利契机，充分挖掘发挥各帮扶部门的职能作用，选拔培养敢于沟通、善于衔接的乡村干部，做好对接工作，争取通过招商引资上项目来盘活镇村集体经济，力争早日实现村集体经济发展壮大。贫困村要积极联系包保单位、企业，做好规划谋划，主动“贴身”服务，打赢打好“翻身仗”；非贫困村要努力挖掘符合当地的特色内容，找准突破口，实现各项工作创新式发展。要积极推广“四同”教育模式，恢复机关干部与基层百姓同吃、同住、同劳动、同学习的教育传统，将其作为“进百村、联万家”活动的又一创新模式全面铺开。姜信成指出，要以对历史负责的态度，做好民族、文化和红色记忆的传承工作，为子孙后代多留福祉。少数民族乡、村是少数民族的聚集地，具有鲜明的民族特色，要保护好民族文化，传承好民族技艺。金斗朝鲜族满族乡、大泉源满族朝鲜族乡在发展中，要多体现民族元素，多挖掘民族文化，多发挥民族活力，把少数民族特有的精气神展示出来。快大茂镇要做好两处国宝级文物的抢救保护和长远规划、设计工作，充分发挥历史文化的特有魅力。相关部门要将兴林镇、光华镇、大安镇等乡镇的红色资源整合起来，以“一盘棋”的思想统一谋划，精细挖掘，精心包装，打造出一个高水准、大格局的红色教育基地，为全国各地党员干部提供学习考察场所，使通化县成为了解继承抗联文化，接受爱国主义教育、党性洗礼和革命传统教育培训的重要基地。', '姜信成指出，要把党建工作作为经济发展的基础和动力，实现党建服务经济、党建促进经济。换届选举工作要公开、公正、公平，要通过换届换出领导干部的精气神、换出领导班子的战斗力、换出乡镇发展的新面貌。要大胆使用年轻干部、调优干部结构，充分发挥青年人能闯、能冲、敢干、敢拼搏的特有优势，提高班子的宗旨意识和整体干事能力。姜信成强调，要高度认识换届工作的重要意义，形成系统的工作思路，配优配强领导班子，培养后备干部，严守换届纪律，要严厉打击贿选、拉票等违规选举行为，打造风清气正的优良换届环境。姜信成强调，全县党建工作基础良好、传统优势明显，要积极研究新载体、新模式，努力拓展党建工作新思路。西江镇三村党建联建村部工作、三棵榆树镇村部服务远程监管APP等都是非常好的创新和尝试。', '在调研中，姜信成指出：石湖镇、果松镇、东来乡的生态环境优越、森林覆盖率高、美丽乡村建设基础好，各乡镇党委、政府要充分发挥好引领作用，以通化石湖国家级自然保护区为核心，以建设“大保护区”为基调，高端统筹、精心谋划，找准各自定位，认清潜在价值，在已有的良好基础上全盘谋划、创新突破，努力打好自然、生态、旅游、文化的“组合拳”。姜信成强调，回归自然、步入生态是未来旅游的新趋势，石湖镇、果松镇、东来乡清新的空气、良好的生态环境、淳朴的民风乡情就是最宝贵的财富，要会用“白雪”换“白银”，要让“绿水青山”成为取之不尽的“金山银山”。', '姜信成对四棚乡的各项工作给予肯定，认为四棚乡班子成员精神面貌昂扬向上，美丽乡村建设、民生改善、民风修复、产业发展等诸多方面都有了很大提升。姜信成要求四棚乡要巩固成绩，再接再厉，努力实现创新突破，将美丽乡村建设和蝲蛄河湿地公园保护工作有机结合，采取因地制宜的方式，做好规划策划，在保持经济、社会发展的同时，将通化县的母亲河保护好，确保蝲蛄河流域的生态环境安全，为未来发展“多留遗产、少留遗憾”。姜信成特别强调富江乡种植业特点突出，土地流转率高，村村各具特色，农业生产模式已经由传统的大地玉米种植成功转向了细辛、贝母等中草药和蓝莓等经济作物种植，村级集体经济发展实现了有效夯实和壮大，值得全县所有镇村借鉴和学习。', '姜信成指出，电子商务作为进入农村的新鲜事物，一定要大面积推广，要发动有意向的企业、规模大户、村民共同参与，通过精细化管理和典型带动，让电子商务成果惠及千家万户，成为村集体经济新的创收点、增长点。我县拥有诸多特色产品、绿色食品和珍稀药材，原生态资源尤其丰富，依托网络平台来发展电子商务大有文章可做。要在巩固电商平台硬件设备投入和完善配套设施的基础上，加大电子商务的软实力建设，找准营销策略，培养专业人才，创新广告宣传语，扩大网上销售平台的关注度和点击率，努力打造享誉中外的网络特色品牌。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>52</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>政府工作报告年</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2020-01-17</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.huinanxian.gov.cn/zwgk/ggbg/202003/t20200317_444131.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['2019年，是我县经济社会发展极不平凡、极具挑战、极为艰难的一年。面对错综复杂的国内外形势和艰巨繁重的改革发展稳定任务，在县委的领导下，在县人大、县政协的监督支持下，县政府坚守政治责任、保持政治定力、强化政治担当，坚持稳中求进工作总基调，做到思路不变、目标不变、任务不变，带领全县人民认真贯彻落实习近平新时代中国特色社会主义思想,努力克服经济下行和减税降费等因素影响，大力实施“旅游+”发展战略，凝神聚力、蹄疾步稳、团结拼搏，各项工作有力、有序、有效开展，社会事业齐头并进，经济发展筑底企稳，实现量的合理增长、质的稳步提升，主要指标符合预期。预计全年：地区生产总值实现65.4亿元，完成调整计划的110%；全口径财政收入实现8.13亿元，完成调整计划的101.8%；地方级财政收入实现4.75亿元，完成调整计划的101.9%；社会消费品零售总额实现57亿元，完成调整计划的100.5%；固定资产投资完成21.8亿元，完成调整计划的100%；城镇、农村常住居民人均可支配收入分别达到24000元和14900元。', '现代农业稳步发展。争取资金1.5亿元，落实黑土地保护等项目23个，新建高标准农田8万亩，整理耕地1.8万亩。建立测土配方施肥示范区22个、科技体系示范基地9个，推广秸秆还田、机械深松等新技术20万亩，粮食产量达到11.5亿斤。“三品一标”农产品发展到48个，认证基地9个、6.2万亩。农业机械化率达到82%，3家合作社被列为吉林省现代农机装备建设实施单位。强化畜禽疫病防控，规模化养殖场稳定在98个。全省首家乡村振兴学院--通化师范学院乡村振兴分院落户辉南。我县被命名为“国家农产品质量安全县”“中国好粮油示范县”。', '工业经济稳健发展。企业家协会正式成立，成功举办首届企业家节，营造了重商亲企、合作交流、抱团发展的良好氛围。医药健康产业规划初稿编制完成。协调金融机构为企业发放贷款23.3亿元，兑现医药健康产业扶持资金4335万元；实施技改项目12个。长龙药业核桃饮品、德商药业胰胆舒颗粒批量投放市场，硕腾国原牛病毒疫苗实现试生产；海通药业药酒车间完成GMP认证，福辉药业抗病毒胶囊通过OTC审核。新增“小巨人”企业5户、高新企业1户。申请专利11件，授权专利20件。开发区实现工业总产值15.2亿元、税收0.7亿元，在全省92个省级开发区综合评比中位列第7名。', '服务业稳速发展。成功举办“象棋群英会”“冰雪旅创嘉年华”等大型活动；龙湾群森林公园、蝲蛄豆腐分获央视2019年度“魅力生态景区”和“魅力特色食品”荣誉称号。金川特色小镇、熙嘉荒生态度假区等项目扎实推进，龙堡森林度假村火车旅馆、抗联红色文化体验馆、四方顶综合服务区等项目投入运营。省“双创”经验推广现场会在“三合·乡里”农创园召开，文旅、农旅相结合的乡村旅游模式，得到省市高度认可。全省首家湿地生态研学基地落户辉南。全年旅游入境人数达到374万人次，综合收入实现35.4亿元，分别增长16%和18%。鸿丰物流园货运吞吐量达到40万吨，增长33.3%。我县入选“2019中国最美县域榜单”，通过矿泉水之乡国家复检。', '各项改革取得新进展。政府机构改革全面完成，新组建朝辉、东凤、西凤街道办事处。“放管服”改革成效明显，全流程行政审批实现在线监管，公布“最多跑一次”事项1192项，占总事项的87.7%。减税降费工作扎实推进，累计减免税费1.2亿元。不断优化营商环境，查处涉软案件11件，处理14人。在2018年全市软环境建设评比中位列第1名。农村集体产权制度改革清产核资工作顺利完成，土地确权通过省检入库。预算管理制度改革、企事业单位公车改革、辉南镇扩权强镇试点建设持续深化。', '投资引资迈出新步伐。实施5000万元以上重点项目41个，开复工率均达100%，在全市项目巡检中位列第1名。益安制药、众一辐照、天肽核桃肽等一批重点项目扎实推进。谋划5000万元以上重点项目308个，累计列入“国家重大建设项目库”475项，总投资897亿元。组织开展招商引资“走出去、请进来”交流活动110余次，到位资金35.1亿元。在“冰雪旅游季重点项目集中签约”活动中，签约项目15个，实现合同引资额48亿元。争取项目资金8.4亿元、地方债券5.8亿元。', '县城建管更加有力。东部生态新城初具规模。投资1亿元实施城区道路综合改造工程，东凤路等10条道路交付使用。开发区立交桥、大柳河桥正式通车，一中道口立交桥完成主体建设。深入推进黑臭水体治理，清淤19.5万立方米，铺设污水管线25千米，污水处理厂改扩建工程全面完成。征收房屋1151户、8.6万平方米，拆除违建349户、2.1万平方米。累计解决历史遗留无籍房1.2万户。扎实开展城市管理效能提升三年行动，制定出台《辉南县城市管理文明规范》，实施城区交通、城市出入口等专项整治11项，清理公路、铁路沿线448千米，新建改造城区水冲公厕5座，取缔占道摊点344处，打造楼道文化墙153处，城市建设与管理更加有序、更加干净、更加整洁。', '美丽乡村更加宜居。整合各类资金4.5亿元，实施文化广场、杖墙边沟等基础设施类项目252个；新建改建“四好农村路”150.4千米、“畅返不畅”33.7千米，政府采购、招投标供应链融资模式在全省推广。改造危房159户、厕所1830个。全面开展农村人居环境整治村庄清洁行动，清理道路1500千米、沟塘760千米，整治庭院2.6万户。城乡环卫一体化实现全覆盖，完成“村收集、乡转运、县处理”既定目标。创建省级引领村2个、示范村14个,打造市级美丽乡村示范村6个、美丽庭院2760户、干净人家3600户。样子哨镇、庆阳镇入选省级特色小镇，金川村被评为“2019年中国魅力休闲乡村”。', '生态环境更加优美。中央、省环保督察及中央“回头看”期间反馈问题和交办案件基本整改完毕，绿色生态底色更加鲜明。西凤山地质环境恢复治理和龙湾火山地质遗迹保护工程全面完成。清理整顿“大棚房”103平方米、违建别墅2处。扎实推进河湖“清四乱”专项行动,清理沿河垃圾1000余吨。投资1.2亿元，实施山水林田湖草生态保护修复、松花江支流综合治理等工程，整治河道149千米，国控兴隆断面水质已优于Ⅳ类标准。严厉打击破坏森林资源违法犯罪行为，查处案件165起，清收林地1.7万亩，补植造林6万亩，成功申报“森林康养基地试点建设县”。深入开展大气污染防治专项行动，新建空气质量监测站1座，空气质量优良天数达到341天。', '脱贫攻坚持续深入。扎实做好中央脱贫攻坚专项巡视反馈问题整改工作，制定措施40条，整改问题15个。投入资金2550万元，实施基础设施项目5个、产业项目3个。建立“县乡村”三级干部遍访工作机制，持续开展“五个一”“四同”等帮扶活动，深入推进医疗、住房、饮水等支持计划，帮助4302名贫困人口解决基本生活保障问题。“与爱同行”公益助学活动累计受捐3.7万余人次、42万元。“万企帮万村”对接帮扶实现贫困村全覆盖。全年实现1193人减贫、2个贫困村出列。在2018年全省脱贫成效考核中位列非贫困县第2名。', '保障体系持续完善。企业职工基本养老保险参保7.3万人，城乡居民养老保险参保8.9万人，机关事业单位在职人员参保7500余人。城镇基本医疗保险结算9400余人次、新农合结算23.3万人次，分别支付统筹基金5068万元和1.3亿元。城镇新增就业7000余人，转移农村劳动力5.5万人次。城镇和农村最低生活保障标准分别提高至每人每月450元、每人每年3900元。', '社会治理持续强化。扎实开展扫黑除恶专项斗争，打掉恶势力犯罪集团2个、团伙9个，破案40起，处理68人。切实抓好法律援助惠民工程，办理援助案件260件。辉南镇司法所获得“全国先进司法所”称号。开展安全生产专项整治18项，排查整改隐患955个，全年无较大以上生产安全事故发生。深入实施“食安辉南”建设，被评为“省级提升建设食品安全示范县”。办结上级交办信访案件57件，去市、到省、进京上访分别下降35%、10%和23%。', '社会事业持续发展。2019年十件民生实事均按计划有序实施。五中教学楼投入使用，职教中心、第二实验小学等项目扎实推进，新建改建农村校舍8所、13万平方米。高考本科上线率再创历史佳绩。建立县乡级医疗联合体4个、乡村级12个。我县被评为“全国基层中医药工作先进单位”。全民健身中心、中医院新建、县城备用水源等项目投入使用。荣获通化市田径运动会县市区组第1名。在中央、省、市媒体播出稿件277条，制作推介宣传片55个。成功举办庆祝新中国成立70周年系列活动，极大地振奋和凝聚了党心民心。', '扎实开展“不忘初心、牢记使命”主题教育，干部队伍理想信念进一步坚定、工作作风进一步转变、落实能力进一步增强。切实履行全面从严治党主体责任，严格执行中央八项规定及其实施细则有关精神，坚持不懈纠正“四风”；扎实开展各类巡视、巡察问题整改，党风廉政建设不断加强；坚持推进“下沉+”工作机制，积极打造服务型政府，治理能力和服务水平持续强化，公信力、认可度不断提升。自觉接受人大法律监督和政协民主监督，办理人大代表建议60件、政协委员提案45件，办结、满意和基本满意率均为100%。主动公开各类信息1823条，办理行政复议4件。充分发挥县长公开电话等载体作用，各类民意诉求得到及时回应和妥善解决。开展专项督察11次，政府各项工作有效落实。国防、双拥、金融、通讯、妇女儿童、残疾人事业稳步推进，统计、审计、档案、气象、民族宗教、外事侨务等工作取得新成果。', '各位代表，过去的一年，我们欣喜地看到辉南的发展步伐更加稳健，社会建设更加和谐，城乡环境更加优美，百姓生活更加殷实。我们深知，这些成绩的取得离不开上级党委、政府和县委的坚强领导，得益于县人大、县政协的有效监督和大力支持，凝聚着全体代表和委员的智慧和力量，倾注了全县36万人民的心血和汗水。在此，我代表县政府，向全县广大干部群众，向人大代表、政协委员、离退休老同志、各人民团体和社会各界人士，向参与辉南发展建设的驻县国、省、市属单位及驻辉部队、武警官兵，向所有关心和支持辉南发展的同志们、朋友们表示衷心的感谢，并致以崇高地敬意！', '各位代表！船到中流浪更急，行至半山路更陡。总结成绩的同时，我们也清醒地看到，在加快发展过程中，仍然面临较大压力和诸多困难。在经济发展方面，部分重点企业受政策、资金、市场等因素影响，效益出现一定下滑，稳增长压力持续增大。在发展质量方面，项目总体规模偏小、科技含量不高，尤其缺少支撑发展的重大产业项目，发展基础和抗风险能力仍然薄弱。在财政运行方面，收支矛盾突出，保运转、保民生、保稳定压力进一步加大。在民生事业方面，一些群众关心的热点难点问题还没有得到有效解决，民生短板亟待加快补齐；生态环保和历史遗留问题仍然在一定范围内存在，破解难度较大。在政府自身建设方面，个别部门和公职人员宗旨意识、担当意识、责任意识、服务意识不强，政府系统党风廉政建设有待强化。这些矛盾和问题，县政府已高度重视，将采取有效措施，认真加以解决。', '2020年，是全面建成小康社会的决胜之年，是“十三五”规划的收官之年，更是实现第一个百年目标的关键之年，做好明年工作意义重大。总的要求是：高举习近平新时代中国特色社会主义思想伟大旗帜，全面贯彻中央、省、市全会和经济工作会议及县委十五届十次全会精神，坚持把发展作为第一要务，牢牢把握稳中求进工作总基调，坚定不移践行新发展理念，深入落实巩固、增强、提升、畅通“八字”方针和“六稳”工作要求，以全面建成小康社会为目标，聚力打造实体经济和主导产业，全面建设长白山第一门户，加快推进新时代辉南绿色转型、全面振兴全方位振兴。', '准确把握新时代东北全面振兴的战略机遇，抓牢项目建设“核心”、建牢产业集聚“平台”、打牢长远发展“基础”、筑牢引进落地“保障”，千方百计稳定经济增长，凝心聚力打造“实力辉南”。', '强力推进项目建设。扎实开展“三抓”“三早”行动，严格落实县级领导包保责任制和“五个一”工作机制，充分发挥项目中心统筹协调作用，强化土地、资金等要素保障，切实解决项目建设进程中的困难和问题。全年计划实施固定资产投资5000万元以上项目45个，其中新开工25个、续建20个。重点推动总投资3.5亿元的汇能生物质热电联产、总投资1.5亿元的环保材料产业园等一批新建项目早日开工；加快推进瑞丰“慢时光”度假小镇、博硕田园综合体等一批续建项目早日竣工。', '大力推动园区升级。本着“量入为出，量力而行”的原则，适度推进医药健康产业新区一期基础设施建设，不断提升园区承载功能。扎实推进机制体制、人才引进等各项改革，不断激发创业热情和发展活力。通过规范“一区多园”管理、加速“腾笼换鸟”步伐、深挖“总部经济”潜能，进一步优化资源配置、提升土地集约利用水平，全力将开发区打造成为项目的谋划平台、招商平台、建设平台，全年新谋划产业项目20个以上、新签约10个以上、新落地5个以上。重点推动总投资2亿元的喜爱迪系列消毒产品、总投资5000万元的达通冷链物流仓储、总投资8000万元的供热供汽（气）管线铺装等项目开工建设，不断壮大园区实力。全年工业总产值增长6%以上，税收增长5%以上。', '着力开展向上争取。按照“特色化、智慧化、规模化、差异化”标准，深度研究国家政策导向和资金投向，结合“十四五”规划编制，重点围绕主导产业、生态环保、民生短板等方面，谋划一批具有产业特点和地域特色的投资5000万元以上项目150个以上，不断充实到国家“三年滚动计划储备库”。切实加强与国家和省对口部门的沟通协调，紧密跟踪企业技改、乡村振兴、新产品研发、生态环境治理、城乡公共基础设施改造等领域的项目，最大程度地争取上级支持。', '全力抓好招商引资。坚持“引进增量、盘活存量、扩大总量”的发展理念，充分发挥域内企业信息灵、关系广、影响大的优势，开展以商招商；有效利用“双停企业”土地、厂房、设备等资源，开展重组招商；积极参加全球吉商大会、通化台州经贸交流会等活动，开展平台招商。重点引进产业链条长、带动能力强、辐射范围广的行业龙头企业。密切跟踪吉林修风制药产业园、京东冷链物流产业园、高铁专用水泥预制品等一批在谈项目，确保早日落地。力争全年招商引资落地亿元以上产业项目10个以上，盘活企业3户以上。', '秉承“质量第一、效益优先”原则，紧扣主导产业培育这一主线，坚持用新发展理念破解难题、增强动力、厚植优势，不遗余力打造“富强辉南”。', '全面推动旅游产业提速增量。以创建国家级全域旅游示范区为目标，坚持开展“冰雪旅创嘉年华”等节庆活动，全力打造集“自然观光、火山探秘、生态康养、红色体验、文旅研学”五位一体的产业发展格局。成立文旅集团公司，丰富旅游产品、拓宽营销渠道、强化对外宣传、提升服务品质。持续完善旅游夜市、自驾营地等服务设施，切实提高旅游产业的承载能力和服务能力。充分发挥我县生态、资源等优势，按照供给侧结构性改革的理念，不断优化旅游产业构架。围绕学生群体教学、实习、实训等需求，积极拓展“三合·乡里”农创园、龙堡森林度假村等项目功能，全力打造全国研学实训基地；围绕党员干部群体教育、培训等需求，积极融入东北抗联革命传统教育，完善提升抗联纪念馆、抗联路配套设施，着力实施庆阳兵工小镇、石道河红色文化遗迹等项目开发保护，全力打造全国红色教育基地；围绕中老年群体休闲、康养、医养等需求，加快推进金川特色小镇、熙嘉荒生态度假区、寒舍民宿等项目建设，全力打造北方生态康养天堂。重点抓好总投资1.5亿元的台州绿沃川田园综合体、总投资1亿元的国防教育基地等亿元以上新建项目落地开工。力争全年新谋划5000万元以上旅游产业项目15个以上、新签约5个以上、新落地2个以上，综合收入增长20%以上。', '全力推动医药健康产业提质增效。抢抓国家药品管理法修订有利契机，全面加大对企业的引导、服务、扶持力度，积极搭建“大数据”平台，推动我县医药健康产业提档升级。充分发挥企业家协会平台作用，定期组织考察学习，促进医药企业之间互相交流、互补优势、互助共赢。鼓励支持长龙药业依达拉奉针剂等3个品种开展一致性评价；积极帮助海通药业二期引进新品种、新项目，扩大现有通络止痛药酒市场份额，努力形成新的增长极。加快推进德商药业二期、益安制药、众一辐照等续建项目建设，重点抓好总投资2.3亿元的俊逸药业化药原料药、总投资1亿元的朗俊药业中成药等亿元以上新建项目落地开工。力争全年新谋划5000万元以上医药健康产业项目15个以上、新签约5个以上、新落地3个以上，总产值增长20%以上。', '全速推动绿色食品产业提标增产。充分利用“国家农产品质量安全试点县”成功创建有利契机，努力提升产业和产品标准，全力打造绿色、健康、安全的品牌形象。进一步加大“三品一标”认证力度，新增绿色、有机食品认证5个。启动实施野生山核桃地理标志认证和商标注册工作，力争年内通过国家评审。扎实做好水稻原料基地规范化建设，推动辉农粳稻、长兴谷物等企业承接中国好粮油示范项目，不断提升“辉南大米”含金量。加快推进天肽核桃肽、天龙泉矿泉水升级改造、绿立方田园综合体等续建项目建设，重点抓好总投资3亿元的饮锶源蓝靛果深加工、总投资1.2亿元的天源松仁露饮品等亿元以上新建项目落地开工。力争全年新谋划5000万元以上绿色食品产业项目15个以上、新签约5个以上、新落地2个以上，总产值增长15%以上。', '始终以改革创新精神引领经济社会发展,用好创新“金钥匙”、打好改革“组合拳”，着力推动体制机制变革创新，持续发力打造“活力辉南”。', '纵深推进各项改革。认真落实《吉林省优化营商环境条例》，继续精简行政审批事项，推进“综窗”受理和便民服务标准化建设，不断规范涉企收费、中介服务、便民举措，持续深化最彻底、最高效的“放管服”和“最多跑一次”改革，全力打造尊重企业家、投资者、纳税人和服务企业、项目、群众的全省一流营商便民环境。扎实推进市场监管等5个领域执法体制改革，科学划分执法职能，合理配置执法力量。持续深化事业单位和乡镇、街道机构改革，不断提升基层服务能力。继续做好农村集体产权制度改革和乡镇国库集中支付改革，切实提高资产管理水平和资金运行效率。', '稳步推进创新驱动。深入实施大众创业、万众创新，进一步激发县域经济发展活力，努力实现跨越式发展。全力帮助域内企业与科研院所、高等院校开展合作，培育创新人才队伍，促进成果交流转化。加快中小微企业信用保证基金、应急周转基金运营，增加企业授信和资金周转渠道，着力解决融资难、融资贵问题。鼓励支持海通药业药酒二次开发，加快推进德商药业小儿碳酸钙D3颗粒申报审批，不断提升现代化制药水平；继续抓好华兴科技电子软磁材料技改项目，争取早日投产达效。积极推广“三合·乡里”农创园“双创”发展模式，选择有条件的乡镇和村屯，打造文创农创相结合、文旅农旅相融合的新型创业示范园区。', '加速推进“数字辉南”。以数字政府建设为先导，推动信息资源跨部门、跨层级共享，打破“信息孤岛”。加大数字惠民工作力度，积极整合现有网络、设备等资源，加快城市管理、交通等领域数字技术应用，推进城市运行指挥中心、城市时空大数据中心、智慧旅游、智慧城管等项目建设，充分释放数字化对经济发展的放大、叠加、倍增作用，让数字化融入政府各部门、经济各领域、社会各方面，更好地服务于经济发展和人民群众。', '坚持以新型城镇化建设和乡村振兴战略为引领，统筹城乡要素互动、空间利用共融、服务管理均衡，重点抓好公共文化、基础设施、社会治理等工作，集中精力打造“魅力辉南”。', '厚植厚积文化氛围。大力推进文化兴县战略，梳理辉南文化精髓，打造辉南精神。组织开展精神文明创建活动，以政风促社风，以社风带民风，展现新形象、凝聚正能量，积极引领重创业、讲奉献、守诚信、尚礼仪、真文明的社会风尚。加强镇村、社区综合性文化服务中心和群众文艺角建设，着力构建设施齐全、功能完备、使用便捷的公共服务体系。积极筹办全民运动会和象棋群英会等大型赛会，努力丰富群众文娱生活；扎实开展“我的家乡”等演讲比赛，讲辉南故事、扬辉南风采、颂大美辉南；深入开展青少年经典诵读系列活动，使文化传承成为人民群众的思想和行动自觉。', '抓实抓好城市建管。全面启动“创城”活动。加快推进国土空间规划编制工作，形成开发保护“一张图”。大力推进东部生态新城建设，切实抓好内河综合治理、湿地公园、生态慢道等项目，进一步完善城市承载功能。纵深推进城市管理效能提升三年行动，扎实开展城市出入口及公路、铁路沿线专项整治；加大人员和设施投入，增加城区街路清洗、清扫频次，提高保洁作业标准；强化对弃管小区、早夜市等部位的服务和管理，积极营造干净整洁、规范有序的城市环境，实现物业“全覆盖”、环卫“无死角”。全力抓好城区依法征收和拆除违法建筑“冬春会战”，严防严打新增违法建设，全面完成300户、2.3万平方米的棚户区改造和重点项目用地征收拆迁任务。', '共建共享美丽乡村。坚持把保障粮食安全作为首要任务，深入落实“粮食安全省长责任制”，积极推动“藏粮于地、藏粮于技”战略落实落地，新建高标准农田8.4万亩；大力推广秸秆粉碎等新技术，实施黑土地保护20万亩。新增专业合作社、家庭农场等新型经营主体60个，流转农村土地22万亩。深入推进农村人居环境整治，实施基础设施项目87个，完成改厕1300个。创建美丽庭院2000户、干净人家2500户，农户参与创建比例达到80%以上。全力推进国家级“四好农村路”示范县创建工作，完成60千米建设任务。逐步健全自治、法治、德治相结合的治理体系，积极培育勤俭节约、文明理事的乡村新风，切实提高农村文明程度。', '聚焦全面建成小康社会，对标对表“任务书”、织细织密“图表册”、决战决胜“攻坚战”，确保工作成果得到人民认可、经得起历史检验，尽心竭力打造“和谐辉南”。', '把“精心”贯穿风险防范全过程。坚持在发展中防范化解重大风险的工作理念，本着为人民和事业负责的态度，守护好人民生命财产安全，保护好经济社会发展环境，推动各项事业健康发展。聚焦地方政府债务、养老保险发放、防范化解金融风险等重点领域，牢固树立过紧日子思想，严格执行预算、压缩一般性支出，严控债务增量、化解债务存量；切实加强征管，涵养税源、培植财源，不断增强财政保障能力。严格落实养老保险各项政策，加大征缴和清欠力度，主动向上争取，全力确保基本养老保险金按时足额发放。严厉打击恶意逃债、非法集资等违法违规行为，持续加强信用体系建设，切实优化金融生态环境。', '把“精准”贯穿脱贫攻坚全过程。坚持目标导向、政策导向和问题导向，不断巩固提升“两不愁、三保障”工作成效，坚决取得脱贫攻坚全面胜利。加大涉农资金整合力度，全面加强道路、广场等基础设施建设，统筹推进贫困村和非贫困村协调发展。持续强化“县乡村”三级扶贫项目规模化经营、标准化生产、精细化管理，释放产业效能、增加分红收益，确保贫困村、贫困户和贫困人口稳定脱贫不返贫。继续加大教育、医疗、住房等政策扶贫力度，引导鼓励民营企业、社会组织和爱心人士积极参与，切实解决贫困人口实际困难，不断提高群众满意度。', '把“精深”贯穿污染防治全过程。立足“保护现有生态家园，建设绿色农庄田园，打造山水城市公园”要求，全面启动“国家生态文明建设示范县”创建工作，坚决守住绿色生态底色。深入推广秸秆“五料化”综合利用，严控露天焚烧，力争综合利用率提高至85%以上；全面淘汰国III营运柴油车辆，城区空气质量优良天数保持在300天以上。严格落实河长制，加大饮用水源保护区保护力度，推进松花江支流及辉发河生态修复综合治理等重点工程实施，确保水源水质达标率100%、断面水质达到国省标准。积极开展土壤污染治理与修复，加强农业面源污染、畜禽养殖污染等监测治理，全面保护土壤资源。持续开展严厉打击破坏森林资源违法犯罪“冬春会战”，清收林地5000亩，补植造林5万亩，绿化道路44.3千米、河流14.7千米。', '把“精细”贯穿平安建设全过程。按照“有黑扫黑、无黑除恶、无恶治乱”总要求，紧扣“长效常治”目标，严格落实“七必查”，突出重点行业、重点领域、重点人群，强化宣传、摸排、核查力度，持续保持扫黑除恶严打高压态势，精密布控、严密管控、周密稳控，努力做到不漏一案、不漏一罪、不漏一人。加快雪亮工程建设进度，加大人脸识别技术应用范围，织密视频监控网络，逐步完善立体化、信息化治安防控体系。充分发挥“一村一辅警”基层治理作用，推动社区警务与社区工作共同运转，打造共建、共治、共享的现代化社会治理格局。', '认真践行“以人民为中心”的发展思想，时刻把实现人民群众对美好生活的向往作为奋斗方向，优化民生供给、优先民生项目、优厚民生保障，群策群力打造“幸福辉南”。', '完善公共服务，让群众更舒心。扎实推进金川中学等13所学校新建改建任务，促进教育均衡公平发展；倡导职业高中与域内企业开展对口合作，形成职业教育新模式；围绕“三风”建设，稳妥推进教育教学改革，着力构建“五育”并举的教育体系。加大宣传、引导力度，普及科学合理就医用药知识，树立正确的诊疗观念和治疗理念，防控、减少过度医疗；加强医疗机构基础设施建设，实施现代化管理手段，推进长期护理保险试点工作，努力提升医疗保障服务水平。切实做好第七次全国人口普查工作，全面摸清人口数量分布和城乡住房等基本情况。持续改进新闻报道形式和内容，有效提高广播电视工作质量。', '夯实社会保障，让群众更放心。全力促进就业创业，新增城镇就业5000人，登记失业率控制在4.5%以内，转移农村劳动力4.8万人，确保零就业家庭动态清零。积极鼓励全民参保，养老保险参保达到17.5万人；城镇职工、城乡居民基本医疗保险参保分别达到3.3万人和22.3万人。完善劳动人事争议调处机制，严厉打击拖欠农民工工资违法行为，强力维护和谐劳动关系。积极做好留守老人、困境儿童、贫困残疾人的保障工作，逐步形成特殊群体关爱保护常态化机制。', '提升治理水平，让群众更安心。全面实施“只访一次”标准化建设，加大信访矛盾隐患排查化解力度，依法打击缠、闹访行为，全力做好重要时间节点和重大会事期间的信访维稳工作，全年化解积案90%以上。积极推进应急管理体系和能力现代化建设，防范化解重大安全风险，扎实开展非煤矿山、道路交通、消防安全等13项重点领域专项整治，及时应对、处置各类灾害事故。持续实施“食品安全示范县”提升工程，努力打造全方位、全环节、全周期保障体系。深入开展交通秩序大整治活动，有效提升城区交通管理水平。', '在做好以上工作同时，按照县委安排部署，千方百计筹措资金，全力办好十件民生实事：一是基本完成主城区棚户区改造征收和安置任务；二是完成职教中心搬迁任务，推进第四中学、第二实验小学建设；三是推进儿童医院和县医院综合楼项目建设；四是完成城东一路、四顶线等11条城乡公路新建改建任务；五是完成一中道口立交桥建设任务；六是完成统建楼等31个老旧小区整治改造任务；七是完成辉南镇、金川镇污水处理厂建设任务；八是推进文化博物馆、科技馆、游泳馆和群众艺术中心项目建设；九是完成山水林田湖草生态保护修复项目建设任务；十是完成城乡生活垃圾转运系统建设任务。', '民之所望，政之所向。践行党的宗旨是政府一切工作的出发点和落脚点，对人民负责、为人民服务、让人民满意是政府的职责所在。我们将驰而不息地抓好自身建设，不断强化治理体系和治理能力现代化水平，树正气清风，建大美辉南。', '矢志不渝把忠诚作为执政之纲。坚定不移讲政治，牢固树立“四个意识”，坚定“四个自信”，做到“两个维护”，自觉在思想上、政治上、行动上同以习近平同志为核心的党中央保持高度一致。建立“不忘初心、牢记使命”长效机制，引导党员干部永葆政治本色。坚决落实中央、省市县委各项工作部署，身心下沉、埋头苦干，在“严、实、细”上下深功，以一如既往的严谨态度、一以贯之的务实举措、一抓到底的精细作风，对组织忠诚尽责，对事业履职担责，对人民高度负责，全力以赴、只争朝夕、久久为功、善作善成，狠抓工作任务落实，确保党的路线、方针、政策落地生根，切实增强政府公信力和执行力。', '持之以恒把法治作为行政之基。坚守“法定职责必须为、法无授权不可为”的要求，坚持尊崇法治、守法遵纪、依法办事，确保行政权力始终在法治轨道上运行。自觉接受人大、政协和社会各界监督，不断提高人大代表议案建议、政协委员提案办理质量。持续完善政府信息公开目录，推进决策、执行、管理、服务、结果“五公开”，用法治力量保障人民群众的合法权益。大力推行行政执法“三项制度”，引导广大干部严格按照法律规定的权限和程序行使职权，通过阳光执法积极化解社会矛盾。坚决用法律为民营经济保驾护航，确保企业依法平等使用资源要素、公开公平公正参与竞争；严格遵守涉民企业案件处置法律程序，保障企业家人身和财产安全，以更加公开透明、规范有序的法治环境，推动经济社会持续健康发展。', '不遗余力把担当作为从政之要。始终秉持全心全意为人民服务的宗旨意识，坚持“经济要上去，干部要下去”的工作思路，倡导一线工作法，深入基层、深入群众，面对面交流、实打实办事，在实践中不断提高为民服务的本领和效率，做到不求回报夙夜在公，不忘初心革故鼎新、不遗余力成业于勤，时刻把群众所需、所急、所盼记在心上、抓在手上，切实解决好群众最关心、最直接、最现实的热点难点问题。抢抓宏观政策机遇、产业发展机遇、项目建设机遇，把工作当事业、把事业当追求，敢作为、能作为、善作为，积极营造想事、担事、干事、成事的工作氛围，真正做到为事业担当、为人民担当、为时代担当，坚决不做贻误战机、辜负事业、阻碍发展的历史罪人。', '坚定不移把廉洁作为施政之本。全面落实中央八项规定及其实施细则有关精神，以上率下廉洁于身、以贤为表清心正身、以往为戒净为终身。严格执行廉洁自律准则和纪律处分条例，坚决履行“一岗双责”，驰而不息纠正“四风”。加大对公共资金、国有资产等重点领域的审计监督，严厉整治腐败。坚持在为民服务上“零距离”、在入企服务上“零干扰”、在涉软查处上“零容忍”，通过加强制度建设和最严格的执纪监督，让全体公务人员明边线、守底线、不越红线，纯洁队伍、纯正风气，积极营造“亲情”的党群关系和“亲清”的政商关系，牢固树立干部清正、政府清廉、政风清明的良好形象。', '各位代表！路虽远，行则必至;事亦艰，做则必成。新时代是奋斗者的时代，也是成就伟业的时代。让我们更加紧密地团结在以习近平同志为核心的党中央周围，在县委的坚强领导下，凝心聚力、大干快干、苦干实干、砥砺奋进，为全面建设长白山第一门户，加快推进辉南绿色转型、全面振兴全方位振兴作出新的更大的贡献！', '旅游+：将旅游产业与其他产业有机结合，不仅为旅游业的发展提供内容和文化元素，同时也促进各行各业产业发展。', '“放管服”改革：“放”是指简政放权，降低准入门槛；“管”是指公正监管，促进公平竞争；“服”是指高效服务，营造便利环境。', '“最多跑一次”改革：是通过“一窗受理、集成服务、一次办结”的服务模式创新，让企业和群众到政府办事实现“最多跑一次”的行政目标。', '“五个一”帮扶活动：组织一次学习、宣传一系列好政策、办好一件实事、践行好一个载体、讲好一堂党课。', '一岗双责：领导干部除负责抓好分管的业务工作外，还要负责抓好职责范围内的党风廉政、信访等工作。', '“五个一”工作机制：一个重大项目、一名包保领导、一个责任部门、一名项目专员、一抓到底”的推进机制。', '“下沉+”服务机制：行政部门把服务下沉到基层，为企业及其他行政对象提供上门服务和集中办理服务。', '数字辉南：数字政府的代称，是指在现代计算机、网络通信等技术支撑下，政府机构日常办公、信息收集与发布、公共管理等事务在数字化、网络化的环境下进行的国家行政管理形式。', '畅返不畅：指部分农村公路由于到达设计年限，或受自然灾害、重载车辆通行、养护管理不到位等影响，造成硬化路面破损，导致通行能力和服务水平明显下降的现象。', '秸秆“五料化”综合利用：是指秸秆肥料化、饲料化、能源化、基料化（食用菌生产）和原料化利用。', '两不愁、三保障：两不愁是指“不愁吃、不愁穿”，三保障是指“贫困人口义务教育、基本医疗、住房安全有保障”。', '“七必查”：指对黑恶势力头目骨干实行房产、车辆、银行流水、贵重财物、公司股权、有价证券、第三方支付平台检查。', '总部经济：是指一些区域由于特有的优势资源吸引企业总部集群布局，形成总部集聚效应，并通过“总部—制造基地”功能链条辐射带动生产制造基地所在区域发展，由此实现不同区域分工协作、资源优化配置的一种经济形态。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>52</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>二道江区教育局加大校长培训工作力度</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2007-04-26</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.thedjjy.com/jyyj/gxsp/201705/t20170522_84712.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['二道江区教育局党委加大全区中小学校长培训工作力度。一个月内先后两次派出人员外出学习考察。4月13日—19日二道江区进修学校负责干训工作的领导、教师和两位中小学校长到北京参加了“全国首届第二期中小学培训者高级研修班”的培训。4月24日—25日二道江区教育局赵焕丽局长亲自带领局领导班子、科长、中小学校长一行41人前往长春学习考察。此举赢得了全区各中小学校长的欢迎，认为这样的培训针对性、实效性强，大开眼界，收获颇丰。4月28日外出学习人员将在通化市第十四中学召开专题座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>52</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>开创农村建设新局面打赢脱贫攻坚大战役</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2017-01-10</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/dtyw/201701/t20170110_44918.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['2017年的元旦，对全市广大农村群众而言有着特别的意义。它是2016年摘掉贫困帽子的贫困对象奔向小康幸福生活的分水岭；它也是尚未脱贫的贫困对象到2017年底摆脱贫困的起跑点；它更是市委、市政府吹响新的进军号角，带领全市人民脱贫攻坚，继续冲锋、发起总攻的日子！ 在过去的一年里，全市各级党委、政府认真贯彻落实中央和省委的决策部署，把脱贫攻坚作为一项重中之重的中心工作，把压力变成动力，肩扛着对党组织的责任，怀揣着对贫困人的感情，以高度的使命感、责任感，实现了16583名贫困人口脱贫，占贫困人口总数的59%；35个贫困村出列，占贫困村总数的48%。让穷人揣上钱票子，让村民住上新房子，让光棍娶上新娘子，让农村过上好日子。 通过一年的脱贫攻坚，贫困村的面貌焕然一新。针对贫困村基础设施落后，环境脏乱差的问题，全市共实施基础设施类脱贫项目149项，饮水设施建设、农田水利设施建设、道路建设、通信设施建设、河流治理、垃圾清理、路灯安装、停车场建设、村屯绿化、文化广场建设、教育设施建设、医疗卫生设施建设等项目极大改善了村民的生产生活环境，为农业和农村发展提供了有力支撑。 通过一年的脱贫攻坚，一大批贫困村和贫困户实现了由“输血”到“造血”的质的转变。全市突出脱贫项目建设这一重点，采取老树开新花，优势变财源，能人带穷人等方法，围绕种植、养殖、光伏、旅游、电商等产业，加大脱贫项目建设力度。全市共实施脱贫产业项目315项，其中：种植类178项、养殖类65项、光伏产业32项、乡村旅游11项、其它类29项。 通过一年的脱贫攻坚，转变了贫困户“等、靠、要、懒”等思想观念，提升了内生动力。典型带动、项目拉动、点子撬动、目标驱动、互帮联动的“五动”措施让贫困群众不再等；通过科技不再靠天吃饭、通过“造血”不再靠救济、通过自立不再靠别人、通过立体发展不再靠土地、通过电商不再靠当地的“五不”让贫困群众不再靠；比脱贫进度、比项目发展、比脱贫数量、比督导力度、比宣传氛围的“五比”让贫困群众不再要；让贫困群众有奔头、让贫困人员有活干、让贫困人员有人帮、让贫困人员有培训、让贫困人员有市场的“五有”让贫困群众不再懒。 通过一年的脱贫攻坚，浓厚的脱贫攻坚氛围已经在全市形成。各地、各部门高度重视宣传工作，制定了《脱贫攻坚宣传工作方案》，在媒体上开辟了“打赢脱贫攻坚战”专栏，在电视、广播、报纸上进行了广泛宣传，营造了脱贫攻坚的良好氛围，广泛、深入的宣传，形成了全民参与、合力攻坚的良好局面。 通过一年的脱贫攻坚，实现了由“金点子”到“金路子”的突破。为进一步推动全市脱贫攻坚工作顺利开展，全市贫困村在前期谋划的基础上，抢前抓早，实施脱贫项目，把“金点子”变成了“金路子”。在项目推进和实施上，开展五大攻势推进脱贫项目：一是因地制宜上项目、二是依托大户落项目、三是以老带新增项目、四是发挥优势添项目、五是合力攻坚引项目。目前，全市已经实施的464项脱贫产业项目和基础设施项目带动了一大批贫困村和贫困户增收脱贫，取得了良好的脱贫攻坚成效。 通过一年的脱贫攻坚，创造并积累了一系列独创性的经验做法。在摸着石头过河，没有成型经验借鉴的情况下，一方面市、县两级分别到吉林市、白城市和贵州省贵阳市、遵义市等地考察、学习。一方面探索符合本地特点的经验。面对工作初期遇到的诸多困难，开展脱贫攻坚工作的领导和同志，以办法总比困难多的豪情和斗志，开拓创新，攻坚克难。 通过一年的脱贫攻坚，脱贫办的同志由没有这方面经验的新手生手变成了行家里手，各包保部门和一批干部深入基层与贫困群众成为了朋友和亲人。在新的一年里，要进一步抓好项目全覆盖，增强造血功能，通过采取强有力的措施，加大脱贫项目实施力度，2017年计划实施脱贫项目421项，投入资金3.6亿元。与此同时，继续加强基础设施和公益设施建设，加快补齐贫困村建设的短板。2017年，我们将按照市第七次党代会的要求，坚持以人民为中心的发展思想，顺应人民群众对美好生活的新期待，着力保障和改善民生，让全市人民更有获得感和幸福感。 作者：王雪松', '2017年的元旦，对全市广大农村群众而言有着特别的意义。它是2016年摘掉贫困帽子的贫困对象奔向小康幸福生活的分水岭；它也是尚未脱贫的贫困对象到2017年底摆脱贫困的起跑点；它更是市委、市政府吹响新的进军号角，带领全市人民脱贫攻坚，继续冲锋、发起总攻的日子！', '在过去的一年里，全市各级党委、政府认真贯彻落实中央和省委的决策部署，把脱贫攻坚作为一项重中之重的中心工作，把压力变成动力，肩扛着对党组织的责任，怀揣着对贫困人的感情，以高度的使命感、责任感，实现了16583名贫困人口脱贫，占贫困人口总数的59%；35个贫困村出列，占贫困村总数的48%。让穷人揣上钱票子，让村民住上新房子，让光棍娶上新娘子，让农村过上好日子。', '通过一年的脱贫攻坚，贫困村的面貌焕然一新。针对贫困村基础设施落后，环境脏乱差的问题，全市共实施基础设施类脱贫项目149项，饮水设施建设、农田水利设施建设、道路建设、通信设施建设、河流治理、垃圾清理、路灯安装、停车场建设、村屯绿化、文化广场建设、教育设施建设、医疗卫生设施建设等项目极大改善了村民的生产生活环境，为农业和农村发展提供了有力支撑。', '通过一年的脱贫攻坚，一大批贫困村和贫困户实现了由“输血”到“造血”的质的转变。全市突出脱贫项目建设这一重点，采取老树开新花，优势变财源，能人带穷人等方法，围绕种植、养殖、光伏、旅游、电商等产业，加大脱贫项目建设力度。全市共实施脱贫产业项目315项，其中：种植类178项、养殖类65项、光伏产业32项、乡村旅游11项、其它类29项。', '通过一年的脱贫攻坚，转变了贫困户“等、靠、要、懒”等思想观念，提升了内生动力。典型带动、项目拉动、点子撬动、目标驱动、互帮联动的“五动”措施让贫困群众不再等；通过科技不再靠天吃饭、通过“造血”不再靠救济、通过自立不再靠别人、通过立体发展不再靠土地、通过电商不再靠当地的“五不”让贫困群众不再靠；比脱贫进度、比项目发展、比脱贫数量、比督导力度、比宣传氛围的“五比”让贫困群众不再要；让贫困群众有奔头、让贫困人员有活干、让贫困人员有人帮、让贫困人员有培训、让贫困人员有市场的“五有”让贫困群众不再懒。', '通过一年的脱贫攻坚，浓厚的脱贫攻坚氛围已经在全市形成。各地、各部门高度重视宣传工作，制定了《脱贫攻坚宣传工作方案》，在媒体上开辟了“打赢脱贫攻坚战”专栏，在电视、广播、报纸上进行了广泛宣传，营造了脱贫攻坚的良好氛围，广泛、深入的宣传，', '通过一年的脱贫攻坚，实现了由“金点子”到“金路子”的突破。为进一步推动全市脱贫攻坚工作顺利开展，全市贫困村在前期谋划的基础上，抢前抓早，实施脱贫项目，把“金点子”变成了“金路子”。在项目推进和实施上，开展五大攻势推进脱贫项目：一是因地制宜上项目、二是依托大户落项目、三是以老带新增项目、四是发挥优势添项目、五是合力攻坚引项目。目前，全市已经实施的464项脱贫产业项目和基础设施项目带动了一大批贫困村和贫困户增收脱贫，取得了良好的脱贫攻坚成效。', '通过一年的脱贫攻坚，创造并积累了一系列独创性的经验做法。在摸着石头过河，没有成型经验借鉴的情况下，一方面市、县两级分别到吉林市、白城市和贵州省贵阳市、遵义市等地考察、学习。一方面探索符合本地特点的经验。面对工作初期遇到的诸多困难，开展脱贫攻坚工作的领导和同志，以办法总比困难多的豪情和斗志，开拓创新，攻坚克难。', '通过一年的脱贫攻坚，脱贫办的同志由没有这方面经验的新手生手变成了行家里手，各包保部门和一批干部深入基层与贫困群众成为了朋友和亲人。在新的一年里，要进一步抓好项目全覆盖，增强造血功能，通过采取强有力的措施，加大脱贫项目实施力度，2017年计划实施脱贫项目421项，投入资金3.6亿元。与此同时，继续加强基础设施和公益设施建设，加快补齐贫困村建设的短板。2017年，我们将按照市第七次党代会的要求，坚持以人民为中心的发展思想，顺应人民群众对美好生活的新期待，着力保障和改善民生，让全市人民更有获得感和幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>52</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>通化县推进人才强县战略构筑人才高地</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2015-06-17</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://thdj.tonghua.gov.cn/rcjs/201701/t20170105_44228.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['近年来，通化县紧紧围绕经济社会发展大局，牢固树立人才是第一资源的理念，深入推进人才强县战略，不断加大培养、引进人才工作力度，完善人才政策体系，优化人才服务环境，着力构筑人才高地，努力开创人才工作新局面。', '以实施人才工程为抓手，努力培养高素质人才队伍。实施企业家“双百工程”。今年组织87名企业家到浙江大学，学习浙商发展经验。开展感恩企业家活动，召开了第三届企业家节，举办民营经济大讲堂、地方产品展销会、排球赛和趣味运动会等庆祝活动。编撰了《财富-通化县企业家风采录》一书，介绍了李一奎等11位优秀企业家的奋斗历程。在今年全县综合表彰大会上，重点表彰了72名为县域经济发展作出突出贡献的企业家，奖励资金1020万元。实施党政人才培养工程。不断加大党政人才理论培训与实践锻炼力度，今年，组织129名乡（局）级领导干部到浙大、苏州农村干部学院研修学习；组织189名副乡（局）级领导干部进行了县内轮训；组织153名副乡（局）级后备干部分别进行了短期和长期培训，进一步提升综合素质。采取以考促学方式，分批次对全县674名乡（局）级领导干部和后备干部，进行了十八大报告、党章及县情知识考试，达到了学习目的。年初，经过笔试、面试、社会调研、论文答辩等环节，选派17名25岁以下年轻干部到乡镇和社区挂职锻炼，积累经验、增长本领。抽调10名乡（局）级领导干部和17名副乡（局）级后备干部组成7个园区推进组，丰富基层工作经验。实施专业技术人才培养工程。采取外出培训、名师帮带等形式，加强对专业技术人才的培养。在卫生系统开展了“县乡对口支援活动”，从县级医院抽调9名骨干医师到基层卫生院开展坐诊帮扶活动。选派25名县级骨干医生到吉大三院等省内知名医院进修学习，举办各种短期培训班14期，培训专业技术人才1850人次。东宝集团开展了“名师带高徒”活动，37位名师结对帮带146位徒弟，集团选派10名科研技术人员到德、美、韩等先进国家考察学习，提升能力。', '针对目前人才竞争日趋激烈的实际，根据全县人才队伍现状以及社会需要，不断拓宽人才引进渠道和方式，进一步扩大人才总量。借才引智，引进高级专业技术人才。为提高全县医疗技术水平，设立了医疗专业人才引进专项资金，今年，共引进廖雅丽、牛凤梅等8位高级专业技术人才，充实到县里各个医院。同时，聘请吉大一院20多位专家来县坐诊和讲学，进一步提高全县的医疗水平。东宝集团依托全省第二批高层次人才创新创业基地的优势，先后与与沈阳医药学院、延边医科大学等高校建立合作关系，并在北京大学设立奖学金100万元，用于引进高端人才。创新办学模式，提升教育水平。在第七高级中学建立东北师范大学通化县附属中学，通过以点带面，引领全县教育快速、均衡、科学发展。组织实施了“12345”工程：东北师大每年选派10名知名专家来我县举办各类培训班、每年选派20名骨干教师和学科带头人到我县支教；我县每年选派30名优秀教师到东北师大和附属学校接受脱产培训；东北师大为我县提供40名优秀教师和50名其他行业人员在职研究生学习机会。以见习基地为载体，引进大学毕业生。针对大学毕业生毕业即失业的问题，今年，依托教育、卫生和振国集团等大学毕业生就业见习基地，安排156名返乡高校毕业生见习锻炼，每月给予不低于1200元的生活补贴。', '着眼长远，立足县域经济和社会各项事业的需要，研究起草了《加强党管人才工作，深入推进人才强县战略的实施办法》，作为我县今后一个时期人才工作的指导性文件；制定《高层次人才引进办法》，在资金资助、住房保障、车辆配备、津贴补助、家属安置等10个方面制定了优于我省、市的引才政策；制定《返乡高校毕业生实习锻炼办法》，安排返乡大学毕业生到基层实习锻炼，给予一定的生活补贴，缓解高校毕业生的就业压力；制定《县管专家选拔管理办法》，每3年选拔一次，管理期限3年，每次评选20名，管理期间每月享受600元的政府津贴；连续3次当选的，终身享受县管专家相关待遇；制定了《骨干人才管理办法》，对纳入信息库的骨干人才进行重点管理和服务。', '从解决人才后顾之忧出发，全方位做好各项服务工作，努力创造真心待人、拴心留人的工作、学习、生活环境。实施骨干人才健康计划，针对省管专家盖保民同志身体状况，派专人带他到县医院进行全面的免费健康检查。制定优秀人才“绿色通道”等系列优惠政策，为各类优秀人才提供快捷优质服务。利用重大节日，通过登门看望、短信祝福等形式慰问骨干人才及其家人。今年春节，走访慰问了10名突出贡献人才，发放慰问金10000元。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>52</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>市国土资源局开展创先争优联创齐争活动</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2012-03-14</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.tonghua.gov.cn/gtj/dwgk/zdjs/202204/t20220425_609298.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['近日，市国土资源局在全市国土资源系统开展创先争优“联创齐争”活动。活动要求各基层党组织和机关各科室、直属事业单位结合工作实际，以“创新载体、突出特色、整合资源、上下联动、共建共创、共同发展”为原则，以构建“大局、服务、落实、规范、效率、形象”机关文化建设为核心，通过开展基层组织联创、发展大计联议、党群关系联促、民生实事联办，确保活动扎实开展，取得实效。', '－－基层组织联创。充分发挥各方党建工作优势，广泛开展机关党组织和联系点党组织、机关党员和农村党员“手拉手”活动；积极开展党性主题教育，组织党员干部到困难地区和红色教育基地实地走访，坚定理想信念，增强创先争优的使命感和责任感；围绕资源节约集约利用、耕地保护、土地整治、找矿突破、地灾防治等工作，组织党员干部、专家学者到基层宣讲政策、普及知识。', '－－发展大计联议。以“十二五”规划为龙头，以业务为主要内容，共同商议联创齐争活动方案、年度计划和相关制度，建立基层联络点；围绕转变土地利用方式、拓宽建设用地保障渠道、土地和矿业权市场建设、土地整治与项目实施管理、农村土地确权登记、征地制度改革与维护农民权益、地质灾害防治等方面协调研究课题，在法律政策允许的范围内，为地方发展提供支持与政策帮助。', '－－党群关系联促。组织党员干部深入到基层联系点，采取召开座谈会、随机抽查、问卷调查、个别走访等方式，进行专题调研，掌握第一手资料，逐步建立并完善上情下达、下情上达的工作机制；开展“三进四同”基层学习锻炼主题活动，积极组织机关干部“进国土所、进地质队、进矿区，同吃、同住、同工作、同学习”，推动机关干部向基层学习、向实践学习、向群众学习，磨炼意志、锤炼作风、增长才干；不定期组织联络点党员干部到机关学习考察，帮助基层党员干部解放思想，转变观念，开阔视野，增长才干。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>52</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>通化县全国第十八家东北四省首个国家卫生县城</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2016-12-29</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/mlthx/thxmp/wsxc/201612/t20161229_43489.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['通化县位于吉林省东南部，地处长白山西南麓、浑江中游。东与白山市交界，西与辽宁省桓仁县、新宾县毗邻，南与集安市接壤，北与柳河县相连。全境环绕通化市区，辖区面积3726.5平方公里，辖15个乡镇、1个开发区。境内山川秀美，资源丰富，呈“八山半水分半田”之地貌。', '通化县与通化市历经三合三分，1969年县城迁址到快大茂镇。由于建城时间较晚，城市基础设施欠帐很多，县城主要街道路面年久失修，道路两侧的楼房容貌不整，私搭乱建的违章建筑随处可见，流动商贩占道经营，用水难、行路难、如厕难、住房难、环境卫生差等一系列问题十分突出,远远不能满足经济社会发展的需要。2001年，县委、县政府在充分调查论证的基础上，做出了实施县城改造、创建山清水秀园林城市的决策。经过大规模的县城建设和改造，城市面貌发生了翻天覆地的变化，城市功能、城市品位都有了很大的提高，广大城区居民文明意识、卫生意识、创优争先意识明显增强。基于此，为了全面提高县城的管理水平和城区居民的生活质量，进而为全县经济和社会发展创造一个良好的环境，促进经济和社会协调发展，加速推进全面建成小康社会进程，2003年，适时做出了创建省级卫生县城的决策，并于当年以吉林省综合评比第一名的成绩顺利通过了专家评审，被命名为省级卫生县城。鉴于县城的建设管理水平，2004年，又做出了创建国家级卫生县城的决策。经过全县上上下下、方方面面的共同努力，县城的整体卫生水平、文明层次实现了历史性突破，于2004年11月份顺利通过了国家评审验收，成为全国第18个国家级卫生县城，填补了北方四省（区）的空白。', '通化县之所以能成功创建国家卫生县城，首先得益于始终把统一思想贯穿改造、建设和管理的全过程。在创建国家卫生县城决策前，县委书记、县长带领四个班子成员及建设、财政、土地、卫生、环保、交警、交通、工商、精神文明办等部门主要负责人到敦化、公主岭、四平、大连等城市进行考察学习，通过比照，让大家对我们的县城建设和管理的差距有了比较直观的认识。决策时，又组织有关部门和专家进行了充分的论证，先后多次召开各个层面的会议，在征求方方面面意见和科学论证的基础上，县委、县政府果断做出了实施县城改造工程的重大决策。决策后，召开全县历史上规模最大的一次动员大会，把县委、县政府决策的必要性和发展目标向全县人民交了底，得到了大多数干部群众的拥护，统一了思想，落实了任务。', '为了确保创城任务及责任的落实，县委、县政府倡导“城市大家建、事业大家干”，吸纳民智，集中民力，聚合民资，营造了全社会共同参与的整体氛围，形成了务实高效的工作机制。', '成立了创建工作领导小组，由县委书记和县长担任组长，7名县四个班子相关领导担任副组长，25个职能部门负责人为成员。领导小组下设创建办公室，按创建内容，组建了综合协调、市容市貌、市场管理、行业卫生、综合执法、宣传教育、督促检查等7个职能工作组。制定了《通化县创建国家卫生县城活动实施方案》和《通化县创建国家卫生县城活动实施细则》，对创城工作的目标、任务进行了量化分解，对质量标准和完成时限进行了统一要求。', '县委、县政府与各位县级领导签订目标责任书，县级领导都按照包保责任，与各包保部门的主要负责人签订目标责任书，做到每个部门、每个单位都有明确的建设任务。同时，对县城改造中的路（河）实行路长负责制，组织协调相关单位和个人出资出力出物，并按照规划设计要求，组织施工，全程负责。', '明确提出，只要单位有招待费、有车坐就要保证资金投入。要求各上管部门要从支持县域经济发展的角度努力完成各自承担的任务，为通化县尽一份义务。对拖着不办，顶着不干的，建议上级主管部门采取组织措施。要求个体工商户必须按照县委、县政府的总体要求，主动配合，出钱出力。', '通过以上措施，真正把县委、县政府的决策变成了广大干部群众的自觉行动，从县直各部门到三权在上部门，从责任乡镇到部分企业，从各级领导到普通群众，无不表现出了高度的责任感和使命感，县四个班子团结协作，部门之间密切配合，干部职工全力以赴，形成了创建国家卫生县城的强大合力。', '创建国家卫生县城工作是一项庞大的社会系统工程，内容十分广泛，它牵涉到每一个单位、每一个家庭，与每一个市民的卫生行为息息相关。在开展国家卫生县城的创建工作中，通化县十分重视广大市民的积极参与，始终坚持广泛深入地开展国家卫生县城创建的系列宣传活动，坚持以宣传教育为先导，把创建国家卫生县城的宣传工作渗透到各个层面，使创卫的重要意义、具体任务和创建目标家喻户晓，人人皆知。', '县创卫办专门成立了创建宣传组，多次召开创建国家卫生县城宣传专题会议，制定下发了《创建国家卫生县城宣传实施方案》，对创卫宣传工作进行了专门部署。充分发挥大众传媒的宣传主渠道作用，利用广播、电视、板报、传单等形式，广泛宣传《通化县城区管理暂行办法》、《公民道德建设实施纲要》和《文明市民守则》；通过开设《同心协力，加快发展，共创美好家园》、《健康指南》、《聚焦》、《周末版新闻》等电视专栏，从正反两个方面对创建工作进行宣传。工会、共青团、妇联等群团组织还开展了“热爱家乡、建设家乡”主题教育实践活动。对在活动中涌现出的先进人物和事迹要进行大力宣传，形成鼓励先进、倡导文明的良好社会氛围；各部门、各单位也都积极行动起来，开展形式多样的创卫宣传活动，从而提高了市民的创卫知晓率，使广大人民群众积极参与到创卫的各项工作中来，形成了齐抓共管的创卫局面。', '在创建国家卫生县城过程中，始终把为县城百姓创造最佳的人居环境作为工作目标，从解决人民群众反映强烈的吃水难、行路难、如厕难、住房难、环境卫生差等一系列问题入手，先后实施了街巷路硬化工程、通快引水工程、市政基础设施建设、环境绿化美化等工程，把每一项工程都建设成为民心工程、德政工程、惠民工程。', '投资2444万元，新建道路38条、修建水泥路228条、维护摊铺道路17条，城区街巷路全部实现了硬化，改变了过去雨天一身泥，晴天一身土的状况。', '投资6002万元实施了通快引水工程，完成了通化市至县城18200延长米输水管线铺设和城区24300延长米配水管网改造，实现了城区24小时供水，结束了城区居民长期吃定时水和劣质水的历史。', '房地产开发建设不仅能够带动很多产业的发展，切实改善城区环境，提升城市品位，而且能够改善城区居民的居住条件。创城期间，我们吸纳社会资金32828万元用于楼房建设，建设楼房75栋，面积47.6万平方米，四方公寓、国土花园、宏原小区等新开发住宅区功能完善、特色鲜明，已成为通化县的标志性建筑。', '投资1182万元，对城区33条路（河）进行改造和维护，城区内“三河一渠”达到50年一遇标准，并沿河堤修建了带状公园。投资1800万元，对城区供热系统进行了改造，解决了城区居民冬季取暖效果差的问题。投资150万元，建设120万立方米的标准式垃圾填埋处理厂，新建两个地坑式垃圾中转站和一个大型封闭式垃圾转运站，翻建、新建公厕33座，城区市政基础设施日益完善。不断扩大绿化面积，提升绿化档次，新栽植绿化树木7万多株，翻建草坪4500平方米，人均公园绿地面积24.8平方米。同时，为切实保护城区环境，有计划、分步骤地把工业企业逐步迁出城区，并在城区和工业区之间设置了隔离带，实现了生活区和工业区的分离。', '投资2250万元，建成了占地面积67000平方米的团结广场。团结广场的建设，不仅为城区居民提供了一个品位高雅、功能完善的休闲娱乐场所，而且启动了县城中心区域的建设，带动了周边房地产开发，团结广场周边开发的住宅每平方米比2001年增值800元以上。城市环境的改善、形象的提升，也带来了新一轮的投资热潮。团结广场的建设，对于通化县的城市建设、经济社会发展起到了一个催化剂的作用，产生了巨大的经济效益和社会效益。', '同时，在创城过程中，通化县十分注重打造精品工程。根据区位条件和地貌特征，我县把城市建设定位为“大连的一角”，本着“多留遗产，少留或不留遗憾”的原则，严把规划和建设关。在规划方面，明确提出规划必须体现超前性、科学性、权威性和严肃性，做到了规划一张图，论证求广泛，评审严把关，审批四支笔(规划局长、建设局长、主管副县长、县长联批），建设一盘棋，严格实行规划设计方案和立体效果评审制；做到了规划就是高压线，就是雷区，对突破规划、乱占滥建行为，发现一处纠正一处。为维护规划的权威性，在创城过程中，共拆除违章建筑190多处、近2万平方米。在工程建设方面，牢固树立精品意识，着力打造精品建筑、精品小区和精品景观，做到了道路、绿化、照明“三配套”，功能、环境、造型“三统一”，生态、景观、格局“三协调”。所有工程都做到了严把质量关，在施工队伍选择、原材料购进、工程质量管理等环节都努力做到优中选优、精益求精，纪检、监察、质检部门全程监督选购建筑材料。由于管理到位，监督到位，全县创城工程没有出现一处“豆腐渣”工程。', '创建国家卫生县城的目的就是要通过打造最佳人居环境，不断提高人民群众的健康水平。因此，从开展创城活动开始，通化县就把提升人民群众的健康意识和健康水平作为一项重要工作来抓。', '建立了由卫生部门牵头，宣传、教育部门配合，社区、学校、医院分头落实的工作体系，做到了健康教育有人抓、有计划、有内容、有检查。以社区、医院为主阵地，开展全民健康教育。通过发放宣传页、张贴画、宣传单、“给家长的一封信”、《健康教育手册》等宣传材料，举办大型专题讲座等形式，使大众了解健康知识，重视疾病预防，加强自我防护意识，及时采取正确防治措施。开展了社区中老年常见病防治、季节性传染病防治等系列健教活动，定期举办居民健康知识讲座；开展了以农村改水改厕和基层卫生人员业务培训为重点的全民健康教育活动，对基层卫生工作人员进行定期健康教育培训，每季度联合社区、学校、企业、医院、公共场所等开展健康教育活动，播放内容为艾滋病、性病、结核防治、碘缺乏病等科教片。以健康成长为主题，突出抓好中小学生健康教育。按照中小学校健康教育工作评价方案，开设健康教育课，做到有教师、有教材、有教案、有考核，我县基础教育校健康教育开课率达到100%。在全县中小学校广泛开展健康促进学校创建活动，改善学生学习环境，提高学生卫生意识。通过开展丰富多彩的健康教育活动，健康卫生意识深入人心。', '严格按照《公共场所卫生管理条例》和行业卫生标准，加强卫生设施、消毒设施的监督管理。对城区餐饮、洗浴、旅店、美容美发等服务行业以及学校、机关食堂的卫生设施进行了统一规范；全面贯彻《中华人民共和国食品卫生法》，大力推进食品放心工程，行业卫生许可证持证率达到100%，从业人员健康体检率达到99%，“五病”调离率达到100%。对县自来水、二次供水坚持日常卫生监督监测，每月对出厂末梢水质监测一次，半年全分析一次，相应工作资料、监测报表全部整理归档，供水人员、水管员全部持证上岗。坚持对“四害”密度进行长年监测和集中消杀，有效地将“四害”密度控制在国家标准之内。', '坚持“预防为主、防治结合”的方针，按照政府主导、社会动员、群专结合、以专为主的原则，认真贯彻执行《传染病防治法》、《突发公共卫生事件应急条例》等法律法规，建立了县、乡、村疫情报告组织网络，完善了疫情报告制度。县级医疗单位实现了传染病疫情微机化管理，健全了全县三级传染病疫情报告网络，人员组织和相关物资储备充实。充分发挥疾病预防控制中心的作用，应对突发公共卫生事件和传染病疫情的能力进不断提高。近年来，全县未发生甲、乙类传染病暴发流行。', '创建国家卫生县城任务重、时间紧、标准高，需要大量的资金投入，而通化县是一个经济欠发达县份，县财政也只是一个勉强吃饭财政，拿不出更多的资金进行投入。因此，在创城过程中，通化县将资金投入进行了分解。对公共设施的投入、创建工作的运作，由县政府牵头筹集经费；对属于部门、单位以及企业按照创建工作要求进行整改、完善、补充等所需的资金，由部门、单位、企业自行解决；对创建涉及的城区街巷路维护、绿化、美化以及门前五包、保洁等，按照权利与责任相统一的原则，多方筹集建设和维护资金。', '同时，通化县把城市资产当作最大的资产经营，探索了一条“以城建城、以城养城、以城兴城”的市场化道路，不仅“财政不拿钱、干群不集资、办公不影响”，还实现了自我滚动、自我积累、自我发展和自我增值。我们鼓励位于城区繁华地段，办公场所陈旧的机关、学校、企事业单位进行土地置换，异地新建办公楼。水电局、林业局、国税局、东安朝鲜族小学、疾病预防控制中心等单位的办公楼都是通过这种方式建设的，在这些单位的原址都建起了高档次的住宅小区。制定了《通化县招商引资优惠政策》，把市场机制引入旧城改造、新区开发和基础设施建设领域，采取以规划为龙头，以土地有偿出让和房地产开发经营为手段，多渠道、多层次、多形式地筹集建设资金。按照“谁投资、谁受益、谁建设、谁经营”原则，鼓励非公有制企业、民间资本投入到市政工程建设和房地产开发。创城期间，全县累计投资46387万元，其中，中央财政投入和省里补助仅为1680万元，地方财政投入8893万元，其余全部为社会投入。', '按照责、权、利相统一的原则，建立了执法专业化、管理制度化、监督社会化、载体实效化的城市管理新格局，提出了严管重罚“横向到边，纵向到尖”的城市管理工作思路，把强化管理作为提升城市形象和品位的重中之重，通过抓好每个环节、每个细节，健全管理体系，落实管理责任，提高管理水平。', '实行政府统领、上下互动、条块结合的城市管理机制。成立了县城管理委员会和城区管理综合执法监察大队，列编25人，由财政全额拨款，集中行使城区规划、市容市貌、环境卫生、市政设施、园林绿化、城区交通、城区河道、工商市场、社会治安等行政处罚权，具有对行政执法部门的督查权。大队组建以来，县容县貌、交通秩序和市场秩序都得到明显改善。', '抓好城市管理关键在于提高人的素质。通化县是一座年轻的县城，相当部分居民来自农村，城市意识比较淡薄，传统生活习惯不易改变，难以适应现代文明的要求。因此，我们着重在提高市民素质上下功夫，努力促进农民向市民的转变。通过开设《同心戮力，加快发展，共创美好家园》、《健康指南》、《聚焦》、《周末版新闻》等电视专栏，在居民中广泛开展“公德、卫生、健康知识答卷”、“除陋习、树新风”、“做文明市民，告别不文明行为”活动和“热爱家乡、建设家乡”等主题教育实践活动，进一步强化了居民群众整体文明素质的提升，创造了良好的人文环境，城市文明风尚逐步形成。', '结合实际，通化县先后制定了《通化县城市管理规定》、《团结广场管理规定》、《街巷路管理规定》等10余部地方性管理法规。为使这些规定真正落到实处，在城市建设与管理的初期，我们主要是采取严管重罚的办法，时刻保持高压态势。对阻碍县城建设、违反管理规章的实行“横向到边，纵向到底”，除追究当事人责任外，还追究所在单位领导责任。目前，城区居民已经养成自觉保持环境卫生的良好习惯，县城管理已步入规范化、法制化轨道。', '2004年，通化县成功创建国家卫生县城后，为延续创建精神，不断巩固和发展创建成果，又先后提出了创建“国家园林县城”、“全国文明县城”等创建载体，在硬件建设上严格标准，不打折扣，全面实施城市绿化、亮化、美化、净化工程，保持城市整洁漂亮；在软件建设上着重立制度、建规范，维护城市的良好秩序，展示城市的精神风貌。通过坚持不懈的努力，付出得到了丰厚的回报，2008年被评为“全国文明县城”和“国家园林县城”。', '坚持“经营城市”的理念，遵循“高起点规划、高质量建设、高效能管理”的原则，采取政府推动、全社会参与的措施，累计投资10多亿元，实施了一系列城建重点工程建设，城市功能日臻完善。充分运用各种手段，大力整治市容市貌、环境卫生、交通秩序、餐饮娱乐和文化市场，城市日常管理走上了科学化、正规化轨道。', '通过持续推进重点绿化工程，因地制宜实施绿地系统建设，新增绿地面积12万多平方米，全县建成区绿化覆盖率和绿地率分别达到40%和35%，形成了“全城皆景”的新特色，有效增强了城市园林绿化的生态功能和景观功能，极大改善了居民的生活环境，并且在居民健身和疾病预防等方面也发挥了重要作用。', '通过“知荣辱、爱家园”、“感恩教育”、“做文明市民，告别不文明行为”、“人走斑马线，车让人先行”等系列活动的蓬勃开展，凝聚了社会各界爱家乡、爱城市的情怀，唤起了广大市民爱自然、爱生活的追求，即使城市精神得到升华，也促进了城市的和谐进步。', '站在更高的起点，通化县做出了建设国家健康城市的决策。通化县建设健康城市的目标，从长远看，是要显著提升全县人民健康素质、环境健康水平、社会健康形象，打造绿色、文明、健康、和谐的健康城市；从近期看，就是要不断改善我县的生态环境、市容环境和居住环境，有效提高卫生服务质量和人群健康水平。在建设过程中，将本着“以人为本，和谐发展；政府引导，广泛参与；突出重点，循序渐进”的原则，积极推进“五个人人”健康市民行动，大力实施四个特色项目，努力在全社会打造“人人拥有健康环境，人人具有健康意识，人人享有健康生活”的新理念，营造健康、优美、和谐的人居环境，不断提高全县人民的文明卫生意识和社会综合健康水平。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>52</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>关于推广先学后教当堂训练课堂教学模式打造高效课堂实施情况的通报</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2010-08-08</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.thedjjy.com/jjdd/ydsp/201705/t20170520_84311.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['为落实二道江区教育局“一优两促”的工作目标，深化教育教学改革，探索课堂教学结构，打造高效课堂，实施精细化管理，我区在2007年12月教育局组织中小学校长外出考察学习的基础上，于2008年3月16日举行了二道江区“实施‘先学后教，当堂训练’课堂教学模式”的启动仪式，由此掀开了我区优化课堂结构，促进学生全面发展，促进教师专业成长的崭新一页。', '打造高效课堂，实施精细化管理，我区在2007年12月教育局组织中小学校长外出考察学习的基础上，于2008年3月16日举行了二道江区“实施‘先学后教，当堂训练’课堂教学模式”的启动仪式，由此掀开了我区优化课堂结构，促进学生全面发展，促进教师专业成长的崭新一页。', '在新课堂教学模式实施近两个月后，教育督导室于2008年4月16日—2008年5月9日期间对区内五所中学和八所小学进行了督导检查，采取了听汇报、查阅资料、深入课堂听课、召开座谈会、访谈等方式进行。调研期间，在十三所学校同校长、教学校长及部分教导主任进行了座谈，听取了学校开展课堂教学改革工作实施情况的汇报；同63名专任教师进行了座谈，了解了实施新课堂教学模式的实践情况；对听课班级的学生进行了访谈，了解了学生的学习动态；查阅了学校工作纪实性材料，听了75节教学课，听课范围：小学的四年级、五年级，中学的七年级、八年级。通过细致调研，发现各学校都能够结合本校实际，认真贯彻落实“精细化”学校管理和“先学后教、当堂训练”课堂教学模式，取得了可喜成绩，但也存在着一些问题。现将督导检查情况通报如下：', '年4月16日—2008年5月9日期间对区内五所中学和八所小学进行了督导检查，采取了听汇报、查阅资料、深入课堂听课、召开座谈会、访谈等方式进行。调研期间，在十三所学校同校长、教学校长及部分教导主任进行了座谈，', '听取了学校开展课堂教学改革工作实施情况的汇报；同63名专任教师进行了座谈，了解了实施新课堂教学模式的实践情况；对听课班级的学生进行了访谈，了解了学生的学习动态；', '查阅了学校工作纪实性材料，听了75节教学课，听课范围：小学的四年级、五年级，中学的七年级、八年级', '。通过细致调研，发现各学校都能够结合本校实际，认真贯彻落实“精细化”学校管理和“先学后教、当堂训练”课堂教学模式，取得了可喜成绩，但也存在着一些问题。现将督导检查情况通报如下：', '各校高度重视落实通二教发[2008]12号和通二教发[2008]16号文件精神。以学生发展为本，打造高效课堂，全面实施“先学后教、当堂训练”课堂教学模式。', '一是各校校长将外出考察学习情况向全体教师作了考察报告，介绍了被考察学校的先进办学理念和先进的教育教学思想及教学方法，激发了广大教师工作热情和参与课堂教学改革的积极性；二是各校按教育局要求组织召开了实施“先学后教，当堂训练”课堂教学模式、打造高效课堂动员会，抽调骨干教师尝试新模式课堂教学，组织全体教师开展课堂教学观摩研讨；三是各校按教育局文件要求结合本校实际制定了实施方案。目前，全区区直小学（乡镇中心校）的三年级以上各年级语文、数学、英语等主要学科和全区中学语文、数学、英语、历史、物理等主要学科的课堂教学基本采用了“先学后教，当堂训练”的课堂教学模式，其它学科或年级也正在尝试进行。由此可见，我区课堂教学改革工作已全面铺开，同时，推进了我区“一优两促”工作的进程。四是二道江乡中心校率先在全区举办新模式课堂教学公开课，教育局组织全区中小学学校领导和教师达90多人参加了听课、评课，该活动在全区起到了引领作用。', '2.“先学后教，当堂训练”教学模式的实施，对教师专业成长发挥了促进作用。这一实施过程，是广大教师对自己过去教学思想和教学方法的反思和总结的过程，是使广大教师重新认识自我的过程。新的课堂教学模式对教师无论是教育思想、教学理念，专业知识、专业技能等方面都提出了更高的要求。更新教育教学观念、丰富专业知识、提高专业技能已成为教师个体发展和学校教师队伍建设的需求，同时也成为了广大教师的自觉行动。', '“先学后教，当堂训练”教学模式的实施，对教师专业成长发挥了促进作用。这一实施过程，是广大教师对自己过去教学思想和教学方法的反思和总结的过程，是使广大教师重新认识自我的过程。新的课堂教学模式对教师无论是教育思想、教学理念，专业知识、专业技能等方面都提出了更高的要求。更新教育教学观念、丰富专业知识、提高专业技能已成为教师个体发展和学校教师队伍建设的需求，同时也成为了广大教师的自觉行动。', '3.“先学后教，当堂训练”教学模式的实施，促使各校教研工作向纵深发展。由于新的课堂教学模式的实施，给教师带来了许多新问题，引发教师对课堂教学的深入思考。探索解决问题的途径和方法，已成为广大教师的自觉行动，教研组（年级组）研究活动成为教师交流课堂教学的主渠道，合作研究，共同提高意识得以充分体现，教研组功能作用得到了充分发挥。', '“先学后教，当堂训练”教学模式的实施，促使各校教研工作向纵深发展。由于新的课堂教学模式的实施，给教师带来了许多新问题，引发教师对课堂教学的深入思考。探索解决问题的途径和方法，已成为广大教师的自觉行动，教研组（年级组）研究活动成为教师交流课堂教学的主渠道，合作研究，共同提高意识得以充分体现，教研组功能作用得到了充分发挥。', '4.骨干教师的“引领”作用得以发挥。他们是各校实施“先学后教，当堂训练” 教学模式的先行者，全区各校骨干教师共上试验课、研究课、引领课等73节；他们在各校践行新教学模式过程中发挥了主研作用。', '骨干教师的“引领”作用得以发挥。他们是各校实施“先学后教，当堂训练” 教学模式的先行者，全区各校骨干教师共上试验课、研究课、引领课等73节；他们在各校践行新教学模式过程中发挥了主研作用。', '5.“先学后教，当堂训练”教学模式的实施，整合了教研、科研资源，使我区的教研、科研工作更加具有针对性和实效性。各校一是广泛开展了备课研究、上课研究、反思教学研究，促进了教师专业技能的提高；二是紧紧围绕“在新课程理念下，如何依托‘先学后教，当堂训练’的教学模式，打造高效课堂，开创出自己的教学特色”这一主题，开展了理论层面、技术层面的具体研讨，研讨的内容具体，形式多样、方法灵活，主题鲜明，针对性强，极具实效性；三是切实克服了以往流于形式的做法，工作更加务实，并富有成效。', '“先学后教，当堂训练”教学模式的实施，整合了教研、科研资源，使我区的教研、科研工作更加具有针对性和实效性。各校一是广泛开展了备课研究、上课研究、反思教学研究，促进了教师专业技能的提高；二是紧紧围绕“在新课程理念下，如何依托‘先学后教，当堂训练’的教学模式，打造高效课堂，开创出自己的教学特色”这一主题，开展了理论层面、技术层面的具体研讨，研讨的内容具体，形式多样、方法灵活，主题鲜明，针对性强，极具实效性；三是切实克服了以往流于形式的做法，工作更加务实，并富有成效。', '6.由于“先学后教，当堂训练”教学模式实施时间较短，作用于学生的效果还不明显，但这一教学模式能够被学生所接受。', '由于“先学后教，当堂训练”教学模式实施时间较短，作用于学生的效果还不明显，但这一教学模式能够被学生所接受。', '1.个别学校对实施“先学后教，当堂训练”教学模式的课堂教学改革工作力度不大，有畏难情绪，持观望态度，工作进展缓慢。具体表现在新课程实施过程中，对新课程理念下教法改革的需求不明显，对课堂教学进行改革、打造高效课堂认识不足，组织实施力度不够，对此项工作态度不积极。', '个别学校对实施“先学后教，当堂训练”教学模式的课堂教学改革工作力度不大，有畏难情绪，持观望态度，工作进展缓慢。具体表现在新课程实施过程中，对新课程理念下教法改革的需求不明显，对课堂教学进行改革、打造高效课堂认识不足，组织实施力度不够，对此项工作态度不积极。', '2.个别学校对教育局文件精神领会不深不透，没有结合本校实际，在前期准备不够充分的情况下，全面铺开，工作带有盲目性，没有做到“稳妥”开展和扎实推进。', '个别学校对教育局文件精神领会不深不透，没有结合本校实际，在前期准备不够充分的情况下，全面铺开，工作带有盲目性，没有做到“稳妥”开展和扎实推进。', '3.部分学校领导，特别是教学业务领导层面，对“先学后教，当堂训练”教学模式的内涵理解不够深入，导致对课堂教学改革具体业务指导方面有缺失及课堂评价标准统得过死，缺乏科学性和灵活性。', '部分学校领导，特别是教学业务领导层面，对“先学后教，当堂训练”教学模式的内涵理解不够深入，导致对课堂教学改革具体业务指导方面有缺失及课堂评价标准统得过死，缺乏科学性和灵活性。', '4.少数教师由于对“先学后教，当堂训练”教学模式的内涵理解不够深入，形成了机械模仿“洋思”教学模式现象，也有的课前准备不充分（不能依据新课程标准，学科特点，本节教学内容，学生实际，进行有效备课等），导致了课堂效率低下。', '少数教师由于对“先学后教，当堂训练”教学模式的内涵理解不够深入，形成了机械模仿“洋思”教学模式现象，也有的课前准备不充分（不能依据新课程标准，学科特点，本节教学内容，学生实际，进行有效备课等），导致了课堂效率低下。', '5.对新课程理念下“先学后教，当堂训练”的课堂教学模式的研究不够深入，特别是结合我区实际，如何实施“先学后教，当堂训练”教学模式，在技术层面上的具体操作方法的研究不够，还有许多具体问题有待解决。', '对新课程理念下“先学后教，当堂训练”的课堂教学模式的研究不够深入，特别是结合我区实际，如何实施“先学后教，当堂训练”教学模式，在技术层面上的具体操作方法的研究不够，还有许多具体问题有待解决。', '1.召开一次实施“先学后教，当堂训练”课堂教学模式，打造高效课堂的阶段总结会，在总结的基础上，进一步明确用“积极、稳妥、灵活”六字方针，指导课堂教学改革工作。让各校校长、业务副校长，教导主任等领导更进一步明确教育局对此项工作的目的要求。', '召开一次实施“先学后教，当堂训练”课堂教学模式，打造高效课堂的阶段总结会，在总结的基础上，进一步明确用“积极、稳妥、灵活”六字方针，指导课堂教学改革工作。让各校校长、业务副校长，教导主任等领导更进一步明确教育局对此项工作的目的要求。', '2.成立由教研、科研等部门参加的专题研究组，就如何实施“先学后教，当堂训练”课堂教学模式，打造高效课堂这一课题展开研究，以解决广大教师在新的教学模式实施过程中遇到的问题与困惑，为课堂教学改革在全区顺利实施铺平道路，扫清障碍，也少走弯路，探索出具有特色课堂教学模式（具有本校特色课堂教学模式）。', '成立由教研、科研等部门参加的专题研究组，就如何实施“先学后教，当堂训练”课堂教学模式，打造高效课堂这一课题展开研究，以解决广大教师在新的教学模式实施过程中遇到的问题与困惑，为课堂教学改革在全区顺利实施铺平道路，扫清障碍，也少走弯路，探索出具有特色课堂教学模式（具有本校特色课堂教学模式）。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>52</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>关于学习洋思中学教学模式打造高效课堂实施情况调研报告</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2010-08-04</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.thedjjy.com/jjdd/ddzh/201705/t20170520_84296.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['在2007年12月教育局组织中小学校长外出考察学习的基础上，于2008年3月16日举行二道江区实施“先学后教，当堂训练”课堂教学模式，打造高效课堂的教学改革启动仪式，由此掀开我区新课程理念下促进学生全面发展，促进教师专业成长打造高效课堂的崭新一页。', '新课堂教学模式实施近两个月后，我们对全区部分中小学的实施情况进行了调研，调研方式是：深入课堂听课、深入教研组（年级组）、召开教师（含班主任）座谈会、听取校长及相关领导汇报、对个别学生访谈、查阅资料等。现就调研情况报告如下：', '1、各校高度重视落实教育局【2008】12号、16号文件精神。以学生发展为本，打高效课堂，全面实施“先学后教、当堂训练”课堂教学模式。', '、各校高度重视落实教育局【2008】12号、16号文件精神。以学生发展为本，打高效课堂，全面实施“先学后教、当堂训练”课堂教学模式。', '一是各校校长将外出考察学习情况向全体教师作了考察报告，较为全面介绍了被考察学校先进办学理念和先进的教育教学思想及教学方法，激发了广大教师工作热情和参与课堂教学改革的积极性；', '二是各校按教育局要求组织召开了实施“先学后教，当堂训练”课堂教学模式打造高效课堂动员会；', '三是各校按教育局文件要求结合本校实际制定了实施方案。目前，全区区直小学（乡镇中心校）的三年级以上各年级语文、数学、英语等主要学科和全区中学语文、数学、英语、历史、物理等主要学科的课堂教学基本采用了“先学后教，当堂训练”的课堂教学模式，其它学科或年级也可尝试进行。由此可见，以“先学后教，当堂训练”的课堂教学模式为主的课堂教学改革工作已全面铺开。同时，推进了我区“一优两促”工作的开展。', '它的实施过程，是广大教师对自己过去教学思想和教法的反思和总结过程，这一过程使广大教师重新认识自我。新的课堂教学模式对教师无论是教育思想、教学理念，专业知识、专业技能等方面都提出了更高要求，更新教育教学观念、丰富专业知识、提高专业技能成为教师个体和学校教师队伍建设的需求，学习新理念、学习专业知识、提高专业技能成为大多数教师的自觉行动。', '由于新的课堂教学模式的实施，给教师带来了许多新问题，探索解决问题的途径和方法，已成为广大教师的自觉行动，教研组（年级组）研究和交流课堂教学成为组内的主题，组内合作研究，共同提高得以充分体现，教研组功能作用得到了充分发挥。', '他们是各校实施“先学后教，当堂训练” 教学模式的先行者，全区各校骨干教师共上试验课、研究课、引领课等73节；他们在各校研讨新教学模式如何实施的过程中发挥了主研作用。', '“先学后教，当堂训练”教学模式的实施，有力地促进了备课研究、上课研究、反思教学研究三方面的培训工作。整合了教研、科研及培训资源，各校针对“先学后教，当堂训练”教学模式的实施,广泛开展“如何备课、如何上课、如何进行课后反思”等研究性培训，促进了教师专业技能的提高。', '6、“先学后教，当堂训练”教学模式的实施，使我区的教科研工作更加具有针对性和实效性。', '“先学后教，当堂训练”教学模式，教研的主题是：在新课程理念下，如何依托“先学后教，当堂训练”的教学模式，打造高效课堂，并创出自己的教学特色。各校紧紧围绕这一主题，开展了理论层面、技术层面的具体研讨，研讨的内容具体，形式多样、方法灵活，主题鲜明，针对性强，极具实效性。切实克服以往流于形式的做法，工作更加务实。', '7、由于“先学后教，当堂训练”教学模式实施时间较短，作用于学生的效果还不明显，但这一教学模式能够被学生所接受。', '、由于“先学后教，当堂训练”教学模式实施时间较短，作用于学生的效果还不明显，但这一教学模式能够被学生所接受。', '1、个别学校对实施“先学后教，当堂训练”教学模式的课堂教学改革工作力度不大，有畏难情绪，持观望态度，工作进展缓慢。具体表现在新课程实施过程中，对新课程理念下教法改革的需求不明显，对课堂教学进行改革、打造高效课堂认识不足，组织实施力度不够，对此项工作态度不积极。', '、个别学校对实施“先学后教，当堂训练”教学模式的课堂教学改革工作力度不大，有畏难情绪，持观望态度，工作进展缓慢。具体表现在新课程实施过程中，对新课程理念下教法改革的需求不明显，对课堂教学进行改革、打造高效课堂认识不足，组织实施力度不够，对此项工作态度不积极。', '2、个别学校对教育局文件精神领会不深不透，没有结合本校实际，在前期准备不够充分的情况下，全面铺开，工作带有盲目性，没有做到“稳妥”开展和扎实推进。', '、个别学校对教育局文件精神领会不深不透，没有结合本校实际，在前期准备不够充分的情况下，全面铺开，工作带有盲目性，没有做到“稳妥”开展和扎实推进。', '3、部分学校领导，特别是教学业务领导层面，对“先学后教，当堂训练”教学模式的内涵理解不够深入，导致对课堂教学改革具体业务指导方面有缺失及课堂评价标准统得过死，缺乏科学性和灵活性。', '、部分学校领导，特别是教学业务领导层面，对“先学后教，当堂训练”教学模式的内涵理解不够深入，导致对课堂教学改革具体业务指导方面有缺失及课堂评价标准统得过死，缺乏科学性和灵活性。', '4、少数教师由于对“先学后教，当堂训练”教学模式的内涵理解不够深入，形成了机械模仿“洋思”教学模式现象，也有的课前准备不充分（不能依据新课程标准，学科特点，本节教学内容，学生实际，进行有效备课等），导致了课堂效率低下。', '、少数教师由于对“先学后教，当堂训练”教学模式的内涵理解不够深入，形成了机械模仿“洋思”教学模式现象，也有的课前准备不充分（不能依据新课程标准，学科特点，本节教学内容，学生实际，进行有效备课等），导致了课堂效率低下。', '5、对新课程理念下“先学后教，当堂训练”的洋思中学课堂教学模式的研究不够深入，特别是结合我们实际，如何实施“先学后教，当堂训练”教学模式，在技术层面上的具体操作方法的研究不够，还有许多具体问题有待解决', '、对新课程理念下“先学后教，当堂训练”的洋思中学课堂教学模式的研究不够深入，特别是结合我们实际，如何实施“先学后教，当堂训练”教学模式，在技术层面上的具体操作方法的研究不够，还有许多具体问题有待解决', '1、召开一次实施“先学后教，当堂训练”课堂教学模式，打造高效课堂的阶段总结会，在总结的基础上，进一步明确用“积极、稳妥、灵活”六字方针，指导课堂教学改革工作。让各校校长、业务副校长，教导主任等领导更进一步明确教育局对此项工作目的要求。', '、召开一次实施“先学后教，当堂训练”课堂教学模式，打造高效课堂的阶段总结会，在总结的基础上，进一步明确用“积极、稳妥、灵活”六字方针，指导课堂教学改革工作。让各校校长、业务副校长，教导主任等领导更进一步明确教育局对此项工作目的要求。', '、成立由教研、科研等部门参加的专题研究组，就如何实施“先学后教，当堂训练”课堂教学模式，打造高效课堂这一课题展开研究，以解决广大教师在新的教学模式实施过程中遇到的问题与困惑，为课堂教学改革全区顺利实施铺平道路，扫清障碍，也少走弯路，探索出具有我区特色课堂教学模式（具有本校特色课堂教学模式）。', '4、参加了教育局“先学后教，当堂训练”教学模式启动仪式和在十七中召开的教学研讨会。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>52</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>关于高中新课程实验工作督导情况总结</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2010-07-30</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.thedjjy.com/jjdd/ddyj/201705/t20170520_84324.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['我校开展普通高中新课程实验工作以来，区委、区政府、区教育局各级领导高度重视，在政策、财力、物力等方面都给予了我校大力支持，使我校的新课程实验工作得以顺利实施，取得了一定成效。现将自查报告汇报如下：', '在新课程实验工作的准备阶段，主管教育的副区长，教育局领导便多次来到学校就新课程实验工作进行调研、指导。不仅掌握了实际情况，指导了实际工作，也让学校的领导、教师明确了新课程实验工作的重要性。', '为了更新领导者的观念，区政府、教育局组织校长到山东、江苏等地的新课程实验典范校进行考察学习。', '学校专门成立了以校长为组长、业务校长为副组长的新课程实验工作领导小组，加强领导，使之成为学校工作的重中之重。', '按照教育部《普通高中课程方案（实验）》和省教育厅《普通高中新课程实验工作实施意见的通知》的精神，在区政府的领导和教育局的具体指导下，学校结合自身实际，制定了《十四中学新课程实施方案》、《十四中学研究性学习实施方案》、《十四中学综合实践活动实施方案》、《十四中学课程资源开发方案》、《十四中学选课制度》等一系列指导性方案，保证了新课程实验工作能够有序、有计划地开展。', '为了保证新课程实验工作的实效性，我们学校还狠抓落实，严格按照新课程标准编排课表，上课，并通过教师工作手册和学习评价手册的检查，督促教师把各种方案的目标，化解为具体内容，增强了实效性。', '为了保证我校参与新课程实验的教师能参加各级相关培训，区政府专门拨款七万元作为培训费用。', '针对我校的硬件设施较为薄弱的实际情况，区政府投巨资改善我校的办学条件，投资240万元建起了2781平方米的实验楼，又投资70万元购置了实验室设备，建成了理、化、生三个省级标准实验室，今年又为微机室添置了30台电脑。这些投入，为新课程实验工作的顺利开展奠定了坚实的物质基础。', '培训工作是新课程实验的重要组成部分，因此我校把学习和领会新课程理念放在了重要位置。充分利用“省、市、区、校”四级教研网络，制定教师培训计划，严格执行“先培训，后上岗，不培训、不上岗”的原则，实施师资培训。', '我校先后有55人参加省、市级教材培训，27人参加了省市级通识培训，48人参加了省级学科培训，通过培训，达到了转变教师教育观念，提高教师素质的目的。', '区政府先后投资三百多万元，为学校兴建实验楼、实验室、微机室，极大地改善了我校的办学条件。', '除了经济投入方面的保障，区政府还在选聘人材等方面给予我校政策上的特殊待遇。为解决师资力量不足的困难，区政府、教育局组织招聘考试，选拨了一批优秀的大学生充实到教学一线，为我校补充了新鲜血液，优化了教师队伍结构。', '我校认真贯彻教育部《普通高中课程方案（实验）》和省教育厅有关文件精神，严格执行国家、地方和学校三级课程管理，坚持开足开齐。', '在选修Ⅰ课程管理中，各学科都有自己的研究专题，结合本学科的实际，指导学生进行研究性学习，在学习中，学生有分工、有合作，活动开展的有声有色。在选修Ⅱ校本课程中，我校克服种种困难，紧密结合校情，讲究科学、实用，体现学校和地方特色，从体、音、美学科打开突破口，开设了心理健康，音乐合唱班、美术辅导组、篮球队、排球队等校本课程，办出了我校的特色，受到了学生的欢迎，取得了较好的效果。', '1、师资不足，设备不足，尤其是通用技术课程的开设非常困难，没有场地、没有设备、没有师资。', '、师资不足，设备不足，尤其是通用技术课程的开设非常困难，没有场地、没有设备、没有师资。', '2、教师的培训亟需加强，尤其是新课程理念的接受及现代教育信息技术的掌握更是迫在眉睫。', '、教师的培训亟需加强，尤其是新课程理念的接受及现代教育信息技术的掌握更是迫在眉睫。', '在实施新课程实验的工作中，我们感到，各级政府和领导的高度重视，是此项工作成功的关键。', '另外，充分调动教师的积极性，充分发挥教师的潜力也是开展好新课程实验工作必不可少的条件。', '在新课程的实验工作中，我校在区政府、教育局的正确领导和大力扶持下，不断探索，辛勤工作，有效地推进了新课程实验进程。在今后的工作中，我们将加强学习，认真规划新课程实施方案，科学管理，努力推进学校“高效课堂”建设，适时调整，不断完善符合校情的校本课程，把新课程实验工作推向深入。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>52</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>年通化县人民政府工作报告全文</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2017-02-17</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zf/zfgzbg/201702/t20170217_49059.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['现在，我代表县政府向大会报告工作，请予审议，并请各位政协委员及其他列席人员提出意见。', '五年来，面对经济下行压力持续加大、实体经济增长乏力的严峻局面，在县委的正确领导下，在县人大、县政协的监督和支持下，县政府团结带领广大干部群众，沉着应对各种风险挑战，积极适应经济发展新常态，开拓创新、合力攻坚、克难制胜，圆满完成“十二五”规划和各项既定目标任务，顺利开启“十三五”征程，为全面建成小康社会奠定了坚实基础。预计到年末，地区生产总值可实现140亿元，比2011年增长40%，年均增长7%；全口径财政收入实现14.4亿元，增长42.4%，年均增长7.3%；地方级财政收入达到10.8亿元，增长71.9%，年均增长11.4%；社会消费品零售总额实现44亿元，增长80.3%，年均增长12.5%。在全省县域综合实力年度考评中，连续三年进入全省前10位，三年总排名位列全省第九。', '创新优势显著增强。省级以上企业技术研发中心达到6户，国家级高新技术企业达到6户，东宝药业成为全国6家医药技术创新示范企业之一。东宝药业、振国药业、青山实业成为全省重点扶持的医药健康创新主导型企业；东宝甘精胰岛素、一洋元秘-D等5个项目成为全省医药健康产业重点培育项目；镇脑宁胶囊、苦碟子注射液等5个药品成为全省医药健康产业大品种。开展“企业家素质提升月”、企业家发展论坛、民营经济大讲堂、小微企业法人代表培训班等活动，组织企业家到清华大学、北京大学、浙江大学等国内著名大学研修深造，倾力打造企业家团队品牌。累计培养引进各类科研人才200余名。以高科技人才为引领的研发团队，在人血清白蛋白、单克隆抗体等品种的研发上取得重大进展。东宝研发团队成为全省5个特别重大科技项目研发人才团队之一。我县被评为国家知识产权强县工程示范县、全国科技进步考核先进县。生态优势更加明显。成功创建全省首个国家生态县，稳步推进国家生态文明建设示范县创建工作。建成国家级生态乡镇5个、生态村8个，省级生态乡镇10个、生态村53个；森林覆盖率达到76.9%；石湖自然保护区成功晋升为国家级保护区，蝲蛄河国家湿地公园建设初见成效；蝲蛄河生态恢复治理成效明显，建成县水源保护区，饮用水水源水质达到二类标准；万元GDP能耗下降1.4%。累计投资1.4亿元，实施了农村环境连片整治工程。被评为全国农村环境连片整治整体推进县。二密镇、英额布镇被住建部确定为全国重点镇。水洞村、鹿圈子村、赶马河村、曲柳川村、大荒沟村被评为全国生态文化村。拉动优势潜能巨大。2016年全社会固定资产投资完成170亿元，比2011年增长88%。累计落实招商引资超亿元项目72个，引进域外资金130亿元，新加坡爱康国际、台湾先锋科技、北京仟禧、北京三聚环保、天津天士力、江苏康缘、晋商控投联盟、北京瑞意投资等一批知名企业入驻合作。组织实施重点建设项目107个，完成投资193亿元，在2015年度全省项目建设现场考核中获得第2名。聚鑫经济开发区完成基础设施投资30.5亿元，落户各类企业132户。', '坚持稳增长与调结构并重，三次产业比例调整为7.2:53.8:39，服务业占GDP比重逐渐加大。工业实力稳步攀升。规模以上工业企业达到108户；纳税超千万元企业稳定在10户以上，最多时达到23户。预计到年末，规模以上工业总产值可达到214.5亿元，比2011年增长148.6%，年均增长20%；完成工业增加值72亿元，增长115.6%，年均增长16.6%；实现主营业务收入173亿元，增长158.2%，年均增长20.9%；实现利润16亿元，增长95.1%，年均增长14.3%。产业集群效应日益凸显，东宝人胰岛素产业园、东宝科技园、化工产业园、快大人参产业园等总投资200多亿元的特色产业园区初具规模；石油装备制造、健康产业、新资源食品、新材料等战略性新兴产业发展基础进一步夯实。特色农业突破发展。拥有市级以上农业产业化龙头企业38户，国家级龙头企业1户。园艺特产总产值达到18亿元，比2011年增长63.6%。完成绿色食品原料标准化生产基地认定2个，有机绿色无公害农产品认证33个，企业认证9户。发展畜禽规模化养殖565户，农业经济合作组织508个。服务业高端起步。总投资20亿元的东宝高端服务业园区主体工程已完工。环球医药的野山参交易额超过1000亿元。快大人参产业园成为全省唯一的以人参产业配套服务为主的现代服务业集聚区。农村电子商务快速发展，被确认为“全国电子商务进农村综合示范县”，已建成县级运营中心1个，乡镇和村级服务站157个。成功入选首批“国家全域旅游示范区”创建名单，振国养生谷壹号庄园、通天山葡萄酒文化科技产业园和大泉源酒业历史文化景区被评为国家4A级旅游景区，接待旅游总人数达262万人次。预计到年末，可实现旅游综合收入20.5亿元，是2011年的5倍。', '城市承载功能大幅提升。累计投资41亿元，实施了通化大道、净水处理、城区道路、供热热源、茂山公园升级、棚户区和老旧弃管小区维修改造等民生工程，新建了文体活动中心、蝲蛄河景观带、城乡公交等基础设施，城区卫生常态化管理进一步加强，实现了城市规模扩张、功能完善与管理提升同步推进。县域公路建设提档升级。累计投资5.2亿元，大修改造鹤大线、沈长线等国省干线76.6公里，新修及改造县级公路85.5公里、农村公路425.5公里、农村水毁桥梁80座。通丹、通沈、通梅、通靖高速公路建成通车，通集高速公路主线征地拆迁工作全面完成，大交通格局初步形成。美丽乡村建设成效明显。累计投资10亿元，组织实施农村环境综合整治和绿化美化工程。栽植绿化苗木近2000万株；改造新修围墙62万米、边沟23万米，建设休闲健身广场195个、文化大院159个、村史馆40个；打造标兵村37个、先进村67个、达标村55个；建设省级美丽乡村示范村2个、省级文化品牌美丽乡村8个、县级美丽乡村示范村52个，创建指标均列全市首位。被评为中国美丽乡村建设典范县。', '居民收入大幅增长。预计到年末，城镇常住居民人均可支配收入达到23200元，比2011年增长53.7%，年均增长9%；农村常住居民人均可支配收入达到11510元，增长52.9%，年均增长8.9%；城镇登记失业率始终控制在4%以内。民生投入持续增加。累计投资88亿元，完成廉租房建设4.9万平方米，农村危房改造12050户；解决了11万农村居民饮水安全问题；建设农民科学储粮仓10400套。社会保障体系基本实现全覆盖，医疗保险、城乡低保、五保保障标准进一步提高。社会事业快速发展。累计投资5.6亿元，新建、改扩建学校49所，乡镇中心学校全部实现楼房化；教育园区开工建设，东北师范大学通化实验学校建设主体封闭；顺利通过全国义务教育发展基本均衡县督导检查。异地新建中医院投入使用，县医院和中医院均晋升为二级甲等医院；新农合参合率保持100%，住院费用报销比例提高到75%；实现标准化村卫生室全覆盖；成功创建全省首个国家慢性病综合防控示范区。公共文化服务体系基本建成，文化馆、图书馆被评为国家一级馆；城市展览馆、博物馆正式建成开馆，社区和乡村文体活动场所全部建成，功能日益完备；“汉长城”等5处遗址遗迹被列入全国第七批重点文物保护名录；群众文化体育活动丰富多彩，竞技体育获省级以上奖牌34枚。被评为全国文化先进县、全国群众体育先进县。双拥工作扎实开展，连续六届荣获“省级双拥模范县”称号。社会治理效果明显。坚持依法治县，高质量完成“六五”普法，被评为全省法治县创建活动先进县。加强安全基层基础建设，落实企业主体责任，强化隐患排查治理，生产领域未发生重大以上生产安全事故。被评为省级食品药品安全示范县并顺利通过复检。警务设施实现整体升级，完成“七个中心”建设，车辆管理所被评为全国优秀县级车辆管理所，刑事技术室被评为全国一级刑事科学技术室，驾驭社会治安局面的能力全面提升，刑事案件发案率逐年下降。完善领导包案、大接访等信访工作机制，严格落实“三到位一处理”，越级上访量持续下降。脱贫攻坚初见成效。以发展扶贫产业为抓手，扎实推进十大产业脱贫模式，统筹推进卫生医疗救助、教育均衡、社会救助兜底等工程，实施扶贫产业项目77个，投入资金2574万元。年内脱贫4300人，7个省级贫困村摘帽。', '科学施政形成常态。扎实开展党的群众路线教育实践活动、“三严三实”专题教育和“两学一做”学习教育，一批群众反映强烈的问题有效解决。积极推进法治政府建设，严格落实“三重一大”事项集体决策和重大决策专家咨询论证等制度。办复人大代表建议327件、政协委员提案297件，满意率达到98%。政务公开工作不断深化，县长公开电话、网络问政作用发挥明显，群众的知情权、参与权、监督权得到有效保障。审计监督进一步完善，廉政建设明显加强。执行能力全面提高。稳妥推进事业单位分类改革，市场监管、卫生计生、文化广电等部门完成机构整合。积极推动财税体制改革，“营改增”全面推开，推行公务卡结算制度，集中支付电子化上线试运行；全面落实预算改革要求，规范县乡两级事权财权。认真贯彻落实县委各项决策部署，探索实行大督查机制，全面实施绩效评估和行政问责机制。承诺的50件民生实事按期完成。完成政务大厅异地改造，全面推行“五证合一”登记制度改革，深化商事制度改革、加强事中事后监管工作。行政审批事项由200项缩减至145项，累计办理各类事项336万件，按时办结率100%。金融机构服务经济社会发展全局的意识强烈、成绩卓著。此外，供电、消防、通信、保险、统计、移民、广电、档案、气象、民族宗教、妇女儿童等各项事业取得新的成绩。', '各位代表、各位委员！过去的五年，历程非凡，成绩斐然，这是全县上下解放思想、迎难而上的五年，是开拓进取、奋发有为的五年，是夯实基础、积蓄潜能的五年，是综合实力增长最快、城乡面貌变化最大的五年，也是关注改善民生、人民群众得实惠最多的五年。这些成绩的取得，是县委坚强领导、科学决策的结果，是县人大依法监督、县政协民主监督的结果，是全县上下团结一心、拼搏进取的结果，是社会各界携手共建、鼎力支持的结果。在此，我代表县政府，向所有关心、支持、参与通化县建设的朋友和同志们，致以崇高的敬意和衷心的感谢！', '五年的成就来之不易，五年的经验弥足珍贵。我们深刻体会到，推动通化县率先发展、加快发展：必须坚持解放思想创新发展，牢牢抓住发展这个第一要务，不断拓宽思路视野，持续提升标准境界，不断积聚发展动能；必须坚持立足实际谋划发展，准确把握县情特点和阶段性特征，科学确定目标任务，最大限度地发挥自身优势；必须坚持改善民生共享发展，始终把强县和利民结合起来，倾情为群众办实事谋福祉，着力解决事关群众利益的现实问题，让发展成果惠及全县人民；必须坚持转变作风保障发展，把“忠诚、干净、务实、担当”作为准则，“多留遗产、少留遗憾”，努力创造经得起历史、实践和人民检验的实绩。', '回顾过去的五年，我们清醒地认识到，发展中还存在着一些困难和矛盾：经济发展面临较大下行压力，矿产业和部分企业生产经营困难较多，增长动力转换较慢；财政收入增长远远满足不了事业发展需要，收支矛盾仍然突出；服务业发展相对滞后，新兴产业核心竞争力不足；农业现代化水平不高，农业种植结构不尽合理，农民增收比较缓慢；创新社会治理面临许多新情况、新问题，维护社会和谐稳定的任务还很繁重；政风建设有待进一步加强，懒政怠政、效率不高、执行力不强等现象仍然存在，违法违纪案件偶有发生。这些问题，我们一定积极面对，务实担当，创新举措，合力破解，努力改进。', '按照县第十四次党代会精神，未来五年，县政府总体工作思路是：全面贯彻习近平总书记系列重要讲话精神，认真落实中央“四个全面”战略布局和省委“三个五”战略部署、市委“五六七”发展战略、县委“12345”发展思路，牢牢抓住国家新一轮振兴东北老工业基地的重要机遇，深入践行新发展理念，主动适应经济发展新常态，始终保持率先发展、加快发展的良好态势，以把握转型升级、培育新兴业态为重点，突出协调联动、创新驱动和绿色带动，着力培育战略产业、打造重大项目集群、优化县域发展环境、建设美丽乡村、推进城镇化进程，争做全市县域突破发展排头兵、全省创新驱动发展新标杆、全国生态文明建设新典范，率先全面建成小康社会，努力让全县人民过上殷实幸福、自信快乐的美好生活。', '全面贯彻习近平总书记系列重要讲话精神，认真落实中央“四个全面”战略布局和省委“三个五”战略部署、市委“五六七”发展战略、县委“12345”发展思路，牢牢抓住国家新一轮振兴东北老工业基地的重要机遇，深入践行新发展理念，主动适应经济发展新常态，始终保持率先发展、加快发展的良好态势，以把握转型升级、培育新兴业态为重点，突出协调联动、创新驱动和绿色带动，着力培育战略产业、打造重大项目集群、优化县域发展环境、建设美丽乡村、推进城镇化进程，争做全市县域突破发展排头兵、全省创新驱动发展新标杆、全国生态文明建设新典范，率先全面建成小康社会，努力让全县人民过上殷实幸福、自信快乐的美好生活。', '新时期，新起点，新征程，任重道远，使命光荣。我们要抓住机遇、奋勇争先，努力推进各项工作迈出新步伐，跨上新台阶，特别是要按照县第十四次党代会的部署要求，在经济发展、改革创新、生态文明、开发开放、改善民生等方面走在全省县域前列。', '要努力实现县域综合实力升级晋位。产业转型升级取得重大进展，供给侧结构性改革取得明显成效，三次产业结构力争达到7:47:46。地区生产总值年均递增8%以上；财政收入与地区生产总值同步增长。', '要努力实现重点领域和关键环节改革取得重大进展。市场化改革进程加快，投资创业环境更加优良，参与区域经济合作和竞争的能力持续提升。深入实施创新驱动发展战略，思想观念、发展模式、体制机制的创新实践快速推进，科技创新能力显著增强。', '要努力实现在全省率先建成国家生态文明建设示范县。不断巩固绿色生产方式和生活理念，持续改善生态环境，基本建立系统完整的生态文明制度体系。资源优势加速转化，循环经济、绿色经济、低碳经济模式打造取得积极进展。环境质量全面提升，天更蓝、山更绿、水更清、人居环境更优美。', '要努力实现打开全省向南开发开放新窗口。围绕工业转型升级和城镇化建设，成功打造10个重大产业集群。抓住通化国际内陆港务区建设这一重大机遇，主动对接辽宁沿海经济带、环渤海和京津冀经济圈，积极承接战略合作和要素集聚，延伸产业链条，努力打造开发开放先导区。', '要努力实现城乡居民民生福祉最大化。全面发展社会事业，均衡配置公共服务，建立健全覆盖城乡居民的社会保障体系。依法行政能力明显提升，人民权益得到充分保障。社会治理机制更加健全，各类社会矛盾有效化解。文化事业繁荣发展，公共文化服务体系日益完善。城镇常住居民人均可支配收入达到32000元，农村常住居民人均可支配收入达到16000元。', '（一）坚持推动产业转型升级。以绿色转型发展为契机，加快发展方式转变和结构优化调整，努力形成多元化发展格局。突出发展医药健康产业，发挥生态资源和医药产业优势，积极推进特色农业、加工制造、商贸物流、养生保健、休闲旅游统筹发展，形成具有持续竞争力和支撑力的特色产业体系。推进矿产资源深度开发，支持生物材料、纳米材料、环保材料、化工材料等新型材料的研发生产和推广应用，加速形成新兴产业集群。做强白酒、葡萄酒、功能性饮料等传统食品产业，做优蓝莓、大米、甜玉米等有机绿色产业，做大人参新资源食品，大力开发区域特色保健品、旅游休闲食品、航空食品。加快完成化工产业园区三期工程的全部建设布局，促进设计能力释放，建成全省中型氮肥及精细化工企业。推进石油装备制造产业园建设，打造吉林省东南部最大的石油装备制造产业基地。构建集健康养生、运动休闲、旅游度假于一体的大旅游发展格局，大力发展冰雪产业，打造“南长白山旅游品牌”，建设面向东北亚的健康旅游目的地城市，成功创建“国家全域旅游示范区”。积极发展高端服务、现代物流、现代金融和健康服务业，努力打造吉林省东南部中高端服务业中心。加快发展“互联网+人参”产业集聚平台，重点建设30家较具规模的人参及农特产品经营实体。', '（二）坚持推动新旧动能转换。以改革为引领、创新为动力，不断增强经济发展内生动力和市场主体活力。注重引进知名企业、品牌和战略投资者，培育一批具有竞争力的域内企业和自主品牌，提高参与对外经济合作和竞争的水平，实际利用外资力争达到2.5亿美元。加强产学研联合，孵化一批创新企业，熟化一批科技研发成果。着力推进工业企业扩能提升和“巨人”企业培育计划，扩大技术改造和战略性新兴产业投资比重，促进创新要素向优势产业倾斜。举全县之力支持东宝集团成为“双百亿”企业，重点发展10户产值十亿元的“小巨人”企业。支持民营企业完善现代企业制度，加强技术创新、管理创新、商业模式创新。健全创业服务体系，加快创业基地和创客空间建设，大力培育各领域、各层次、各类型的创业群体。创新投入占GDP比重达到2.5%以上，新产品产值率力争达到25%。加快政府职能转变，强化政务服务体系建设，扎实做好“放管服”工作，落实负面清单制度；稳妥推进国有林场、公立医院综合改革，加快推进财税体制、文化体制机制改革，深化公安、社会保障和农村综合改革。', '（三）坚持推动生态文明建设。全力推进“生态立县”战略，坚定不移地走可持续发展道路。统筹推进水安全、水生态、水环境、水文化建设，抓好城乡河流堤前压柳、坝后栽树生态化治理。加大水源地保护力度，推进蝲蛄河景观带和国家湿地公园建设，打造集观光、休闲、科普等多功能于一体的生态长廊。全面完成生物多样性保护与可持续利用试点项目规划一期任务。加快石湖国家级自然保护区建设，完善大保护区管理职能，逐步释放保护区生态、经济、社会综合效益。实施“同济大学千村百镇联动工程”项目，建设生活垃圾能源化工厂，推进生活垃圾能源化设备、生物质能源化设备、有机肥生产设备、太阳能光伏发电设备制造等后续项目建设，创建国家循环经济示范县。', '（四）坚持推动开发开放并举。以开发促开放，以开放促发展，积极推进开放型经济再上新台阶。主动融入国家“一带一路”发展倡议，助力通化至沈阳、通化至丹东、通化至集安快速铁路建设和四平至白河高速铁路建设；对接省委、省政府向南开放窗口战略，打造吉林省东南部出海大通道重要节点。围绕通化机场和通化国际内陆港务区建设，大力发展临空临港经济。探索市场化招商引资方式，加强对区域经济、产业经济与招商引资等重大项目的“题材研发”和“商业模式设计”，做好“无中生有”“有中生新”两篇文章。充分发挥企业主体作用，全力推进重点企业并购重组、扩能改造和上市融资，实现资源要素优化配置。加强项目库动态管理，选择重大产业链项目推介招商，确保每年建设强度、力度不减。完成聚鑫经济开发区全区控制性详细规划，修改和完善开发区总体发展规划，力争晋升为省级开发区；推动人参产业提质增量，打造中国第一个人参国际城。', '（五）坚持推动发展成果共享。把新增财力的70%用于保障和改善民生，民生支出占财政支出的80%以上。将脱贫作为“第一民生工程”，坚决打赢脱贫攻坚战。落实就业创业政策，健全社会保险待遇和城乡低保标准动态调整机制；推进社会化养老服务体系建设，积极发展老龄、残疾人事业，增强社会保障能力。加快保障性住房建设，完成城市棚户区、农村危房和厕所改造。升级改造城乡道路。优化教育资源配置，提高各级各类教育质量。高标准发展全民健康事业，健全完善公共卫生服务体系和基本医疗保障体系，减轻群众就医负担，创建全国首批健康城市。实施文化惠民工程，形成覆盖城乡、结构合理、功能健全的公共文化设施网络。抓好城乡社区建设，夯实社会管理基础。深入推进平安通化县、法治通化县建设，确保社会公众安全感、法治建设满意度、政法队伍满意率在全省持续领先。推进信访工作法治化建设，引导和支持群众理性表达诉求，依法维护权益。加大对食品药品、安全生产等重点领域的执法力度，防止发生重特大安全事故。力争完成50件重点民生实事。', '各位代表、各位委员！构筑前景，我们豪情满怀；展望未来，我们信心百倍。我们坚信，只要始终牢记使命，坚持不忘初心、求真务实、开拓创新，就一定能够圆满实现今后五年的各项奋斗目标。', '2017年是新一届政府乘势发力、开启新篇之年，也是实现“十三五”规划的关键之年。我们要按照县第十四次党代会精神和今后五年的总体目标，以作风改进开局起步，以发展主题凝心聚力，以队伍建设固本强基，以发展成果造福百姓，为全面完成新一届政府工作任务打下坚实基础。', '继续实施支柱产业振兴、优势产业提升、服务业壮大“三大工程”，不断调优产业发展布局，促进实体经济提质增效。', '一是扶持四大支柱产业振兴。医药健康产业：重点推进东宝生物科技园二期人血清白蛋白项目进行中试生产，加快其他蛋白质类药物及生物制药的研发进程，充分释放人胰岛素产业园区产能。加快东宝药业镇脑宁、振国药业白花蛇舌草注射液等20个中药主导品种的二次开发。鼓励金汇、吉通、巨仁堂、汇金堂、永基等拥有保健品批号的中小药企向保健品产业转型。矿产业：完成22户停产、半停产矿产企业调查摸底，支持企业“攀亲结贵”，实现资产重组、市场出清，力争早日走出困境。推动石油、天然气、温泉等资源勘探开发。食品产业：重点支持大泉源酒业、通天酒业、青山实业、通化一洋、臻尊保健品、中韩移动等企业在市场开发、产品推广、对外合作方面取得积极进展。依托禾韵蓝莓、江达米业、三生农林、奥禾食品等企业，加快推进有机绿色食品产业化进程。发挥快大人参市场产业集聚效应，提升长白山人参品牌的市场竞争力和占有率。精细化工产业：全力推动化工产业园区“18·30”项目投产达效，力争二期秸秆复合肥项目年内竣工投产，加快三期工业酒精项目开工建设。', '二是助力四大优势产业提升。“互联网+”产业：不断提升国富人参交易中心运营水平，打造国际人参线上交易第一平台。全面完成“国家农村电子商务示范县”项目建设，基本形成覆盖城乡的电子商务和物流配送体系。鼓励农民网上经营，打造特色农产品品牌，线上销售额力争达到4000万元。石油装备制造业：全力推动石油化工一期项目投产达效，力争二期改造项目年内竣工投产，石油装备制造业产业园区初具规模。新材料产业：重点推进宏信研磨材超细微粉在军工、航天、陶瓷等更多领域的开发利用。推动钾长石工业园区、石墨产业园区建设取得实质性进展。特色旅游产业：精心做好县域旅游总体规划，统筹谋划旅游产业发展。实施精品旅游线路打造工程，重点推介“虎湾线”环城人文休闲游路线，“果松-石湖-东来”自然生态游路线，“兴林-光华-大安”红色记忆游路线。加快西江贡米小镇建设，发展生态农业观光游。围绕“人参之路”文化旅游圈，推动以振国养生谷、快大人参产业园为中心的“国家中医药健康旅游示范基地”建设。完善赤柏高丽谷花海配套设施。加大旅游宣传力度，组织赏花节、冰雪节、自行车拉力赛等活动，扩大旅游业的吸纳力和影响力。', '三是引领服务业壮大。重点推进东宝高端服务产业园区年内投入运营，加快果松国际滑雪场、振国养生谷、石湖国家森林公园等项目建设。依托长白山医药物流中心、化工产业园、臻尊保健品等项目，筹建医药、化工及相关产品物流园。推进县农信社重组，组建农商行。持续盘活圣东投资有限公司存量资产，主动参与优势企业、优秀项目、优质资源股权股本投入。做好企业非主营业务剥离和规模以上服务业企业统计入库。', '认真落实各项改革部署，塑造形成创新驱动的体制机制和创新环境，引领发展方式转变、结构转型升级和质量效益提升。', '一是发挥创新引领驱动作用。重点推进东宝科技园全省生物医药研发高端平台、上海第二军医大学“医药健康产业研究院”“长白山道地中药材规范化栽培、有效物提取及产品开发产学研合作基地”建设，加快推动人胰岛素类似物、人血清白蛋白、阿达木单抗、利拉鲁肽、德拉鲁肽、依那西普、重组葡激酶、苦碟子注射液、干细胞等高科技生物医药产品实现产业化，宏信研磨材在改性实验的基础上尽快形成产能。', '二是推进各项改革取得实效。突出供给侧结构性改革，确保改革落点实、效果好。抓好行政审批制度改革，推广“互联网+政务服务”模式。进一步深化财税体制改革，建立科学可持续的现代财政制度。全面推行“五证合一”登记制度，实行统一的市场准入制度，实现企业注册全程电子化。推进农村土地确权、农村集体产权制度改革试点、土地经营权抵押贷款试点和农业保险工作。有序推进国有林场改革。深化教育、医疗、文化、公安领域改革，稳步实施社会保障、事业单位、公务用车等各项改革。继续推行“PPP”模式，引导民间资本投向旅游产业、城镇建设、民生基础设施等领域。', '三是注重培育发展民营经济。营造宽松平等的准入环境，保护企业产权及合法利益。开展进修培训、学习考察、发展论坛等多种活动，不断提升企业家和小微企业经营者创新创业本领。继续抓好“双百工程”，选取15户企业重点包保，力争规模以上工业企业数量达到110户以上。加大商标品牌培育力度，加强县域驰名、著名商标和名牌产品认证工作。依托大学生创业园、快大人参产业园、电子商务园等平台，集聚创业群体，为创业者提供全方位服务。', '持续提升产业支撑力和综合承载力，突出生态文明与人文资源特色，全面促进城乡区域协调发展。', '一是强力推动县城建管提档升级。融合海绵城市建设理念，科学制定各项基础设施专项规划。改造河堤路等11条街路；新建改造水洗公厕3座，新安装果皮箱530个；完成沿河景观带及城区街巷路树木栽植、县城东出口及住宅小区绿化改造；对县城重点部位进行亮化。实施垃圾分类和秸秆沼气处理项目。加快城乡客运交通综合枢纽建设，规划设计停车场。加大城区交通整治力度，增设停车位。加强卫生环境常态化管理和综合整治，确保县城城区全天候达到国家卫生县城标准。', '二是精心打造美丽乡村品牌。积极申报国家特色小镇项目，加快西江、英额布、东来、光华等特色小镇建设。新创建省级美丽乡村40个、美丽庭院4200个、干净人家2000户。打造美丽乡村文化品牌村40个。不断加强农田水利基础设施建设，切实保障粮食生产安全。优化农业种植结构，发展优质高效农业、观光农业，加快构建现代农业产业体系、经营体系，大力培育农民合作社、家庭农场、专业大户等新型经营主体。力争市级以上农业产业化龙头企业达到45户，农业经济合作组织达到528个，实现农产品总产值100亿元。', '三是突出抓好生态文明建设。完成国家生态文明建设示范县创建项目，做好生态乡镇、生态村的申报与验收。启动实施生物多样性保护与可持续利用试点项目建设。加快石湖国家级自然保护区、蝲蛄河国家湿地公园建设。继续实行生态补偿机制，加强水源地生态恢复治理和有机农业建设。完善经营林退出机制，恢复针阔混交林生物特征。实施浑江干流综合治理工程，建设堤防10.7公里；实施中小河流治理工程，建设堤防46公里，治理河道54公里；完成堤前压柳267公里；实施大川项目区坡耕地治理工程，治理水土流失760公顷。强化污染治理设施监管，完成企业减排任务。巩固秸秆综合利用试点成果，发挥通化秋硕生物材料、谷润新能源等企业秸秆收储转化功能，推动秸秆综合利用取得新突破。', '全力推进招商引资和项目建设，发挥产业集聚效应，倾力培育特色产业园区和优势产业集群。', '一是加快重点项目建设步伐。组织开展“重大项目显效年”活动，滚动实施50个重大项目。开工建设东宝人血清白蛋白、通化湾湾川水力发电有限公司风光水互补发电、西江现代农业产业园等新建项目，加快实施东北师范大学通化实验学校、快大人参产业园、教育园区等续建项目，推动东宝人胰岛素四期、臻尊保健品、联合胶囊等项目投产达效。集聚更多资源要素，持续推进东宝人胰岛素产业园区、东宝生物科技园区、双易铗矿业钾长石工业园区等特色产业园区建设。', '二是确保招商引资取得实效。完善招商引资机制，严格考核、精准推进、形成合力。加大项目谋划和储备力度，借助现有的资源和产业优势，围绕新兴产业发展做好项目谋划，推介项目60个。全力做好重点招商项目组织实施，加快推进爱康日用保健品直销项目规划选址和外资直销执照申报，完成基础设施建设；推进通化太舞四季文化旅游度假区项目投资主体设立，完成项目总体规划和各分支项目可研编制；完成三半江石墨产业园项目的土地征收、尾矿坝和选矿厂基础建设；加快完善中新玉金药业基因重组葡激酶生产线建设项目生产准备工作，争取早日投产；推进钾长石化工产业园区总体规划，加快园区资质申报，争取开工建设。', '三是不断提升开发区聚集功能。计划引进符合发展规划的超亿元项目1个、超3000万元项目3个。收储土地1300亩，完成民生类装备制造产业集聚区基础建设。加快人参国际城建设，争取将起步区核定为“中国人参国际城”特色园区。落实“贴心服务”内部管控机制，为企业营造良好发展环境。', '大力实施民生工程，办好为民实事，全力推进社会建设，努力让全县人民共享改革发展成果。', '一是全面完成脱贫任务。积极向上争取资金，突出产业扶贫，重点推进医疗、交通、水利等专项扶贫行动，加大“十大工程”实施力度，实现扶贫与村集体经济融合发展。健全完善贫困村、贫困户退出机制，严格执行脱贫攻坚考核评价办法，建立健全脱贫攻坚兜底政策，确保2017年现行标准下贫困人口全部脱贫。', '二是统筹发展公共事业。实施中小学标准化建设工程，改善办学条件。做好分级诊疗制度建设，建立远程会诊制度；加快推进三大医保整合，建立城乡统一的居民基本医疗保险制度；巩固国家卫生县城和国家慢性病综合防控示范区成果，启动全国首批健康城市创建工作。完成县综合档案馆建设和图书馆搬迁改建；组织群众性文体活动和送戏下乡；完善农村文体小广场配套设施。实施“赤柏松古城址”本体保护工程。举办第三届机关干部运动会和第八届少数民族运动会。', '三是强化民生保障功能。全面改善县城居民住房条件，继续加大棚户区改造和廉租房建设力度。实施4处农村饮水安全工程，解决3747人饮水安全问题。新增城镇就业6000人，城镇登记失业率控制在4.0%以内；农村劳动力转移就业保持在5.3万人。依法规范未参保企业参保缴费，保障企业职工合法权益。完成16所乡镇社会福利服务中心改造，筹建东安朝鲜族养老服务中心。加强农村养老服务大院建设，推进居家养老服务。', '四是维护社会和谐稳定。进一步提高安全生产基础保障水平，创新执法机制，推进依法治安，坚决遏制重特大事故发生。扎实开展“七五”普法活动，加快全国法治县创建进程。巩固平安建设成果，重点抓好立体化防控体系升级，突出视频监控体系建设、联网和应用，严厉打击违法犯罪行为，加强“互联网+公安”工作，提升为民服务水平，提高群众安全感和满意度。依法有序抓好信访工作，及时妥善处理群众诉求。完善推广分类监管制度，保障群众饮食用药安全。做好第三次全国农业普查工作。健全完善应急管理体系，提升突发事件处置能力和水平。保障妇女和未成年人权益。加强国防动员和后备力量建设，推进军地深度融合发展。继续做好社区、老龄、残联、民族宗教等工作。', '在做好上述工作的同时，全力办好十件民生实事：一是投资3.3亿元，改造棚户区5.6万平方米。二是投资2.3亿元，建成东北师范大学通化实验学校并投入使用；投资1.5亿元，加快完成县教育园区八中新校区建设。三是投资1.5亿元，实施县城绿化、美化、硬化、净化、亮化综合提升工程；弃管小区实现规范化、常态化管理。四是投资8800万元，实施蝲蛄河上游的水土保持和城区段景观带的综合治理工程。五是投资7500万元，改造农村危房3700户、厕所1700座。六是投资6000万元，实施客运枢纽新建工程。七是投资5000万元，实施农村校舍改造及乡镇教师周转房建设工程。八是投资4200万元，实施农村公路危险桥梁改造工程，修复农村破损水泥路50公里。九是投资3000万元，实施垃圾无公害化处理工程。十是投资2000万元，实施县备用水源地建设及河南桥拓宽工程。', '按照为民、务实、清廉的要求，致力形成敢于担当、善于创新、勤于为民、廉于从政的政风，为推动新一轮振兴发展提供坚强保障。', '坚持依法行政，打造法治政府。坚决服从县委的领导，自觉接受人大的法律监督、政协的民主监督和社会舆论监督，认真办理人大代表建议、政协委员提案，认真听取民主党派、工商联、无党派人士和人民团体的意见建议。实行重大决策专家咨询论证和政府法律顾问制度，提高政府科学民主决策能力。加强诚信政府建设，言出必行、有诺必践，提升政府公信力。', '坚持科学理政，打造创新政府。加快推进政府职能转变的“放管服”结合，深化“四张清单一张网”建设，着力优化服务环境。改革公共服务供给方式，提高公共资源配置效率，构建多元化、社会化的公共服务供给体系。全面推进政务信息公开，加强电子政务和政府网站建设，发挥微博、微信等载体作用，提高政府信息“透明度”。', '坚持高效施政，打造效能政府。健全督查机制，以“抓铁有痕，踏石留印”的作风，加大对重点工作、重大项目的督查督办力度，确保县委重大决策部署有效落实。强化绩效考核和责任追究，坚决纠正不作为、乱作为，坚决克服懒政、怠政，坚决惩处失职、渎职，提高社会公众满意度。', '坚持从严治政，打造廉洁政府。尊崇党章，认真执行新形势下从严治党若干准则和条例，持之以恒落实中央八项规定精神，坚持不懈纠正“四风”，切实履行“一岗双责”。强化对重点领域和关键环节的监管，严肃查处各类违法违纪案件。严控“三公”经费支出，有效降低行政成本，集中财力保民生、促发展。加强行政复议和行政应诉，保障和支持审计、监察等部门依法独立行使监督权。着力打通社会矛盾化解和行政争议解决“最后一公里”，树立风清气正的政府形象。', '各位代表、各位委员！站在新起点、抢抓新机遇，谋求新发展、实现新跨越，是时代赋予我们的光荣使命和神圣职责。让我们在县委的坚强领导下，在县人大、县政协的监督支持下，团结带领全县干部群众，以更加开放的思想观念，更加执着的拼搏精神，更加扎实的工作作风，践行新理念，开创新境界，为率先全面建成小康社会，让全县人民过上殷实幸福、自信快乐的美好生活而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>52</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>梅河口市政务中心年</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2013-03-01</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.mhk.gov.cn/zwgk/xxgk/zcbm/zwzx/zsjml/201303/t20130301_22286.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['政务中心坚持以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，紧紧围绕“服务发展”这一主题，认真履行工作职责，', '圆满完成了各项工作任务，大厅建设迈出了新步伐、取得了新成效，为我市经济社会又好又快发展做出了积极地贡献。', '为了更好地服务项目建设，规范行政审批行为，我们对纳入政务中心管理的审批项目实施了流程再造，每一个项目都编制了详实的项目审批流程图，使行政审批工作始终在规范化轨道上运行。在此基础上，我们认真组织实施了《梅河口市行政审批“直通车”实施办法》，设立了《重点项目行政审批直通车》受理窗口，安排专职人员分工负责，从项目受理到审批各环节全面进行优化，实行特事特办，急事急办，全年电话联系重点企业150余件次，主动指导企业项目申报工作。对所有进入直通车的项目，全部实行“统一受理、统一踏查、统一收费、并联审批、限时办结”运行模式，进一步简化环节，全程跟踪服务，审批工作在承诺时限内再提速50%，保证了全市重点项目及时落地。截止到11月末，《直通车》窗口受理重点项目42个，平均审限4天，实现了审批时限最短、收费最低、服务最优的工作目标。我们还针对项目特点，组织有关部门窗口人员深入企业开展上门服务，今年以来，先后为依华渔具、河东热力、绿优饮品、富霞种业等12个项目组织现场办公，赢得了企业的赞誉。', '为有效发挥政务大厅审批平台作用，我们不断完善各项规章制度，在全面实行审批工作《八公开》和《一次性告知》的基础上，进一步实施了“首办负责制”、“联审联办制”和“违诺追究制”。先后组织窗口工作人员赴大连、吉林等地考察学习先进经验，提升服务水平。今年10月，我们与市纪委配合，积极探索新的服务模式，在政务大厅组建了审批事项全程代办窗口，面向办事群众开展全方位的代办服务。代办窗口成立2个月来，无偿代办审批事项17件，丰富了服务内容，产生了良好的社会效应。地税局窗口积极推行电子网络化办公，扩展了网上报税、联网缴税等功能，纳税人可以在任何有互联网的地方进行网上报税，在签约的银行网点进行刷卡缴税，省却了每月到政务大厅排号站队的麻烦，得到了办事人的好评。', '今年以来，我们不断加大督查工作力度，积极协调有关部门，进一步理顺工作环节、强化窗口服务功能。卫生局、工商局等部门积极整合部门审批职能，项目进厅到位，对窗口授权到位，所有审批事项不需要后台审批，从根本上解决了“前店后厂”、办事人“两头跑”的问题。林业局、交通局、质监局等部门不断简化审批程序，努力增加即办事项比重，极大地提高了审批工作效率。民政局、药监局、农业局等部门通过配齐配强窗口工作人员、理顺工作程序等措施，全面强化窗口建设，保证了审批事项“一站式”办公、“一条龙”服务。与此同时，我们采取日常巡查、电子评价器评价、电话回访办事人等方式，广泛征求办事人意见，不断改进工作，全年电话回访办事人926人次，有力促进了问题整改。我们还在大厅窗口普遍开展了“你好，再见”文明用语活动，坚持把热情规范服务贯穿工作始终，做到来有迎声、去有送语，让办事人感受到温馨的服务氛围。工商局、房产局、农业局等部门及窗口主动深入基层为项目主体单位和群众现场服务；林业局、卫生局、国土局、质监局等窗口耐心解答办事人提出的有关问题，主动放弃休息时间，为办事人实行延时服务。截止到11月末，政务大厅共接待办事群众11万9千人次，受理各类审批事项15364件，办结15164件，办结率达到99%，其中，即来即办事项7784件，占全部审批事项的51%；办理服务类事项10万4千余件，完成各种收费72，772万元（含地税）。本市范围内的审批事项一般在5个工作日以内即可办完，审批事项提前办结率达到70 %以上。', '为了进一步改善办公环境，扩展服务范围，我们在市政府的坚强领导下，借鉴外地政务大厅建设经验，积极探索市场化运作模式，不断推进政务大厅异地新建工作。先后与梅河口农行、农村信用联社、民生村镇银行等多家商业银行进行沟通洽谈合作事宜。经过不懈的努力，最终与梅河口民生村镇银行达成协议，合作建设13000平方米政务大厅。目前，项目已进入征地拆迁阶段，有望在明年底交付使用，从而结束梅河口政务大厅面积小、功能不强等问题。按照市委市政府的统一部署，我们把招商引资工作纳入重要工作日程，精心组织，落实责任，全方位服务，全年引进项目3个，完成引资额7000万元，占招商引资任务的140%，取得了历史性突破。在老城改造工作中，我们克服资金短缺的困难，投资7万元，圆满完成了凤麟幼儿园小区路面硬化和美化工作，为建设和谐社会做出了积极的贡献。', '年工作，虽然取得了一定的成绩，但与市委市政府的要求和群众的期盼还有很大差距。一是大厅硬件建设明显滞后，工作条件差，无法实现“大厅之外无审批”的工作目标；二是个别部门的审批行为有待进一步规范，窗口授权不到位，有的还存在部门、窗口“两层皮”的问题，影响办事效率；三是个别窗口工作人员服务意识和自身素质有待进一步提高。', '一是抓好异地新建政务大厅工作。加强与有关部门的协调配合，积极推进征地拆迁进度，全面做好开工前的各项准备工作，力争在2013年底之前建成投入使用。', '二是进一步整合资源，打造更大的综合服务平台。利用新大厅建成的契机，整合窗口布局，全市审批项目进厅率要达到95%以上，与此同时要将医疗保险、社会保险等公共服务项目纳入大厅，增强政务大厅服务功能。', '三是继续推进行政审批权相对集中改革工作，切实解决部门“另行受理”、“厅外循环”等问题，规范审批行为，提高办事效率。', '四是继续抓好行政审批直通车和全程代办服务，努力扩大服务范围，强化联审联办，实现审批提速。对于全市重点项目落实专人全程跟踪服务，确保项目及时落地。', '加大监督工作力度，进一步转变工作作风，提高工作人员的整体素质和服务水平，打造良好的经济发展软环境，为建设区域中等城市做出积极的贡献']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>52</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>辉南县经济局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2013-12-31</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://xxgk.huinanxian.gov.cn/zfgz6/jjzxfz/ndbg/201805/t20180511_213297.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['自年初以来，我们经济局以县委十四届三次会议精神为统领，以围绕“三化”融合发展、“三动”协同推进战略为指导，全面贯彻落实县十七届人大二次会议精神，紧紧围绕“保运行、促民营、强管理”的工作思路，着力强化了工业经济运行的分析、预警、监测工作，大力开展“加快民营经济发展”、“ 工业企业服务年”、“辉南县协调服务工业企业工作领导小组”等活动，激发创业活力促进企业的生成、发展、壮大，较好地完成了全年的各项工作任务。主要工作完成情况如下：', '一、科学搞好经济运行监测分析。为了实现民营经济发展跨越，年初我们将民营经济各项发展指标进行分解，向各乡镇下达了民营经济发展任务指标。为把工作目标落到实处，多次到各乡镇对乡镇工业和民营经济工作进行指导督促，确保了数据的真实性和准确性。同时，认真做好全县民营经济调度统计工作，不断完善经济运行监测分析，及时准确掌握民营经济运行动态，发现问题及时解决，保障了民营经济平稳健康发展。', '二、出台政策支持企业发展。年初在认真贯彻落实省委、省政府《关于突出发展民营经济的意见》及市委、市政府《关于加快推进民营经济发展若干意见》的同时，结合我县实际分别制定了《2013年辉南县促进企业发展若干政策》、《辉南县加快推进民营经济发展若干政策》。这两项政策的出台，为我县今后一个时期按照省委、省政府“扩大总量、提高质量、优化结构、增加效益、富民强省”的总体要求，全面实施全民创业、招商引资、素质提升、集群发展、市场培育“五大工程”，着力做大总量，做优结构，做强龙头，做精产品，做长链条，不断增强我县民营经济整体实力和竞争力奠定了坚实基础。', '1、今年3月8日-24日分两次组织6户企业负责人对上海股托管交易中心和全国中小企业股份转让系统（新三版）进行考察学习。使企业负责人对企业上市工作有了一个新的认识，同时也找到企业上市存在的差距和问题，明确企业上市需要努力的方向，增强了企业挂牌上市的信心。', '2、召开了民营经济座谈会，与会31位民营企业代表就企业目前经营实际状况；企业发展过程中存在的主要问题；我县民营经济发展意见及建议；企业自身发展中迫切需要县委、县政府帮助协调解决的困难和问题等议题进行了座谈，收到了较好的效果。', '3、局领导带队分三组对全县38户重点企业进行调查研究、梳理摸清情况、找出企业生产经营中存在的困难和问题，能解决的及时解决，不能解决的上报县政府。', '四、安全生产工作。先后对长龙药业、民爆公司等12家与经济局签订安全生产责任状的企业，进行了细致的安全生产大检查。在排查中不留死角，防止重特大事故的发生，共排查出安全隐患79项。针对检查中发现的问题我们要求能立即整改的立即整改，不能立即整改的限期内整改，达到了预期效果。', '五、维稳和信访工作情况。按照上级有关部门关于做好维护社会稳定工作的目标，坚持从群众满意的事情做起，认真倾听群众呼声，妥善处理企业改制的遗留问题。今年共接待和处理信访事件7件，50余人次。积极抓好企业改制改革过程中出现的新问题，最大限度地保护职工利益。针对群众反映的具体问题我局及时采取有针对性的工作方法，深入企业，做了大量的工作，无越级上访和集体上访，办结7件，办结率100%。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>52</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>年东昌区政府工作报告</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2012-12-03</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.dc.gov.cn/xxgk/gzbg/201702/t20170223_50017.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['即将过去的一年，在市委、市政府和区委的正确领导下，在区人大、区政协的监督支持下，区政府紧紧围绕“三化”统筹和“三动”战略，按照年初确定的目标任务，牢牢把握“稳中求进、好中求快”主基调，团结带领广大干部群众，攻坚克难、开拓创新、扎实工作，圆满完成了各项工作任务。', '一年来，我们主动应对经济下行压力，不断增强工作的针对性和有效性，积极推动科学发展、率先发展、统筹发展，主要经济指标继续呈两位数增长，综合实力明显提升。预计2012年，全区地区生产总值实现130亿元，同比增长23%;全口径财政收入完成14亿元，同比增长25%;地方级财政收入完成5.7亿元，同比增长31%;全社会固定资产投资完成115亿元，同比增长36%;招商引资引进资金124亿元，同比增长17%;社会消费品零售总额实现84.5亿元，同比增长23%;城镇居民人均可支配收入达到21360元，同比增长13%;农民人均纯收入达到10340元，同比增长20%。人均财力、农民人均纯收入和社会消费品零售总额等主要指标位居全市首位。', '一年来，我们充分调动干部群众的积极性和主动性，保持奋发有为、争先晋位的精神状态，形成干事创业的强大合力，招商引资和项目建设成果丰硕，发展势头日趋强劲。预计全年引进各类项目330个，其中超亿元项目36个。成立项目推进组，全面破解征地拆迁等瓶颈制约，推进重点项目顺利实施。总投资10.3亿元的祥元镁业一期工程基本完成，点火一次成功，镁环纯度高达99%以上。总投资2亿元的万通药业国家生物产业基地核心区项目主体封闭，正在设备安装。总投资2.9亿元的吉林紫鑫禺拙药业开工建设，年内实现主体封闭。医药企业引进、重组取得新进展，成功引进吉林方大药业，新增品种63个，利民药业、盛和药业启动重组。医药配套产业不断壮大，总投资1亿元的利通彩印二期项目已投产、三期项目启动实施。石油机械异地扩能改造完成主体工程，石油化工机械异地新建落实选址。总投资1亿元的伟刚木业完成选址、拆迁，即将开工建设。商贸房地产项目引进取得重大突破，总投资18亿元的红星美凯龙全球家居广场商业综合体项目落户江南新区，完成征地全面开工。总投资16亿元的中东新生活城市广场二期、总投资3亿元的欧亚购物中心二期完成土建施工。总投资6.5亿元的瑞孚汽车产业园快速推进，一汽奥迪等4S店如期开业。弘康丽城、保利地产、丽景三期、香港礼同等房地产项目顺利推进。向上争取项目和资金工作成效明显，被纳入国家长白山林区生态保护与经济转型规划;长白山有机人参高效生产技术集成与示范项目纳入国家星火计划;国家科技富民强县专项计划顺利获批，开创市辖区政府立项先例。预计全年向上争取资金1.1亿元，万通、茂祥、力神等企业均获国家专项资金支持。吉林东昌经济开发区成功晋升省级开发区，项目建设平台和载体作用进一步增强，开发区全年引进各类项目53个，其中亿元以上项目11个。', '一年来，我们把保增长与调结构紧密结合，牢牢把握发展的主动权，强化育企服务，优化运行质量，工业经济逆势增长，发展活力显著增强。预计全年新增规模以上工业企业7户，总数达到38户;新增纳税超百万元“小巨人”企业15户，总数达到85户。预计实现规模以上工业总产值96亿元，同比增长32%;实现工业增加值37亿元，同比增长21%;实现利润总额5.5亿元，同比增长27%。妥善处理“问题胶囊”事件，全区13户规模以上医药企业发展稳健，主要经济指标增长20%以上。企业自主创新能力进一步增强，百信药业“安神浓缩丸”获国家中药保护品种独家生产权，兴华药业生物提取技改项目填补我区生物制药领域空白。机械制造产业发展势头良好，石油化工机械、石油工具、变压器股份、起重机械等企业效益持续攀升，部分产品出口国外市场。积极搭建企业融资平台，全区政、银、企对接工作取得明显成效。制定出台支持企业上市激励政策，百泉参业、万合影视、变压器3户企业进入新三板上市申报、辅导阶段。预计全年民营经济主营业务收入实现154亿元，同比增长28%。', '一年来，我们以农业发展、农民增收为目标，加快发展精品农业、高效农业，基础设施日益完善，农村经济长足发展，新农村建设再创佳绩。预计全年实施新农村建设重点项目115个，总投资3亿元。吉林农大棚室蔬菜高效生产技术示范与推广基地落户东昌。总投资3500万元的金厂镇现代农业示范园，建成标准化新型大棚116栋，年底部分投入生产。农业产业化进程加快，被评为省级农产品加工示范区，市级以上产业化龙头企业达到17户，农民专业合作社达到45个。新增3个省级牧业小区，畜禽免疫率和标识佩戴率均达100%。完成综合造林3000亩，封山育林10000亩，实现连续58年无重大森林火灾。制定出台《农民收入五年倍增计划》、《促进农村经济和社会各项事业发展扶持政策》，列支专项资金，促进农民增收。基础设施建设取得新进展，修建、改建桥梁14座、水泥路18公里、国防路9公里。完成10个村饮水管网、水源井工程，解决近万人安全饮水问题。修建堤防13000延长米，金厂河、保安河、抽水河以及水毁堤防全部完工，防洪标准全面提高。农业保险工作顺利推进，参保农民198户，参保面积6000余亩。实施清淤绿化、改厕保洁综合整治，农户生产生活环境得到全面改善。完成农村环境保护连片整治规划，龙头村率先通过省级生态村验收。预计全年农村经济总收入实现28亿元，同比增长11%。乡(镇)综合实力明显跃升，三个乡(镇)完成全口径财政收入1亿元，实现体制收入4000万元，成为全区招商引资、项目落户的主阵地。', '一年来，我们秉承民生优先的执政理念，切实解决人民群众最关心、最直接、最现实的利益问题，让百姓共享发展成果，民生实事全面落实。多方筹措资金2亿元，投入教育、卫生、社区等公共服务和社会事业领域，基础设施建设水平大幅提升。育红、江南小学13300平方米新校舍交付使用，沿江小学5200平方米新校舍主体完工，金厂、江东幼儿园完成改造1000平方米;新建江南、江北社区卫生服务中心4000平方米，通化市中西医结合肛肠医院4500平方米新楼投入使用，区妇幼保健院、东昌社区卫生服务中心、金厂镇卫生院异地新建启动实施;新建、扩建、购置和租用23个社区办公用房13700平方米，实现社区办公和活动用房建设三年任务两年完成;总面积35000平方米的区政务文体活动中心正在进行内外装修，区法院10000平方米审判大楼交付使用，区检察院新增办公面积1500平方米，区公安分局13000平方米侦查技术大楼开工建设。积极扩大就业，投入专项资金用于城乡劳动者素质培训，转移农村劳动力7300人次，新增城镇就业7140人，城镇登记失业率控制在4%以内。实现城乡居民养老保险制度全覆盖，城镇居民养老保险制度全面实施，新农保基础养老金计发标准全省最高。新农合参合率98.6%，大病报销比例达到70%，报销封顶线提至8万元。全区城乡低保对象最低生活保障标准分别提至每人每月315元和每人每年1987元。环卫保洁员工资实现市区同酬。社区“两委”成员月工资分别提到1600元、1400元和1200元。设立专项奖励资金鼓励教师到偏远农村任教，为特殊岗位教师每人每年发放补贴3000元。改善机关事业单位人员医疗保险待遇，报销比例提高10个百分点，医疗保险支付限额提高到5万元。率先制定出台《建国前老党员生活补贴实施方案》，为全区61名建国前老党员发放安居、医疗、取暖等生活补贴，最高补贴每月超过4000元，得到社会广泛赞誉和上级充分肯定。开工建设1万平方米廉租(售)房，对9162户低保户、低收入住房困难家庭发放房屋租赁补贴近1100万元。配合老旧楼“暖房子”改造500余栋，改造农村危房84户，百姓居住条件明显改善。政府承诺的民生实事得到全面落实。', '一年来，我们正确处理发展与稳定的关系，有效化解各类矛盾和问题，努力践行为民宗旨，各项事业协调发展，社会环境更加和谐。特色教育深入发展，成立东昌区外国语学校、书法教育培训基地。成功举办第二届小学生冰雪节。顺利通过省政府专项验收与评估，获全省教育工作先进区称号。医改工作扎实推进，乡(镇)卫生院、社区卫生服务中心全面实施基本药物零差价。中西医结合肛肠医院晋升为中医二级医院，实现历史突破。文体工作再创佳绩，跻身“佟佳江满族剪纸”国家级培训基地，荣获全国第十二届冬运会两枚金牌。人口计生工作荣获省“党政线”考核综合先进奖。民主法制建设进一步加强，办理人大代表建议、批评、意见和政协委员提案82件，办复率达100%。深化事业单位改革，撤销、整合、调整和规范事业单位60个。成立区食品安全委员会办公室，在全市率先建立村(社区)食品安全义务监督员制度，区食品安全举报中心被评为省级先进试点。健全社会矛盾多元解决机制，全区治安形势明显好转，刑事案件发案率同比下降11%。“六五”普法全面展开。强化审计监督，财经管理更加规范。行政监察有效开展，软环境进一步优化。“打非治违”成效明显，全区安全生产持续平稳，未发生重大安全生产事故。集中开展矛盾纠纷“大排查、大化解”活动，解决了一批信访突出问题。大力支持人民武装工作，为全市荣获“全国双拥模范城”七连冠做出积极贡献。侨务工作成绩突出，被国务院侨办授予全国侨务信访工作示范区称号。公共机构节能降耗工作获全省表彰。供销、残联、民族宗教、防范和处理邪教等工作得到加强。', '各位代表，即将过去的一年，全区经济社会平稳较快发展，社会和谐稳定，人民安居乐业。这些成绩的取得，得益于市委、市政府和区委的坚强领导，得益于区人大、区政协的有力支持和监督，得益于人大代表、政协委员的关心和帮助，得益于全区广大干部群众团结一致、勇于奉献的忘我工作。在此，我代表区政府向辛勤工作在全区各条战线上的广大干部群众，向给予政府工作大力支持的人大代表、政协委员和社会各界人士，向所有关心支持东昌发展的各级领导、同志们、朋友们，表示衷心的感谢并致以崇高的敬意!', '在肯定成绩的同时，我们必须清醒看到，在东昌发展和前进的道路上，还面临着许多困难和问题：经济总量小，产业结构和产品结构不优，体制机制创新能力不强;发展空间受限，项目用地面积小、不连片，大项目引进十分困难，解决用地供需矛盾迫在眉睫;招商引资地价高、成本大、引进难，优惠政策空间有限，对项目的吸引力不足;民生事业亟须发展，社会管理和公共服务亟待创新和加强;少数公务人员作风漂浮，执行力不强等等。这些困难和问题在一定时期将阻滞我们前进的步伐，影响我们发展的质量，因此必须认真对待，并采取有效措施加以解决。', '2013年，是保持东昌经济社会平稳较快发展，加快全面小康社会建设进程的关键一年。面对新的形势和任务，我们必须坚定信心，采取更加有力的措施，把握一切有利契机，迎难而上，争取主动，以超常规的举措实现东昌发展的新跨越。', '2013年，政府工作的总体思路是：以党的十八大精神为指导，以科学发展观为统领，以争先晋位为目标，坚持实施“三动”战略，推进“三化”进程，继续实施工业立区、招商富区、产业强区、人才科教兴区和可持续发展战略，加大招商引资力度，加快结构调整步伐，以增量带动结构优化，以创新促进产业升级，以发展保障民生改善，使东昌在建设东北东南部活力之区上迈出新步伐，努力让城乡居民生活得更加美好。', '经济发展主要预期指标为：地区生产总值增长20%;全口径财政收入增长20%，地方级财政收入增长25%;农民人均纯收入增长15%以上;招商引资实际到位资金增长20%;全社会固定资产投资增长30%。', '具体工作中，我们将按照区委七届二次全会确定的目标任务，突出“抓项目、调结构、促发展、保稳定、惠民生”五项重点工作。', '突出招商引资和项目建设。进一步整合招商力量，营造招商氛围，招商士气不可泄、热情不能减、劲头不能松，再掀招商引资新高潮。全年招商引资实际到位资金力争突破100亿元，其中超亿元项目10个，3000万元以上项目25个。加快推进禺拙药业、红星美凯龙等在建项目，确保年内竣工投产或试运营;研究推进办法和措施，着力做好保利、大众、礼同、丽景三期等征收地块收尾工作;伟刚木业、烟草物流等项目要有实质性进展，年内开工建设。继续围绕现有企业、现有产业开展招商引资，实现产业配套和产业延伸，重点围绕资源型项目出台土地和税收等扶持政策，深度打造产业集群。深入研究国家产业政策和资金投向，在社会事业、新兴产业、循环经济、新农村建设、基础设施建设、重点产业振兴、国家支持长白山林区生态保护与经济转型项目等领域，加大争取项目和资金力度。强化建设项目环境管理，严把建设项目政策关、选址关、环评关和验收关。开展“提前介入、上门服务”活动，选派机关干部到重大项目挂职锻炼，对特定项目采取“适度超前、交叉进行”的办法，加强审批信息互动和进度跟踪督查。全年实施亿元以上重点项目40个，确保完成150亿元的固定资产投资任务。', '加快吉林东昌经济开发区建设。要把经济开发区作为发展的主战场，进一步完善开发区规划，科学定位产业布局。充分利用省级开发区优惠政策，研究具体措施使我区新老企业进入开发区盘子，鼓励现有企业扩能改造，培育新的增长点。积极引进战略投资者，大力发展镁合金高端、终端产品，增加产品附加值，延伸产业链条，打造国内技术领先的镁合金产业基地。开源金矿、百利克朗思医药包装二期等生产型项目要加快推进。积极打造经济开发区融资平台，争取更多政策资金和贷款支持，帮助企业破解融资难题。江东、环通两个工业园区要进一步完善基础设施建设，留足空间，做好规划，引进项目，打造特色产业聚集区。结合集体土地确权登记工作的开展，对三个乡(镇)土地进行全面调查摸底，为项目落户预留土地，为产业升级腾出空间。要节约集约利用土地，对低效闲置土地进行重新“包装”，用“旧巢”引“新凤”，重点引进科技含量高、产出效益高、财政贡献高、资源能耗低的优质项目。2013年，经济开发区招商引资实际到位资金、固定资产投资增长30%以上。', '切实完善工作考核机制。明年，要对招商引资考核机制进行调整，进一步明确招商目标和责任落实。各乡(镇)街全年招商项目中工业项目的比重不得低于50%。领导干部要率先垂范，带头招商，工作重点要放在生产型项目引进上，各乡(镇)街、区直各部门也要确保区里下达的招商任务全面完成。招商引资完成的质量和效果要作为年终考核奖先评优的硬性条件，与奖金、奖励挂钩。通过全区上下共同努力，确保明年招商引资工作有新亮点、新突破。', '壮大主导优势产业。大力培育发展我区主导优势产业实体经济，充分认识到实体经济是发展之基，是财富之源，是实力之本。积极推进万通药业国家生物产业基地核心区中试平台项目，力争年底完工并通过国家认证。依托正和、百信、兴华、利民等药业优质品种，做强医药品牌，提高企业盈利能力。搭建百利克朗思、利通彩印发展平台，拓展业务领域，推动包材印刷产业跃升。加快伟刚木业异地改造，丰富产品品种，做长产业链条，促进产业集群化发展。引导百泉、盛信等保健品企业扩大规模，拓展市场，打造产业龙头。引导和扶持石油化、变压器等企业扩能改造，积蓄力量，增强后劲。着力推进万通、正和、石油化工机械等企业上市辅导，加快上市步伐。发挥万通、中兴、太平洋等小额贷款担保公司作用，支持郊区农村信用联社等地方金融企业改制上市。要推动企业科技创新，强化企业主体地位，鼓励和引导企业加大研发投入，引进专利技术，培育名牌产品，形成自主知识产权，提升企业核心竞争力。加快培育龙头骨干企业，引导扶持企业做大做强，支持企业整合、兼并、重组。加大招才引智力度，注重人才引进的制度性安排，研究制定技能人才奖励政策和补贴办法。大力实施企业家培养工程，精心策划专业讲座、高端论坛、培训研修和外出考察等活动，增强做大做强企业的本领。加强政企互通交流，组织开展企业评议发展软环境活动，对反映的问题进行分类处理、集中整改。全年新增规模以上工业企业5户、总数达到43户，新增“小巨人”企业15户、总数达到100户，规模以上工业总产值增长20%以上。', '扶持发展新兴产业。大力实施“双轮驱动”，一手抓传统产业升级，一手抓新兴产业发展。要利用市辖区民间资本雄厚、中小企业众多、产业集群发达、商品市场活跃等优势和特点，着力扶持新兴产业发展。积极建议市里加快区域调整，拉大城市骨架，拓展发展空间。大力发展商贸服务业，在扶持欧亚、中东和义乌等大型商贸企业的同时，建设和完善服装百货、汽贸建材、餐饮娱乐、蔬菜果品等特色商业街。积极发展科技研发、工业设计、中介咨询等新兴服务业，培植新的经济增长点。健康发展房地产业，研究完善促进房地产业平稳持续发展的政策措施，引导贵隆、东宝金弘基等骨干房地产企业做大做强。积极发展物流仓储、总部经济、楼宇经济、结算地业务等新兴业态，采取一事一议，一企一策的办法，吸引企业落户投资。依托周边旅游资源，借力借势发展生态经济、旅游经济。加快金厂健康谷、千叶湖风景区、龙溪谷滑雪小镇等品牌建设，不断提升知名度和吸引力。大力发展城郊生态、休闲度假、特色农家乐旅游项目，推进龙头金龙湾乡野旅游度假区、保安农家乐绿色旅游、长流特色美食街建设，打造城郊休闲美食新亮点。', '大力发展文化产业。要充分利用和发挥文化底蕴深厚、文化资源丰富和文化需求旺盛等优势，强化规划引导，强化集群发展，强化品牌建设，强化政策扶持，加快构建具有地域特色的文化产业发展体系，逐步提升文化产业占GDP的比重。制定文化产业发展政策，加大对文化产业的引导和扶持力度，发挥万合喜文化产业园龙头带动作用，进一步发展广告摄影、创意制作、婚庆喜事等文化产业。大力引进实力强、影响大的文化企业和项目，在新型文化产业项目培育上有所作为。推进实施文化惠民工程，设立文化建设专项资金，加大投入力度，推进乡(镇)文化站、农家书屋、文化信息资源共享建设。坚持普查与申报、保护并重，搞好非物质文化遗产保护工作。发挥文联各协会作用，送文化下乡，努力满足群众的精神文化需求。塑造东昌特色文化品牌，围绕人参、剪纸、松花石等特色资源和长白山、佟佳江等地域文化，着力打造地域品牌。立足关东风情、满族民俗、医药文化、葡萄酒文化等，组织编写、策划影视作品、文学作品、艺术绘画等高品质、高层次艺术活动。鼓励引导企业家投身文化产业建设，全力推动文化产业大发展。', '开展“新农村建设攻坚年”活动。坚持工业化转移农民、城镇化带动农村、产业化提升农业的发展思路，开展“新农村建设攻坚年”活动，促进农业增效、农民增收、农村繁荣。进一步完善农业产业规划，积极推进横道种植养殖区、龙头生态旅游和高档休闲度假区、夹皮镁合金产业园区、石棚和官道城市改造扩张区开发建设。大力发展金厂、环通无公害蔬菜，龙头村食用菌、人参、林蛙，横道村草莓、山野菜等特色产业。打造畜牧业精品，引导肉、蛋、奶等特色养殖向远郊非生态旅游景区转移集中。年内建设标准化养殖小区3个，新增市级以上龙头企业2户。加强农村集体经济管理，进一步规范土地流转、承包和联合经营行为，不断壮大集体经济实力。设立农业培训考察专项资金，组织农村基层干部、经济合作组织和专业协会负责人、致富带头人培训考察，学习借鉴国内外现代农业发展经验。进一步落实东昌农民收入倍增计划，加强科技示范、引导和培训，壮大设施农业，发展精品农业、高效农业，鼓励农民参与产业化、工业化项目，促进农民增收。继续加大基础设施建设投入力度，开工建设金厂镇(吉林东昌经济开发区)、环通乡、江东乡办公楼，改善办公条件。新、改、扩建农村水泥路5公里，修建国防路17公里，改建桥梁3座。完成金厂河龙头段堤防前期立项，力争开工建设通天河6000延长米堤防工程，完成保安河、二密河堤防续建工程。加大森林资源保护力度，继续推进集体林权制度配套改革。完成综合造林2000亩。2013年，乡(镇)体制收入和村集体经济收入分别增长20%以上，农民人均增收1800元以上。', '打造东昌特色美丽乡村。启动东昌特色美丽乡村建设，围绕“宜居、宜业、宜游”目标，系统规划，强化管理，分类推进。坚持“三优先三集中三提高”，即：优先尊重农民意愿、保障农民权益、促进农民发展;加快农业资源向现代经营主体集中、农村工业向开发区和功能区集中、农民居住向城镇和中心村集中;提高现代农业发展水平、农民收入持续稳定增长水平和基本公共服务城乡均等化水平。要以农村危房改造为突破口，采取向上争取一块、本级投入一块、农民自筹一块的办法，全面推进农居改造。要强化监督管理，今后凡我区农村房屋改造、翻新、扩建都要统一规划，统一审批，统一风格。协调争取市直相关部门支持，进一步加大保安村沿线山石开采治理和周边环境整治。围绕清脏、治乱、拆违、造靓，进一步理顺管理体制，完善环卫设施，配置环卫设备，健全常态长效保洁机制。组织开展城乡结合部及农村违建房屋、建筑专项整治，使城乡面貌有大的改观。结合乡(镇)村自身特点，实施天然山谷的保护性开发，构建“天蓝、地绿、水清”精品观光带。争取用2-3年时间，形成具有东昌特色的“村村优美、家家富裕、户户文明、处处和谐、人人幸福”的美丽乡村。', '加强街道社区建设。街道要变压力为动力，抓住招商引资、项目建设、企业培育、财税增收等工作不放松，加快经济强街建设。2013年，街道体制收入要增长20%以上。要切实发挥服务管理职能，着力提高公共服务的质量和水平。街道、社区要发挥城市管理的前沿阵地作用，努力在民政、卫生、人口计生、综合治理、劳动保障、社会服务等方面实现新突破。要整合社区服务资源，完善社区服务网点，拓展社区服务内容，尝试建立社区物业管理、居民服务创收试点，努力促进社区创收。鼓励、引导和扶持新型便民商业网点，增加便民利民服务内容，拓宽服务领域，方便市民生活。以社区整合为契机，加强街道、社区基础建设，创建1-2个省级示范社区。', '加强社会保障体系建设。加快城乡居民社会保险进程，完善被征地农民社会保障机制，巩固城乡居民社会基本养老保险制度全覆盖成果。着力改善社区医疗条件，全面提升群众健康保障水平。切实加强法律援助，依法保障弱势群体合法权益。进一步完善残疾人服务和保障体系，提升残疾人康复水平。适应社会老龄化趋势，加快建立以居家养老为基础、社区服务为依托、机构养老为支撑的社会养老服务体系。建立健全以助学、助老、助困、助残等为主体的社会救助体系，积极发展社会福利和慈善事业，着力解决困难群众和低收入群体的实际困难。实施城乡低保动态管理，切实做到应保尽保、应退尽退。', '加强和创新社会管理。投入专项资金，建设社会治安综合治理信息平台，进一步提高社会管理水平。找准加强和创新社会管理的切入点，规范社会行为，理顺民众情绪，提高服务和管理水平。要加快建设社会信用体系，大力推进政务诚信、商务诚信、社会诚信和司法公信建设。进一步完善政府公共服务、社会中介服务和居民自助服务“三位一体”建设，夯实社会管理基础。强化社会矛盾多元解决机制，健全人民调解、行政调解、司法调解“三调联动”工作格局。大力营造“倡导见义勇为，弘扬社会正气”的社会氛围，建立见义勇为基金，对见义勇为人员予以表彰奖励。', '切实维护和谐稳定大局。深入开展“六五”普法教育，扎实推进“平安东昌”和“法治东昌”建设，给百姓以安全感、幸福感。大力创建民主法治村、民主法治社区，力争创建达标率分别达到70%和50%。集中开展道路交通、非煤矿山、烟花爆竹、危险化学品等安全生产隐患排查整治，坚决防止重特大安全事故发生。深入开展消防安全大检查、大排查，全面提升社会火灾防控水平。健全食品安全监管机制，提高食品、餐饮卫生监管能力和水平。积极实施法律援助，切实维护弱势群体合法权益。严格落实信访工作长效机制，定期排查调处各类矛盾和问题，及时化解土地征用、房屋拆迁、企业改制等矛盾纠纷，着力维护群众权益。进一步完善突发公共事件应急机制，强化应急演练，提高处置能力。健全社会稳定风险评估机制，着力提高对潜在矛盾的预警能力。依法做好民族宗教工作，防范和处理邪教组织违法犯罪活动。', '强化公共财政管理。坚持开源节流，以增收入、控支出、保运行为主线，实现生财、聚财、理财有机结合。强化税源涵养，加强税源分析。加大税源征管力度，完善税源管控体系，依法加强税收和非税收入征管，保持财政收入稳定增长。支持财税部门深化征管改革，调动乡(镇)街协税护税积极性，推进征收管理精细化，确保应收尽收。优化财政支出结构。在坚持保工资、保运转、保稳定、保发展的前提下，勤俭节约办事业、集中财力办大事，确保教育、就业、医改、社保、新农村建设等重点需求。强化财政预算、会计集中核算、政府采购等工作，努力提高财政资金使用效益。进一步强化行政监察和审计监督，维护良好的财经秩序。加强国家财税政策研究，加大向上争取力度，拓展财税增长空间，全年向上争取资金力争达到1.5亿元。', '实施惠民工程。围绕解决人民群众最关心最直接最现实的利益问题，2013年区政府将着力办好七件民生实事：一是加大教育基础建设投入，新建、扩建3所幼儿园;二是增强基层医疗服务能力和水平，新建2所基层医院;三是改造2个乡(镇)、9个村的饮水管网、水源井，解决2000余人的安全饮水问题;四是全年新增城镇就业7000人，城镇登记失业率控制在4%以内，转移农村劳动力7000人次;五是加大农村危房改造力度，进一步改善农民居住条件;六是实施农村环境连片整治，投资1000万元对全区城郊9个村进行环保设施建设;七是投资2000万元新建区本级7000平方米社会福利服务中心。', '大力发展社会事业。优先发展教育，优化教育资源，着力实施名师、名校、名园、名校长、名园长“五名”工程。大力推动学校内涵发展、特色发展，促进教育均衡发展、协调发展。加大公共卫生建设力度，实现城乡一体化管理，打造社区“15分钟服务圈”，创建1-2个省级示范社区卫生服务中心。加强体育设施建设，深入开展全民健身活动，努力提高群众身体素质。完成政务和文化体育活动中心内部装修并投入使用。贯彻计划生育法律法规，稳定低生育水平。规范事业单位人员招聘制度，提高招录工作的公正性、科学性和实效性。建立大学生创业就业服务机构，搭建政策咨询、创业贷款、岗位信息等服务平台。合理调整经济顾问团成员，充分发挥专家顾问智囊作用。发挥区域科技资源优势，切实做好企业科技创新和农业科技应用推广工作。做好第三次全国经济普查工作。完成第九次村民委员会换届选举工作。加强供销、档案、残联、侨务等工作。', '复杂的经济形势、繁重的发展任务，对政府工作提出了新的更高要求。我们将全面贯彻落实十八大精神，着力加强政府自身建设，切实提高领导科学发展、服务人民群众的能力，努力建设人民满意政府。', '一是勤于学习。要树立终身学习理念，坚持学以致用，提高素质，把握政策，掌握方法，分析研究问题有高度、有深度，能用全局的眼光谋划工作。准确把握政策机遇，充分调动积极因素，广泛凝聚各方力量，提高利用政策谋划项目、争取资金、促进发展的能力。', '二是忠于职守。推行目标责任管理，强化绩效评估考核，加强跟踪督查，确保工作任务全面完成。主动接受人大、政协和社会监督，广泛听取社会各界意见，切实保障公民知情权、参与权和监督权。顾全大局，维护团结，讲原则，有章法，敢担当，不推诿，切实提高行政效能。', '三是勇于创新。要进一步解放思想，更新理念，拓宽视野，争当改革的探索者、创新的实践者。要敢于直面矛盾、迎难而上，善于用改革的办法和创新的举措突破瓶颈制约，破解发展难题。加强服务能力建设，优化审批流程，提高办事效率。', '四是善于落实。加强行政队伍建设，严格按照法定权限和程序行使权力，狠抓工作落实，切实提高政府的执行力。把依法行政贯穿于政府决策、执行、监督的全过程和政府管理的各个环节，把精力放在解决问题、推动工作上，定了就干，干就干好，争做推动工作落实的表率。', '五是甘于奉献。牢固树立执政为民工作理念，工作下沉，面对面听取群众诉求;服务下延，走出去为民办事;管理下移，沉下去解决问题。变被动为主动，变坐机关为下基层，组织开展“进村(社区)入企”大走访和“服务企业、服务基层”专项活动，解决企业和基层发展难题。', '六是严于自律。要筑牢底线，防微杜渐，增强自控力，提高约束力，经得住诱惑和考验。强化对重点领域、关键环节、重要岗位权力运行的监督制约，规范政府采购、工程招投标等行为，以为民、务实、清廉的良好形象取信于民。', '各位代表，新的形势催人奋进，新的征程任重道远。我们有决心有信心在区委的坚强领导下，在区人大、区政协的监督支持下，凝聚全区广大干部群众的智慧和力量，抢抓新机遇，谋划新发展，实现新跨越，为城乡居民生活得更加美好而努力奋斗!']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>52</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>通化市二道江区人民政府工作报告</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2008-12-16</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.edj.gov.cn/zwgk/zfgzbg/202402/t20240222_697526.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['——工业经济保持平稳快速发展。工业提速增效态势良好。预计到年末，全区规模以上企业将达到48户，实现产值362000万元、工业增加值95000万元、利润22000万元，分别增长32.1%、48%、27.6%。积极应对金融危机。认真做好区域内各企业之间的沟通协调，帮助企业解决供销和回款等难题，最大限度减小经济形势的不利影响。拓宽企业融资渠道，积极开展银企对接活动，10户企业与银行达成贷款协议，协议资金3亿元；认真做好双龙化工、玉圣药业上市前准备工作，双龙化工已完成上市辅导。加大新产品开发和技改力度，全年完成新产品开发42个，新增产值18000万元、利润3800万元；投资130000万元，完成38项技术改造。高度重视节能降耗，全区万元增加值综合能耗下降7%。全国第一次污染源普查和第二次经济普查取得了阶段性成果。工业集中区建设卓有成效。省级冶金特色园区的申报工作取得实质性进展，预计实现工业总产值205000万元，实现税收15000万元。', '——新农村建设步伐加快。乡镇综合实力整体提升。新上了彩涂板、云龙强氧化锌、万铭煤业、赢泽煤业、耀云精密钢球制造、水电站等一批投资超亿元、千万元的大项目。四个乡镇累计实现工业产值197400万元，增长48.5%；实现税收15069万元，增长49%。其中二道江乡实现税收超6000万元，在全市78个乡镇中名列第二位。主导产业规模日益壮大。投资2200万元，实施了威力菌业中空板棚连栋温室、三道江新能源综合利用、三宝养殖场种猪繁育等产业化项目。食用菌已发展到350万袋，20万袋以上食用菌生产基地发展到6个；新增中药材种植面积2354亩；貂、貉发展到8000余只、獭兔1.2万只、猪7.5万头、牛1.7万头。乡村环境不断改善,完成了浑江堤防城区段建设和三道江村、四道江村自来水改造，新建农村标准化公厕400个，全面开展了以秋季植树为重点的农村环境综合整治活动，镇容村貌得到进一步改善。农村改革扎实推进。完成林权制度主体改革，并通过了省市验收;清理乡村债务、化解普九债务工作取得阶段性成果。有3个行政村被确定为省市级新农村推进村。', '——招商引资和项目建设成效显著。认真贯彻投资拉动战略，全年共谋划续建新建项目、招商引资项目、储备项目各100余个，总投资300多亿元，其中投资超亿元项目144个。抓住国家第四季度增加安排1000亿元投资的机遇，完成了三友节能、社区服务中心、深鑫煤矿地质勘探等项目的申报工作，争取国家资金2650万元；双龙化工、嘉成耐火等8个综合节能项目已通过省级评审，正在向国家申报。创新招商引资方式，加强了政府与企业家、企业家与企业家之间的沟通与联谊，加强了与广东、浙江等地商会的联系。创建招商引资基地，组织企业家前往河北廊坊、唐山、辽宁鞍山等地考察学习，与杭州萧山、江苏吴江、浒墅关开发区等地建立了良好的伙伴关系，为高效承接发达地区产业转移奠定了基础。加大项目推进力度，年初组织承办了12个投资超3000万元项目的开工仪式，其中10万吨彩涂板、10万吨镀锌铁线等项目进展十分顺利，形成了大干快上的建设热潮。目前，全区已有22个项目竣工投产，实现招商引资230000万元，增长62.5%。', '——财税工作取得新突破。加强税收征管，落实税收征管责任制，采取静态与动态相结合的方式，对重点税源实施跟踪监控，科学预测、准确分析税源变化情况，加强与市地税直属分局、通钢国地税的沟通配合，充分挖掘税收潜力，税收征管质量和效率明显提高。预计国税系统完成组织收入36856万元，增长36.5%；地税系统完成组织收入13859万元，增长30%。骨干税源群体进一步壮大。金属资源实现税收近亿元，热电公司、巨源实业、红星集团超3000万元，金马药业、鹏龙烧结、双龙集团超2000万元，电力股份、宏源建材、嘉成耐火、东源洗煤超1000万元，新投产的鑫源气体、锟鹏经贸、耐博耐火超500万元，同时还涌现一批纳税超百万元的企业群体。加强支出预算管理。克服困难筹措资金1000余万元，解决省属破产企业移交地方人员的工资、补贴，提高低保、新农合、机关事业单位人员的取暖标准等一系列群众反映强烈的问题，确保了各类保障性资金的及时足额发放。扩大政府采购范围，降低了采购成本。实行了乡镇财政体制改革，完善了会计集中核算、财务定期审计等制度，规范了财经秩序。加大资金争取力度。在市财政结束对我区补贴的情况下，创新工作方法，加大向上争取资金和项目的工作力度，全年共争取国家、省、市一次性资金11090万元，有效缓解了财政压力。', '——城市功能不断完善。加强城市基础设施建设，投资1397万元，完成了东西华路、东胜路、龙山路、滨江路等城区道路建设和改造工程；投资480万元，完成了大龙山至嘉成耐火水泥路、嘉成耐火至桃源路和制氧区道路路基建设，横跨通五一级路和铁路的立交桥工程已做好开工准备；投资600万元，完成了城区排水改造近4公里、新安装路灯216盏、种植绿化树种32000棵。进一步加大城区集中供热入户并网改造，集中供热面积达到215万平方米。在城市棚户区改造取得阶段性成果的基础上，全面启动了煤矿棚户区改造工程。完成了法院、武装部、社会福利中心、文体综合楼建设，成为我区城市建设的新亮点。深入开展“城市管理年”活动，市容环境得到极大改观。', '——民生问题得到进一步解决。落实扶持政策，开发公益性岗位，拓宽就业渠道，新增城镇就业2500人，城镇登记失业率控制在3.7%以内。加强社会保障和救助体系建设，发放低保、抚恤等保障救助资金2000多万元，为汶川灾区募捐资金198.6万元。全面实施了城镇居民医疗保险，提高了新农合统筹基金标准，使城乡居民就医难、就医贵的问题得到进一步缓解。扎实推进城市廉租房和农村泥草房建设，在鹏龙烧结公司主动参与下，新建城市廉租房10711平方米，解决困难户226户；金马等12户规模企业积极参与农村泥草房改造，捐资捐物共计60万元，完成了213户农村泥草房改造。坚持“科教兴区”战略，高科技产品申报工作取得新进展。加大教育投入，改善办学条件,投资514万元，完成了桦树小学、西热小学、鸭园中心校新建和农村中学实验室建设；开展了“名师评选”活动，公开招聘10名本科大学生，增强了师资力量。整合医疗资源，完成了铁厂医院和铁厂结核病院的合并工作；农村卫生、城市社区卫生服务体系建设扎实推进。计生工作水平不断提高，出台了农村计生家庭十项优惠措施，流动人口示范区创建活动成效显著。举办了二道江区首届运动会和首届农民艺术节等活动，丰富了群众的文体生活。', '——民主法制进一步加强。强化依法行政、强化服务效能、强化群众监督，政府自身建设得到进一步加强，经济发展软环境得到进一步改善。自觉接受人大的法律监督和政协的民主监督，认真做好人大代表和政协委员的检查、视察、调研等工作，及时向人大和政协报告重点工作进展情况，倾听代表和委员的意见和建议，全年共办理人大代表建议意见46件、政协委员提案20件。加强区长公开电话工作，畅通了干群沟通渠道。圆满完成了社区居委会换届选举工作。广泛开展普法教育宣传活动，提高了人民群众的法律意识。继续加强“平安二道江”创建工作，严厉打击各种刑事犯罪，加大社会治安综合治理力度，维护了社会稳定。创建平安畅通县区工作顺利通过了省级验收。认真落实领导包保信访案件制度，冷轧拆迁、桦树村民行路难、弘馨园小区回迁户安置等上访事件得到了有效控制，确保了两会和奥运期间的稳定。深化安全生产责任体系建设，及时处理各类安全隐患，杜绝了重、特大安全事故的发生。', '各位代表、各位委员，面对金融风暴所带来的强烈冲击，全区人民敢于正视困难，勇于迎接挑战，与区政府一起想办法、谋对策、找出路，推动了区域经济和社会事业的平稳发展。在此，我代表区政府向全区人民，向各位代表、各位委员，向各民主党派、人民团体和社会各界人士、离退休老同志，向驻区部队、省市营企业，向垂直部门和驻区单位以及所有关心、支持二道江发展的省内外朋友，表示衷心的感谢并致以崇高的敬意！', '虽然全区经济实现了平稳快速发展，但还存在着一些不容忽视的矛盾和问题，主要表现在：一是经济总量小，经济结构不优，产业规模不大，抗风险能力不强，特别是围钢经济的产业链条较短，钢产品深加工、循环经济文章做得不够；二是税收结构不尽合理，可用财力十分有限，特别是财税体制改革减少了我区的所得税基数，并且结束了市对区财政补贴，加之驻区国省属企业破产移交和企业主辅分离改制等增支因素，财政捉襟见肘、入不敷出的困难局面依然没有改变；三是民生工作任务十分艰巨，城乡居民增收缓慢，许多关系群众利益的问题还有待于进一步解决，维护稳定还有不容忽视的压力；四是城市建设投入不足，棚户区存量依然很大，城市基础设施相对滞后，城市管理水平还有待于进一步提高；五是政府自身建设有待于进一步加强，个别部门还存在着衙门作风，有法不依、执法不严，服务标准不高、工作效率低下等现象依然存在。这些问题我们将在今后工作中逐步加以解决。', '2009年将是二道江区发展进程中十分重要的一年。当前，国际金融市场急剧动荡，对实体经济的影响逐步加深，对我国经济的影响逐步显现，也必然对我区冶金建材产业带来强烈的冲击。针对国际国内形势急剧变化所产生的新情况、新问题，中央实行了积极的财政政策和适度宽松的货币政策，出台了十项“保增长”措施，大规模增加基础设施投入，将为经济发展创造新的空间。沿海发达地区产业转移速度加快，省市继续加大投资力度，这些都有利于我区加快发展。总体上看，机遇与挑战并存，机遇大于挑战。全区上下必须对千载难逢的重大历史机遇和未来工作中不确定因素有充分准备，趋利避害，沉着应对，坚定信心，埋头苦干，全力保持经济社会平稳快速发展。', '明年政府工作的总体要求是：全面贯彻区委六届三次全会精神，深入学习实践科学发展观，牢牢把握发展第一要务，以强基础、调结构、上项目、增效益为目标，强力推进工业稳定增效，强力推进经济结构调整，强力推进重点项目和招商引资，强力推进新农村建设，优化经济发展环境，培育规模企业群体，壮大围钢经济实力，加大基础设施投入，着力解决民生问题，实现二道江区经济和社会事业的和谐发展。', '全面贯彻区委六届三次全会精神，深入学习实践科学发展观，牢牢把握发展第一要务，以强基础、调结构、上项目、增效益为目标，强力推进工业稳定增效，强力推进经济结构调整，强力推进重点项目和招商引资，强力推进新农村建设，优化经济发展环境，培育规模企业群体，壮大围钢经济实力，加大基础设施投入，着力解决民生问题，实现二道江区经济和社会事业的和谐发展。', '2009年，要把振兴工业经济作为首要任务牢牢抓在手上，针对当前工业增长回落、企业效益下滑等问题，认真研究对策，确保工业经济平稳运行。一是调整产业结构。结构不优问题是当前经济工作的主要矛盾，调整经济结构尤其要加快产业结构调整步伐。统筹推进，突出重点，大力发展冶金建材产业，扶持壮大医药食品产业，巩固发展能源化工产业。医药食品产业要加快新产品的市场开发，着力破解影响企业发展的突出问题，不断壮大金马药业、神源药业、玉圣药业，扶持发展振霖药业、嘉丰药业以及益鹏变性淀粉、腾龙保健品等企业，壮大医药食品产业规模，提升医药食品产业的整体实力；要加快企业的技术升级改造，引导冶金建材产业向规模化、集群化发展，向精深加工方向延伸，抓住扩大投资和取消粘土砖等有利时机，做大新型建材产业规模；能源化工产业要巩固现有规模，提升技术装备水平，加快新产品开发，向科技、管理要效益，洗煤等围钢企业要做好全面恢复生产的各项准备工作，特别是解决好流动资金不足问题，在保证通钢需求的同时，勇于开辟新的市场，开足马力，提速增效。二是丰富围钢经济内涵。要进一步贯彻落实“支持通钢、服务通钢、振兴区域经济”发展战略，在整体推进围钢经济发展的基础上，不断优化内部结构，努力形成上、中、下游产品配套、布局合理的围钢产业格局。突出发展重点，着力向钢产品深加工方向发展、向生态循环经济方向发展、向装备制造业方向发展，在汽车、油田、造船等领域配套方面有所突破，在变压器、管材、钢结构等钢产品深加工方面大上项目，努力打造“二道江制造”品牌。三是培育规模企业群体。在全面做好规模企业特别是围钢企业恢复生产的基础上，要加强对规模企业生产的组织协调，加强对工业经济的运行监测。同时帮助拟进入规模企业加大新产品开发、市场开拓工作力度，加强对成长性好、发展潜力大的中小企业扶持，使其快速发展，早日进入规模企业。明年全区规模以上企业要达到58户。四是拓宽企业融资渠道。认真研究国家日益宽松的金融政策，着力解决企业贷款门槛高、难度大等突出问题，积极缓解企业的资金不足。认真做好资本运作，力争完成双龙化工上市以及玉圣药业上市辅导工作。逐步实施巨源实业、三石建材、耐博耐火等企业的股份制改造。加快特种水泥重组改制，化解企业生产难题，使企业早日恢复生产，建设吉林省东南部500万吨特种水泥生产基地。五是抓好安全生产。成立区煤矿安全生产监测中心，用现代化手段监测煤矿企业的生产运行，进一步落实安全主体责任，确保人民生命财产安全。', '明年是全市“大项目建设年”，是全面贯彻国家扩大投资的关键一年。为此，要坚定不移地实施投资拉动战略，举全区之力“抓投资、保增长、促扩张”，强化招商引资，加快项目建设，推动区域经济发展。2009年，全区固定资产投资和招商引资都要增长40％。一是向上争取项目和投资。紧紧围绕国家启动4万亿元投资和省市扩大投资，明后两年区里向上争取项目的盘子基本确定，总计6大板块、90多个项目，总投资75亿元。在逐步充实这方面项目的同时，全方位开展项目申报和争取工作，争取有更多的项目进入国家和省市投资计划。同时成立各分管副区长为组长的项目推进组，组织和带领相关部门跑国家、跑省市，攻坚克难，只争朝夕，在全区打一场争取项目、争取资金的攻坚战。各位企业家更要解放思想，敢跑敢要，调动一切积极因素，成为争取项目和资金的主力军。二是加快在建项目建设。不断丰富和完善续建新建项目、招商引资项目、储备项目，整体推进“三个百”项目的开工建设。重点抓好“两渣一灰”综合利用、双龙白炭黑生产线扩建、彩涂板、镀锌铁线、金山化工、环保机械设备等项目的建设进程，抢工期、赶进度，力求早投产、早达效。做好100万吨金属化球团、120万吨焦化、30万吨还原铁、无烧结球磨铸铁等项目的前期准备工作，力争明年年初开工建设。三是创新招商引资方式。抓住“南资北移”的机遇，坚持“走出去、请进来”，变“冬闲”为“冬忙”。继续开展以商招商、以企招商活动，明确主攻方向和重点领域，分期组织到广东深圳，浙江萧山、义乌，江苏吴江、浒墅关区，以及京津塘等地开展招商考察活动。尤其要开展好第三次通钢大客户联谊活动，注重招商引资效果，形成招商带动效应。四是夯实招商引资基础。要不断完善招商引资政策和激励政策，举全区之力做好招商引资环境建设，特别是对重点企业实行挂牌包保服务，从而吸引更多资金和项目投向我区，促进区域经济发展。', '严格按照全省加快园区建设的总体要求，继续加大围钢特色园区、生态园区申报工作力度，早日享受省级开发区政策，破除工业园区建设中资金、土地、审批等方面瓶颈。加快园区基础设施建设，投资1200万元，完成嘉成耐火至桃源四组连三道江10公里水泥路建设和鸭园大桥2公里引路建设工程，不断完善园区路网，拓宽园区发展空间。做好园区的整体规划，逐步实施供水、排水、供热、供电工程，最大限度地为项目进驻园区创造条件。要紧紧抓住国家对农民集体经营性用地流转的契机，认真研究相关政策，切实加大财政对土地的投入力度，积极做好土地的收储和整理工作，对纳税大户新上项目优先供给土地，农民和集体补偿由区乡村共同负责，为项目落户园区创造先决条件。全力实施园区“三点一线”开发战略，重点抓好100万吨金属化球团、“两渣一灰”等项目建设，以及煤矿开采、加工等企业的技术改造，全力打造五道江冶金建材、能源产业经济增长点；重点抓好李家屯工业园的招商和项目建设，加快双龙化工的扩能改造，全力打造鸭园、铁厂能源化工和板材加工产业经济增长点；重点抓好耐火材料、新型建材、制氧等园区企业的恢复生产和项目建设，全力打造二道江乡循环配套产业经济增长点；重点抓好通五一级路两侧工业用地的整理和收储，为项目建设创造条件，全力打造沿通五一级路经济增长带。充分发挥园区的区位、土地、政策等优势，加大招商引资力度，增强园区吸引力。2009年，工业园区要引进项目20个，其中超亿元项目5个。', '深入实施全省民营经济三年腾飞计划，做到思想上放胆、市场准入上放开、管理上放手、政策上放活，从而推动民营企业做大做强。一是创造公平竞争的环境。认真贯彻全省扶持民营经济发展的各项优惠政策，坚持一视同仁、机会均等的原则，不论成分重发展、不限比例看效益、不看性质认贡献、不看现状看活力，在全区上下营造尊重纳税人、视纳税人为上帝的良好氛围。二是加大资金扶持力度。认真落实国家已出台的中小企业金融、税收扶持政策，同时发挥企业家协会的引导作用，集聚民间资本，拓宽民营企业融资渠道。立足本区实际，财政列支300万元，建立民营企业扶持基金、农业产业化项目发展基金、争取项目建设基金，扶持民营企业发展。三是加强人才支撑体系建设。落实支持民营企业引进人才的各项政策，在人才落户、职称评定、社保、家属就业、子女入学等方面给予平等待遇。要建立和培育职业经理人市场，打破家庭式管理，使民营企业走上体制创新的道路。要按照政治上有地位、社会上有荣誉、经济上有实惠的工作方针，不断激发民营经营者的创业热情。四是大力开展全民创业。继续开展“争当小老板”活动，大力发展个体工商业户，落实下岗职工小额贷款基金，扶持下岗职工重新上岗创业。鼓励和引导社会资金参与餐饮、商服、家政、维修等行业，不断增加居民的财产性收入。要大力倡导百姓创家业、能人创企业、干部创事业，支持机关干部和各类能人领办、创办企业，形成浓厚的创业氛围。', '坚持用工业化思维谋划农业、用城镇化理念建设农村、用现代化观念武装农民，加快新农村建设，促进农民持续增收。一是大力发展工业经济。抓住全省重点规划建设100个小城镇的机遇，积极做好申报工作。借助这一优势，大力兴办工业项目，创建工业小区，做大工业规模，不断增强乡村整体实力。二是壮大主导产业规模。坚定不移地贯彻落实国家各项强农惠农政策，加大项目扶持力度，不断壮大威力农业开发公司、恒远牧业公司等农业龙头企业规模，推动绿色食品、食用菌、中药材、特种养殖等主导产业的发展。2009年，食用菌发展到400万袋、中药材种植新发展2300亩、特种珍稀毛皮动物发展到2万只。深化林权制度配套改革，积极探索林业资源的综合开发，有条件的要引导农民逐步发展观光经济、山庄经济，为农民增收开辟新的渠道。三是稳定和完善农村基本经营制度。认真落实、保障农民的土地和山林的承包经营权，按照依法、自愿、有偿的原则，促进土地和山林承包经营权流转，引导农民在自愿互利的基础上，逐步走向联合与合作，形成一批专业大户、农民专业合作社等规模经营主体，建立多元化、多层次、多形式的经营服务体系。四是抓好农业基础设施建设。各乡镇村要积极争取资金和项目，加大山水林田路的改造，发展现代农业，提高农业抵御自然灾害的能力。五是抓好中心镇建设。加大中心镇基础设施建设投入，完善中心镇承载功能，发挥人流物流的积聚作用。同时，抓好镇容村貌的整治工作，进一步改变农村脏、乱、差的状况。', '2009年我国即将进行新一轮财税体制改革，面对新的财税形势和我区财税工作的新情况、新问题，明年我区财政工作必然困难多、压力大，要实现财政收入的平稳增长，必须在培植税源、狠抓征收等方面下功夫，力争完成财政收入增长10%的奋斗目标。要认真研究国家的财税政策，提前预测、提前应对，认真分析税收减收因素，科学谋划征缴措施，推进税收工作的有序进行。认真贯彻“加强征管、堵塞漏洞、清缴欠税、惩治腐败”的治税方针，强化税源的动态监控，加强对重点行业、重点税源、零散税收，特别是一次性税源的监管，严厉打击各种涉税违法犯罪活动，确保各项税收均衡足额入库。充分发挥煤矿安全与产量一体化监控系统的作用，准确掌握煤炭产量，进一步加大非煤矿山企业、福利企业、服务行业的整治力度，努力做到应收尽收。继续加大对纳税大户的扶持、服务力度，整体提升规模企业的竞争能力。深化财政体制改革，切实抓好部门预算、政府集中采购、会计集中核算、财务定期审计等工作，规范财经秩序。牢固树立过紧日子的思想，压缩一切不合理支出，最大限度地提高财政资金的使用效益。认真研究国家的投资导向，政府各有关部门要经常跑国家、跑省市，多争取资金和项目，不断缓解财政压力，从而确保工资、保障、重点项目等方面支出。适时提高机关事业单位工资标准，平均每人每月涨工资500元，市里哪个月兑现，二道江区就千方百计毫不犹豫地从哪个月执行，人事和财政马上做好调工资的测算工作。', '一是抓好城市基础设施建设。严格按照城区道路规划，投资5860万元，组织实施公铁立交桥建设工程；投资300万元，完成东通化大街、厂北区道路改造，进一步改善城区交通环境。二是抓好城市棚户区改造工作。重点做好弘馨园小区、美好家园三期工程建设，保证回迁户住进新居。同时，本着适度开发的原则，启动三道江村等地块的开发建设，逐步改善棚户区居民的居住环境。三是加快推进煤矿棚户区改造进程。投资5000万元，完成五道江镇、铁厂镇6万平方米的新居工程和自来水改造工程。四是继续组织实施绿化、美化、亮化、净化工程，抓好城乡结合部及中心镇的环境综合整治工作，不断改善老矿区和棚户区居民的生活环境。五是加强城市管理。严格城市规划和审批，五道江、铁厂两镇、二道江乡各村不再审批新建平房，其它镇村建房也要严格把关。认真做好私搭乱建整治工作，坚决拆除各类违章建筑，加大非法营运整治力度。继续深化城市管理体制综合改革，以环卫保洁和市容整治为重点，努力形成责权利相统一的管理格局。', '合理配置城乡师资力量，促进义务教育均衡发展；加大教学设施投入，完成十七中学教学楼建设，改善办学条件。加强师德师风、医德医风建设，切实提高教师队伍和医疗队伍素质。投资1200万元，完成区医院大楼建设，提高医疗质量和服务能力；扩大惠民医院试点范围，逐步解决群众看病贵的问题；加强农村卫生服务体系和城市社区卫生服务中心建设，深入开展爱国卫生运动和食品安全公共体系建设，整体提高百姓的医疗保障水平和健康水平。稳定低生育水平，统筹解决人口问题，提高人口素质。完善文体活动中心职能，加强农村文化站建设，广泛开展各类文体活动，丰富群众的业余文化生活；继续抓好农家书屋建设，活跃农村文化氛围。', '坚持资源开发与节约并举，切实加强资源的管理及有序开发，重视生态建设和环境保护，促进经济与自然协调发展。强化环保第一审批权，对在建项目实行一票否决，防止产生新的污染源。加强林业生态建设，加大对城区周边山林的封育范围。加大对煤矿和非煤矿山环境整治力度，坚决遏制牺牲生态环境换取眼前利益的行为，不断推进生态文明建设。', '进一步落实再就业扶持政策，下大力气做好下岗失业人员再就业、城镇新增劳动力再就业、高校毕业生就业、农村剩余劳动力转移就业等重点工作。2009年，新开发就业岗位2600个，城镇居民登记失业率控制在4%以内。不断完善社会保障体系，扩大社会保险覆盖面。积极争取国家资金支持，逐步解决集体企业退休人员的养老保障问题。认真落实城乡低保制度、城乡医疗制度、城市困难职工帮扶制度，特别是要做好低保提标、新农合提标及因病特困人口的二次医疗救助工作，切实为困难家庭提供基本生活保障。抓好廉租房建设工程，新建廉租房3万平方米。充分发挥社会福利中心的职能作用，逐步解决群众老有所养的问题。', '加强社会治安综合治理，严厉打击各种刑事犯罪和“法轮功”等邪教组织，推进“平安二道江”建设。依法加强民族宗教事务管理，发挥宗教在维护社会安定中的积极作用。认真落实领导信访包案制，推进人民调解、行政调解、司法调解“三位一体”的矛盾纠纷调解工作体系建设，做好经常性的矛盾排查工作，积极预防和妥善处置群体性事件。', '适应新形势、新任务，应对全球经济下滑给我们带来的强烈冲击和挑战，破解当前发展中遇到的巨大困难和压力，迫切要求我们认真学习和实践科学发展观，解放思想、开拓创新，努力建设执政为民、依法规范、阳光高效、勤政廉政的政府。', '继续解放思想。我们曾经面临过稳定、脱困等诸多压力，走过了一段坎坷艰辛的道路，由于我们解放思想，众志成城，抓住了东北老工业基地振兴、省市快速发展、通钢扩张改制等重大机遇，引领二道江区走上了大发展、快发展的轨道，使我们从来没有像现在这样，就二道江区的未来形成强烈的发展共识。只要我们继续增强忧患意识、责任意识、机遇意识、创新意识，在新的环境、新的起点上继续解放思想、与时俱进，认真谋划发展问题、探索改革问题、解决民生问题，我们就能够按照科学发展观的要求，勇敢地承担起时代赋予的重任，不辜负党和人民的重托，同心同德、万众一心，共同克服前进道路上的艰难险阻，把一个充满活力、欣欣向荣的二道江区呈现在世人面前。', '坚持依法行政。自觉接受人大及其常委会的法律监督、工作监督和政协的民主监督，坚持重大事项先报告和协商，充分发挥各民主党派、社会各界的参政议政和民主监督作用。认真办理人大代表议案和政协委员提案。按照法定权限和程序行使权力、履行职责，规范执政行为，严格执法监督和责任追究，严厉查处执法环节的不作为、乱作为和“吃拿卡要”行为。深入开展经济责任审计。严格规范行政许可、工程招投标、财政资金使用、政府采购等公共资源管理权力的运行。继续抓好“五五”普法工作。进一步完善公众参与、专家论证与政府决策相结合的民主决策机制，重大决策充分听取各方面的意见和建议，使政府决策更加科学有效，更加符合人民群众意愿。', '转变政府职能。认真履行经济调节、市场监管、社会管理和公共服务职能，积极探索各职能有机统一的新型政府运行体制，优化政府机构设置。加强与市政府及各部门的沟通协调，提高工作时效。进一步清理行政许可项目和非行政许可审批事项，完善“一站式”办公和政务大厅服务功能，简化审批程序。全面推行精细化管理，进一步健全各项管理制度，细化工作标准，把目标、任务和责任落实到人头，加强监督与考核，逐步建立起全方位覆盖、科学完善的精细化管理体系和长效机制。强调大局意识，严肃政治纪律和工作纪律，切实加强工作的协调配合，确保政令畅通。严格目标责任制度，做到有岗必有责、有责必尽责，保证各项发展任务真正落实到位。', '改进工作作风。要在政府全体公职人员中大兴务实之风，让实干成为公务员的品格，让实绩成为衡量政府工作的标尺。努力改进服务方式，建设服务型政府。加大经济软环境建设，要充分理解投资者上项目的不易，理解企业家们办企业的艰辛，需要审批的绝不耽搁、需要协调的绝不推诿、需要解决的绝不拖延。继续开展民主评议政行风活动，严肃查处涉软案件，坚决杜绝乱检查、乱收费、乱罚款等行为。全面实行政府绩效评估和行政问责。继续精简会议和文件，简化办事程序，推动工作落实。坚决反对铺张浪费，努力降低行政成本，建设节约型政府。坚持标本兼治、综合治理、惩防并举、注重预防为主的方针，扎实推进惩治和预防体系建设。坚决纠正损害群众利益的不正之风，坚决查处违法违纪案件，创建学习型、创新型机关，造就政治坚定、业务精通、勤政廉政、作风优良的公务员队伍。', '各位代表、各位委员，明年的任务光荣而艰巨，让我们在区委的正确领导下，坚定信心、振奋精神、真抓实干、顽强拼搏，努力开创二道江区振兴发展的新局面！']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>52</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>年通化县人民政府工作报告全文</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2016-12-27</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.tonghuaxian.gov.cn/zf/zfgzbg/201612/t20161226_41953.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['现在，我代表县政府向大会报告工作，并对《“十三五”规划纲要（草案）》进行说明，请各位代表审议，并请政协委员提出意见。', '2015年，是我县经济社会发展进程中很不平凡的一年。面对严峻的经济形势和繁重的发展改革稳定任务，县政府在县委的正确领导下，在县人大、县政协的监督支持下，积极适应新常态，致力稳增长、调结构、促改革、惠民生，自觉践行“三严三实”要求，完成了除财政指标外的全部任务，实现了“十二五”圆满收官。2015年，实现地区生产总值137亿元，全口径财政收入13.7亿元，地方级财政收入10.35亿元，社会消费品零售总额41亿元。城镇常住居民人均可支配收入达到21800元，增长8.5%；农村常住居民人均可支配收入达到10800元，增长8%。在最近公布的2014年度全省县域考评结果中，我县排名第9位。', '——企业核心竞争力进一步增强。切实加强科技服务，成功申报科技发展计划项目9项，争取资金近800万元。县本级扶持医药健康产业专项5个，投入资金2700余万元。全县高新技术企业达到6户，省级以上企业技术研发中心达到6户、生物医药中试中心1户，东宝药业被评为国家技术创新示范企业。华夏药业“苦碟子注射液”、振国药业“干细胞”、青山实业新产品“灵秘泉”口服液、宏信研磨材“碳化硅超细粉体（0.5-2μ）”等创新产品产业化进程加快。东宝药业等3户企业被列为吉林省医药健康产业40户创新主导企业，参威人参产品科技股份有限公司的“人参长白山道地中药材仓储物流中心”等5个项目被评定为全省医药健康产业重点培育的100项重大产业化项目，“元秘-D”口服液等5个项目被列为全省医药健康产业100个大品种。在全市率先完成19户医药生产企业新一轮GMP认证。甘舒霖牌胰岛素30R注射液、R注射液及江达大米被认定为吉林省名牌产品。', '——产业发展基础更加夯实。组织实施“重大项目提质年”活动，年内建设重点项目48个，累计完成投资113.6亿元。在全省2014年度项目建设现场考核中获得第4名。以“八园一所一港”为代表的产业项目集群进展顺利。东宝科技园区、东宝人胰岛素产业园区、高端服务产业园区即将进入成果集中释放期。快大人参产业园区成为全省唯一一个以人参产业配套服务为主的现代服务业集聚区。装备制造产业园区一期项目主体建筑已竣工，大钻机项目正在进行二期征地拆迁。通化化工产业园区的原料路线与动力结构调整改造项目已完成一期土建工程。泛亚人参交易所总交易额突破千亿元。双易铗矿业钾长石工业园区、远东矿业石墨科技产业园区生产基地、通丹陆港项目正在积极推进。招商引资成效明显。鼓励支持企业“攀亲结贵”，上海安睿特、北京三聚环保、天津天士力、江苏康缘、北京瑞意投资集团、北京四环药业等全国知名企业到我县洽谈合作。全年共落实招商引资项目92个，到位资金13.5亿元。聚鑫经济开发区完成全口径财政收入3.2亿元，落实招商引资项目7个，收储土地1000亩，“一横三纵”路网及其附属设施建设已经完成。建设了鑫和元电商网络平台。联合胶囊、臻尊保健品、中韩移动饮品等项目建设提速。', '——产业结构调整稳中有进。三产比例调整为7.5:54:38.5，工业基础地位日益夯实，服务业比重日趋攀升。突出工业经济主体地位，通过支持企业自主创新、扩能改造、战略合作等方式促进工业经济提质增效。规模以上工业企业总户数达到104户，工业总产值预计达到194亿元，同比增长12%；工业增加值达到66亿元，增长8%。加快弥补服务业短板，着力拓展第三产业发展空间。丽景系列城市综合体主体工程全部竣工。以特色旅游、“互联网+”为代表的现代服务业实现高端起步，服务业比重比上年提高了0.4个百分点。全县旅游入境人数达到40万人次，旅游产业总收入达到16亿元。振国养生谷·壹号庄园、大泉源酒历史文化区、通天山葡萄酒文化产业园3处景区入围“通化十景”。大安镇被命名为“中国通化·大安松花石文化旅游主题小镇”。泛亚人参交易所、神州买卖提电子商务公司、虎特电子商务公司正式上线运营，农村电子商务体系初步形成，我县成为全省8个全国电子商务进农村综合示范县之一。现代农业快速发展，建设绿色食品原料标准化生产基地2个。市级以上农业产业化龙头企业达到37户，农民专业合作经济组织达到453户，培育新型职业农民410人；新建标准化牧业小区5个。园艺特产及多种经营总面积达到8.2万亩。农林牧渔总产值突破120亿元。', '——基础设施建设不断完善。总投资1.3亿元的蝲蛄河城区段综合治理工程启动实施。投资1.2亿元完成三合堡供热基础设施主体工程。投资321万元，实施老旧小区楼和物业弃管楼改造。投资1200万元，完成了城区二次供水改造工程。投资1.3亿元，实施了中小河流治理、江河整治、农田水利建设、病险水库除险加固等工程。投资6500万元，建成高标准基本农田5.59万亩。完成1.5万吨国家投资粮食仓储设施建设项目，发放科学储粮仓2543套。投资1.15亿元，改造国省县三级公路38公里，新建农村公路57公里、桥梁6座。通梅高速公路、蝲蛄河大桥竣工通车，城区公交线路达到6条，完成道路生命安全防护工程5公里，加强农村道路除雪防滑能力建设。', '——生态环境建设不断加强。成功创建全省第一个国家生态县，国家生态文明建设示范县创建工作稳步推进。完成29个村的省级生态村申报工作。长白山药用植物种质资源库、吉林通化蝲蛄河国家湿地公园建设加快推进。完成造林、育林13.2万亩，绿化道路137公里；新增绿地10万平方米；依法加大涉林案件打击力度，查处涉林案件156起；全面完成清收还林任务，三年累计完成清收10.5万亩；强化森林防火工作，连续66年无重大森林火灾。完成哈泥河生态恢复与污染治理工作，加强蝲蛄河生态恢复与水源保护，饮用水水源水质达到2类水质标准。加快农林生物质综合利用研究，生态发展体系不断完善。有效促进节能减排，万元GDP能耗下降1.4%。', '——人居环境有了很大改善。投资4800万元，完成了茂山公园升级改造。规范早市管理，合理规划县城公共区域停车位。中广国际影城即将投入使用。顺利通过国家级卫生县城复检。大力开展农村环境综合整治和绿化美化工程，美丽乡村建设持续深入，建设省级美丽乡村示范村2个、省级文化品牌美丽乡村8个、县级美丽乡村示范村52个，创建指标均列全市首位。打造县级标兵村40个、先进村86个、四个类型标杆村80个。', '——民生投入持续加大。改造棚户区3.1万平方米、农村危旧房800户。投资1136万元，解决1.72万农村人口饮水安全问题。发放创业贷款2500万元，转移农村劳动力4.52万人，城镇登记失业率控制在3.98%以内。城乡困难群众医疗救助比例由60%提高到70%，发放医疗救助金820万元，救助3100余人次。争取国家自然灾害补助金717万元，救助困难群众2.03万人次。完成7个扶贫项目，2860人实现脱贫。城乡低保保障和高龄老人生活补贴标准进一步提高，发放低保、五保和高龄老人生活补贴资金4700余万元。争取老年康复养护中心项目资金1280万元。筹集资金1.1亿元，有力落实了养老保险并轨改革增资政策。', '——科教文卫事业不断提升。顺利通过国家知识产权示范县年度考核。投资5868万元，改善了部分中小学校舍、装备；启动“全国农村艺术教育实验县”实验工作；顺利通过全国义务教育发展基本均衡县督导检查。大力开展全民健身活动，成功举办“庆七·一”广场文化周、第四届全民运动会暨纪念抗战胜利70周年等系列活动；在全市首届田径运动会中获得第二名；建成40个农村文化大院、32个农民文化广场。县级公立医院综合改革稳步推进；异地新建中医院投入使用；建设了40家标准化村卫生室、5家规范化预防接种门诊和8所“中医馆”，村卫生室实现全覆盖；完成国家级心脑血管病的早期筛查和综合干预项目。', '——深入推进依法行政。被评为全省依法治县先进单位。人大代表建议和政协委员提案答复率达到100％。县长公开电话职能不断加强，县政府网站便民效应更加明显。政务大厅办理审批事项近90万件。设立了不动产登记局和不动产登记中心。政府采购公开招标采购项目699项，节省资金580余万元。', '——加强社会治理。升级改造视频监控系统，治安管理卡口综合技术指标全市领先。各类刑事案件发案率同比下降22%，破案率同比上升7.8%。全面落实安全生产责任制，严查安全事故隐患，全年未发生重特大安全生产事故。加强食品药品监管，巩固了食品药品安全示范县创建成果。', '——各项工作稳步推进。双拥共建、军政军民团结的大好局面不断巩固，顺利通过全省双拥模范县考评。国土、国税、地税、气象、计生、统计、审计等工作进一步加强；移民、广电、民族宗教等工作取得新的业绩；金融、通信、保险、供电、消防等部门积极服务经济社会发展大局，做出了新的贡献。', '各位代表、各位委员！一年来，在县委的正确领导下，县人大、县政协和社会各界监督支持下，全县上下同舟共济、奋力拼搏，顶住了经济下行压力，取得了来之不易的成绩。在此，我代表县政府，向各位代表、各位委员并通过你们向奋战在全县各行各业的广大干部群众，向驻县部队官兵、各人民团体和离退休老同志，以及所有关心、支持通化县发展的各界人士，致以崇高的敬意和衷心的感谢!', '在肯定成绩的同时，我们也清醒地看到发展中存在的问题和不足。产业转型调整缓慢，矿产、食品等传统优势行业短期内难以回暖；项目发展资金缺乏、土地收储困难等问题凸显，投产达效相对缓慢；县城建设品位和管理水平特别是配套设施建设与发达城市相比还存在很大差距；美丽乡村亟待突破提升；财税收入减少，政府“钱袋子”相对吃紧；维护社会稳定和社会治理创新的任务还十分艰巨；个别部门执行力不强、抓落实不力，一些工作人员庸懒散现象仍然存在，极个别领导干部甚至违纪违法。对于这些问题和不足，我们将在今后的工作中采取更加有力的措施，认真研究解决。', '今年是“十三五”的开局起步之年，政府工作将全面贯彻十八届五中全会和省、市、县委全会精神，认真落实中央“四个全面”战略布局、省委“三个五”战略部署、市委“六个一”发展布局，牢牢把握县委“一二三四五”部署要求，紧紧围绕“三大工程”，坚持转型升级、扩大开发开放、统筹城乡发展，致力民生改善、锐意改革创新、加强作风转变，力争在全市实现率先发展、加快发展，争做全国模范县，努力让全县人民过上好日子。', '全面贯彻十八届五中全会和省、市、县委全会精神，认真落实中央“四个全面”战略布局、省委“三个五”战略部署、市委“六个一”发展布局，牢牢把握县委“一二三四五”部署要求，紧紧围绕“三大工程”，坚持转型升级、扩大开发开放、统筹城乡发展，致力民生改善、锐意改革创新、加强作风转变，力争在全市实现率先发展、加快发展，争做全国模范县，努力让全县人民过上好日子。', '预期目标是：地区生产总值增长8%；全口径财政收入增长5%、地方级财政收入增长4.5%；城镇和农村常住居民人均可支配收入增长8%；社会消费品零售总额增长10%。重点做好以下六个方面工作：', '围绕四大支柱产业振兴工程，筑牢经济发展基础。医药健康产业：继续举全县之力支持东宝集团加速产业与规模扩张。重点对东宝药业镇脑宁、华夏药业苦碟子注射液、振国药业白花蛇舌草注射液等20个中药主导品种进行二次开发，提高产品附加值和市场占有率。鼓励制药企业利用其生产线开发保健品、功能性食品，释放新一轮GMP改造产能。推进江苏康缘集团与中新玉金药业、天津天士力控股集团与泛亚人参交易所深度合作，实现跨越式发展。推动臻尊保健品、联合胶囊早日达产。矿产业：鼓励企业通过科技创新调整产品结构，提高矿产资源附加值，同时尝试资源融资模式，积极寻求战略合作者，实现突围发展。食品产业：重点扶持青山实业、大泉源酒业、通天酒业等龙头企业；支持西江米业、禾韵蓝莓等企业做大做强，提升稻米、食用菌、蓝莓等农特产品质量，打造地域精品品牌；推动快大人参产业园区400多种人参系列产品和“灵秘泉”口服液尽快投入市场。大力发展人参新资源食品，争做新资源食品的领跑者。精细化工：推动通化化工原料路线及动力结构调整改造项目达产达效，鼓励企业与北京三聚环保深度合作，实施二期工程，逐步打造东北地区精细化工产业基地。', '围绕四大优势产业发展工程，推进经济提升提质。“互联网+”产业：泛亚人参交易所年内累计交易额达到2000亿元，国富人参交易中心上线运营。依托神州买卖提电子商务公司、虎特公司、开发区鑫和元电子商务公司等电商，大力发展农村电子商务和物流配送。完成通化县特色产品资源库建设，为全县电商创业团队及个人提供产品库源支持，建设400家网上店铺。统一注册区域公共品牌，提升通化县公共品牌产品的公信度。完成淘宝、苏宁易购、1号店、邮乐购、京东通化县地方特色馆建设，实现特色农产品全国卖。搭建网络便民服务平台，实现水、电、有线电视等生活服务费用的网上缴费。装备制造业：加快推进石油化工一期改造工程竣工投产，并启动二期大钻机项目建设，同时推动名成电瓷电器等企业加快发展。新材料产业：加快宏信研磨材绿碳化硅超细微粉和高性能陶瓷材料的研发应用和产业化进程，推动石墨、钾长石项目实体化建设和产品研发，努力提升矿产的科技含量。特色旅游产业：整合生态、红色文化、人参文化等旅游资源，继续推动“全域旅游”创建，全力打造南长白山旅游品牌。积极引入社会资本，对接知名策划团队，强化旅游宣传营销。全力推进振国养生谷、赤柏松高丽谷花海等旅游项目配套设施建设。开发红色生态游，加快推进“抗联文化活动园”、河里会议纪念馆项目建设，谋划建设靖宇干部培训学院、杜光华烈士纪念馆、白家堡子惨案纪念馆等红色旅游和爱国主义教育基地，打造东北地区知名的红色旅游品牌。推进人参文化主题游，建设开发区河口村人参文化主题公园。有序开发石湖国家森林公园、吉林通化蝲蛄河国家湿地公园、四棚温泉等旅游资源。重点包装松花石砚、满族剪纸、核桃皮工艺品等旅游产品。', '围绕服务业壮大提升工程，拓宽经济发展途径。发展生活性服务业。支持高端服务产业园区早日投入运营，完善医疗、养生、运动、康复、养老等大健康产业体系，推进颐福居老年公寓项目建设，打造高端养老中心；依托石湖国家自然保护区与振国养生谷等大健康资源，打造“生态宜居地，健康养生城”品牌。发展生产性服务业。在二密镇筹建大型物流集散港，发展现代物流业；依托长白山医药物流中心等平台优势，发展壮大会展经济。鼓励各类金融机构在县城和中心镇布局网点机构，抓好圣东投资有限公司等融资平台建设，加强银企对接，发展金融服务业。', '加大重点项目建设力度。组织实施“重大项目发力年”活动，重点推进总投资400亿元的50个大项目早日投产达效。其中，续建28项，新建22项，亿元以上项目40个，超10亿元项目11个。在项目谋划上精准发力，推进东北师范大学附属通化县学校、通化果松滑雪场等一批社会事业项目落地。在项目建设上持续发力，推动宏信研磨材碳化硅特种陶瓷材料表面改性粉、通天酒业新增2万吨葡萄酒系列产品技术改造、喜乐康人参系列产品加工等一批工业项目尽快投产。在项目成果释放上快速发力，全力推进城市地下综合管廊、蝲蛄河城区段景观带、城市展览馆等一批城建项目投入使用。在优化投资环境上全线发力，构建项目审批“绿色通道”，强化项目要素保障，以“保姆式服务”营造项目建设环境。继续全力推进总投资200亿元的“八园一所一港”实体项目建设，提升资源、产业、技术等要素集聚能力，加速构建重大产业集群。', '加强对外开放合作。打通开放大通道。加快构建外联内畅的现代交通网络体系，继续抓好通化至靖宇高速公路施工保障、通化至集安高速公路征地拆迁、四平至白河高速铁路前期筹备；完成国道沈长线、鹤大线大修改造工程48公里，恒孤线县级公路大修改造36公里，道路生命防护工程3公里。建设农村公路桥梁5座，推动农村公路建管养运一体化发展。构建开放大格局。主动融入国家“一带一路”倡议和全省东部绿色转型发展区战略，加快基础设施互联互通，推动“通丹经济带”核心区建设，打造吉林省南部对外开放前沿窗口。全力推进通化内陆港项目取得实质性进展。加强与环渤海地区的经济联系，在创新合作、产业转移等方面实现新突破。打造开放大平台。继续加强聚鑫经济开发区基础设施建设，提升承载服务功能。发挥现代服务业集聚区优势，发展“人参+”模式，以泛亚人参交易所为主体打造全球最大的野山参交易平台，以国富人参电子交易中心为核心打造全球最大园参及其产品交易中心和亚洲最大的人参及其产品气调库，以快大人参产业园为平台建设国内乃至国际最具影响力的人参产品集散物流中心，全力打造中国第一个人参国际城。', '抓好招商引资。夯实对外招商的基础性工作，围绕医药健康、矿产、新资源食品、精细化工、装备制造、高端服务业等产业，谋划包装一批优质储备项目，超亿元项目储备达到60个。开展县域形象整体推介，全面升级政府网站，利用互联网全方位展示我县资源、环境和区位优势，增强域外认知度。在储备项目中，对20个左右具有充分可行性和成熟引进条件的实体项目进行深度包装，在国内500强及行业100强企业中寻求合作，开展单体项目一对一叩门招商。依托聚鑫经济开发区、装备制造和精细化工产业园区、快大人参产业园等引资平台，有针对性的谋划一批具有一定产业关联度的项目群，开展特色园区全产业链招商。继续鼓励和引导现有企业利用自身技术、装备、资源，广泛开展资本和项目对接，引进战略合作者。全县招商引资到位资金达到15亿元。', '努力改善城乡生产生活条件。推进县城建设管理提档升级。坚持规划为先，不断完善城市规划体系。做好道路交通、园林绿化、市政基础设施等专项规划。完成水源街续建、英华街和广场东街人行步道改造8800平方米。加快实施丽景系列城市综合体后续建设。抓好城市展览馆、博物馆、文体中心的运营管理。继续推进县城垃圾分类工程建设，配建城市停车场。继续实施御山公园和蝲蛄河城区段综合治理工程。对城区新建地段实施绿化美化，引进新品种树木和花卉，提升县城园林绿化品位。做好街巷、小区和楼宇亮化。加强城市管理，进一步提升精细化管理水平。开展环境综合治理、交通秩序整治等专项整治行动，加强城区常态化管理。突出抓好老旧、弃管小区环境治理，继续推进弃管小区进物业。进一步完善公共交通体系，购置14辆公交车，开辟4条城乡一体化路线，新增2条城区公交路线，规范出租车运营秩序。加大城乡通信设施建设力度，全面提升通信质量和信息化水平。加大农村危房改造力度，解决困难群众住房问题。改造乌拉草沟、立新两个棚户区地块 6.11万平方米，814户，建设回迁楼7.33万平方米。解决2.6万农村人口饮水安全问题。完成标准化屠宰场建设。', '持续深化美丽乡村建设。以发展乡村特色游和特色农业，积极破解美丽乡村建设瓶颈。依托现有新农村建设及产业发展成果，实现“亮点变景点，景点变经济增长点”，推动各区域形成协调联动的发展格局，努力打造全省知名的美丽乡村建设典型。精心打造东片自然生态文化路线、南片特产和生态农业产业路线、西片生态健康养生路线、北片东北抗联红色记忆路线等四条美丽乡村建设精品路线。认真落实强农惠农政策，保障农资供应。大力扶持农业龙头企业。新增省级农业产业化龙头企业1户、市级龙头企业2户，农民专业合作经济组织达到480户。年产值超亿元的大型龙头企业力争达到11户。全面发展壮大特色产业。加快道地中药材发展步伐，大力发展平地人参种植，留存面积达到10000亩以上，药材发展面积力争达到8.3万亩。推动棚膜经济快速发展，新增棚膜面积300亩。新建、改扩建标准化牧业小区10个。完成绿色无公害产地认证和产品认证3个。全力推动绿色农业发展。重点完成30万亩绿色食品原料标准化生产基地建设，做好农产品生产基地产品质量安全检测。鼓励发展适度规模化种养殖，培育5个示范家庭农场；拓宽农民专业合作社服务领域，培育标准化示范社10个。强化动植物防疫、森林防火、防汛抗旱、气象服务、农业保险等工作，保障农业生产安全有序。', '加大生态环境建设和保护力度。牢固树立“绿水青山就是金山银山”的理念，巩固提升国家生态县建设成果，继续推进国家生态文明建设示范县创建工作。积极争取东北生物多样性保护与可持续利用项目落地，做好相关政策承接准备。加大生态环境建设力度，持续推进“八大工程”。强化项目建设环境风险评估，严守生态保护红线。抓好森林、湿地等生态资源的保护开发，探索建立“大保护区”发展机制。加强造林绿化、资源培育和森林防火，严厉打击破坏森林资源违法犯罪。强化蝲蛄河、哈泥河源头和饮用水源地保护，实施“坝前压柳”和“坝后栽树”等生物治理工程，提升水源涵养功能。加大节能减排力度，推广节能环保新型材料，倡导绿色、低碳生产生活方式；加强空气质量监测，严厉打击各类环境违法行为。加大焚烧秸秆行为整治力度。严格依法节约集约用地，确保土地高效利用，有效防治土壤污染。实施西江镇地质灾害治理项目。继续实施浑江干流综合治理、中小河流治理、水土保持综合治理、灌区续建及节水改造等工程，提高防汛抗旱应对能力。', '提供更多优质公共服务。实施中小学标准化建设工程，加快东北师范大学附属通化县学校基础设施建设；加快职业教育发展进程，实施电子商务培训项目；大力发展普通高中、特殊教育和民族教育。加强县城管理创新，巩固国家卫生县城、国家文明县城荣誉，争创国家首批县级健康城市。深化医药卫生体制改革，全面实施基本药物制度，筑牢农村三级服务网。加强流动人口管理服务，促进基本公共服务均等化。组织开展群众性文体活动和送戏下乡，建设30个农民文化广场和34个农民文化大院，为30个村更换体育健身器材。加大文物保护力度，做好赤柏松古城遗址公园修复建设。继续抓好全民体育场建设和国家级旅游景区申报。加快建设“智慧社区”，不断增强社区服务能力。', '织密织牢民生保障网。争取国家开发银行贷款5.7亿元，加大棚户区改造、去除房地产库存力度。推进农村就业制度综合改革及农民工市民化服务，就地就近转移就业达到55%以上。抓好居家养老服务。强化城乡社会保障体系建设，依法实行保费征缴。完善最低工资和农民工工资保障制度。继续实施“医保全覆盖”工程，开展重特大疾病患者医疗救助和城镇居民大病保险。健全残疾人社会救助体系和社会保障体系，开展残疾人康复和职业技能培训。扎实做好妇女、儿童、老龄、民族宗教、外事侨务等工作。', '深入推进精准扶贫。切实做好贫困户精准识别复核工作，实行动态管理。坚持因户施策、结对帮扶，实行低保政策和扶贫政策的衔接，对贫困人口应保尽保。着力实施产业扶贫、教育扶贫、搬迁扶贫、就业扶贫、旅游扶贫，动员各方力量参与扶贫开发，协调金融机构加大金融扶贫支持力度，推进扶贫到户贴息贷款政策落实。今年要实现2500人脱贫。', '努力构建和谐稳定的社会环境。积极推进依法治县，形成全民共建共享的社会治理格局。启动“七五”普法，加大法治县创建力度，加快公共法律服务体系建设，增强全民法治意识。依法依规妥善处理群众信访问题。坚持重心下移，以化解社会矛盾为重点，打造立体化社会治安防控体系，刚性维护社会基本秩序；扎实推进治安突出问题专项整治行动，严厉打击各种违法犯罪行为；有效防范和应对公共领域风险，切实保障社会公共安全。持续加强食品药品监管，确保人民群众饮食用药安全。完善安全监管防控体系，坚决遏制重特大安全生产事故发生。健全应急管理和应急救援体系，提高处置突发事件的能力。组织实施第二次全国地名普查。切实加强双拥工作，完善国防动员建设的组织管理、工作运行和政策制度体系。', '全力办好十件民生实事。一是投资2亿元，实施县第八中学和进修学校续建工程。二是投资1.6亿元，新建东北师范大学附属通化县学校。三是投资4000万元，完成4公里河道治理及蝲蛄河景观带建设。四是投资3250万元，修复农村水泥路50公里。五是投资3000万元，改造农村危房2000户。六是投资2210万元，新建都岭学校和大泉、东来学校的食堂、宿舍。七是投资1950万元，实施老年康复养护中心建设。八是投资1500万元，实施妇幼保健院、结防所续建项目。九是投资1200万元，新建通化县档案馆。十是投资539万元，实施农村饮水安全工程39处。', '持续推进各领域改革。认真贯彻落实中央和省委改革工作部署，以改革创新推动和实现率先发展。深化行政管理体制改革。继续深化工商登记等行政审批制度改革，推动由事前审批转为事中事后监管；加快推进商事制度改革，全面推行“五证合一”登记制度；完成权力清单、责任清单、投资负面清单、财政专项资金管理清单和政府信息公开网络公布工作。加快政府职能转变。推进事业单位分类改革、党政机关公务用车制度改革，做好县级公立医院综合改革。深化公安改革，夯实警务科技信息化基础，全面提升各项警务实战水平。深化农村各项改革。完成农村土地承包经营权确权登记颁证工作。妥善处理林权制度改革遗留问题，适时开展国有林场改革。深化财政管理制度改革。推进公务卡结算制度改革，规范政府采购和国有资产管理，提高财政资金使用效益和效率；继续实施政府购买公共服务，试行“PPP”模式，引导民间资本投向基础设施、产业发展、城镇建设等领域。', '支持创新驱动发展。积极引导企业开展各种形式的创新合作和对外交流，推动形成以创新为主要引领和支撑的产业发展体系。重点支持东宝科技园，使之成为全省生物医药研发的区域高端综合服务平台和检测检验中心。加快东宝重组人胰岛素系列类似物、中新玉金药业基因重组葡激酶、振国药业抗癌免疫增强剂PUS、银甘黄冻干粉针等一批创新产品产业化进程；推进宏信研磨材“亚纳米超细粉体生产工艺”改进。建立健全品牌培育、发展和保护机制，鼓励引导企业实施品牌战略，提高创牌意识和品牌经营能力，形成一批名牌产品和知名商标。主动引智引技。深化同高等院校、科研院所的合作，大力推动科技成果转化，争取吉林农大等4所高校在通化县建立“长白山道地中药材规范化栽培产学研基地”“人参种植、有效物提取及产品深加工产学研基地”“长白山药食用菌种植及产品深开发产学研合作基地”。', '搭建全民创业服务平台。开展进修培训、学习考察、发展论坛等多种活动，不断提升企业家和小微企业经营者素质。利用企业家节、联谊交流、文体活动等形式加强党委、政府与企业家、创业者的联系，帮助解决实际困难。进一步发挥企业家协会作用，引导企业间的合作交流，集约资源，共享发展。注重企业家后备人才培养，为未来发展提供人才支撑。完善创业扶持政策，深入实施全民创业服务“五项计划”和“双百工程”，大力培育创业群体。强化创业公共服务平台建设，拓宽创业兴业领域，依托开发区创业大厦建设创业基地和创客空间。', '适应经济发展新常态和从严治党新要求，县政府要进一步转变政府职能，提高行政效率，全力推进法治政府、阳光政府、服务政府、效能政府和廉洁政府建设。严格遵守法律规定，健全依法决策、民主决策制度，用法治思维和法治方式全面履行政府职能，努力打造法治政府。全面推进政务公开，畅通县长热线，加强电子政务和互联网建设，努力打造阳光政府。加强软环境建设，提升便企便民服务水平，在经济发展和民生福祉方面“只研究怎么能行，不研究怎么不行”，努力打造服务政府。加强政府绩效考核评价体系建设，强化政务督查和效能监察，严格执行行政问责，提高行政执行力，努力打造效能政府。严格执行中央“八项规定”，全面落实党风廉政建设责任制和“一岗双责”，强化权力制约和监督，努力打造廉洁政府。', '根据上级精神和县委建议，县政府组织有关部门，编制完成了《通化县国民经济和社会发展第十三个五年规划纲要（草案）》（以下简称《纲要（草案）》），已提交大会审查。下面，我对《纲要（草案）》作简要说明。', '“十三五”时期是实现县域新一轮振兴发展的攻坚期和全面建成小康社会的决胜期。制定和实施好“十三五”规划，对推动我县实现率先发展、加快发展的目标具有重要意义。县委、县政府对此高度重视，成立了“十三五”规划编制工作领导小组，组建了规划编制起草小组。', '我县“十三五”规划编制工作从2014年12月下旬开始谋划，于2015年3月正式启动。期间，严格执行重大事项协商制度、专家论证制度，多次召开县政府常务会议和专题会议对“十三五”规划编制工作进行研究部署、听取情况、讨论修改。“十三五”规划初稿完成后，广泛征求意见、建议，特别是重点征求了域外专家、县人大、县政协和县老干部的意见。在县委十三届五次全会正式作出“十三五”规划建议后，政府常务会再次就《纲要（草案）》进行讨论，修改完善后形成提交本次会议审查的讨论文本。', '在《纲要（草案）》的起草过程中，我们认真坚持国家、省、市规划纲要主要思路和方向，将国家“十三五”规划中的“创新、协调、绿色、开放、共享”的发展理念、省规划中的“三个五”战略、市规划中的“六个一”布局和建设“七个通化”的努力目标进行了有机融合，并以县委“一二三四五”的部署要求作为指导思想、基本遵循。注重把握了以下几个方面。一是坚持了“十二五”时期被实践证明行之有效的工作思路和政策措施，以期通过“十三五”时期的接力发展，不断丰富发展内涵。二是将云中心、物联网、大数据、智慧城市、“互联网+”等创新要素，引入产业转型升级和社会管理当中。三是对照“率先发展、加快发展”的目标，统筹考虑通化县“十二五”时期发展速度和周边县域发展定位，合理设置发展指标，明确解决途径和办法，体现跳起摸高的总体要求。四是突出目标、主线、特色、原则、重点的有机衔接，增强规划的可操作性，做到能检查、易评估、可考核。五是保持县域发展战略与顶层设计的高度契合，主动融入国家战略、省级部署、市级区域规划，充分发挥产业和区位优势。', '在结构上，《纲要（草案）》分为三大板块、五个部分。导语和第一、二、三部分构成第一板块，属于总论。主要是总结“十二五”时期我县经济社会发展取得的成就，分析“十三五”时期我县发展面临的压力与挑战、拥有的突出优势和发展机遇，明确指导思想、总体要求和发展目标。第四部分构成第二板块，为“十三五”发展重点任务，属于分论，分别从经济、政治、文化、社会和生态文明五个方面进行阐述和部署。第五部分构成第三板块。讲“十三五”经济社会发展政策措施，主要是加强组织领导、健全规划指导、强化工作效能、强化智力支持、强化项目支撑、增强县域创新能力，确保《纲要（草案）》的目标任务能真正落到实处。', '2.城乡居民人均可支配收入。按照城乡居民人均可支配收入增长与GDP保持同步的要求，即8%以上，预计到2020年，城镇常住居民人均可支配收入和农村常住居民人均可支配收入分别达到32000元和16000元，较2011年城镇居民可支配收入15094元和2010年农民人均纯收入6339元增长一倍多，实现翻一番。', '第二，关于结构调整和优化升级。推动结构调整和优化升级，是“十三五”的重点任务。围绕优化产业结构，《纲要（草案）》按照实体经济提质发展的要求，提出要推动新型工业转型发展，着力发展医药健康产业、加快振兴矿产业、大力发展精细化工产业，加快培育装备制造、新资源食品、“互联网+”、新材料、新能源等战略性新兴产业，实现服务业跨越发展，推动生活性服务业向高端化和专业化迈进，到2020年，力争第三产业占比超过40%。围绕优化动力结构，《纲要（草案）》提出突出创新驱动的核心引领地位，推动形成以创新人才队伍、创新思维理念、创新发展保障为主要引领和支撑的经济体系。', '第三，关于继续抓好重大项目建设。在前期向省上报希望纳入全省“十三五”规划纲要的重大工程和重大项目基础上，经进一步研究筛选，《纲要（草案）》提出实施蝲蛄河综合治理、新一轮城市棚户区改造、地下综合管廊、智慧城市等一批具有标志性的重大工程。应该说，这些都是事关我县长远发展和民生福祉的大项目、好项目。一方面，我们要全力推动这些重大项目尽快落地；另一方面，继续谋划、推动和建设一批具有引领性、创新性、成长性的重大项目。', '第四，关于打赢脱贫攻坚战。脱贫攻坚既是重大的政治问题、民生问题，也是重大的发展问题、社会问题。目前，我县农村人口15.5万人，其中建档立卡贫困人口7219人（即农村常住居民人均可支配收入3050元以下人口）。省级贫困村14个。《纲要（草案）》提出实施精准扶贫，举全县之力坚决打赢脱贫攻坚战，确保2018年实现全县现有贫困人口全部脱贫，并提出了政策扶持、发展产业、结对帮扶、低保兜底等措施予以保障。', '第五，关于建设吉林省东南部出海大通道重要节点。省委、省政府提出要加强南部开发开放，并积极构建通化内陆港区，建设白通丹经济带。我县作为白通丹经济带的重要县域，具有“五高二铁”的交通优势和通丹陆港前期的建设基础，通化至沈阳、通化至丹东、通化至集安快速铁路建设和四平至白河高铁建设在即，加之通化火车站拟向二密搬迁，为我县主动融入环渤海经济圈辐射带，打造吉林省东南部出海大通道的重要节点带来了巨大机遇。', '第六，关于建立生态“大保护区”发展理念。我县是国家生态县，具有较为丰富的生态资源，是我们绿色发展的有力保障。因此，《纲要（草案）》提出结合石湖国家自然保护区建设，探索建立“大保护区”发展理念，有效整合石湖国家自然保护区周边区域的管理、产业、生态、人文等资源，实现统筹建设、融合发展，逐步释放大保护区生态、经济、社会综合效益，努力实现“社区共建”的目标。', '第七，关于建设人参国际城。我县具有较为雄厚的人参产业基础，具有高端的人参产业“互联网+”和物流平台，具有逐步成型的人参文化。同时，我县还被确定为全省唯一的以人参产业配套服务为主的省级现代服务业集聚区。因此，《纲要（草案）》提出要以泛亚人参交易所为主体打造全球最大野山参交易平台，以国富人参交易中心为核心打造全球最大园参及其产品交易中心和亚洲最大的人参及其产品气调库，以快大人参产业园区建设为依托打造国内乃至国际最具影响力的人参产品集散物流中心，打造中国第一个人参国际城，不断拓展人参产业发展层次和规模，提升人参产业国际影响力。', '各位代表、各位委员！适应新常态，要求我们主动作为、积极有为；实现新发展，召唤我们奋勇前进、奋力争先。让我们在县委的坚强领导下，在县人大的法律监督、工作监督和县政协的民主监督下，团结依靠全县广大干部群众，万众一心、攻坚克难，为在全市实现率先发展、加快发展，争做全国模范县，努力让全县人民过上好日子而不懈奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>52</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>规划局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2010-03-10</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://xxgk.tonghua.gov.cn/zcbm/fgw_98002/ndbg/201808/t20180827_285813.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['领导体制及人员配置。规划局设立伊始，便设置了规划局政务公开工作领导小组，成立了由局长任组长，副局长任副组长，各科室领导及基层单位一把手为组员的领导机构，明确了规划局政务公开领导小组的具体工作职责。党委办公室作为规划局政务公开领导小组的办公室，主要负责全系统政务公开工作的组织、协调、监督和管理工作，并有专人负责此项工作。', '工作部署和安排情况。局领导高度重视信息公开工作，年初组织局机关及基层单位人员召开专题会议，研究部署年度信息公开工作任务，并对年度重点工作的信息公开进行了具体安排，提出了明确要求，修订完善了规划局信息等项配套制度。', '派出专人向市政务公开办学习信息公开平台录入技能，组织人员参加市政务公开工作培训。组织全局人员学习了《中华人民共和国政府信息公开条例》以及政府信息公开的相关配套文件。', '软件使用情况。规划局加入了《通化市人民政府网上政府信息公开管理系统》，并将规划局职能、机构设置、管理制度、审批指南、规划审批公示等内容发布在了规划局的网站上。', '清理政府信息和信息录入情况。全面清理市规划局政府信息，对政府公开网站上涉及的机构职能、政策法规、行政权力、行政事业性收费事项、重大政务及社会管理、应急管理、政务动态、规章制度、承诺事项等板块进行清理、梳理、填充。', '细化、优化工作流程情况。对行政权力进行了清理，对规划项目的审批流程进行了细化、优化。', '截止2009年末，两年来规划局累计主动公开信息近50条，并全部在网上进行了公开，网上公开率100%。', '在2009年公开信息中，政策法规类信息的5条，规划验收报告7条，业务管理类信息8条，其他信息类20余条。特别是将审批完毕的项目向公众予以公开、公示，提高社会知晓度。', '公共查阅点。2009年规划局设公共查阅点2个，其中可以进行电子信息查阅点1个。查阅点共汇集纸制信息15条、电子信息近30条。接待公众查阅70余人次，借阅文件10余件次。', '年，文件信息从生成到网上公开不超过20个工作日的信息总数为40余条，占公开信息总数的100%，没有超过20个工作日公开的信息。', '推进行政权力公开透明运行是政务公开工作的核心，是深化政务公开的关键。规划局要切实把规范行政权力，推进行政权力公开透明运行作为深化政务公开的突破口来抓，着力推进行政权力公开透明运行。一是要进一步规范行政权力公开。按照职权法定、权责一致的要求，修编规划局机关的行政职权目录并及时向社会公开发布，确保公开内容规范、全面、更新及时。二是要建立健全行政决策责任制度、重大决策听证和公示制度。制定与群众利益密切相关的制度和措施要公开听取意见。三是公开行政权力的行使条件、承办岗位、办理时限、监督制约环节、相对人的权利、投诉举报方法等具体事项，统一工作标准，固化行政程序，规范行政权力的自由裁量。四是大力加强电子政务建设。积极推行网上办公，把行政职权运行过程固化为系统程序，逐步开通和完善网上查询、受理、投诉、审批、收费、办证等功能，把规划局信息公开、网上办事、政民互动作为电子政务、局网站绩效评估的重点。', '认真贯彻《中华人民共和国政府信息公开条例》（以下简称《条例》），切实做好规划局信息公开工作，确保扎实推进，取得实效。一是认真落实《通化市政府信息公开工作考核办法》《通化市政府信息主动公开制度》《通化市政府信息依申请公开工作办法》《通化市政府信息公开保密审查办法》和《通化市行政机关澄清虚假或不完整信息工作办法》《通化市政府信息清理工作办法》《通化市政府信息发布协调办法》等一系列规章制度，完善措施，全面推进《条例》落实。二是进一步建立健全规划局信息公开工作机构，切实做到有专门机构负责、有专门人员承办。三是按照“公开是原则，不公开是例外”的要求，及时更新规划局信息公开目录。加强相关科室和部门之间及行政机关内部的协调配合，防止泄密事件的发生。四是积极疏通群众来信来访和上诉渠道，保障群众表达诉求、反映意见的权力，办理过程和处理结果要公开透明。五是要建立健全规划局信息公开依申请公开、局信息发布保密审查、局信息公开工作考核、社会评议、责任追究等配套制度，形成规划局信息公开的制度体系，确保该公开的事项都能够公开，进一步扩大群众的知情权。六是在规划局网站将总规修编的主要内容向公众予以公示。', '。政务公开是一项政策性强、涉及面广、群众反响大的系统工程，必须建立健全监督考核机制，确保政务公开工作全面扎实推进。一是规划局法规和纪检部门要开展执法监察和效能监察。建立依法依纪监督机制，加强对政务公开工作的检查和监察。二是进一步强化政务公开考核和责任追究制度。要把政务公开作为社会评议政风、行风的重要手段，纳入局领导的责任体系，加大责任追究力度。三是建立局政务公开监督员队伍，明确职责，持证监督。充分发挥社会舆论、新闻媒体、民主人士和人大代表、政协委员的监督指导作用。', '规划局政务公开工作正在逐步深化，工作难度和阻力也会不断加大，加强组织领导非常关键。一是要把政务公开工作作为“一把手工程”。规划局主要领导是政务公开工作的第一责任人，分管领导要亲自抓督促、抓协调，领导小组成员要密切配合，形成合力。二是进一步理顺政务公开领导体制、机构设置，不断加强政务公开工作机构体系建设。三是进一步加强政务公开干部队伍建设。认真开展岗位练兵、技能比武、知识竞赛等活动。下半年，组织县级领导干部参加全市举办的政务公开讲座、全市政务公开干部培训班、经验交流会、到先进地区考察学习等，促进规划局政务公开工作上水平，打造一支政治素质高、业务技能精、协调能力强、综合素质好的政务公开工作干部队伍。四是把政务公开作为党风廉政建设、规划局绩效评估和领导干部年度工作考核的一项重要内容，加大责任追究力度，确保规划局政务公开各项任务落到实处。同时，充分利用广播、电视、报纸等新闻媒介，加大政务公开工作的宣传力度，加强政府与公众的交流和互动，使政务公开下基层、进社区、入民心，化解矛盾，维护民主，促进和谐，形成全民推进政务公开，齐心打造服务型规划局的良好舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>52</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>规划局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2011-03-26</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://xxgk.tonghua.gov.cn/zcbm/fgw_98002/ndbg/201708/t20170828_133612.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['领导体制及人员配置。规划局设立伊始，便设置了规划局政务公开工作领导小组，成立了由局长任组长，副局长任副组长，各科室领导及基层单位一把手为组员的领导机构，明确了规划局政务公开领导小组的具体工作职责。党委办公室作为规划局政务公开领导小组的办公室，主要负责全系统政务公开工作的组织、协调、监督和管理工作，并有专人负责此项工作。', '工作部署和安排情况。下发了《2010年市规划局政务公开工作要点》，明确了重点工作任务；修订完善了规划局信息等项配套制度。', '软件使用情况。规划局加入了《通化市人民政府网上政府信息公开管理系统》，并将规划局职能、机构设置、管理制度、审批指南、规划审批公示等内容发布在了规划局的网站上。', '截止2010年末，截止到现在规划局累计主动公开信息近100条，并全部在网上进行了公开，网上公开率100%。', '在2010年公开信息中，政策法规类信息的5条，规划验收报告近10条，业务管理类信息10条，其他信息类20余条。特别是将审批完毕的项目向公众予以公开、公示，提高社会知晓度。', '公共查阅点。2010年规划局设公共查阅点2个，其中可以进行电子信息查阅点1个。查阅点共汇集纸制信息20条、电子信息近40条。接待公众查阅100余人次，借阅文件10余件次。', '年，文件信息从生成到网上公开不超过20个工作日的信息总数为60余条，占公开信息总数的100%，没有超过20个工作日公开的信息。', '推进行政权力公开透明运行是政务公开工作的核心，是深化政务公开的关键。规划局要切实把规范行政权力，推进行政权力公开透明运行作为深化政务公开的突破口来抓，着力推进行政权力公开透明运行。一是要进一步规范行政权力公开。按照职权法定、权责一致的要求，修编规划局机关的行政职权目录并及时向社会公开发布，确保公开内容规范、全面、更新及时。二是要建立健全行政决策责任制度、重大决策听证和公示制度。制定与群众利益密切相关的制度和措施要公开听取意见。三是公开行政权力的行使条件、承办岗位、办理时限、监督制约环节、相对人的权利、投诉举报方法等具体事项，统一工作标准，固化行政程序，规范行政权力的自由裁量。四是大力加强电子政务建设。积极推行网上办公，把行政职权运行过程固化为系统程序，逐步开通和完善网上查询、受理、投诉、审批、收费、办证等功能，把规划局信息公开、网上办事、政民互动作为电子政务、局网站绩效评估的重点。', '认真贯彻《中华人民共和国政府信息公开条例》（以下简称《条例》），切实做好规划局信息公开工作，确保扎实推进，取得实效。一是认真落实《通化市政府信息公开工作考核办法》《通化市政府信息主动公开制度》《通化市政府信息依申请公开工作办法》《通化市政府信息公开保密审查办法》和《通化市行政机关澄清虚假或不完整信息工作办法》《通化市政府信息清理工作办法》《通化市政府信息发布协调办法》等一系列规章制度，完善措施，全面推进《条例》落实。二是进一步建立健全规划局信息公开工作机构，切实做到有专门机构负责、有专门人员承办。三是按照“公开是原则，不公开是例外”的要求，及时更新规划局信息公开目录。加强相关科室和部门之间及行政机关内部的协调配合，防止泄密事件的发生。四是积极疏通群众来信来访和上诉渠道，保障群众表达诉求、反映意见的权力，办理过程和处理结果要公开透明。五是要建立健全规划局信息公开依申请公开、局信息发布保密审查、局信息公开工作考核、社会评议、责任追究等配套制度，形成规划局信息公开的制度体系，确保该公开的事项都能够公开，进一步扩大群众的知情权。六是在规划局网站将总规修编的主要内容向公众予以公示。', '。政务公开是一项政策性强、涉及面广、群众反响大的系统工程，必须建立健全监督考核机制，确保政务公开工作全面扎实推进。一是规划局法规和纪检部门要开展执法监察和效能监察。建立依法依纪监督机制，加强对政务公开工作的检查和监察。二是进一步强化政务公开考核和责任追究制度。要把政务公开作为社会评议政风、行风的重要手段，纳入局领导的责任体系，加大责任追究力度。三是建立局政务公开监督员队伍，明确职责，持证监督。充分发挥社会舆论、新闻媒体、民主人士和人大代表、政协委员的监督指导作用。', '规划局政务公开工作正在逐步深化，工作难度和阻力也会不断加大，加强组织领导非常关键。一是要把政务公开工作作为“一把手工程”。规划局主要领导是政务公开工作的第一责任人，分管领导要亲自抓督促、抓协调，领导小组成员要密切配合，形成合力。二是进一步理顺政务公开领导体制、机构设置，不断加强政务公开工作机构体系建设。三是进一步加强政务公开干部队伍建设。认真开展岗位练兵、技能比武、知识竞赛等活动。下半年，组织县级领导干部参加全市举办的政务公开讲座、全市政务公开干部培训班、经验交流会、到先进地区考察学习等，促进规划局政务公开工作上水平，打造一支政治素质高、业务技能精、协调能力强、综合素质好的政务公开工作干部队伍。四是把政务公开作为党风廉政建设、规划局绩效评估和领导干部年度工作考核的一项重要内容，加大责任追究力度，确保规划局政务公开各项任务落到实处。同时，充分利用广播、电视、报纸等新闻媒介，加大政务公开工作的宣传力度，加强政府与公众的交流和互动，使政务公开下基层、进社区、入民心，化解矛盾，维护民主，促进和谐，形成全民推进政务公开，齐心打造服务型规划局的良好舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>52</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>通化市年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2012-03-13</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://xxgk.tonghua.gov.cn/thsrmzf/thsrmzf1/ndbg/201706/t20170628_106120.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['1.领导体制。重新调整了通化市政务公开领导小组，成立了由市委常委、常务副市长任组长，市政府秘书长、副秘书长、政务公开协调办主任任副组长，政府办、监察局、人社局、组织部、宣传部、编办、财政局、法制办、公用局、设建局、发改委、保密局、政务公开协调办等13个部门的“一把手”为成员的政务公开领导小组，明确了政务公开领导小组成员单位40项具体工作职责。通化市人民政府政务公开协调办公室，作为市政务公开领导小组常设办事机构，主要负责全市政务公开工作的组织、协调、监督和管理工作，以及市政府政务大厅的具体管理工作。', '2.工作机制。市政府政务公开协调办公室作为政府信息公开工作主管部门，指导各县（市、区）政府及市政府各部门、单位具体承办政府信息公开工作，要求各县（市、区）政府及市政府各部门、单位将政府信息公开工作纳入部门专门机构，并安排专兼职工作人员具体负责。', '3．人员配置。全市共有478人从事该项工作，专职人员120人；兼职人员358人。做到了各县（市、区）政府有专门机构、专门人员负责该项工作；市本级各部门、单位设置了专兼职人员负责该项工作。', '1.工作部署和安排情况。下发了《2009年全市政务公开工作要点》，明确了6项重点工作任务；下发了《关于施行政府信息公开条例若干问题意见的通知》，对全面实施《政府信息公开条例》提出了刚性要求。制定了政府信息主动公开、依申请公开、保密审查、发布协调、信息清理、澄清虚假或不完整信息、考核等七项配套制度。', '5.细化、优化工作流程情况。为了更科学、安全、有效的管理电子证书制作和发放，以及信息录入的安全，我们认定、细化和优化了工作流程。', '录入人员进行框架录入-&gt;校对人员进行一校、二校-&gt;分管领导或负责人负责终审三校-&gt;录入人员进行详细信息录入-&gt;部门负责人通知政务公开协调办网管科正式发布。', '部门填写《申请书》-&gt;分管领导或负责人签字盖章-&gt;报政务公开协调办政务公开指导科审核-&gt;政务公开协调办网管科进行信息变更-&gt;部门分管领导或负责人校核变更信息。', '按照《条例》要求，起草了政府信息公开的各项配套制度。主要有：《通化市政府信息公开工作考核办法》《通化市政府信息主动公开制度》《通化市政府信息依申请公开工作办法》《通化市政府信息公开保密审查办法》和《通化市行政机关澄清虚假或不完整信息工作办法》《通化市政府信息清理工作办法》《通化市政府信息发布协调办法》等。', '文件信息从生成到向公共查阅点报送不超过30个工作日的信息总数为847条，占公开信息总数的5.4%，没有超过30个工作日报送公共查阅点的信息。', '申请主要涉及卫生、水利、农业、药品食品监督管理、民政等领域，主要涉及的问题包括：卫生收费、水利资源开发利用、粮种补贴、农机购置补贴等惠农政策、一类医疗器械生产和药品生产经营相关政策、社团组织登记政策等问题。', '2009年，全市共发生与政府信息公开相关的收费1500元，都是提供政府信息收取的复印费、递送等成本费用。', '一、进一步推进行政权力公开透明高效运行。推进行政权力公开透明运行是政务公开工作的核心，是深化政务公开的关键。各地、各部门要把规范行政权力，推进行政权力公开透明运行作为深化政务公开的突破口来抓，着力推进行政权力公开透明运行。一是进一步规范行政权力公开。按照职权法定、权责一致的要求，编制各级行政机关的行政职权目录并及时向社会公开发布，确保公开内容规范、全面、更新及时。二是县(市、区)政府和市政府部门要建立健全行政决策责任制度、重大决策听证和公示制度。制定与群众利益密切相关的制度和措施要公开听取意见。三是公开行政权力的行使条件、承办岗位、办理时限、监督制约环节、相对人的权利、投诉举报方法等具体事项，统一工作标准，固化行政程序，规范行政权力的自由裁量。四是大力加强电子政务建设。积极推行网上办公，把行政职权运行过程固化为系统程序，逐步开通和完善网上查询、受理、投诉、审批、收费、办证等功能，把政府信息公开、网上办事、政民互动作为电子政务、政府网站绩效评估的重点。五是逐步建立电子监察系统，对行政权力运行实行全程动态监控。', '二、进一步加大政府政务信息公开工作力度。认真贯彻《中华人民共和国政府信息公开条例》（以下简称《条例》），切实做好政府信息公开工作，确保扎实推进，取得实效。一是认真落实《通化市政府信息公开工作考核办法》《通化市政府信息主动公开制度》《通化市政府信息依申请公开工作办法》《通化市政府信息公开保密审查办法》和《通化市行政机关澄清虚假或不完整信息工作办法》《通化市政府信息清理工作办法》《通化市政府信息发布协调办法》等一系列规章制度，完善措施，全面推进《条例》落实。二是建立健全政府及部门信息公开工作机构，切实做到有专门机构负责、有专门人员承办。三是按照“公开是原则，不公开是例外”的要求，及时更新政府信息公开目录。加强相关部门之间及行政机关内部的协调配合，防止泄密事件的发生。四是积极疏通群众来信来访和上诉渠道，保障群众表达诉求、反映意见的权力，办理过程和处理结果要公开透明。五是要建立健全政府信息公开依申请公开、政府信息发布保密审查、政府信息公开工作考核、社会评议、责任追究等配套制度，形成政府信息公开的制度体系，确保该公开的事项都能够公开，进一步扩大群众的知情权。', '三、进一步加强政务大厅建设与管理。政务大厅是政府为社会及公众提供服务的窗口，集行政审批、资源配置、政府信息公开、公共服务、效能监察、政策和政务咨询为一体的综合平台。一是加强政务大厅基础设施建设。县（市、区）政务大厅基础建设要满足工作需要，积极采取改建、重建等方式，适度扩大规模。在不断完善硬件的同时，更要突出软件建设。二是尽快完善政务大厅行政审批、公共服务、资源交易和效能监察四个平台功能，全面落实全程代办制和行政审批绿色通道制、并联审批制、首问（办）负责制，为重点项目、重点企业和招商引资，积极创造条件，搞好服务，使行政权力在政务大厅统一平台、统一规则、统一监管“三个统一”条件下公开透明运行。三是强化政务大厅管理。政务大厅管理部门具有组织、协调、监督和管理职责。按照公开、服务、监管三位一体的要求，加强进厅事项的管理。同时，要强化日常管理，及时向有关部门通报窗口工作情况，要加大对窗口工作的考评力度，做到用制度管权、管人、管事。四是加快推进行政审批权相对集中改革。将具有行政审批权的部门进厅百分之百，部门行政审批项目进厅百分之百，实现大厅以外无审批。部门领导要向窗口充分授权，切实提高行政审批项目在政务大厅现场办结率。实施行政审批流程再造，最大限度简化审批条件、减少审批环节、压缩审批时限，提高即办件比重，即办件量应达到70%以上。五是积极拓展政务大厅服务功能。除行政审批项目和收费项目外，凡是能在政务大厅办理，且有利于方便群众，有利于提高行政效能，有利于加强对权力运行监管的各类行政事项和服务事项，都要纳入政务大厅。同时要加强对政务大厅分厅的指导、管理、监察、考评。', '四、大力推进公共企事业单位办事公开。推进公共企事业单位办事公开的重点是切实解决群众最关心的、涉及群众利益的突出问题，要坚持为民、便民、利民的原则，整合服务资源，搭建统一平台。突出抓好学校、医院和供水、供电、供气、供热、公交等行业的办事公开。一是规范办事公开内容。按照“谁主管、谁负责”的原则，强化措施，扎实推进公共企事业单位办事公开。各行业主管部门和各公共企事业单位要抓紧完善公共企事业单位办事公开指南和目录，完善办事公开制度，围绕办事内容、收费标准、依据、条件、程序、时限、结果以及岗位规范、服务承诺、监督渠道等内容，绘制办事流程图，尽快实现网上公开运行。二是规范办事时限。各公共企事业单位要认真制定限时办结的承诺，承诺内容要在群众经常来办事、容易知晓的场所进行公示，保持服务承诺的常态性和严肃性。对法律法规和政策有明确办结时限规定的要严格按照时限办结，严禁超期办结。行业主管部门要指导公共企事业单位建立健全听证、咨询、公示、信息发布、投诉、反馈、处理等制度，确保为公众提供良好的公共服务。三是培育办事公开示范点。各县（市、区）要结合实际培育一至两个独具特色的公共企事业单位办事公开示范点，并取得成功经验。年内，召开全市公共企事业单位办事公开经验交流会，以点带面，全面推进，逐步建立健全办事公开工作制度和监督体系，确保公共企事业单位办事公开取得实效。', '五、建立健全政务公开监督考核机制。政务公开是一项政策性强、涉及面广、群众反响大的系统工程，必须建立健全监督考核机制，确保政务公开工作全面扎实推进。一是监察部门要向政务大厅派驻监察机构，开展执法监察和效能监察。建立依法依纪监督机制，加强对政务公开工作的检查和监察。二是进一步强化政务公开考核和责任追究制度。要把政务公开作为社会评议政风、行风的重要手段，纳入各级领导的责任体系，加大责任追究力度。三是建立政务公开监督员队伍，明确职责，持证监督。充分发挥社会舆论、新闻媒体、民主人士和人大代表、政协委员的监督指导作用。四是建立电子监察运行机制，充分发挥电子监察作用，加强对政务公开各环节的监督和监察，确保政务公开工作健康有序进行。', '六、进一步加强政务公开工作的组织领导。全市政务公开工作正在逐步深化，工作难度和阻力也会不断加大，加强组织领导非常关键。一是要把政务公开工作作为“一把手工程”。各地、各部门主要领导是政务公开工作的第一责任人，分管领导要亲自抓督促、抓协调。建立健全政务公开工作领导小组，成员单位要密切配合，形成合力。二是进一步理顺县级政务公开领导体制、机构设置，配齐配强领导班子，不断加强政务公开工作机构体系建设，统一政务大厅冠名。三是进一步加强政务公开干部队伍建设。紧密结合政务大厅“窗口”工作特点，开展岗位练兵、技能比武、知识竞赛等活动。下半年，组织县级领导干部开展政务公开讲座，举办全市政务公开干部培训班。还要通过组织经验交流会、到先进地区考察学习等方式充分吸收和借鉴先进地区经验，促进政务公开工作上水平，打造一支政治素质高、业务技能精、协调能力强、综合素质好的政务公开工作干部队伍。四是把政务公开作为党风廉政建设、政府绩效评估和领导干部年度工作考核的一项重要内容，加大责任追究力度，确保政务公开各项任务落到实处。同时，充分利用广播、电视、报纸等新闻媒介，加大政务公开工作的宣传力度。通过制作“领导干部话政务公开”、“政务公开巡礼”专题片等丰富多彩的形式，加强政府与公众的交流和互动，使政务公开下基层、进社区、入民心，化解矛盾，维护民主，促进和谐，形成全民推进政务公开，齐心打造服务型政府的良好舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>52</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>集安市公安局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2012-01-19</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://xxgk.jilinja.gov.cn/zcbm/gaj_97975/ndbg/201708/t20170828_131910.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['年，是“十二五”时期开局之年，也是公安工作实现新发展、迈出新步伐的关键一年。一年来，在集安市委、市政府和通化市局的正确领导下，在市人大、市政协和社会各界的有力监督支持下，全市公安机关以建党90周年安保为载体，以创建通化地区最平安县市、打造通化地区第一流队伍为目标，主动服务第一要务，忠诚履行第一责任，全市边境安定、社会安全、人民安居。', '侦破制假、售假案件8起，捣毁窝点5个。成功侦破涉案金额700余万元的华夏商场非法集资案、1200余万元的“福瑞斯自动外汇”网络传销案和以袁晓军为首、集敲诈勒索、非法拘禁等多种犯罪于一体的非法经营案。', '侦破林业刑事案件28起，打处38人，涉案立木材积600余米。成功侦破徐恩来、徐洋特大盗伐林木案件，涉案立木材积120余米。', '一年来，全市公安机关共侦破现行刑事案件340起，打处325人。在全省群众评议公安机关满意度调查中，集安综合满意率达92.8%，排名全省60个县（市、区）第六。', '严格落实“303”线逐级包保责任，加大昼夜巡查密度，并依托五女峰检查服务站和原苇沙河收费站，对来集车辆发放限时卡10500余张、危险点段示意图28800余张。严管重罚“三超”、酒驾等违法行为，交通事故同比下降。落实了主体责任，配备了专用校车，积极推动校车规范化管理。火灾隐患整治到位。深入推进“大排查、大整治、大培训、大练兵、大宣传”活动和“清剿火患”专项行动，火灾事故同比下降12个百分点。全省、全地区消防工作现场会在我市召开。巡防体系成效明显。严格各派出所重点时段、重点区域的常态化巡防。突出重要节点、会点，将机关警力编队划组进小区、上街路开展网格化巡逻。围绕进出城区、辖区必经要道设立三级卡点4个、临时卡点10个，形成了两级、双层、互补的堵截查缉网络。一年来，全市发案同比下降14.2个百分点。', '完成了220平方米的指挥中心大厅改造和监控系统建设前期工作，“303”线5处测速和覆盖全市主要街路的5个十字路口、20个点位的红绿灯抓拍系统投入使用，电子警察守望平安的格局初具雏形。', '新建五女峰道路交通检查服务站和头道派出所、清河派出所办案区、办公区用房1000余平方米。', '新招录交警协勤人员，提高了女警和协勤津贴、工资待遇。前所未有地建设了300余平方米的警官食堂和200余平方米的审讯室，改善了民警工作生活条件，保障了执法安全。科技应用步伐加快。', '建设了350兆集群，警用地理信息系统建设扎实推进。深度应用大情报系统，抓获网上逃犯8名，破获刑事案件23起。', '全警通过执法资格考试。全面推行一卷一审一考评制度，从源头上堵塞执法漏洞。通化市局授予“优秀执法单位”称号。', '单设了纪委机构和纪委书记。扎实开展两个专项治理和三述活动，纠治了一批突出问题，并代表通化地区迎接公安部两个专项治理检查，为通化公安机关增光添彩，两项治理工作全省县级公安机关排名靠前。建立了领导包保、谈心家访制度，提升了民警8小时以外的管控力度和空间。突出', '扎实开展两个专项治理和三述活动，纠治了一批突出问题，并代表通化地区迎接公安部两个专项治理检查，为通化公安机关增光添彩，两项治理工作全省县级公安机关排名靠前。建立了领导', '建党90周年红歌大赛等系列活动。高标准组建、严要求训练了集安特警方队，在通化地区阅警式上展示了形象，凝聚了警心，赢得了社会好评。落实了年休假、年休检', '红歌大赛等系列活动。高标准组建、严要求训练了集安特警方队，在通化地区阅警式上展示了形象，凝聚了警心，赢得了社会好评。落实了年休假、年休检', '通过积极争取省厅、通化市局和市委、市政府的有力支持，全局经费保障和民警待遇极大提高，加班补贴有望落实，全警执行力、凝聚力和战斗力空前高涨。', '一年来，通化市局考评的25项工作全部排名通化地区前三位，其中位居第一的14项，位居第二的8项，位居第三的3项，综合考评排名第一。有15个单位、107名个人在省厅、通化市局和集安市委、市政府立功受奖。', '回顾一年来的历程，全市公安工作之所以能够战胜挑战、夺取胜利，我们体会最深的有5点：第一，坚持市委、市政府和上级公安机关的绝对领导不动摇；第二，坚持把公安工作融入全市经济社会发展大局来谋划、来定位、来推进不动摇；第三坚持务实重行、勇于担当、坚定信心不动摇；第四，坚持提升标准、加快节奏、争创一流不动摇；第五，坚持团结进取、严优并济、有为才有位不动摇。这些宝贵经验和有益启示，是全市公安机关集体智慧的结晶，是弥足宝贵的精神财富，必须倍加重视，倍加珍惜，并在今后的实践中不断丰富和完善。', '年，是新一届政府开局之年，是五项建设验收之年，是党的十八大胜利召开之年。从我市情况看，形势发展呈现四个特点：', '杀人、抢劫、强奸等严暴案件还时有发生，恶势力团伙犯罪不容忽视。二是随着人游、物流、资金流、信息流加速流动，犯罪的动态化、智能化、组织化程度明显增强。特别是五类侵财犯罪比重较大，直接危害社会治安稳定大局。三是社会管理日益由静态封闭向动态开放转变、由现实社会向虚拟社会延伸、由常态管理向危机管理拓展，问题增多、难度加大。特别是虚拟社会对社会稳定的影响越来越大。', '一是有些民警和部门理念不新，能力不强，特别是在急难险重的任务面前措施不硬，招法不多。二是个别部门基础性工作不扎实，缺乏系统性、连续性和稳定性，导致工作节奏感不强，效率、质量不高。三是有些部门精神状态不佳、进取意识不强，导致有些工作长期打不开局面，影响全局工作的开展。四是纪律作风、队伍管理还存在薄弱环节，直接影响执行力和战斗力，特别是违法违纪苗头仍然存在。', '指导思想是：围绕生态立市、产业强市、名城兴市、文化塑市的总目标，把握增强群众安全感和满意度的总要求，抓住维护边境安全和社会稳定的总任务，深入推进“三项重点工作”和“五项建设”，努力为十八大胜利召开创造安全稳定的社会环境。', '百警破现案245起以上，打处130人以上。命案现案破案率、综合破案率分别达95%和110%以上。破获毒品案件数、打处数同比提高20%。摸排有价值的黑恶线索，对恶势力团伙犯罪露头就打。道路交通事故四项指标及万车死亡率稳中有降。重大火灾隐患全部提请政府挂牌督办，年底前整改销案率不低于90%。强化校车、监所和危爆物品管理，杜绝安全事故发生。', '进一步探索以证管人、以房管人、以业管人、以网管人、以人管人的实有人口管理模式。强化流动人口管理，搭建流动人口管理站，设立流动人口、出租房屋专管员。建立重点人员协同管控和预警信息核查机制，实行重点人员多轨迹联控和动态掌控。推行监所在押人员纳入医保范围工作。强化入境外国人动态管控，加大外国人住宿登记信息采集，24小时录入系统。推进户籍制度改革，实行居住证制度，推行流动人口“一卡通”。二要完善内部单位防控。6月底前，治安保卫重点单位内部保卫机构设置和专职保卫人员配备达到100%。以金融、学校、涉枪涉爆等单位为重点，全面落实人防、物防、技防措施，严格执行重点部位值班守护制度，普及建立视频监控、自动报警设施。强化校园安全管理，按照“一校一名警察、一个警务室、一支护校队、一套防护装备、一套视频监控、一键式报警、一个安全宣传画廊、一个门卫出入登记”的标准建设。年底前，全市中小学校、幼儿园全部建立校园警务室，派驻民警及协管员。三要完善行业场所管控。强化行业场所信息采集，做到经营情况、从业人员情况等基本信息底数情、情况明。强化行业场所清理整顿，严格行业场所经营资格审查，严格监督、落实行政审批、备案登记、安全管理等制度。积极推进行业场所实名登记制度，推进行业场所治安管理信息系统建设。', '加快推进业务用房建设，力争年内破土动工。加强社区（驻村）警务室建设，8月底前覆盖率达到100%。加强治安卡点建设，年内三级和临时卡点建设要全部完成，配齐警力，配强装备，完善方案，加强演练，实行24小时执勤。二要加快天网工程建设。6月底前，343个集城市监控、电子抓拍、交通卡口于一体的天网工程全部竣工。提请市政府通过招聘文职雇员的方式，建立视频监控员值班制度和设备日常维护机制，确保24小时巡查和系统正常运行。三要加快科技平台建设。推进情报平台、警综平台和警用地理信息平台“三大”平台基础信息采集录入，建立信息共享、合成作战的模式。重要基础信息采集率、录入率、上传率、准确率、及时率达到100%，警用地理信息平台标准地址采集达到40%。积极探索网上排查、网上破案、网上追逃等信息化技战法，着力提升打击效率和质量。加强虚拟社会管理专业队伍建设，落实互联网单位安全管理责任，强化网上重点组织、重点人员控制，严厉打击多发性网络违法犯罪。', '建立矛盾纠纷主动排查、及早发现、迅速化解、逐级上报的工作机制，实行多调少裁、多调少罚，减少民转刑案件发生。加强重点信访案件专项治理，强化信访重点人员、重点群体稳控，全国“两会”、党的十八大和省第十次党代会召开期间，坚决防止发生去省进京访。二要推进公共管理服务。深化行政审批制度改革，推行一窗式、一站式、预约式服务。10月底前，出入境实行出入境证件照片网上检测，护照异地申请，港澳游签注再次申请立等可取。积极落实建设工程消防设计、施工质量和审核验收终身负责制。落实全省统一实行的行政审批网上直通服务，实现规范操作。6月底前，网上公安局、网上派出所、网上警务室、公安QQ群和民警微博等新型警民互动平台全部建设完成。三要推进三访三评活动。要按照公安部、省公安厅和通化市局的统一部署，深入组织开展好以访问民情、访察民意、访排民忧和评议工作、评查问题、评选先进为主要内容的“三访三评”深化“大走访”活动，实实在在地帮助群众解决一批实际困难，化解一批矛盾纠纷，整改一批隐患漏洞，破解一批难点问题，实现“三升三降三提高”的工作目标。局领导和所队长每人走访要不少于10人，基层民警每人走访不少于20人，派出所和城乡社区民警每人走访不少于30人。', '以“吉林公安文化年”活动为载体，进一步加强精神文化、思想文化、制度文化、行为文化和环境文化建设，组织开展丰富多彩的文学、摄影、书画、音乐、体育等活动，真正将公安队伍勇于担当、能文能武的鲜活形象展现出来，进一步增强民警的职业归宿感和职业自豪感。二要加强能力建设。要以适应本职、精通本职、胜任本职为标准，本着干什么、练什么，缺什么、训什么，差什么、补什么的原则，围绕执法办案、公文写作、舆情引导等应知应会内容，加强日常练兵和集中考试，并作为干部调整和使用的重要依据，促进全警养成自觉学习、终身学习的良好习惯。三要加强廉政建设。要进一步加强纪检、督察、审计监督建设，增强公安条例条令的贯彻力和执行力，严防违法违纪案件，落实行政问责制度，群众实名投诉案件核查结案率和反馈率要达到100%。要继续落实好民警休假、体检、维权和互助基金、特困救助等从优待警措施，有效解决民警后顾之忧。', '强烈的责任心是干好工作的前提和成就事业的根本。特别是作为领导干部，要时刻牢记职务意味着责任，权力意味着担当。在其位就要谋其政，有位置更要有作为，绝不能脑子空空、无所事事，当糊涂官、打糊涂仗。要竭心尽力。全局工作要看党委班子，部门工作要看科所队长。作为领导干部不仅要当好指挥员，把时间花在研究工作上；更要当好战斗员，把精力用在推动落实上，抓紧每一天，干好每件事，确保问题不解决不放手，工作完不成不罢休。要身体力行。领导就是旗帜，领导就是方向，是一切工作得失成败的关键。因此，作为领导干部要敢于负责，勇于担当，身体力行，树立导向，遇到问题不上交，碰到矛盾不回避，面对困难不退缩，对于分内工作要主动作为，对于全局工作要当好参谋，绝不能推一推、动一动，事不关己、高高挂起。', '讲政治是公安机关的第一纪律和第一要求。特别是各级领导干部要坚决反对当面一套、背后一套，当面不说、背后乱说，破坏和影响班子团结。要严格执行民主集中制，在民主上讲广度，在集中上讲深度，确保科学民主正确决策。', '有无大局观念是衡量一名领导干部政治成熟与否的重要标志。对于每名领导干部，我们都要时刻以公安事业为重，不以个人得失为重；以党性原则为重，不以个人好恶为重；以履职尽责为重，不以手中权力为重，多信任、少猜疑，分工不分家，补台不拆台。', '海纳百川，有容乃大。作为每一名领导干部都要善于换位思考，讲究相互包容，思想上求共识，工作上求共进，感情上求共融，真正做到优点互相学习、经验互相借鉴、问题互相提醒、意见互相沟通 ，在合作共事中增进了解，在团结奋进中保持和谐。', '抓落实是领导水平和工作能力的具体体现。对此，各级领导干部要加强学习，增长抓落实的本领；要深入调研，转变抓落实的作风；要勤于思考，提升抓落实的能力，真正增强适应本职的新能力，拿出推进工作的新思路，使出破解难题的硬招法。', '公安工作职能宽泛，业务繁杂，如不系统规划，必定顾此失彼，漏洞百出，甚至造成工作上的重大失误。对此，要进一步完善机制，增强公安工作的系统性、稳定性和连续性，', '特别是要将已经被实践证明了的道路交通管理、消防分级管理、行业场所管理以及不安定因素滚动排查等成功做法经验化、制度化，形成一以贯之抓落实的长效机制。', '政工监督室要进一步细化考评内容、考评标准，加快频率，季度考评；指挥中心要围绕中心工作、重点工作，每月调度，跟踪督导，加快工作节奏，加大工作力度。在此基础上，不管队伍建设还是业务工作，分管领导要与分管部门连带捆绑，责任共担，荣誉共享，真正做到责权利高度统一。', '没有调查，就没有发言权，更没有领导权和指挥权。对此，每名领导、每个部门都要结合工作实际，深入组织开展一次大调研活动，系统总结、深入思考、有效破解困扰公安工作源头性、基础性和根本性问题。今年，每名班子成员都要结合分管工作完成1篇有问题、有分析、有质量的调研报告。要勇于创新。思维决定思路，思路决定出路。当前，我们个别领导干部习惯用老眼光看待新问题，用老办法解决新矛盾，导致思想撵不上形势，工作跟不上节拍，部门工作缺乏创新，条线工作滞后发展。对此，要打破经验主义和惯性思维，善于比较借鉴，勇于探索实践，扎实推进社会管理创新。今年，每个部门都要结合工作实际，确立1个创新项目，并要有所突破。要争创一流。志当存高远。只有高标准定位，才能高标准工作，才会不断晋级升位。对此，我们必须认真总结和全面发扬“清网”精神，放眼通化、定位全省，一步一个台阶，一年一个目标，咬定青山不放松，不达目的不罢休，以敢于超越的勇气、不甘落后的志气、务求全胜的豪气，挑战自我，挑战极限，争先进、站排头。', '同志们，兔年回顾，硕果盈枝，亮点纷呈；龙岁展望，士气昂扬，信心百倍。让我们在市委、市政府和上级公安机关的领导下，团结奋进，开拓创新，以优异成绩迎接党的十八大胜利召开！', '新春佳节就要到了。借此机会，我代表公安局党委向全市公安民警、武警官兵及家属，向全体离退休老领导、老同志拜个早年。祝大家新春快乐，阖家幸福！']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>52</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>二道江区教育局年干训工作计划</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2008-04-03</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.thedjjy.com/jyyj/gxsp/201705/t20170522_84714.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['在全区“十一五”中小学校长继续教育五年规划的总体框架下，全面落实《通化市教育学院2008年工作要点》及《二道江区教育局2008年工作要点》、《二道江区2007—2008年中小学教师素质提升工程整体规划》精神，构建具有我区特色的中小学校长及后备干部的培训体系。继续加大中小学校长培训工作力度，在培训内容上要新颖实用，理论联系实际；在培训方法上要灵活多样，与时俱进；在培训目标上，着力建设一支胜任新时期教育事业发展的高素质、专业化的校长队伍。', '2008年工作要点》及《二道江区教育局2008年工作要点》、《二道江区2007—2008年中小学教师素质提升工程整体规划》精神，构建具有我区特色的中小学校长及后备干部的培训体系。继续加大中小学校长培训工作力度，在培训内容上要新颖实用，理论联系实际；在培训方法上要灵活多样，与时俱进；在培训目标上，着力建设一支胜任新时期教育事业发展的高素质、专业化的校长队伍。', '1、按照国家教育部《干部教育培训工作条例（试行）》的要求，认真抓好中小学校长提高培训，确保校长和中层干部、后备干部参培率和合格率达到100%。', '2、结合实际，有效地开展中小学领导干部基础教育课程改革理论与实践培训，加强培训基地建设使其管理科学化、规范化，推进全区新课程改革的健康发展，促进教育教学质量的提高。', '3、进一步探索研究校长培训模式，加快校长职业化建设,按照不同岗位要求，采取灵活多样的形式，分类分层培训，提高培训实效。', '4、强化区干训领导小组、区继续教育办公室、学校干训工作领导小组三级培训网络的功能，分工协作，完善开放高效的校长培训工作体系。', '1、政治思想理论培训。包含通识性理论，如马列主义、毛泽东思想、邓小平理论以及“三个代表”重要思想等；时事性理论，如“科学发展观”和“构建社会主义和谐社会”重要思想等党和国家与时俱进召开的重大会议的文献、颁布的各项政策、文件精神。', '2、专业知识培训。包括教育与心理科学理论，特别是现代教育管理理论知识、素质教育理论知识、教育政策法规等。', '3专业能力培训。包括现代学校管理能力；现代信息技术运用能力、现代学校教育教学改革研究与实验能力等。', '按照省、市干训处的安排部署，结合我区中小学校长队伍实际，认真组织开展提高培训，注重理论联系实际，提高培训教学的实效性。以“问题—自学—探究—实践”为基本模式，做到理论联系实际，学用一致，增强培训的针对性和实效性，提高培训的质量与效率。', '积极贯彻落实吉林省《关于全面开展中小学校长信息技术培训的实施意见》，开展中小学校长信息技术提高培训的工作，努力提高中小学校长在学校管理中应用信息技术的能力，实现学校管理现代化的工作目标。切实做好中小学领导干部的信息技术培训和考核工作。', '3、邀请省市专家学者来我区讲学，提高校长理论素养，并创造机会到省市区典校学习，借鉴先进办学经验，充实完善办学理念。', '4、提升校长科研能力和领导科研的能力。要求各学校在 “十一五”期间，中层以上领导每人至少承担一项对学校管理、教学实践有指导意义的市级以上科研课题；每人至少在市级以上刊物发表有独到见解的科研论文1篇，鼓励校长结合工作实际和科研成果著书立说。适时进行表彰奖励，鼓励我区教育科研工作再上新台阶。', '1篇，鼓励校长结合工作实际和科研成果著书立说。适时进行表彰奖励，鼓励我区教育科研工作再上新台阶。', '通过全员提高培训，使中小学领导干部掌握全新的教育理念，提高他们的管理能力、科研能力和使用新技术能力。', '3、根据教育局中小学校长论坛实施方案，围绕“特色学校创建”等专题，开展校长论坛活动。', '要把培训者培训摆在中小学校长培训的先导地位。只有高素质的培训者，才能有高水平的培训工作。因此，要创造条件，通过多种渠道，采取有效措施，加大对干训工作的领导和干训教师的培训力度，创造条件使他们有更多的机会到外地考察学习，使他们率先更新观念，扩展知识，掌握现代信息技术，使他们掌握新时期中小学校长培训的特点和规律，以先进的培训理念、培训模式和培训手段指导培训工作，提高培训效率。在强化专职干训队伍培训提高的同时，建设一支高素质的兼职干训教师队伍，努力创造条件，为兼职教师提供学习提高的机会，加强对他们的培训提高，充分发挥他们在校长培训中的作用。', '在区级以上培训的基础上，各中小学校要重点开展校本培训。结合中层以上领导的工作实际和需要开展针对性强、实用价值高的校本培训。校本培训课时为16学时。培训教材：省、市编写的《中小学管理案例》、《现代校长》。', '在区级以上培训和校本培训的基础上，要开展个体自培。针对自己知识结构和工作实际需要，自学有关专业知识和教育理论等内容。自学笔记1万字以上。自学课时为20学时。', '1、召开干训工作会议。布置全年干训工作任务，完成省市下达的培训任务。培训课时为48学时，其中区级以上培训12学时；校本培训16学时；自学20学时。', '4、继续充实、完善中小学校长信息资源库，发挥“通化市中小学校长信息资源库”功能。每年充实更新一次资源库内容，真正实现市、区资源共享和干训管理工作现代化。', '5、深入基层学校，召开座谈会进行实地调研。了解校长们的需求，调整培训内容，增强培训针对性。', '6、加强干训工作档案建设。基层各单位要建立健全文字档案和电子档案，做到管理规范化、科学化、实用化。档案资料有专人负责，认真记载、整理和统计，及时存档。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>52</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>年政府工作报告</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2012-12-15</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.jlbc.gov.cn/xxgk_3148/gzbg/201705/t20170525_64761.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['1999年是不平凡的一年，是我们战胜前所未有的困难，经济社会发展取得重大胜利的一年。1998年历史罕见的特大洪灾给全市经济社会造成了重大损失，给我们的工作带来了很大困难。面对严峻的形势和艰巨的任务，在省委、省政府和市委的领导下，在市人大依法监督和市政协民主监督下，全市各级干部和广大人民群众，进一步解放思想，不屈不挠，迎难而上，奋力拼搏，战胜了各种困难，夺取了经济社会发展的新胜利，白城面貌又发生了较大的变化。全市国内生产总值完成70亿元，比预期目标高3.7个百分点，同比增长16.5％，其中第一产业增加值完成30亿元，同比增长26.6％；第二产业增加值完成18亿元，同比增长14.5％；第三产业增加值完成22亿元,同比增长8.6％。全社会固定资产投资完成16.93亿元,同比增长90.1％。全市一般预算全口径财政收入完成51476万元，同比增长8.5%。农村居民人均纯收入实现1503元，虽比上年增长37.1%，但因农业受灾、粮价调整等因素影响，没有达到预期目标。城镇居民家庭人均可支配收入实现3719元，比上年增长11.3%。我市GDP、固定资产投资、城市基础设施建设、招商引资到位资金、第一产业增加值、农村居民人均纯收入、城镇居民家庭可支配收入的增长幅度和赴“两省一市”经贸洽谈签约资金到位率等八个方面在全省居第一位。', '——内外贸易民营经济发展较快。全市社会消费品零售总额实现38.7亿元，同比增长2.5%。销售粮食58万吨，为省计划的235%。开发生产的吉鹤、鹤城品牌系列香烟，营销形势很好，去年4月上市后，共销售了3597件。吉鹤牌香烟被确定为创“吉林省名牌”的重点品牌，吉鹤、鹤城牌系列香烟已正式被纳入吉林省烟草行业市场开发跨世纪宏观发展战略。全年外贸出口额1650万美元，为年计划137.5%。物资工作积极适应市场，经济效益有了提高。全市个体工商户发展到11.7万户、私营企业发展到554户，同比分别增长20.4%和30%。新建了洮北民营经济发展区。在开发区开辟了民营工业经济园区。', '——基础设施建设又取得新成就。继续开展了城市开发建设管理总体战，全市城市建设共投资8.3 亿元，是上年的2.6倍。其中市区投资7.8亿元，是撤地设市以来投资总额的11.8倍。共建设了八大工程，重建了白城火车站；修筑了二环路及11条街路；开发了11个住宅小区，新建住宅楼115栋，38.5万平方米；修建了森林公园；按总体规划完成了环城林果园、运河带状公园的植树、护坡砌筑和景区绿化工程；建成了抗洪胜利纪念塔；完成了三水厂一期工程，新增日供水能力3万吨。镇赉拓宽了南湖街和永安东路，洮南拓宽了北出口道路，通榆新建了街心广场，大安硬化了市区次干路。在全市广泛开展了“国庆行动”，市区重点开展了以整顿市容为重点的九大治理行动，各县（市）都结合实际积极行动，加大城镇环境治理力度，市容市貌发生了明显变化。', '公路建设投资2.6亿元，完成了361公里的建设任务，工程总量突破了历史最高水平，进一步改善了全市交通条件。', '——各项社会事业获得长足发展。积极实施科教兴市战略，扶持发展高新技术企业，搞好农业科技服务，开发了17种高新技术产品，推广了10项农业新技术。新组建了白城师范高等专科学校分校和白求恩医科大学白城医学院，筹建白城职业技术学院，结束了白城没有地方大学的历史。农村重建了208所水毁校舍，维修了240所校舍。重建了23所农村卫生院，积极开展防疫灭病工作，实现了大灾之后无大疫。计划生育工作在省内位次前移，人口出生率、自然增长率、计划生育率三项指标完成了省下达的计划。广播电视宣传质量明显提高，基础设施进一步改善。围绕抗洪胜利一周年和国庆50周年广泛开展了社会大文化活动。体育事业取得了突破，在"99北京长城国际马拉松赛男子5公里项目中，我市运动员获金牌。加强了双拥工作，我市被命名为省级双拥模范城。认真执行党的民族政策，加强了民族团结。积极开展宗教、侨务工作。老龄、妇女儿童、残疾人事业有了新的发展。人防、地震监测、档案、地方志等工作都取得了新的成绩。', '——人民生活水平有了较大提高。全市农民人均纯收入、城镇居民家庭人均可支配收入都比上年有较大幅度增长，城乡人民生活条件得到了一定的改善。投资1.33亿元，扶持25万人脱贫。投资22.83亿元，进行新村建设和村屯改造，其中灾后建新村投资22.7亿元，建成新村242个，建房756万平方米，12.6万户灾民喜迁新居。新建房基本实现了砖瓦化，农村住房砖瓦化率由1997年的25.5%提高到38%。村屯改造规划开始启动，市和各县（市、区）都抓了村屯改造试点。乡村道路、绿化、自来水、供电、邮电、有线电视等都有新的发展，全市农村向小康目标迈进了一大步。', '——民主法制建设继续得到加强。各级政府自觉接受人大的依法监督和政协的民主监督，定期向人大常委会报告工作，保持同人民政协及各民主党派的联系，邀请人大代表、政协委员视察重点工作进展情况。去年共承办市人大代表建议53件，政协提案90件，已全部办理完毕。深入开展普法教育，增强了干部群众的法律意识和依法办事的自觉性；成立了政府法律顾问团；进一步完善了行政执法监督机制，提高了行政执法队伍的整体素质和依法行政水平。', '1、深入解放思想，形成加快发展共识。我们认真贯彻落实党的十五届三中四中全会、省委七届二次全会和市第二次党代会精神，把进一步解放思想，转变观念，作为加快发展的首要任务和根本性措施。去年伊始召开了全市党员干部大会，提出卸掉六个包袱，强化六个观念。举办了解放思想，加快发展大讨论活动，提出在十二个方面解放思想。为推动解放思想，先后召开了效益农业、出国经贸洽谈、赴“两省一市”经济技术合作等联系实际解放思想报告会10余次。各级干部和广大群众在加快发展上形成了共识，思想更加活跃，思路更加开阔，干劲更足了。', '2、以效益为中心，提高经济运行质量。面对灾后农村的各种困难，我们围绕实现一年受灾一年恢复的目标和农业增效、农民增收、财政实力增强、农村社会稳定的主要任务，加强了对农村工作的领导，强化了各项措施。春耕期间，针对存在的问题，深入开展了“六抓六查”活动。实施了万元田（棚）工程，去年全市共发展万元田(棚)18233户,占农户总数的6.68％，比计划增长30％，总收入达21678万元，用1.4％的耕地，创造了7％的农业纯收入。按照市场需求，因地制宜地调整农村经济结构，普通玉米面积减少了100万亩，高效特产经济作物面积增加，粮经作物比例由上年的8:2调整为7:3，出现了一批烤烟、辣椒、地瓜、土豆等特色农业乡镇典型。注重市场开发，搞好产销衔接，签订农畜产品产销合同3万多份。各类农民协会和专业合作组织由上年的21个发展到233个。加强农田水利基础设施建设，改变灌溉方式，新增节水灌溉设备2129台（套），新增控制面积28.7万多亩，苗期灌溉能力达到380万亩。生态示范区建设开始启动，主要建设工程规划经过反复论证已经确定，正在付诸实施。我市农业已开始由传统粗放农业向集约农业、特色农业、契约农业、生态农业和水利化农业转变。', '以“两改一加强”为主要内容，着力抓了较大企业脱困，中小企业搞活。进一步加大了企业技术改造力度，全市开工建设项目69个，已建成60个，完成投资2.7亿元。开发新产品112种，具有省内先进水平的20种。大力搞好市场开发，实施品牌战略，选择20种产品塑造品牌形象。我市工业经济已开始由恢复性增长向持续健康发展转变。', '积极贯彻中央扩大内需的政策，采取有力措施，促进消费,进一步搞活流通。重点加快市场建设，市区完善了建材、果品、蔬菜市场，改建了瑞光南街市场，新建了新世纪广场、批发大世界、白城蔬菜批发市场，开辟了不夜城一条街。各县(市)也新建和完善了一批专业市场，进一步活跃了商品流通。', '加大了财政增收节支力度。在开发、涵养、培植税源的同时，积极组织财政收入，实现了均衡缴库，超额完成了全年财政收入计划，保证了重点支出，实现了收支平衡略有结余。加强了审计和财税督查工作，查处了一批财经违纪问题，维护了财经秩序。', '3、坚持改革开放，增强经济发展活力。我们把改革作为加快发展的动力，积极推进企业改革。全市已完成改制的国有工商企业719户，占国有工商企业总数的 95.2%。38户较大国有工业企业，已改制22户，卸掉债务39245万元，平均资产负债率由改制前的105%下降到81.1%。加快启动小城镇综合改革，深化粮食流通体制、教育体制改革，大力推进商业、供销、外贸企业和乡镇企业、国营农林牧渔场(站)改革。试行管理体制改革，组建了药品监督局、城镇规划局、控股公司、知识产权处和城市管理监察支队。', '积极组织实施省委、省政府提出的开放带动战略，进一步扩大开放，坚持走出白城解放思想、走出白城认识白城、走出白城宣传白城、走出白城发展白城。市、县领导，乡村干部走出去，许多农民也自发地走出去，到发达国家和国内先进地区学习考察，搜集信息，广交朋友，寻求合作。去年全市共组织各种学习考察团100多个,走出去的各级干部2000多人次。', '全面推进开发区建设。白城经济开发区实施项目22个，其中新开工项目15个，结转项目7个。完成投资额1.69亿元，同比增长123％。实现产值2.56亿元，同比增长2.6倍。以启动快、建设效果好而吸引了众多投资者，成为全市新的经济增长点。', '4、主动招商引资，多方争取建设资金。我们把借助外力、大搞招商引资作为加快白城经济社会发展的主要措施，加强组织领导，采取敲门招商、网上招商、联谊招商等多种形式，广泛开展经济技术合作，引进了项目和资金。全市合同利用域外资金18.5亿元，到位15亿元，同比增长37.1%。', '抓住国家实行积极的财政政策，扩大内需，加大投入的机遇，各级领导多次向国家和省有关部门主动汇报工作，加强联系和沟通，征得支持和帮助。一年来，通过多种渠道，向国家、省争取项目237个、资金7.28亿元，其中无偿资金2.65亿元。为经济建设和各项社会事业发展提供了重要保证。', '5、关心群众利益，维护社会稳定局面。我们认真处理改革、发展、稳定的关系，积极营造稳定的社会环境。加大再就业工作力度，积极开辟就业渠道。全市国有企业有13500人实现了出站再就业。多渠道筹措资金，保证了养老金和失业保险金的发放。按照中央[1999]12号文件精神和省的要求，完成了调整城镇中低收入居民收入工作。认真接待、处理群众来信来访，全年共接待群众来信来访41449人次，结案率达76%。实行政务公开，设立市长公开电话，加强了同群众的联系。', '按照中央和省的部署，有力地开展了取缔“法轮功”邪教组织的斗争。强化社会治安综合治理，深入开展“打黑除恶挖团伙”专项斗争，严厉打击各种违法犯罪活动，全市共破获各类刑事案件1468起，维护了安定团结的局面。', '6、加强机关建设，推进政府职能转变。新一届政府组成后，努力实现“五个转变”，即转变观念、转变会风、转变文风、转变作风、转变职能，做到“五个加强”，即加强学习、加强团结、加强纪律、加强税收意识、加强廉政建设。全面开展了政务公开，制定了市政府政务公开实施方案。完善了政府领导班子工作规则、政府工作制度，提高了决策水平和工作透明度。', '加强行政监察工作，狠抓领导干部廉洁自律，深入开展纠风专项治理，严肃查处违法违纪案件，认真解决群众反映突出的问题。去年市直机关公务招待费比上年下降8.2%。', '按照省委部署，在市委领导下，市政府领导班子和领导干部，开展了“三讲”教育，认真学习理论，深入自我剖析，积极开展批评与自我批评，查摆问题，深挖根源,边整边改，增强了班子的凝聚力和战斗力。', '回顾过去的一年，市政府的各项工作都取得了较大的成绩。我代表市政府，向为白城经济和社会发展做出积极贡献的广大工人、农民、知识分子、干部及各界人士，向对我们工作给予大力支持和配合的中国人民解放军、武警驻白部队官兵和公安干警及电力、铁路、邮电、金融、保险、税务、工商、商检、技术监督、气象、石油、烟草、大中专院校、科研院所等中省直驻白单位，向对我们的工作给予关心和帮助的离退休老领导、老同志，表示衷心的感谢！', '在肯定成绩的同时，我们也清醒地看到，我市经济社会发展还存在许多亟待解决的问题，主要是：经济结构调整进展还不够快，所有制结构、农村经济结构、工业经济结构、个体私营经济结构不合理问题仍比较突出；农业生产条件差，抗灾能力弱，如何适应市场、增加效益的问题，尚未从根本上得到解决；工业规模小、总量少，一些企业还处于亏损状况，国企脱困任务还很艰巨；个体私营经济多为小本经营，规模不大，水平不高；招商引资的数量不多，档次偏低，缺少能带动全市经济增长的大项目和高科技项目；市场需求不旺，物价持续走低；财政收入形势严峻，收支矛盾突出；粮食收、储、销和补贴困难很多，压力很大;下岗职工再就业任务繁重，“两个确保”工作还有差距；经济发展软环境还不宽松，乱摊派、乱收费、乱罚款的现象仍有发生；各种社会矛盾仍然很多，稳定的问题不可忽视；社会事业欠账较多，城乡人民群众的生活水平和质量还相对较低；一些行政执法部门工作人员依法行政意识淡薄，行政行为违法问题时有发生；少数公职人员还存在官僚主义和消极腐败现象；形式主义、虚报浮夸以及行业不正之风等问题还不同程度存在。对上述问题我们已予以高度重视，将在今后的工作中认真加以克服和解决。', '2000年是世纪交替之年，也是“九五”计划的最后一年。我们面临新的发展环境。世界经济发展形势趋好，正在进行经济结构大调整，科技进步突飞猛进，新兴产业迅猛发展，经济全球化进程加快，国际经济竞争日益剧烈。我国市场供求格局发生了根本性变化, 买方市场初步形成，即将加入世界贸易组织。中央继续实行扩大内需政策，实行经济结构调整，实施西部大开发战略，掀起了新一轮发展热潮。全省各地都在制定措施加快发展。我市作为欠发达地区，必须审时度势，抢抓机遇，乘势而上，以新的成绩迎接新世纪。做好今年的工作，对于白城在新世纪步入发展快车道，实现经济振兴和腾飞具有重要意义。我们深感使命光荣、责任重大。', '按照省委、省政府的安排部署，根据市委二届二次全会精神，今年政府工作总的思路是：以邓小平理论和党的基本路线为指导，深入贯彻落实中央经济工作会议和省委七届三次全会精神，坚持以经济建设为中心，以改革统揽全局；继续实施开放带动、科教兴市、县域突破三大战略；以优化结构、扩大总量、提高效益为基本任务，加快“兴工富市”步伐，强化农业基础地位，繁荣活跃第三产业；努力开拓新的经济增长领域，加快开发区建设，超常发展民营经济；大力改善经济发展环境；加强精神文明建设，促进各项社会事业全面进步；抢抓机遇，积极谋划未来发展，推动全市经济社会持续快速健康发展。', '第一，坚持解放思想，大胆创新勇于实践。江泽民总书记指出，“创新是民族的灵魂。”面对经济全球化的大趋势，市场经济的新形势，没有创新精神，思想落后、观念陈旧、僵化保守，就不可能成为市场竞争的强者，就不可能有超常发展，就难以缩短与先进地区的差距。我们必须进一步解放思想，以开阔的眼界、开放的思维、创新的精神，处理好改革和发展中出现的新情况、新问题，实现全市经济跨越式发展。', '第二，坚持以改革统揽全局，解决发展中的深层次问题。改革是发展的动力。只有深化改革，破难攻坚，才能做好各项工作。因此，必须坚持以改革统揽全局，用改革的思想指导各项工作，把改革贯穿于加快经济社会发展、促进结构调整、推动科技进步、扩大对外开放、发展县域经济等各个方面。着力解决国企改革脱困、下岗职工再就业、农村扶贫攻坚、社会事业发展滞后、发展软环境不宽松等深层次矛盾和问题，以增强经济发展活力。', '第三，坚持面向市场，调整优化经济结构。经济结构不合理是我市经济运行中带有共性的问题。调整和优化经济结构，是全市经济发展中的一项突出任务。必须下大力量调整所有制结构、区域经济结构、农村经济结构、工业经济结构、产业布局结构、企业组织结构、市场结构、科技教育结构，提高经济的整体素质和竞争力。', '第四，坚持可持续发展，实现经济社会环境效益的统一。在新世纪的发展竞争中，必须树立新的发展观。要把生态环境建设与经济建设有机结合起来，依托我市良好的生态条件和基础，建好生态示范区，发展生态环保型效益经济，努力实现经济、社会、环境三个效益的高度统一，促进可持续发展。', '第五，坚持党的宗旨，努力提高人民生活水平。全心全意为人民服务是我们党的宗旨，关心群众生活是各级政府的重要责任。我们想问题、作决策、办事情，都要考虑群众的利益，把群众是否满意，能否提高人民群众生活水平作为最高标准。我们既要加快改革，又要妥善处理所涉及的群众利益问题；既要促进经济增长，又要切实使人民群众取得实实在在的利益。', '第六，坚持两个文明一起抓，全面履行政府职责。坚持两个文明一起抓是我们党的基本工作方针。在坚持以经济建设为中心的同时，我们要抓好精神文明建设，加强思想政治工作，提高人民群众的思想道德素质和科学文化素质，抵制腐朽堕落思想的侵袭。进一步强化民主法制建设，坚持依法行政，更好地履行政府职责。', '认真贯彻中央四中全会精神，深化企业改革。按照中央“有进有退、有所为有所不为”的指导方针，抓紧制订我市国有经济布局调整和企业战略性改组总体规划及具体实施方案。今年力争各类国有企业全部实现改制。60%以上的较大企业要按照对国家不欠税、对社会不欠保险金、对职工不欠工资、对企业不欠折旧费和不亏损的“四不欠、一不亏”标准，实现脱困。为此，要加大困难企业重组力度，在妥善安置职工的前提下能出售的出售，能兼并的兼并，能分立的分立。充分利用国家核呆的机遇，下决心立即对一批资不抵债、长期停产半停产、扭亏无望的企业实施破产重组。列入公司制改制规划的企业，年内必须完成改制任务；已经完成公司制改革的企业，要抓紧规范完善。按照出资人、多元投资主体、法人治理结构、企业三项制度改革、新的企业效绩评价体系五到位的原则，积极建立现代企业制度。通过公司制改造、企业重组，培育专精特新的“小巨人”企业，在支柱产业和优势行业中组建一批企业集团，逐步建立起我市工业的支撑体系。同时要建立企业经营管理者激励和约束机制，加强企业家队伍建设。', '进一步搞好农村改革。稳定家庭联产承包责任制。加快农村服务体系建设，组织动员广大农民创办和加入各类协会、专业合作社。大力开拓市场，广泛搜集市场信息，搞好农产品产销衔接，扩大订单范围，确保农民增产增收。大力推进乡镇企业产权制度改革，今年上半年要把现有乡镇企业全部改制为民营企业。抓好国有农林牧渔场、供销社、农村站（所）改革，增强生存和发展的活力。', '抓好配套改革。重点完善社会保障制度，扩大保险覆盖面，探索新险种，拓展新的服务领域。强化各项基金的征缴和使用，确保离退休人员的基本生活。抓好城市公用事业(企业)单位改革，实行以费养业。深化城镇住房制度改革，加快已售公房和经济适用住房上市流通。', '做好政府机构改革工作。根据省的安排，市州级政府机构改革要在省级政府机构改革基本完成后进行。这次政府机构改革，是历次机构改革力度最大的一次，职能转变、机构调整、人员分流的任务很重。要精心组织，扎实推进，注意保持工作的连续性和正常工作秩序，确保机构改革顺利进行。', '结构调整是大势所趋。我国加入世贸组织对我市调整经济结构既有机遇又有挑战。我们要抓紧研究和采取应对措施，加快经济结构调整。', '调整产业结构，加快工业发展步伐。工业是国民经济的主导，是国民经济现代化的重要物质技术基础。我市经济总量小、财政收入少主要是工业在三次产业中的比重小，规模不大、效益不高。市委二届二次全会做出了“兴工富市”的决定，把加快工业发展作为经济工作的重点，举全市之力，发展工业经济。今年，全市工业总产值要增长16.5％；工业增加值要增长16.4％；工业企业要实现整体扭亏。', '要树立新的工业发展观念。面向市场，讲究效益，动员全市力量，实行多种经济成份、多种形式办工业。既要搞活现有企业，又要大力培育新的经济增长点；既要发展壮大国有企业，又要发展民营企业；既要上大项目，又要发展产业化、专业化分工协作项目；既要发展壮大支柱产业、骨干企业，又要积极发展小企业群体；既要发展培育新技术产业，又要发展传统产业。今年的工作重点是实施两个攻坚，培育五个一批，抓好八个十，即实施全市工业整体扭亏攻坚，行走机械大配套攻坚；培育一批企业集团、一批“小巨人”企业、一批创汇企业、一批高新技术产品、一批地方品牌产品；抓好10大技改项目、10大招商项目、10大农业产业化开发项目、10大新产品开发、10个增盈大户、10个扭亏大户、10个经济增量大户、10户个体私营工业企业。要突出抓好环保项目的开发实施。以开拓新的增长领域，培育新的经济增长点，扩大工业规模，增加经济总量。要大力开拓国内外市场。经济综合部门、管理部门要为企业提供产品供需信息，帮助企业沟通渠道、衔接客户。企业要走出去，参加各种产品交易会、展销会、洽谈会。继续实行同质同价优先采购地产品的政策。把精兵强将派到营销岗位上，加强销售队伍建设。', '调整农业结构，发展生态效益农业。面对农副产品相对过剩、市场约束增强的新形势，今年全市的农业工作，要坚持以市场为导向，以科技为支撑，以“三增一稳”为主要任务，加大农业结构调整力度，推进农村经济全面发展，确保实现“一二三四”的奋斗目标。即农业为财政提供的收入达到1亿元，同比增长37.8%；人均收入达到2000元，同比增长33%；农业增加值达到32.4亿元，同比增长8%；粮食产量调控在40亿斤左右。', '调整农业结构要面向市场，因地制宜，选准主攻方向，发展特色经济。稳定发展种植业，大力发展畜牧业、林果业、水产业和多种经营。搞好退耕还林、还草、还湖，逐步实现“三个一千”，即耕地1000万亩，林地1000万亩，草原1000万亩。种植业要从粮经二元结构向粮经饲三元结构转变。要压缩常规品种，特别是普通玉米面积，发展优质高效特产经济作物，发展绿色品牌食品。大力发展畜牧业，搞好粮食过腹转化；积极发展加工业，搞好农副产品加工转化。加快引进、选育和推广优良品种，逐步实现农畜产品的优质化。', '实施万元田（棚）工程，是调整农业结构，发展效益农业的有效途径。要按规划稳步推进，今年要完成累计15%的发展目标。继续落实领导领建、部门帮扶责任制，加强技术服务，搞好产销衔接。同时巩固已建成的万元田（棚），使其发挥更大的效益。', '建设生态示范区，既是可持续发展的需要，也对调整农业结构具有重要意义。今年的水利工程重点抓好江河堤防重点段建设达标和灌区建设。加强抗旱水源建设，突出抓好节水灌溉，全市新打机电井3400眼，新增节水灌溉设施1600台(套)。造绿工程要完成造林任务88万亩。绿色食品工程重点建设20个生产基地、5个加工基地，开发20种绿色食品。绿色家园工程、农田沃土工程、湿地保护工程、小流域治理工程、环保节能工程都要按总体规划，高标准、高质量地积极组织实施，确保完成阶段性任务。', '调整所有制结构，超常发展民营经济。民营经济是国民经济的重要组成部分和新的增长点。要进一步解放思想，转变观念，把只囿于抓国有企业转为面向全社会各种所有制企业上来。今后办企业，不再办国有企业，重点发展民营企业。今年个体工商户、私营企业，要比上年分别增长20%和30％。要在国有经济布局调整和国有企业改组中，就地转制一批；推进科研机构改革，鼓励科技人员领办一批；利用发达省份私人资本向中西部转移的机遇，积极引进一批；支持机关分流人员和企业下岗职工自办一批；在实施县域突破中，引导农民创办一批。要加大鼓励和扶持力度，进一步落实好各项政策，支持民营经济上规模、上水平。', '调整市场结构，搞活商贸流通。今年要新建一批专业市场，巩固提高、调整改造一批现有市场。重点建设农副产品批发市场、汽车配件市场、建材和装潢材料市场；完善批发大世界、新世纪购物广场、白城蔬菜批发市场、白城果品批发市场、青年街综合批发市场，大安西柳服装、水产品和渔网具批发市场，洮南杂粮杂豆、服装面料、鞋业批发市场，镇赉柳编、水产品市场，通榆牲畜交易市场。同时全面规划启动各类要素市场。落实国家扩大内需政策，积极促进消费需求，大力发展旅游、健身、休闲、娱乐等产业，支持和引导居民消费投向住房、教育、汽车、电信、计算机等新热点。加强营销力度，抓好吉鹤、鹤城牌系列香烟，酒类系列产品，工业品、农产品、绿色食品和粮食销售。整顿市场秩序，创造公平合理的经营环境。加强畜禽屠宰管理，让人们吃上“放心肉”。坚决打击假冒伪劣产品，维护消费者的合法权益。', '抓好财政增收节支。今年财政收入任务很重。国税要增长5％，地税要增长16.6％，财政要增长16.3％。因此要加强征管工作，明确责任，层层包保，确保均衡缴库。坚持过紧日子，严格控制支出。结合机构改革，压缩财政供养人员。全面推行政府采购制度。严控会议、公用车、电话费用支出，凡财政拨款的会议，由财政部门派员驻会，直接结算。加大审计、财税督查力度，严肃财经纪律，维护财经秩序。金融部门既要防范金融风险，又要支持基础设施建设和企业技术改造，积极为有市场、有效益的企业融通资金，促进经济增长。', '今年是“九五”计划的最后一年，要按照省委、省政府的部署，研究制订我市“十五”发展计划。突出战略性、宏观性、政策性和指导性，把工业化、城市化作为“十五”期间的战略任务，把发展生态环保型效益经济、促进可持续发展列为重点内容，紧紧把握未来发展趋势和市场变化，积极谋划跨世纪发展。对已制订的工业、农业、市场建设、社会事业、科技、教育发展规划，要明确责任，落实任务，组织实施。', '要继续加大开放的深度和广度,借助外力加快发展。今年全市招商引资到位资金要达到19亿元,同比增长26.7%。要加大宣传力度，采取各种有效形式，大张旗鼓地宣传白城，提高白城的知名度。要进一步落实招商引资政策，扩大招商引资范围，提高招商引资质量，既要引资也要引智，积极引进人才、技术和管理。坚持领导带头，动员全社会力量，走出市门、国门，采取多种形式招商引资。', '加快开发区和民营经济发展区建设。充分发挥白城、大安经济开发区的窗口作用，抓紧培育新的经济增长点。对开发区要实行封闭管理，制定完善优惠的政策，为投资者创造宽松的软环境。要以招商引资、重点项目建设、功能园区建设、基础设施建设为重点，在引进外资、发展高新技术产业、民营工业、精品农业方面实现新的突破。要建设好洮北民营经济发展区，搞好规划论证，出台优惠政策，广泛宣传，扩大影响，抓好第一阶段启动工作。', '借助当今生态旅游成为世界旅游的一大热点的有利时机，大力发展生态旅游业。我市有两个国家级自然保护区和丰富的旅游资源，有优越的生态旅游环境。要充分利用这一优势，加强旅游设施建设，建设一批新的旅游景点，开辟新的旅游路线，生产新的旅游产品。通过组织各种旅游活动办好“生态旅游年”，吸引国内外游客到白城旅游考察，促进白城经济发展。', '为群众谋福利是人民政府的使命和职责。我们要坚持把人民的利益放在第一位，从群众关心的问题入手，扎扎实实为人民多办实事。', '抓住国家扩大内需的机遇，继续开展城市开发建设管理总体战。全市计划投资11亿元，其中市区8亿元，安排18项重点建设，即二环路及路网续建工程、白城火车站站前广场、经济适用房、开发大厦、广电中心、文化中心、白城师专分校教学楼、白城医学院试验楼、公安交警指挥中心、白城客运中心站、吉鹤花园住宅、鹤原宾馆换建工程、第三水厂续建工程、西部供热站续建工程、城镇煤气改建工程、“三园”二期工程、植树种草绿化市区、维护市政环卫设施。其中二环路及路网续建工程、站前广场建设工程、经济适用房建设工程、广电中心建设工程、白城师专分校教学楼建设工程、公安交警指挥中心建设工程、西部供热站续建工程、“三园”二期工程、鹤原宾馆换建工程、市区绿化工程等10项建设为必保工程。各县（市）计划投资3亿元，建设25项基础设施工程。要加强工程管理，全面实施项目招标投标制，强化质量监督，确保建设质量。要进一步搞好城市规划管理和环境整治，落实目标和责任，搞好环境的监测和治理，积极发展环保产业，全面提高环境质量，使我市城区和各县（市）面貌再有一个大的改观，使人民群众的生活条件再有一个大的改善。', '加快小城镇建设步伐。坚持产业兴镇，发挥比较优势，培育特色经济。今年要重点抓好坦途镇、岭下镇、万宝镇、瞻榆镇等省级改革与发展试点镇。各地要集中力量扶持一批对县域经济有重要支撑作用的小城镇，使其成为县域突破的重要载体和新的经济增长点。要继续抓好新村管理和原有村屯改造的评比工作。', '搞好公路及配套设施建设，在突出国省干线建设的同时，要完成县乡连接线，修复水毁线，重点抓好图乌一级公路（白城段）、白城至镇赉二级公路国省干线工程建设。', '市场经济条件下的竞争，很重要的方面是经济环境的竞争。哪里环境好，资本、技术、人才就向哪里流动，哪里就发展快。当前我市经济发展软环境存在的问题还比较多。今年，我们要下力气搞好经济发展软环境建设。一要抓好政策、措施的落实。对有关促进改革和发展的政策、措施落实情况进行全面检查，坚决纠正、严肃查处个别行政部门有令不行、有禁不止、政令不畅、政策规定不落实的问题。二要抓好各项地方性法规、政策规章、政府各部门规范性文件的清理。凡是不符合“三个有利于”标准的，该修改的立即修改，该废止的坚决废止。三要抓好影响软环境建设典型案件的查处。对滥用职权乱收费、乱罚款、乱摊派、“吃拿卡要报”等方面的典型案件公开曝光，严肃处理。四要抓好制度建设。建立和完善“一站式”服务集中审批制度、规范收费制度和工作责任追究制度，全面推行政务公开、村务公开、厂务公开、财务公开，主动接受社会和群众监督。要把经济发展软环境建设作为一项长期的硬任务来抓，尽快形成符合加快经济发展要求的良好的政策环境、完备的制度环境、公正的法制环境和优质的服务环境。', '建设文明发达的新白城是新世纪赋予我们的使命。要坚持两个文明一起抓，大力开展创建文明城镇、文明单位、文明社区、文明村屯、文明户活动，抓好科技、卫生、文化三下乡，提高精神文明建设水平。要加大科技体制改革调整力度，加快建立和培育科技创新机制，引导科教工作同经济发展相结合。应用型科研院所要全面转制为企业。小型科研院所要彻底放开，转为民营科技企业，面向市场自求生存，竞争发展。', '搞好教育结构调整，培养白城经济社会的适用人才。要组建白城职业技术学院，办好白城师范高等专科学校分校和白求恩医大白城医学院。搞好本地大中专学校的调整重组，组建职业技术教育中心。调整农村中小学布局，搞好内部管理体制改革，提高教学质量，推进素质教育进程。促进学校后勤管理社会化，建立新的管理体制和运行机制。', '加快医疗卫生体制改革步伐，加强药品市场管理，全面开展爱国卫生运动，争创省级卫生城市。高度重视计划生育工作，控制人口增长。', '大力开展丰富多彩的群众性文体活动，加强文化、体育设施建设。努力提高广播电视的宣传质量。教育群众相信科学，反对迷信，移风易俗。积极发展其他社会事业，不断满足人民群众日益增长的物质文化生活需要，促进经济社会协调健康发展。加强国防教育，增强全民国防意识，巩固双拥模范城建设成果。', '要认真按照中央和省委的部署，继续开展与“法轮功”邪教组织的斗争。进一步做好练习者的教育转化工作，加强对重点人员的监控，坚决防止反弹。同时严厉打击其他邪教组织，取缔非法宗教活动，确保政治稳定。', '高度重视信访工作，进一步落实信访工作领导责任制，增强做好信访工作的政治责任感。加强超前排查和矛盾化解工作，对带有苗头性、倾向性的信访问题，要提前介入，主动工作，把矛盾化解在萌芽状态。充分发挥市长公开电话作用，建立有效的处理问题、反馈信息工作网络，努力为群众排忧解难，密切同人民群众的联系。', '抓好农村扶贫攻坚。以解决贫困人口温饱问题为核心，以改善贫困地区基本生产条件和发展种养业为重点，帮助贫困地区、贫困人口解决实际困难，保证今年有12.1万人脱贫。', '认真做好再就业和社会保障工作。多途径、多渠道开拓就业门路，搞好劳务输出，千方百计促进下岗职工再就业。严格审查认定下岗职工进站条件，有进有出，出大于进，确保进站下岗职工领到基本生活费。抓好养老保险工作，统筹覆盖面要达到100%，养老金社会化发放率要达到60%。', '加强社会治安综合治理，严厉打击各类刑事犯罪活动。加强对重大刑事案件的侦破工作，提高办案质量和效率。强化防范措施，预防和减少犯罪，维护社会治安秩序。广泛开展法律宣传教育，不断增强全民的法治意识。积极开展隐蔽战线斗争，维护国家安全。要进一步做好民族宗教、人民防空、防震减灾、社会救济、残疾人和红十字会等工作，为改革开放和白城的经济建设创造稳定的社会环境。', '加强理论学习，增强政治敏锐性。提高学习的自觉性，深刻理解马克思主义、毛泽东思想，特别是邓小平理论的精神实质，坚持党的基本路线不动摇，从政治上观察和处理问题，不断增强政治敏锐性和政治鉴别力。自觉坚决地同党中央保持一致，全面正确地贯彻党的路线、方针和政策。坚持理论联系实际，把学习政治理论同学习市场经济理论、专业知识、科学知识结合起来，增强认识和把握经济社会发展规律的能力，提高领导经济社会加快发展的本领。', '充分发扬民主，实行科学决策。高度重视规划、决策和措施的科学论证，加强民主决策制度建设。充分发挥专家、学者的作用，密切同各民主党派、工商联和工会、共青团、妇联等人民团体的联系。在重大决策做出前要深入调查研究，广泛听取社会各界、方方面面的意见，反复研究论证。在决策中要发挥集体智慧，进行充分的讨论，以提高决策的民主化、科学化水平。', '加强法制建设，做到依法行政。自觉接受人大的依法监督和工作监督，认真执行人民代表大会及其常委会的决议、决定，定期报告工作。积极支持人民政协履行职能，自觉接受民主监督。认真办理人民代表和政协委员的建议、提案。深入开展普法教育，有针对性地向全民普及法律知识，增强各级干部和广大群众的法律意识，提高依法办事的自觉性。建立和完善行政执法责任制，严格规范行政执法行为，推行政务公开，公正、公开、文明、规范地履行行政执法职责。', '转变工作作风，提高办事效率。要发扬党的一切从实际出发，密切联系群众的工作作风，坚持深入基层，深入群众，开展调查研究，掌握真实情况，听取基层和群众的呼声，帮助解决实际困难。要尊重群众的首创精神，认真推广典型经验，以此推动各项工作。要增强服务意识，建立高效的工作运行机制和严格的岗位责任制，满腔热情地为基层、为群众服务，勤奋工作，提高效率，争创一流业绩，争做更大贡献。', '抓好廉政建设，树立良好形象。认真落实党风廉政建设责任制，加大反腐倡廉工作力度，严格执行关于廉政建设各项规定。各级政府领导干部要自重、自省、自警、自厉，保持良好形象。坚决纠正部门特权思想和行业不正之风，认真解决群众反映强烈的问题，严肃查处违纪案件，纯洁机关队伍，建设廉洁、勤政、高效、务实的人民政府。', '各位代表，世纪之交，百业待兴。展望白城的未来，我们满怀信心。让我们高举邓小平理论的伟大旗帜，深入贯彻中央和省委、省政府的各项方针政策，在市委的领导下，解放思想，抢抓机遇，开拓创新，团结拼搏，全面完成今年的各项工作任务，使白城经济社会实现新的跨越！']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>52</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>集安市公安局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2011-01-25</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://xxgk.jilinja.gov.cn/zcbm/gaj_97975/ndbg/201708/t20170828_131863.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['年，是实施“十一五”规划的最后一年，是集安发展振兴的关键一年。一年来，在集安市委、市政府和通化市局的正确领导下，在市人大、市政协和社会各界的有力监督支持下，全市公安机关以创建通化地区最平安县市、打造通化地区第一流队伍为目标，主动服务，忠实履职，全市边境安定、社会安全、人民安居。', '侦破公安部督办、涉案金额近亿元的特大诈骗、持假币案件，收缴假美元1000余万元、德国马克1600余万元。', '省公安厅、通化市局挂牌督办的以袁晓军为首、集高利贷等多种犯罪为一体的团伙案正在逐步深入。重拳打击锋芒性犯罪，在通化地区率先攻克技术开锁案件7起，4起现行命案全部告破，仅用14小时成功侦破“11.19”绑架人质案件。破获我市新中国成立以来涉案价值百万元的特大盗窃人参案件。', '侦破林业刑事犯罪案件37起，涉案立木材积2000余米，刘培友特大盗伐、滥伐林木团伙案一举抓获犯罪嫌疑人20人。一年来，全市公安机关共侦破现行刑事案件383起，打处334人，同比破案、打处实现了双提高的目标。', '收缴子弹、雷管、炮弹3300余发，炸药940余克、枪支16支，管制刀具57把；销毁雷管、导爆管23600余枚，炸药5530余克，枪支111支。以场所整治为根本，集中开展旅店、网吧、游艺厅等场所的清理整治，责令整改22家，停业整顿35家，取缔非法经营旅店7家，收缴销毁赌博机76台。以严控交通事故为目标，培训全市大型客货运、危化物品运输车辆和校车驾驶员600余人，检查车辆390余台。加强“303”线的巡查和五女峰段的死看死守，并实行24小时勤务制，提示教育、强制检查过往车辆，处罚交通违法行为9000余人次。交通事故四项指标同比大幅下降，其中死亡人数同比下降40多个百分点。以落实消防分级管理责任为契机，坚持内外管理相统一，逐层逐人逐个单位落实消防隐患排查整治责任，火灾事故四项指标同比大幅下降。以建立完善多警联动的巡防体系为手段，加强易发案时段、路段、区域的日常巡逻；突出两节、两会安保，每天抽调50人、15台车，进小区、上街路开展夜治安巡逻；加强学生上下学及晚课的重点时段、重点路段的巡逻执勤，保证了校园及师生的安全。一年来，全市发案同比下降15.5个百分点。', '新建了200余平方米的审讯室，改建、新建审讯室16个，并配置了同步录音、录像设备。建设了330余平方米的民警食堂，改善了民警工作生活条件。', '天网工程建设将在明春开工，集道路监控、电子抓拍、交通卡口、定点测速于一体的社会防控网基本形成', '全员取得执法认证考试资格；出台了各岗位执法标准等规范性文件65个；全面推行案件主办人、单位法制员、所队一把手、法制室主任、分管副局长五级把关制度，着力纠治执法突出问题。', '深入开展“三无所队”创建、述职述法述廉等活动，主动向市人大、市政协和社会各阶层汇报公安工作，广泛征求、着力整改一批群众关注的热点问题。', '严格落实局领导接访制度，共接待上访群众56人，张圣博、张景玉、陈奎安等多年来重点缠访、闹访、重复访的涉警问题得到了解决，省厅予以肯定。', '启动了无下岗警嫂工程。开辟了民警重大伤病优先救治绿色通道。民警年体检指标增多。注入12万元资金建立了民警互助基金会，并对2名大病民警进行了救治。组织61名基层一线民警赴南方学习考察', '成绩来之不易，经验弥足珍贵，给我们带来许多深刻启示：一是只有坚持党委政府和通化市局的坚强领导，公安工作才能方向正确，保障有力；二是只有坚持人大、政协和社会各界的监督支持，公安工作才能科学发展，与时俱进；三是只有坚持服务发展，公安工作才能把握大局，准确定位；四是只有坚持从严治警和从优待警，公安工作才能基础坚实，充满活力；五是只有坚持维护团结、凝聚力量，公安工作才能提升层次，成功至胜。这些启示都是我们在实践中获取的宝贵财富，更是我们在今后的工作中应该深入继承和广泛弘扬的。', '集中开展基础工作大调研，认真研究、切实找准事关发展的基础性工作，逐个警种查缺补漏，逐个部门巩固加强，逐项工作调整完善。', '命案现场、8类案件的现场勘查率、录入率达到100%，现场物证提取率和发挥作用率达到部、省要求，发现提取指纹的现场数量达到立案总数的8%以上。', '按上级公安机关要求，完成警务区重新划分、警务室重新设置和协警人员配备工作，达到一区一警一协警或一区多警多协警的标准。派出所警力要占总警力的40%，社区民警要占派出所警力的65%以上，并保证每周不少于3个工作日下社区，人均要管理实有人口3000至5000人。要完善派出所、警务室、交管大队等单位调解室建设，全年治安案件调解数要达到查处总数的50%以上。', '完善征地拆迁、企业改制等可能引发的不安定因素滚动排查和研判预警机制，做到预知预警预防。按照省厅、通化市局要求，结合实际组建公安特警队、消防战勤队和反恐突击队，每季度开展1次模拟实战演练，确保重大突发事件处变不惊、举措得当，应对有效。要根据舆情、案情和社情，适时召开新闻发布会，提高应对媒体、引导舆论的能力，防止涉警舆情炒作事件发生。', '坚持公安边防联合，社会力量联动，建好街面防控、社区防控、视频监控、单位内部防控、区域警务协作和虚拟社会防控6张网，加快推进天网工程建设步伐。', '重点打击流窜犯罪、严暴犯罪、锋芒性、季节性以及技术性犯罪。其中，刑事技术破案要占破案总数的12%以上，利用情报信息破案要达到30%。', '坚持专案专班，坚决打好地下黑彩、非法集资、高利贷等涉众型经济犯罪的攻坚战，保障民生，服务发展。', '坚持大案经营，重案突破，着力攻坚跨国贩毒、南毒北进及新型毒品“曲马多”犯罪，实现“挖根”抓毒枭、“断线”摧网络，破一案、带一串、扫一片的打击效果。', '围绕中国共产党成立90周年安保，重点突出治安、交通、消防隐患的排查整治，并将消防分级管理、治枪缉爆经验、场所清理整治和校园安保、校车管理等成熟经验转化为长效机制。特别是要将“303”线险路险段的死看死守、提示教育、严管重罚等措施制度化。年内，交通管理工作要进入全国平安畅通县市行列。', '。完善以证管人、以房管人、以业管人、以网管人、以人管人的流动人口服务管理新机制。要加强对外国人入境、停留、居住动态化管理，纳入实有人口管理。', '深入开展“坚持执法为民、树立良好警风”和三无所队创建等活动。深化轮值轮训工作，执法资格认证考试要100%过关。全面推行主办警官、法制员制度，加强执法监督检查，确保执法安全，年内各所队均要达到执法规范化建设示范单位标准。完善警务室预防、基层所队化解、市局息防三道防线，8月底前，09年以前的涉警信访积案要化解90%以上，09年以后的新案要化解80%以上，全年进京上访人数同比下降60%，省厅交办案件化解率达80%以上。', '、全年基层民警受表彰总数要占85%以上。2、努力协调帮助民警家属再就业。3、建立功模民警、因公牺牲、伤残和特困民警子女入学优惠奖励和救助机制。4、继续落实民警年休假制度，事关长远健康的指标要纳入体检范围。5、进一步完善因公负伤、特困民警救助机制和重大伤病救治“绿色通道”，年内注入救助基金不少于10万元。6、建立民警过生日送祝福、民警生病住院探望制度。7、从严从重处理暴力袭警、妨碍公务、诬告陷害民警的违法犯罪行为。', '建立领导包保企业、部门包保个体工商业户制度，结合爱民实践走访、开门评警活动，广泛征求、认真整改、着力解决群众期盼的现实问题，年内组织2次人大代表、政协委员和社会各界群众视察公安工作。继续加大软环境建设力度，重点解决个别部门、个别岗位、个别民警吃拿卡要、冷硬横推等涉软问题。']</t>
         </is>
